--- a/data.xlsx
+++ b/data.xlsx
@@ -2475,7 +2475,7 @@
     <t xml:space="preserve">Kalyani Government Engineering College </t>
   </si>
   <si>
-    <t>Sarvsh Kumar</t>
+    <t>Sarvesh Kumar</t>
   </si>
   <si>
     <t>Jayesh Pawar</t>
@@ -9500,14 +9500,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -9815,7 +9815,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -9895,7 +9895,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -10064,7 +10064,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -10139,7 +10139,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -10199,7 +10199,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -10454,7 +10454,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -10469,7 +10469,7 @@
         <v>90</v>
       </c>
       <c r="E46" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
@@ -10484,7 +10484,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
@@ -10499,7 +10499,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -10679,7 +10679,7 @@
         <v>116</v>
       </c>
       <c r="E60" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -10694,7 +10694,7 @@
         <v>116</v>
       </c>
       <c r="E61" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -10709,7 +10709,7 @@
         <v>118</v>
       </c>
       <c r="E62" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -10724,7 +10724,7 @@
         <v>120</v>
       </c>
       <c r="E63" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
@@ -10754,7 +10754,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
@@ -10769,7 +10769,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
@@ -11009,7 +11009,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -11159,7 +11159,7 @@
         <v>178</v>
       </c>
       <c r="E92" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -11279,7 +11279,7 @@
         <v>19</v>
       </c>
       <c r="E100" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -11534,7 +11534,7 @@
         <v>223</v>
       </c>
       <c r="E117" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
@@ -11579,7 +11579,7 @@
         <v>229</v>
       </c>
       <c r="E120" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
@@ -11744,7 +11744,7 @@
         <v>251</v>
       </c>
       <c r="E131" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
@@ -11789,7 +11789,7 @@
         <v>257</v>
       </c>
       <c r="E134" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
@@ -11969,7 +11969,7 @@
         <v>281</v>
       </c>
       <c r="E146" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
@@ -11984,7 +11984,7 @@
         <v>39</v>
       </c>
       <c r="E147" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
@@ -12074,7 +12074,7 @@
         <v>294</v>
       </c>
       <c r="E153" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
@@ -12359,7 +12359,7 @@
         <v>330</v>
       </c>
       <c r="E172" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -12674,7 +12674,7 @@
         <v>369</v>
       </c>
       <c r="E193" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -12764,7 +12764,7 @@
         <v>52</v>
       </c>
       <c r="E199" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
@@ -12884,7 +12884,7 @@
         <v>394</v>
       </c>
       <c r="E207" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
@@ -12899,7 +12899,7 @@
         <v>396</v>
       </c>
       <c r="E208" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
@@ -12944,7 +12944,7 @@
         <v>402</v>
       </c>
       <c r="E211" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -13079,7 +13079,7 @@
         <v>417</v>
       </c>
       <c r="E220" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="221" ht="14.25" customHeight="1">
@@ -13109,7 +13109,7 @@
         <v>421</v>
       </c>
       <c r="E222" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="223" ht="14.25" customHeight="1">
@@ -13169,7 +13169,7 @@
         <v>429</v>
       </c>
       <c r="E226" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="227" ht="14.25" customHeight="1">
@@ -13274,7 +13274,7 @@
         <v>443</v>
       </c>
       <c r="E233" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="234" ht="14.25" customHeight="1">
@@ -13409,7 +13409,7 @@
         <v>461</v>
       </c>
       <c r="E242" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="243" ht="14.25" customHeight="1">
@@ -13454,7 +13454,7 @@
         <v>467</v>
       </c>
       <c r="E245" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="246" ht="14.25" customHeight="1">
@@ -13469,7 +13469,7 @@
         <v>469</v>
       </c>
       <c r="E246" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="247" ht="14.25" customHeight="1">
@@ -13589,7 +13589,7 @@
         <v>485</v>
       </c>
       <c r="E254" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
@@ -13754,7 +13754,7 @@
         <v>487</v>
       </c>
       <c r="E265" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="266" ht="14.25" customHeight="1">
@@ -13829,7 +13829,7 @@
         <v>512</v>
       </c>
       <c r="E270" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="271" ht="14.25" customHeight="1">
@@ -13859,7 +13859,7 @@
         <v>516</v>
       </c>
       <c r="E272" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="273" ht="14.25" customHeight="1">
@@ -13979,7 +13979,7 @@
         <v>221</v>
       </c>
       <c r="E280" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="281" ht="14.25" customHeight="1">
@@ -14009,7 +14009,7 @@
         <v>533</v>
       </c>
       <c r="E282" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="283" ht="14.25" customHeight="1">
@@ -14054,7 +14054,7 @@
         <v>539</v>
       </c>
       <c r="E285" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="286" ht="14.25" customHeight="1">
@@ -14099,7 +14099,7 @@
         <v>221</v>
       </c>
       <c r="E288" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="289" ht="14.25" customHeight="1">
@@ -14399,7 +14399,7 @@
         <v>574</v>
       </c>
       <c r="E308" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="309" ht="14.25" customHeight="1">
@@ -14489,7 +14489,7 @@
         <v>585</v>
       </c>
       <c r="E314" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="315" ht="14.25" customHeight="1">
@@ -14624,7 +14624,7 @@
         <v>601</v>
       </c>
       <c r="E323" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="324" ht="14.25" customHeight="1">
@@ -14699,7 +14699,7 @@
         <v>611</v>
       </c>
       <c r="E328" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="329" ht="14.25" customHeight="1">
@@ -14774,7 +14774,7 @@
         <v>621</v>
       </c>
       <c r="E333" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="334" ht="14.25" customHeight="1">
@@ -14984,7 +14984,7 @@
         <v>643</v>
       </c>
       <c r="E347" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="348" ht="14.25" customHeight="1">
@@ -15014,7 +15014,7 @@
         <v>607</v>
       </c>
       <c r="E349" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="350" ht="14.25" customHeight="1">
@@ -15089,7 +15089,7 @@
         <v>655</v>
       </c>
       <c r="E354" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="355" ht="14.25" customHeight="1">
@@ -15119,7 +15119,7 @@
         <v>52</v>
       </c>
       <c r="E356" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="357" ht="14.25" customHeight="1">
@@ -15134,7 +15134,7 @@
         <v>52</v>
       </c>
       <c r="E357" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="358" ht="14.25" customHeight="1">
@@ -15284,7 +15284,7 @@
         <v>678</v>
       </c>
       <c r="E367" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="368" ht="14.25" customHeight="1">
@@ -15494,7 +15494,7 @@
         <v>704</v>
       </c>
       <c r="E381" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="382" ht="14.25" customHeight="1">
@@ -15659,7 +15659,7 @@
         <v>120</v>
       </c>
       <c r="E392" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
@@ -15674,7 +15674,7 @@
         <v>501</v>
       </c>
       <c r="E393" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
@@ -15809,7 +15809,7 @@
         <v>739</v>
       </c>
       <c r="E402" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="403" ht="14.25" customHeight="1">
@@ -15854,7 +15854,7 @@
         <v>745</v>
       </c>
       <c r="E405" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="406" ht="14.25" customHeight="1">
@@ -15884,7 +15884,7 @@
         <v>749</v>
       </c>
       <c r="E407" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="408" ht="14.25" customHeight="1">
@@ -16004,7 +16004,7 @@
         <v>765</v>
       </c>
       <c r="E415" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="416" ht="14.25" customHeight="1">
@@ -16109,7 +16109,7 @@
         <v>777</v>
       </c>
       <c r="E422" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="423" ht="14.25" customHeight="1">
@@ -16154,7 +16154,7 @@
         <v>783</v>
       </c>
       <c r="E425" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="426" ht="14.25" customHeight="1">
@@ -16259,7 +16259,7 @@
         <v>797</v>
       </c>
       <c r="E432" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="433" ht="14.25" customHeight="1">
@@ -16274,7 +16274,7 @@
         <v>799</v>
       </c>
       <c r="E433" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="434" ht="14.25" customHeight="1">
@@ -16402,14 +16402,14 @@
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="C442" s="5" t="s">
+      <c r="C442" s="6" t="s">
         <v>814</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>221</v>
       </c>
       <c r="E442" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="443" ht="14.25" customHeight="1">
@@ -16634,7 +16634,7 @@
         <v>837</v>
       </c>
       <c r="E457" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="458" ht="14.25" customHeight="1">
@@ -16664,7 +16664,7 @@
         <v>840</v>
       </c>
       <c r="E459" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="460" ht="14.25" customHeight="1">
@@ -16709,7 +16709,7 @@
         <v>846</v>
       </c>
       <c r="E462" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="463" ht="14.25" customHeight="1">
@@ -16784,7 +16784,7 @@
         <v>856</v>
       </c>
       <c r="E467" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="468" ht="14.25" customHeight="1">
@@ -16799,7 +16799,7 @@
         <v>858</v>
       </c>
       <c r="E468" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="469" ht="14.25" customHeight="1">
@@ -16814,7 +16814,7 @@
         <v>286</v>
       </c>
       <c r="E469" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="470" ht="14.25" customHeight="1">
@@ -16874,7 +16874,7 @@
         <v>866</v>
       </c>
       <c r="E473" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="474" ht="14.25" customHeight="1">
@@ -16994,7 +16994,7 @@
         <v>757</v>
       </c>
       <c r="E481" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="482" ht="14.25" customHeight="1">
@@ -17159,7 +17159,7 @@
         <v>265</v>
       </c>
       <c r="E492" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="493" ht="14.25" customHeight="1">
@@ -17174,7 +17174,7 @@
         <v>898</v>
       </c>
       <c r="E493" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="494" ht="14.25" customHeight="1">
@@ -17204,7 +17204,7 @@
         <v>417</v>
       </c>
       <c r="E495" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="496" ht="14.25" customHeight="1">
@@ -17294,7 +17294,7 @@
         <v>913</v>
       </c>
       <c r="E501" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="502" ht="14.25" customHeight="1">
@@ -17459,7 +17459,7 @@
         <v>934</v>
       </c>
       <c r="E512" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="513" ht="14.25" customHeight="1">
@@ -17470,7 +17470,7 @@
       <c r="C513" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="D513" s="6" t="s">
+      <c r="D513" s="7" t="s">
         <v>936</v>
       </c>
       <c r="E513" s="3">
@@ -17549,7 +17549,7 @@
         <v>946</v>
       </c>
       <c r="E518" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="519" ht="14.25" customHeight="1">
@@ -17579,7 +17579,7 @@
         <v>950</v>
       </c>
       <c r="E520" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="521" ht="14.25" customHeight="1">
@@ -17759,7 +17759,7 @@
         <v>971</v>
       </c>
       <c r="E532" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="533" ht="14.25" customHeight="1">
@@ -17774,7 +17774,7 @@
         <v>973</v>
       </c>
       <c r="E533" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="534" ht="14.25" customHeight="1">
@@ -17819,7 +17819,7 @@
         <v>978</v>
       </c>
       <c r="E536" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="537" ht="14.25" customHeight="1">
@@ -17849,7 +17849,7 @@
         <v>981</v>
       </c>
       <c r="E538" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="539" ht="14.25" customHeight="1">
@@ -17984,7 +17984,7 @@
         <v>120</v>
       </c>
       <c r="E547" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="548" ht="14.25" customHeight="1">
@@ -18044,7 +18044,7 @@
         <v>576</v>
       </c>
       <c r="E551" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="552" ht="14.25" customHeight="1">
@@ -18059,7 +18059,7 @@
         <v>1006</v>
       </c>
       <c r="E552" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="553" ht="14.25" customHeight="1">
@@ -18104,7 +18104,7 @@
         <v>1012</v>
       </c>
       <c r="E555" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="556" ht="14.25" customHeight="1">
@@ -18179,7 +18179,7 @@
         <v>607</v>
       </c>
       <c r="E560" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="561" ht="14.25" customHeight="1">
@@ -18194,7 +18194,7 @@
         <v>718</v>
       </c>
       <c r="E561" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="562" ht="14.25" customHeight="1">
@@ -18494,7 +18494,7 @@
         <v>1057</v>
       </c>
       <c r="E581" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="582" ht="14.25" customHeight="1">
@@ -18584,7 +18584,7 @@
         <v>1069</v>
       </c>
       <c r="E587" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="588" ht="14.25" customHeight="1">
@@ -18659,7 +18659,7 @@
         <v>507</v>
       </c>
       <c r="E592" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="593" ht="14.25" customHeight="1">
@@ -18734,7 +18734,7 @@
         <v>1085</v>
       </c>
       <c r="E597" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="598" ht="14.25" customHeight="1">
@@ -18764,7 +18764,7 @@
         <v>1089</v>
       </c>
       <c r="E599" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="600" ht="14.25" customHeight="1">
@@ -18839,7 +18839,7 @@
         <v>1098</v>
       </c>
       <c r="E604" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="605" ht="14.25" customHeight="1">
@@ -18959,7 +18959,7 @@
         <v>1110</v>
       </c>
       <c r="E612" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="613" ht="14.25" customHeight="1">
@@ -18974,7 +18974,7 @@
         <v>1112</v>
       </c>
       <c r="E613" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="614" ht="14.25" customHeight="1">
@@ -19124,7 +19124,7 @@
         <v>1131</v>
       </c>
       <c r="E623" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="624" ht="14.25" customHeight="1">
@@ -19154,7 +19154,7 @@
         <v>1135</v>
       </c>
       <c r="E625" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="626" ht="14.25" customHeight="1">
@@ -19559,7 +19559,7 @@
         <v>82</v>
       </c>
       <c r="E652" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="653" ht="14.25" customHeight="1">
@@ -19694,7 +19694,7 @@
         <v>1197</v>
       </c>
       <c r="E661" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="662" ht="14.25" customHeight="1">
@@ -19724,7 +19724,7 @@
         <v>1201</v>
       </c>
       <c r="E663" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="664" ht="14.25" customHeight="1">
@@ -19739,7 +19739,7 @@
         <v>1203</v>
       </c>
       <c r="E664" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="665" ht="14.25" customHeight="1">
@@ -19844,7 +19844,7 @@
         <v>1216</v>
       </c>
       <c r="E671" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="672" ht="14.25" customHeight="1">
@@ -19859,7 +19859,7 @@
         <v>1218</v>
       </c>
       <c r="E672" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="673" ht="14.25" customHeight="1">
@@ -19919,7 +19919,7 @@
         <v>1226</v>
       </c>
       <c r="E676" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="677" ht="14.25" customHeight="1">
@@ -19934,7 +19934,7 @@
         <v>1228</v>
       </c>
       <c r="E677" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="678" ht="14.25" customHeight="1">
@@ -19949,7 +19949,7 @@
         <v>1230</v>
       </c>
       <c r="E678" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="679" ht="14.25" customHeight="1">
@@ -19964,7 +19964,7 @@
         <v>1232</v>
       </c>
       <c r="E679" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="680" ht="14.25" customHeight="1">
@@ -19994,7 +19994,7 @@
         <v>1235</v>
       </c>
       <c r="E681" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="682" ht="14.25" customHeight="1">
@@ -20039,7 +20039,7 @@
         <v>1240</v>
       </c>
       <c r="E684" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="685" ht="14.25" customHeight="1">
@@ -20219,7 +20219,7 @@
         <v>1262</v>
       </c>
       <c r="E696" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="697" ht="14.25" customHeight="1">
@@ -20264,7 +20264,7 @@
         <v>1268</v>
       </c>
       <c r="E699" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="700" ht="14.25" customHeight="1">
@@ -20279,7 +20279,7 @@
         <v>1270</v>
       </c>
       <c r="E700" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="701" ht="14.25" customHeight="1">
@@ -20324,7 +20324,7 @@
         <v>1276</v>
       </c>
       <c r="E703" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="704" ht="14.25" customHeight="1">
@@ -20339,7 +20339,7 @@
         <v>1278</v>
       </c>
       <c r="E704" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="705" ht="14.25" customHeight="1">
@@ -20444,7 +20444,7 @@
         <v>1290</v>
       </c>
       <c r="E711" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="712" ht="14.25" customHeight="1">
@@ -20485,7 +20485,7 @@
       <c r="C714" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="D714" s="7">
+      <c r="D714" s="8">
         <v>9.547170668E9</v>
       </c>
       <c r="E714" s="3">
@@ -20549,7 +20549,7 @@
         <v>1302</v>
       </c>
       <c r="E718" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="719" ht="14.25" customHeight="1">
@@ -20579,7 +20579,7 @@
         <v>1305</v>
       </c>
       <c r="E720" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="721" ht="14.25" customHeight="1">
@@ -20864,7 +20864,7 @@
         <v>31</v>
       </c>
       <c r="E739" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="740" ht="14.25" customHeight="1">
@@ -21209,7 +21209,7 @@
         <v>1379</v>
       </c>
       <c r="E762" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="763" ht="14.25" customHeight="1">
@@ -21344,7 +21344,7 @@
         <v>1395</v>
       </c>
       <c r="E771" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="772" ht="14.25" customHeight="1">
@@ -21479,7 +21479,7 @@
         <v>1409</v>
       </c>
       <c r="E780" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="781" ht="14.25" customHeight="1">
@@ -22049,7 +22049,7 @@
         <v>29</v>
       </c>
       <c r="E818" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="819" ht="14.25" customHeight="1">
@@ -22064,7 +22064,7 @@
         <v>1480</v>
       </c>
       <c r="E819" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="820" ht="14.25" customHeight="1">
@@ -22154,7 +22154,7 @@
         <v>29</v>
       </c>
       <c r="E825" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="826" ht="14.25" customHeight="1">
@@ -22214,7 +22214,7 @@
         <v>52</v>
       </c>
       <c r="E829" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="830" ht="14.25" customHeight="1">
@@ -22229,7 +22229,7 @@
         <v>1498</v>
       </c>
       <c r="E830" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="831" ht="14.25" customHeight="1">
@@ -22349,7 +22349,7 @@
         <v>1513</v>
       </c>
       <c r="E838" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="839" ht="14.25" customHeight="1">
@@ -22364,7 +22364,7 @@
         <v>1515</v>
       </c>
       <c r="E839" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="840" ht="14.25" customHeight="1">
@@ -22409,7 +22409,7 @@
         <v>1521</v>
       </c>
       <c r="E842" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="843" ht="14.25" customHeight="1">
@@ -22709,7 +22709,7 @@
         <v>1557</v>
       </c>
       <c r="E862" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="863" ht="14.25" customHeight="1">
@@ -22739,7 +22739,7 @@
         <v>1561</v>
       </c>
       <c r="E864" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="865" ht="14.25" customHeight="1">
@@ -22814,7 +22814,7 @@
         <v>1567</v>
       </c>
       <c r="E869" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="870" ht="14.25" customHeight="1">
@@ -23024,7 +23024,7 @@
         <v>999</v>
       </c>
       <c r="E883" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="884" ht="14.25" customHeight="1">
@@ -23264,7 +23264,7 @@
         <v>1620</v>
       </c>
       <c r="E899" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="900" ht="14.25" customHeight="1">
@@ -23294,7 +23294,7 @@
         <v>1624</v>
       </c>
       <c r="E901" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="902" ht="14.25" customHeight="1">
@@ -23444,7 +23444,7 @@
         <v>1641</v>
       </c>
       <c r="E911" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="912" ht="14.25" customHeight="1">
@@ -23474,7 +23474,7 @@
         <v>1645</v>
       </c>
       <c r="E913" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="914" ht="14.25" customHeight="1">
@@ -23849,7 +23849,7 @@
         <v>1690</v>
       </c>
       <c r="E938" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="939" ht="14.25" customHeight="1">
@@ -23969,7 +23969,7 @@
         <v>1705</v>
       </c>
       <c r="E946" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="947" ht="14.25" customHeight="1">
@@ -24014,7 +24014,7 @@
         <v>1710</v>
       </c>
       <c r="E949" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="950" ht="14.25" customHeight="1">
@@ -24164,7 +24164,7 @@
         <v>1729</v>
       </c>
       <c r="E959" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="960" ht="14.25" customHeight="1">
@@ -24209,7 +24209,7 @@
         <v>1735</v>
       </c>
       <c r="E962" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="963" ht="14.25" customHeight="1">
@@ -24344,7 +24344,7 @@
         <v>1749</v>
       </c>
       <c r="E971" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="972" ht="14.25" customHeight="1">
@@ -24599,7 +24599,7 @@
         <v>1774</v>
       </c>
       <c r="E988" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="989" ht="14.25" customHeight="1">
@@ -24629,7 +24629,7 @@
         <v>624</v>
       </c>
       <c r="E990" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="991" ht="14.25" customHeight="1">
@@ -24704,7 +24704,7 @@
         <v>1001</v>
       </c>
       <c r="E995" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="996" ht="14.25" customHeight="1">
@@ -24764,7 +24764,7 @@
         <v>1790</v>
       </c>
       <c r="E999" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
@@ -24959,7 +24959,7 @@
         <v>641</v>
       </c>
       <c r="E1012" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1013" ht="14.25" customHeight="1">
@@ -25019,7 +25019,7 @@
         <v>1821</v>
       </c>
       <c r="E1016" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1017" ht="14.25" customHeight="1">
@@ -25124,7 +25124,7 @@
         <v>1834</v>
       </c>
       <c r="E1023" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1024" ht="14.25" customHeight="1">
@@ -25304,7 +25304,7 @@
         <v>1855</v>
       </c>
       <c r="E1035" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1036" ht="14.25" customHeight="1">
@@ -25334,7 +25334,7 @@
         <v>52</v>
       </c>
       <c r="E1037" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1038" ht="14.25" customHeight="1">
@@ -25859,7 +25859,7 @@
         <v>1827</v>
       </c>
       <c r="E1072" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1073" ht="14.25" customHeight="1">
@@ -25874,7 +25874,7 @@
         <v>72</v>
       </c>
       <c r="E1073" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1074" ht="14.25" customHeight="1">
@@ -25919,7 +25919,7 @@
         <v>221</v>
       </c>
       <c r="E1076" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1077" ht="14.25" customHeight="1">
@@ -26129,7 +26129,7 @@
         <v>17</v>
       </c>
       <c r="E1090" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1091" ht="14.25" customHeight="1">
@@ -26144,7 +26144,7 @@
         <v>1946</v>
       </c>
       <c r="E1091" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1092" ht="14.25" customHeight="1">
@@ -26369,7 +26369,7 @@
         <v>390</v>
       </c>
       <c r="E1106" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1107" ht="14.25" customHeight="1">
@@ -26519,7 +26519,7 @@
         <v>505</v>
       </c>
       <c r="E1116" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1117" ht="14.25" customHeight="1">
@@ -26564,7 +26564,7 @@
         <v>1995</v>
       </c>
       <c r="E1119" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1120" ht="14.25" customHeight="1">
@@ -26594,7 +26594,7 @@
         <v>1999</v>
       </c>
       <c r="E1121" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1122" ht="14.25" customHeight="1">
@@ -26624,7 +26624,7 @@
         <v>2002</v>
       </c>
       <c r="E1123" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1124" ht="14.25" customHeight="1">
@@ -26639,7 +26639,7 @@
         <v>93</v>
       </c>
       <c r="E1124" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1125" ht="14.25" customHeight="1">
@@ -27044,7 +27044,7 @@
         <v>39</v>
       </c>
       <c r="E1151" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1152" ht="14.25" customHeight="1">
@@ -27089,7 +27089,7 @@
         <v>1484</v>
       </c>
       <c r="E1154" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1155" ht="14.25" customHeight="1">
@@ -27104,7 +27104,7 @@
         <v>2054</v>
       </c>
       <c r="E1155" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1156" ht="14.25" customHeight="1">
@@ -27224,7 +27224,7 @@
         <v>78</v>
       </c>
       <c r="E1163" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1164" ht="14.25" customHeight="1">
@@ -27359,7 +27359,7 @@
         <v>2081</v>
       </c>
       <c r="E1172" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1173" ht="14.25" customHeight="1">
@@ -27689,7 +27689,7 @@
         <v>2120</v>
       </c>
       <c r="E1194" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1195" ht="14.25" customHeight="1">
@@ -27719,7 +27719,7 @@
         <v>2124</v>
       </c>
       <c r="E1196" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1197" ht="14.25" customHeight="1">
@@ -27974,7 +27974,7 @@
         <v>858</v>
       </c>
       <c r="E1213" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1214" ht="14.25" customHeight="1">
@@ -28019,7 +28019,7 @@
         <v>2159</v>
       </c>
       <c r="E1216" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1217" ht="14.25" customHeight="1">
@@ -28064,7 +28064,7 @@
         <v>2165</v>
       </c>
       <c r="E1219" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1220" ht="14.25" customHeight="1">
@@ -28139,7 +28139,7 @@
         <v>785</v>
       </c>
       <c r="E1224" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1225" ht="14.25" customHeight="1">
@@ -28199,7 +28199,7 @@
         <v>1827</v>
       </c>
       <c r="E1228" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1229" ht="14.25" customHeight="1">
@@ -28409,7 +28409,7 @@
         <v>2203</v>
       </c>
       <c r="E1242" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1243" ht="14.25" customHeight="1">
@@ -28484,7 +28484,7 @@
         <v>2212</v>
       </c>
       <c r="E1247" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1248" ht="14.25" customHeight="1">
@@ -28574,7 +28574,7 @@
         <v>2222</v>
       </c>
       <c r="E1253" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1254" ht="14.25" customHeight="1">
@@ -28649,7 +28649,7 @@
         <v>13</v>
       </c>
       <c r="E1258" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1259" ht="14.25" customHeight="1">
@@ -28679,7 +28679,7 @@
         <v>2233</v>
       </c>
       <c r="E1260" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1261" ht="14.25" customHeight="1">
@@ -28724,7 +28724,7 @@
         <v>221</v>
       </c>
       <c r="E1263" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1264" ht="14.25" customHeight="1">
@@ -28769,7 +28769,7 @@
         <v>2242</v>
       </c>
       <c r="E1266" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1267" ht="14.25" customHeight="1">
@@ -28919,7 +28919,7 @@
         <v>2259</v>
       </c>
       <c r="E1276" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1277" ht="14.25" customHeight="1">
@@ -28949,7 +28949,7 @@
         <v>2263</v>
       </c>
       <c r="E1278" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1279" ht="14.25" customHeight="1">
@@ -28994,7 +28994,7 @@
         <v>2268</v>
       </c>
       <c r="E1281" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1282" ht="14.25" customHeight="1">
@@ -29054,7 +29054,7 @@
         <v>2274</v>
       </c>
       <c r="E1285" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1286" ht="14.25" customHeight="1">
@@ -29069,7 +29069,7 @@
         <v>2276</v>
       </c>
       <c r="E1286" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1287" ht="14.25" customHeight="1">
@@ -29174,7 +29174,7 @@
         <v>2283</v>
       </c>
       <c r="E1293" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1294" ht="14.25" customHeight="1">
@@ -29189,7 +29189,7 @@
         <v>1717</v>
       </c>
       <c r="E1294" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1295" ht="14.25" customHeight="1">
@@ -29204,7 +29204,7 @@
         <v>2290</v>
       </c>
       <c r="E1295" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1296" ht="14.25" customHeight="1">
@@ -29279,7 +29279,7 @@
         <v>2300</v>
       </c>
       <c r="E1300" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1301" ht="14.25" customHeight="1">
@@ -29294,7 +29294,7 @@
         <v>2302</v>
       </c>
       <c r="E1301" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1302" ht="14.25" customHeight="1">
@@ -29339,7 +29339,7 @@
         <v>25</v>
       </c>
       <c r="E1304" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1305" ht="14.25" customHeight="1">
@@ -29834,7 +29834,7 @@
         <v>319</v>
       </c>
       <c r="E1337" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1338" ht="14.25" customHeight="1">
@@ -30074,7 +30074,7 @@
         <v>2394</v>
       </c>
       <c r="E1353" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1354" ht="14.25" customHeight="1">
@@ -30269,7 +30269,7 @@
         <v>286</v>
       </c>
       <c r="E1366" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1367" ht="14.25" customHeight="1">
@@ -30359,7 +30359,7 @@
         <v>2424</v>
       </c>
       <c r="E1372" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1373" ht="14.25" customHeight="1">
@@ -30659,7 +30659,7 @@
         <v>2423</v>
       </c>
       <c r="E1392" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1393" ht="14.25" customHeight="1">
@@ -30689,7 +30689,7 @@
         <v>52</v>
       </c>
       <c r="E1394" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1395" ht="14.25" customHeight="1">
@@ -30719,7 +30719,7 @@
         <v>1350</v>
       </c>
       <c r="E1396" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1397" ht="14.25" customHeight="1">
@@ -30749,7 +30749,7 @@
         <v>2468</v>
       </c>
       <c r="E1398" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1399" ht="14.25" customHeight="1">
@@ -30914,7 +30914,7 @@
         <v>2488</v>
       </c>
       <c r="E1409" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1410" ht="14.25" customHeight="1">
@@ -30929,7 +30929,7 @@
         <v>2490</v>
       </c>
       <c r="E1410" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1411" ht="14.25" customHeight="1">
@@ -30974,7 +30974,7 @@
         <v>2495</v>
       </c>
       <c r="E1413" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1414" ht="14.25" customHeight="1">
@@ -31274,7 +31274,7 @@
         <v>2527</v>
       </c>
       <c r="E1433" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1434" ht="14.25" customHeight="1">
@@ -31424,7 +31424,7 @@
         <v>19</v>
       </c>
       <c r="E1443" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1444" ht="14.25" customHeight="1">
@@ -31544,7 +31544,7 @@
         <v>2553</v>
       </c>
       <c r="E1451" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1452" ht="14.25" customHeight="1">
@@ -31724,7 +31724,7 @@
         <v>2574</v>
       </c>
       <c r="E1463" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1464" ht="14.25" customHeight="1">
@@ -31769,7 +31769,7 @@
         <v>2580</v>
       </c>
       <c r="E1466" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1467" ht="14.25" customHeight="1">
@@ -31874,7 +31874,7 @@
         <v>2423</v>
       </c>
       <c r="E1473" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1474" ht="14.25" customHeight="1">
@@ -31934,7 +31934,7 @@
         <v>509</v>
       </c>
       <c r="E1477" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1478" ht="14.25" customHeight="1">
@@ -31949,7 +31949,7 @@
         <v>2597</v>
       </c>
       <c r="E1478" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1479" ht="14.25" customHeight="1">
@@ -32024,7 +32024,7 @@
         <v>2603</v>
       </c>
       <c r="E1483" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1484" ht="14.25" customHeight="1">
@@ -32084,7 +32084,7 @@
         <v>999</v>
       </c>
       <c r="E1487" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1488" ht="14.25" customHeight="1">
@@ -32099,7 +32099,7 @@
         <v>2611</v>
       </c>
       <c r="E1488" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1489" ht="14.25" customHeight="1">
@@ -32159,7 +32159,7 @@
         <v>2617</v>
       </c>
       <c r="E1492" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1493" ht="14.25" customHeight="1">
@@ -32174,7 +32174,7 @@
         <v>2619</v>
       </c>
       <c r="E1493" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1494" ht="14.25" customHeight="1">
@@ -32549,7 +32549,7 @@
         <v>2663</v>
       </c>
       <c r="E1518" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1519" ht="14.25" customHeight="1">
@@ -32714,7 +32714,7 @@
         <v>2659</v>
       </c>
       <c r="E1529" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1530" ht="14.25" customHeight="1">
@@ -32729,7 +32729,7 @@
         <v>2683</v>
       </c>
       <c r="E1530" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1531" ht="14.25" customHeight="1">
@@ -32774,7 +32774,7 @@
         <v>505</v>
       </c>
       <c r="E1533" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1534" ht="14.25" customHeight="1">
@@ -32804,7 +32804,7 @@
         <v>2692</v>
       </c>
       <c r="E1535" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1536" ht="14.25" customHeight="1">
@@ -32894,7 +32894,7 @@
         <v>2701</v>
       </c>
       <c r="E1541" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1542" ht="14.25" customHeight="1">
@@ -32939,7 +32939,7 @@
         <v>2706</v>
       </c>
       <c r="E1544" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1545" ht="14.25" customHeight="1">
@@ -33014,7 +33014,7 @@
         <v>17</v>
       </c>
       <c r="E1549" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1550" ht="14.25" customHeight="1">
@@ -33074,7 +33074,7 @@
         <v>2717</v>
       </c>
       <c r="E1553" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1554" ht="14.25" customHeight="1">
@@ -33329,7 +33329,7 @@
         <v>2748</v>
       </c>
       <c r="E1570" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1571" ht="14.25" customHeight="1">
@@ -33419,7 +33419,7 @@
         <v>7</v>
       </c>
       <c r="E1576" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1577" ht="14.25" customHeight="1">
@@ -33449,7 +33449,7 @@
         <v>2759</v>
       </c>
       <c r="E1578" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1579" ht="14.25" customHeight="1">
@@ -33539,7 +33539,7 @@
         <v>2770</v>
       </c>
       <c r="E1584" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1585" ht="14.25" customHeight="1">
@@ -33584,7 +33584,7 @@
         <v>2775</v>
       </c>
       <c r="E1587" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1588" ht="14.25" customHeight="1">
@@ -33614,7 +33614,7 @@
         <v>2779</v>
       </c>
       <c r="E1589" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1590" ht="14.25" customHeight="1">
@@ -33854,7 +33854,7 @@
         <v>487</v>
       </c>
       <c r="E1605" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1606" ht="14.25" customHeight="1">
@@ -33899,7 +33899,7 @@
         <v>2811</v>
       </c>
       <c r="E1608" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1609" ht="14.25" customHeight="1">
@@ -33914,7 +33914,7 @@
         <v>275</v>
       </c>
       <c r="E1609" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1610" ht="14.25" customHeight="1">
@@ -33929,7 +33929,7 @@
         <v>687</v>
       </c>
       <c r="E1610" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1611" ht="14.25" customHeight="1">
@@ -34004,7 +34004,7 @@
         <v>2822</v>
       </c>
       <c r="E1615" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1616" ht="14.25" customHeight="1">
@@ -34034,7 +34034,7 @@
         <v>13</v>
       </c>
       <c r="E1617" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1618" ht="14.25" customHeight="1">
@@ -34079,7 +34079,7 @@
         <v>29</v>
       </c>
       <c r="E1620" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1621" ht="14.25" customHeight="1">
@@ -34139,7 +34139,7 @@
         <v>2836</v>
       </c>
       <c r="E1624" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1625" ht="14.25" customHeight="1">
@@ -34154,7 +34154,7 @@
         <v>2838</v>
       </c>
       <c r="E1625" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1626" ht="14.25" customHeight="1">
@@ -34169,7 +34169,7 @@
         <v>2840</v>
       </c>
       <c r="E1626" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1627" ht="14.25" customHeight="1">
@@ -34394,7 +34394,7 @@
         <v>2864</v>
       </c>
       <c r="E1641" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1642" ht="14.25" customHeight="1">
@@ -34424,7 +34424,7 @@
         <v>2868</v>
       </c>
       <c r="E1643" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1644" ht="14.25" customHeight="1">
@@ -34469,7 +34469,7 @@
         <v>2873</v>
       </c>
       <c r="E1646" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1647" ht="14.25" customHeight="1">
@@ -34499,7 +34499,7 @@
         <v>52</v>
       </c>
       <c r="E1648" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1649" ht="14.25" customHeight="1">
@@ -34544,7 +34544,7 @@
         <v>512</v>
       </c>
       <c r="E1651" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1652" ht="14.25" customHeight="1">
@@ -34619,7 +34619,7 @@
         <v>2394</v>
       </c>
       <c r="E1656" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1657" ht="14.25" customHeight="1">
@@ -34649,7 +34649,7 @@
         <v>13</v>
       </c>
       <c r="E1658" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1659" ht="14.25" customHeight="1">
@@ -34694,7 +34694,7 @@
         <v>2895</v>
       </c>
       <c r="E1661" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1662" ht="14.25" customHeight="1">
@@ -34709,7 +34709,7 @@
         <v>2109</v>
       </c>
       <c r="E1662" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1663" ht="14.25" customHeight="1">
@@ -34724,7 +34724,7 @@
         <v>2898</v>
       </c>
       <c r="E1663" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1664" ht="14.25" customHeight="1">
@@ -34799,7 +34799,7 @@
         <v>116</v>
       </c>
       <c r="E1668" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1669" ht="14.25" customHeight="1">
@@ -34829,7 +34829,7 @@
         <v>19</v>
       </c>
       <c r="E1670" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1671" ht="14.25" customHeight="1">
@@ -35024,7 +35024,7 @@
         <v>2394</v>
       </c>
       <c r="E1683" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1684" ht="14.25" customHeight="1">
@@ -35129,7 +35129,7 @@
         <v>2940</v>
       </c>
       <c r="E1690" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1691" ht="14.25" customHeight="1">
@@ -35144,7 +35144,7 @@
         <v>29</v>
       </c>
       <c r="E1691" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1692" ht="14.25" customHeight="1">
@@ -35174,7 +35174,7 @@
         <v>2943</v>
       </c>
       <c r="E1693" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1694" ht="14.25" customHeight="1">
@@ -35384,7 +35384,7 @@
         <v>2966</v>
       </c>
       <c r="E1707" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1708" ht="14.25" customHeight="1">
@@ -35444,7 +35444,7 @@
         <v>2973</v>
       </c>
       <c r="E1711" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1712" ht="14.25" customHeight="1">
@@ -35459,7 +35459,7 @@
         <v>2975</v>
       </c>
       <c r="E1712" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1713" ht="14.25" customHeight="1">
@@ -35594,7 +35594,7 @@
         <v>2988</v>
       </c>
       <c r="E1721" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1722" ht="14.25" customHeight="1">
@@ -35669,7 +35669,7 @@
         <v>2996</v>
       </c>
       <c r="E1726" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1727" ht="14.25" customHeight="1">
@@ -35804,7 +35804,7 @@
         <v>3011</v>
       </c>
       <c r="E1735" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1736" ht="14.25" customHeight="1">
@@ -35954,7 +35954,7 @@
         <v>13</v>
       </c>
       <c r="E1745" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1746" ht="14.25" customHeight="1">
@@ -36089,7 +36089,7 @@
         <v>3043</v>
       </c>
       <c r="E1754" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1755" ht="14.25" customHeight="1">
@@ -36119,7 +36119,7 @@
         <v>3047</v>
       </c>
       <c r="E1756" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1757" ht="14.25" customHeight="1">
@@ -36254,7 +36254,7 @@
         <v>3064</v>
       </c>
       <c r="E1765" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1766" ht="14.25" customHeight="1">
@@ -36299,7 +36299,7 @@
         <v>3070</v>
       </c>
       <c r="E1768" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1769" ht="14.25" customHeight="1">
@@ -36404,7 +36404,7 @@
         <v>3080</v>
       </c>
       <c r="E1775" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1776" ht="14.25" customHeight="1">
@@ -36434,7 +36434,7 @@
         <v>39</v>
       </c>
       <c r="E1777" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1778" ht="14.25" customHeight="1">
@@ -36494,7 +36494,7 @@
         <v>3090</v>
       </c>
       <c r="E1781" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1782" ht="14.25" customHeight="1">
@@ -36539,7 +36539,7 @@
         <v>624</v>
       </c>
       <c r="E1784" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1785" ht="14.25" customHeight="1">
@@ -36614,7 +36614,7 @@
         <v>3104</v>
       </c>
       <c r="E1789" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1790" ht="14.25" customHeight="1">
@@ -36674,7 +36674,7 @@
         <v>924</v>
       </c>
       <c r="E1793" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1794" ht="14.25" customHeight="1">
@@ -36704,7 +36704,7 @@
         <v>3115</v>
       </c>
       <c r="E1795" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1796" ht="14.25" customHeight="1">
@@ -36734,7 +36734,7 @@
         <v>3118</v>
       </c>
       <c r="E1797" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1798" ht="14.25" customHeight="1">
@@ -36764,7 +36764,7 @@
         <v>394</v>
       </c>
       <c r="E1799" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1800" ht="14.25" customHeight="1">
@@ -36809,7 +36809,7 @@
         <v>3127</v>
       </c>
       <c r="E1802" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1803" ht="14.25" customHeight="1">
@@ -36862,14 +36862,14 @@
         <f t="shared" si="1"/>
         <v>1805</v>
       </c>
-      <c r="C1806" s="8" t="s">
+      <c r="C1806" s="6" t="s">
         <v>3133</v>
       </c>
-      <c r="D1806" s="8" t="s">
+      <c r="D1806" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E1806" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1807" ht="14.25" customHeight="1">
@@ -36880,11 +36880,11 @@
       <c r="C1807" s="9" t="s">
         <v>3134</v>
       </c>
-      <c r="D1807" s="8" t="s">
+      <c r="D1807" s="6" t="s">
         <v>3135</v>
       </c>
       <c r="E1807" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1808" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="3136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="3138">
   <si>
     <t>SNO</t>
   </si>
@@ -9439,6 +9439,12 @@
   </si>
   <si>
     <t xml:space="preserve">Maulana Azad National Institute of Technology </t>
+  </si>
+  <si>
+    <t>Lavanya Lenka</t>
+  </si>
+  <si>
+    <t>Sir M Visvesvarayya Institute of technology</t>
   </si>
 </sst>
 </file>
@@ -9772,7 +9778,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B1807" si="1">ROW(A1)</f>
+        <f t="shared" ref="B2:B1808" si="1">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -10559,7 +10565,7 @@
         <v>101</v>
       </c>
       <c r="E52" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -13124,7 +13130,7 @@
         <v>423</v>
       </c>
       <c r="E223" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="224" ht="14.25" customHeight="1">
@@ -14414,7 +14420,7 @@
         <v>576</v>
       </c>
       <c r="E309" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="310" ht="14.25" customHeight="1">
@@ -23669,7 +23675,7 @@
         <v>1669</v>
       </c>
       <c r="E926" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="927" ht="14.25" customHeight="1">
@@ -25589,7 +25595,7 @@
         <v>1883</v>
       </c>
       <c r="E1054" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1055" ht="14.25" customHeight="1">
@@ -27749,7 +27755,7 @@
         <v>2127</v>
       </c>
       <c r="E1198" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1199" ht="14.25" customHeight="1">
@@ -31559,7 +31565,7 @@
         <v>2555</v>
       </c>
       <c r="E1452" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1453" ht="14.25" customHeight="1">
@@ -33884,7 +33890,7 @@
         <v>2706</v>
       </c>
       <c r="E1607" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1608" ht="14.25" customHeight="1">
@@ -36888,10 +36894,19 @@
       </c>
     </row>
     <row r="1808" ht="14.25" customHeight="1">
-      <c r="B1808" s="1"/>
-      <c r="C1808" s="5"/>
-      <c r="D1808" s="5"/>
-      <c r="E1808" s="3"/>
+      <c r="B1808" s="1">
+        <f t="shared" si="1"/>
+        <v>1807</v>
+      </c>
+      <c r="C1808" s="9" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D1808" s="9" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E1808" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1809" ht="14.25" customHeight="1">
       <c r="B1809" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="3138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="3139">
   <si>
     <t>SNO</t>
   </si>
@@ -9445,6 +9445,9 @@
   </si>
   <si>
     <t>Sir M Visvesvarayya Institute of technology</t>
+  </si>
+  <si>
+    <t>Aman Shrivastav</t>
   </si>
 </sst>
 </file>
@@ -9778,7 +9781,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B1808" si="1">ROW(A1)</f>
+        <f t="shared" ref="B2:B1809" si="1">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -11255,7 +11258,7 @@
         <v>190</v>
       </c>
       <c r="E98" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
@@ -29105,7 +29108,7 @@
         <v>2279</v>
       </c>
       <c r="E1288" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1289" ht="14.25" customHeight="1">
@@ -33245,7 +33248,7 @@
         <v>2737</v>
       </c>
       <c r="E1564" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1565" ht="14.25" customHeight="1">
@@ -34835,7 +34838,7 @@
         <v>19</v>
       </c>
       <c r="E1670" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1671" ht="14.25" customHeight="1">
@@ -36680,7 +36683,7 @@
         <v>924</v>
       </c>
       <c r="E1793" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1794" ht="14.25" customHeight="1">
@@ -36909,10 +36912,19 @@
       </c>
     </row>
     <row r="1809" ht="14.25" customHeight="1">
-      <c r="B1809" s="1"/>
-      <c r="C1809" s="5"/>
-      <c r="D1809" s="5"/>
-      <c r="E1809" s="3"/>
+      <c r="B1809" s="1">
+        <f t="shared" si="1"/>
+        <v>1808</v>
+      </c>
+      <c r="C1809" s="9" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D1809" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1809" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1810" ht="14.25" customHeight="1">
       <c r="B1810" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -34838,7 +34838,7 @@
         <v>19</v>
       </c>
       <c r="E1670" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1671" ht="14.25" customHeight="1">
@@ -36683,7 +36683,7 @@
         <v>924</v>
       </c>
       <c r="E1793" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1794" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="3139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3140">
   <si>
     <t>SNO</t>
   </si>
@@ -9448,6 +9448,9 @@
   </si>
   <si>
     <t>Aman Shrivastav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhineet Kumar </t>
   </si>
 </sst>
 </file>
@@ -9781,7 +9784,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B1809" si="1">ROW(A1)</f>
+        <f t="shared" ref="B2:B1810" si="1">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -12503,7 +12506,7 @@
         <v>347</v>
       </c>
       <c r="E181" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -36927,10 +36930,19 @@
       </c>
     </row>
     <row r="1810" ht="14.25" customHeight="1">
-      <c r="B1810" s="1"/>
-      <c r="C1810" s="5"/>
-      <c r="D1810" s="5"/>
-      <c r="E1810" s="3"/>
+      <c r="B1810" s="1">
+        <f t="shared" si="1"/>
+        <v>1809</v>
+      </c>
+      <c r="C1810" s="6" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D1810" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1810" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="1811" ht="14.25" customHeight="1">
       <c r="B1811" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17111,7 +17111,7 @@
         <v>891</v>
       </c>
       <c r="E488" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="489" ht="14.25" customHeight="1">
@@ -18236,7 +18236,7 @@
         <v>1024</v>
       </c>
       <c r="E563" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="564" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="3139">
   <si>
     <t>SNO</t>
   </si>
@@ -8877,10 +8877,7 @@
     <t>Soumik Samanta</t>
   </si>
   <si>
-    <t>Subhra sundar sinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surendra institute of engineering and management </t>
+    <t>Subhra Sundar Sinha</t>
   </si>
   <si>
     <t>Akanshu Singh</t>
@@ -10174,7 +10171,7 @@
         <v>48</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -11284,7 +11281,7 @@
         <v>191</v>
       </c>
       <c r="E99" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
@@ -17312,7 +17309,7 @@
         <v>911</v>
       </c>
       <c r="E501" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="502" ht="14.25" customHeight="1">
@@ -17567,7 +17564,7 @@
         <v>944</v>
       </c>
       <c r="E518" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="519" ht="14.25" customHeight="1">
@@ -17792,7 +17789,7 @@
         <v>971</v>
       </c>
       <c r="E533" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="534" ht="14.25" customHeight="1">
@@ -18677,7 +18674,7 @@
         <v>506</v>
       </c>
       <c r="E592" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="593" ht="14.25" customHeight="1">
@@ -19937,7 +19934,7 @@
         <v>1224</v>
       </c>
       <c r="E676" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="677" ht="14.25" customHeight="1">
@@ -20252,7 +20249,7 @@
         <v>1262</v>
       </c>
       <c r="E697" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="698" ht="14.25" customHeight="1">
@@ -22067,7 +22064,7 @@
         <v>29</v>
       </c>
       <c r="E818" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="819" ht="14.25" customHeight="1">
@@ -25157,7 +25154,7 @@
         <v>1834</v>
       </c>
       <c r="E1024" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1025" ht="14.25" customHeight="1">
@@ -27947,7 +27944,7 @@
         <v>2148</v>
       </c>
       <c r="E1210" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1211" ht="14.25" customHeight="1">
@@ -31502,7 +31499,7 @@
         <v>2544</v>
       </c>
       <c r="E1447" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1448" ht="14.25" customHeight="1">
@@ -31682,7 +31679,7 @@
         <v>2567</v>
       </c>
       <c r="E1459" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1460" ht="14.25" customHeight="1">
@@ -32072,7 +32069,7 @@
         <v>2604</v>
       </c>
       <c r="E1485" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1486" ht="14.25" customHeight="1">
@@ -33032,7 +33029,7 @@
         <v>17</v>
       </c>
       <c r="E1549" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1550" ht="14.25" customHeight="1">
@@ -34562,7 +34559,7 @@
         <v>511</v>
       </c>
       <c r="E1651" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1652" ht="14.25" customHeight="1">
@@ -35260,14 +35257,14 @@
         <f t="shared" si="1"/>
         <v>1697</v>
       </c>
-      <c r="C1698" s="5" t="s">
+      <c r="C1698" s="6" t="s">
         <v>2948</v>
       </c>
-      <c r="D1698" s="5" t="s">
-        <v>2949</v>
+      <c r="D1698" s="6">
+        <v>1.0</v>
       </c>
       <c r="E1698" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1699" ht="14.25" customHeight="1">
@@ -35276,10 +35273,10 @@
         <v>1698</v>
       </c>
       <c r="C1699" s="5" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D1699" s="5" t="s">
         <v>2950</v>
-      </c>
-      <c r="D1699" s="5" t="s">
-        <v>2951</v>
       </c>
       <c r="E1699" s="3">
         <v>0.0</v>
@@ -35291,10 +35288,10 @@
         <v>1699</v>
       </c>
       <c r="C1700" s="5" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D1700" s="5" t="s">
         <v>2952</v>
-      </c>
-      <c r="D1700" s="5" t="s">
-        <v>2953</v>
       </c>
       <c r="E1700" s="3">
         <v>0.0</v>
@@ -35306,10 +35303,10 @@
         <v>1700</v>
       </c>
       <c r="C1701" s="5" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D1701" s="5" t="s">
         <v>2954</v>
-      </c>
-      <c r="D1701" s="5" t="s">
-        <v>2955</v>
       </c>
       <c r="E1701" s="3">
         <v>1.0</v>
@@ -35321,10 +35318,10 @@
         <v>1701</v>
       </c>
       <c r="C1702" s="5" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1702" s="5" t="s">
         <v>2956</v>
-      </c>
-      <c r="D1702" s="5" t="s">
-        <v>2957</v>
       </c>
       <c r="E1702" s="3">
         <v>1.0</v>
@@ -35336,7 +35333,7 @@
         <v>1702</v>
       </c>
       <c r="C1703" s="5" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D1703" s="5" t="s">
         <v>2259</v>
@@ -35366,10 +35363,10 @@
         <v>1704</v>
       </c>
       <c r="C1705" s="5" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1705" s="5" t="s">
         <v>2959</v>
-      </c>
-      <c r="D1705" s="5" t="s">
-        <v>2960</v>
       </c>
       <c r="E1705" s="3">
         <v>0.0</v>
@@ -35381,10 +35378,10 @@
         <v>1705</v>
       </c>
       <c r="C1706" s="5" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D1706" s="5" t="s">
         <v>2961</v>
-      </c>
-      <c r="D1706" s="5" t="s">
-        <v>2962</v>
       </c>
       <c r="E1706" s="3">
         <v>0.0</v>
@@ -35396,10 +35393,10 @@
         <v>1706</v>
       </c>
       <c r="C1707" s="5" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D1707" s="5" t="s">
         <v>2963</v>
-      </c>
-      <c r="D1707" s="5" t="s">
-        <v>2964</v>
       </c>
       <c r="E1707" s="3">
         <v>1.0</v>
@@ -35411,10 +35408,10 @@
         <v>1707</v>
       </c>
       <c r="C1708" s="5" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1708" s="5" t="s">
         <v>2965</v>
-      </c>
-      <c r="D1708" s="5" t="s">
-        <v>2966</v>
       </c>
       <c r="E1708" s="3">
         <v>0.0</v>
@@ -35426,7 +35423,7 @@
         <v>1708</v>
       </c>
       <c r="C1709" s="5" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D1709" s="5" t="s">
         <v>2597</v>
@@ -35441,10 +35438,10 @@
         <v>1709</v>
       </c>
       <c r="C1710" s="5" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1710" s="5" t="s">
         <v>2968</v>
-      </c>
-      <c r="D1710" s="5" t="s">
-        <v>2969</v>
       </c>
       <c r="E1710" s="3">
         <v>0.0</v>
@@ -35456,10 +35453,10 @@
         <v>1710</v>
       </c>
       <c r="C1711" s="5" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D1711" s="5" t="s">
         <v>2970</v>
-      </c>
-      <c r="D1711" s="5" t="s">
-        <v>2971</v>
       </c>
       <c r="E1711" s="3">
         <v>1.0</v>
@@ -35471,10 +35468,10 @@
         <v>1711</v>
       </c>
       <c r="C1712" s="5" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D1712" s="5" t="s">
         <v>2972</v>
-      </c>
-      <c r="D1712" s="5" t="s">
-        <v>2973</v>
       </c>
       <c r="E1712" s="3">
         <v>1.0</v>
@@ -35486,10 +35483,10 @@
         <v>1712</v>
       </c>
       <c r="C1713" s="5" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1713" s="5" t="s">
         <v>2974</v>
-      </c>
-      <c r="D1713" s="5" t="s">
-        <v>2975</v>
       </c>
       <c r="E1713" s="3">
         <v>0.0</v>
@@ -35501,10 +35498,10 @@
         <v>1713</v>
       </c>
       <c r="C1714" s="5" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D1714" s="5" t="s">
         <v>2976</v>
-      </c>
-      <c r="D1714" s="5" t="s">
-        <v>2977</v>
       </c>
       <c r="E1714" s="3">
         <v>0.0</v>
@@ -35516,7 +35513,7 @@
         <v>1714</v>
       </c>
       <c r="C1715" s="5" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D1715" s="5" t="s">
         <v>13</v>
@@ -35531,7 +35528,7 @@
         <v>1715</v>
       </c>
       <c r="C1716" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D1716" s="5" t="s">
         <v>19</v>
@@ -35549,7 +35546,7 @@
         <v>1293</v>
       </c>
       <c r="D1717" s="5" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="E1717" s="3">
         <v>0.0</v>
@@ -35561,7 +35558,7 @@
         <v>1717</v>
       </c>
       <c r="C1718" s="5" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="D1718" s="5" t="s">
         <v>1610</v>
@@ -35576,7 +35573,7 @@
         <v>1718</v>
       </c>
       <c r="C1719" s="5" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D1719" s="5" t="s">
         <v>606</v>
@@ -35591,10 +35588,10 @@
         <v>1719</v>
       </c>
       <c r="C1720" s="5" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D1720" s="5" t="s">
         <v>2983</v>
-      </c>
-      <c r="D1720" s="5" t="s">
-        <v>2984</v>
       </c>
       <c r="E1720" s="3">
         <v>0.0</v>
@@ -35606,10 +35603,10 @@
         <v>1720</v>
       </c>
       <c r="C1721" s="5" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D1721" s="5" t="s">
         <v>2985</v>
-      </c>
-      <c r="D1721" s="5" t="s">
-        <v>2986</v>
       </c>
       <c r="E1721" s="3">
         <v>2.0</v>
@@ -35621,10 +35618,10 @@
         <v>1721</v>
       </c>
       <c r="C1722" s="5" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1722" s="5" t="s">
         <v>2987</v>
-      </c>
-      <c r="D1722" s="5" t="s">
-        <v>2988</v>
       </c>
       <c r="E1722" s="3">
         <v>0.0</v>
@@ -35636,7 +35633,7 @@
         <v>1722</v>
       </c>
       <c r="C1723" s="5" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="D1723" s="5" t="s">
         <v>659</v>
@@ -35651,7 +35648,7 @@
         <v>1723</v>
       </c>
       <c r="C1724" s="5" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="D1724" s="5" t="s">
         <v>13</v>
@@ -35666,10 +35663,10 @@
         <v>1724</v>
       </c>
       <c r="C1725" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1725" s="5" t="s">
         <v>2991</v>
-      </c>
-      <c r="D1725" s="5" t="s">
-        <v>2992</v>
       </c>
       <c r="E1725" s="3">
         <v>0.0</v>
@@ -35681,10 +35678,10 @@
         <v>1725</v>
       </c>
       <c r="C1726" s="5" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D1726" s="5" t="s">
         <v>2993</v>
-      </c>
-      <c r="D1726" s="5" t="s">
-        <v>2994</v>
       </c>
       <c r="E1726" s="3">
         <v>1.0</v>
@@ -35696,10 +35693,10 @@
         <v>1726</v>
       </c>
       <c r="C1727" s="5" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D1727" s="5" t="s">
         <v>2995</v>
-      </c>
-      <c r="D1727" s="5" t="s">
-        <v>2996</v>
       </c>
       <c r="E1727" s="3">
         <v>0.0</v>
@@ -35711,7 +35708,7 @@
         <v>1727</v>
       </c>
       <c r="C1728" s="5" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="D1728" s="5" t="s">
         <v>29</v>
@@ -35726,7 +35723,7 @@
         <v>1728</v>
       </c>
       <c r="C1729" s="5" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="D1729" s="5" t="s">
         <v>19</v>
@@ -35741,10 +35738,10 @@
         <v>1729</v>
       </c>
       <c r="C1730" s="5" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D1730" s="5" t="s">
         <v>2999</v>
-      </c>
-      <c r="D1730" s="5" t="s">
-        <v>3000</v>
       </c>
       <c r="E1730" s="3">
         <v>0.0</v>
@@ -35756,10 +35753,10 @@
         <v>1730</v>
       </c>
       <c r="C1731" s="5" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D1731" s="5" t="s">
         <v>3001</v>
-      </c>
-      <c r="D1731" s="5" t="s">
-        <v>3002</v>
       </c>
       <c r="E1731" s="3">
         <v>0.0</v>
@@ -35771,10 +35768,10 @@
         <v>1731</v>
       </c>
       <c r="C1732" s="5" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D1732" s="5" t="s">
         <v>3003</v>
-      </c>
-      <c r="D1732" s="5" t="s">
-        <v>3004</v>
       </c>
       <c r="E1732" s="3">
         <v>0.0</v>
@@ -35786,7 +35783,7 @@
         <v>1732</v>
       </c>
       <c r="C1733" s="5" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D1733" s="5" t="s">
         <v>562</v>
@@ -35801,10 +35798,10 @@
         <v>1733</v>
       </c>
       <c r="C1734" s="5" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1734" s="5" t="s">
         <v>3006</v>
-      </c>
-      <c r="D1734" s="5" t="s">
-        <v>3007</v>
       </c>
       <c r="E1734" s="3">
         <v>0.0</v>
@@ -35816,10 +35813,10 @@
         <v>1734</v>
       </c>
       <c r="C1735" s="5" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D1735" s="5" t="s">
         <v>3008</v>
-      </c>
-      <c r="D1735" s="5" t="s">
-        <v>3009</v>
       </c>
       <c r="E1735" s="3">
         <v>1.0</v>
@@ -35831,10 +35828,10 @@
         <v>1735</v>
       </c>
       <c r="C1736" s="5" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D1736" s="5" t="s">
         <v>3010</v>
-      </c>
-      <c r="D1736" s="5" t="s">
-        <v>3011</v>
       </c>
       <c r="E1736" s="3">
         <v>2.0</v>
@@ -35846,10 +35843,10 @@
         <v>1736</v>
       </c>
       <c r="C1737" s="5" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1737" s="5" t="s">
         <v>3012</v>
-      </c>
-      <c r="D1737" s="5" t="s">
-        <v>3013</v>
       </c>
       <c r="E1737" s="3">
         <v>0.0</v>
@@ -35861,7 +35858,7 @@
         <v>1737</v>
       </c>
       <c r="C1738" s="5" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="D1738" s="5" t="s">
         <v>19</v>
@@ -35876,7 +35873,7 @@
         <v>1738</v>
       </c>
       <c r="C1739" s="5" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="D1739" s="5" t="s">
         <v>39</v>
@@ -35891,7 +35888,7 @@
         <v>1739</v>
       </c>
       <c r="C1740" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="D1740" s="5" t="s">
         <v>2794</v>
@@ -35906,10 +35903,10 @@
         <v>1740</v>
       </c>
       <c r="C1741" s="5" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D1741" s="5" t="s">
         <v>3017</v>
-      </c>
-      <c r="D1741" s="5" t="s">
-        <v>3018</v>
       </c>
       <c r="E1741" s="3">
         <v>0.0</v>
@@ -35921,10 +35918,10 @@
         <v>1741</v>
       </c>
       <c r="C1742" s="5" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D1742" s="5" t="s">
         <v>3019</v>
-      </c>
-      <c r="D1742" s="5" t="s">
-        <v>3020</v>
       </c>
       <c r="E1742" s="3">
         <v>0.0</v>
@@ -35936,10 +35933,10 @@
         <v>1742</v>
       </c>
       <c r="C1743" s="5" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D1743" s="5" t="s">
         <v>3021</v>
-      </c>
-      <c r="D1743" s="5" t="s">
-        <v>3022</v>
       </c>
       <c r="E1743" s="3">
         <v>1.0</v>
@@ -35951,10 +35948,10 @@
         <v>1743</v>
       </c>
       <c r="C1744" s="5" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D1744" s="5" t="s">
         <v>3023</v>
-      </c>
-      <c r="D1744" s="5" t="s">
-        <v>3024</v>
       </c>
       <c r="E1744" s="3">
         <v>0.0</v>
@@ -35966,7 +35963,7 @@
         <v>1744</v>
       </c>
       <c r="C1745" s="5" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="D1745" s="5" t="s">
         <v>13</v>
@@ -35981,7 +35978,7 @@
         <v>1745</v>
       </c>
       <c r="C1746" s="5" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="D1746" s="5" t="s">
         <v>1627</v>
@@ -35996,10 +35993,10 @@
         <v>1746</v>
       </c>
       <c r="C1747" s="5" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1747" s="5" t="s">
         <v>3027</v>
-      </c>
-      <c r="D1747" s="5" t="s">
-        <v>3028</v>
       </c>
       <c r="E1747" s="3">
         <v>0.0</v>
@@ -36011,10 +36008,10 @@
         <v>1747</v>
       </c>
       <c r="C1748" s="5" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1748" s="5" t="s">
         <v>3029</v>
-      </c>
-      <c r="D1748" s="5" t="s">
-        <v>3030</v>
       </c>
       <c r="E1748" s="3">
         <v>0.0</v>
@@ -36026,10 +36023,10 @@
         <v>1748</v>
       </c>
       <c r="C1749" s="5" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D1749" s="5" t="s">
         <v>3031</v>
-      </c>
-      <c r="D1749" s="5" t="s">
-        <v>3032</v>
       </c>
       <c r="E1749" s="3">
         <v>0.0</v>
@@ -36041,10 +36038,10 @@
         <v>1749</v>
       </c>
       <c r="C1750" s="5" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1750" s="5" t="s">
         <v>3033</v>
-      </c>
-      <c r="D1750" s="5" t="s">
-        <v>3034</v>
       </c>
       <c r="E1750" s="3">
         <v>0.0</v>
@@ -36056,10 +36053,10 @@
         <v>1750</v>
       </c>
       <c r="C1751" s="5" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1751" s="5" t="s">
         <v>3035</v>
-      </c>
-      <c r="D1751" s="5" t="s">
-        <v>3036</v>
       </c>
       <c r="E1751" s="3">
         <v>0.0</v>
@@ -36071,7 +36068,7 @@
         <v>1751</v>
       </c>
       <c r="C1752" s="5" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D1752" s="5" t="s">
         <v>1258</v>
@@ -36086,10 +36083,10 @@
         <v>1752</v>
       </c>
       <c r="C1753" s="5" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D1753" s="5" t="s">
         <v>3038</v>
-      </c>
-      <c r="D1753" s="5" t="s">
-        <v>3039</v>
       </c>
       <c r="E1753" s="3">
         <v>0.0</v>
@@ -36101,13 +36098,13 @@
         <v>1753</v>
       </c>
       <c r="C1754" s="5" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D1754" s="5" t="s">
         <v>3040</v>
       </c>
-      <c r="D1754" s="5" t="s">
-        <v>3041</v>
-      </c>
       <c r="E1754" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1755" ht="14.25" customHeight="1">
@@ -36116,10 +36113,10 @@
         <v>1754</v>
       </c>
       <c r="C1755" s="5" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D1755" s="5" t="s">
         <v>3042</v>
-      </c>
-      <c r="D1755" s="5" t="s">
-        <v>3043</v>
       </c>
       <c r="E1755" s="3">
         <v>0.0</v>
@@ -36131,10 +36128,10 @@
         <v>1755</v>
       </c>
       <c r="C1756" s="5" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D1756" s="5" t="s">
         <v>3044</v>
-      </c>
-      <c r="D1756" s="5" t="s">
-        <v>3045</v>
       </c>
       <c r="E1756" s="3">
         <v>2.0</v>
@@ -36146,10 +36143,10 @@
         <v>1756</v>
       </c>
       <c r="C1757" s="5" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D1757" s="5" t="s">
         <v>3046</v>
-      </c>
-      <c r="D1757" s="5" t="s">
-        <v>3047</v>
       </c>
       <c r="E1757" s="3">
         <v>0.0</v>
@@ -36161,10 +36158,10 @@
         <v>1757</v>
       </c>
       <c r="C1758" s="5" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D1758" s="5" t="s">
         <v>3048</v>
-      </c>
-      <c r="D1758" s="5" t="s">
-        <v>3049</v>
       </c>
       <c r="E1758" s="3">
         <v>0.0</v>
@@ -36176,10 +36173,10 @@
         <v>1758</v>
       </c>
       <c r="C1759" s="5" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D1759" s="5" t="s">
         <v>3050</v>
-      </c>
-      <c r="D1759" s="5" t="s">
-        <v>3051</v>
       </c>
       <c r="E1759" s="3">
         <v>0.0</v>
@@ -36191,10 +36188,10 @@
         <v>1759</v>
       </c>
       <c r="C1760" s="5" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D1760" s="5" t="s">
         <v>3052</v>
-      </c>
-      <c r="D1760" s="5" t="s">
-        <v>3053</v>
       </c>
       <c r="E1760" s="3">
         <v>0.0</v>
@@ -36206,7 +36203,7 @@
         <v>1760</v>
       </c>
       <c r="C1761" s="5" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D1761" s="5" t="s">
         <v>103</v>
@@ -36221,10 +36218,10 @@
         <v>1761</v>
       </c>
       <c r="C1762" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D1762" s="5" t="s">
         <v>3055</v>
-      </c>
-      <c r="D1762" s="5" t="s">
-        <v>3056</v>
       </c>
       <c r="E1762" s="3">
         <v>0.0</v>
@@ -36236,10 +36233,10 @@
         <v>1762</v>
       </c>
       <c r="C1763" s="5" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1763" s="5" t="s">
         <v>3057</v>
-      </c>
-      <c r="D1763" s="5" t="s">
-        <v>3058</v>
       </c>
       <c r="E1763" s="3">
         <v>0.0</v>
@@ -36251,10 +36248,10 @@
         <v>1763</v>
       </c>
       <c r="C1764" s="5" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D1764" s="5" t="s">
         <v>3059</v>
-      </c>
-      <c r="D1764" s="5" t="s">
-        <v>3060</v>
       </c>
       <c r="E1764" s="3">
         <v>0.0</v>
@@ -36266,10 +36263,10 @@
         <v>1764</v>
       </c>
       <c r="C1765" s="5" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D1765" s="5" t="s">
         <v>3061</v>
-      </c>
-      <c r="D1765" s="5" t="s">
-        <v>3062</v>
       </c>
       <c r="E1765" s="3">
         <v>1.0</v>
@@ -36281,10 +36278,10 @@
         <v>1765</v>
       </c>
       <c r="C1766" s="5" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D1766" s="5" t="s">
         <v>3063</v>
-      </c>
-      <c r="D1766" s="5" t="s">
-        <v>3064</v>
       </c>
       <c r="E1766" s="3">
         <v>0.0</v>
@@ -36296,10 +36293,10 @@
         <v>1766</v>
       </c>
       <c r="C1767" s="5" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D1767" s="5" t="s">
         <v>3065</v>
-      </c>
-      <c r="D1767" s="5" t="s">
-        <v>3066</v>
       </c>
       <c r="E1767" s="3">
         <v>1.0</v>
@@ -36311,10 +36308,10 @@
         <v>1767</v>
       </c>
       <c r="C1768" s="5" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D1768" s="5" t="s">
         <v>3067</v>
-      </c>
-      <c r="D1768" s="5" t="s">
-        <v>3068</v>
       </c>
       <c r="E1768" s="3">
         <v>1.0</v>
@@ -36326,7 +36323,7 @@
         <v>1768</v>
       </c>
       <c r="C1769" s="5" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D1769" s="5" t="s">
         <v>19</v>
@@ -36341,7 +36338,7 @@
         <v>1769</v>
       </c>
       <c r="C1770" s="5" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D1770" s="5" t="s">
         <v>19</v>
@@ -36356,10 +36353,10 @@
         <v>1770</v>
       </c>
       <c r="C1771" s="5" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D1771" s="5" t="s">
         <v>3071</v>
-      </c>
-      <c r="D1771" s="5" t="s">
-        <v>3072</v>
       </c>
       <c r="E1771" s="3">
         <v>0.0</v>
@@ -36371,7 +36368,7 @@
         <v>1771</v>
       </c>
       <c r="C1772" s="5" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D1772" s="5" t="s">
         <v>19</v>
@@ -36386,7 +36383,7 @@
         <v>1772</v>
       </c>
       <c r="C1773" s="5" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D1773" s="5" t="s">
         <v>702</v>
@@ -36401,10 +36398,10 @@
         <v>1773</v>
       </c>
       <c r="C1774" s="5" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D1774" s="5" t="s">
         <v>3075</v>
-      </c>
-      <c r="D1774" s="5" t="s">
-        <v>3076</v>
       </c>
       <c r="E1774" s="3">
         <v>0.0</v>
@@ -36416,10 +36413,10 @@
         <v>1774</v>
       </c>
       <c r="C1775" s="5" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D1775" s="5" t="s">
         <v>3077</v>
-      </c>
-      <c r="D1775" s="5" t="s">
-        <v>3078</v>
       </c>
       <c r="E1775" s="3">
         <v>2.0</v>
@@ -36431,10 +36428,10 @@
         <v>1775</v>
       </c>
       <c r="C1776" s="5" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D1776" s="5" t="s">
         <v>3079</v>
-      </c>
-      <c r="D1776" s="5" t="s">
-        <v>3080</v>
       </c>
       <c r="E1776" s="3">
         <v>0.0</v>
@@ -36446,7 +36443,7 @@
         <v>1776</v>
       </c>
       <c r="C1777" s="5" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D1777" s="5" t="s">
         <v>39</v>
@@ -36461,10 +36458,10 @@
         <v>1777</v>
       </c>
       <c r="C1778" s="5" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D1778" s="5" t="s">
         <v>3082</v>
-      </c>
-      <c r="D1778" s="5" t="s">
-        <v>3083</v>
       </c>
       <c r="E1778" s="3">
         <v>0.0</v>
@@ -36476,7 +36473,7 @@
         <v>1778</v>
       </c>
       <c r="C1779" s="5" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D1779" s="5" t="s">
         <v>13</v>
@@ -36491,10 +36488,10 @@
         <v>1779</v>
       </c>
       <c r="C1780" s="5" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D1780" s="5" t="s">
         <v>3085</v>
-      </c>
-      <c r="D1780" s="5" t="s">
-        <v>3086</v>
       </c>
       <c r="E1780" s="3">
         <v>0.0</v>
@@ -36506,10 +36503,10 @@
         <v>1780</v>
       </c>
       <c r="C1781" s="5" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D1781" s="5" t="s">
         <v>3087</v>
-      </c>
-      <c r="D1781" s="5" t="s">
-        <v>3088</v>
       </c>
       <c r="E1781" s="3">
         <v>1.0</v>
@@ -36521,10 +36518,10 @@
         <v>1781</v>
       </c>
       <c r="C1782" s="5" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D1782" s="5" t="s">
         <v>3089</v>
-      </c>
-      <c r="D1782" s="5" t="s">
-        <v>3090</v>
       </c>
       <c r="E1782" s="3">
         <v>0.0</v>
@@ -36536,7 +36533,7 @@
         <v>1782</v>
       </c>
       <c r="C1783" s="5" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="D1783" s="5" t="s">
         <v>220</v>
@@ -36551,7 +36548,7 @@
         <v>1783</v>
       </c>
       <c r="C1784" s="5" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="D1784" s="5" t="s">
         <v>623</v>
@@ -36566,10 +36563,10 @@
         <v>1784</v>
       </c>
       <c r="C1785" s="5" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D1785" s="5" t="s">
         <v>3093</v>
-      </c>
-      <c r="D1785" s="5" t="s">
-        <v>3094</v>
       </c>
       <c r="E1785" s="3">
         <v>0.0</v>
@@ -36581,10 +36578,10 @@
         <v>1785</v>
       </c>
       <c r="C1786" s="5" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D1786" s="5" t="s">
         <v>3095</v>
-      </c>
-      <c r="D1786" s="5" t="s">
-        <v>3096</v>
       </c>
       <c r="E1786" s="3">
         <v>0.0</v>
@@ -36596,10 +36593,10 @@
         <v>1786</v>
       </c>
       <c r="C1787" s="5" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D1787" s="5" t="s">
         <v>3097</v>
-      </c>
-      <c r="D1787" s="5" t="s">
-        <v>3098</v>
       </c>
       <c r="E1787" s="3">
         <v>0.0</v>
@@ -36611,10 +36608,10 @@
         <v>1787</v>
       </c>
       <c r="C1788" s="5" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D1788" s="5" t="s">
         <v>3099</v>
-      </c>
-      <c r="D1788" s="5" t="s">
-        <v>3100</v>
       </c>
       <c r="E1788" s="3">
         <v>0.0</v>
@@ -36626,10 +36623,10 @@
         <v>1788</v>
       </c>
       <c r="C1789" s="5" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D1789" s="5" t="s">
         <v>3101</v>
-      </c>
-      <c r="D1789" s="5" t="s">
-        <v>3102</v>
       </c>
       <c r="E1789" s="3">
         <v>2.0</v>
@@ -36641,10 +36638,10 @@
         <v>1789</v>
       </c>
       <c r="C1790" s="5" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D1790" s="5" t="s">
         <v>3103</v>
-      </c>
-      <c r="D1790" s="5" t="s">
-        <v>3104</v>
       </c>
       <c r="E1790" s="3">
         <v>1.0</v>
@@ -36656,10 +36653,10 @@
         <v>1790</v>
       </c>
       <c r="C1791" s="5" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D1791" s="5" t="s">
         <v>3105</v>
-      </c>
-      <c r="D1791" s="5" t="s">
-        <v>3106</v>
       </c>
       <c r="E1791" s="3">
         <v>0.0</v>
@@ -36671,10 +36668,10 @@
         <v>1791</v>
       </c>
       <c r="C1792" s="5" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1792" s="5" t="s">
         <v>3107</v>
-      </c>
-      <c r="D1792" s="5" t="s">
-        <v>3108</v>
       </c>
       <c r="E1792" s="3">
         <v>0.0</v>
@@ -36686,7 +36683,7 @@
         <v>1792</v>
       </c>
       <c r="C1793" s="5" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="D1793" s="5" t="s">
         <v>922</v>
@@ -36701,10 +36698,10 @@
         <v>1793</v>
       </c>
       <c r="C1794" s="5" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D1794" s="5" t="s">
         <v>3110</v>
-      </c>
-      <c r="D1794" s="5" t="s">
-        <v>3111</v>
       </c>
       <c r="E1794" s="3">
         <v>0.0</v>
@@ -36716,10 +36713,10 @@
         <v>1794</v>
       </c>
       <c r="C1795" s="5" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1795" s="5" t="s">
         <v>3112</v>
-      </c>
-      <c r="D1795" s="5" t="s">
-        <v>3113</v>
       </c>
       <c r="E1795" s="3">
         <v>1.0</v>
@@ -36731,10 +36728,10 @@
         <v>1795</v>
       </c>
       <c r="C1796" s="5" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="D1796" s="5" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="E1796" s="3">
         <v>0.0</v>
@@ -36746,10 +36743,10 @@
         <v>1796</v>
       </c>
       <c r="C1797" s="5" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1797" s="5" t="s">
         <v>3115</v>
-      </c>
-      <c r="D1797" s="5" t="s">
-        <v>3116</v>
       </c>
       <c r="E1797" s="3">
         <v>1.0</v>
@@ -36761,10 +36758,10 @@
         <v>1797</v>
       </c>
       <c r="C1798" s="5" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D1798" s="5" t="s">
         <v>3117</v>
-      </c>
-      <c r="D1798" s="5" t="s">
-        <v>3118</v>
       </c>
       <c r="E1798" s="3">
         <v>0.0</v>
@@ -36776,7 +36773,7 @@
         <v>1798</v>
       </c>
       <c r="C1799" s="5" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="D1799" s="5" t="s">
         <v>393</v>
@@ -36791,10 +36788,10 @@
         <v>1799</v>
       </c>
       <c r="C1800" s="5" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1800" s="5" t="s">
         <v>3120</v>
-      </c>
-      <c r="D1800" s="5" t="s">
-        <v>3121</v>
       </c>
       <c r="E1800" s="3">
         <v>0.0</v>
@@ -36806,10 +36803,10 @@
         <v>1800</v>
       </c>
       <c r="C1801" s="5" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1801" s="5" t="s">
         <v>3122</v>
-      </c>
-      <c r="D1801" s="5" t="s">
-        <v>3123</v>
       </c>
       <c r="E1801" s="3">
         <v>0.0</v>
@@ -36821,10 +36818,10 @@
         <v>1801</v>
       </c>
       <c r="C1802" s="5" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D1802" s="5" t="s">
         <v>3124</v>
-      </c>
-      <c r="D1802" s="5" t="s">
-        <v>3125</v>
       </c>
       <c r="E1802" s="3">
         <v>1.0</v>
@@ -36836,10 +36833,10 @@
         <v>1802</v>
       </c>
       <c r="C1803" s="5" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D1803" s="5" t="s">
         <v>3126</v>
-      </c>
-      <c r="D1803" s="5" t="s">
-        <v>3127</v>
       </c>
       <c r="E1803" s="3">
         <v>0.0</v>
@@ -36851,10 +36848,10 @@
         <v>1803</v>
       </c>
       <c r="C1804" s="5" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D1804" s="5" t="s">
         <v>3128</v>
-      </c>
-      <c r="D1804" s="5" t="s">
-        <v>3129</v>
       </c>
       <c r="E1804" s="3">
         <v>0.0</v>
@@ -36866,7 +36863,7 @@
         <v>1804</v>
       </c>
       <c r="C1805" s="5" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="D1805" s="5" t="s">
         <v>2039</v>
@@ -36881,7 +36878,7 @@
         <v>1805</v>
       </c>
       <c r="C1806" s="6" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="D1806" s="6" t="s">
         <v>119</v>
@@ -36896,10 +36893,10 @@
         <v>1806</v>
       </c>
       <c r="C1807" s="10" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D1807" s="6" t="s">
         <v>3132</v>
-      </c>
-      <c r="D1807" s="6" t="s">
-        <v>3133</v>
       </c>
       <c r="E1807" s="3">
         <v>1.0</v>
@@ -36911,10 +36908,10 @@
         <v>1807</v>
       </c>
       <c r="C1808" s="10" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D1808" s="10" t="s">
         <v>3134</v>
-      </c>
-      <c r="D1808" s="10" t="s">
-        <v>3135</v>
       </c>
       <c r="E1808" s="3">
         <v>1.0</v>
@@ -36926,7 +36923,7 @@
         <v>1808</v>
       </c>
       <c r="C1809" s="10" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="D1809" s="10" t="s">
         <v>659</v>
@@ -36941,13 +36938,13 @@
         <v>1809</v>
       </c>
       <c r="C1810" s="6" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D1810" s="10" t="s">
         <v>511</v>
       </c>
       <c r="E1810" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1811" ht="14.25" customHeight="1">
@@ -36956,10 +36953,10 @@
         <v>1810</v>
       </c>
       <c r="C1811" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1811" s="6" t="s">
         <v>3138</v>
-      </c>
-      <c r="D1811" s="6" t="s">
-        <v>3139</v>
       </c>
       <c r="E1811" s="3">
         <v>1.0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10,28 +10,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D954">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C1348">
-      <text>
-        <t xml:space="preserve">Responder updated this value.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="3139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3140">
   <si>
     <t>SNO</t>
   </si>
@@ -8878,6 +8858,9 @@
   </si>
   <si>
     <t>Subhra Sundar Sinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surendra institute of engineering and management </t>
   </si>
   <si>
     <t>Akanshu Singh</t>
@@ -25725,9 +25708,7 @@
       <c r="D1062" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="E1062" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="E1062" s="3"/>
     </row>
     <row r="1063" ht="14.25" customHeight="1">
       <c r="B1063" s="1">
@@ -30007,7 +29988,7 @@
         <f t="shared" si="1"/>
         <v>1347</v>
       </c>
-      <c r="C1348" s="5" t="s">
+      <c r="C1348" s="6" t="s">
         <v>2382</v>
       </c>
       <c r="D1348" s="5" t="s">
@@ -31889,7 +31870,7 @@
         <v>2421</v>
       </c>
       <c r="E1473" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1474" ht="14.25" customHeight="1">
@@ -35260,8 +35241,8 @@
       <c r="C1698" s="6" t="s">
         <v>2948</v>
       </c>
-      <c r="D1698" s="6">
-        <v>1.0</v>
+      <c r="D1698" s="6" t="s">
+        <v>2949</v>
       </c>
       <c r="E1698" s="3">
         <v>2.0</v>
@@ -35273,10 +35254,10 @@
         <v>1698</v>
       </c>
       <c r="C1699" s="5" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="D1699" s="5" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="E1699" s="3">
         <v>0.0</v>
@@ -35288,10 +35269,10 @@
         <v>1699</v>
       </c>
       <c r="C1700" s="5" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="D1700" s="5" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="E1700" s="3">
         <v>0.0</v>
@@ -35303,10 +35284,10 @@
         <v>1700</v>
       </c>
       <c r="C1701" s="5" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="D1701" s="5" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="E1701" s="3">
         <v>1.0</v>
@@ -35318,10 +35299,10 @@
         <v>1701</v>
       </c>
       <c r="C1702" s="5" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="D1702" s="5" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="E1702" s="3">
         <v>1.0</v>
@@ -35333,7 +35314,7 @@
         <v>1702</v>
       </c>
       <c r="C1703" s="5" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="D1703" s="5" t="s">
         <v>2259</v>
@@ -35363,10 +35344,10 @@
         <v>1704</v>
       </c>
       <c r="C1705" s="5" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="D1705" s="5" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="E1705" s="3">
         <v>0.0</v>
@@ -35378,10 +35359,10 @@
         <v>1705</v>
       </c>
       <c r="C1706" s="5" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="D1706" s="5" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="E1706" s="3">
         <v>0.0</v>
@@ -35393,10 +35374,10 @@
         <v>1706</v>
       </c>
       <c r="C1707" s="5" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="D1707" s="5" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="E1707" s="3">
         <v>1.0</v>
@@ -35408,10 +35389,10 @@
         <v>1707</v>
       </c>
       <c r="C1708" s="5" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="D1708" s="5" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="E1708" s="3">
         <v>0.0</v>
@@ -35423,7 +35404,7 @@
         <v>1708</v>
       </c>
       <c r="C1709" s="5" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="D1709" s="5" t="s">
         <v>2597</v>
@@ -35438,10 +35419,10 @@
         <v>1709</v>
       </c>
       <c r="C1710" s="5" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D1710" s="5" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E1710" s="3">
         <v>0.0</v>
@@ -35453,10 +35434,10 @@
         <v>1710</v>
       </c>
       <c r="C1711" s="5" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="D1711" s="5" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="E1711" s="3">
         <v>1.0</v>
@@ -35468,10 +35449,10 @@
         <v>1711</v>
       </c>
       <c r="C1712" s="5" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="D1712" s="5" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="E1712" s="3">
         <v>1.0</v>
@@ -35483,10 +35464,10 @@
         <v>1712</v>
       </c>
       <c r="C1713" s="5" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="D1713" s="5" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="E1713" s="3">
         <v>0.0</v>
@@ -35498,10 +35479,10 @@
         <v>1713</v>
       </c>
       <c r="C1714" s="5" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="D1714" s="5" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="E1714" s="3">
         <v>0.0</v>
@@ -35513,7 +35494,7 @@
         <v>1714</v>
       </c>
       <c r="C1715" s="5" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="D1715" s="5" t="s">
         <v>13</v>
@@ -35528,7 +35509,7 @@
         <v>1715</v>
       </c>
       <c r="C1716" s="5" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="D1716" s="5" t="s">
         <v>19</v>
@@ -35546,7 +35527,7 @@
         <v>1293</v>
       </c>
       <c r="D1717" s="5" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E1717" s="3">
         <v>0.0</v>
@@ -35558,7 +35539,7 @@
         <v>1717</v>
       </c>
       <c r="C1718" s="5" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="D1718" s="5" t="s">
         <v>1610</v>
@@ -35573,7 +35554,7 @@
         <v>1718</v>
       </c>
       <c r="C1719" s="5" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D1719" s="5" t="s">
         <v>606</v>
@@ -35588,10 +35569,10 @@
         <v>1719</v>
       </c>
       <c r="C1720" s="5" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="D1720" s="5" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="E1720" s="3">
         <v>0.0</v>
@@ -35603,10 +35584,10 @@
         <v>1720</v>
       </c>
       <c r="C1721" s="5" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="D1721" s="5" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="E1721" s="3">
         <v>2.0</v>
@@ -35618,10 +35599,10 @@
         <v>1721</v>
       </c>
       <c r="C1722" s="5" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="D1722" s="5" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="E1722" s="3">
         <v>0.0</v>
@@ -35633,7 +35614,7 @@
         <v>1722</v>
       </c>
       <c r="C1723" s="5" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="D1723" s="5" t="s">
         <v>659</v>
@@ -35648,7 +35629,7 @@
         <v>1723</v>
       </c>
       <c r="C1724" s="5" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="D1724" s="5" t="s">
         <v>13</v>
@@ -35663,10 +35644,10 @@
         <v>1724</v>
       </c>
       <c r="C1725" s="5" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="D1725" s="5" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="E1725" s="3">
         <v>0.0</v>
@@ -35678,10 +35659,10 @@
         <v>1725</v>
       </c>
       <c r="C1726" s="5" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="D1726" s="5" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="E1726" s="3">
         <v>1.0</v>
@@ -35693,10 +35674,10 @@
         <v>1726</v>
       </c>
       <c r="C1727" s="5" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D1727" s="5" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="E1727" s="3">
         <v>0.0</v>
@@ -35708,7 +35689,7 @@
         <v>1727</v>
       </c>
       <c r="C1728" s="5" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="D1728" s="5" t="s">
         <v>29</v>
@@ -35723,7 +35704,7 @@
         <v>1728</v>
       </c>
       <c r="C1729" s="5" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="D1729" s="5" t="s">
         <v>19</v>
@@ -35738,10 +35719,10 @@
         <v>1729</v>
       </c>
       <c r="C1730" s="5" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="D1730" s="5" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="E1730" s="3">
         <v>0.0</v>
@@ -35753,10 +35734,10 @@
         <v>1730</v>
       </c>
       <c r="C1731" s="5" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D1731" s="5" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="E1731" s="3">
         <v>0.0</v>
@@ -35768,10 +35749,10 @@
         <v>1731</v>
       </c>
       <c r="C1732" s="5" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D1732" s="5" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="E1732" s="3">
         <v>0.0</v>
@@ -35783,7 +35764,7 @@
         <v>1732</v>
       </c>
       <c r="C1733" s="5" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="D1733" s="5" t="s">
         <v>562</v>
@@ -35798,10 +35779,10 @@
         <v>1733</v>
       </c>
       <c r="C1734" s="5" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D1734" s="5" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="E1734" s="3">
         <v>0.0</v>
@@ -35813,10 +35794,10 @@
         <v>1734</v>
       </c>
       <c r="C1735" s="5" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="D1735" s="5" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="E1735" s="3">
         <v>1.0</v>
@@ -35828,10 +35809,10 @@
         <v>1735</v>
       </c>
       <c r="C1736" s="5" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="D1736" s="5" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="E1736" s="3">
         <v>2.0</v>
@@ -35843,10 +35824,10 @@
         <v>1736</v>
       </c>
       <c r="C1737" s="5" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D1737" s="5" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="E1737" s="3">
         <v>0.0</v>
@@ -35858,7 +35839,7 @@
         <v>1737</v>
       </c>
       <c r="C1738" s="5" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="D1738" s="5" t="s">
         <v>19</v>
@@ -35873,7 +35854,7 @@
         <v>1738</v>
       </c>
       <c r="C1739" s="5" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="D1739" s="5" t="s">
         <v>39</v>
@@ -35888,7 +35869,7 @@
         <v>1739</v>
       </c>
       <c r="C1740" s="5" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D1740" s="5" t="s">
         <v>2794</v>
@@ -35903,10 +35884,10 @@
         <v>1740</v>
       </c>
       <c r="C1741" s="5" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="D1741" s="5" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="E1741" s="3">
         <v>0.0</v>
@@ -35918,10 +35899,10 @@
         <v>1741</v>
       </c>
       <c r="C1742" s="5" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="D1742" s="5" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="E1742" s="3">
         <v>0.0</v>
@@ -35933,10 +35914,10 @@
         <v>1742</v>
       </c>
       <c r="C1743" s="5" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="D1743" s="5" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="E1743" s="3">
         <v>1.0</v>
@@ -35948,10 +35929,10 @@
         <v>1743</v>
       </c>
       <c r="C1744" s="5" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="D1744" s="5" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="E1744" s="3">
         <v>0.0</v>
@@ -35963,7 +35944,7 @@
         <v>1744</v>
       </c>
       <c r="C1745" s="5" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D1745" s="5" t="s">
         <v>13</v>
@@ -35978,7 +35959,7 @@
         <v>1745</v>
       </c>
       <c r="C1746" s="5" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="D1746" s="5" t="s">
         <v>1627</v>
@@ -35993,10 +35974,10 @@
         <v>1746</v>
       </c>
       <c r="C1747" s="5" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="D1747" s="5" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="E1747" s="3">
         <v>0.0</v>
@@ -36008,10 +35989,10 @@
         <v>1747</v>
       </c>
       <c r="C1748" s="5" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="D1748" s="5" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="E1748" s="3">
         <v>0.0</v>
@@ -36023,10 +36004,10 @@
         <v>1748</v>
       </c>
       <c r="C1749" s="5" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="D1749" s="5" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="E1749" s="3">
         <v>0.0</v>
@@ -36038,10 +36019,10 @@
         <v>1749</v>
       </c>
       <c r="C1750" s="5" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="D1750" s="5" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="E1750" s="3">
         <v>0.0</v>
@@ -36053,10 +36034,10 @@
         <v>1750</v>
       </c>
       <c r="C1751" s="5" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D1751" s="5" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E1751" s="3">
         <v>0.0</v>
@@ -36068,7 +36049,7 @@
         <v>1751</v>
       </c>
       <c r="C1752" s="5" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="D1752" s="5" t="s">
         <v>1258</v>
@@ -36083,10 +36064,10 @@
         <v>1752</v>
       </c>
       <c r="C1753" s="5" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="D1753" s="5" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="E1753" s="3">
         <v>0.0</v>
@@ -36098,10 +36079,10 @@
         <v>1753</v>
       </c>
       <c r="C1754" s="5" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="D1754" s="5" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="E1754" s="3">
         <v>2.0</v>
@@ -36113,10 +36094,10 @@
         <v>1754</v>
       </c>
       <c r="C1755" s="5" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="D1755" s="5" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="E1755" s="3">
         <v>0.0</v>
@@ -36128,10 +36109,10 @@
         <v>1755</v>
       </c>
       <c r="C1756" s="5" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="D1756" s="5" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="E1756" s="3">
         <v>2.0</v>
@@ -36143,10 +36124,10 @@
         <v>1756</v>
       </c>
       <c r="C1757" s="5" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="D1757" s="5" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="E1757" s="3">
         <v>0.0</v>
@@ -36158,10 +36139,10 @@
         <v>1757</v>
       </c>
       <c r="C1758" s="5" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D1758" s="5" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="E1758" s="3">
         <v>0.0</v>
@@ -36173,10 +36154,10 @@
         <v>1758</v>
       </c>
       <c r="C1759" s="5" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="D1759" s="5" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="E1759" s="3">
         <v>0.0</v>
@@ -36188,10 +36169,10 @@
         <v>1759</v>
       </c>
       <c r="C1760" s="5" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D1760" s="5" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="E1760" s="3">
         <v>0.0</v>
@@ -36203,7 +36184,7 @@
         <v>1760</v>
       </c>
       <c r="C1761" s="5" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D1761" s="5" t="s">
         <v>103</v>
@@ -36218,10 +36199,10 @@
         <v>1761</v>
       </c>
       <c r="C1762" s="5" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="D1762" s="5" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="E1762" s="3">
         <v>0.0</v>
@@ -36233,10 +36214,10 @@
         <v>1762</v>
       </c>
       <c r="C1763" s="5" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D1763" s="5" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="E1763" s="3">
         <v>0.0</v>
@@ -36248,10 +36229,10 @@
         <v>1763</v>
       </c>
       <c r="C1764" s="5" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="D1764" s="5" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="E1764" s="3">
         <v>0.0</v>
@@ -36263,10 +36244,10 @@
         <v>1764</v>
       </c>
       <c r="C1765" s="5" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="D1765" s="5" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="E1765" s="3">
         <v>1.0</v>
@@ -36278,10 +36259,10 @@
         <v>1765</v>
       </c>
       <c r="C1766" s="5" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D1766" s="5" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="E1766" s="3">
         <v>0.0</v>
@@ -36293,10 +36274,10 @@
         <v>1766</v>
       </c>
       <c r="C1767" s="5" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="D1767" s="5" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="E1767" s="3">
         <v>1.0</v>
@@ -36308,10 +36289,10 @@
         <v>1767</v>
       </c>
       <c r="C1768" s="5" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="D1768" s="5" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="E1768" s="3">
         <v>1.0</v>
@@ -36323,7 +36304,7 @@
         <v>1768</v>
       </c>
       <c r="C1769" s="5" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="D1769" s="5" t="s">
         <v>19</v>
@@ -36338,7 +36319,7 @@
         <v>1769</v>
       </c>
       <c r="C1770" s="5" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D1770" s="5" t="s">
         <v>19</v>
@@ -36353,10 +36334,10 @@
         <v>1770</v>
       </c>
       <c r="C1771" s="5" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="D1771" s="5" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="E1771" s="3">
         <v>0.0</v>
@@ -36368,7 +36349,7 @@
         <v>1771</v>
       </c>
       <c r="C1772" s="5" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="D1772" s="5" t="s">
         <v>19</v>
@@ -36383,7 +36364,7 @@
         <v>1772</v>
       </c>
       <c r="C1773" s="5" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D1773" s="5" t="s">
         <v>702</v>
@@ -36398,10 +36379,10 @@
         <v>1773</v>
       </c>
       <c r="C1774" s="5" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="D1774" s="5" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="E1774" s="3">
         <v>0.0</v>
@@ -36413,10 +36394,10 @@
         <v>1774</v>
       </c>
       <c r="C1775" s="5" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="D1775" s="5" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="E1775" s="3">
         <v>2.0</v>
@@ -36428,10 +36409,10 @@
         <v>1775</v>
       </c>
       <c r="C1776" s="5" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="D1776" s="5" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="E1776" s="3">
         <v>0.0</v>
@@ -36443,7 +36424,7 @@
         <v>1776</v>
       </c>
       <c r="C1777" s="5" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D1777" s="5" t="s">
         <v>39</v>
@@ -36458,10 +36439,10 @@
         <v>1777</v>
       </c>
       <c r="C1778" s="5" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="D1778" s="5" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="E1778" s="3">
         <v>0.0</v>
@@ -36473,7 +36454,7 @@
         <v>1778</v>
       </c>
       <c r="C1779" s="5" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D1779" s="5" t="s">
         <v>13</v>
@@ -36488,10 +36469,10 @@
         <v>1779</v>
       </c>
       <c r="C1780" s="5" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="D1780" s="5" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="E1780" s="3">
         <v>0.0</v>
@@ -36503,10 +36484,10 @@
         <v>1780</v>
       </c>
       <c r="C1781" s="5" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="D1781" s="5" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="E1781" s="3">
         <v>1.0</v>
@@ -36518,10 +36499,10 @@
         <v>1781</v>
       </c>
       <c r="C1782" s="5" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="D1782" s="5" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="E1782" s="3">
         <v>0.0</v>
@@ -36533,7 +36514,7 @@
         <v>1782</v>
       </c>
       <c r="C1783" s="5" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="D1783" s="5" t="s">
         <v>220</v>
@@ -36548,7 +36529,7 @@
         <v>1783</v>
       </c>
       <c r="C1784" s="5" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D1784" s="5" t="s">
         <v>623</v>
@@ -36563,10 +36544,10 @@
         <v>1784</v>
       </c>
       <c r="C1785" s="5" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="D1785" s="5" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="E1785" s="3">
         <v>0.0</v>
@@ -36578,10 +36559,10 @@
         <v>1785</v>
       </c>
       <c r="C1786" s="5" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="D1786" s="5" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="E1786" s="3">
         <v>0.0</v>
@@ -36593,10 +36574,10 @@
         <v>1786</v>
       </c>
       <c r="C1787" s="5" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D1787" s="5" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="E1787" s="3">
         <v>0.0</v>
@@ -36608,10 +36589,10 @@
         <v>1787</v>
       </c>
       <c r="C1788" s="5" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="D1788" s="5" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E1788" s="3">
         <v>0.0</v>
@@ -36623,10 +36604,10 @@
         <v>1788</v>
       </c>
       <c r="C1789" s="5" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="D1789" s="5" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="E1789" s="3">
         <v>2.0</v>
@@ -36638,10 +36619,10 @@
         <v>1789</v>
       </c>
       <c r="C1790" s="5" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D1790" s="5" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E1790" s="3">
         <v>1.0</v>
@@ -36653,10 +36634,10 @@
         <v>1790</v>
       </c>
       <c r="C1791" s="5" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D1791" s="5" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="E1791" s="3">
         <v>0.0</v>
@@ -36668,10 +36649,10 @@
         <v>1791</v>
       </c>
       <c r="C1792" s="5" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D1792" s="5" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="E1792" s="3">
         <v>0.0</v>
@@ -36683,7 +36664,7 @@
         <v>1792</v>
       </c>
       <c r="C1793" s="5" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D1793" s="5" t="s">
         <v>922</v>
@@ -36698,10 +36679,10 @@
         <v>1793</v>
       </c>
       <c r="C1794" s="5" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="D1794" s="5" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="E1794" s="3">
         <v>0.0</v>
@@ -36713,10 +36694,10 @@
         <v>1794</v>
       </c>
       <c r="C1795" s="5" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="D1795" s="5" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="E1795" s="3">
         <v>1.0</v>
@@ -36728,10 +36709,10 @@
         <v>1795</v>
       </c>
       <c r="C1796" s="5" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="D1796" s="5" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="E1796" s="3">
         <v>0.0</v>
@@ -36743,10 +36724,10 @@
         <v>1796</v>
       </c>
       <c r="C1797" s="5" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="D1797" s="5" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="E1797" s="3">
         <v>1.0</v>
@@ -36758,10 +36739,10 @@
         <v>1797</v>
       </c>
       <c r="C1798" s="5" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="D1798" s="5" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="E1798" s="3">
         <v>0.0</v>
@@ -36773,7 +36754,7 @@
         <v>1798</v>
       </c>
       <c r="C1799" s="5" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D1799" s="5" t="s">
         <v>393</v>
@@ -36788,10 +36769,10 @@
         <v>1799</v>
       </c>
       <c r="C1800" s="5" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D1800" s="5" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="E1800" s="3">
         <v>0.0</v>
@@ -36803,10 +36784,10 @@
         <v>1800</v>
       </c>
       <c r="C1801" s="5" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="D1801" s="5" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="E1801" s="3">
         <v>0.0</v>
@@ -36818,10 +36799,10 @@
         <v>1801</v>
       </c>
       <c r="C1802" s="5" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="D1802" s="5" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="E1802" s="3">
         <v>1.0</v>
@@ -36833,10 +36814,10 @@
         <v>1802</v>
       </c>
       <c r="C1803" s="5" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D1803" s="5" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="E1803" s="3">
         <v>0.0</v>
@@ -36848,10 +36829,10 @@
         <v>1803</v>
       </c>
       <c r="C1804" s="5" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="D1804" s="5" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="E1804" s="3">
         <v>0.0</v>
@@ -36863,7 +36844,7 @@
         <v>1804</v>
       </c>
       <c r="C1805" s="5" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="D1805" s="5" t="s">
         <v>2039</v>
@@ -36878,7 +36859,7 @@
         <v>1805</v>
       </c>
       <c r="C1806" s="6" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="D1806" s="6" t="s">
         <v>119</v>
@@ -36893,10 +36874,10 @@
         <v>1806</v>
       </c>
       <c r="C1807" s="10" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="D1807" s="6" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="E1807" s="3">
         <v>1.0</v>
@@ -36908,10 +36889,10 @@
         <v>1807</v>
       </c>
       <c r="C1808" s="10" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D1808" s="10" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="E1808" s="3">
         <v>1.0</v>
@@ -36923,7 +36904,7 @@
         <v>1808</v>
       </c>
       <c r="C1809" s="10" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="D1809" s="10" t="s">
         <v>659</v>
@@ -36938,7 +36919,7 @@
         <v>1809</v>
       </c>
       <c r="C1810" s="6" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="D1810" s="10" t="s">
         <v>511</v>
@@ -36953,10 +36934,10 @@
         <v>1810</v>
       </c>
       <c r="C1811" s="6" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D1811" s="6" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E1811" s="3">
         <v>1.0</v>
@@ -42928,12 +42909,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="D513"/>
+    <hyperlink r:id="rId1" ref="D513"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -25708,7 +25708,9 @@
       <c r="D1062" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="E1062" s="3"/>
+      <c r="E1062" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1063" ht="14.25" customHeight="1">
       <c r="B1063" s="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="3141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3147">
   <si>
     <t>SNO</t>
   </si>
@@ -6616,7 +6616,7 @@
     <t xml:space="preserve">Mohit Aggarwal </t>
   </si>
   <si>
-    <t xml:space="preserve">Maharishi Dayanand University </t>
+    <t>institute of innovation in technology and management</t>
   </si>
   <si>
     <t>Sayedabutahir</t>
@@ -9434,6 +9434,24 @@
   </si>
   <si>
     <t>GITA Autonomous College, BBSR</t>
+  </si>
+  <si>
+    <t>Anjali Jha</t>
+  </si>
+  <si>
+    <t>imanjalijha1221@gmail.com</t>
+  </si>
+  <si>
+    <t>ADITYA KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>ak3981969810@gmail.com</t>
+  </si>
+  <si>
+    <t>Nitin Abrol</t>
+  </si>
+  <si>
+    <t>nabrol2001@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -9775,7 +9793,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B1811" si="1">ROW(A1)</f>
+        <f t="shared" ref="B2:B1814" si="1">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -16187,7 +16205,7 @@
         <v>786</v>
       </c>
       <c r="E427" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="428" ht="14.25" customHeight="1">
@@ -16667,7 +16685,7 @@
         <v>839</v>
       </c>
       <c r="E459" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="460" ht="14.25" customHeight="1">
@@ -19937,7 +19955,7 @@
         <v>1226</v>
       </c>
       <c r="E677" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="678" ht="14.25" customHeight="1">
@@ -22712,7 +22730,7 @@
         <v>1555</v>
       </c>
       <c r="E862" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="863" ht="14.25" customHeight="1">
@@ -26206,7 +26224,9 @@
       <c r="D1095" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="E1095" s="3"/>
+      <c r="E1095" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1096" ht="14.25" customHeight="1">
       <c r="B1096" s="1">
@@ -28406,7 +28426,7 @@
       <c r="C1242" s="5" t="s">
         <v>2200</v>
       </c>
-      <c r="D1242" s="5" t="s">
+      <c r="D1242" s="6" t="s">
         <v>2201</v>
       </c>
       <c r="E1242" s="3">
@@ -28575,7 +28595,7 @@
         <v>2220</v>
       </c>
       <c r="E1253" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1254" ht="14.25" customHeight="1">
@@ -30750,7 +30770,7 @@
         <v>2467</v>
       </c>
       <c r="E1398" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1399" ht="14.25" customHeight="1">
@@ -31230,7 +31250,7 @@
         <v>2521</v>
       </c>
       <c r="E1430" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1431" ht="14.25" customHeight="1">
@@ -31560,7 +31580,7 @@
         <v>2554</v>
       </c>
       <c r="E1452" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1453" ht="14.25" customHeight="1">
@@ -32805,7 +32825,7 @@
         <v>2691</v>
       </c>
       <c r="E1535" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1536" ht="14.25" customHeight="1">
@@ -33915,7 +33935,7 @@
         <v>275</v>
       </c>
       <c r="E1609" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1610" ht="14.25" customHeight="1">
@@ -35565,7 +35585,7 @@
         <v>607</v>
       </c>
       <c r="E1719" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1720" ht="14.25" customHeight="1">
@@ -36949,22 +36969,49 @@
       </c>
     </row>
     <row r="1812" ht="14.25" customHeight="1">
-      <c r="B1812" s="1"/>
-      <c r="C1812" s="5"/>
-      <c r="D1812" s="5"/>
-      <c r="E1812" s="3"/>
+      <c r="B1812" s="1">
+        <f t="shared" si="1"/>
+        <v>1811</v>
+      </c>
+      <c r="C1812" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D1812" s="5" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E1812" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="1813" ht="14.25" customHeight="1">
-      <c r="B1813" s="1"/>
-      <c r="C1813" s="5"/>
-      <c r="D1813" s="5"/>
-      <c r="E1813" s="3"/>
+      <c r="B1813" s="1">
+        <f t="shared" si="1"/>
+        <v>1812</v>
+      </c>
+      <c r="C1813" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D1813" s="5" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E1813" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="1814" ht="14.25" customHeight="1">
-      <c r="B1814" s="1"/>
-      <c r="C1814" s="5"/>
-      <c r="D1814" s="5"/>
-      <c r="E1814" s="3"/>
+      <c r="B1814" s="1">
+        <f t="shared" si="1"/>
+        <v>1813</v>
+      </c>
+      <c r="C1814" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D1814" s="5" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E1814" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="1815" ht="14.25" customHeight="1">
       <c r="B1815" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10085,7 +10085,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -10700,7 +10700,7 @@
         <v>116</v>
       </c>
       <c r="E60" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -10715,7 +10715,7 @@
         <v>116</v>
       </c>
       <c r="E61" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -14720,7 +14720,7 @@
         <v>611</v>
       </c>
       <c r="E328" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="329" ht="14.25" customHeight="1">
@@ -15695,7 +15695,7 @@
         <v>501</v>
       </c>
       <c r="E393" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
@@ -16805,7 +16805,7 @@
         <v>855</v>
       </c>
       <c r="E467" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="468" ht="14.25" customHeight="1">
@@ -17120,7 +17120,7 @@
         <v>890</v>
       </c>
       <c r="E488" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="489" ht="14.25" customHeight="1">
@@ -17225,7 +17225,7 @@
         <v>417</v>
       </c>
       <c r="E495" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="496" ht="14.25" customHeight="1">
@@ -20240,7 +20240,7 @@
         <v>1260</v>
       </c>
       <c r="E696" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="697" ht="14.25" customHeight="1">
@@ -21140,7 +21140,7 @@
         <v>1366</v>
       </c>
       <c r="E756" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="757" ht="14.25" customHeight="1">
@@ -21755,7 +21755,7 @@
         <v>13</v>
       </c>
       <c r="E797" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="798" ht="14.25" customHeight="1">
@@ -24650,7 +24650,7 @@
         <v>624</v>
       </c>
       <c r="E990" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="991" ht="14.25" customHeight="1">
@@ -27770,7 +27770,7 @@
         <v>2125</v>
       </c>
       <c r="E1198" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1199" ht="14.25" customHeight="1">
@@ -27995,7 +27995,7 @@
         <v>857</v>
       </c>
       <c r="E1213" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1214" ht="14.25" customHeight="1">
@@ -28430,7 +28430,7 @@
         <v>2201</v>
       </c>
       <c r="E1242" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1243" ht="14.25" customHeight="1">
@@ -29075,7 +29075,7 @@
         <v>2272</v>
       </c>
       <c r="E1285" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1286" ht="14.25" customHeight="1">
@@ -29195,7 +29195,7 @@
         <v>2281</v>
       </c>
       <c r="E1293" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1294" ht="14.25" customHeight="1">
@@ -29210,7 +29210,7 @@
         <v>1715</v>
       </c>
       <c r="E1294" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1295" ht="14.25" customHeight="1">
@@ -29225,7 +29225,7 @@
         <v>2288</v>
       </c>
       <c r="E1295" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1296" ht="14.25" customHeight="1">
@@ -29540,7 +29540,7 @@
         <v>2327</v>
       </c>
       <c r="E1316" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1317" ht="14.25" customHeight="1">
@@ -30155,7 +30155,7 @@
         <v>2399</v>
       </c>
       <c r="E1357" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1358" ht="14.25" customHeight="1">
@@ -31295,7 +31295,7 @@
         <v>2526</v>
       </c>
       <c r="E1433" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1434" ht="14.25" customHeight="1">
@@ -32750,7 +32750,7 @@
         <v>2682</v>
       </c>
       <c r="E1530" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1531" ht="14.25" customHeight="1">
@@ -33875,7 +33875,7 @@
         <v>487</v>
       </c>
       <c r="E1605" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1606" ht="14.25" customHeight="1">
@@ -34055,7 +34055,7 @@
         <v>13</v>
       </c>
       <c r="E1617" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1618" ht="14.25" customHeight="1">
@@ -34415,7 +34415,7 @@
         <v>2863</v>
       </c>
       <c r="E1641" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1642" ht="14.25" customHeight="1">
@@ -35030,7 +35030,7 @@
         <v>2926</v>
       </c>
       <c r="E1682" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1683" ht="14.25" customHeight="1">
@@ -35165,7 +35165,7 @@
         <v>29</v>
       </c>
       <c r="E1691" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1692" ht="14.25" customHeight="1">
@@ -35465,7 +35465,7 @@
         <v>2972</v>
       </c>
       <c r="E1711" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1712" ht="14.25" customHeight="1">
@@ -35900,7 +35900,7 @@
         <v>2795</v>
       </c>
       <c r="E1740" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1741" ht="14.25" customHeight="1">
@@ -36305,7 +36305,7 @@
         <v>3067</v>
       </c>
       <c r="E1767" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1768" ht="14.25" customHeight="1">
@@ -36725,7 +36725,7 @@
         <v>3114</v>
       </c>
       <c r="E1795" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1796" ht="14.25" customHeight="1">
@@ -36965,7 +36965,7 @@
         <v>3140</v>
       </c>
       <c r="E1811" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1812" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -15011,7 +15011,7 @@
         <v>643</v>
       </c>
       <c r="E347" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="348" ht="14.25" customHeight="1">
@@ -22706,7 +22706,7 @@
         <v>33</v>
       </c>
       <c r="E860" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="861" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -10589,7 +10589,7 @@
         <v>101</v>
       </c>
       <c r="E52" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -12974,7 +12974,7 @@
         <v>402</v>
       </c>
       <c r="E211" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -13154,7 +13154,7 @@
         <v>423</v>
       </c>
       <c r="E223" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="224" ht="14.25" customHeight="1">
@@ -20189,7 +20189,7 @@
         <v>1255</v>
       </c>
       <c r="E692" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="693" ht="14.25" customHeight="1">
@@ -20729,7 +20729,7 @@
         <v>862</v>
       </c>
       <c r="E728" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="729" ht="14.25" customHeight="1">
@@ -24389,7 +24389,7 @@
         <v>1484</v>
       </c>
       <c r="E972" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="973" ht="14.25" customHeight="1">
@@ -24734,7 +24734,7 @@
         <v>1001</v>
       </c>
       <c r="E995" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="996" ht="14.25" customHeight="1">
@@ -25184,7 +25184,7 @@
         <v>29</v>
       </c>
       <c r="E1025" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1026" ht="14.25" customHeight="1">
@@ -26909,7 +26909,7 @@
         <v>2030</v>
       </c>
       <c r="E1140" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1141" ht="14.25" customHeight="1">
@@ -31004,7 +31004,7 @@
         <v>2496</v>
       </c>
       <c r="E1413" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1414" ht="14.25" customHeight="1">
@@ -31409,7 +31409,7 @@
         <v>33</v>
       </c>
       <c r="E1440" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1441" ht="14.25" customHeight="1">
@@ -34454,7 +34454,7 @@
         <v>2869</v>
       </c>
       <c r="E1643" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1644" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -14084,7 +14084,7 @@
         <v>539</v>
       </c>
       <c r="E285" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="286" ht="14.25" customHeight="1">
@@ -33914,7 +33914,7 @@
         <v>2707</v>
       </c>
       <c r="E1607" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1608" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -10529,7 +10529,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -12149,7 +12149,7 @@
         <v>128</v>
       </c>
       <c r="E156" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
@@ -14954,7 +14954,7 @@
         <v>635</v>
       </c>
       <c r="E343" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="344" ht="14.25" customHeight="1">
@@ -15584,7 +15584,7 @@
         <v>25</v>
       </c>
       <c r="E385" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="386" ht="14.25" customHeight="1">
@@ -15914,7 +15914,7 @@
         <v>749</v>
       </c>
       <c r="E407" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="408" ht="14.25" customHeight="1">
@@ -16289,7 +16289,7 @@
         <v>797</v>
       </c>
       <c r="E432" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="433" ht="14.25" customHeight="1">
@@ -16664,7 +16664,7 @@
         <v>837</v>
       </c>
       <c r="E457" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="458" ht="14.25" customHeight="1">
@@ -16919,7 +16919,7 @@
         <v>33</v>
       </c>
       <c r="E474" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="475" ht="14.25" customHeight="1">
@@ -18569,7 +18569,7 @@
         <v>1063</v>
       </c>
       <c r="E584" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="585" ht="14.25" customHeight="1">
@@ -18959,7 +18959,7 @@
         <v>1107</v>
       </c>
       <c r="E610" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="611" ht="14.25" customHeight="1">
@@ -19259,7 +19259,7 @@
         <v>1145</v>
       </c>
       <c r="E630" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="631" ht="14.25" customHeight="1">
@@ -19649,7 +19649,7 @@
         <v>580</v>
       </c>
       <c r="E656" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="657" ht="14.25" customHeight="1">
@@ -20069,7 +20069,7 @@
         <v>1240</v>
       </c>
       <c r="E684" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="685" ht="14.25" customHeight="1">
@@ -20549,7 +20549,7 @@
         <v>1298</v>
       </c>
       <c r="E716" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="717" ht="14.25" customHeight="1">
@@ -21149,7 +21149,7 @@
         <v>1368</v>
       </c>
       <c r="E756" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="757" ht="14.25" customHeight="1">
@@ -22514,7 +22514,7 @@
         <v>1531</v>
       </c>
       <c r="E847" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="848" ht="14.25" customHeight="1">
@@ -23294,7 +23294,7 @@
         <v>1620</v>
       </c>
       <c r="E899" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="900" ht="14.25" customHeight="1">
@@ -23474,7 +23474,7 @@
         <v>1641</v>
       </c>
       <c r="E911" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="912" ht="14.25" customHeight="1">
@@ -23699,7 +23699,7 @@
         <v>1669</v>
       </c>
       <c r="E926" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="927" ht="14.25" customHeight="1">
@@ -25049,7 +25049,7 @@
         <v>1821</v>
       </c>
       <c r="E1016" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1017" ht="14.25" customHeight="1">
@@ -25199,7 +25199,7 @@
         <v>1839</v>
       </c>
       <c r="E1026" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1027" ht="14.25" customHeight="1">
@@ -25619,7 +25619,7 @@
         <v>1883</v>
       </c>
       <c r="E1054" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1055" ht="14.25" customHeight="1">
@@ -25874,7 +25874,7 @@
         <v>549</v>
       </c>
       <c r="E1071" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1072" ht="14.25" customHeight="1">
@@ -26234,7 +26234,7 @@
         <v>1953</v>
       </c>
       <c r="E1095" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1096" ht="14.25" customHeight="1">
@@ -27719,7 +27719,7 @@
         <v>2120</v>
       </c>
       <c r="E1194" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1195" ht="14.25" customHeight="1">
@@ -28034,7 +28034,7 @@
         <v>1407</v>
       </c>
       <c r="E1215" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1216" ht="14.25" customHeight="1">
@@ -28094,7 +28094,7 @@
         <v>2165</v>
       </c>
       <c r="E1219" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1220" ht="14.25" customHeight="1">
@@ -28109,7 +28109,7 @@
         <v>2167</v>
       </c>
       <c r="E1220" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1221" ht="14.25" customHeight="1">
@@ -30074,7 +30074,7 @@
         <v>2390</v>
       </c>
       <c r="E1351" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1352" ht="14.25" customHeight="1">
@@ -30689,7 +30689,7 @@
         <v>2423</v>
       </c>
       <c r="E1392" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1393" ht="14.25" customHeight="1">
@@ -31979,7 +31979,7 @@
         <v>2598</v>
       </c>
       <c r="E1478" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1479" ht="14.25" customHeight="1">
@@ -32114,7 +32114,7 @@
         <v>999</v>
       </c>
       <c r="E1487" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1488" ht="14.25" customHeight="1">
@@ -32189,7 +32189,7 @@
         <v>2618</v>
       </c>
       <c r="E1492" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1493" ht="14.25" customHeight="1">
@@ -32534,7 +32534,7 @@
         <v>1484</v>
       </c>
       <c r="E1515" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1516" ht="14.25" customHeight="1">
@@ -32579,7 +32579,7 @@
         <v>2664</v>
       </c>
       <c r="E1518" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1519" ht="14.25" customHeight="1">
@@ -32849,7 +32849,7 @@
         <v>2695</v>
       </c>
       <c r="E1536" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1537" ht="14.25" customHeight="1">
@@ -33134,7 +33134,7 @@
         <v>827</v>
       </c>
       <c r="E1555" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1556" ht="14.25" customHeight="1">
@@ -33479,7 +33479,7 @@
         <v>2760</v>
       </c>
       <c r="E1578" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1579" ht="14.25" customHeight="1">
@@ -33569,7 +33569,7 @@
         <v>2771</v>
       </c>
       <c r="E1584" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1585" ht="14.25" customHeight="1">
@@ -34169,7 +34169,7 @@
         <v>2837</v>
       </c>
       <c r="E1624" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1625" ht="14.25" customHeight="1">
@@ -34454,7 +34454,7 @@
         <v>2869</v>
       </c>
       <c r="E1643" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1644" ht="14.25" customHeight="1">
@@ -34574,7 +34574,7 @@
         <v>512</v>
       </c>
       <c r="E1651" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1652" ht="14.25" customHeight="1">
@@ -34724,7 +34724,7 @@
         <v>2896</v>
       </c>
       <c r="E1661" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1662" ht="14.25" customHeight="1">
@@ -34859,7 +34859,7 @@
         <v>19</v>
       </c>
       <c r="E1670" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1671" ht="14.25" customHeight="1">
@@ -35849,7 +35849,7 @@
         <v>3014</v>
       </c>
       <c r="E1736" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1737" ht="14.25" customHeight="1">
@@ -36434,7 +36434,7 @@
         <v>3081</v>
       </c>
       <c r="E1775" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1776" ht="14.25" customHeight="1">
@@ -36659,7 +36659,7 @@
         <v>3107</v>
       </c>
       <c r="E1790" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1791" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -13484,7 +13484,7 @@
         <v>467</v>
       </c>
       <c r="E245" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="246" ht="14.25" customHeight="1">
@@ -19889,7 +19889,7 @@
         <v>1218</v>
       </c>
       <c r="E672" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="673" ht="14.25" customHeight="1">
@@ -22769,7 +22769,7 @@
         <v>1561</v>
       </c>
       <c r="E864" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="865" ht="14.25" customHeight="1">
@@ -25424,7 +25424,7 @@
         <v>103</v>
       </c>
       <c r="E1041" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1042" ht="14.25" customHeight="1">
@@ -28229,7 +28229,7 @@
         <v>1827</v>
       </c>
       <c r="E1228" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1229" ht="14.25" customHeight="1">
@@ -29114,7 +29114,7 @@
         <v>2278</v>
       </c>
       <c r="E1287" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1288" ht="14.25" customHeight="1">
@@ -31574,7 +31574,7 @@
         <v>2554</v>
       </c>
       <c r="E1451" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1452" ht="14.25" customHeight="1">
@@ -32924,7 +32924,7 @@
         <v>2702</v>
       </c>
       <c r="E1541" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1542" ht="14.25" customHeight="1">
@@ -33359,7 +33359,7 @@
         <v>2749</v>
       </c>
       <c r="E1570" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1571" ht="14.25" customHeight="1">
@@ -34229,7 +34229,7 @@
         <v>2844</v>
       </c>
       <c r="E1628" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1629" ht="14.25" customHeight="1">
@@ -34679,7 +34679,7 @@
         <v>13</v>
       </c>
       <c r="E1658" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1659" ht="14.25" customHeight="1">
@@ -35999,7 +35999,7 @@
         <v>1629</v>
       </c>
       <c r="E1746" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1747" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -10214,7 +10214,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -12464,7 +12464,7 @@
         <v>340</v>
       </c>
       <c r="E177" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
@@ -12974,7 +12974,7 @@
         <v>402</v>
       </c>
       <c r="E211" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
@@ -14429,7 +14429,7 @@
         <v>574</v>
       </c>
       <c r="E308" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="309" ht="14.25" customHeight="1">
@@ -15314,7 +15314,7 @@
         <v>678</v>
       </c>
       <c r="E367" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="368" ht="14.25" customHeight="1">
@@ -15524,7 +15524,7 @@
         <v>704</v>
       </c>
       <c r="E381" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="382" ht="14.25" customHeight="1">
@@ -15719,7 +15719,7 @@
         <v>726</v>
       </c>
       <c r="E394" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="395" ht="14.25" customHeight="1">
@@ -16439,7 +16439,7 @@
         <v>221</v>
       </c>
       <c r="E442" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="443" ht="14.25" customHeight="1">
@@ -17129,7 +17129,7 @@
         <v>891</v>
       </c>
       <c r="E488" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="489" ht="14.25" customHeight="1">
@@ -18314,7 +18314,7 @@
         <v>1032</v>
       </c>
       <c r="E567" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="568" ht="14.25" customHeight="1">
@@ -19829,7 +19829,7 @@
         <v>1210</v>
       </c>
       <c r="E668" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="669" ht="14.25" customHeight="1">
@@ -19964,7 +19964,7 @@
         <v>1228</v>
       </c>
       <c r="E677" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="678" ht="14.25" customHeight="1">
@@ -20189,7 +20189,7 @@
         <v>1255</v>
       </c>
       <c r="E692" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="693" ht="14.25" customHeight="1">
@@ -21674,7 +21674,7 @@
         <v>66</v>
       </c>
       <c r="E791" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="792" ht="14.25" customHeight="1">
@@ -22079,7 +22079,7 @@
         <v>29</v>
       </c>
       <c r="E818" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="819" ht="14.25" customHeight="1">
@@ -22184,7 +22184,7 @@
         <v>29</v>
       </c>
       <c r="E825" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="826" ht="14.25" customHeight="1">
@@ -23489,7 +23489,7 @@
         <v>1643</v>
       </c>
       <c r="E912" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="913" ht="14.25" customHeight="1">
@@ -23609,7 +23609,7 @@
         <v>1659</v>
       </c>
       <c r="E920" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="921" ht="14.25" customHeight="1">
@@ -23639,7 +23639,7 @@
         <v>1663</v>
       </c>
       <c r="E922" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="923" ht="14.25" customHeight="1">
@@ -25184,7 +25184,7 @@
         <v>29</v>
       </c>
       <c r="E1025" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1026" ht="14.25" customHeight="1">
@@ -25859,7 +25859,7 @@
         <v>39</v>
       </c>
       <c r="E1070" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1071" ht="14.25" customHeight="1">
@@ -26159,7 +26159,7 @@
         <v>17</v>
       </c>
       <c r="E1090" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1091" ht="14.25" customHeight="1">
@@ -27134,7 +27134,7 @@
         <v>2054</v>
       </c>
       <c r="E1155" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1156" ht="14.25" customHeight="1">
@@ -27254,7 +27254,7 @@
         <v>78</v>
       </c>
       <c r="E1163" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1164" ht="14.25" customHeight="1">
@@ -27389,7 +27389,7 @@
         <v>2081</v>
       </c>
       <c r="E1172" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1173" ht="14.25" customHeight="1">
@@ -27689,7 +27689,7 @@
         <v>2116</v>
       </c>
       <c r="E1192" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1193" ht="14.25" customHeight="1">
@@ -28049,7 +28049,7 @@
         <v>2159</v>
       </c>
       <c r="E1216" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1217" ht="14.25" customHeight="1">
@@ -28709,7 +28709,7 @@
         <v>2233</v>
       </c>
       <c r="E1260" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1261" ht="14.25" customHeight="1">
@@ -28784,7 +28784,7 @@
         <v>2241</v>
       </c>
       <c r="E1265" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1266" ht="14.25" customHeight="1">
@@ -29174,7 +29174,7 @@
         <v>2285</v>
       </c>
       <c r="E1291" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1292" ht="14.25" customHeight="1">
@@ -29984,7 +29984,7 @@
         <v>2381</v>
       </c>
       <c r="E1345" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1346" ht="14.25" customHeight="1">
@@ -30494,7 +30494,7 @@
         <v>2438</v>
       </c>
       <c r="E1379" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1380" ht="14.25" customHeight="1">
@@ -30959,7 +30959,7 @@
         <v>2491</v>
       </c>
       <c r="E1410" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1411" ht="14.25" customHeight="1">
@@ -31994,7 +31994,7 @@
         <v>787</v>
       </c>
       <c r="E1479" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1480" ht="14.25" customHeight="1">
@@ -32819,7 +32819,7 @@
         <v>2691</v>
       </c>
       <c r="E1534" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1535" ht="14.25" customHeight="1">
@@ -33404,7 +33404,7 @@
         <v>52</v>
       </c>
       <c r="E1573" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1574" ht="14.25" customHeight="1">
@@ -34064,7 +34064,7 @@
         <v>13</v>
       </c>
       <c r="E1617" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1618" ht="14.25" customHeight="1">
@@ -34409,7 +34409,7 @@
         <v>1561</v>
       </c>
       <c r="E1640" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1641" ht="14.25" customHeight="1">
@@ -34649,7 +34649,7 @@
         <v>2394</v>
       </c>
       <c r="E1656" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1657" ht="14.25" customHeight="1">
@@ -34814,7 +34814,7 @@
         <v>1580</v>
       </c>
       <c r="E1667" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1668" ht="14.25" customHeight="1">
@@ -34874,7 +34874,7 @@
         <v>2909</v>
       </c>
       <c r="E1671" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1672" ht="14.25" customHeight="1">
@@ -36914,7 +36914,7 @@
         <v>3136</v>
       </c>
       <c r="E1807" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1808" ht="14.25" customHeight="1">
@@ -36944,7 +36944,7 @@
         <v>661</v>
       </c>
       <c r="E1809" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1810" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="3150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="3152">
   <si>
     <t>SNO</t>
   </si>
@@ -9461,6 +9461,12 @@
   </si>
   <si>
     <t>MIT-WPU</t>
+  </si>
+  <si>
+    <t>Saksham Saklani</t>
+  </si>
+  <si>
+    <t>Graphic era university</t>
   </si>
 </sst>
 </file>
@@ -9802,7 +9808,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B1815" si="1">ROW(A1)</f>
+        <f t="shared" ref="B2:B1816" si="1">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -10169,7 +10175,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -11189,7 +11195,7 @@
         <v>178</v>
       </c>
       <c r="E92" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -13109,7 +13115,7 @@
         <v>417</v>
       </c>
       <c r="E220" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="221" ht="14.25" customHeight="1">
@@ -14804,7 +14810,7 @@
         <v>621</v>
       </c>
       <c r="E333" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="334" ht="14.25" customHeight="1">
@@ -16829,7 +16835,7 @@
         <v>858</v>
       </c>
       <c r="E468" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="469" ht="14.25" customHeight="1">
@@ -19544,7 +19550,7 @@
         <v>178</v>
       </c>
       <c r="E649" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="650" ht="14.25" customHeight="1">
@@ -23384,7 +23390,7 @@
         <v>624</v>
       </c>
       <c r="E905" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="906" ht="14.25" customHeight="1">
@@ -31304,7 +31310,7 @@
         <v>2528</v>
       </c>
       <c r="E1433" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1434" ht="14.25" customHeight="1">
@@ -31889,7 +31895,7 @@
         <v>2589</v>
       </c>
       <c r="E1472" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1473" ht="14.25" customHeight="1">
@@ -31919,7 +31925,7 @@
         <v>111</v>
       </c>
       <c r="E1474" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1475" ht="14.25" customHeight="1">
@@ -37004,7 +37010,7 @@
         <v>19</v>
       </c>
       <c r="E1813" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1814" ht="14.25" customHeight="1">
@@ -37038,10 +37044,19 @@
       </c>
     </row>
     <row r="1816" ht="14.25" customHeight="1">
-      <c r="B1816" s="2"/>
-      <c r="C1816" s="5"/>
-      <c r="D1816" s="5"/>
-      <c r="E1816" s="1"/>
+      <c r="B1816" s="2">
+        <f t="shared" si="1"/>
+        <v>1815</v>
+      </c>
+      <c r="C1816" s="6" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D1816" s="10" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E1816" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="1817" ht="14.25" customHeight="1">
       <c r="B1817" s="2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="3152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="3152">
   <si>
     <t>SNO</t>
   </si>
@@ -1396,7 +1396,7 @@
     <t>Ridham Sharma</t>
   </si>
   <si>
-    <t xml:space="preserve">Dav institute of engineering and technology </t>
+    <t>Dav Institute Of Engineering And Technology ,Jalandhar</t>
   </si>
   <si>
     <t>Sneha Das</t>
@@ -6679,7 +6679,7 @@
     <t>Selvakumar S</t>
   </si>
   <si>
-    <t>Cognizant</t>
+    <t>Mepco Schlenk Engineering College; Cognizant</t>
   </si>
   <si>
     <t>MUSKAN GOYAL</t>
@@ -6877,7 +6877,7 @@
     <t>Sumrender Singh</t>
   </si>
   <si>
-    <t>Aannika</t>
+    <t>Aannika Arrya Yadav</t>
   </si>
   <si>
     <t>Ankit agnihotri</t>
@@ -9445,9 +9445,6 @@
     <t>Anjali Jha</t>
   </si>
   <si>
-    <t>imanjalijha1221@gmail.com</t>
-  </si>
-  <si>
     <t>ADITYA KUMAR SINGH</t>
   </si>
   <si>
@@ -9467,6 +9464,9 @@
   </si>
   <si>
     <t>Graphic era university</t>
+  </si>
+  <si>
+    <t>Anjali Bhawari</t>
   </si>
 </sst>
 </file>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B1816" si="1">ROW(A1)</f>
+        <f t="shared" ref="B2:B1817" si="1">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -9851,7 +9851,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -10040,7 +10040,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -10100,7 +10100,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -10145,7 +10145,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -10190,7 +10190,7 @@
         <v>48</v>
       </c>
       <c r="E25" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -10235,7 +10235,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -10310,7 +10310,7 @@
         <v>64</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -10445,7 +10445,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
@@ -10520,7 +10520,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
@@ -10535,7 +10535,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -10715,7 +10715,7 @@
         <v>116</v>
       </c>
       <c r="E60" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -10730,7 +10730,7 @@
         <v>116</v>
       </c>
       <c r="E61" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -10760,7 +10760,7 @@
         <v>120</v>
       </c>
       <c r="E63" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
@@ -10790,7 +10790,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
@@ -11315,7 +11315,7 @@
         <v>19</v>
       </c>
       <c r="E100" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -11420,7 +11420,7 @@
         <v>207</v>
       </c>
       <c r="E107" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
@@ -11570,7 +11570,7 @@
         <v>223</v>
       </c>
       <c r="E117" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
@@ -11780,7 +11780,7 @@
         <v>251</v>
       </c>
       <c r="E131" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
@@ -12020,7 +12020,7 @@
         <v>39</v>
       </c>
       <c r="E147" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
@@ -12395,7 +12395,7 @@
         <v>330</v>
       </c>
       <c r="E172" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -12635,7 +12635,7 @@
         <v>359</v>
       </c>
       <c r="E188" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1">
@@ -12710,7 +12710,7 @@
         <v>369</v>
       </c>
       <c r="E193" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -12800,7 +12800,7 @@
         <v>52</v>
       </c>
       <c r="E199" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
@@ -12935,7 +12935,7 @@
         <v>396</v>
       </c>
       <c r="E208" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
@@ -13145,7 +13145,7 @@
         <v>421</v>
       </c>
       <c r="E222" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="223" ht="14.25" customHeight="1">
@@ -13160,7 +13160,7 @@
         <v>423</v>
       </c>
       <c r="E223" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="224" ht="14.25" customHeight="1">
@@ -13205,7 +13205,7 @@
         <v>429</v>
       </c>
       <c r="E226" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="227" ht="14.25" customHeight="1">
@@ -13220,7 +13220,7 @@
         <v>431</v>
       </c>
       <c r="E227" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="228" ht="14.25" customHeight="1">
@@ -13441,11 +13441,11 @@
       <c r="C242" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D242" s="5" t="s">
+      <c r="D242" s="6" t="s">
         <v>461</v>
       </c>
       <c r="E242" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="243" ht="14.25" customHeight="1">
@@ -13625,7 +13625,7 @@
         <v>485</v>
       </c>
       <c r="E254" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
@@ -13760,7 +13760,7 @@
         <v>501</v>
       </c>
       <c r="E263" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="264" ht="14.25" customHeight="1">
@@ -13895,7 +13895,7 @@
         <v>516</v>
       </c>
       <c r="E272" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="273" ht="14.25" customHeight="1">
@@ -14090,7 +14090,7 @@
         <v>539</v>
       </c>
       <c r="E285" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="286" ht="14.25" customHeight="1">
@@ -14285,7 +14285,7 @@
         <v>558</v>
       </c>
       <c r="E298" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="299" ht="14.25" customHeight="1">
@@ -14660,7 +14660,7 @@
         <v>601</v>
       </c>
       <c r="E323" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="324" ht="14.25" customHeight="1">
@@ -14735,7 +14735,7 @@
         <v>611</v>
       </c>
       <c r="E328" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="329" ht="14.25" customHeight="1">
@@ -14840,7 +14840,7 @@
         <v>624</v>
       </c>
       <c r="E335" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="336" ht="14.25" customHeight="1">
@@ -15245,7 +15245,7 @@
         <v>668</v>
       </c>
       <c r="E362" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="363" ht="14.25" customHeight="1">
@@ -15695,7 +15695,7 @@
         <v>120</v>
       </c>
       <c r="E392" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
@@ -15710,7 +15710,7 @@
         <v>501</v>
       </c>
       <c r="E393" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
@@ -15845,7 +15845,7 @@
         <v>739</v>
       </c>
       <c r="E402" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="403" ht="14.25" customHeight="1">
@@ -16040,7 +16040,7 @@
         <v>765</v>
       </c>
       <c r="E415" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="416" ht="14.25" customHeight="1">
@@ -16145,7 +16145,7 @@
         <v>777</v>
       </c>
       <c r="E422" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="423" ht="14.25" customHeight="1">
@@ -16220,7 +16220,7 @@
         <v>787</v>
       </c>
       <c r="E427" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="428" ht="14.25" customHeight="1">
@@ -16580,7 +16580,7 @@
         <v>827</v>
       </c>
       <c r="E451" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="452" ht="14.25" customHeight="1">
@@ -16700,7 +16700,7 @@
         <v>840</v>
       </c>
       <c r="E459" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="460" ht="14.25" customHeight="1">
@@ -16745,7 +16745,7 @@
         <v>846</v>
       </c>
       <c r="E462" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="463" ht="14.25" customHeight="1">
@@ -16820,7 +16820,7 @@
         <v>856</v>
       </c>
       <c r="E467" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="468" ht="14.25" customHeight="1">
@@ -16835,7 +16835,7 @@
         <v>858</v>
       </c>
       <c r="E468" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="469" ht="14.25" customHeight="1">
@@ -16850,7 +16850,7 @@
         <v>286</v>
       </c>
       <c r="E469" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="470" ht="14.25" customHeight="1">
@@ -16910,7 +16910,7 @@
         <v>866</v>
       </c>
       <c r="E473" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="474" ht="14.25" customHeight="1">
@@ -17030,7 +17030,7 @@
         <v>757</v>
       </c>
       <c r="E481" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="482" ht="14.25" customHeight="1">
@@ -17195,7 +17195,7 @@
         <v>265</v>
       </c>
       <c r="E492" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="493" ht="14.25" customHeight="1">
@@ -17330,7 +17330,7 @@
         <v>913</v>
       </c>
       <c r="E501" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="502" ht="14.25" customHeight="1">
@@ -17495,7 +17495,7 @@
         <v>934</v>
       </c>
       <c r="E512" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="513" ht="14.25" customHeight="1">
@@ -17585,7 +17585,7 @@
         <v>946</v>
       </c>
       <c r="E518" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="519" ht="14.25" customHeight="1">
@@ -17615,7 +17615,7 @@
         <v>950</v>
       </c>
       <c r="E520" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="521" ht="14.25" customHeight="1">
@@ -17795,7 +17795,7 @@
         <v>971</v>
       </c>
       <c r="E532" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="533" ht="14.25" customHeight="1">
@@ -17810,7 +17810,7 @@
         <v>973</v>
       </c>
       <c r="E533" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="534" ht="14.25" customHeight="1">
@@ -17840,7 +17840,7 @@
         <v>976</v>
       </c>
       <c r="E535" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="536" ht="14.25" customHeight="1">
@@ -17855,7 +17855,7 @@
         <v>978</v>
       </c>
       <c r="E536" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="537" ht="14.25" customHeight="1">
@@ -18020,7 +18020,7 @@
         <v>120</v>
       </c>
       <c r="E547" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="548" ht="14.25" customHeight="1">
@@ -18035,7 +18035,7 @@
         <v>999</v>
       </c>
       <c r="E548" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="549" ht="14.25" customHeight="1">
@@ -18080,7 +18080,7 @@
         <v>576</v>
       </c>
       <c r="E551" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="552" ht="14.25" customHeight="1">
@@ -18140,7 +18140,7 @@
         <v>1012</v>
       </c>
       <c r="E555" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="556" ht="14.25" customHeight="1">
@@ -18170,7 +18170,7 @@
         <v>1015</v>
       </c>
       <c r="E557" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="558" ht="14.25" customHeight="1">
@@ -18215,7 +18215,7 @@
         <v>607</v>
       </c>
       <c r="E560" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="561" ht="14.25" customHeight="1">
@@ -18260,7 +18260,7 @@
         <v>1024</v>
       </c>
       <c r="E563" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="564" ht="14.25" customHeight="1">
@@ -18620,7 +18620,7 @@
         <v>1069</v>
       </c>
       <c r="E587" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="588" ht="14.25" customHeight="1">
@@ -18770,7 +18770,7 @@
         <v>1085</v>
       </c>
       <c r="E597" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="598" ht="14.25" customHeight="1">
@@ -18800,7 +18800,7 @@
         <v>1089</v>
       </c>
       <c r="E599" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="600" ht="14.25" customHeight="1">
@@ -18875,7 +18875,7 @@
         <v>1098</v>
       </c>
       <c r="E604" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="605" ht="14.25" customHeight="1">
@@ -19730,7 +19730,7 @@
         <v>1197</v>
       </c>
       <c r="E661" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="662" ht="14.25" customHeight="1">
@@ -19955,7 +19955,7 @@
         <v>1226</v>
       </c>
       <c r="E676" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="677" ht="14.25" customHeight="1">
@@ -19985,7 +19985,7 @@
         <v>1230</v>
       </c>
       <c r="E678" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="679" ht="14.25" customHeight="1">
@@ -20000,7 +20000,7 @@
         <v>1232</v>
       </c>
       <c r="E679" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="680" ht="14.25" customHeight="1">
@@ -20255,7 +20255,7 @@
         <v>1262</v>
       </c>
       <c r="E696" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="697" ht="14.25" customHeight="1">
@@ -20585,7 +20585,7 @@
         <v>1302</v>
       </c>
       <c r="E718" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="719" ht="14.25" customHeight="1">
@@ -20615,7 +20615,7 @@
         <v>1305</v>
       </c>
       <c r="E720" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="721" ht="14.25" customHeight="1">
@@ -20735,7 +20735,7 @@
         <v>862</v>
       </c>
       <c r="E728" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="729" ht="14.25" customHeight="1">
@@ -20900,7 +20900,7 @@
         <v>31</v>
       </c>
       <c r="E739" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="740" ht="14.25" customHeight="1">
@@ -20960,7 +20960,7 @@
         <v>1345</v>
       </c>
       <c r="E743" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="744" ht="14.25" customHeight="1">
@@ -21245,7 +21245,7 @@
         <v>1379</v>
       </c>
       <c r="E762" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="763" ht="14.25" customHeight="1">
@@ -22070,7 +22070,7 @@
         <v>1477</v>
       </c>
       <c r="E817" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="818" ht="14.25" customHeight="1">
@@ -22250,7 +22250,7 @@
         <v>52</v>
       </c>
       <c r="E829" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="830" ht="14.25" customHeight="1">
@@ -22265,7 +22265,7 @@
         <v>1498</v>
       </c>
       <c r="E830" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="831" ht="14.25" customHeight="1">
@@ -22385,7 +22385,7 @@
         <v>1513</v>
       </c>
       <c r="E838" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="839" ht="14.25" customHeight="1">
@@ -22400,7 +22400,7 @@
         <v>1515</v>
       </c>
       <c r="E839" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="840" ht="14.25" customHeight="1">
@@ -22430,7 +22430,7 @@
         <v>1519</v>
       </c>
       <c r="E841" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="842" ht="14.25" customHeight="1">
@@ -22445,7 +22445,7 @@
         <v>1521</v>
       </c>
       <c r="E842" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="843" ht="14.25" customHeight="1">
@@ -22715,7 +22715,7 @@
         <v>33</v>
       </c>
       <c r="E860" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="861" ht="14.25" customHeight="1">
@@ -22745,7 +22745,7 @@
         <v>1557</v>
       </c>
       <c r="E862" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="863" ht="14.25" customHeight="1">
@@ -23330,7 +23330,7 @@
         <v>1624</v>
       </c>
       <c r="E901" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="902" ht="14.25" customHeight="1">
@@ -23510,7 +23510,7 @@
         <v>1645</v>
       </c>
       <c r="E913" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="914" ht="14.25" customHeight="1">
@@ -23885,7 +23885,7 @@
         <v>1690</v>
       </c>
       <c r="E938" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="939" ht="14.25" customHeight="1">
@@ -24050,7 +24050,7 @@
         <v>1710</v>
       </c>
       <c r="E949" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="950" ht="14.25" customHeight="1">
@@ -24200,7 +24200,7 @@
         <v>1729</v>
       </c>
       <c r="E959" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="960" ht="14.25" customHeight="1">
@@ -24380,7 +24380,7 @@
         <v>1749</v>
       </c>
       <c r="E971" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="972" ht="14.25" customHeight="1">
@@ -24395,7 +24395,7 @@
         <v>1484</v>
       </c>
       <c r="E972" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="973" ht="14.25" customHeight="1">
@@ -24635,7 +24635,7 @@
         <v>1774</v>
       </c>
       <c r="E988" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="989" ht="14.25" customHeight="1">
@@ -24665,7 +24665,7 @@
         <v>624</v>
       </c>
       <c r="E990" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="991" ht="14.25" customHeight="1">
@@ -24995,7 +24995,7 @@
         <v>641</v>
       </c>
       <c r="E1012" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1013" ht="14.25" customHeight="1">
@@ -25160,7 +25160,7 @@
         <v>1834</v>
       </c>
       <c r="E1023" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1024" ht="14.25" customHeight="1">
@@ -25370,7 +25370,7 @@
         <v>52</v>
       </c>
       <c r="E1037" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1038" ht="14.25" customHeight="1">
@@ -25745,7 +25745,7 @@
         <v>1898</v>
       </c>
       <c r="E1062" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1063" ht="14.25" customHeight="1">
@@ -25880,7 +25880,7 @@
         <v>549</v>
       </c>
       <c r="E1071" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1072" ht="14.25" customHeight="1">
@@ -25895,7 +25895,7 @@
         <v>1827</v>
       </c>
       <c r="E1072" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1073" ht="14.25" customHeight="1">
@@ -25910,7 +25910,7 @@
         <v>72</v>
       </c>
       <c r="E1073" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1074" ht="14.25" customHeight="1">
@@ -25955,7 +25955,7 @@
         <v>221</v>
       </c>
       <c r="E1076" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1077" ht="14.25" customHeight="1">
@@ -26210,7 +26210,7 @@
         <v>1898</v>
       </c>
       <c r="E1093" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1094" ht="14.25" customHeight="1">
@@ -26285,7 +26285,7 @@
         <v>1959</v>
       </c>
       <c r="E1098" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1099" ht="14.25" customHeight="1">
@@ -26555,7 +26555,7 @@
         <v>505</v>
       </c>
       <c r="E1116" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1117" ht="14.25" customHeight="1">
@@ -26600,7 +26600,7 @@
         <v>1995</v>
       </c>
       <c r="E1119" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1120" ht="14.25" customHeight="1">
@@ -26630,7 +26630,7 @@
         <v>1999</v>
       </c>
       <c r="E1121" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1122" ht="14.25" customHeight="1">
@@ -26780,7 +26780,7 @@
         <v>2017</v>
       </c>
       <c r="E1131" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1132" ht="14.25" customHeight="1">
@@ -27095,7 +27095,7 @@
         <v>52</v>
       </c>
       <c r="E1152" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1153" ht="14.25" customHeight="1">
@@ -27410,7 +27410,7 @@
         <v>2083</v>
       </c>
       <c r="E1173" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1174" ht="14.25" customHeight="1">
@@ -27755,7 +27755,7 @@
         <v>2124</v>
       </c>
       <c r="E1196" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1197" ht="14.25" customHeight="1">
@@ -27785,7 +27785,7 @@
         <v>2127</v>
       </c>
       <c r="E1198" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1199" ht="14.25" customHeight="1">
@@ -27875,7 +27875,7 @@
         <v>2139</v>
       </c>
       <c r="E1204" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1205" ht="14.25" customHeight="1">
@@ -28010,7 +28010,7 @@
         <v>858</v>
       </c>
       <c r="E1213" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1214" ht="14.25" customHeight="1">
@@ -28175,7 +28175,7 @@
         <v>785</v>
       </c>
       <c r="E1224" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1225" ht="14.25" customHeight="1">
@@ -28445,7 +28445,7 @@
         <v>2203</v>
       </c>
       <c r="E1242" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1243" ht="14.25" customHeight="1">
@@ -28606,11 +28606,11 @@
       <c r="C1253" s="5" t="s">
         <v>2221</v>
       </c>
-      <c r="D1253" s="5" t="s">
+      <c r="D1253" s="6" t="s">
         <v>2222</v>
       </c>
       <c r="E1253" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1254" ht="14.25" customHeight="1">
@@ -28985,7 +28985,7 @@
         <v>2263</v>
       </c>
       <c r="E1278" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1279" ht="14.25" customHeight="1">
@@ -29030,7 +29030,7 @@
         <v>2268</v>
       </c>
       <c r="E1281" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1282" ht="14.25" customHeight="1">
@@ -29090,7 +29090,7 @@
         <v>2274</v>
       </c>
       <c r="E1285" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1286" ht="14.25" customHeight="1">
@@ -29105,7 +29105,7 @@
         <v>2276</v>
       </c>
       <c r="E1286" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1287" ht="14.25" customHeight="1">
@@ -29135,7 +29135,7 @@
         <v>2279</v>
       </c>
       <c r="E1288" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1289" ht="14.25" customHeight="1">
@@ -29210,7 +29210,7 @@
         <v>2283</v>
       </c>
       <c r="E1293" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1294" ht="14.25" customHeight="1">
@@ -29218,14 +29218,14 @@
         <f t="shared" si="1"/>
         <v>1293</v>
       </c>
-      <c r="C1294" s="5" t="s">
+      <c r="C1294" s="6" t="s">
         <v>2288</v>
       </c>
       <c r="D1294" s="5" t="s">
         <v>1717</v>
       </c>
       <c r="E1294" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1295" ht="14.25" customHeight="1">
@@ -29240,7 +29240,7 @@
         <v>2290</v>
       </c>
       <c r="E1295" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1296" ht="14.25" customHeight="1">
@@ -29330,7 +29330,7 @@
         <v>2302</v>
       </c>
       <c r="E1301" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1302" ht="14.25" customHeight="1">
@@ -29465,7 +29465,7 @@
         <v>336</v>
       </c>
       <c r="E1310" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1311" ht="14.25" customHeight="1">
@@ -29870,7 +29870,7 @@
         <v>319</v>
       </c>
       <c r="E1337" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1338" ht="14.25" customHeight="1">
@@ -30170,7 +30170,7 @@
         <v>2401</v>
       </c>
       <c r="E1357" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1358" ht="14.25" customHeight="1">
@@ -30515,7 +30515,7 @@
         <v>2253</v>
       </c>
       <c r="E1380" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1381" ht="14.25" customHeight="1">
@@ -30755,7 +30755,7 @@
         <v>1350</v>
       </c>
       <c r="E1396" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1397" ht="14.25" customHeight="1">
@@ -30785,7 +30785,7 @@
         <v>2469</v>
       </c>
       <c r="E1398" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1399" ht="14.25" customHeight="1">
@@ -30950,7 +30950,7 @@
         <v>2489</v>
       </c>
       <c r="E1409" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1410" ht="14.25" customHeight="1">
@@ -31010,7 +31010,7 @@
         <v>2496</v>
       </c>
       <c r="E1413" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1414" ht="14.25" customHeight="1">
@@ -31265,7 +31265,7 @@
         <v>2523</v>
       </c>
       <c r="E1430" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1431" ht="14.25" customHeight="1">
@@ -31295,7 +31295,7 @@
         <v>39</v>
       </c>
       <c r="E1432" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1433" ht="14.25" customHeight="1">
@@ -31460,7 +31460,7 @@
         <v>19</v>
       </c>
       <c r="E1443" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1444" ht="14.25" customHeight="1">
@@ -31595,7 +31595,7 @@
         <v>2556</v>
       </c>
       <c r="E1452" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1453" ht="14.25" customHeight="1">
@@ -31760,7 +31760,7 @@
         <v>2575</v>
       </c>
       <c r="E1463" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1464" ht="14.25" customHeight="1">
@@ -31880,7 +31880,7 @@
         <v>275</v>
       </c>
       <c r="E1471" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1472" ht="14.25" customHeight="1">
@@ -31910,7 +31910,7 @@
         <v>2423</v>
       </c>
       <c r="E1473" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1474" ht="14.25" customHeight="1">
@@ -31970,7 +31970,7 @@
         <v>509</v>
       </c>
       <c r="E1477" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1478" ht="14.25" customHeight="1">
@@ -32060,7 +32060,7 @@
         <v>2604</v>
       </c>
       <c r="E1483" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1484" ht="14.25" customHeight="1">
@@ -32120,7 +32120,7 @@
         <v>999</v>
       </c>
       <c r="E1487" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1488" ht="14.25" customHeight="1">
@@ -32195,7 +32195,7 @@
         <v>2618</v>
       </c>
       <c r="E1492" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1493" ht="14.25" customHeight="1">
@@ -32270,7 +32270,7 @@
         <v>2452</v>
       </c>
       <c r="E1497" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1498" ht="14.25" customHeight="1">
@@ -32570,7 +32570,7 @@
         <v>2662</v>
       </c>
       <c r="E1517" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1518" ht="14.25" customHeight="1">
@@ -32750,7 +32750,7 @@
         <v>2660</v>
       </c>
       <c r="E1529" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1530" ht="14.25" customHeight="1">
@@ -32765,7 +32765,7 @@
         <v>2684</v>
       </c>
       <c r="E1530" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1531" ht="14.25" customHeight="1">
@@ -32810,7 +32810,7 @@
         <v>505</v>
       </c>
       <c r="E1533" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1534" ht="14.25" customHeight="1">
@@ -32840,7 +32840,7 @@
         <v>2693</v>
       </c>
       <c r="E1535" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1536" ht="14.25" customHeight="1">
@@ -32990,7 +32990,7 @@
         <v>1350</v>
       </c>
       <c r="E1545" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1546" ht="14.25" customHeight="1">
@@ -33020,7 +33020,7 @@
         <v>661</v>
       </c>
       <c r="E1547" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1548" ht="14.25" customHeight="1">
@@ -33050,7 +33050,7 @@
         <v>17</v>
       </c>
       <c r="E1549" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1550" ht="14.25" customHeight="1">
@@ -33065,7 +33065,7 @@
         <v>17</v>
       </c>
       <c r="E1550" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1551" ht="14.25" customHeight="1">
@@ -33110,7 +33110,7 @@
         <v>2718</v>
       </c>
       <c r="E1553" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1554" ht="14.25" customHeight="1">
@@ -33455,7 +33455,7 @@
         <v>7</v>
       </c>
       <c r="E1576" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1577" ht="14.25" customHeight="1">
@@ -33620,7 +33620,7 @@
         <v>2776</v>
       </c>
       <c r="E1587" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1588" ht="14.25" customHeight="1">
@@ -33650,7 +33650,7 @@
         <v>2780</v>
       </c>
       <c r="E1589" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1590" ht="14.25" customHeight="1">
@@ -33740,7 +33740,7 @@
         <v>2791</v>
       </c>
       <c r="E1595" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1596" ht="14.25" customHeight="1">
@@ -33890,7 +33890,7 @@
         <v>487</v>
       </c>
       <c r="E1605" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1606" ht="14.25" customHeight="1">
@@ -33935,7 +33935,7 @@
         <v>2812</v>
       </c>
       <c r="E1608" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1609" ht="14.25" customHeight="1">
@@ -34430,7 +34430,7 @@
         <v>2865</v>
       </c>
       <c r="E1641" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1642" ht="14.25" customHeight="1">
@@ -34505,7 +34505,7 @@
         <v>2874</v>
       </c>
       <c r="E1646" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1647" ht="14.25" customHeight="1">
@@ -34535,7 +34535,7 @@
         <v>52</v>
       </c>
       <c r="E1648" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1649" ht="14.25" customHeight="1">
@@ -34610,7 +34610,7 @@
         <v>1877</v>
       </c>
       <c r="E1653" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1654" ht="14.25" customHeight="1">
@@ -34640,7 +34640,7 @@
         <v>2888</v>
       </c>
       <c r="E1655" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1656" ht="14.25" customHeight="1">
@@ -34745,7 +34745,7 @@
         <v>2109</v>
       </c>
       <c r="E1662" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1663" ht="14.25" customHeight="1">
@@ -34760,7 +34760,7 @@
         <v>2899</v>
       </c>
       <c r="E1663" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1664" ht="14.25" customHeight="1">
@@ -35060,7 +35060,7 @@
         <v>2394</v>
       </c>
       <c r="E1683" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1684" ht="14.25" customHeight="1">
@@ -35165,7 +35165,7 @@
         <v>2941</v>
       </c>
       <c r="E1690" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1691" ht="14.25" customHeight="1">
@@ -35180,7 +35180,7 @@
         <v>29</v>
       </c>
       <c r="E1691" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1692" ht="14.25" customHeight="1">
@@ -35210,7 +35210,7 @@
         <v>2944</v>
       </c>
       <c r="E1693" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1694" ht="14.25" customHeight="1">
@@ -35285,7 +35285,7 @@
         <v>2952</v>
       </c>
       <c r="E1698" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1699" ht="14.25" customHeight="1">
@@ -35330,7 +35330,7 @@
         <v>2958</v>
       </c>
       <c r="E1701" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1702" ht="14.25" customHeight="1">
@@ -35345,7 +35345,7 @@
         <v>2960</v>
       </c>
       <c r="E1702" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1703" ht="14.25" customHeight="1">
@@ -35420,7 +35420,7 @@
         <v>2967</v>
       </c>
       <c r="E1707" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1708" ht="14.25" customHeight="1">
@@ -35480,7 +35480,7 @@
         <v>2974</v>
       </c>
       <c r="E1711" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1712" ht="14.25" customHeight="1">
@@ -35495,7 +35495,7 @@
         <v>2976</v>
       </c>
       <c r="E1712" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1713" ht="14.25" customHeight="1">
@@ -35705,7 +35705,7 @@
         <v>2997</v>
       </c>
       <c r="E1726" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1727" ht="14.25" customHeight="1">
@@ -35840,7 +35840,7 @@
         <v>3012</v>
       </c>
       <c r="E1735" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1736" ht="14.25" customHeight="1">
@@ -35915,7 +35915,7 @@
         <v>2797</v>
       </c>
       <c r="E1740" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1741" ht="14.25" customHeight="1">
@@ -36155,7 +36155,7 @@
         <v>3048</v>
       </c>
       <c r="E1756" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1757" ht="14.25" customHeight="1">
@@ -36170,7 +36170,7 @@
         <v>3050</v>
       </c>
       <c r="E1757" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1758" ht="14.25" customHeight="1">
@@ -36290,7 +36290,7 @@
         <v>3065</v>
       </c>
       <c r="E1765" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1766" ht="14.25" customHeight="1">
@@ -36320,7 +36320,7 @@
         <v>3069</v>
       </c>
       <c r="E1767" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1768" ht="14.25" customHeight="1">
@@ -36335,7 +36335,7 @@
         <v>3071</v>
       </c>
       <c r="E1768" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1769" ht="14.25" customHeight="1">
@@ -36590,7 +36590,7 @@
         <v>3097</v>
       </c>
       <c r="E1785" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1786" ht="14.25" customHeight="1">
@@ -36650,7 +36650,7 @@
         <v>3105</v>
       </c>
       <c r="E1789" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1790" ht="14.25" customHeight="1">
@@ -36770,7 +36770,7 @@
         <v>3119</v>
       </c>
       <c r="E1797" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1798" ht="14.25" customHeight="1">
@@ -36845,7 +36845,7 @@
         <v>3128</v>
       </c>
       <c r="E1802" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1803" ht="14.25" customHeight="1">
@@ -36905,7 +36905,7 @@
         <v>120</v>
       </c>
       <c r="E1806" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1807" ht="14.25" customHeight="1">
@@ -36920,7 +36920,7 @@
         <v>3136</v>
       </c>
       <c r="E1807" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1808" ht="14.25" customHeight="1">
@@ -36980,7 +36980,7 @@
         <v>3142</v>
       </c>
       <c r="E1811" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1812" ht="14.25" customHeight="1">
@@ -36991,11 +36991,11 @@
       <c r="C1812" s="5" t="s">
         <v>3143</v>
       </c>
-      <c r="D1812" s="5" t="s">
-        <v>3144</v>
+      <c r="D1812" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E1812" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1813" ht="14.25" customHeight="1">
@@ -37004,7 +37004,7 @@
         <v>1812</v>
       </c>
       <c r="C1813" s="5" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="D1813" s="6" t="s">
         <v>19</v>
@@ -37019,10 +37019,10 @@
         <v>1813</v>
       </c>
       <c r="C1814" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D1814" s="5" t="s">
         <v>3146</v>
-      </c>
-      <c r="D1814" s="5" t="s">
-        <v>3147</v>
       </c>
       <c r="E1814" s="1">
         <v>0.0</v>
@@ -37034,13 +37034,13 @@
         <v>1814</v>
       </c>
       <c r="C1815" s="10" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D1815" s="6" t="s">
         <v>3148</v>
       </c>
-      <c r="D1815" s="6" t="s">
-        <v>3149</v>
-      </c>
       <c r="E1815" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1816" ht="14.25" customHeight="1">
@@ -37049,20 +37049,29 @@
         <v>1815</v>
       </c>
       <c r="C1816" s="6" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1816" s="10" t="s">
         <v>3150</v>
       </c>
-      <c r="D1816" s="10" t="s">
+      <c r="E1816" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1817" ht="14.25" customHeight="1">
+      <c r="B1817" s="2">
+        <f t="shared" si="1"/>
+        <v>1816</v>
+      </c>
+      <c r="C1817" s="10" t="s">
         <v>3151</v>
       </c>
-      <c r="E1816" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="1817" ht="14.25" customHeight="1">
-      <c r="B1817" s="2"/>
-      <c r="C1817" s="5"/>
-      <c r="D1817" s="5"/>
-      <c r="E1817" s="1"/>
+      <c r="D1817" s="10" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E1817" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="1818" ht="14.25" customHeight="1">
       <c r="B1818" s="2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22235,7 +22235,7 @@
         <v>1495</v>
       </c>
       <c r="E828" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="829" ht="14.25" customHeight="1">
@@ -29555,7 +29555,7 @@
         <v>2329</v>
       </c>
       <c r="E1316" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1317" ht="14.25" customHeight="1">
@@ -33410,7 +33410,7 @@
         <v>52</v>
       </c>
       <c r="E1573" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1574" ht="14.25" customHeight="1">
@@ -36965,7 +36965,7 @@
         <v>512</v>
       </c>
       <c r="E1810" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1811" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -13093,7 +13093,7 @@
         <v>394</v>
       </c>
       <c r="E207" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
@@ -16843,7 +16843,7 @@
         <v>837</v>
       </c>
       <c r="E457" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="458" ht="14.25" customHeight="1">
@@ -18343,7 +18343,7 @@
         <v>1015</v>
       </c>
       <c r="E557" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="558" ht="14.25" customHeight="1">
@@ -21703,7 +21703,7 @@
         <v>911</v>
       </c>
       <c r="E781" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="782" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -10558,7 +10558,7 @@
         <v>74</v>
       </c>
       <c r="E38" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -24193,7 +24193,7 @@
         <v>1708</v>
       </c>
       <c r="E947" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="948" ht="14.25" customHeight="1">
@@ -36256,7 +36256,7 @@
         <v>3040</v>
       </c>
       <c r="E1751" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1752" ht="14.25" customHeight="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -34951,8 +34951,8 @@
       <c r="D1541" s="3" t="s">
         <v>2702</v>
       </c>
-      <c r="E1541" s="1">
-        <v>4.0</v>
+      <c r="E1541" s="5">
+        <v>5.0</v>
       </c>
       <c r="F1541" s="1"/>
       <c r="I1541" s="9"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -37981,7 +37981,7 @@
         <v>2975</v>
       </c>
       <c r="E1711" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1711" s="2"/>
       <c r="I1711" s="11"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -33929,7 +33929,7 @@
         <v>2590</v>
       </c>
       <c r="E1472" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1472" s="2"/>
       <c r="I1472" s="12"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10328,7 +10328,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F13" s="2"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10424,7 +10424,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -11128,7 +11128,7 @@
         <v>120</v>
       </c>
       <c r="E63" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F63" s="2"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10247,7 +10247,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -10360,7 +10360,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -10424,7 +10424,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -10456,7 +10456,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -10472,7 +10472,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -10504,7 +10504,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -10520,7 +10520,7 @@
         <v>48</v>
       </c>
       <c r="E25" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -10552,7 +10552,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -10568,7 +10568,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -10728,7 +10728,7 @@
         <v>74</v>
       </c>
       <c r="E38" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -10760,7 +10760,7 @@
         <v>78</v>
       </c>
       <c r="E40" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -10792,7 +10792,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -10840,7 +10840,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -10872,7 +10872,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -10888,7 +10888,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F48" s="2"/>
     </row>
@@ -11032,7 +11032,7 @@
         <v>111</v>
       </c>
       <c r="E57" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -11080,7 +11080,7 @@
         <v>116</v>
       </c>
       <c r="E60" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -11096,7 +11096,7 @@
         <v>116</v>
       </c>
       <c r="E61" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F61" s="2"/>
     </row>
@@ -11128,7 +11128,7 @@
         <v>120</v>
       </c>
       <c r="E63" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -11160,7 +11160,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -11432,7 +11432,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -11720,7 +11720,7 @@
         <v>19</v>
       </c>
       <c r="E100" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -11992,7 +11992,7 @@
         <v>223</v>
       </c>
       <c r="E117" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -12040,7 +12040,7 @@
         <v>229</v>
       </c>
       <c r="E120" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -12216,7 +12216,7 @@
         <v>251</v>
       </c>
       <c r="E131" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -12264,7 +12264,7 @@
         <v>257</v>
       </c>
       <c r="E134" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -12296,7 +12296,7 @@
         <v>261</v>
       </c>
       <c r="E136" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -12312,7 +12312,7 @@
         <v>263</v>
       </c>
       <c r="E137" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F137" s="2"/>
     </row>
@@ -12456,7 +12456,7 @@
         <v>281</v>
       </c>
       <c r="E146" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -12472,7 +12472,7 @@
         <v>39</v>
       </c>
       <c r="E147" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -12568,7 +12568,7 @@
         <v>294</v>
       </c>
       <c r="E153" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -12616,7 +12616,7 @@
         <v>128</v>
       </c>
       <c r="E156" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -12744,7 +12744,7 @@
         <v>315</v>
       </c>
       <c r="E164" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -12760,7 +12760,7 @@
         <v>317</v>
       </c>
       <c r="E165" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -12872,7 +12872,7 @@
         <v>330</v>
       </c>
       <c r="E172" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -12952,7 +12952,7 @@
         <v>340</v>
       </c>
       <c r="E177" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -13128,7 +13128,7 @@
         <v>359</v>
       </c>
       <c r="E188" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -13208,7 +13208,7 @@
         <v>369</v>
       </c>
       <c r="E193" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -13352,7 +13352,7 @@
         <v>384</v>
       </c>
       <c r="E202" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -13400,7 +13400,7 @@
         <v>390</v>
       </c>
       <c r="E205" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -13432,7 +13432,7 @@
         <v>394</v>
       </c>
       <c r="E207" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -13496,7 +13496,7 @@
         <v>402</v>
       </c>
       <c r="E211" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -13608,7 +13608,7 @@
         <v>103</v>
       </c>
       <c r="E218" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F218" s="2"/>
     </row>
@@ -13640,7 +13640,7 @@
         <v>417</v>
       </c>
       <c r="E220" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F220" s="2"/>
     </row>
@@ -13688,7 +13688,7 @@
         <v>423</v>
       </c>
       <c r="E223" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -13720,7 +13720,7 @@
         <v>427</v>
       </c>
       <c r="E225" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F225" s="2"/>
     </row>
@@ -13736,7 +13736,7 @@
         <v>429</v>
       </c>
       <c r="E226" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F226" s="2"/>
     </row>
@@ -13848,7 +13848,7 @@
         <v>443</v>
       </c>
       <c r="E233" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F233" s="2"/>
     </row>
@@ -13896,7 +13896,7 @@
         <v>449</v>
       </c>
       <c r="E236" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F236" s="2"/>
     </row>
@@ -13992,7 +13992,7 @@
         <v>461</v>
       </c>
       <c r="E242" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F242" s="2"/>
     </row>
@@ -14040,7 +14040,7 @@
         <v>467</v>
       </c>
       <c r="E245" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F245" s="2"/>
     </row>
@@ -14056,7 +14056,7 @@
         <v>469</v>
       </c>
       <c r="E246" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F246" s="2"/>
     </row>
@@ -14472,7 +14472,7 @@
         <v>516</v>
       </c>
       <c r="E272" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -14568,7 +14568,7 @@
         <v>527</v>
       </c>
       <c r="E278" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F278" s="2"/>
     </row>
@@ -14600,7 +14600,7 @@
         <v>221</v>
       </c>
       <c r="E280" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F280" s="2"/>
     </row>
@@ -14632,7 +14632,7 @@
         <v>533</v>
       </c>
       <c r="E282" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F282" s="2"/>
     </row>
@@ -14680,7 +14680,7 @@
         <v>539</v>
       </c>
       <c r="E285" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F285" s="2"/>
     </row>
@@ -14728,7 +14728,7 @@
         <v>221</v>
       </c>
       <c r="E288" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F288" s="2"/>
     </row>
@@ -14824,7 +14824,7 @@
         <v>551</v>
       </c>
       <c r="E294" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F294" s="2"/>
     </row>
@@ -14888,7 +14888,7 @@
         <v>558</v>
       </c>
       <c r="E298" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F298" s="2"/>
     </row>
@@ -14984,7 +14984,7 @@
         <v>221</v>
       </c>
       <c r="E304" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F304" s="2"/>
     </row>
@@ -15048,7 +15048,7 @@
         <v>574</v>
       </c>
       <c r="E308" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F308" s="2"/>
     </row>
@@ -15064,7 +15064,7 @@
         <v>576</v>
       </c>
       <c r="E309" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F309" s="2"/>
     </row>
@@ -15192,7 +15192,7 @@
         <v>39</v>
       </c>
       <c r="E317" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F317" s="2"/>
     </row>
@@ -15288,7 +15288,7 @@
         <v>601</v>
       </c>
       <c r="E323" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F323" s="2"/>
     </row>
@@ -15368,7 +15368,7 @@
         <v>611</v>
       </c>
       <c r="E328" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F328" s="2"/>
     </row>
@@ -15416,7 +15416,7 @@
         <v>617</v>
       </c>
       <c r="E331" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F331" s="2"/>
     </row>
@@ -15448,7 +15448,7 @@
         <v>607</v>
       </c>
       <c r="E333" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F333" s="2"/>
     </row>
@@ -15480,7 +15480,7 @@
         <v>623</v>
       </c>
       <c r="E335" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F335" s="2"/>
     </row>
@@ -15608,7 +15608,7 @@
         <v>634</v>
       </c>
       <c r="E343" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F343" s="2"/>
     </row>
@@ -15656,7 +15656,7 @@
         <v>640</v>
       </c>
       <c r="E346" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F346" s="2"/>
     </row>
@@ -15672,7 +15672,7 @@
         <v>642</v>
       </c>
       <c r="E347" s="8">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F347" s="2"/>
     </row>
@@ -15784,7 +15784,7 @@
         <v>654</v>
       </c>
       <c r="E354" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F354" s="2"/>
     </row>
@@ -15816,7 +15816,7 @@
         <v>52</v>
       </c>
       <c r="E356" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F356" s="2"/>
     </row>
@@ -15832,7 +15832,7 @@
         <v>52</v>
       </c>
       <c r="E357" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F357" s="2"/>
     </row>
@@ -15912,7 +15912,7 @@
         <v>667</v>
       </c>
       <c r="E362" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F362" s="2"/>
     </row>
@@ -15992,7 +15992,7 @@
         <v>677</v>
       </c>
       <c r="E367" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F367" s="2"/>
     </row>
@@ -16216,7 +16216,7 @@
         <v>703</v>
       </c>
       <c r="E381" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F381" s="2"/>
     </row>
@@ -16280,7 +16280,7 @@
         <v>25</v>
       </c>
       <c r="E385" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F385" s="2"/>
     </row>
@@ -16392,7 +16392,7 @@
         <v>120</v>
       </c>
       <c r="E392" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F392" s="2"/>
     </row>
@@ -16408,7 +16408,7 @@
         <v>501</v>
       </c>
       <c r="E393" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F393" s="2"/>
     </row>
@@ -16424,7 +16424,7 @@
         <v>725</v>
       </c>
       <c r="E394" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F394" s="2"/>
     </row>
@@ -16552,7 +16552,7 @@
         <v>738</v>
       </c>
       <c r="E402" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F402" s="2"/>
     </row>
@@ -16632,7 +16632,7 @@
         <v>748</v>
       </c>
       <c r="E407" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F407" s="2"/>
     </row>
@@ -16760,7 +16760,7 @@
         <v>764</v>
       </c>
       <c r="E415" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F415" s="2"/>
     </row>
@@ -16824,7 +16824,7 @@
         <v>39</v>
       </c>
       <c r="E419" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F419" s="2"/>
     </row>
@@ -16856,7 +16856,7 @@
         <v>774</v>
       </c>
       <c r="E421" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F421" s="2"/>
     </row>
@@ -16904,7 +16904,7 @@
         <v>780</v>
       </c>
       <c r="E424" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F424" s="2"/>
     </row>
@@ -16920,7 +16920,7 @@
         <v>782</v>
       </c>
       <c r="E425" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F425" s="2"/>
     </row>
@@ -16952,7 +16952,7 @@
         <v>786</v>
       </c>
       <c r="E427" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F427" s="2"/>
     </row>
@@ -17192,7 +17192,7 @@
         <v>221</v>
       </c>
       <c r="E442" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F442" s="2"/>
     </row>
@@ -17256,7 +17256,7 @@
         <v>317</v>
       </c>
       <c r="E446" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F446" s="2"/>
     </row>
@@ -17336,7 +17336,7 @@
         <v>826</v>
       </c>
       <c r="E451" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F451" s="2"/>
     </row>
@@ -17432,7 +17432,7 @@
         <v>836</v>
       </c>
       <c r="E457" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F457" s="2"/>
     </row>
@@ -17464,7 +17464,7 @@
         <v>839</v>
       </c>
       <c r="E459" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F459" s="2"/>
     </row>
@@ -17512,7 +17512,7 @@
         <v>845</v>
       </c>
       <c r="E462" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F462" s="2"/>
     </row>
@@ -17592,7 +17592,7 @@
         <v>855</v>
       </c>
       <c r="E467" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F467" s="2"/>
     </row>
@@ -17608,7 +17608,7 @@
         <v>857</v>
       </c>
       <c r="E468" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F468" s="2"/>
     </row>
@@ -17624,7 +17624,7 @@
         <v>286</v>
       </c>
       <c r="E469" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F469" s="2"/>
     </row>
@@ -17688,7 +17688,7 @@
         <v>865</v>
       </c>
       <c r="E473" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F473" s="2"/>
     </row>
@@ -17704,7 +17704,7 @@
         <v>33</v>
       </c>
       <c r="E474" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F474" s="2"/>
     </row>
@@ -17800,7 +17800,7 @@
         <v>877</v>
       </c>
       <c r="E480" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F480" s="2"/>
     </row>
@@ -17816,7 +17816,7 @@
         <v>756</v>
       </c>
       <c r="E481" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F481" s="2"/>
     </row>
@@ -17928,7 +17928,7 @@
         <v>890</v>
       </c>
       <c r="E488" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F488" s="2"/>
     </row>
@@ -17992,7 +17992,7 @@
         <v>265</v>
       </c>
       <c r="E492" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F492" s="2"/>
     </row>
@@ -18040,7 +18040,7 @@
         <v>417</v>
       </c>
       <c r="E495" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F495" s="2"/>
     </row>
@@ -18136,7 +18136,7 @@
         <v>912</v>
       </c>
       <c r="E501" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F501" s="2"/>
     </row>
@@ -18248,7 +18248,7 @@
         <v>925</v>
       </c>
       <c r="E508" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F508" s="2"/>
     </row>
@@ -18328,7 +18328,7 @@
         <v>935</v>
       </c>
       <c r="E513" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F513" s="2"/>
     </row>
@@ -18408,7 +18408,7 @@
         <v>945</v>
       </c>
       <c r="E518" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F518" s="2"/>
     </row>
@@ -18440,7 +18440,7 @@
         <v>949</v>
       </c>
       <c r="E520" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F520" s="2"/>
     </row>
@@ -18648,7 +18648,7 @@
         <v>972</v>
       </c>
       <c r="E533" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F533" s="2"/>
     </row>
@@ -18680,7 +18680,7 @@
         <v>975</v>
       </c>
       <c r="E535" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F535" s="2"/>
     </row>
@@ -18696,7 +18696,7 @@
         <v>977</v>
       </c>
       <c r="E536" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F536" s="2"/>
     </row>
@@ -18888,7 +18888,7 @@
         <v>998</v>
       </c>
       <c r="E548" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F548" s="2"/>
     </row>
@@ -18936,7 +18936,7 @@
         <v>576</v>
       </c>
       <c r="E551" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F551" s="2"/>
     </row>
@@ -19000,7 +19000,7 @@
         <v>1011</v>
       </c>
       <c r="E555" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F555" s="2"/>
     </row>
@@ -19032,7 +19032,7 @@
         <v>1014</v>
       </c>
       <c r="E557" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F557" s="2"/>
     </row>
@@ -19048,7 +19048,7 @@
         <v>1016</v>
       </c>
       <c r="E558" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F558" s="2"/>
     </row>
@@ -19080,7 +19080,7 @@
         <v>607</v>
       </c>
       <c r="E560" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F560" s="2"/>
     </row>
@@ -19128,7 +19128,7 @@
         <v>1024</v>
       </c>
       <c r="E563" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F563" s="2"/>
     </row>
@@ -19192,7 +19192,7 @@
         <v>1032</v>
       </c>
       <c r="E567" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F567" s="2"/>
     </row>
@@ -19416,7 +19416,7 @@
         <v>1057</v>
       </c>
       <c r="E581" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F581" s="2"/>
     </row>
@@ -19592,7 +19592,7 @@
         <v>507</v>
       </c>
       <c r="E592" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F592" s="2"/>
     </row>
@@ -19672,7 +19672,7 @@
         <v>1085</v>
       </c>
       <c r="E597" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F597" s="2"/>
     </row>
@@ -19704,7 +19704,7 @@
         <v>1089</v>
       </c>
       <c r="E599" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F599" s="2"/>
     </row>
@@ -19752,7 +19752,7 @@
         <v>1094</v>
       </c>
       <c r="E602" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F602" s="2"/>
     </row>
@@ -19784,7 +19784,7 @@
         <v>1098</v>
       </c>
       <c r="E604" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F604" s="2"/>
     </row>
@@ -19832,7 +19832,7 @@
         <v>1101</v>
       </c>
       <c r="E607" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F607" s="2"/>
     </row>
@@ -19880,7 +19880,7 @@
         <v>1107</v>
       </c>
       <c r="E610" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F610" s="2"/>
     </row>
@@ -19912,7 +19912,7 @@
         <v>1110</v>
       </c>
       <c r="E612" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F612" s="2"/>
     </row>
@@ -20200,7 +20200,7 @@
         <v>1145</v>
       </c>
       <c r="E630" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F630" s="2"/>
     </row>
@@ -20296,7 +20296,7 @@
         <v>1157</v>
       </c>
       <c r="E636" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F636" s="2"/>
     </row>
@@ -20552,7 +20552,7 @@
         <v>82</v>
       </c>
       <c r="E652" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F652" s="2"/>
     </row>
@@ -20616,7 +20616,7 @@
         <v>580</v>
       </c>
       <c r="E656" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F656" s="2"/>
     </row>
@@ -20648,7 +20648,7 @@
         <v>221</v>
       </c>
       <c r="E658" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F658" s="2"/>
     </row>
@@ -20696,7 +20696,7 @@
         <v>1197</v>
       </c>
       <c r="E661" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F661" s="2"/>
     </row>
@@ -20744,7 +20744,7 @@
         <v>1203</v>
       </c>
       <c r="E664" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F664" s="2"/>
     </row>
@@ -20808,7 +20808,7 @@
         <v>1210</v>
       </c>
       <c r="E668" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F668" s="2"/>
     </row>
@@ -20856,7 +20856,7 @@
         <v>1216</v>
       </c>
       <c r="E671" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F671" s="2"/>
     </row>
@@ -20872,7 +20872,7 @@
         <v>1218</v>
       </c>
       <c r="E672" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F672" s="2"/>
     </row>
@@ -20936,7 +20936,7 @@
         <v>1226</v>
       </c>
       <c r="E676" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F676" s="2"/>
     </row>
@@ -20952,7 +20952,7 @@
         <v>1228</v>
       </c>
       <c r="E677" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F677" s="2"/>
     </row>
@@ -20984,7 +20984,7 @@
         <v>1232</v>
       </c>
       <c r="E679" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F679" s="2"/>
     </row>
@@ -21016,7 +21016,7 @@
         <v>1235</v>
       </c>
       <c r="E681" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F681" s="2"/>
     </row>
@@ -21064,7 +21064,7 @@
         <v>1240</v>
       </c>
       <c r="E684" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F684" s="2"/>
     </row>
@@ -21224,7 +21224,7 @@
         <v>1258</v>
       </c>
       <c r="E694" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F694" s="2"/>
     </row>
@@ -21304,7 +21304,7 @@
         <v>1268</v>
       </c>
       <c r="E699" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F699" s="2"/>
     </row>
@@ -21320,7 +21320,7 @@
         <v>1270</v>
       </c>
       <c r="E700" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F700" s="2"/>
     </row>
@@ -21576,7 +21576,7 @@
         <v>1298</v>
       </c>
       <c r="E716" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F716" s="2"/>
     </row>
@@ -21608,7 +21608,7 @@
         <v>1302</v>
       </c>
       <c r="E718" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F718" s="2"/>
     </row>
@@ -21640,7 +21640,7 @@
         <v>1305</v>
       </c>
       <c r="E720" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F720" s="2"/>
     </row>
@@ -21656,7 +21656,7 @@
         <v>1307</v>
       </c>
       <c r="E721" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F721" s="2"/>
     </row>
@@ -21768,7 +21768,7 @@
         <v>861</v>
       </c>
       <c r="E728" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F728" s="2"/>
     </row>
@@ -21944,7 +21944,7 @@
         <v>31</v>
       </c>
       <c r="E739" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F739" s="2"/>
     </row>
@@ -22008,7 +22008,7 @@
         <v>1345</v>
       </c>
       <c r="E743" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F743" s="2"/>
     </row>
@@ -22216,7 +22216,7 @@
         <v>1368</v>
       </c>
       <c r="E756" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F756" s="2"/>
     </row>
@@ -22312,7 +22312,7 @@
         <v>1379</v>
       </c>
       <c r="E762" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F762" s="2"/>
     </row>
@@ -22392,7 +22392,7 @@
         <v>25</v>
       </c>
       <c r="E767" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F767" s="2"/>
     </row>
@@ -22456,7 +22456,7 @@
         <v>1395</v>
       </c>
       <c r="E771" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F771" s="2"/>
     </row>
@@ -22616,7 +22616,7 @@
         <v>910</v>
       </c>
       <c r="E781" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F781" s="2"/>
     </row>
@@ -22632,7 +22632,7 @@
         <v>1412</v>
       </c>
       <c r="E782" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F782" s="2"/>
     </row>
@@ -22776,7 +22776,7 @@
         <v>66</v>
       </c>
       <c r="E791" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F791" s="2"/>
     </row>
@@ -22872,7 +22872,7 @@
         <v>1441</v>
       </c>
       <c r="E797" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F797" s="2"/>
     </row>
@@ -23192,7 +23192,7 @@
         <v>1478</v>
       </c>
       <c r="E817" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F817" s="2"/>
     </row>
@@ -23208,7 +23208,7 @@
         <v>29</v>
       </c>
       <c r="E818" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F818" s="2"/>
     </row>
@@ -23320,7 +23320,7 @@
         <v>29</v>
       </c>
       <c r="E825" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F825" s="2"/>
     </row>
@@ -23368,7 +23368,7 @@
         <v>1496</v>
       </c>
       <c r="E828" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F828" s="2"/>
     </row>
@@ -23384,7 +23384,7 @@
         <v>52</v>
       </c>
       <c r="E829" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F829" s="2"/>
     </row>
@@ -23400,7 +23400,7 @@
         <v>1499</v>
       </c>
       <c r="E830" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F830" s="2"/>
     </row>
@@ -23528,7 +23528,7 @@
         <v>1514</v>
       </c>
       <c r="E838" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F838" s="2"/>
     </row>
@@ -23576,7 +23576,7 @@
         <v>1520</v>
       </c>
       <c r="E841" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F841" s="2"/>
     </row>
@@ -23592,7 +23592,7 @@
         <v>1522</v>
       </c>
       <c r="E842" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F842" s="2"/>
     </row>
@@ -23672,7 +23672,7 @@
         <v>1532</v>
       </c>
       <c r="E847" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F847" s="2"/>
     </row>
@@ -23880,7 +23880,7 @@
         <v>33</v>
       </c>
       <c r="E860" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F860" s="2"/>
     </row>
@@ -23912,7 +23912,7 @@
         <v>1558</v>
       </c>
       <c r="E862" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F862" s="2"/>
     </row>
@@ -24504,7 +24504,7 @@
         <v>1621</v>
       </c>
       <c r="E899" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F899" s="2"/>
     </row>
@@ -24536,7 +24536,7 @@
         <v>1625</v>
       </c>
       <c r="E901" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F901" s="2"/>
     </row>
@@ -24600,7 +24600,7 @@
         <v>623</v>
       </c>
       <c r="E905" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F905" s="2"/>
     </row>
@@ -24696,7 +24696,7 @@
         <v>1642</v>
       </c>
       <c r="E911" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F911" s="2"/>
     </row>
@@ -24712,7 +24712,7 @@
         <v>1644</v>
       </c>
       <c r="E912" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F912" s="2"/>
     </row>
@@ -24840,7 +24840,7 @@
         <v>1660</v>
       </c>
       <c r="E920" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F920" s="2"/>
     </row>
@@ -24872,7 +24872,7 @@
         <v>1664</v>
       </c>
       <c r="E922" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F922" s="2"/>
     </row>
@@ -25016,7 +25016,7 @@
         <v>784</v>
       </c>
       <c r="E931" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F931" s="2"/>
     </row>
@@ -25128,7 +25128,7 @@
         <v>1691</v>
       </c>
       <c r="E938" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F938" s="2"/>
     </row>
@@ -25272,7 +25272,7 @@
         <v>1708</v>
       </c>
       <c r="E947" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F947" s="2"/>
     </row>
@@ -25320,7 +25320,7 @@
         <v>1713</v>
       </c>
       <c r="E950" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F950" s="2"/>
     </row>
@@ -25464,7 +25464,7 @@
         <v>1730</v>
       </c>
       <c r="E959" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F959" s="2"/>
     </row>
@@ -25512,7 +25512,7 @@
         <v>1736</v>
       </c>
       <c r="E962" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F962" s="2"/>
     </row>
@@ -25560,7 +25560,7 @@
         <v>1740</v>
       </c>
       <c r="E965" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F965" s="2"/>
     </row>
@@ -25656,7 +25656,7 @@
         <v>1750</v>
       </c>
       <c r="E971" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F971" s="2"/>
     </row>
@@ -25928,7 +25928,7 @@
         <v>1775</v>
       </c>
       <c r="E988" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F988" s="2"/>
     </row>
@@ -25960,7 +25960,7 @@
         <v>623</v>
       </c>
       <c r="E990" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F990" s="2"/>
     </row>
@@ -26040,7 +26040,7 @@
         <v>1000</v>
       </c>
       <c r="E995" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F995" s="2"/>
     </row>
@@ -26200,7 +26200,7 @@
         <v>103</v>
       </c>
       <c r="E1005" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1005" s="2"/>
     </row>
@@ -26312,7 +26312,7 @@
         <v>640</v>
       </c>
       <c r="E1012" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1012" s="2"/>
     </row>
@@ -26376,7 +26376,7 @@
         <v>1822</v>
       </c>
       <c r="E1016" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1016" s="2"/>
     </row>
@@ -26488,7 +26488,7 @@
         <v>1835</v>
       </c>
       <c r="E1023" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1023" s="2"/>
     </row>
@@ -26520,7 +26520,7 @@
         <v>29</v>
       </c>
       <c r="E1025" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1025" s="2"/>
     </row>
@@ -26536,7 +26536,7 @@
         <v>1840</v>
       </c>
       <c r="E1026" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1026" s="2"/>
     </row>
@@ -26680,7 +26680,7 @@
         <v>1856</v>
       </c>
       <c r="E1035" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1035" s="2"/>
     </row>
@@ -26712,7 +26712,7 @@
         <v>52</v>
       </c>
       <c r="E1037" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1037" s="2"/>
     </row>
@@ -26776,7 +26776,7 @@
         <v>103</v>
       </c>
       <c r="E1041" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1041" s="2"/>
     </row>
@@ -26808,7 +26808,7 @@
         <v>221</v>
       </c>
       <c r="E1043" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1043" s="2"/>
     </row>
@@ -26984,7 +26984,7 @@
         <v>1884</v>
       </c>
       <c r="E1054" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1054" s="2"/>
     </row>
@@ -27016,7 +27016,7 @@
         <v>52</v>
       </c>
       <c r="E1056" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1056" s="2"/>
     </row>
@@ -27112,7 +27112,7 @@
         <v>1899</v>
       </c>
       <c r="E1062" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1062" s="2"/>
     </row>
@@ -27144,7 +27144,7 @@
         <v>1902</v>
       </c>
       <c r="E1064" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1064" s="2"/>
     </row>
@@ -27240,7 +27240,7 @@
         <v>39</v>
       </c>
       <c r="E1070" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1070" s="2"/>
     </row>
@@ -27256,7 +27256,7 @@
         <v>549</v>
       </c>
       <c r="E1071" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1071" s="2"/>
     </row>
@@ -27272,7 +27272,7 @@
         <v>1828</v>
       </c>
       <c r="E1072" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1072" s="2"/>
     </row>
@@ -27288,7 +27288,7 @@
         <v>72</v>
       </c>
       <c r="E1073" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1073" s="2"/>
     </row>
@@ -27336,7 +27336,7 @@
         <v>221</v>
       </c>
       <c r="E1076" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1076" s="2"/>
     </row>
@@ -27432,7 +27432,7 @@
         <v>1931</v>
       </c>
       <c r="E1082" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F1082" s="2"/>
     </row>
@@ -27544,7 +27544,7 @@
         <v>1944</v>
       </c>
       <c r="E1089" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1089" s="2"/>
     </row>
@@ -27608,7 +27608,7 @@
         <v>1899</v>
       </c>
       <c r="E1093" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1093" s="2"/>
     </row>
@@ -27640,7 +27640,7 @@
         <v>1954</v>
       </c>
       <c r="E1095" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1095" s="2"/>
     </row>
@@ -27816,7 +27816,7 @@
         <v>390</v>
       </c>
       <c r="E1106" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1106" s="2"/>
     </row>
@@ -28024,7 +28024,7 @@
         <v>1996</v>
       </c>
       <c r="E1119" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1119" s="2"/>
     </row>
@@ -28056,7 +28056,7 @@
         <v>2000</v>
       </c>
       <c r="E1121" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1121" s="2"/>
     </row>
@@ -28072,7 +28072,7 @@
         <v>587</v>
       </c>
       <c r="E1122" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1122" s="2"/>
     </row>
@@ -28088,7 +28088,7 @@
         <v>2003</v>
       </c>
       <c r="E1123" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1123" s="2"/>
     </row>
@@ -28104,7 +28104,7 @@
         <v>93</v>
       </c>
       <c r="E1124" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1124" s="2"/>
     </row>
@@ -28248,7 +28248,7 @@
         <v>150</v>
       </c>
       <c r="E1133" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1133" s="2"/>
     </row>
@@ -28552,7 +28552,7 @@
         <v>52</v>
       </c>
       <c r="E1152" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1152" s="2"/>
     </row>
@@ -28584,7 +28584,7 @@
         <v>1485</v>
       </c>
       <c r="E1154" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1154" s="2"/>
     </row>
@@ -28600,7 +28600,7 @@
         <v>2055</v>
       </c>
       <c r="E1155" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1155" s="2"/>
     </row>
@@ -28616,7 +28616,7 @@
         <v>487</v>
       </c>
       <c r="E1156" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1156" s="2"/>
     </row>
@@ -28728,7 +28728,7 @@
         <v>78</v>
       </c>
       <c r="E1163" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1163" s="2"/>
     </row>
@@ -28872,7 +28872,7 @@
         <v>2082</v>
       </c>
       <c r="E1172" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1172" s="2"/>
     </row>
@@ -28888,7 +28888,7 @@
         <v>2084</v>
       </c>
       <c r="E1173" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1173" s="2"/>
     </row>
@@ -29032,7 +29032,7 @@
         <v>463</v>
       </c>
       <c r="E1182" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1182" s="2"/>
     </row>
@@ -29064,7 +29064,7 @@
         <v>826</v>
       </c>
       <c r="E1184" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1184" s="2"/>
     </row>
@@ -29192,7 +29192,7 @@
         <v>2117</v>
       </c>
       <c r="E1192" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1192" s="2"/>
     </row>
@@ -29224,7 +29224,7 @@
         <v>2121</v>
       </c>
       <c r="E1194" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1194" s="2"/>
     </row>
@@ -29288,7 +29288,7 @@
         <v>2128</v>
       </c>
       <c r="E1198" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1198" s="2"/>
     </row>
@@ -29384,7 +29384,7 @@
         <v>2140</v>
       </c>
       <c r="E1204" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1204" s="2"/>
     </row>
@@ -29480,7 +29480,7 @@
         <v>2151</v>
       </c>
       <c r="E1210" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1210" s="2"/>
     </row>
@@ -29560,7 +29560,7 @@
         <v>1407</v>
       </c>
       <c r="E1215" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1215" s="2"/>
     </row>
@@ -29576,7 +29576,7 @@
         <v>2160</v>
       </c>
       <c r="E1216" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1216" s="2"/>
     </row>
@@ -29625,7 +29625,7 @@
         <v>2166</v>
       </c>
       <c r="E1219" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1219" s="2"/>
       <c r="I1219" s="12"/>
@@ -29642,7 +29642,7 @@
         <v>2168</v>
       </c>
       <c r="E1220" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1220" s="2"/>
       <c r="I1220" s="12"/>
@@ -29778,7 +29778,7 @@
         <v>1828</v>
       </c>
       <c r="E1228" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1228" s="2"/>
       <c r="I1228" s="12"/>
@@ -29914,7 +29914,7 @@
         <v>660</v>
       </c>
       <c r="E1236" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1236" s="2"/>
       <c r="I1236" s="12"/>
@@ -30016,7 +30016,7 @@
         <v>2204</v>
       </c>
       <c r="E1242" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1242" s="2"/>
       <c r="I1242" s="12"/>
@@ -30101,7 +30101,7 @@
         <v>2213</v>
       </c>
       <c r="E1247" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1247" s="2"/>
       <c r="I1247" s="12"/>
@@ -30203,7 +30203,7 @@
         <v>2223</v>
       </c>
       <c r="E1253" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1253" s="2"/>
       <c r="I1253" s="12"/>
@@ -30288,7 +30288,7 @@
         <v>13</v>
       </c>
       <c r="E1258" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1258" s="2"/>
       <c r="I1258" s="12"/>
@@ -30322,7 +30322,7 @@
         <v>2234</v>
       </c>
       <c r="E1260" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1260" s="2"/>
       <c r="I1260" s="12"/>
@@ -30407,7 +30407,7 @@
         <v>2242</v>
       </c>
       <c r="E1265" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1265" s="2"/>
       <c r="I1265" s="12"/>
@@ -30526,7 +30526,7 @@
         <v>2254</v>
       </c>
       <c r="E1272" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1272" s="2"/>
       <c r="I1272" s="12"/>
@@ -30594,7 +30594,7 @@
         <v>2260</v>
       </c>
       <c r="E1276" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1276" s="2"/>
       <c r="I1276" s="12"/>
@@ -30628,7 +30628,7 @@
         <v>2264</v>
       </c>
       <c r="E1278" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1278" s="2"/>
       <c r="I1278" s="12"/>
@@ -30679,7 +30679,7 @@
         <v>2269</v>
       </c>
       <c r="E1281" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1281" s="2"/>
       <c r="I1281" s="12"/>
@@ -30730,7 +30730,7 @@
         <v>1350</v>
       </c>
       <c r="E1284" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1284" s="2"/>
       <c r="I1284" s="12"/>
@@ -30747,7 +30747,7 @@
         <v>2275</v>
       </c>
       <c r="E1285" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1285" s="2"/>
       <c r="I1285" s="12"/>
@@ -30764,7 +30764,7 @@
         <v>2277</v>
       </c>
       <c r="E1286" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1286" s="2"/>
       <c r="I1286" s="12"/>
@@ -30781,7 +30781,7 @@
         <v>2279</v>
       </c>
       <c r="E1287" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1287" s="2"/>
       <c r="I1287" s="12"/>
@@ -30798,7 +30798,7 @@
         <v>2280</v>
       </c>
       <c r="E1288" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1288" s="2"/>
       <c r="I1288" s="12"/>
@@ -30849,7 +30849,7 @@
         <v>2286</v>
       </c>
       <c r="E1291" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1291" s="2"/>
       <c r="I1291" s="12"/>
@@ -30883,7 +30883,7 @@
         <v>2284</v>
       </c>
       <c r="E1293" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1293" s="2"/>
       <c r="I1293" s="12"/>
@@ -30900,7 +30900,7 @@
         <v>1718</v>
       </c>
       <c r="E1294" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1294" s="2"/>
       <c r="I1294" s="12"/>
@@ -30917,7 +30917,7 @@
         <v>2291</v>
       </c>
       <c r="E1295" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1295" s="2"/>
       <c r="I1295" s="12"/>
@@ -30951,7 +30951,7 @@
         <v>2295</v>
       </c>
       <c r="E1297" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1297" s="2"/>
       <c r="I1297" s="12"/>
@@ -30968,7 +30968,7 @@
         <v>2297</v>
       </c>
       <c r="E1298" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1298" s="2"/>
       <c r="I1298" s="12"/>
@@ -31002,7 +31002,7 @@
         <v>2301</v>
       </c>
       <c r="E1300" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1300" s="2"/>
       <c r="I1300" s="12"/>
@@ -31019,7 +31019,7 @@
         <v>2303</v>
       </c>
       <c r="E1301" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1301" s="2"/>
       <c r="I1301" s="12"/>
@@ -31070,7 +31070,7 @@
         <v>25</v>
       </c>
       <c r="E1304" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1304" s="2"/>
       <c r="I1304" s="12"/>
@@ -31172,7 +31172,7 @@
         <v>336</v>
       </c>
       <c r="E1310" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1310" s="2"/>
       <c r="I1310" s="12"/>
@@ -31274,7 +31274,7 @@
         <v>2330</v>
       </c>
       <c r="E1316" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1316" s="2"/>
       <c r="I1316" s="12"/>
@@ -31461,7 +31461,7 @@
         <v>19</v>
       </c>
       <c r="E1327" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1327" s="2"/>
       <c r="I1327" s="12"/>
@@ -31631,7 +31631,7 @@
         <v>319</v>
       </c>
       <c r="E1337" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1337" s="2"/>
       <c r="I1337" s="12"/>
@@ -31767,7 +31767,7 @@
         <v>2382</v>
       </c>
       <c r="E1345" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1345" s="2"/>
       <c r="I1345" s="12"/>
@@ -31869,7 +31869,7 @@
         <v>2391</v>
       </c>
       <c r="E1351" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1351" s="2"/>
       <c r="I1351" s="12"/>
@@ -31903,7 +31903,7 @@
         <v>2395</v>
       </c>
       <c r="E1353" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1353" s="2"/>
       <c r="I1353" s="12"/>
@@ -31971,7 +31971,7 @@
         <v>2402</v>
       </c>
       <c r="E1357" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1357" s="2"/>
       <c r="I1357" s="12"/>
@@ -32124,7 +32124,7 @@
         <v>286</v>
       </c>
       <c r="E1366" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1366" s="2"/>
       <c r="I1366" s="12"/>
@@ -32365,7 +32365,7 @@
         <v>2254</v>
       </c>
       <c r="E1380" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1380" s="2"/>
       <c r="I1380" s="12"/>
@@ -32569,7 +32569,7 @@
         <v>2424</v>
       </c>
       <c r="E1392" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1392" s="2"/>
       <c r="I1392" s="12"/>
@@ -32603,7 +32603,7 @@
         <v>52</v>
       </c>
       <c r="E1394" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1394" s="2"/>
       <c r="I1394" s="12"/>
@@ -32671,7 +32671,7 @@
         <v>2470</v>
       </c>
       <c r="E1398" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1398" s="2"/>
       <c r="I1398" s="12"/>
@@ -32858,7 +32858,7 @@
         <v>2490</v>
       </c>
       <c r="E1409" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1409" s="2"/>
       <c r="I1409" s="12"/>
@@ -32875,7 +32875,7 @@
         <v>2492</v>
       </c>
       <c r="E1410" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1410" s="2"/>
       <c r="I1410" s="12"/>
@@ -32926,7 +32926,7 @@
         <v>2497</v>
       </c>
       <c r="E1413" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1413" s="2"/>
       <c r="I1413" s="12"/>
@@ -33079,7 +33079,7 @@
         <v>13</v>
       </c>
       <c r="E1422" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1422" s="2"/>
       <c r="I1422" s="12"/>
@@ -33215,7 +33215,7 @@
         <v>2524</v>
       </c>
       <c r="E1430" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1430" s="2"/>
       <c r="I1430" s="12"/>
@@ -33249,7 +33249,7 @@
         <v>39</v>
       </c>
       <c r="E1432" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1432" s="2"/>
       <c r="I1432" s="12"/>
@@ -33266,7 +33266,7 @@
         <v>2529</v>
       </c>
       <c r="E1433" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1433" s="2"/>
       <c r="I1433" s="12"/>
@@ -33504,7 +33504,7 @@
         <v>2548</v>
       </c>
       <c r="E1447" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1447" s="2"/>
       <c r="I1447" s="12"/>
@@ -33572,7 +33572,7 @@
         <v>2555</v>
       </c>
       <c r="E1451" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1451" s="2"/>
       <c r="I1451" s="12"/>
@@ -33708,7 +33708,7 @@
         <v>2571</v>
       </c>
       <c r="E1459" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1459" s="2"/>
       <c r="I1459" s="12"/>
@@ -33725,7 +33725,7 @@
         <v>19</v>
       </c>
       <c r="E1460" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1460" s="2"/>
       <c r="I1460" s="12"/>
@@ -33742,7 +33742,7 @@
         <v>660</v>
       </c>
       <c r="E1461" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1461" s="2"/>
       <c r="I1461" s="12"/>
@@ -33776,7 +33776,7 @@
         <v>2576</v>
       </c>
       <c r="E1463" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1463" s="2"/>
       <c r="I1463" s="12"/>
@@ -33912,7 +33912,7 @@
         <v>275</v>
       </c>
       <c r="E1471" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1471" s="2"/>
       <c r="I1471" s="12"/>
@@ -33946,7 +33946,7 @@
         <v>2424</v>
       </c>
       <c r="E1473" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1473" s="2"/>
       <c r="I1473" s="12"/>
@@ -33963,7 +33963,7 @@
         <v>111</v>
       </c>
       <c r="E1474" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1474" s="2"/>
       <c r="I1474" s="12"/>
@@ -34014,7 +34014,7 @@
         <v>509</v>
       </c>
       <c r="E1477" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1477" s="2"/>
       <c r="I1477" s="12"/>
@@ -34031,7 +34031,7 @@
         <v>2599</v>
       </c>
       <c r="E1478" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1478" s="2"/>
       <c r="I1478" s="12"/>
@@ -34116,7 +34116,7 @@
         <v>2605</v>
       </c>
       <c r="E1483" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1483" s="2"/>
       <c r="I1483" s="12"/>
@@ -34150,7 +34150,7 @@
         <v>2608</v>
       </c>
       <c r="E1485" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1485" s="2"/>
       <c r="I1485" s="12"/>
@@ -34184,7 +34184,7 @@
         <v>998</v>
       </c>
       <c r="E1487" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1487" s="2"/>
       <c r="I1487" s="12"/>
@@ -34269,7 +34269,7 @@
         <v>2619</v>
       </c>
       <c r="E1492" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1492" s="2"/>
       <c r="I1492" s="12"/>
@@ -34422,7 +34422,7 @@
         <v>2636</v>
       </c>
       <c r="E1501" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1501" s="2"/>
       <c r="I1501" s="12"/>
@@ -34660,7 +34660,7 @@
         <v>1485</v>
       </c>
       <c r="E1515" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1515" s="2"/>
       <c r="I1515" s="12"/>
@@ -34694,7 +34694,7 @@
         <v>2663</v>
       </c>
       <c r="E1517" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1517" s="2"/>
       <c r="I1517" s="12"/>
@@ -34711,7 +34711,7 @@
         <v>2665</v>
       </c>
       <c r="E1518" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1518" s="2"/>
       <c r="I1518" s="12"/>
@@ -34813,7 +34813,7 @@
         <v>2676</v>
       </c>
       <c r="E1524" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1524" s="2"/>
       <c r="I1524" s="12"/>
@@ -34915,7 +34915,7 @@
         <v>2685</v>
       </c>
       <c r="E1530" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1530" s="2"/>
       <c r="I1530" s="12"/>
@@ -34966,7 +34966,7 @@
         <v>505</v>
       </c>
       <c r="E1533" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1533" s="2"/>
       <c r="I1533" s="12"/>
@@ -34983,7 +34983,7 @@
         <v>2692</v>
       </c>
       <c r="E1534" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1534" s="2"/>
       <c r="I1534" s="12"/>
@@ -35017,7 +35017,7 @@
         <v>2696</v>
       </c>
       <c r="E1536" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1536" s="2"/>
       <c r="I1536" s="12"/>
@@ -35102,7 +35102,7 @@
         <v>2703</v>
       </c>
       <c r="E1541" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1541" s="2"/>
       <c r="I1541" s="12"/>
@@ -35170,7 +35170,7 @@
         <v>1350</v>
       </c>
       <c r="E1545" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1545" s="2"/>
       <c r="I1545" s="12"/>
@@ -35204,7 +35204,7 @@
         <v>660</v>
       </c>
       <c r="E1547" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1547" s="2"/>
       <c r="I1547" s="12"/>
@@ -35238,7 +35238,7 @@
         <v>17</v>
       </c>
       <c r="E1549" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1549" s="2"/>
       <c r="I1549" s="12"/>
@@ -35255,7 +35255,7 @@
         <v>17</v>
       </c>
       <c r="E1550" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1550" s="2"/>
       <c r="I1550" s="12"/>
@@ -35340,7 +35340,7 @@
         <v>826</v>
       </c>
       <c r="E1555" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1555" s="2"/>
       <c r="I1555" s="12"/>
@@ -35510,7 +35510,7 @@
         <v>2741</v>
       </c>
       <c r="E1565" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1565" s="2"/>
       <c r="I1565" s="12"/>
@@ -35595,7 +35595,7 @@
         <v>2750</v>
       </c>
       <c r="E1570" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1570" s="2"/>
       <c r="I1570" s="12"/>
@@ -35646,7 +35646,7 @@
         <v>52</v>
       </c>
       <c r="E1573" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1573" s="2"/>
       <c r="I1573" s="12"/>
@@ -35714,7 +35714,7 @@
         <v>74</v>
       </c>
       <c r="E1577" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1577" s="2"/>
       <c r="I1577" s="12"/>
@@ -35731,7 +35731,7 @@
         <v>2761</v>
       </c>
       <c r="E1578" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1578" s="2"/>
       <c r="I1578" s="12"/>
@@ -35833,7 +35833,7 @@
         <v>2772</v>
       </c>
       <c r="E1584" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1584" s="2"/>
       <c r="I1584" s="12"/>
@@ -35884,7 +35884,7 @@
         <v>2777</v>
       </c>
       <c r="E1587" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1587" s="2"/>
       <c r="I1587" s="12"/>
@@ -35918,7 +35918,7 @@
         <v>2781</v>
       </c>
       <c r="E1589" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1589" s="2"/>
       <c r="I1589" s="12"/>
@@ -36190,7 +36190,7 @@
         <v>487</v>
       </c>
       <c r="E1605" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1605" s="2"/>
       <c r="I1605" s="12"/>
@@ -36224,7 +36224,7 @@
         <v>2708</v>
       </c>
       <c r="E1607" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1607" s="2"/>
       <c r="I1607" s="12"/>
@@ -36241,7 +36241,7 @@
         <v>2813</v>
       </c>
       <c r="E1608" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1608" s="2"/>
       <c r="I1608" s="12"/>
@@ -36258,7 +36258,7 @@
         <v>275</v>
       </c>
       <c r="E1609" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1609" s="2"/>
       <c r="I1609" s="12"/>
@@ -36360,7 +36360,7 @@
         <v>2824</v>
       </c>
       <c r="E1615" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1615" s="2"/>
       <c r="I1615" s="12"/>
@@ -36513,7 +36513,7 @@
         <v>2838</v>
       </c>
       <c r="E1624" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1624" s="2"/>
       <c r="I1624" s="12"/>
@@ -36547,7 +36547,7 @@
         <v>2842</v>
       </c>
       <c r="E1626" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1626" s="2"/>
       <c r="I1626" s="12"/>
@@ -36564,7 +36564,7 @@
         <v>786</v>
       </c>
       <c r="E1627" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1627" s="2"/>
       <c r="I1627" s="12"/>
@@ -36581,7 +36581,7 @@
         <v>2845</v>
       </c>
       <c r="E1628" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1628" s="2"/>
       <c r="I1628" s="12"/>
@@ -36598,7 +36598,7 @@
         <v>660</v>
       </c>
       <c r="E1629" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1629" s="2"/>
       <c r="I1629" s="12"/>
@@ -36768,7 +36768,7 @@
         <v>369</v>
       </c>
       <c r="E1639" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1639" s="2"/>
       <c r="I1639" s="12"/>
@@ -36802,7 +36802,7 @@
         <v>2866</v>
       </c>
       <c r="E1641" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1641" s="2"/>
       <c r="I1641" s="12"/>
@@ -36887,7 +36887,7 @@
         <v>2875</v>
       </c>
       <c r="E1646" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1646" s="2"/>
       <c r="I1646" s="12"/>
@@ -36921,7 +36921,7 @@
         <v>52</v>
       </c>
       <c r="E1648" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1648" s="2"/>
       <c r="I1648" s="12"/>
@@ -36972,7 +36972,7 @@
         <v>512</v>
       </c>
       <c r="E1651" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1651" s="2"/>
       <c r="I1651" s="12"/>
@@ -37006,7 +37006,7 @@
         <v>1878</v>
       </c>
       <c r="E1653" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1653" s="2"/>
       <c r="I1653" s="12"/>
@@ -37040,7 +37040,7 @@
         <v>2889</v>
       </c>
       <c r="E1655" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1655" s="2"/>
       <c r="I1655" s="12"/>
@@ -37057,7 +37057,7 @@
         <v>2395</v>
       </c>
       <c r="E1656" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1656" s="2"/>
       <c r="I1656" s="12"/>
@@ -37091,7 +37091,7 @@
         <v>13</v>
       </c>
       <c r="E1658" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1658" s="2"/>
       <c r="I1658" s="12"/>
@@ -37108,7 +37108,7 @@
         <v>2395</v>
       </c>
       <c r="E1659" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1659" s="2"/>
       <c r="I1659" s="12"/>
@@ -37142,7 +37142,7 @@
         <v>2897</v>
       </c>
       <c r="E1661" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1661" s="2"/>
       <c r="I1661" s="12"/>
@@ -37159,7 +37159,7 @@
         <v>2110</v>
       </c>
       <c r="E1662" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1662" s="2"/>
       <c r="I1662" s="12"/>
@@ -37176,7 +37176,7 @@
         <v>2900</v>
       </c>
       <c r="E1663" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1663" s="2"/>
       <c r="I1663" s="12"/>
@@ -37244,7 +37244,7 @@
         <v>1581</v>
       </c>
       <c r="E1667" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1667" s="2"/>
       <c r="I1667" s="12"/>
@@ -37261,7 +37261,7 @@
         <v>116</v>
       </c>
       <c r="E1668" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1668" s="2"/>
       <c r="I1668" s="12"/>
@@ -37295,7 +37295,7 @@
         <v>19</v>
       </c>
       <c r="E1670" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1670" s="2"/>
       <c r="I1670" s="12"/>
@@ -37312,7 +37312,7 @@
         <v>2910</v>
       </c>
       <c r="E1671" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1671" s="2"/>
       <c r="I1671" s="12"/>
@@ -37414,7 +37414,7 @@
         <v>2921</v>
       </c>
       <c r="E1677" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1677" s="2"/>
       <c r="I1677" s="12"/>
@@ -37499,7 +37499,7 @@
         <v>2929</v>
       </c>
       <c r="E1682" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1682" s="2"/>
       <c r="I1682" s="12"/>
@@ -37516,7 +37516,7 @@
         <v>2395</v>
       </c>
       <c r="E1683" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1683" s="2"/>
       <c r="I1683" s="12"/>
@@ -37635,7 +37635,7 @@
         <v>2942</v>
       </c>
       <c r="E1690" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1690" s="2"/>
       <c r="I1690" s="12"/>
@@ -37703,7 +37703,7 @@
         <v>2947</v>
       </c>
       <c r="E1694" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1694" s="2"/>
       <c r="I1694" s="12"/>
@@ -37771,7 +37771,7 @@
         <v>2953</v>
       </c>
       <c r="E1698" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1698" s="2"/>
       <c r="I1698" s="12"/>
@@ -37822,7 +37822,7 @@
         <v>2959</v>
       </c>
       <c r="E1701" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1701" s="2"/>
       <c r="I1701" s="12"/>
@@ -37839,7 +37839,7 @@
         <v>2961</v>
       </c>
       <c r="E1702" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1702" s="2"/>
       <c r="I1702" s="12"/>
@@ -37924,7 +37924,7 @@
         <v>2968</v>
       </c>
       <c r="E1707" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1707" s="2"/>
       <c r="I1707" s="12"/>
@@ -37992,7 +37992,7 @@
         <v>2975</v>
       </c>
       <c r="E1711" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1711" s="2"/>
       <c r="I1711" s="12"/>
@@ -38009,7 +38009,7 @@
         <v>2977</v>
       </c>
       <c r="E1712" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1712" s="2"/>
       <c r="I1712" s="12"/>
@@ -38162,7 +38162,7 @@
         <v>2990</v>
       </c>
       <c r="E1721" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1721" s="2"/>
       <c r="I1721" s="12"/>
@@ -38247,7 +38247,7 @@
         <v>2998</v>
       </c>
       <c r="E1726" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1726" s="2"/>
       <c r="I1726" s="12"/>
@@ -38400,7 +38400,7 @@
         <v>3013</v>
       </c>
       <c r="E1735" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1735" s="2"/>
       <c r="I1735" s="12"/>
@@ -38417,7 +38417,7 @@
         <v>3015</v>
       </c>
       <c r="E1736" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1736" s="2"/>
       <c r="I1736" s="12"/>
@@ -38485,7 +38485,7 @@
         <v>2798</v>
       </c>
       <c r="E1740" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1740" s="2"/>
       <c r="I1740" s="12"/>
@@ -38536,7 +38536,7 @@
         <v>3026</v>
       </c>
       <c r="E1743" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1743" s="2"/>
       <c r="I1743" s="12"/>
@@ -38587,7 +38587,7 @@
         <v>1630</v>
       </c>
       <c r="E1746" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1746" s="2"/>
       <c r="I1746" s="12"/>
@@ -38944,7 +38944,7 @@
         <v>3070</v>
       </c>
       <c r="E1767" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1767" s="2"/>
       <c r="I1767" s="12"/>
@@ -38961,7 +38961,7 @@
         <v>3072</v>
       </c>
       <c r="E1768" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1768" s="2"/>
       <c r="I1768" s="12"/>
@@ -39080,7 +39080,7 @@
         <v>3082</v>
       </c>
       <c r="E1775" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1775" s="2"/>
       <c r="I1775" s="12"/>
@@ -39114,7 +39114,7 @@
         <v>39</v>
       </c>
       <c r="E1777" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1777" s="2"/>
       <c r="I1777" s="12"/>
@@ -39182,7 +39182,7 @@
         <v>3092</v>
       </c>
       <c r="E1781" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1781" s="2"/>
       <c r="I1781" s="12"/>
@@ -39318,7 +39318,7 @@
         <v>3106</v>
       </c>
       <c r="E1789" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1789" s="2"/>
       <c r="I1789" s="12"/>
@@ -39386,7 +39386,7 @@
         <v>923</v>
       </c>
       <c r="E1793" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1793" s="2"/>
       <c r="I1793" s="12"/>
@@ -39454,7 +39454,7 @@
         <v>3120</v>
       </c>
       <c r="E1797" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1797" s="2"/>
       <c r="I1797" s="12"/>
@@ -39539,7 +39539,7 @@
         <v>3129</v>
       </c>
       <c r="E1802" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1802" s="2"/>
       <c r="I1802" s="12"/>
@@ -39607,7 +39607,7 @@
         <v>120</v>
       </c>
       <c r="E1806" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1806" s="2"/>
       <c r="I1806" s="12"/>
@@ -39624,7 +39624,7 @@
         <v>3137</v>
       </c>
       <c r="E1807" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1807" s="2"/>
       <c r="I1807" s="12"/>
@@ -39641,7 +39641,7 @@
         <v>3139</v>
       </c>
       <c r="E1808" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1808" s="2"/>
       <c r="I1808" s="12"/>
@@ -39658,7 +39658,7 @@
         <v>660</v>
       </c>
       <c r="E1809" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1809" s="2"/>
       <c r="I1809" s="12"/>
@@ -39675,7 +39675,7 @@
         <v>512</v>
       </c>
       <c r="E1810" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1810" s="2"/>
       <c r="I1810" s="12"/>
@@ -39692,7 +39692,7 @@
         <v>3143</v>
       </c>
       <c r="E1811" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1811" s="2"/>
       <c r="I1811" s="12"/>
@@ -39709,7 +39709,7 @@
         <v>33</v>
       </c>
       <c r="E1812" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1812" s="2"/>
       <c r="I1812" s="12"/>
@@ -39726,7 +39726,7 @@
         <v>19</v>
       </c>
       <c r="E1813" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1813" s="2"/>
       <c r="I1813" s="12"/>
@@ -39760,7 +39760,7 @@
         <v>3149</v>
       </c>
       <c r="E1815" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1815" s="2"/>
       <c r="I1815" s="12"/>
@@ -39777,7 +39777,7 @@
         <v>3151</v>
       </c>
       <c r="E1816" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1816" s="2"/>
       <c r="I1816" s="12"/>
@@ -39794,7 +39794,7 @@
         <v>1843</v>
       </c>
       <c r="E1817" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1817" s="2"/>
       <c r="I1817" s="12"/>
@@ -40236,7 +40236,7 @@
         <v>116</v>
       </c>
       <c r="E1843" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1843" s="2"/>
       <c r="I1843" s="12"/>
@@ -40338,7 +40338,7 @@
         <v>3209</v>
       </c>
       <c r="E1849" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F1849" s="15"/>
       <c r="I1849" s="12"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10328,7 +10328,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F13" s="2"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10247,7 +10247,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -10328,7 +10328,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -10360,7 +10360,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -10424,7 +10424,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -10440,7 +10440,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -10456,7 +10456,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -10472,7 +10472,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -10504,7 +10504,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -10520,7 +10520,7 @@
         <v>48</v>
       </c>
       <c r="E25" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -10568,7 +10568,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -10728,7 +10728,7 @@
         <v>74</v>
       </c>
       <c r="E38" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -10760,7 +10760,7 @@
         <v>78</v>
       </c>
       <c r="E40" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -10792,7 +10792,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -10840,7 +10840,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -10872,7 +10872,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -10888,7 +10888,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F48" s="2"/>
     </row>
@@ -10952,7 +10952,7 @@
         <v>101</v>
       </c>
       <c r="E52" s="1">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -11080,7 +11080,7 @@
         <v>116</v>
       </c>
       <c r="E60" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -11096,7 +11096,7 @@
         <v>116</v>
       </c>
       <c r="E61" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F61" s="2"/>
     </row>
@@ -11128,7 +11128,7 @@
         <v>120</v>
       </c>
       <c r="E63" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -11160,7 +11160,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -11432,7 +11432,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -11720,7 +11720,7 @@
         <v>19</v>
       </c>
       <c r="E100" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -11832,7 +11832,7 @@
         <v>207</v>
       </c>
       <c r="E107" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -12040,7 +12040,7 @@
         <v>229</v>
       </c>
       <c r="E120" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -12216,7 +12216,7 @@
         <v>251</v>
       </c>
       <c r="E131" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -12264,7 +12264,7 @@
         <v>257</v>
       </c>
       <c r="E134" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -12296,7 +12296,7 @@
         <v>261</v>
       </c>
       <c r="E136" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -12312,7 +12312,7 @@
         <v>263</v>
       </c>
       <c r="E137" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F137" s="2"/>
     </row>
@@ -12456,7 +12456,7 @@
         <v>281</v>
       </c>
       <c r="E146" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -12472,7 +12472,7 @@
         <v>39</v>
       </c>
       <c r="E147" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -12568,7 +12568,7 @@
         <v>294</v>
       </c>
       <c r="E153" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -12616,7 +12616,7 @@
         <v>128</v>
       </c>
       <c r="E156" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -12744,7 +12744,7 @@
         <v>315</v>
       </c>
       <c r="E164" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -12760,7 +12760,7 @@
         <v>317</v>
       </c>
       <c r="E165" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -12952,7 +12952,7 @@
         <v>340</v>
       </c>
       <c r="E177" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -13128,7 +13128,7 @@
         <v>359</v>
       </c>
       <c r="E188" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -13208,7 +13208,7 @@
         <v>369</v>
       </c>
       <c r="E193" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -13304,7 +13304,7 @@
         <v>52</v>
       </c>
       <c r="E199" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -13352,7 +13352,7 @@
         <v>384</v>
       </c>
       <c r="E202" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -13400,7 +13400,7 @@
         <v>390</v>
       </c>
       <c r="E205" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -13432,7 +13432,7 @@
         <v>394</v>
       </c>
       <c r="E207" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -13496,7 +13496,7 @@
         <v>402</v>
       </c>
       <c r="E211" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -13608,7 +13608,7 @@
         <v>103</v>
       </c>
       <c r="E218" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F218" s="2"/>
     </row>
@@ -13640,7 +13640,7 @@
         <v>417</v>
       </c>
       <c r="E220" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F220" s="2"/>
     </row>
@@ -13688,7 +13688,7 @@
         <v>423</v>
       </c>
       <c r="E223" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -13720,7 +13720,7 @@
         <v>427</v>
       </c>
       <c r="E225" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F225" s="2"/>
     </row>
@@ -13736,7 +13736,7 @@
         <v>429</v>
       </c>
       <c r="E226" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F226" s="2"/>
     </row>
@@ -13752,7 +13752,7 @@
         <v>431</v>
       </c>
       <c r="E227" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F227" s="2"/>
     </row>
@@ -13848,7 +13848,7 @@
         <v>443</v>
       </c>
       <c r="E233" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F233" s="2"/>
     </row>
@@ -13896,7 +13896,7 @@
         <v>449</v>
       </c>
       <c r="E236" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F236" s="2"/>
     </row>
@@ -13992,7 +13992,7 @@
         <v>461</v>
       </c>
       <c r="E242" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F242" s="2"/>
     </row>
@@ -14040,7 +14040,7 @@
         <v>467</v>
       </c>
       <c r="E245" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F245" s="2"/>
     </row>
@@ -14056,7 +14056,7 @@
         <v>469</v>
       </c>
       <c r="E246" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F246" s="2"/>
     </row>
@@ -14472,7 +14472,7 @@
         <v>516</v>
       </c>
       <c r="E272" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -14600,7 +14600,7 @@
         <v>221</v>
       </c>
       <c r="E280" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F280" s="2"/>
     </row>
@@ -14632,7 +14632,7 @@
         <v>533</v>
       </c>
       <c r="E282" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F282" s="2"/>
     </row>
@@ -14680,7 +14680,7 @@
         <v>539</v>
       </c>
       <c r="E285" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F285" s="2"/>
     </row>
@@ -14728,7 +14728,7 @@
         <v>221</v>
       </c>
       <c r="E288" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F288" s="2"/>
     </row>
@@ -14824,7 +14824,7 @@
         <v>551</v>
       </c>
       <c r="E294" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F294" s="2"/>
     </row>
@@ -14888,7 +14888,7 @@
         <v>558</v>
       </c>
       <c r="E298" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F298" s="2"/>
     </row>
@@ -14984,7 +14984,7 @@
         <v>221</v>
       </c>
       <c r="E304" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F304" s="2"/>
     </row>
@@ -15048,7 +15048,7 @@
         <v>574</v>
       </c>
       <c r="E308" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F308" s="2"/>
     </row>
@@ -15192,7 +15192,7 @@
         <v>39</v>
       </c>
       <c r="E317" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F317" s="2"/>
     </row>
@@ -15288,7 +15288,7 @@
         <v>601</v>
       </c>
       <c r="E323" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F323" s="2"/>
     </row>
@@ -15368,7 +15368,7 @@
         <v>611</v>
       </c>
       <c r="E328" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F328" s="2"/>
     </row>
@@ -15416,7 +15416,7 @@
         <v>617</v>
       </c>
       <c r="E331" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F331" s="2"/>
     </row>
@@ -15448,7 +15448,7 @@
         <v>607</v>
       </c>
       <c r="E333" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F333" s="2"/>
     </row>
@@ -15480,7 +15480,7 @@
         <v>623</v>
       </c>
       <c r="E335" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F335" s="2"/>
     </row>
@@ -15608,7 +15608,7 @@
         <v>634</v>
       </c>
       <c r="E343" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F343" s="2"/>
     </row>
@@ -15656,7 +15656,7 @@
         <v>640</v>
       </c>
       <c r="E346" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F346" s="2"/>
     </row>
@@ -15672,7 +15672,7 @@
         <v>642</v>
       </c>
       <c r="E347" s="8">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F347" s="2"/>
     </row>
@@ -15784,7 +15784,7 @@
         <v>654</v>
       </c>
       <c r="E354" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F354" s="2"/>
     </row>
@@ -15816,7 +15816,7 @@
         <v>52</v>
       </c>
       <c r="E356" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F356" s="2"/>
     </row>
@@ -15832,7 +15832,7 @@
         <v>52</v>
       </c>
       <c r="E357" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F357" s="2"/>
     </row>
@@ -15912,7 +15912,7 @@
         <v>667</v>
       </c>
       <c r="E362" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F362" s="2"/>
     </row>
@@ -15992,7 +15992,7 @@
         <v>677</v>
       </c>
       <c r="E367" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F367" s="2"/>
     </row>
@@ -16216,7 +16216,7 @@
         <v>703</v>
       </c>
       <c r="E381" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F381" s="2"/>
     </row>
@@ -16280,7 +16280,7 @@
         <v>25</v>
       </c>
       <c r="E385" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F385" s="2"/>
     </row>
@@ -16408,7 +16408,7 @@
         <v>501</v>
       </c>
       <c r="E393" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F393" s="2"/>
     </row>
@@ -16424,7 +16424,7 @@
         <v>725</v>
       </c>
       <c r="E394" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F394" s="2"/>
     </row>
@@ -16552,7 +16552,7 @@
         <v>738</v>
       </c>
       <c r="E402" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F402" s="2"/>
     </row>
@@ -16632,7 +16632,7 @@
         <v>748</v>
       </c>
       <c r="E407" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F407" s="2"/>
     </row>
@@ -16824,7 +16824,7 @@
         <v>39</v>
       </c>
       <c r="E419" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F419" s="2"/>
     </row>
@@ -16856,7 +16856,7 @@
         <v>774</v>
       </c>
       <c r="E421" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F421" s="2"/>
     </row>
@@ -16872,7 +16872,7 @@
         <v>776</v>
       </c>
       <c r="E422" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F422" s="2"/>
     </row>
@@ -16904,7 +16904,7 @@
         <v>780</v>
       </c>
       <c r="E424" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F424" s="2"/>
     </row>
@@ -16920,7 +16920,7 @@
         <v>782</v>
       </c>
       <c r="E425" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F425" s="2"/>
     </row>
@@ -16952,7 +16952,7 @@
         <v>786</v>
       </c>
       <c r="E427" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F427" s="2"/>
     </row>
@@ -17032,7 +17032,7 @@
         <v>796</v>
       </c>
       <c r="E432" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F432" s="2"/>
     </row>
@@ -17192,7 +17192,7 @@
         <v>221</v>
       </c>
       <c r="E442" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F442" s="2"/>
     </row>
@@ -17256,7 +17256,7 @@
         <v>317</v>
       </c>
       <c r="E446" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F446" s="2"/>
     </row>
@@ -17336,7 +17336,7 @@
         <v>826</v>
       </c>
       <c r="E451" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F451" s="2"/>
     </row>
@@ -17432,7 +17432,7 @@
         <v>836</v>
       </c>
       <c r="E457" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F457" s="2"/>
     </row>
@@ -17464,7 +17464,7 @@
         <v>839</v>
       </c>
       <c r="E459" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F459" s="2"/>
     </row>
@@ -17512,7 +17512,7 @@
         <v>845</v>
       </c>
       <c r="E462" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F462" s="2"/>
     </row>
@@ -17592,7 +17592,7 @@
         <v>855</v>
       </c>
       <c r="E467" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F467" s="2"/>
     </row>
@@ -17608,7 +17608,7 @@
         <v>857</v>
       </c>
       <c r="E468" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F468" s="2"/>
     </row>
@@ -17624,7 +17624,7 @@
         <v>286</v>
       </c>
       <c r="E469" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F469" s="2"/>
     </row>
@@ -17688,7 +17688,7 @@
         <v>865</v>
       </c>
       <c r="E473" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F473" s="2"/>
     </row>
@@ -17704,7 +17704,7 @@
         <v>33</v>
       </c>
       <c r="E474" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F474" s="2"/>
     </row>
@@ -17800,7 +17800,7 @@
         <v>877</v>
       </c>
       <c r="E480" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F480" s="2"/>
     </row>
@@ -17816,7 +17816,7 @@
         <v>756</v>
       </c>
       <c r="E481" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F481" s="2"/>
     </row>
@@ -17928,7 +17928,7 @@
         <v>890</v>
       </c>
       <c r="E488" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F488" s="2"/>
     </row>
@@ -17992,7 +17992,7 @@
         <v>265</v>
       </c>
       <c r="E492" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F492" s="2"/>
     </row>
@@ -18040,7 +18040,7 @@
         <v>417</v>
       </c>
       <c r="E495" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F495" s="2"/>
     </row>
@@ -18136,7 +18136,7 @@
         <v>912</v>
       </c>
       <c r="E501" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F501" s="2"/>
     </row>
@@ -18248,7 +18248,7 @@
         <v>925</v>
       </c>
       <c r="E508" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F508" s="2"/>
     </row>
@@ -18328,7 +18328,7 @@
         <v>935</v>
       </c>
       <c r="E513" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F513" s="2"/>
     </row>
@@ -18408,7 +18408,7 @@
         <v>945</v>
       </c>
       <c r="E518" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F518" s="2"/>
     </row>
@@ -18440,7 +18440,7 @@
         <v>949</v>
       </c>
       <c r="E520" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F520" s="2"/>
     </row>
@@ -18632,7 +18632,7 @@
         <v>970</v>
       </c>
       <c r="E532" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F532" s="2"/>
     </row>
@@ -18648,7 +18648,7 @@
         <v>972</v>
       </c>
       <c r="E533" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F533" s="2"/>
     </row>
@@ -18680,7 +18680,7 @@
         <v>975</v>
       </c>
       <c r="E535" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F535" s="2"/>
     </row>
@@ -18696,7 +18696,7 @@
         <v>977</v>
       </c>
       <c r="E536" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F536" s="2"/>
     </row>
@@ -18888,7 +18888,7 @@
         <v>998</v>
       </c>
       <c r="E548" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F548" s="2"/>
     </row>
@@ -18936,7 +18936,7 @@
         <v>576</v>
       </c>
       <c r="E551" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F551" s="2"/>
     </row>
@@ -19000,7 +19000,7 @@
         <v>1011</v>
       </c>
       <c r="E555" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F555" s="2"/>
     </row>
@@ -19032,7 +19032,7 @@
         <v>1014</v>
       </c>
       <c r="E557" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F557" s="2"/>
     </row>
@@ -19048,7 +19048,7 @@
         <v>1016</v>
       </c>
       <c r="E558" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F558" s="2"/>
     </row>
@@ -19080,7 +19080,7 @@
         <v>607</v>
       </c>
       <c r="E560" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F560" s="2"/>
     </row>
@@ -19128,7 +19128,7 @@
         <v>1024</v>
       </c>
       <c r="E563" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F563" s="2"/>
     </row>
@@ -19192,7 +19192,7 @@
         <v>1032</v>
       </c>
       <c r="E567" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F567" s="2"/>
     </row>
@@ -19416,7 +19416,7 @@
         <v>1057</v>
       </c>
       <c r="E581" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F581" s="2"/>
     </row>
@@ -19464,7 +19464,7 @@
         <v>1063</v>
       </c>
       <c r="E584" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F584" s="2"/>
     </row>
@@ -19512,7 +19512,7 @@
         <v>1069</v>
       </c>
       <c r="E587" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F587" s="2"/>
     </row>
@@ -19592,7 +19592,7 @@
         <v>507</v>
       </c>
       <c r="E592" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F592" s="2"/>
     </row>
@@ -19672,7 +19672,7 @@
         <v>1085</v>
       </c>
       <c r="E597" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F597" s="2"/>
     </row>
@@ -19704,7 +19704,7 @@
         <v>1089</v>
       </c>
       <c r="E599" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F599" s="2"/>
     </row>
@@ -19832,7 +19832,7 @@
         <v>1101</v>
       </c>
       <c r="E607" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F607" s="2"/>
     </row>
@@ -19880,7 +19880,7 @@
         <v>1107</v>
       </c>
       <c r="E610" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F610" s="2"/>
     </row>
@@ -19912,7 +19912,7 @@
         <v>1110</v>
       </c>
       <c r="E612" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F612" s="2"/>
     </row>
@@ -20200,7 +20200,7 @@
         <v>1145</v>
       </c>
       <c r="E630" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F630" s="2"/>
     </row>
@@ -20552,7 +20552,7 @@
         <v>82</v>
       </c>
       <c r="E652" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F652" s="2"/>
     </row>
@@ -20616,7 +20616,7 @@
         <v>580</v>
       </c>
       <c r="E656" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F656" s="2"/>
     </row>
@@ -20648,7 +20648,7 @@
         <v>221</v>
       </c>
       <c r="E658" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F658" s="2"/>
     </row>
@@ -20696,7 +20696,7 @@
         <v>1197</v>
       </c>
       <c r="E661" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F661" s="2"/>
     </row>
@@ -20744,7 +20744,7 @@
         <v>1203</v>
       </c>
       <c r="E664" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F664" s="2"/>
     </row>
@@ -20808,7 +20808,7 @@
         <v>1210</v>
       </c>
       <c r="E668" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F668" s="2"/>
     </row>
@@ -20872,7 +20872,7 @@
         <v>1218</v>
       </c>
       <c r="E672" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F672" s="2"/>
     </row>
@@ -20936,7 +20936,7 @@
         <v>1226</v>
       </c>
       <c r="E676" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F676" s="2"/>
     </row>
@@ -20952,7 +20952,7 @@
         <v>1228</v>
       </c>
       <c r="E677" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F677" s="2"/>
     </row>
@@ -20984,7 +20984,7 @@
         <v>1232</v>
       </c>
       <c r="E679" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F679" s="2"/>
     </row>
@@ -21016,7 +21016,7 @@
         <v>1235</v>
       </c>
       <c r="E681" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F681" s="2"/>
     </row>
@@ -21064,7 +21064,7 @@
         <v>1240</v>
       </c>
       <c r="E684" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F684" s="2"/>
     </row>
@@ -21224,7 +21224,7 @@
         <v>1258</v>
       </c>
       <c r="E694" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F694" s="2"/>
     </row>
@@ -21304,7 +21304,7 @@
         <v>1268</v>
       </c>
       <c r="E699" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F699" s="2"/>
     </row>
@@ -21320,7 +21320,7 @@
         <v>1270</v>
       </c>
       <c r="E700" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F700" s="2"/>
     </row>
@@ -21368,7 +21368,7 @@
         <v>1276</v>
       </c>
       <c r="E703" s="1">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="F703" s="2"/>
     </row>
@@ -21576,7 +21576,7 @@
         <v>1298</v>
       </c>
       <c r="E716" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F716" s="2"/>
     </row>
@@ -21608,7 +21608,7 @@
         <v>1302</v>
       </c>
       <c r="E718" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F718" s="2"/>
     </row>
@@ -21640,7 +21640,7 @@
         <v>1305</v>
       </c>
       <c r="E720" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F720" s="2"/>
     </row>
@@ -21656,7 +21656,7 @@
         <v>1307</v>
       </c>
       <c r="E721" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F721" s="2"/>
     </row>
@@ -21768,7 +21768,7 @@
         <v>861</v>
       </c>
       <c r="E728" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F728" s="2"/>
     </row>
@@ -22008,7 +22008,7 @@
         <v>1345</v>
       </c>
       <c r="E743" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F743" s="2"/>
     </row>
@@ -22216,7 +22216,7 @@
         <v>1368</v>
       </c>
       <c r="E756" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F756" s="2"/>
     </row>
@@ -22312,7 +22312,7 @@
         <v>1379</v>
       </c>
       <c r="E762" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F762" s="2"/>
     </row>
@@ -22392,7 +22392,7 @@
         <v>25</v>
       </c>
       <c r="E767" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F767" s="2"/>
     </row>
@@ -22456,7 +22456,7 @@
         <v>1395</v>
       </c>
       <c r="E771" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F771" s="2"/>
     </row>
@@ -22616,7 +22616,7 @@
         <v>910</v>
       </c>
       <c r="E781" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F781" s="2"/>
     </row>
@@ -22632,7 +22632,7 @@
         <v>1412</v>
       </c>
       <c r="E782" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F782" s="2"/>
     </row>
@@ -22776,7 +22776,7 @@
         <v>66</v>
       </c>
       <c r="E791" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F791" s="2"/>
     </row>
@@ -22872,7 +22872,7 @@
         <v>1441</v>
       </c>
       <c r="E797" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F797" s="2"/>
     </row>
@@ -23192,7 +23192,7 @@
         <v>1478</v>
       </c>
       <c r="E817" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F817" s="2"/>
     </row>
@@ -23208,7 +23208,7 @@
         <v>29</v>
       </c>
       <c r="E818" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F818" s="2"/>
     </row>
@@ -23320,7 +23320,7 @@
         <v>29</v>
       </c>
       <c r="E825" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F825" s="2"/>
     </row>
@@ -23368,7 +23368,7 @@
         <v>1496</v>
       </c>
       <c r="E828" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F828" s="2"/>
     </row>
@@ -23384,7 +23384,7 @@
         <v>52</v>
       </c>
       <c r="E829" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F829" s="2"/>
     </row>
@@ -23400,7 +23400,7 @@
         <v>1499</v>
       </c>
       <c r="E830" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F830" s="2"/>
     </row>
@@ -23528,7 +23528,7 @@
         <v>1514</v>
       </c>
       <c r="E838" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F838" s="2"/>
     </row>
@@ -23576,7 +23576,7 @@
         <v>1520</v>
       </c>
       <c r="E841" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F841" s="2"/>
     </row>
@@ -23672,7 +23672,7 @@
         <v>1532</v>
       </c>
       <c r="E847" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F847" s="2"/>
     </row>
@@ -23880,7 +23880,7 @@
         <v>33</v>
       </c>
       <c r="E860" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F860" s="2"/>
     </row>
@@ -23912,7 +23912,7 @@
         <v>1558</v>
       </c>
       <c r="E862" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F862" s="2"/>
     </row>
@@ -24504,7 +24504,7 @@
         <v>1621</v>
       </c>
       <c r="E899" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F899" s="2"/>
     </row>
@@ -24536,7 +24536,7 @@
         <v>1625</v>
       </c>
       <c r="E901" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F901" s="2"/>
     </row>
@@ -24600,7 +24600,7 @@
         <v>623</v>
       </c>
       <c r="E905" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F905" s="2"/>
     </row>
@@ -24696,7 +24696,7 @@
         <v>1642</v>
       </c>
       <c r="E911" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F911" s="2"/>
     </row>
@@ -24712,7 +24712,7 @@
         <v>1644</v>
       </c>
       <c r="E912" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F912" s="2"/>
     </row>
@@ -24728,7 +24728,7 @@
         <v>1646</v>
       </c>
       <c r="E913" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F913" s="2"/>
     </row>
@@ -24840,7 +24840,7 @@
         <v>1660</v>
       </c>
       <c r="E920" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F920" s="2"/>
     </row>
@@ -24872,7 +24872,7 @@
         <v>1664</v>
       </c>
       <c r="E922" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F922" s="2"/>
     </row>
@@ -25016,7 +25016,7 @@
         <v>784</v>
       </c>
       <c r="E931" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F931" s="2"/>
     </row>
@@ -25128,7 +25128,7 @@
         <v>1691</v>
       </c>
       <c r="E938" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F938" s="2"/>
     </row>
@@ -25272,7 +25272,7 @@
         <v>1708</v>
       </c>
       <c r="E947" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F947" s="2"/>
     </row>
@@ -25320,7 +25320,7 @@
         <v>1713</v>
       </c>
       <c r="E950" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F950" s="2"/>
     </row>
@@ -25464,7 +25464,7 @@
         <v>1730</v>
       </c>
       <c r="E959" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F959" s="2"/>
     </row>
@@ -25512,7 +25512,7 @@
         <v>1736</v>
       </c>
       <c r="E962" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F962" s="2"/>
     </row>
@@ -25560,7 +25560,7 @@
         <v>1740</v>
       </c>
       <c r="E965" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F965" s="2"/>
     </row>
@@ -25656,7 +25656,7 @@
         <v>1750</v>
       </c>
       <c r="E971" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F971" s="2"/>
     </row>
@@ -25928,7 +25928,7 @@
         <v>1775</v>
       </c>
       <c r="E988" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F988" s="2"/>
     </row>
@@ -25960,7 +25960,7 @@
         <v>623</v>
       </c>
       <c r="E990" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F990" s="2"/>
     </row>
@@ -26040,7 +26040,7 @@
         <v>1000</v>
       </c>
       <c r="E995" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F995" s="2"/>
     </row>
@@ -26200,7 +26200,7 @@
         <v>103</v>
       </c>
       <c r="E1005" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1005" s="2"/>
     </row>
@@ -26312,7 +26312,7 @@
         <v>640</v>
       </c>
       <c r="E1012" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1012" s="2"/>
     </row>
@@ -26376,7 +26376,7 @@
         <v>1822</v>
       </c>
       <c r="E1016" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1016" s="2"/>
     </row>
@@ -26488,7 +26488,7 @@
         <v>1835</v>
       </c>
       <c r="E1023" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1023" s="2"/>
     </row>
@@ -26520,7 +26520,7 @@
         <v>29</v>
       </c>
       <c r="E1025" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1025" s="2"/>
     </row>
@@ -26536,7 +26536,7 @@
         <v>1840</v>
       </c>
       <c r="E1026" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1026" s="2"/>
     </row>
@@ -26680,7 +26680,7 @@
         <v>1856</v>
       </c>
       <c r="E1035" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1035" s="2"/>
     </row>
@@ -26712,7 +26712,7 @@
         <v>52</v>
       </c>
       <c r="E1037" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1037" s="2"/>
     </row>
@@ -26776,7 +26776,7 @@
         <v>103</v>
       </c>
       <c r="E1041" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1041" s="2"/>
     </row>
@@ -26808,7 +26808,7 @@
         <v>221</v>
       </c>
       <c r="E1043" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1043" s="2"/>
     </row>
@@ -26984,7 +26984,7 @@
         <v>1884</v>
       </c>
       <c r="E1054" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1054" s="2"/>
     </row>
@@ -27016,7 +27016,7 @@
         <v>52</v>
       </c>
       <c r="E1056" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1056" s="2"/>
     </row>
@@ -27112,7 +27112,7 @@
         <v>1899</v>
       </c>
       <c r="E1062" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1062" s="2"/>
     </row>
@@ -27144,7 +27144,7 @@
         <v>1902</v>
       </c>
       <c r="E1064" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1064" s="2"/>
     </row>
@@ -27240,7 +27240,7 @@
         <v>39</v>
       </c>
       <c r="E1070" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1070" s="2"/>
     </row>
@@ -27256,7 +27256,7 @@
         <v>549</v>
       </c>
       <c r="E1071" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1071" s="2"/>
     </row>
@@ -27272,7 +27272,7 @@
         <v>1828</v>
       </c>
       <c r="E1072" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1072" s="2"/>
     </row>
@@ -27288,7 +27288,7 @@
         <v>72</v>
       </c>
       <c r="E1073" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1073" s="2"/>
     </row>
@@ -27432,7 +27432,7 @@
         <v>1931</v>
       </c>
       <c r="E1082" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1082" s="2"/>
     </row>
@@ -27544,7 +27544,7 @@
         <v>1944</v>
       </c>
       <c r="E1089" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1089" s="2"/>
     </row>
@@ -27560,7 +27560,7 @@
         <v>17</v>
       </c>
       <c r="E1090" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1090" s="2"/>
     </row>
@@ -27608,7 +27608,7 @@
         <v>1899</v>
       </c>
       <c r="E1093" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1093" s="2"/>
     </row>
@@ -27640,7 +27640,7 @@
         <v>1954</v>
       </c>
       <c r="E1095" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1095" s="2"/>
     </row>
@@ -27816,7 +27816,7 @@
         <v>390</v>
       </c>
       <c r="E1106" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1106" s="2"/>
     </row>
@@ -27976,7 +27976,7 @@
         <v>505</v>
       </c>
       <c r="E1116" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1116" s="2"/>
     </row>
@@ -28056,7 +28056,7 @@
         <v>2000</v>
       </c>
       <c r="E1121" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1121" s="2"/>
     </row>
@@ -28072,7 +28072,7 @@
         <v>587</v>
       </c>
       <c r="E1122" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1122" s="2"/>
     </row>
@@ -28088,7 +28088,7 @@
         <v>2003</v>
       </c>
       <c r="E1123" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1123" s="2"/>
     </row>
@@ -28104,7 +28104,7 @@
         <v>93</v>
       </c>
       <c r="E1124" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1124" s="2"/>
     </row>
@@ -28552,7 +28552,7 @@
         <v>52</v>
       </c>
       <c r="E1152" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1152" s="2"/>
     </row>
@@ -28584,7 +28584,7 @@
         <v>1485</v>
       </c>
       <c r="E1154" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1154" s="2"/>
     </row>
@@ -28600,7 +28600,7 @@
         <v>2055</v>
       </c>
       <c r="E1155" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1155" s="2"/>
     </row>
@@ -28616,7 +28616,7 @@
         <v>487</v>
       </c>
       <c r="E1156" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1156" s="2"/>
     </row>
@@ -28728,7 +28728,7 @@
         <v>78</v>
       </c>
       <c r="E1163" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1163" s="2"/>
     </row>
@@ -28888,7 +28888,7 @@
         <v>2084</v>
       </c>
       <c r="E1173" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1173" s="2"/>
     </row>
@@ -29032,7 +29032,7 @@
         <v>463</v>
       </c>
       <c r="E1182" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1182" s="2"/>
     </row>
@@ -29064,7 +29064,7 @@
         <v>826</v>
       </c>
       <c r="E1184" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1184" s="2"/>
     </row>
@@ -29192,7 +29192,7 @@
         <v>2117</v>
       </c>
       <c r="E1192" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1192" s="2"/>
     </row>
@@ -29224,7 +29224,7 @@
         <v>2121</v>
       </c>
       <c r="E1194" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1194" s="2"/>
     </row>
@@ -29288,7 +29288,7 @@
         <v>2128</v>
       </c>
       <c r="E1198" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1198" s="2"/>
     </row>
@@ -29384,7 +29384,7 @@
         <v>2140</v>
       </c>
       <c r="E1204" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1204" s="2"/>
     </row>
@@ -29480,7 +29480,7 @@
         <v>2151</v>
       </c>
       <c r="E1210" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1210" s="2"/>
     </row>
@@ -29560,7 +29560,7 @@
         <v>1407</v>
       </c>
       <c r="E1215" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1215" s="2"/>
     </row>
@@ -29576,7 +29576,7 @@
         <v>2160</v>
       </c>
       <c r="E1216" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1216" s="2"/>
     </row>
@@ -29625,7 +29625,7 @@
         <v>2166</v>
       </c>
       <c r="E1219" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1219" s="2"/>
       <c r="I1219" s="12"/>
@@ -29642,7 +29642,7 @@
         <v>2168</v>
       </c>
       <c r="E1220" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1220" s="2"/>
       <c r="I1220" s="12"/>
@@ -29914,7 +29914,7 @@
         <v>660</v>
       </c>
       <c r="E1236" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1236" s="2"/>
       <c r="I1236" s="12"/>
@@ -30016,7 +30016,7 @@
         <v>2204</v>
       </c>
       <c r="E1242" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1242" s="2"/>
       <c r="I1242" s="12"/>
@@ -30101,7 +30101,7 @@
         <v>2213</v>
       </c>
       <c r="E1247" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1247" s="2"/>
       <c r="I1247" s="12"/>
@@ -30203,7 +30203,7 @@
         <v>2223</v>
       </c>
       <c r="E1253" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1253" s="2"/>
       <c r="I1253" s="12"/>
@@ -30288,7 +30288,7 @@
         <v>13</v>
       </c>
       <c r="E1258" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1258" s="2"/>
       <c r="I1258" s="12"/>
@@ -30322,7 +30322,7 @@
         <v>2234</v>
       </c>
       <c r="E1260" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1260" s="2"/>
       <c r="I1260" s="12"/>
@@ -30407,7 +30407,7 @@
         <v>2242</v>
       </c>
       <c r="E1265" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1265" s="2"/>
       <c r="I1265" s="12"/>
@@ -30526,7 +30526,7 @@
         <v>2254</v>
       </c>
       <c r="E1272" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1272" s="2"/>
       <c r="I1272" s="12"/>
@@ -30594,7 +30594,7 @@
         <v>2260</v>
       </c>
       <c r="E1276" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1276" s="2"/>
       <c r="I1276" s="12"/>
@@ -30628,7 +30628,7 @@
         <v>2264</v>
       </c>
       <c r="E1278" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1278" s="2"/>
       <c r="I1278" s="12"/>
@@ -30679,7 +30679,7 @@
         <v>2269</v>
       </c>
       <c r="E1281" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1281" s="2"/>
       <c r="I1281" s="12"/>
@@ -30730,7 +30730,7 @@
         <v>1350</v>
       </c>
       <c r="E1284" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1284" s="2"/>
       <c r="I1284" s="12"/>
@@ -30747,7 +30747,7 @@
         <v>2275</v>
       </c>
       <c r="E1285" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1285" s="2"/>
       <c r="I1285" s="12"/>
@@ -30764,7 +30764,7 @@
         <v>2277</v>
       </c>
       <c r="E1286" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1286" s="2"/>
       <c r="I1286" s="12"/>
@@ -30781,7 +30781,7 @@
         <v>2279</v>
       </c>
       <c r="E1287" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1287" s="2"/>
       <c r="I1287" s="12"/>
@@ -30798,7 +30798,7 @@
         <v>2280</v>
       </c>
       <c r="E1288" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1288" s="2"/>
       <c r="I1288" s="12"/>
@@ -30849,7 +30849,7 @@
         <v>2286</v>
       </c>
       <c r="E1291" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1291" s="2"/>
       <c r="I1291" s="12"/>
@@ -30883,7 +30883,7 @@
         <v>2284</v>
       </c>
       <c r="E1293" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1293" s="2"/>
       <c r="I1293" s="12"/>
@@ -30900,7 +30900,7 @@
         <v>1718</v>
       </c>
       <c r="E1294" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1294" s="2"/>
       <c r="I1294" s="12"/>
@@ -30917,7 +30917,7 @@
         <v>2291</v>
       </c>
       <c r="E1295" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1295" s="2"/>
       <c r="I1295" s="12"/>
@@ -30951,7 +30951,7 @@
         <v>2295</v>
       </c>
       <c r="E1297" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1297" s="2"/>
       <c r="I1297" s="12"/>
@@ -30968,7 +30968,7 @@
         <v>2297</v>
       </c>
       <c r="E1298" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1298" s="2"/>
       <c r="I1298" s="12"/>
@@ -31002,7 +31002,7 @@
         <v>2301</v>
       </c>
       <c r="E1300" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1300" s="2"/>
       <c r="I1300" s="12"/>
@@ -31019,7 +31019,7 @@
         <v>2303</v>
       </c>
       <c r="E1301" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1301" s="2"/>
       <c r="I1301" s="12"/>
@@ -31070,7 +31070,7 @@
         <v>25</v>
       </c>
       <c r="E1304" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1304" s="2"/>
       <c r="I1304" s="12"/>
@@ -31172,7 +31172,7 @@
         <v>336</v>
       </c>
       <c r="E1310" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1310" s="2"/>
       <c r="I1310" s="12"/>
@@ -31274,7 +31274,7 @@
         <v>2330</v>
       </c>
       <c r="E1316" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1316" s="2"/>
       <c r="I1316" s="12"/>
@@ -31461,7 +31461,7 @@
         <v>19</v>
       </c>
       <c r="E1327" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1327" s="2"/>
       <c r="I1327" s="12"/>
@@ -31631,7 +31631,7 @@
         <v>319</v>
       </c>
       <c r="E1337" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1337" s="2"/>
       <c r="I1337" s="12"/>
@@ -31767,7 +31767,7 @@
         <v>2382</v>
       </c>
       <c r="E1345" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1345" s="2"/>
       <c r="I1345" s="12"/>
@@ -31869,7 +31869,7 @@
         <v>2391</v>
       </c>
       <c r="E1351" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1351" s="2"/>
       <c r="I1351" s="12"/>
@@ -31903,7 +31903,7 @@
         <v>2395</v>
       </c>
       <c r="E1353" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1353" s="2"/>
       <c r="I1353" s="12"/>
@@ -31971,7 +31971,7 @@
         <v>2402</v>
       </c>
       <c r="E1357" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1357" s="2"/>
       <c r="I1357" s="12"/>
@@ -32124,7 +32124,7 @@
         <v>286</v>
       </c>
       <c r="E1366" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1366" s="2"/>
       <c r="I1366" s="12"/>
@@ -32348,7 +32348,7 @@
         <v>2439</v>
       </c>
       <c r="E1379" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1379" s="2"/>
       <c r="I1379" s="12"/>
@@ -32569,7 +32569,7 @@
         <v>2424</v>
       </c>
       <c r="E1392" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1392" s="2"/>
       <c r="I1392" s="12"/>
@@ -32603,7 +32603,7 @@
         <v>52</v>
       </c>
       <c r="E1394" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1394" s="2"/>
       <c r="I1394" s="12"/>
@@ -32637,7 +32637,7 @@
         <v>1350</v>
       </c>
       <c r="E1396" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1396" s="2"/>
       <c r="I1396" s="12"/>
@@ -32671,7 +32671,7 @@
         <v>2470</v>
       </c>
       <c r="E1398" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1398" s="2"/>
       <c r="I1398" s="12"/>
@@ -32858,7 +32858,7 @@
         <v>2490</v>
       </c>
       <c r="E1409" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1409" s="2"/>
       <c r="I1409" s="12"/>
@@ -32875,7 +32875,7 @@
         <v>2492</v>
       </c>
       <c r="E1410" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1410" s="2"/>
       <c r="I1410" s="12"/>
@@ -32926,7 +32926,7 @@
         <v>2497</v>
       </c>
       <c r="E1413" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1413" s="2"/>
       <c r="I1413" s="12"/>
@@ -33079,7 +33079,7 @@
         <v>13</v>
       </c>
       <c r="E1422" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1422" s="2"/>
       <c r="I1422" s="12"/>
@@ -33215,7 +33215,7 @@
         <v>2524</v>
       </c>
       <c r="E1430" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1430" s="2"/>
       <c r="I1430" s="12"/>
@@ -33249,7 +33249,7 @@
         <v>39</v>
       </c>
       <c r="E1432" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1432" s="2"/>
       <c r="I1432" s="12"/>
@@ -33266,7 +33266,7 @@
         <v>2529</v>
       </c>
       <c r="E1433" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1433" s="2"/>
       <c r="I1433" s="12"/>
@@ -33504,7 +33504,7 @@
         <v>2548</v>
       </c>
       <c r="E1447" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1447" s="2"/>
       <c r="I1447" s="12"/>
@@ -33572,7 +33572,7 @@
         <v>2555</v>
       </c>
       <c r="E1451" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1451" s="2"/>
       <c r="I1451" s="12"/>
@@ -33708,7 +33708,7 @@
         <v>2571</v>
       </c>
       <c r="E1459" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1459" s="2"/>
       <c r="I1459" s="12"/>
@@ -33725,7 +33725,7 @@
         <v>19</v>
       </c>
       <c r="E1460" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1460" s="2"/>
       <c r="I1460" s="12"/>
@@ -33742,7 +33742,7 @@
         <v>660</v>
       </c>
       <c r="E1461" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1461" s="2"/>
       <c r="I1461" s="12"/>
@@ -33776,7 +33776,7 @@
         <v>2576</v>
       </c>
       <c r="E1463" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1463" s="2"/>
       <c r="I1463" s="12"/>
@@ -33912,7 +33912,7 @@
         <v>275</v>
       </c>
       <c r="E1471" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1471" s="2"/>
       <c r="I1471" s="12"/>
@@ -33946,7 +33946,7 @@
         <v>2424</v>
       </c>
       <c r="E1473" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1473" s="2"/>
       <c r="I1473" s="12"/>
@@ -33963,7 +33963,7 @@
         <v>111</v>
       </c>
       <c r="E1474" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1474" s="2"/>
       <c r="I1474" s="12"/>
@@ -34014,7 +34014,7 @@
         <v>509</v>
       </c>
       <c r="E1477" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1477" s="2"/>
       <c r="I1477" s="12"/>
@@ -34031,7 +34031,7 @@
         <v>2599</v>
       </c>
       <c r="E1478" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1478" s="2"/>
       <c r="I1478" s="12"/>
@@ -34116,7 +34116,7 @@
         <v>2605</v>
       </c>
       <c r="E1483" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1483" s="2"/>
       <c r="I1483" s="12"/>
@@ -34150,7 +34150,7 @@
         <v>2608</v>
       </c>
       <c r="E1485" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1485" s="2"/>
       <c r="I1485" s="12"/>
@@ -34184,7 +34184,7 @@
         <v>998</v>
       </c>
       <c r="E1487" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1487" s="2"/>
       <c r="I1487" s="12"/>
@@ -34269,7 +34269,7 @@
         <v>2619</v>
       </c>
       <c r="E1492" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1492" s="2"/>
       <c r="I1492" s="12"/>
@@ -34354,7 +34354,7 @@
         <v>2453</v>
       </c>
       <c r="E1497" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1497" s="2"/>
       <c r="I1497" s="12"/>
@@ -34422,7 +34422,7 @@
         <v>2636</v>
       </c>
       <c r="E1501" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1501" s="2"/>
       <c r="I1501" s="12"/>
@@ -34660,7 +34660,7 @@
         <v>1485</v>
       </c>
       <c r="E1515" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1515" s="2"/>
       <c r="I1515" s="12"/>
@@ -34694,7 +34694,7 @@
         <v>2663</v>
       </c>
       <c r="E1517" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1517" s="2"/>
       <c r="I1517" s="12"/>
@@ -34711,7 +34711,7 @@
         <v>2665</v>
       </c>
       <c r="E1518" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1518" s="2"/>
       <c r="I1518" s="12"/>
@@ -34813,7 +34813,7 @@
         <v>2676</v>
       </c>
       <c r="E1524" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1524" s="2"/>
       <c r="I1524" s="12"/>
@@ -34915,7 +34915,7 @@
         <v>2685</v>
       </c>
       <c r="E1530" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1530" s="2"/>
       <c r="I1530" s="12"/>
@@ -34966,7 +34966,7 @@
         <v>505</v>
       </c>
       <c r="E1533" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1533" s="2"/>
       <c r="I1533" s="12"/>
@@ -34983,7 +34983,7 @@
         <v>2692</v>
       </c>
       <c r="E1534" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1534" s="2"/>
       <c r="I1534" s="12"/>
@@ -35017,7 +35017,7 @@
         <v>2696</v>
       </c>
       <c r="E1536" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1536" s="2"/>
       <c r="I1536" s="12"/>
@@ -35102,7 +35102,7 @@
         <v>2703</v>
       </c>
       <c r="E1541" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1541" s="2"/>
       <c r="I1541" s="12"/>
@@ -35170,7 +35170,7 @@
         <v>1350</v>
       </c>
       <c r="E1545" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1545" s="2"/>
       <c r="I1545" s="12"/>
@@ -35204,7 +35204,7 @@
         <v>660</v>
       </c>
       <c r="E1547" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1547" s="2"/>
       <c r="I1547" s="12"/>
@@ -35255,7 +35255,7 @@
         <v>17</v>
       </c>
       <c r="E1550" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1550" s="2"/>
       <c r="I1550" s="12"/>
@@ -35306,7 +35306,7 @@
         <v>2719</v>
       </c>
       <c r="E1553" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1553" s="2"/>
       <c r="I1553" s="12"/>
@@ -35340,7 +35340,7 @@
         <v>826</v>
       </c>
       <c r="E1555" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1555" s="2"/>
       <c r="I1555" s="12"/>
@@ -35510,7 +35510,7 @@
         <v>2741</v>
       </c>
       <c r="E1565" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1565" s="2"/>
       <c r="I1565" s="12"/>
@@ -35595,7 +35595,7 @@
         <v>2750</v>
       </c>
       <c r="E1570" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1570" s="2"/>
       <c r="I1570" s="12"/>
@@ -35646,7 +35646,7 @@
         <v>52</v>
       </c>
       <c r="E1573" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1573" s="2"/>
       <c r="I1573" s="12"/>
@@ -35714,7 +35714,7 @@
         <v>74</v>
       </c>
       <c r="E1577" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1577" s="2"/>
       <c r="I1577" s="12"/>
@@ -35731,7 +35731,7 @@
         <v>2761</v>
       </c>
       <c r="E1578" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1578" s="2"/>
       <c r="I1578" s="12"/>
@@ -35833,7 +35833,7 @@
         <v>2772</v>
       </c>
       <c r="E1584" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1584" s="2"/>
       <c r="I1584" s="12"/>
@@ -35884,7 +35884,7 @@
         <v>2777</v>
       </c>
       <c r="E1587" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1587" s="2"/>
       <c r="I1587" s="12"/>
@@ -35918,7 +35918,7 @@
         <v>2781</v>
       </c>
       <c r="E1589" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1589" s="2"/>
       <c r="I1589" s="12"/>
@@ -36190,7 +36190,7 @@
         <v>487</v>
       </c>
       <c r="E1605" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1605" s="2"/>
       <c r="I1605" s="12"/>
@@ -36224,7 +36224,7 @@
         <v>2708</v>
       </c>
       <c r="E1607" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1607" s="2"/>
       <c r="I1607" s="12"/>
@@ -36258,7 +36258,7 @@
         <v>275</v>
       </c>
       <c r="E1609" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1609" s="2"/>
       <c r="I1609" s="12"/>
@@ -36360,7 +36360,7 @@
         <v>2824</v>
       </c>
       <c r="E1615" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1615" s="2"/>
       <c r="I1615" s="12"/>
@@ -36513,7 +36513,7 @@
         <v>2838</v>
       </c>
       <c r="E1624" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1624" s="2"/>
       <c r="I1624" s="12"/>
@@ -36547,7 +36547,7 @@
         <v>2842</v>
       </c>
       <c r="E1626" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1626" s="2"/>
       <c r="I1626" s="12"/>
@@ -36564,7 +36564,7 @@
         <v>786</v>
       </c>
       <c r="E1627" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1627" s="2"/>
       <c r="I1627" s="12"/>
@@ -36581,7 +36581,7 @@
         <v>2845</v>
       </c>
       <c r="E1628" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1628" s="2"/>
       <c r="I1628" s="12"/>
@@ -36598,7 +36598,7 @@
         <v>660</v>
       </c>
       <c r="E1629" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1629" s="2"/>
       <c r="I1629" s="12"/>
@@ -36785,7 +36785,7 @@
         <v>1562</v>
       </c>
       <c r="E1640" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1640" s="2"/>
       <c r="I1640" s="12"/>
@@ -36802,7 +36802,7 @@
         <v>2866</v>
       </c>
       <c r="E1641" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1641" s="2"/>
       <c r="I1641" s="12"/>
@@ -36836,7 +36836,7 @@
         <v>2870</v>
       </c>
       <c r="E1643" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1643" s="2"/>
       <c r="I1643" s="12"/>
@@ -36887,7 +36887,7 @@
         <v>2875</v>
       </c>
       <c r="E1646" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1646" s="2"/>
       <c r="I1646" s="12"/>
@@ -36972,7 +36972,7 @@
         <v>512</v>
       </c>
       <c r="E1651" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1651" s="2"/>
       <c r="I1651" s="12"/>
@@ -37040,7 +37040,7 @@
         <v>2889</v>
       </c>
       <c r="E1655" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1655" s="2"/>
       <c r="I1655" s="12"/>
@@ -37057,7 +37057,7 @@
         <v>2395</v>
       </c>
       <c r="E1656" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1656" s="2"/>
       <c r="I1656" s="12"/>
@@ -37091,7 +37091,7 @@
         <v>13</v>
       </c>
       <c r="E1658" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1658" s="2"/>
       <c r="I1658" s="12"/>
@@ -37108,7 +37108,7 @@
         <v>2395</v>
       </c>
       <c r="E1659" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1659" s="2"/>
       <c r="I1659" s="12"/>
@@ -37142,7 +37142,7 @@
         <v>2897</v>
       </c>
       <c r="E1661" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1661" s="2"/>
       <c r="I1661" s="12"/>
@@ -37159,7 +37159,7 @@
         <v>2110</v>
       </c>
       <c r="E1662" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1662" s="2"/>
       <c r="I1662" s="12"/>
@@ -37176,7 +37176,7 @@
         <v>2900</v>
       </c>
       <c r="E1663" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1663" s="2"/>
       <c r="I1663" s="12"/>
@@ -37244,7 +37244,7 @@
         <v>1581</v>
       </c>
       <c r="E1667" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1667" s="2"/>
       <c r="I1667" s="12"/>
@@ -37261,7 +37261,7 @@
         <v>116</v>
       </c>
       <c r="E1668" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1668" s="2"/>
       <c r="I1668" s="12"/>
@@ -37295,7 +37295,7 @@
         <v>19</v>
       </c>
       <c r="E1670" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1670" s="2"/>
       <c r="I1670" s="12"/>
@@ -37312,7 +37312,7 @@
         <v>2910</v>
       </c>
       <c r="E1671" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1671" s="2"/>
       <c r="I1671" s="12"/>
@@ -37414,7 +37414,7 @@
         <v>2921</v>
       </c>
       <c r="E1677" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1677" s="2"/>
       <c r="I1677" s="12"/>
@@ -37499,7 +37499,7 @@
         <v>2929</v>
       </c>
       <c r="E1682" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1682" s="2"/>
       <c r="I1682" s="12"/>
@@ -37516,7 +37516,7 @@
         <v>2395</v>
       </c>
       <c r="E1683" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1683" s="2"/>
       <c r="I1683" s="12"/>
@@ -37635,7 +37635,7 @@
         <v>2942</v>
       </c>
       <c r="E1690" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1690" s="2"/>
       <c r="I1690" s="12"/>
@@ -37686,7 +37686,7 @@
         <v>2945</v>
       </c>
       <c r="E1693" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1693" s="2"/>
       <c r="I1693" s="12"/>
@@ -37703,7 +37703,7 @@
         <v>2947</v>
       </c>
       <c r="E1694" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1694" s="2"/>
       <c r="I1694" s="12"/>
@@ -37771,7 +37771,7 @@
         <v>2953</v>
       </c>
       <c r="E1698" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1698" s="2"/>
       <c r="I1698" s="12"/>
@@ -37822,7 +37822,7 @@
         <v>2959</v>
       </c>
       <c r="E1701" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1701" s="2"/>
       <c r="I1701" s="12"/>
@@ -37839,7 +37839,7 @@
         <v>2961</v>
       </c>
       <c r="E1702" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1702" s="2"/>
       <c r="I1702" s="12"/>
@@ -37924,7 +37924,7 @@
         <v>2968</v>
       </c>
       <c r="E1707" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1707" s="2"/>
       <c r="I1707" s="12"/>
@@ -37992,7 +37992,7 @@
         <v>2975</v>
       </c>
       <c r="E1711" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1711" s="2"/>
       <c r="I1711" s="12"/>
@@ -38009,7 +38009,7 @@
         <v>2977</v>
       </c>
       <c r="E1712" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1712" s="2"/>
       <c r="I1712" s="12"/>
@@ -38162,7 +38162,7 @@
         <v>2990</v>
       </c>
       <c r="E1721" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1721" s="2"/>
       <c r="I1721" s="12"/>
@@ -38247,7 +38247,7 @@
         <v>2998</v>
       </c>
       <c r="E1726" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1726" s="2"/>
       <c r="I1726" s="12"/>
@@ -38400,7 +38400,7 @@
         <v>3013</v>
       </c>
       <c r="E1735" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1735" s="2"/>
       <c r="I1735" s="12"/>
@@ -38417,7 +38417,7 @@
         <v>3015</v>
       </c>
       <c r="E1736" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1736" s="2"/>
       <c r="I1736" s="12"/>
@@ -38485,7 +38485,7 @@
         <v>2798</v>
       </c>
       <c r="E1740" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1740" s="2"/>
       <c r="I1740" s="12"/>
@@ -38536,7 +38536,7 @@
         <v>3026</v>
       </c>
       <c r="E1743" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1743" s="2"/>
       <c r="I1743" s="12"/>
@@ -38587,7 +38587,7 @@
         <v>1630</v>
       </c>
       <c r="E1746" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1746" s="2"/>
       <c r="I1746" s="12"/>
@@ -38757,7 +38757,7 @@
         <v>3049</v>
       </c>
       <c r="E1756" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1756" s="2"/>
       <c r="I1756" s="12"/>
@@ -38944,7 +38944,7 @@
         <v>3070</v>
       </c>
       <c r="E1767" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1767" s="2"/>
       <c r="I1767" s="12"/>
@@ -38961,7 +38961,7 @@
         <v>3072</v>
       </c>
       <c r="E1768" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1768" s="2"/>
       <c r="I1768" s="12"/>
@@ -39080,7 +39080,7 @@
         <v>3082</v>
       </c>
       <c r="E1775" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1775" s="2"/>
       <c r="I1775" s="12"/>
@@ -39182,7 +39182,7 @@
         <v>3092</v>
       </c>
       <c r="E1781" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1781" s="2"/>
       <c r="I1781" s="12"/>
@@ -39318,7 +39318,7 @@
         <v>3106</v>
       </c>
       <c r="E1789" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1789" s="2"/>
       <c r="I1789" s="12"/>
@@ -39386,7 +39386,7 @@
         <v>923</v>
       </c>
       <c r="E1793" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1793" s="2"/>
       <c r="I1793" s="12"/>
@@ -39454,7 +39454,7 @@
         <v>3120</v>
       </c>
       <c r="E1797" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1797" s="2"/>
       <c r="I1797" s="12"/>
@@ -39539,7 +39539,7 @@
         <v>3129</v>
       </c>
       <c r="E1802" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1802" s="2"/>
       <c r="I1802" s="12"/>
@@ -39624,7 +39624,7 @@
         <v>3137</v>
       </c>
       <c r="E1807" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1807" s="2"/>
       <c r="I1807" s="12"/>
@@ -39641,7 +39641,7 @@
         <v>3139</v>
       </c>
       <c r="E1808" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1808" s="2"/>
       <c r="I1808" s="12"/>
@@ -39658,7 +39658,7 @@
         <v>660</v>
       </c>
       <c r="E1809" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1809" s="2"/>
       <c r="I1809" s="12"/>
@@ -39675,7 +39675,7 @@
         <v>512</v>
       </c>
       <c r="E1810" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1810" s="2"/>
       <c r="I1810" s="12"/>
@@ -39692,7 +39692,7 @@
         <v>3143</v>
       </c>
       <c r="E1811" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1811" s="2"/>
       <c r="I1811" s="12"/>
@@ -39709,7 +39709,7 @@
         <v>33</v>
       </c>
       <c r="E1812" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1812" s="2"/>
       <c r="I1812" s="12"/>
@@ -39726,7 +39726,7 @@
         <v>19</v>
       </c>
       <c r="E1813" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1813" s="2"/>
       <c r="I1813" s="12"/>
@@ -39760,7 +39760,7 @@
         <v>3149</v>
       </c>
       <c r="E1815" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1815" s="2"/>
       <c r="I1815" s="12"/>
@@ -39777,7 +39777,7 @@
         <v>3151</v>
       </c>
       <c r="E1816" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1816" s="2"/>
       <c r="I1816" s="12"/>
@@ -39794,7 +39794,7 @@
         <v>1843</v>
       </c>
       <c r="E1817" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1817" s="2"/>
       <c r="I1817" s="12"/>
@@ -40100,7 +40100,7 @@
         <v>3185</v>
       </c>
       <c r="E1835" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1835" s="2"/>
       <c r="I1835" s="12"/>
@@ -40236,7 +40236,7 @@
         <v>116</v>
       </c>
       <c r="E1843" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1843" s="2"/>
       <c r="I1843" s="12"/>
@@ -40338,7 +40338,7 @@
         <v>3209</v>
       </c>
       <c r="E1849" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1849" s="15"/>
       <c r="I1849" s="12"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10247,7 +10247,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -10328,7 +10328,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -10360,7 +10360,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -10424,7 +10424,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -10440,7 +10440,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -10456,7 +10456,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -10472,7 +10472,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -10504,7 +10504,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -10552,7 +10552,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -10568,7 +10568,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -10728,7 +10728,7 @@
         <v>74</v>
       </c>
       <c r="E38" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -10760,7 +10760,7 @@
         <v>78</v>
       </c>
       <c r="E40" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -10792,7 +10792,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -10840,7 +10840,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -10872,7 +10872,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -10888,7 +10888,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F48" s="2"/>
     </row>
@@ -11032,7 +11032,7 @@
         <v>111</v>
       </c>
       <c r="E57" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -11080,7 +11080,7 @@
         <v>116</v>
       </c>
       <c r="E60" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -11096,7 +11096,7 @@
         <v>116</v>
       </c>
       <c r="E61" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F61" s="2"/>
     </row>
@@ -11128,7 +11128,7 @@
         <v>120</v>
       </c>
       <c r="E63" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -11160,7 +11160,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -11432,7 +11432,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -11720,7 +11720,7 @@
         <v>19</v>
       </c>
       <c r="E100" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -11832,7 +11832,7 @@
         <v>207</v>
       </c>
       <c r="E107" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -11992,7 +11992,7 @@
         <v>223</v>
       </c>
       <c r="E117" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -12216,7 +12216,7 @@
         <v>251</v>
       </c>
       <c r="E131" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -12264,7 +12264,7 @@
         <v>257</v>
       </c>
       <c r="E134" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -12296,7 +12296,7 @@
         <v>261</v>
       </c>
       <c r="E136" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -12312,7 +12312,7 @@
         <v>263</v>
       </c>
       <c r="E137" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F137" s="2"/>
     </row>
@@ -12456,7 +12456,7 @@
         <v>281</v>
       </c>
       <c r="E146" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -12472,7 +12472,7 @@
         <v>39</v>
       </c>
       <c r="E147" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -12568,7 +12568,7 @@
         <v>294</v>
       </c>
       <c r="E153" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -12616,7 +12616,7 @@
         <v>128</v>
       </c>
       <c r="E156" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -12744,7 +12744,7 @@
         <v>315</v>
       </c>
       <c r="E164" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -12760,7 +12760,7 @@
         <v>317</v>
       </c>
       <c r="E165" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -12952,7 +12952,7 @@
         <v>340</v>
       </c>
       <c r="E177" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -13128,7 +13128,7 @@
         <v>359</v>
       </c>
       <c r="E188" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -13208,7 +13208,7 @@
         <v>369</v>
       </c>
       <c r="E193" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -13352,7 +13352,7 @@
         <v>384</v>
       </c>
       <c r="E202" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -13400,7 +13400,7 @@
         <v>390</v>
       </c>
       <c r="E205" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -13432,7 +13432,7 @@
         <v>394</v>
       </c>
       <c r="E207" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -13496,7 +13496,7 @@
         <v>402</v>
       </c>
       <c r="E211" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -13608,7 +13608,7 @@
         <v>103</v>
       </c>
       <c r="E218" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F218" s="2"/>
     </row>
@@ -13640,7 +13640,7 @@
         <v>417</v>
       </c>
       <c r="E220" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F220" s="2"/>
     </row>
@@ -13688,7 +13688,7 @@
         <v>423</v>
       </c>
       <c r="E223" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -13720,7 +13720,7 @@
         <v>427</v>
       </c>
       <c r="E225" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F225" s="2"/>
     </row>
@@ -13736,7 +13736,7 @@
         <v>429</v>
       </c>
       <c r="E226" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F226" s="2"/>
     </row>
@@ -13752,7 +13752,7 @@
         <v>431</v>
       </c>
       <c r="E227" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F227" s="2"/>
     </row>
@@ -13848,7 +13848,7 @@
         <v>443</v>
       </c>
       <c r="E233" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F233" s="2"/>
     </row>
@@ -13896,7 +13896,7 @@
         <v>449</v>
       </c>
       <c r="E236" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F236" s="2"/>
     </row>
@@ -13992,7 +13992,7 @@
         <v>461</v>
       </c>
       <c r="E242" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F242" s="2"/>
     </row>
@@ -14040,7 +14040,7 @@
         <v>467</v>
       </c>
       <c r="E245" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F245" s="2"/>
     </row>
@@ -14056,7 +14056,7 @@
         <v>469</v>
       </c>
       <c r="E246" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F246" s="2"/>
     </row>
@@ -14472,7 +14472,7 @@
         <v>516</v>
       </c>
       <c r="E272" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -14600,7 +14600,7 @@
         <v>221</v>
       </c>
       <c r="E280" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F280" s="2"/>
     </row>
@@ -14680,7 +14680,7 @@
         <v>539</v>
       </c>
       <c r="E285" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F285" s="2"/>
     </row>
@@ -14728,7 +14728,7 @@
         <v>221</v>
       </c>
       <c r="E288" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F288" s="2"/>
     </row>
@@ -14824,7 +14824,7 @@
         <v>551</v>
       </c>
       <c r="E294" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F294" s="2"/>
     </row>
@@ -14888,7 +14888,7 @@
         <v>558</v>
       </c>
       <c r="E298" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F298" s="2"/>
     </row>
@@ -14984,7 +14984,7 @@
         <v>221</v>
       </c>
       <c r="E304" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F304" s="2"/>
     </row>
@@ -15048,7 +15048,7 @@
         <v>574</v>
       </c>
       <c r="E308" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F308" s="2"/>
     </row>
@@ -15192,7 +15192,7 @@
         <v>39</v>
       </c>
       <c r="E317" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F317" s="2"/>
     </row>
@@ -15288,7 +15288,7 @@
         <v>601</v>
       </c>
       <c r="E323" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F323" s="2"/>
     </row>
@@ -15368,7 +15368,7 @@
         <v>611</v>
       </c>
       <c r="E328" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F328" s="2"/>
     </row>
@@ -15416,7 +15416,7 @@
         <v>617</v>
       </c>
       <c r="E331" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F331" s="2"/>
     </row>
@@ -15448,7 +15448,7 @@
         <v>607</v>
       </c>
       <c r="E333" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F333" s="2"/>
     </row>
@@ -15480,7 +15480,7 @@
         <v>623</v>
       </c>
       <c r="E335" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F335" s="2"/>
     </row>
@@ -15608,7 +15608,7 @@
         <v>634</v>
       </c>
       <c r="E343" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F343" s="2"/>
     </row>
@@ -15656,7 +15656,7 @@
         <v>640</v>
       </c>
       <c r="E346" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F346" s="2"/>
     </row>
@@ -15672,7 +15672,7 @@
         <v>642</v>
       </c>
       <c r="E347" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F347" s="2"/>
     </row>
@@ -15784,7 +15784,7 @@
         <v>654</v>
       </c>
       <c r="E354" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F354" s="2"/>
     </row>
@@ -15816,7 +15816,7 @@
         <v>52</v>
       </c>
       <c r="E356" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F356" s="2"/>
     </row>
@@ -15832,7 +15832,7 @@
         <v>52</v>
       </c>
       <c r="E357" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F357" s="2"/>
     </row>
@@ -15912,7 +15912,7 @@
         <v>667</v>
       </c>
       <c r="E362" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F362" s="2"/>
     </row>
@@ -15992,7 +15992,7 @@
         <v>677</v>
       </c>
       <c r="E367" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F367" s="2"/>
     </row>
@@ -16216,7 +16216,7 @@
         <v>703</v>
       </c>
       <c r="E381" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F381" s="2"/>
     </row>
@@ -16280,7 +16280,7 @@
         <v>25</v>
       </c>
       <c r="E385" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F385" s="2"/>
     </row>
@@ -16392,7 +16392,7 @@
         <v>120</v>
       </c>
       <c r="E392" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F392" s="2"/>
     </row>
@@ -16408,7 +16408,7 @@
         <v>501</v>
       </c>
       <c r="E393" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F393" s="2"/>
     </row>
@@ -16424,7 +16424,7 @@
         <v>725</v>
       </c>
       <c r="E394" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F394" s="2"/>
     </row>
@@ -16632,7 +16632,7 @@
         <v>748</v>
       </c>
       <c r="E407" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F407" s="2"/>
     </row>
@@ -16824,7 +16824,7 @@
         <v>39</v>
       </c>
       <c r="E419" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F419" s="2"/>
     </row>
@@ -16856,7 +16856,7 @@
         <v>774</v>
       </c>
       <c r="E421" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F421" s="2"/>
     </row>
@@ -16872,7 +16872,7 @@
         <v>776</v>
       </c>
       <c r="E422" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F422" s="2"/>
     </row>
@@ -16904,7 +16904,7 @@
         <v>780</v>
       </c>
       <c r="E424" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F424" s="2"/>
     </row>
@@ -16920,7 +16920,7 @@
         <v>782</v>
       </c>
       <c r="E425" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F425" s="2"/>
     </row>
@@ -16952,7 +16952,7 @@
         <v>786</v>
       </c>
       <c r="E427" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F427" s="2"/>
     </row>
@@ -17032,7 +17032,7 @@
         <v>796</v>
       </c>
       <c r="E432" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F432" s="2"/>
     </row>
@@ -17192,7 +17192,7 @@
         <v>221</v>
       </c>
       <c r="E442" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F442" s="2"/>
     </row>
@@ -17256,7 +17256,7 @@
         <v>317</v>
       </c>
       <c r="E446" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F446" s="2"/>
     </row>
@@ -17336,7 +17336,7 @@
         <v>826</v>
       </c>
       <c r="E451" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F451" s="2"/>
     </row>
@@ -17432,7 +17432,7 @@
         <v>836</v>
       </c>
       <c r="E457" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F457" s="2"/>
     </row>
@@ -17464,7 +17464,7 @@
         <v>839</v>
       </c>
       <c r="E459" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F459" s="2"/>
     </row>
@@ -17512,7 +17512,7 @@
         <v>845</v>
       </c>
       <c r="E462" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F462" s="2"/>
     </row>
@@ -17592,7 +17592,7 @@
         <v>855</v>
       </c>
       <c r="E467" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F467" s="2"/>
     </row>
@@ -17608,7 +17608,7 @@
         <v>857</v>
       </c>
       <c r="E468" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F468" s="2"/>
     </row>
@@ -17624,7 +17624,7 @@
         <v>286</v>
       </c>
       <c r="E469" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F469" s="2"/>
     </row>
@@ -17688,7 +17688,7 @@
         <v>865</v>
       </c>
       <c r="E473" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F473" s="2"/>
     </row>
@@ -17704,7 +17704,7 @@
         <v>33</v>
       </c>
       <c r="E474" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F474" s="2"/>
     </row>
@@ -17800,7 +17800,7 @@
         <v>877</v>
       </c>
       <c r="E480" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F480" s="2"/>
     </row>
@@ -17928,7 +17928,7 @@
         <v>890</v>
       </c>
       <c r="E488" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F488" s="2"/>
     </row>
@@ -17992,7 +17992,7 @@
         <v>265</v>
       </c>
       <c r="E492" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F492" s="2"/>
     </row>
@@ -18040,7 +18040,7 @@
         <v>417</v>
       </c>
       <c r="E495" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F495" s="2"/>
     </row>
@@ -18136,7 +18136,7 @@
         <v>912</v>
       </c>
       <c r="E501" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F501" s="2"/>
     </row>
@@ -18232,7 +18232,7 @@
         <v>923</v>
       </c>
       <c r="E507" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F507" s="2"/>
     </row>
@@ -18248,7 +18248,7 @@
         <v>925</v>
       </c>
       <c r="E508" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F508" s="2"/>
     </row>
@@ -18328,7 +18328,7 @@
         <v>935</v>
       </c>
       <c r="E513" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F513" s="2"/>
     </row>
@@ -18408,7 +18408,7 @@
         <v>945</v>
       </c>
       <c r="E518" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F518" s="2"/>
     </row>
@@ -18440,7 +18440,7 @@
         <v>949</v>
       </c>
       <c r="E520" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F520" s="2"/>
     </row>
@@ -18648,7 +18648,7 @@
         <v>972</v>
       </c>
       <c r="E533" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F533" s="2"/>
     </row>
@@ -18680,7 +18680,7 @@
         <v>975</v>
       </c>
       <c r="E535" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F535" s="2"/>
     </row>
@@ -18696,7 +18696,7 @@
         <v>977</v>
       </c>
       <c r="E536" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F536" s="2"/>
     </row>
@@ -18872,7 +18872,7 @@
         <v>120</v>
       </c>
       <c r="E547" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="F547" s="2"/>
     </row>
@@ -18888,7 +18888,7 @@
         <v>998</v>
       </c>
       <c r="E548" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F548" s="2"/>
     </row>
@@ -18936,7 +18936,7 @@
         <v>576</v>
       </c>
       <c r="E551" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F551" s="2"/>
     </row>
@@ -19000,7 +19000,7 @@
         <v>1011</v>
       </c>
       <c r="E555" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F555" s="2"/>
     </row>
@@ -19032,7 +19032,7 @@
         <v>1014</v>
       </c>
       <c r="E557" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F557" s="2"/>
     </row>
@@ -19048,7 +19048,7 @@
         <v>1016</v>
       </c>
       <c r="E558" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F558" s="2"/>
     </row>
@@ -19080,7 +19080,7 @@
         <v>607</v>
       </c>
       <c r="E560" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F560" s="2"/>
     </row>
@@ -19128,7 +19128,7 @@
         <v>1024</v>
       </c>
       <c r="E563" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F563" s="2"/>
     </row>
@@ -19192,7 +19192,7 @@
         <v>1032</v>
       </c>
       <c r="E567" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F567" s="2"/>
     </row>
@@ -19416,7 +19416,7 @@
         <v>1057</v>
       </c>
       <c r="E581" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F581" s="2"/>
     </row>
@@ -19464,7 +19464,7 @@
         <v>1063</v>
       </c>
       <c r="E584" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F584" s="2"/>
     </row>
@@ -19512,7 +19512,7 @@
         <v>1069</v>
       </c>
       <c r="E587" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F587" s="2"/>
     </row>
@@ -19592,7 +19592,7 @@
         <v>507</v>
       </c>
       <c r="E592" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F592" s="2"/>
     </row>
@@ -19672,7 +19672,7 @@
         <v>1085</v>
       </c>
       <c r="E597" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F597" s="2"/>
     </row>
@@ -19704,7 +19704,7 @@
         <v>1089</v>
       </c>
       <c r="E599" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F599" s="2"/>
     </row>
@@ -19784,7 +19784,7 @@
         <v>1098</v>
       </c>
       <c r="E604" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F604" s="2"/>
     </row>
@@ -19832,7 +19832,7 @@
         <v>1101</v>
       </c>
       <c r="E607" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F607" s="2"/>
     </row>
@@ -19880,7 +19880,7 @@
         <v>1107</v>
       </c>
       <c r="E610" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F610" s="2"/>
     </row>
@@ -19912,7 +19912,7 @@
         <v>1110</v>
       </c>
       <c r="E612" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F612" s="2"/>
     </row>
@@ -20200,7 +20200,7 @@
         <v>1145</v>
       </c>
       <c r="E630" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F630" s="2"/>
     </row>
@@ -20296,7 +20296,7 @@
         <v>1157</v>
       </c>
       <c r="E636" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F636" s="2"/>
     </row>
@@ -20552,7 +20552,7 @@
         <v>82</v>
       </c>
       <c r="E652" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F652" s="2"/>
     </row>
@@ -20616,7 +20616,7 @@
         <v>580</v>
       </c>
       <c r="E656" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F656" s="2"/>
     </row>
@@ -20648,7 +20648,7 @@
         <v>221</v>
       </c>
       <c r="E658" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F658" s="2"/>
     </row>
@@ -20696,7 +20696,7 @@
         <v>1197</v>
       </c>
       <c r="E661" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F661" s="2"/>
     </row>
@@ -20744,7 +20744,7 @@
         <v>1203</v>
       </c>
       <c r="E664" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F664" s="2"/>
     </row>
@@ -20808,7 +20808,7 @@
         <v>1210</v>
       </c>
       <c r="E668" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F668" s="2"/>
     </row>
@@ -20856,7 +20856,7 @@
         <v>1216</v>
       </c>
       <c r="E671" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F671" s="2"/>
     </row>
@@ -20872,7 +20872,7 @@
         <v>1218</v>
       </c>
       <c r="E672" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F672" s="2"/>
     </row>
@@ -20936,7 +20936,7 @@
         <v>1226</v>
       </c>
       <c r="E676" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F676" s="2"/>
     </row>
@@ -20952,7 +20952,7 @@
         <v>1228</v>
       </c>
       <c r="E677" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F677" s="2"/>
     </row>
@@ -20984,7 +20984,7 @@
         <v>1232</v>
       </c>
       <c r="E679" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F679" s="2"/>
     </row>
@@ -21016,7 +21016,7 @@
         <v>1235</v>
       </c>
       <c r="E681" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F681" s="2"/>
     </row>
@@ -21064,7 +21064,7 @@
         <v>1240</v>
       </c>
       <c r="E684" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F684" s="2"/>
     </row>
@@ -21224,7 +21224,7 @@
         <v>1258</v>
       </c>
       <c r="E694" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F694" s="2"/>
     </row>
@@ -21304,7 +21304,7 @@
         <v>1268</v>
       </c>
       <c r="E699" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F699" s="2"/>
     </row>
@@ -21320,7 +21320,7 @@
         <v>1270</v>
       </c>
       <c r="E700" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F700" s="2"/>
     </row>
@@ -21576,7 +21576,7 @@
         <v>1298</v>
       </c>
       <c r="E716" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F716" s="2"/>
     </row>
@@ -21608,7 +21608,7 @@
         <v>1302</v>
       </c>
       <c r="E718" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F718" s="2"/>
     </row>
@@ -21640,7 +21640,7 @@
         <v>1305</v>
       </c>
       <c r="E720" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F720" s="2"/>
     </row>
@@ -21656,7 +21656,7 @@
         <v>1307</v>
       </c>
       <c r="E721" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F721" s="2"/>
     </row>
@@ -21768,7 +21768,7 @@
         <v>861</v>
       </c>
       <c r="E728" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F728" s="2"/>
     </row>
@@ -21944,7 +21944,7 @@
         <v>31</v>
       </c>
       <c r="E739" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F739" s="2"/>
     </row>
@@ -22008,7 +22008,7 @@
         <v>1345</v>
       </c>
       <c r="E743" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F743" s="2"/>
     </row>
@@ -22216,7 +22216,7 @@
         <v>1368</v>
       </c>
       <c r="E756" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F756" s="2"/>
     </row>
@@ -22312,7 +22312,7 @@
         <v>1379</v>
       </c>
       <c r="E762" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F762" s="2"/>
     </row>
@@ -22392,7 +22392,7 @@
         <v>25</v>
       </c>
       <c r="E767" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F767" s="2"/>
     </row>
@@ -22456,7 +22456,7 @@
         <v>1395</v>
       </c>
       <c r="E771" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F771" s="2"/>
     </row>
@@ -22616,7 +22616,7 @@
         <v>910</v>
       </c>
       <c r="E781" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F781" s="2"/>
     </row>
@@ -22632,7 +22632,7 @@
         <v>1412</v>
       </c>
       <c r="E782" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F782" s="2"/>
     </row>
@@ -23192,7 +23192,7 @@
         <v>1478</v>
       </c>
       <c r="E817" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F817" s="2"/>
     </row>
@@ -23320,7 +23320,7 @@
         <v>29</v>
       </c>
       <c r="E825" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F825" s="2"/>
     </row>
@@ -23368,7 +23368,7 @@
         <v>1496</v>
       </c>
       <c r="E828" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F828" s="2"/>
     </row>
@@ -23384,7 +23384,7 @@
         <v>52</v>
       </c>
       <c r="E829" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F829" s="2"/>
     </row>
@@ -23400,7 +23400,7 @@
         <v>1499</v>
       </c>
       <c r="E830" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F830" s="2"/>
     </row>
@@ -23528,7 +23528,7 @@
         <v>1514</v>
       </c>
       <c r="E838" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F838" s="2"/>
     </row>
@@ -23576,7 +23576,7 @@
         <v>1520</v>
       </c>
       <c r="E841" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F841" s="2"/>
     </row>
@@ -23592,7 +23592,7 @@
         <v>1522</v>
       </c>
       <c r="E842" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F842" s="2"/>
     </row>
@@ -23672,7 +23672,7 @@
         <v>1532</v>
       </c>
       <c r="E847" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F847" s="2"/>
     </row>
@@ -23880,7 +23880,7 @@
         <v>33</v>
       </c>
       <c r="E860" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F860" s="2"/>
     </row>
@@ -23912,7 +23912,7 @@
         <v>1558</v>
       </c>
       <c r="E862" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F862" s="2"/>
     </row>
@@ -24504,7 +24504,7 @@
         <v>1621</v>
       </c>
       <c r="E899" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F899" s="2"/>
     </row>
@@ -24536,7 +24536,7 @@
         <v>1625</v>
       </c>
       <c r="E901" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F901" s="2"/>
     </row>
@@ -24600,7 +24600,7 @@
         <v>623</v>
       </c>
       <c r="E905" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F905" s="2"/>
     </row>
@@ -24696,7 +24696,7 @@
         <v>1642</v>
       </c>
       <c r="E911" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F911" s="2"/>
     </row>
@@ -24712,7 +24712,7 @@
         <v>1644</v>
       </c>
       <c r="E912" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F912" s="2"/>
     </row>
@@ -24728,7 +24728,7 @@
         <v>1646</v>
       </c>
       <c r="E913" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F913" s="2"/>
     </row>
@@ -24840,7 +24840,7 @@
         <v>1660</v>
       </c>
       <c r="E920" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F920" s="2"/>
     </row>
@@ -24872,7 +24872,7 @@
         <v>1664</v>
       </c>
       <c r="E922" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F922" s="2"/>
     </row>
@@ -24936,7 +24936,7 @@
         <v>1670</v>
       </c>
       <c r="E926" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F926" s="2"/>
     </row>
@@ -25016,7 +25016,7 @@
         <v>784</v>
       </c>
       <c r="E931" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F931" s="2"/>
     </row>
@@ -25128,7 +25128,7 @@
         <v>1691</v>
       </c>
       <c r="E938" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F938" s="2"/>
     </row>
@@ -25272,7 +25272,7 @@
         <v>1708</v>
       </c>
       <c r="E947" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F947" s="2"/>
     </row>
@@ -25320,7 +25320,7 @@
         <v>1713</v>
       </c>
       <c r="E950" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F950" s="2"/>
     </row>
@@ -25464,7 +25464,7 @@
         <v>1730</v>
       </c>
       <c r="E959" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F959" s="2"/>
     </row>
@@ -25512,7 +25512,7 @@
         <v>1736</v>
       </c>
       <c r="E962" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F962" s="2"/>
     </row>
@@ -25560,7 +25560,7 @@
         <v>1740</v>
       </c>
       <c r="E965" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F965" s="2"/>
     </row>
@@ -25656,7 +25656,7 @@
         <v>1750</v>
       </c>
       <c r="E971" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F971" s="2"/>
     </row>
@@ -25928,7 +25928,7 @@
         <v>1775</v>
       </c>
       <c r="E988" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F988" s="2"/>
     </row>
@@ -25960,7 +25960,7 @@
         <v>623</v>
       </c>
       <c r="E990" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F990" s="2"/>
     </row>
@@ -26040,7 +26040,7 @@
         <v>1000</v>
       </c>
       <c r="E995" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F995" s="2"/>
     </row>
@@ -26200,7 +26200,7 @@
         <v>103</v>
       </c>
       <c r="E1005" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1005" s="2"/>
     </row>
@@ -26312,7 +26312,7 @@
         <v>640</v>
       </c>
       <c r="E1012" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1012" s="2"/>
     </row>
@@ -26376,7 +26376,7 @@
         <v>1822</v>
       </c>
       <c r="E1016" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1016" s="2"/>
     </row>
@@ -26488,7 +26488,7 @@
         <v>1835</v>
       </c>
       <c r="E1023" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1023" s="2"/>
     </row>
@@ -26520,7 +26520,7 @@
         <v>29</v>
       </c>
       <c r="E1025" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1025" s="2"/>
     </row>
@@ -26680,7 +26680,7 @@
         <v>1856</v>
       </c>
       <c r="E1035" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1035" s="2"/>
     </row>
@@ -26712,7 +26712,7 @@
         <v>52</v>
       </c>
       <c r="E1037" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1037" s="2"/>
     </row>
@@ -26776,7 +26776,7 @@
         <v>103</v>
       </c>
       <c r="E1041" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1041" s="2"/>
     </row>
@@ -26808,7 +26808,7 @@
         <v>221</v>
       </c>
       <c r="E1043" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1043" s="2"/>
     </row>
@@ -26984,7 +26984,7 @@
         <v>1884</v>
       </c>
       <c r="E1054" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1054" s="2"/>
     </row>
@@ -27016,7 +27016,7 @@
         <v>52</v>
       </c>
       <c r="E1056" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1056" s="2"/>
     </row>
@@ -27112,7 +27112,7 @@
         <v>1899</v>
       </c>
       <c r="E1062" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1062" s="2"/>
     </row>
@@ -27144,7 +27144,7 @@
         <v>1902</v>
       </c>
       <c r="E1064" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1064" s="2"/>
     </row>
@@ -27240,7 +27240,7 @@
         <v>39</v>
       </c>
       <c r="E1070" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1070" s="2"/>
     </row>
@@ -27256,7 +27256,7 @@
         <v>549</v>
       </c>
       <c r="E1071" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1071" s="2"/>
     </row>
@@ -27272,7 +27272,7 @@
         <v>1828</v>
       </c>
       <c r="E1072" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1072" s="2"/>
     </row>
@@ -27336,7 +27336,7 @@
         <v>221</v>
       </c>
       <c r="E1076" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1076" s="2"/>
     </row>
@@ -27432,7 +27432,7 @@
         <v>1931</v>
       </c>
       <c r="E1082" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1082" s="2"/>
     </row>
@@ -27544,7 +27544,7 @@
         <v>1944</v>
       </c>
       <c r="E1089" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1089" s="2"/>
     </row>
@@ -27608,7 +27608,7 @@
         <v>1899</v>
       </c>
       <c r="E1093" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1093" s="2"/>
     </row>
@@ -27640,7 +27640,7 @@
         <v>1954</v>
       </c>
       <c r="E1095" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1095" s="2"/>
     </row>
@@ -27816,7 +27816,7 @@
         <v>390</v>
       </c>
       <c r="E1106" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1106" s="2"/>
     </row>
@@ -27976,7 +27976,7 @@
         <v>505</v>
       </c>
       <c r="E1116" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1116" s="2"/>
     </row>
@@ -28024,7 +28024,7 @@
         <v>1996</v>
       </c>
       <c r="E1119" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1119" s="2"/>
     </row>
@@ -28056,7 +28056,7 @@
         <v>2000</v>
       </c>
       <c r="E1121" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1121" s="2"/>
     </row>
@@ -28072,7 +28072,7 @@
         <v>587</v>
       </c>
       <c r="E1122" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1122" s="2"/>
     </row>
@@ -28088,7 +28088,7 @@
         <v>2003</v>
       </c>
       <c r="E1123" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1123" s="2"/>
     </row>
@@ -28104,7 +28104,7 @@
         <v>93</v>
       </c>
       <c r="E1124" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1124" s="2"/>
     </row>
@@ -28248,7 +28248,7 @@
         <v>150</v>
       </c>
       <c r="E1133" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1133" s="2"/>
     </row>
@@ -28552,7 +28552,7 @@
         <v>52</v>
       </c>
       <c r="E1152" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1152" s="2"/>
     </row>
@@ -28584,7 +28584,7 @@
         <v>1485</v>
       </c>
       <c r="E1154" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1154" s="2"/>
     </row>
@@ -28600,7 +28600,7 @@
         <v>2055</v>
       </c>
       <c r="E1155" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1155" s="2"/>
     </row>
@@ -28616,7 +28616,7 @@
         <v>487</v>
       </c>
       <c r="E1156" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1156" s="2"/>
     </row>
@@ -28728,7 +28728,7 @@
         <v>78</v>
       </c>
       <c r="E1163" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1163" s="2"/>
     </row>
@@ -28872,7 +28872,7 @@
         <v>2082</v>
       </c>
       <c r="E1172" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1172" s="2"/>
     </row>
@@ -28888,7 +28888,7 @@
         <v>2084</v>
       </c>
       <c r="E1173" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1173" s="2"/>
     </row>
@@ -29032,7 +29032,7 @@
         <v>463</v>
       </c>
       <c r="E1182" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1182" s="2"/>
     </row>
@@ -29064,7 +29064,7 @@
         <v>826</v>
       </c>
       <c r="E1184" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1184" s="2"/>
     </row>
@@ -29192,7 +29192,7 @@
         <v>2117</v>
       </c>
       <c r="E1192" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1192" s="2"/>
     </row>
@@ -29224,7 +29224,7 @@
         <v>2121</v>
       </c>
       <c r="E1194" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1194" s="2"/>
     </row>
@@ -29288,7 +29288,7 @@
         <v>2128</v>
       </c>
       <c r="E1198" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1198" s="2"/>
     </row>
@@ -29384,7 +29384,7 @@
         <v>2140</v>
       </c>
       <c r="E1204" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1204" s="2"/>
     </row>
@@ -29480,7 +29480,7 @@
         <v>2151</v>
       </c>
       <c r="E1210" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1210" s="2"/>
     </row>
@@ -29560,7 +29560,7 @@
         <v>1407</v>
       </c>
       <c r="E1215" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1215" s="2"/>
     </row>
@@ -29576,7 +29576,7 @@
         <v>2160</v>
       </c>
       <c r="E1216" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1216" s="2"/>
     </row>
@@ -29625,7 +29625,7 @@
         <v>2166</v>
       </c>
       <c r="E1219" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1219" s="2"/>
       <c r="I1219" s="12"/>
@@ -29642,7 +29642,7 @@
         <v>2168</v>
       </c>
       <c r="E1220" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1220" s="2"/>
       <c r="I1220" s="12"/>
@@ -29914,7 +29914,7 @@
         <v>660</v>
       </c>
       <c r="E1236" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1236" s="2"/>
       <c r="I1236" s="12"/>
@@ -30016,7 +30016,7 @@
         <v>2204</v>
       </c>
       <c r="E1242" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1242" s="2"/>
       <c r="I1242" s="12"/>
@@ -30101,7 +30101,7 @@
         <v>2213</v>
       </c>
       <c r="E1247" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1247" s="2"/>
       <c r="I1247" s="12"/>
@@ -30203,7 +30203,7 @@
         <v>2223</v>
       </c>
       <c r="E1253" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1253" s="2"/>
       <c r="I1253" s="12"/>
@@ -30288,7 +30288,7 @@
         <v>13</v>
       </c>
       <c r="E1258" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1258" s="2"/>
       <c r="I1258" s="12"/>
@@ -30322,7 +30322,7 @@
         <v>2234</v>
       </c>
       <c r="E1260" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1260" s="2"/>
       <c r="I1260" s="12"/>
@@ -30407,7 +30407,7 @@
         <v>2242</v>
       </c>
       <c r="E1265" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1265" s="2"/>
       <c r="I1265" s="12"/>
@@ -30526,7 +30526,7 @@
         <v>2254</v>
       </c>
       <c r="E1272" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1272" s="2"/>
       <c r="I1272" s="12"/>
@@ -30594,7 +30594,7 @@
         <v>2260</v>
       </c>
       <c r="E1276" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1276" s="2"/>
       <c r="I1276" s="12"/>
@@ -30628,7 +30628,7 @@
         <v>2264</v>
       </c>
       <c r="E1278" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1278" s="2"/>
       <c r="I1278" s="12"/>
@@ -30679,7 +30679,7 @@
         <v>2269</v>
       </c>
       <c r="E1281" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1281" s="2"/>
       <c r="I1281" s="12"/>
@@ -30730,7 +30730,7 @@
         <v>1350</v>
       </c>
       <c r="E1284" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1284" s="2"/>
       <c r="I1284" s="12"/>
@@ -30747,7 +30747,7 @@
         <v>2275</v>
       </c>
       <c r="E1285" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1285" s="2"/>
       <c r="I1285" s="12"/>
@@ -30764,7 +30764,7 @@
         <v>2277</v>
       </c>
       <c r="E1286" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1286" s="2"/>
       <c r="I1286" s="12"/>
@@ -30781,7 +30781,7 @@
         <v>2279</v>
       </c>
       <c r="E1287" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1287" s="2"/>
       <c r="I1287" s="12"/>
@@ -30798,7 +30798,7 @@
         <v>2280</v>
       </c>
       <c r="E1288" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1288" s="2"/>
       <c r="I1288" s="12"/>
@@ -30849,7 +30849,7 @@
         <v>2286</v>
       </c>
       <c r="E1291" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1291" s="2"/>
       <c r="I1291" s="12"/>
@@ -30883,7 +30883,7 @@
         <v>2284</v>
       </c>
       <c r="E1293" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1293" s="2"/>
       <c r="I1293" s="12"/>
@@ -30900,7 +30900,7 @@
         <v>1718</v>
       </c>
       <c r="E1294" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1294" s="2"/>
       <c r="I1294" s="12"/>
@@ -30917,7 +30917,7 @@
         <v>2291</v>
       </c>
       <c r="E1295" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1295" s="2"/>
       <c r="I1295" s="12"/>
@@ -30951,7 +30951,7 @@
         <v>2295</v>
       </c>
       <c r="E1297" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1297" s="2"/>
       <c r="I1297" s="12"/>
@@ -30968,7 +30968,7 @@
         <v>2297</v>
       </c>
       <c r="E1298" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1298" s="2"/>
       <c r="I1298" s="12"/>
@@ -31002,7 +31002,7 @@
         <v>2301</v>
       </c>
       <c r="E1300" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1300" s="2"/>
       <c r="I1300" s="12"/>
@@ -31019,7 +31019,7 @@
         <v>2303</v>
       </c>
       <c r="E1301" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1301" s="2"/>
       <c r="I1301" s="12"/>
@@ -31070,7 +31070,7 @@
         <v>25</v>
       </c>
       <c r="E1304" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1304" s="2"/>
       <c r="I1304" s="12"/>
@@ -31172,7 +31172,7 @@
         <v>336</v>
       </c>
       <c r="E1310" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1310" s="2"/>
       <c r="I1310" s="12"/>
@@ -31274,7 +31274,7 @@
         <v>2330</v>
       </c>
       <c r="E1316" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1316" s="2"/>
       <c r="I1316" s="12"/>
@@ -31631,7 +31631,7 @@
         <v>319</v>
       </c>
       <c r="E1337" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1337" s="2"/>
       <c r="I1337" s="12"/>
@@ -31767,7 +31767,7 @@
         <v>2382</v>
       </c>
       <c r="E1345" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1345" s="2"/>
       <c r="I1345" s="12"/>
@@ -31869,7 +31869,7 @@
         <v>2391</v>
       </c>
       <c r="E1351" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1351" s="2"/>
       <c r="I1351" s="12"/>
@@ -31903,7 +31903,7 @@
         <v>2395</v>
       </c>
       <c r="E1353" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1353" s="2"/>
       <c r="I1353" s="12"/>
@@ -31971,7 +31971,7 @@
         <v>2402</v>
       </c>
       <c r="E1357" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1357" s="2"/>
       <c r="I1357" s="12"/>
@@ -32124,7 +32124,7 @@
         <v>286</v>
       </c>
       <c r="E1366" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1366" s="2"/>
       <c r="I1366" s="12"/>
@@ -32348,7 +32348,7 @@
         <v>2439</v>
       </c>
       <c r="E1379" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1379" s="2"/>
       <c r="I1379" s="12"/>
@@ -32569,7 +32569,7 @@
         <v>2424</v>
       </c>
       <c r="E1392" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1392" s="2"/>
       <c r="I1392" s="12"/>
@@ -32603,7 +32603,7 @@
         <v>52</v>
       </c>
       <c r="E1394" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1394" s="2"/>
       <c r="I1394" s="12"/>
@@ -32671,7 +32671,7 @@
         <v>2470</v>
       </c>
       <c r="E1398" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1398" s="2"/>
       <c r="I1398" s="12"/>
@@ -32858,7 +32858,7 @@
         <v>2490</v>
       </c>
       <c r="E1409" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1409" s="2"/>
       <c r="I1409" s="12"/>
@@ -32875,7 +32875,7 @@
         <v>2492</v>
       </c>
       <c r="E1410" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1410" s="2"/>
       <c r="I1410" s="12"/>
@@ -32926,7 +32926,7 @@
         <v>2497</v>
       </c>
       <c r="E1413" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1413" s="2"/>
       <c r="I1413" s="12"/>
@@ -33079,7 +33079,7 @@
         <v>13</v>
       </c>
       <c r="E1422" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1422" s="2"/>
       <c r="I1422" s="12"/>
@@ -33215,7 +33215,7 @@
         <v>2524</v>
       </c>
       <c r="E1430" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1430" s="2"/>
       <c r="I1430" s="12"/>
@@ -33249,7 +33249,7 @@
         <v>39</v>
       </c>
       <c r="E1432" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1432" s="2"/>
       <c r="I1432" s="12"/>
@@ -33266,7 +33266,7 @@
         <v>2529</v>
       </c>
       <c r="E1433" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1433" s="2"/>
       <c r="I1433" s="12"/>
@@ -33504,7 +33504,7 @@
         <v>2548</v>
       </c>
       <c r="E1447" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1447" s="2"/>
       <c r="I1447" s="12"/>
@@ -33572,7 +33572,7 @@
         <v>2555</v>
       </c>
       <c r="E1451" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1451" s="2"/>
       <c r="I1451" s="12"/>
@@ -33708,7 +33708,7 @@
         <v>2571</v>
       </c>
       <c r="E1459" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1459" s="2"/>
       <c r="I1459" s="12"/>
@@ -33725,7 +33725,7 @@
         <v>19</v>
       </c>
       <c r="E1460" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1460" s="2"/>
       <c r="I1460" s="12"/>
@@ -33742,7 +33742,7 @@
         <v>660</v>
       </c>
       <c r="E1461" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1461" s="2"/>
       <c r="I1461" s="12"/>
@@ -33776,7 +33776,7 @@
         <v>2576</v>
       </c>
       <c r="E1463" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1463" s="2"/>
       <c r="I1463" s="12"/>
@@ -33912,7 +33912,7 @@
         <v>275</v>
       </c>
       <c r="E1471" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1471" s="2"/>
       <c r="I1471" s="12"/>
@@ -33946,7 +33946,7 @@
         <v>2424</v>
       </c>
       <c r="E1473" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1473" s="2"/>
       <c r="I1473" s="12"/>
@@ -33963,7 +33963,7 @@
         <v>111</v>
       </c>
       <c r="E1474" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1474" s="2"/>
       <c r="I1474" s="12"/>
@@ -34014,7 +34014,7 @@
         <v>509</v>
       </c>
       <c r="E1477" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1477" s="2"/>
       <c r="I1477" s="12"/>
@@ -34031,7 +34031,7 @@
         <v>2599</v>
       </c>
       <c r="E1478" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1478" s="2"/>
       <c r="I1478" s="12"/>
@@ -34116,7 +34116,7 @@
         <v>2605</v>
       </c>
       <c r="E1483" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1483" s="2"/>
       <c r="I1483" s="12"/>
@@ -34150,7 +34150,7 @@
         <v>2608</v>
       </c>
       <c r="E1485" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1485" s="2"/>
       <c r="I1485" s="12"/>
@@ -34184,7 +34184,7 @@
         <v>998</v>
       </c>
       <c r="E1487" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1487" s="2"/>
       <c r="I1487" s="12"/>
@@ -34269,7 +34269,7 @@
         <v>2619</v>
       </c>
       <c r="E1492" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1492" s="2"/>
       <c r="I1492" s="12"/>
@@ -34422,7 +34422,7 @@
         <v>2636</v>
       </c>
       <c r="E1501" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1501" s="2"/>
       <c r="I1501" s="12"/>
@@ -34660,7 +34660,7 @@
         <v>1485</v>
       </c>
       <c r="E1515" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1515" s="2"/>
       <c r="I1515" s="12"/>
@@ -34694,7 +34694,7 @@
         <v>2663</v>
       </c>
       <c r="E1517" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1517" s="2"/>
       <c r="I1517" s="12"/>
@@ -34711,7 +34711,7 @@
         <v>2665</v>
       </c>
       <c r="E1518" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1518" s="2"/>
       <c r="I1518" s="12"/>
@@ -34813,7 +34813,7 @@
         <v>2676</v>
       </c>
       <c r="E1524" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1524" s="2"/>
       <c r="I1524" s="12"/>
@@ -34915,7 +34915,7 @@
         <v>2685</v>
       </c>
       <c r="E1530" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1530" s="2"/>
       <c r="I1530" s="12"/>
@@ -34966,7 +34966,7 @@
         <v>505</v>
       </c>
       <c r="E1533" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1533" s="2"/>
       <c r="I1533" s="12"/>
@@ -34983,7 +34983,7 @@
         <v>2692</v>
       </c>
       <c r="E1534" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1534" s="2"/>
       <c r="I1534" s="12"/>
@@ -35017,7 +35017,7 @@
         <v>2696</v>
       </c>
       <c r="E1536" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1536" s="2"/>
       <c r="I1536" s="12"/>
@@ -35102,7 +35102,7 @@
         <v>2703</v>
       </c>
       <c r="E1541" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1541" s="2"/>
       <c r="I1541" s="12"/>
@@ -35170,7 +35170,7 @@
         <v>1350</v>
       </c>
       <c r="E1545" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1545" s="2"/>
       <c r="I1545" s="12"/>
@@ -35204,7 +35204,7 @@
         <v>660</v>
       </c>
       <c r="E1547" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1547" s="2"/>
       <c r="I1547" s="12"/>
@@ -35238,7 +35238,7 @@
         <v>17</v>
       </c>
       <c r="E1549" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1549" s="2"/>
       <c r="I1549" s="12"/>
@@ -35255,7 +35255,7 @@
         <v>17</v>
       </c>
       <c r="E1550" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1550" s="2"/>
       <c r="I1550" s="12"/>
@@ -35306,7 +35306,7 @@
         <v>2719</v>
       </c>
       <c r="E1553" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1553" s="2"/>
       <c r="I1553" s="12"/>
@@ -35340,7 +35340,7 @@
         <v>826</v>
       </c>
       <c r="E1555" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1555" s="2"/>
       <c r="I1555" s="12"/>
@@ -35510,7 +35510,7 @@
         <v>2741</v>
       </c>
       <c r="E1565" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1565" s="2"/>
       <c r="I1565" s="12"/>
@@ -35595,7 +35595,7 @@
         <v>2750</v>
       </c>
       <c r="E1570" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1570" s="2"/>
       <c r="I1570" s="12"/>
@@ -35646,7 +35646,7 @@
         <v>52</v>
       </c>
       <c r="E1573" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1573" s="2"/>
       <c r="I1573" s="12"/>
@@ -35714,7 +35714,7 @@
         <v>74</v>
       </c>
       <c r="E1577" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1577" s="2"/>
       <c r="I1577" s="12"/>
@@ -35731,7 +35731,7 @@
         <v>2761</v>
       </c>
       <c r="E1578" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1578" s="2"/>
       <c r="I1578" s="12"/>
@@ -35833,7 +35833,7 @@
         <v>2772</v>
       </c>
       <c r="E1584" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1584" s="2"/>
       <c r="I1584" s="12"/>
@@ -35884,7 +35884,7 @@
         <v>2777</v>
       </c>
       <c r="E1587" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1587" s="2"/>
       <c r="I1587" s="12"/>
@@ -35918,7 +35918,7 @@
         <v>2781</v>
       </c>
       <c r="E1589" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1589" s="2"/>
       <c r="I1589" s="12"/>
@@ -36190,7 +36190,7 @@
         <v>487</v>
       </c>
       <c r="E1605" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1605" s="2"/>
       <c r="I1605" s="12"/>
@@ -36224,7 +36224,7 @@
         <v>2708</v>
       </c>
       <c r="E1607" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1607" s="2"/>
       <c r="I1607" s="12"/>
@@ -36241,7 +36241,7 @@
         <v>2813</v>
       </c>
       <c r="E1608" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1608" s="2"/>
       <c r="I1608" s="12"/>
@@ -36258,7 +36258,7 @@
         <v>275</v>
       </c>
       <c r="E1609" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1609" s="2"/>
       <c r="I1609" s="12"/>
@@ -36360,7 +36360,7 @@
         <v>2824</v>
       </c>
       <c r="E1615" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1615" s="2"/>
       <c r="I1615" s="12"/>
@@ -36513,7 +36513,7 @@
         <v>2838</v>
       </c>
       <c r="E1624" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1624" s="2"/>
       <c r="I1624" s="12"/>
@@ -36547,7 +36547,7 @@
         <v>2842</v>
       </c>
       <c r="E1626" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1626" s="2"/>
       <c r="I1626" s="12"/>
@@ -36564,7 +36564,7 @@
         <v>786</v>
       </c>
       <c r="E1627" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1627" s="2"/>
       <c r="I1627" s="12"/>
@@ -36581,7 +36581,7 @@
         <v>2845</v>
       </c>
       <c r="E1628" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1628" s="2"/>
       <c r="I1628" s="12"/>
@@ -36598,7 +36598,7 @@
         <v>660</v>
       </c>
       <c r="E1629" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1629" s="2"/>
       <c r="I1629" s="12"/>
@@ -36768,7 +36768,7 @@
         <v>369</v>
       </c>
       <c r="E1639" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1639" s="2"/>
       <c r="I1639" s="12"/>
@@ -36785,7 +36785,7 @@
         <v>1562</v>
       </c>
       <c r="E1640" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1640" s="2"/>
       <c r="I1640" s="12"/>
@@ -36802,7 +36802,7 @@
         <v>2866</v>
       </c>
       <c r="E1641" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1641" s="2"/>
       <c r="I1641" s="12"/>
@@ -36836,7 +36836,7 @@
         <v>2870</v>
       </c>
       <c r="E1643" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1643" s="2"/>
       <c r="I1643" s="12"/>
@@ -36887,7 +36887,7 @@
         <v>2875</v>
       </c>
       <c r="E1646" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1646" s="2"/>
       <c r="I1646" s="12"/>
@@ -36921,7 +36921,7 @@
         <v>52</v>
       </c>
       <c r="E1648" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1648" s="2"/>
       <c r="I1648" s="12"/>
@@ -36972,7 +36972,7 @@
         <v>512</v>
       </c>
       <c r="E1651" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1651" s="2"/>
       <c r="I1651" s="12"/>
@@ -37040,7 +37040,7 @@
         <v>2889</v>
       </c>
       <c r="E1655" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1655" s="2"/>
       <c r="I1655" s="12"/>
@@ -37057,7 +37057,7 @@
         <v>2395</v>
       </c>
       <c r="E1656" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1656" s="2"/>
       <c r="I1656" s="12"/>
@@ -37091,7 +37091,7 @@
         <v>13</v>
       </c>
       <c r="E1658" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1658" s="2"/>
       <c r="I1658" s="12"/>
@@ -37108,7 +37108,7 @@
         <v>2395</v>
       </c>
       <c r="E1659" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1659" s="2"/>
       <c r="I1659" s="12"/>
@@ -37142,7 +37142,7 @@
         <v>2897</v>
       </c>
       <c r="E1661" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1661" s="2"/>
       <c r="I1661" s="12"/>
@@ -37159,7 +37159,7 @@
         <v>2110</v>
       </c>
       <c r="E1662" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1662" s="2"/>
       <c r="I1662" s="12"/>
@@ -37244,7 +37244,7 @@
         <v>1581</v>
       </c>
       <c r="E1667" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1667" s="2"/>
       <c r="I1667" s="12"/>
@@ -37261,7 +37261,7 @@
         <v>116</v>
       </c>
       <c r="E1668" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1668" s="2"/>
       <c r="I1668" s="12"/>
@@ -37295,7 +37295,7 @@
         <v>19</v>
       </c>
       <c r="E1670" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1670" s="2"/>
       <c r="I1670" s="12"/>
@@ -37312,7 +37312,7 @@
         <v>2910</v>
       </c>
       <c r="E1671" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1671" s="2"/>
       <c r="I1671" s="12"/>
@@ -37414,7 +37414,7 @@
         <v>2921</v>
       </c>
       <c r="E1677" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1677" s="2"/>
       <c r="I1677" s="12"/>
@@ -37499,7 +37499,7 @@
         <v>2929</v>
       </c>
       <c r="E1682" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1682" s="2"/>
       <c r="I1682" s="12"/>
@@ -37516,7 +37516,7 @@
         <v>2395</v>
       </c>
       <c r="E1683" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1683" s="2"/>
       <c r="I1683" s="12"/>
@@ -37635,7 +37635,7 @@
         <v>2942</v>
       </c>
       <c r="E1690" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1690" s="2"/>
       <c r="I1690" s="12"/>
@@ -37686,7 +37686,7 @@
         <v>2945</v>
       </c>
       <c r="E1693" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1693" s="2"/>
       <c r="I1693" s="12"/>
@@ -37703,7 +37703,7 @@
         <v>2947</v>
       </c>
       <c r="E1694" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1694" s="2"/>
       <c r="I1694" s="12"/>
@@ -37771,7 +37771,7 @@
         <v>2953</v>
       </c>
       <c r="E1698" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1698" s="2"/>
       <c r="I1698" s="12"/>
@@ -37822,7 +37822,7 @@
         <v>2959</v>
       </c>
       <c r="E1701" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1701" s="2"/>
       <c r="I1701" s="12"/>
@@ -37992,7 +37992,7 @@
         <v>2975</v>
       </c>
       <c r="E1711" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1711" s="2"/>
       <c r="I1711" s="12"/>
@@ -38009,7 +38009,7 @@
         <v>2977</v>
       </c>
       <c r="E1712" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1712" s="2"/>
       <c r="I1712" s="12"/>
@@ -38162,7 +38162,7 @@
         <v>2990</v>
       </c>
       <c r="E1721" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1721" s="2"/>
       <c r="I1721" s="12"/>
@@ -38247,7 +38247,7 @@
         <v>2998</v>
       </c>
       <c r="E1726" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1726" s="2"/>
       <c r="I1726" s="12"/>
@@ -38400,7 +38400,7 @@
         <v>3013</v>
       </c>
       <c r="E1735" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1735" s="2"/>
       <c r="I1735" s="12"/>
@@ -38417,7 +38417,7 @@
         <v>3015</v>
       </c>
       <c r="E1736" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1736" s="2"/>
       <c r="I1736" s="12"/>
@@ -38485,7 +38485,7 @@
         <v>2798</v>
       </c>
       <c r="E1740" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1740" s="2"/>
       <c r="I1740" s="12"/>
@@ -38536,7 +38536,7 @@
         <v>3026</v>
       </c>
       <c r="E1743" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1743" s="2"/>
       <c r="I1743" s="12"/>
@@ -38587,7 +38587,7 @@
         <v>1630</v>
       </c>
       <c r="E1746" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1746" s="2"/>
       <c r="I1746" s="12"/>
@@ -38757,7 +38757,7 @@
         <v>3049</v>
       </c>
       <c r="E1756" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1756" s="2"/>
       <c r="I1756" s="12"/>
@@ -38944,7 +38944,7 @@
         <v>3070</v>
       </c>
       <c r="E1767" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1767" s="2"/>
       <c r="I1767" s="12"/>
@@ -38961,7 +38961,7 @@
         <v>3072</v>
       </c>
       <c r="E1768" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1768" s="2"/>
       <c r="I1768" s="12"/>
@@ -39080,7 +39080,7 @@
         <v>3082</v>
       </c>
       <c r="E1775" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1775" s="2"/>
       <c r="I1775" s="12"/>
@@ -39114,7 +39114,7 @@
         <v>39</v>
       </c>
       <c r="E1777" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1777" s="2"/>
       <c r="I1777" s="12"/>
@@ -39182,7 +39182,7 @@
         <v>3092</v>
       </c>
       <c r="E1781" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1781" s="2"/>
       <c r="I1781" s="12"/>
@@ -39318,7 +39318,7 @@
         <v>3106</v>
       </c>
       <c r="E1789" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1789" s="2"/>
       <c r="I1789" s="12"/>
@@ -39386,7 +39386,7 @@
         <v>923</v>
       </c>
       <c r="E1793" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1793" s="2"/>
       <c r="I1793" s="12"/>
@@ -39454,7 +39454,7 @@
         <v>3120</v>
       </c>
       <c r="E1797" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1797" s="2"/>
       <c r="I1797" s="12"/>
@@ -39539,7 +39539,7 @@
         <v>3129</v>
       </c>
       <c r="E1802" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1802" s="2"/>
       <c r="I1802" s="12"/>
@@ -39607,7 +39607,7 @@
         <v>120</v>
       </c>
       <c r="E1806" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1806" s="2"/>
       <c r="I1806" s="12"/>
@@ -39624,7 +39624,7 @@
         <v>3137</v>
       </c>
       <c r="E1807" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1807" s="2"/>
       <c r="I1807" s="12"/>
@@ -39641,7 +39641,7 @@
         <v>3139</v>
       </c>
       <c r="E1808" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1808" s="2"/>
       <c r="I1808" s="12"/>
@@ -39658,7 +39658,7 @@
         <v>660</v>
       </c>
       <c r="E1809" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1809" s="2"/>
       <c r="I1809" s="12"/>
@@ -39675,7 +39675,7 @@
         <v>512</v>
       </c>
       <c r="E1810" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1810" s="2"/>
       <c r="I1810" s="12"/>
@@ -39692,7 +39692,7 @@
         <v>3143</v>
       </c>
       <c r="E1811" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1811" s="2"/>
       <c r="I1811" s="12"/>
@@ -39709,7 +39709,7 @@
         <v>33</v>
       </c>
       <c r="E1812" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1812" s="2"/>
       <c r="I1812" s="12"/>
@@ -39726,7 +39726,7 @@
         <v>19</v>
       </c>
       <c r="E1813" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1813" s="2"/>
       <c r="I1813" s="12"/>
@@ -39760,7 +39760,7 @@
         <v>3149</v>
       </c>
       <c r="E1815" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1815" s="2"/>
       <c r="I1815" s="12"/>
@@ -39777,7 +39777,7 @@
         <v>3151</v>
       </c>
       <c r="E1816" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1816" s="2"/>
       <c r="I1816" s="12"/>
@@ -39794,7 +39794,7 @@
         <v>1843</v>
       </c>
       <c r="E1817" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1817" s="2"/>
       <c r="I1817" s="12"/>
@@ -40066,7 +40066,7 @@
         <v>3181</v>
       </c>
       <c r="E1833" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1833" s="2"/>
       <c r="I1833" s="12"/>
@@ -40100,7 +40100,7 @@
         <v>3185</v>
       </c>
       <c r="E1835" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1835" s="2"/>
       <c r="I1835" s="12"/>
@@ -40236,7 +40236,7 @@
         <v>116</v>
       </c>
       <c r="E1843" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1843" s="2"/>
       <c r="I1843" s="12"/>
@@ -40338,7 +40338,7 @@
         <v>3209</v>
       </c>
       <c r="E1849" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1849" s="15"/>
       <c r="I1849" s="12"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10319,7 +10319,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F13" s="2"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10487,7 +10487,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -10568,7 +10568,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -10664,7 +10664,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -10680,7 +10680,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -10696,7 +10696,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F21" s="6"/>
     </row>
@@ -10712,7 +10712,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -10744,7 +10744,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -10760,7 +10760,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -10792,7 +10792,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F27" s="6"/>
     </row>
@@ -10808,7 +10808,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F28" s="6"/>
     </row>
@@ -10904,7 +10904,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="8">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F34" s="6"/>
     </row>
@@ -10968,7 +10968,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F38" s="6"/>
     </row>
@@ -11000,7 +11000,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F40" s="6"/>
     </row>
@@ -11032,7 +11032,7 @@
         <v>84</v>
       </c>
       <c r="E42" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -11080,7 +11080,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -11112,7 +11112,7 @@
         <v>31</v>
       </c>
       <c r="E47" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F47" s="6"/>
     </row>
@@ -11128,7 +11128,7 @@
         <v>95</v>
       </c>
       <c r="E48" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -11272,7 +11272,7 @@
         <v>113</v>
       </c>
       <c r="E57" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F57" s="6"/>
     </row>
@@ -11320,7 +11320,7 @@
         <v>118</v>
       </c>
       <c r="E60" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F60" s="6"/>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="E61" s="11">
         <f>E60</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>0</v>
@@ -11403,7 +11403,7 @@
         <v>126</v>
       </c>
       <c r="E65" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F65" s="6"/>
     </row>
@@ -11675,7 +11675,7 @@
         <v>160</v>
       </c>
       <c r="E82" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F82" s="6"/>
     </row>
@@ -11963,7 +11963,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F100" s="6"/>
     </row>
@@ -12238,7 +12238,7 @@
         <v>225</v>
       </c>
       <c r="E117" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F117" s="6"/>
     </row>
@@ -12286,7 +12286,7 @@
         <v>231</v>
       </c>
       <c r="E120" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F120" s="6"/>
     </row>
@@ -12462,7 +12462,7 @@
         <v>253</v>
       </c>
       <c r="E131" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F131" s="6"/>
     </row>
@@ -12510,7 +12510,7 @@
         <v>259</v>
       </c>
       <c r="E134" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F134" s="6"/>
     </row>
@@ -12542,7 +12542,7 @@
         <v>263</v>
       </c>
       <c r="E136" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F136" s="6"/>
     </row>
@@ -12702,7 +12702,7 @@
         <v>283</v>
       </c>
       <c r="E146" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F146" s="6"/>
     </row>
@@ -12718,7 +12718,7 @@
         <v>41</v>
       </c>
       <c r="E147" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F147" s="6"/>
     </row>
@@ -12814,7 +12814,7 @@
         <v>296</v>
       </c>
       <c r="E153" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F153" s="6"/>
     </row>
@@ -12862,7 +12862,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F156" s="6"/>
     </row>
@@ -12990,7 +12990,7 @@
         <v>317</v>
       </c>
       <c r="E164" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F164" s="6"/>
     </row>
@@ -13006,7 +13006,7 @@
         <v>319</v>
       </c>
       <c r="E165" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F165" s="6"/>
     </row>
@@ -13374,7 +13374,7 @@
         <v>361</v>
       </c>
       <c r="E188" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F188" s="6"/>
     </row>
@@ -13454,7 +13454,7 @@
         <v>371</v>
       </c>
       <c r="E193" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F193" s="6"/>
     </row>
@@ -13598,7 +13598,7 @@
         <v>386</v>
       </c>
       <c r="E202" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F202" s="6"/>
     </row>
@@ -13646,7 +13646,7 @@
         <v>392</v>
       </c>
       <c r="E205" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F205" s="6"/>
     </row>
@@ -13742,7 +13742,7 @@
         <v>404</v>
       </c>
       <c r="E211" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F211" s="6"/>
     </row>
@@ -13854,7 +13854,7 @@
         <v>105</v>
       </c>
       <c r="E218" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F218" s="6"/>
     </row>
@@ -13934,7 +13934,7 @@
         <v>425</v>
       </c>
       <c r="E223" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F223" s="6"/>
     </row>
@@ -13966,7 +13966,7 @@
         <v>429</v>
       </c>
       <c r="E225" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F225" s="6"/>
     </row>
@@ -13982,7 +13982,7 @@
         <v>431</v>
       </c>
       <c r="E226" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F226" s="6"/>
     </row>
@@ -13998,7 +13998,7 @@
         <v>433</v>
       </c>
       <c r="E227" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F227" s="6"/>
     </row>
@@ -14094,7 +14094,7 @@
         <v>445</v>
       </c>
       <c r="E233" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F233" s="6"/>
     </row>
@@ -14142,7 +14142,7 @@
         <v>451</v>
       </c>
       <c r="E236" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F236" s="6"/>
     </row>
@@ -14238,7 +14238,7 @@
         <v>463</v>
       </c>
       <c r="E242" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F242" s="6"/>
     </row>
@@ -14302,7 +14302,7 @@
         <v>471</v>
       </c>
       <c r="E246" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F246" s="6"/>
     </row>
@@ -14718,7 +14718,7 @@
         <v>518</v>
       </c>
       <c r="E272" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F272" s="6"/>
     </row>
@@ -14846,7 +14846,7 @@
         <v>223</v>
       </c>
       <c r="E280" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F280" s="6"/>
     </row>
@@ -14878,7 +14878,7 @@
         <v>535</v>
       </c>
       <c r="E282" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F282" s="6"/>
     </row>
@@ -14926,7 +14926,7 @@
         <v>541</v>
       </c>
       <c r="E285" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F285" s="6"/>
     </row>
@@ -14974,7 +14974,7 @@
         <v>223</v>
       </c>
       <c r="E288" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F288" s="6"/>
     </row>
@@ -15070,7 +15070,7 @@
         <v>553</v>
       </c>
       <c r="E294" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F294" s="6"/>
     </row>
@@ -15230,7 +15230,7 @@
         <v>223</v>
       </c>
       <c r="E304" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F304" s="6"/>
     </row>
@@ -15294,7 +15294,7 @@
         <v>576</v>
       </c>
       <c r="E308" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F308" s="6"/>
     </row>
@@ -15310,7 +15310,7 @@
         <v>578</v>
       </c>
       <c r="E309" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F309" s="6"/>
     </row>
@@ -15438,7 +15438,7 @@
         <v>41</v>
       </c>
       <c r="E317" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F317" s="6"/>
     </row>
@@ -15534,7 +15534,7 @@
         <v>603</v>
       </c>
       <c r="E323" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F323" s="6"/>
     </row>
@@ -15614,7 +15614,7 @@
         <v>613</v>
       </c>
       <c r="E328" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F328" s="6"/>
     </row>
@@ -15662,7 +15662,7 @@
         <v>619</v>
       </c>
       <c r="E331" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F331" s="6"/>
     </row>
@@ -15694,7 +15694,7 @@
         <v>609</v>
       </c>
       <c r="E333" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F333" s="6"/>
     </row>
@@ -15726,7 +15726,7 @@
         <v>625</v>
       </c>
       <c r="E335" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F335" s="6"/>
     </row>
@@ -15854,7 +15854,7 @@
         <v>636</v>
       </c>
       <c r="E343" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F343" s="6"/>
     </row>
@@ -15902,7 +15902,7 @@
         <v>642</v>
       </c>
       <c r="E346" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F346" s="6"/>
     </row>
@@ -15918,7 +15918,7 @@
         <v>644</v>
       </c>
       <c r="E347" s="17">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F347" s="6"/>
     </row>
@@ -16030,7 +16030,7 @@
         <v>656</v>
       </c>
       <c r="E354" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F354" s="6"/>
     </row>
@@ -16062,7 +16062,7 @@
         <v>54</v>
       </c>
       <c r="E356" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F356" s="6"/>
     </row>
@@ -16078,7 +16078,7 @@
         <v>54</v>
       </c>
       <c r="E357" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F357" s="6"/>
     </row>
@@ -16158,7 +16158,7 @@
         <v>669</v>
       </c>
       <c r="E362" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F362" s="6"/>
     </row>
@@ -16238,7 +16238,7 @@
         <v>679</v>
       </c>
       <c r="E367" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F367" s="6"/>
     </row>
@@ -16462,7 +16462,7 @@
         <v>705</v>
       </c>
       <c r="E381" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F381" s="6"/>
     </row>
@@ -16526,7 +16526,7 @@
         <v>27</v>
       </c>
       <c r="E385" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F385" s="6"/>
     </row>
@@ -16654,7 +16654,7 @@
         <v>503</v>
       </c>
       <c r="E393" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F393" s="6"/>
     </row>
@@ -16670,7 +16670,7 @@
         <v>727</v>
       </c>
       <c r="E394" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F394" s="6"/>
     </row>
@@ -16881,7 +16881,7 @@
         <v>750</v>
       </c>
       <c r="E407" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F407" s="6"/>
     </row>
@@ -17074,7 +17074,7 @@
       </c>
       <c r="E419" s="11">
         <f>E20</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F419" s="19" t="s">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>776</v>
       </c>
       <c r="E421" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F421" s="6"/>
     </row>
@@ -17124,7 +17124,7 @@
         <v>778</v>
       </c>
       <c r="E422" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F422" s="6"/>
     </row>
@@ -17156,7 +17156,7 @@
         <v>782</v>
       </c>
       <c r="E424" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F424" s="6"/>
     </row>
@@ -17172,7 +17172,7 @@
         <v>784</v>
       </c>
       <c r="E425" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F425" s="6"/>
     </row>
@@ -17204,7 +17204,7 @@
         <v>788</v>
       </c>
       <c r="E427" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F427" s="6"/>
     </row>
@@ -17284,7 +17284,7 @@
         <v>798</v>
       </c>
       <c r="E432" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F432" s="6"/>
     </row>
@@ -17447,7 +17447,7 @@
         <v>223</v>
       </c>
       <c r="E442" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F442" s="6"/>
     </row>
@@ -17514,7 +17514,7 @@
         <v>319</v>
       </c>
       <c r="E446" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F446" s="6"/>
     </row>
@@ -17594,7 +17594,7 @@
         <v>828</v>
       </c>
       <c r="E451" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F451" s="6"/>
     </row>
@@ -17690,7 +17690,7 @@
         <v>838</v>
       </c>
       <c r="E457" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F457" s="6"/>
     </row>
@@ -17770,7 +17770,7 @@
         <v>847</v>
       </c>
       <c r="E462" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F462" s="6"/>
     </row>
@@ -17850,7 +17850,7 @@
         <v>857</v>
       </c>
       <c r="E467" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F467" s="6"/>
     </row>
@@ -17866,7 +17866,7 @@
         <v>859</v>
       </c>
       <c r="E468" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F468" s="6"/>
     </row>
@@ -17946,7 +17946,7 @@
         <v>867</v>
       </c>
       <c r="E473" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F473" s="6"/>
     </row>
@@ -17962,7 +17962,7 @@
         <v>35</v>
       </c>
       <c r="E474" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F474" s="6"/>
     </row>
@@ -18058,7 +18058,7 @@
         <v>879</v>
       </c>
       <c r="E480" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F480" s="6"/>
     </row>
@@ -18074,7 +18074,7 @@
         <v>758</v>
       </c>
       <c r="E481" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F481" s="6"/>
     </row>
@@ -18186,7 +18186,7 @@
         <v>892</v>
       </c>
       <c r="E488" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F488" s="6"/>
     </row>
@@ -18250,7 +18250,7 @@
         <v>267</v>
       </c>
       <c r="E492" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F492" s="6"/>
     </row>
@@ -18298,7 +18298,7 @@
         <v>419</v>
       </c>
       <c r="E495" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F495" s="6"/>
     </row>
@@ -18394,7 +18394,7 @@
         <v>914</v>
       </c>
       <c r="E501" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F501" s="6"/>
     </row>
@@ -18490,7 +18490,7 @@
         <v>925</v>
       </c>
       <c r="E507" s="8">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F507" s="6"/>
     </row>
@@ -18506,7 +18506,7 @@
         <v>927</v>
       </c>
       <c r="E508" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F508" s="6"/>
     </row>
@@ -18586,7 +18586,7 @@
         <v>937</v>
       </c>
       <c r="E513" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F513" s="6"/>
     </row>
@@ -18666,7 +18666,7 @@
         <v>947</v>
       </c>
       <c r="E518" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F518" s="6"/>
     </row>
@@ -18698,7 +18698,7 @@
         <v>951</v>
       </c>
       <c r="E520" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F520" s="6"/>
     </row>
@@ -18906,7 +18906,7 @@
         <v>974</v>
       </c>
       <c r="E533" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F533" s="6"/>
     </row>
@@ -18938,7 +18938,7 @@
         <v>977</v>
       </c>
       <c r="E535" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F535" s="6"/>
     </row>
@@ -18954,7 +18954,7 @@
         <v>979</v>
       </c>
       <c r="E536" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F536" s="6"/>
     </row>
@@ -19149,7 +19149,7 @@
         <v>1000</v>
       </c>
       <c r="E548" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F548" s="6"/>
     </row>
@@ -19197,7 +19197,7 @@
         <v>578</v>
       </c>
       <c r="E551" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F551" s="6"/>
     </row>
@@ -19261,7 +19261,7 @@
         <v>1013</v>
       </c>
       <c r="E555" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F555" s="6"/>
     </row>
@@ -19293,7 +19293,7 @@
         <v>1016</v>
       </c>
       <c r="E557" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F557" s="6"/>
     </row>
@@ -19309,7 +19309,7 @@
         <v>1018</v>
       </c>
       <c r="E558" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F558" s="6"/>
     </row>
@@ -19341,7 +19341,7 @@
         <v>609</v>
       </c>
       <c r="E560" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F560" s="6"/>
     </row>
@@ -19453,7 +19453,7 @@
         <v>1034</v>
       </c>
       <c r="E567" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F567" s="6"/>
     </row>
@@ -19680,7 +19680,7 @@
         <v>1059</v>
       </c>
       <c r="E581" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F581" s="6"/>
     </row>
@@ -19728,7 +19728,7 @@
         <v>1065</v>
       </c>
       <c r="E584" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F584" s="6"/>
     </row>
@@ -19776,7 +19776,7 @@
         <v>1071</v>
       </c>
       <c r="E587" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F587" s="6"/>
     </row>
@@ -19856,7 +19856,7 @@
         <v>509</v>
       </c>
       <c r="E592" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F592" s="6"/>
     </row>
@@ -19936,7 +19936,7 @@
         <v>1087</v>
       </c>
       <c r="E597" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F597" s="6"/>
     </row>
@@ -20048,7 +20048,7 @@
         <v>1100</v>
       </c>
       <c r="E604" s="8">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="F604" s="6"/>
     </row>
@@ -20099,7 +20099,7 @@
         <v>1103</v>
       </c>
       <c r="E607" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F607" s="6"/>
     </row>
@@ -20147,7 +20147,7 @@
         <v>1109</v>
       </c>
       <c r="E610" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F610" s="6"/>
     </row>
@@ -20179,7 +20179,7 @@
         <v>1112</v>
       </c>
       <c r="E612" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F612" s="6"/>
     </row>
@@ -20470,7 +20470,7 @@
         <v>1147</v>
       </c>
       <c r="E630" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F630" s="6"/>
     </row>
@@ -20567,7 +20567,7 @@
       </c>
       <c r="E636" s="21">
         <f>E57</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F636" s="18" t="s">
         <v>0</v>
@@ -20829,7 +20829,7 @@
       </c>
       <c r="E652" s="11">
         <f>E42</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F652" s="19" t="s">
         <v>0</v>
@@ -20895,7 +20895,7 @@
         <v>582</v>
       </c>
       <c r="E656" s="8">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F656" s="6"/>
     </row>
@@ -20927,7 +20927,7 @@
         <v>223</v>
       </c>
       <c r="E658" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F658" s="6"/>
     </row>
@@ -20978,7 +20978,7 @@
         <v>1199</v>
       </c>
       <c r="E661" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F661" s="6"/>
     </row>
@@ -21026,7 +21026,7 @@
         <v>1205</v>
       </c>
       <c r="E664" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F664" s="6"/>
     </row>
@@ -21090,7 +21090,7 @@
         <v>1212</v>
       </c>
       <c r="E668" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F668" s="6"/>
     </row>
@@ -21138,7 +21138,7 @@
         <v>1218</v>
       </c>
       <c r="E671" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F671" s="6"/>
     </row>
@@ -21154,7 +21154,7 @@
         <v>1220</v>
       </c>
       <c r="E672" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F672" s="6"/>
     </row>
@@ -21218,7 +21218,7 @@
         <v>1228</v>
       </c>
       <c r="E676" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F676" s="6"/>
     </row>
@@ -21234,7 +21234,7 @@
         <v>1230</v>
       </c>
       <c r="E677" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F677" s="6"/>
     </row>
@@ -21298,7 +21298,7 @@
         <v>1237</v>
       </c>
       <c r="E681" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F681" s="6"/>
     </row>
@@ -21346,7 +21346,7 @@
         <v>1242</v>
       </c>
       <c r="E684" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F684" s="6"/>
     </row>
@@ -21506,7 +21506,7 @@
         <v>1260</v>
       </c>
       <c r="E694" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F694" s="6"/>
     </row>
@@ -21586,7 +21586,7 @@
         <v>1270</v>
       </c>
       <c r="E699" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F699" s="6"/>
     </row>
@@ -21650,7 +21650,7 @@
         <v>1278</v>
       </c>
       <c r="E703" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F703" s="6"/>
     </row>
@@ -21858,7 +21858,7 @@
         <v>1300</v>
       </c>
       <c r="E716" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F716" s="6"/>
     </row>
@@ -21890,7 +21890,7 @@
         <v>1304</v>
       </c>
       <c r="E718" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F718" s="6"/>
     </row>
@@ -21922,7 +21922,7 @@
         <v>1307</v>
       </c>
       <c r="E720" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F720" s="6"/>
     </row>
@@ -21938,7 +21938,7 @@
         <v>1309</v>
       </c>
       <c r="E721" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F721" s="6"/>
     </row>
@@ -22050,7 +22050,7 @@
         <v>863</v>
       </c>
       <c r="E728" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F728" s="6"/>
     </row>
@@ -22290,7 +22290,7 @@
         <v>1347</v>
       </c>
       <c r="E743" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F743" s="6"/>
     </row>
@@ -22498,7 +22498,7 @@
         <v>1370</v>
       </c>
       <c r="E756" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F756" s="6"/>
     </row>
@@ -22597,7 +22597,7 @@
         <v>1381</v>
       </c>
       <c r="E762" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F762" s="6"/>
     </row>
@@ -22678,7 +22678,7 @@
       </c>
       <c r="E767" s="11">
         <f>E13</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F767" s="19" t="s">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>1397</v>
       </c>
       <c r="E771" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F771" s="6"/>
     </row>
@@ -22907,7 +22907,7 @@
         <v>912</v>
       </c>
       <c r="E781" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F781" s="6"/>
     </row>
@@ -22923,7 +22923,7 @@
         <v>1414</v>
       </c>
       <c r="E782" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F782" s="6"/>
     </row>
@@ -23068,7 +23068,7 @@
       </c>
       <c r="E791" s="11">
         <f>E34</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F791" s="24" t="s">
         <v>0</v>
@@ -23166,7 +23166,7 @@
         <v>1443</v>
       </c>
       <c r="E797" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F797" s="6"/>
     </row>
@@ -23215,7 +23215,7 @@
       </c>
       <c r="E800" s="11">
         <f>E38</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F800" s="19" t="s">
         <v>0</v>
@@ -23489,7 +23489,7 @@
         <v>1480</v>
       </c>
       <c r="E817" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F817" s="6"/>
     </row>
@@ -23665,7 +23665,7 @@
         <v>1498</v>
       </c>
       <c r="E828" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F828" s="6"/>
     </row>
@@ -23681,7 +23681,7 @@
         <v>54</v>
       </c>
       <c r="E829" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F829" s="6"/>
     </row>
@@ -23697,7 +23697,7 @@
         <v>1501</v>
       </c>
       <c r="E830" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F830" s="6"/>
     </row>
@@ -23825,7 +23825,7 @@
         <v>1516</v>
       </c>
       <c r="E838" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F838" s="6"/>
     </row>
@@ -23873,7 +23873,7 @@
         <v>1522</v>
       </c>
       <c r="E841" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F841" s="6"/>
     </row>
@@ -23889,7 +23889,7 @@
         <v>1524</v>
       </c>
       <c r="E842" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F842" s="6"/>
     </row>
@@ -23969,7 +23969,7 @@
         <v>1534</v>
       </c>
       <c r="E847" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F847" s="6"/>
     </row>
@@ -24177,7 +24177,7 @@
         <v>35</v>
       </c>
       <c r="E860" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F860" s="6"/>
     </row>
@@ -24209,7 +24209,7 @@
         <v>1560</v>
       </c>
       <c r="E862" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F862" s="6"/>
     </row>
@@ -24801,7 +24801,7 @@
         <v>1623</v>
       </c>
       <c r="E899" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F899" s="6"/>
     </row>
@@ -24833,7 +24833,7 @@
         <v>1627</v>
       </c>
       <c r="E901" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F901" s="6"/>
     </row>
@@ -24897,7 +24897,7 @@
         <v>625</v>
       </c>
       <c r="E905" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F905" s="6"/>
     </row>
@@ -25009,7 +25009,7 @@
         <v>1646</v>
       </c>
       <c r="E912" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F912" s="6"/>
     </row>
@@ -25025,7 +25025,7 @@
         <v>1648</v>
       </c>
       <c r="E913" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F913" s="6"/>
     </row>
@@ -25137,7 +25137,7 @@
         <v>1662</v>
       </c>
       <c r="E920" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F920" s="6"/>
     </row>
@@ -25169,7 +25169,7 @@
         <v>1666</v>
       </c>
       <c r="E922" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F922" s="6"/>
     </row>
@@ -25234,7 +25234,7 @@
       </c>
       <c r="E926" s="11">
         <f>E309</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F926" s="19" t="s">
         <v>0</v>
@@ -25316,7 +25316,7 @@
         <v>786</v>
       </c>
       <c r="E931" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F931" s="6"/>
     </row>
@@ -25428,7 +25428,7 @@
         <v>1693</v>
       </c>
       <c r="E938" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F938" s="6"/>
     </row>
@@ -25575,7 +25575,7 @@
         <v>1710</v>
       </c>
       <c r="E947" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F947" s="6"/>
     </row>
@@ -25623,7 +25623,7 @@
         <v>1715</v>
       </c>
       <c r="E950" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F950" s="6"/>
     </row>
@@ -25767,7 +25767,7 @@
         <v>1732</v>
       </c>
       <c r="E959" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F959" s="6"/>
     </row>
@@ -25815,7 +25815,7 @@
         <v>1738</v>
       </c>
       <c r="E962" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F962" s="6"/>
     </row>
@@ -25866,7 +25866,7 @@
         <v>1742</v>
       </c>
       <c r="E965" s="8">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F965" s="6"/>
     </row>
@@ -26240,7 +26240,7 @@
         <v>1777</v>
       </c>
       <c r="E988" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F988" s="6"/>
     </row>
@@ -26272,7 +26272,7 @@
         <v>625</v>
       </c>
       <c r="E990" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F990" s="6"/>
     </row>
@@ -26518,7 +26518,7 @@
         <v>105</v>
       </c>
       <c r="E1005" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1005" s="6"/>
     </row>
@@ -26630,7 +26630,7 @@
         <v>642</v>
       </c>
       <c r="E1012" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1012" s="6"/>
     </row>
@@ -26694,7 +26694,7 @@
         <v>1824</v>
       </c>
       <c r="E1016" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1016" s="6"/>
     </row>
@@ -26806,7 +26806,7 @@
         <v>1837</v>
       </c>
       <c r="E1023" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1023" s="6"/>
     </row>
@@ -26854,7 +26854,7 @@
         <v>1842</v>
       </c>
       <c r="E1026" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1026" s="6"/>
     </row>
@@ -26998,7 +26998,7 @@
         <v>1858</v>
       </c>
       <c r="E1035" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1035" s="6"/>
     </row>
@@ -27030,7 +27030,7 @@
         <v>54</v>
       </c>
       <c r="E1037" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1037" s="6"/>
     </row>
@@ -27094,7 +27094,7 @@
         <v>105</v>
       </c>
       <c r="E1041" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1041" s="6"/>
     </row>
@@ -27126,7 +27126,7 @@
         <v>223</v>
       </c>
       <c r="E1043" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1043" s="6"/>
     </row>
@@ -27302,7 +27302,7 @@
         <v>1886</v>
       </c>
       <c r="E1054" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1054" s="6"/>
     </row>
@@ -27334,7 +27334,7 @@
         <v>54</v>
       </c>
       <c r="E1056" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1056" s="6"/>
     </row>
@@ -27430,7 +27430,7 @@
         <v>1901</v>
       </c>
       <c r="E1062" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1062" s="6"/>
     </row>
@@ -27462,7 +27462,7 @@
         <v>1904</v>
       </c>
       <c r="E1064" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1064" s="6"/>
     </row>
@@ -27558,7 +27558,7 @@
         <v>41</v>
       </c>
       <c r="E1070" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1070" s="6"/>
     </row>
@@ -27574,7 +27574,7 @@
         <v>551</v>
       </c>
       <c r="E1071" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1071" s="6"/>
     </row>
@@ -27590,7 +27590,7 @@
         <v>1830</v>
       </c>
       <c r="E1072" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1072" s="6"/>
     </row>
@@ -27606,7 +27606,7 @@
         <v>74</v>
       </c>
       <c r="E1073" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1073" s="6"/>
     </row>
@@ -27750,7 +27750,7 @@
         <v>1933</v>
       </c>
       <c r="E1082" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1082" s="6"/>
     </row>
@@ -27878,7 +27878,7 @@
         <v>19</v>
       </c>
       <c r="E1090" s="8">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1090" s="6"/>
     </row>
@@ -27926,7 +27926,7 @@
         <v>1901</v>
       </c>
       <c r="E1093" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1093" s="6"/>
     </row>
@@ -27958,7 +27958,7 @@
         <v>1956</v>
       </c>
       <c r="E1095" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1095" s="6"/>
     </row>
@@ -28134,7 +28134,7 @@
         <v>392</v>
       </c>
       <c r="E1106" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1106" s="6"/>
     </row>
@@ -28294,7 +28294,7 @@
         <v>507</v>
       </c>
       <c r="E1116" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1116" s="6"/>
     </row>
@@ -28374,7 +28374,7 @@
         <v>2002</v>
       </c>
       <c r="E1121" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1121" s="6"/>
     </row>
@@ -28422,7 +28422,7 @@
         <v>95</v>
       </c>
       <c r="E1124" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1124" s="6"/>
     </row>
@@ -28566,7 +28566,7 @@
         <v>152</v>
       </c>
       <c r="E1133" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1133" s="6"/>
     </row>
@@ -28870,7 +28870,7 @@
         <v>54</v>
       </c>
       <c r="E1152" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1152" s="6"/>
     </row>
@@ -28902,7 +28902,7 @@
         <v>1487</v>
       </c>
       <c r="E1154" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1154" s="6"/>
     </row>
@@ -28918,7 +28918,7 @@
         <v>2057</v>
       </c>
       <c r="E1155" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1155" s="6"/>
     </row>
@@ -28934,7 +28934,7 @@
         <v>489</v>
       </c>
       <c r="E1156" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1156" s="6"/>
     </row>
@@ -29046,7 +29046,7 @@
         <v>80</v>
       </c>
       <c r="E1163" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1163" s="6"/>
     </row>
@@ -29190,7 +29190,7 @@
         <v>2084</v>
       </c>
       <c r="E1172" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1172" s="6"/>
     </row>
@@ -29206,7 +29206,7 @@
         <v>2086</v>
       </c>
       <c r="E1173" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1173" s="6"/>
     </row>
@@ -29350,7 +29350,7 @@
         <v>465</v>
       </c>
       <c r="E1182" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1182" s="6"/>
     </row>
@@ -29382,7 +29382,7 @@
         <v>828</v>
       </c>
       <c r="E1184" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1184" s="6"/>
     </row>
@@ -29510,7 +29510,7 @@
         <v>2119</v>
       </c>
       <c r="E1192" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1192" s="6"/>
     </row>
@@ -29606,7 +29606,7 @@
         <v>2130</v>
       </c>
       <c r="E1198" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1198" s="6"/>
     </row>
@@ -29702,7 +29702,7 @@
         <v>2142</v>
       </c>
       <c r="E1204" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1204" s="6"/>
     </row>
@@ -29798,7 +29798,7 @@
         <v>2153</v>
       </c>
       <c r="E1210" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1210" s="6"/>
     </row>
@@ -29878,7 +29878,7 @@
         <v>1409</v>
       </c>
       <c r="E1215" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1215" s="6"/>
     </row>
@@ -29894,7 +29894,7 @@
         <v>2162</v>
       </c>
       <c r="E1216" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1216" s="6"/>
     </row>
@@ -29943,7 +29943,7 @@
         <v>2168</v>
       </c>
       <c r="E1219" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1219" s="6"/>
       <c r="I1219" s="25"/>
@@ -29960,7 +29960,7 @@
         <v>2170</v>
       </c>
       <c r="E1220" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1220" s="6"/>
       <c r="I1220" s="25"/>
@@ -30232,7 +30232,7 @@
         <v>662</v>
       </c>
       <c r="E1236" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1236" s="6"/>
       <c r="I1236" s="25"/>
@@ -30334,7 +30334,7 @@
         <v>2206</v>
       </c>
       <c r="E1242" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1242" s="6"/>
       <c r="I1242" s="25"/>
@@ -30419,7 +30419,7 @@
         <v>2215</v>
       </c>
       <c r="E1247" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1247" s="6"/>
       <c r="I1247" s="25"/>
@@ -30521,7 +30521,7 @@
         <v>2225</v>
       </c>
       <c r="E1253" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1253" s="6"/>
       <c r="I1253" s="25"/>
@@ -30606,7 +30606,7 @@
         <v>15</v>
       </c>
       <c r="E1258" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1258" s="6"/>
       <c r="I1258" s="25"/>
@@ -30640,7 +30640,7 @@
         <v>2236</v>
       </c>
       <c r="E1260" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1260" s="6"/>
       <c r="I1260" s="25"/>
@@ -30725,7 +30725,7 @@
         <v>2244</v>
       </c>
       <c r="E1265" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1265" s="6"/>
       <c r="I1265" s="25"/>
@@ -30844,7 +30844,7 @@
         <v>2256</v>
       </c>
       <c r="E1272" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1272" s="6"/>
       <c r="I1272" s="25"/>
@@ -30912,7 +30912,7 @@
         <v>2262</v>
       </c>
       <c r="E1276" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1276" s="6"/>
       <c r="I1276" s="25"/>
@@ -30946,7 +30946,7 @@
         <v>2266</v>
       </c>
       <c r="E1278" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1278" s="6"/>
       <c r="I1278" s="25"/>
@@ -31048,7 +31048,7 @@
         <v>1352</v>
       </c>
       <c r="E1284" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1284" s="6"/>
       <c r="I1284" s="25"/>
@@ -31065,7 +31065,7 @@
         <v>2277</v>
       </c>
       <c r="E1285" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1285" s="6"/>
       <c r="I1285" s="25"/>
@@ -31082,7 +31082,7 @@
         <v>2279</v>
       </c>
       <c r="E1286" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1286" s="6"/>
       <c r="I1286" s="25"/>
@@ -31099,7 +31099,7 @@
         <v>2281</v>
       </c>
       <c r="E1287" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1287" s="6"/>
       <c r="I1287" s="25"/>
@@ -31116,7 +31116,7 @@
         <v>2282</v>
       </c>
       <c r="E1288" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1288" s="6"/>
       <c r="I1288" s="25"/>
@@ -31167,7 +31167,7 @@
         <v>2288</v>
       </c>
       <c r="E1291" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1291" s="6"/>
       <c r="I1291" s="25"/>
@@ -31201,7 +31201,7 @@
         <v>2286</v>
       </c>
       <c r="E1293" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1293" s="6"/>
       <c r="I1293" s="25"/>
@@ -31218,7 +31218,7 @@
         <v>1720</v>
       </c>
       <c r="E1294" s="8">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1294" s="6"/>
       <c r="I1294" s="25"/>
@@ -31235,7 +31235,7 @@
         <v>2293</v>
       </c>
       <c r="E1295" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1295" s="6"/>
       <c r="I1295" s="25"/>
@@ -31269,7 +31269,7 @@
         <v>2297</v>
       </c>
       <c r="E1297" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1297" s="6"/>
       <c r="I1297" s="25"/>
@@ -31286,7 +31286,7 @@
         <v>2299</v>
       </c>
       <c r="E1298" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1298" s="6"/>
       <c r="I1298" s="25"/>
@@ -31388,7 +31388,7 @@
         <v>27</v>
       </c>
       <c r="E1304" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1304" s="6"/>
       <c r="I1304" s="25"/>
@@ -31493,7 +31493,7 @@
         <v>338</v>
       </c>
       <c r="E1310" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1310" s="6"/>
       <c r="I1310" s="25"/>
@@ -31527,7 +31527,7 @@
         <v>2324</v>
       </c>
       <c r="E1312" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F1312" s="6"/>
       <c r="I1312" s="25"/>
@@ -31595,7 +31595,7 @@
         <v>2332</v>
       </c>
       <c r="E1316" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1316" s="6"/>
       <c r="I1316" s="25"/>
@@ -31782,7 +31782,7 @@
         <v>21</v>
       </c>
       <c r="E1327" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1327" s="6"/>
       <c r="I1327" s="25"/>
@@ -31952,7 +31952,7 @@
         <v>321</v>
       </c>
       <c r="E1337" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1337" s="6"/>
       <c r="I1337" s="25"/>
@@ -32088,7 +32088,7 @@
         <v>2384</v>
       </c>
       <c r="E1345" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1345" s="6"/>
       <c r="I1345" s="25"/>
@@ -32190,7 +32190,7 @@
         <v>2393</v>
       </c>
       <c r="E1351" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1351" s="6"/>
       <c r="I1351" s="25"/>
@@ -32224,7 +32224,7 @@
         <v>2397</v>
       </c>
       <c r="E1353" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1353" s="6"/>
       <c r="I1353" s="25"/>
@@ -32292,7 +32292,7 @@
         <v>2404</v>
       </c>
       <c r="E1357" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1357" s="6"/>
       <c r="I1357" s="25"/>
@@ -32445,7 +32445,7 @@
         <v>288</v>
       </c>
       <c r="E1366" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1366" s="6"/>
       <c r="I1366" s="25"/>
@@ -32669,7 +32669,7 @@
         <v>2441</v>
       </c>
       <c r="E1379" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1379" s="6"/>
       <c r="I1379" s="25"/>
@@ -32890,7 +32890,7 @@
         <v>2426</v>
       </c>
       <c r="E1392" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1392" s="6"/>
       <c r="I1392" s="25"/>
@@ -32924,7 +32924,7 @@
         <v>54</v>
       </c>
       <c r="E1394" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1394" s="6"/>
       <c r="I1394" s="25"/>
@@ -32992,7 +32992,7 @@
         <v>2472</v>
       </c>
       <c r="E1398" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1398" s="6"/>
       <c r="I1398" s="25"/>
@@ -33179,7 +33179,7 @@
         <v>2492</v>
       </c>
       <c r="E1409" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1409" s="6"/>
       <c r="I1409" s="25"/>
@@ -33196,7 +33196,7 @@
         <v>2494</v>
       </c>
       <c r="E1410" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1410" s="6"/>
       <c r="I1410" s="25"/>
@@ -33247,7 +33247,7 @@
         <v>2499</v>
       </c>
       <c r="E1413" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1413" s="6"/>
       <c r="I1413" s="25"/>
@@ -33400,7 +33400,7 @@
         <v>15</v>
       </c>
       <c r="E1422" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1422" s="6"/>
       <c r="I1422" s="25"/>
@@ -33539,7 +33539,7 @@
         <v>2526</v>
       </c>
       <c r="E1430" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1430" s="6"/>
       <c r="I1430" s="25"/>
@@ -33573,7 +33573,7 @@
         <v>41</v>
       </c>
       <c r="E1432" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1432" s="6"/>
       <c r="I1432" s="25"/>
@@ -33590,7 +33590,7 @@
         <v>2531</v>
       </c>
       <c r="E1433" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1433" s="6"/>
       <c r="I1433" s="25"/>
@@ -33828,7 +33828,7 @@
         <v>2550</v>
       </c>
       <c r="E1447" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1447" s="6"/>
       <c r="I1447" s="25"/>
@@ -33896,7 +33896,7 @@
         <v>2557</v>
       </c>
       <c r="E1451" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1451" s="6"/>
       <c r="I1451" s="25"/>
@@ -34032,7 +34032,7 @@
         <v>2573</v>
       </c>
       <c r="E1459" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1459" s="6"/>
       <c r="I1459" s="25"/>
@@ -34066,7 +34066,7 @@
         <v>662</v>
       </c>
       <c r="E1461" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1461" s="6"/>
       <c r="I1461" s="25"/>
@@ -34100,7 +34100,7 @@
         <v>2578</v>
       </c>
       <c r="E1463" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1463" s="6"/>
       <c r="I1463" s="25"/>
@@ -34270,7 +34270,7 @@
         <v>2426</v>
       </c>
       <c r="E1473" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1473" s="6"/>
       <c r="I1473" s="25"/>
@@ -34338,7 +34338,7 @@
         <v>511</v>
       </c>
       <c r="E1477" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1477" s="6"/>
       <c r="I1477" s="25"/>
@@ -34355,7 +34355,7 @@
         <v>2601</v>
       </c>
       <c r="E1478" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1478" s="6"/>
       <c r="I1478" s="25"/>
@@ -34440,7 +34440,7 @@
         <v>2607</v>
       </c>
       <c r="E1483" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1483" s="6"/>
       <c r="I1483" s="25"/>
@@ -34474,7 +34474,7 @@
         <v>2610</v>
       </c>
       <c r="E1485" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1485" s="6"/>
       <c r="I1485" s="25"/>
@@ -34508,7 +34508,7 @@
         <v>1000</v>
       </c>
       <c r="E1487" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1487" s="6"/>
       <c r="I1487" s="25"/>
@@ -34596,7 +34596,7 @@
         <v>2621</v>
       </c>
       <c r="E1492" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1492" s="6"/>
       <c r="I1492" s="25"/>
@@ -34681,7 +34681,7 @@
         <v>2455</v>
       </c>
       <c r="E1497" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1497" s="6"/>
       <c r="I1497" s="25"/>
@@ -34749,7 +34749,7 @@
         <v>2638</v>
       </c>
       <c r="E1501" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1501" s="6"/>
       <c r="I1501" s="25"/>
@@ -34987,7 +34987,7 @@
         <v>1487</v>
       </c>
       <c r="E1515" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1515" s="6"/>
       <c r="I1515" s="25"/>
@@ -35021,7 +35021,7 @@
         <v>2665</v>
       </c>
       <c r="E1517" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1517" s="6"/>
       <c r="I1517" s="25"/>
@@ -35038,7 +35038,7 @@
         <v>2667</v>
       </c>
       <c r="E1518" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1518" s="6"/>
       <c r="I1518" s="25"/>
@@ -35140,7 +35140,7 @@
         <v>2678</v>
       </c>
       <c r="E1524" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1524" s="6"/>
       <c r="I1524" s="25"/>
@@ -35242,7 +35242,7 @@
         <v>2687</v>
       </c>
       <c r="E1530" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1530" s="6"/>
       <c r="I1530" s="25"/>
@@ -35293,7 +35293,7 @@
         <v>507</v>
       </c>
       <c r="E1533" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1533" s="6"/>
       <c r="I1533" s="25"/>
@@ -35310,7 +35310,7 @@
         <v>2694</v>
       </c>
       <c r="E1534" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1534" s="6"/>
       <c r="I1534" s="25"/>
@@ -35344,7 +35344,7 @@
         <v>2698</v>
       </c>
       <c r="E1536" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1536" s="6"/>
       <c r="I1536" s="25"/>
@@ -35435,7 +35435,7 @@
         <v>2705</v>
       </c>
       <c r="E1541" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1541" s="6"/>
       <c r="I1541" s="25"/>
@@ -35503,7 +35503,7 @@
         <v>1352</v>
       </c>
       <c r="E1545" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1545" s="6"/>
       <c r="I1545" s="25"/>
@@ -35537,7 +35537,7 @@
         <v>662</v>
       </c>
       <c r="E1547" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1547" s="6"/>
       <c r="I1547" s="25"/>
@@ -35571,7 +35571,7 @@
         <v>19</v>
       </c>
       <c r="E1549" s="8">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1549" s="6"/>
       <c r="I1549" s="25"/>
@@ -35639,7 +35639,7 @@
         <v>2721</v>
       </c>
       <c r="E1553" s="8">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1553" s="6"/>
       <c r="I1553" s="25"/>
@@ -35673,7 +35673,7 @@
         <v>828</v>
       </c>
       <c r="E1555" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1555" s="6"/>
       <c r="I1555" s="25"/>
@@ -35843,7 +35843,7 @@
         <v>2743</v>
       </c>
       <c r="E1565" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1565" s="6"/>
       <c r="I1565" s="25"/>
@@ -35928,7 +35928,7 @@
         <v>2752</v>
       </c>
       <c r="E1570" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1570" s="6"/>
       <c r="I1570" s="25"/>
@@ -35979,7 +35979,7 @@
         <v>54</v>
       </c>
       <c r="E1573" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1573" s="6"/>
       <c r="I1573" s="25"/>
@@ -36047,7 +36047,7 @@
         <v>76</v>
       </c>
       <c r="E1577" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1577" s="6"/>
       <c r="I1577" s="25"/>
@@ -36064,7 +36064,7 @@
         <v>2763</v>
       </c>
       <c r="E1578" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1578" s="6"/>
       <c r="I1578" s="25"/>
@@ -36166,7 +36166,7 @@
         <v>2774</v>
       </c>
       <c r="E1584" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1584" s="6"/>
       <c r="I1584" s="25"/>
@@ -36217,7 +36217,7 @@
         <v>2779</v>
       </c>
       <c r="E1587" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1587" s="6"/>
       <c r="I1587" s="25"/>
@@ -36251,7 +36251,7 @@
         <v>2783</v>
       </c>
       <c r="E1589" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1589" s="6"/>
       <c r="I1589" s="25"/>
@@ -36523,7 +36523,7 @@
         <v>489</v>
       </c>
       <c r="E1605" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1605" s="6"/>
       <c r="I1605" s="25"/>
@@ -36574,7 +36574,7 @@
         <v>2815</v>
       </c>
       <c r="E1608" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1608" s="6"/>
       <c r="I1608" s="25"/>
@@ -36591,7 +36591,7 @@
         <v>277</v>
       </c>
       <c r="E1609" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1609" s="6"/>
       <c r="I1609" s="25"/>
@@ -36693,7 +36693,7 @@
         <v>2826</v>
       </c>
       <c r="E1615" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1615" s="6"/>
       <c r="I1615" s="25"/>
@@ -36846,7 +36846,7 @@
         <v>2840</v>
       </c>
       <c r="E1624" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1624" s="6"/>
       <c r="I1624" s="25"/>
@@ -36897,7 +36897,7 @@
         <v>788</v>
       </c>
       <c r="E1627" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1627" s="6"/>
       <c r="I1627" s="25"/>
@@ -36914,7 +36914,7 @@
         <v>2847</v>
       </c>
       <c r="E1628" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1628" s="6"/>
       <c r="I1628" s="25"/>
@@ -36931,7 +36931,7 @@
         <v>662</v>
       </c>
       <c r="E1629" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1629" s="6"/>
       <c r="I1629" s="25"/>
@@ -37101,7 +37101,7 @@
         <v>371</v>
       </c>
       <c r="E1639" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1639" s="6"/>
       <c r="I1639" s="25"/>
@@ -37118,7 +37118,7 @@
         <v>1564</v>
       </c>
       <c r="E1640" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1640" s="6"/>
       <c r="I1640" s="25"/>
@@ -37135,7 +37135,7 @@
         <v>2868</v>
       </c>
       <c r="E1641" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1641" s="6"/>
       <c r="I1641" s="25"/>
@@ -37222,7 +37222,7 @@
         <v>2877</v>
       </c>
       <c r="E1646" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1646" s="6"/>
       <c r="I1646" s="25"/>
@@ -37256,7 +37256,7 @@
         <v>54</v>
       </c>
       <c r="E1648" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1648" s="6"/>
       <c r="I1648" s="25"/>
@@ -37307,7 +37307,7 @@
         <v>514</v>
       </c>
       <c r="E1651" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1651" s="6"/>
       <c r="I1651" s="25"/>
@@ -37341,7 +37341,7 @@
         <v>1880</v>
       </c>
       <c r="E1653" s="8">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1653" s="6"/>
       <c r="I1653" s="25"/>
@@ -37392,7 +37392,7 @@
         <v>2397</v>
       </c>
       <c r="E1656" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1656" s="6"/>
       <c r="I1656" s="25"/>
@@ -37426,7 +37426,7 @@
         <v>15</v>
       </c>
       <c r="E1658" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1658" s="6"/>
       <c r="I1658" s="25"/>
@@ -37443,7 +37443,7 @@
         <v>2397</v>
       </c>
       <c r="E1659" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1659" s="6"/>
       <c r="I1659" s="25"/>
@@ -37477,7 +37477,7 @@
         <v>2899</v>
       </c>
       <c r="E1661" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1661" s="6"/>
       <c r="I1661" s="25"/>
@@ -37494,7 +37494,7 @@
         <v>2112</v>
       </c>
       <c r="E1662" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1662" s="6"/>
       <c r="I1662" s="25"/>
@@ -37511,7 +37511,7 @@
         <v>2902</v>
       </c>
       <c r="E1663" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1663" s="6"/>
       <c r="I1663" s="25"/>
@@ -37579,7 +37579,7 @@
         <v>1583</v>
       </c>
       <c r="E1667" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1667" s="6"/>
       <c r="I1667" s="25"/>
@@ -37596,7 +37596,7 @@
         <v>118</v>
       </c>
       <c r="E1668" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1668" s="6"/>
       <c r="I1668" s="25"/>
@@ -37630,7 +37630,7 @@
         <v>21</v>
       </c>
       <c r="E1670" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1670" s="6"/>
       <c r="I1670" s="25"/>
@@ -37647,7 +37647,7 @@
         <v>2912</v>
       </c>
       <c r="E1671" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1671" s="6"/>
       <c r="I1671" s="25"/>
@@ -37749,7 +37749,7 @@
         <v>2923</v>
       </c>
       <c r="E1677" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1677" s="6"/>
       <c r="I1677" s="25"/>
@@ -37851,7 +37851,7 @@
         <v>2397</v>
       </c>
       <c r="E1683" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1683" s="6"/>
       <c r="I1683" s="25"/>
@@ -37970,7 +37970,7 @@
         <v>2944</v>
       </c>
       <c r="E1690" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1690" s="6"/>
       <c r="I1690" s="25"/>
@@ -38038,7 +38038,7 @@
         <v>2949</v>
       </c>
       <c r="E1694" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1694" s="6"/>
       <c r="I1694" s="25"/>
@@ -38106,7 +38106,7 @@
         <v>2955</v>
       </c>
       <c r="E1698" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1698" s="6"/>
       <c r="I1698" s="25"/>
@@ -38157,7 +38157,7 @@
         <v>2961</v>
       </c>
       <c r="E1701" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1701" s="6"/>
       <c r="I1701" s="25"/>
@@ -38259,7 +38259,7 @@
         <v>2970</v>
       </c>
       <c r="E1707" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1707" s="6"/>
       <c r="I1707" s="25"/>
@@ -38344,7 +38344,7 @@
         <v>2979</v>
       </c>
       <c r="E1712" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1712" s="6"/>
       <c r="I1712" s="25"/>
@@ -38497,7 +38497,7 @@
         <v>2992</v>
       </c>
       <c r="E1721" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1721" s="6"/>
       <c r="I1721" s="25"/>
@@ -38582,7 +38582,7 @@
         <v>3000</v>
       </c>
       <c r="E1726" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1726" s="6"/>
       <c r="I1726" s="25"/>
@@ -38735,7 +38735,7 @@
         <v>3015</v>
       </c>
       <c r="E1735" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1735" s="6"/>
       <c r="I1735" s="25"/>
@@ -38752,7 +38752,7 @@
         <v>3017</v>
       </c>
       <c r="E1736" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1736" s="6"/>
       <c r="I1736" s="25"/>
@@ -38820,7 +38820,7 @@
         <v>2800</v>
       </c>
       <c r="E1740" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1740" s="6"/>
       <c r="I1740" s="25"/>
@@ -38871,7 +38871,7 @@
         <v>3028</v>
       </c>
       <c r="E1743" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1743" s="6"/>
       <c r="I1743" s="25"/>
@@ -38922,7 +38922,7 @@
         <v>1632</v>
       </c>
       <c r="E1746" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1746" s="6"/>
       <c r="I1746" s="25"/>
@@ -39279,7 +39279,7 @@
         <v>3072</v>
       </c>
       <c r="E1767" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1767" s="6"/>
       <c r="I1767" s="25"/>
@@ -39296,7 +39296,7 @@
         <v>3074</v>
       </c>
       <c r="E1768" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1768" s="6"/>
       <c r="I1768" s="25"/>
@@ -39415,7 +39415,7 @@
         <v>3084</v>
       </c>
       <c r="E1775" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1775" s="6"/>
       <c r="I1775" s="25"/>
@@ -39449,7 +39449,7 @@
         <v>41</v>
       </c>
       <c r="E1777" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1777" s="6"/>
       <c r="I1777" s="25"/>
@@ -39517,7 +39517,7 @@
         <v>3094</v>
       </c>
       <c r="E1781" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1781" s="6"/>
       <c r="I1781" s="25"/>
@@ -39653,7 +39653,7 @@
         <v>3108</v>
       </c>
       <c r="E1789" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1789" s="6"/>
       <c r="I1789" s="25"/>
@@ -39721,7 +39721,7 @@
         <v>925</v>
       </c>
       <c r="E1793" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1793" s="6"/>
       <c r="I1793" s="25"/>
@@ -39789,7 +39789,7 @@
         <v>3122</v>
       </c>
       <c r="E1797" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1797" s="6"/>
       <c r="I1797" s="25"/>
@@ -39874,7 +39874,7 @@
         <v>3131</v>
       </c>
       <c r="E1802" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1802" s="6"/>
       <c r="I1802" s="25"/>
@@ -39942,7 +39942,7 @@
         <v>122</v>
       </c>
       <c r="E1806" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1806" s="6"/>
       <c r="I1806" s="25"/>
@@ -39959,7 +39959,7 @@
         <v>3139</v>
       </c>
       <c r="E1807" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1807" s="6"/>
       <c r="I1807" s="25"/>
@@ -39976,7 +39976,7 @@
         <v>3141</v>
       </c>
       <c r="E1808" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1808" s="6"/>
       <c r="I1808" s="25"/>
@@ -39993,7 +39993,7 @@
         <v>662</v>
       </c>
       <c r="E1809" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1809" s="6"/>
       <c r="I1809" s="25"/>
@@ -40010,7 +40010,7 @@
         <v>514</v>
       </c>
       <c r="E1810" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1810" s="6"/>
       <c r="I1810" s="25"/>
@@ -40027,7 +40027,7 @@
         <v>3145</v>
       </c>
       <c r="E1811" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1811" s="6"/>
       <c r="I1811" s="25"/>
@@ -40044,7 +40044,7 @@
         <v>35</v>
       </c>
       <c r="E1812" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1812" s="6"/>
       <c r="I1812" s="25"/>
@@ -40061,7 +40061,7 @@
         <v>21</v>
       </c>
       <c r="E1813" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1813" s="6"/>
       <c r="I1813" s="25"/>
@@ -40095,7 +40095,7 @@
         <v>3151</v>
       </c>
       <c r="E1815" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1815" s="6"/>
       <c r="I1815" s="25"/>
@@ -40112,7 +40112,7 @@
         <v>3153</v>
       </c>
       <c r="E1816" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1816" s="6"/>
       <c r="I1816" s="25"/>
@@ -40129,7 +40129,7 @@
         <v>1845</v>
       </c>
       <c r="E1817" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1817" s="6"/>
       <c r="I1817" s="25"/>
@@ -40571,7 +40571,7 @@
         <v>118</v>
       </c>
       <c r="E1843" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1843" s="6"/>
       <c r="I1843" s="25"/>
@@ -40656,7 +40656,7 @@
         <v>3209</v>
       </c>
       <c r="E1848" s="8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F1848" s="28"/>
       <c r="I1848" s="25"/>
@@ -40673,7 +40673,7 @@
         <v>3211</v>
       </c>
       <c r="E1849" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1849" s="28"/>
       <c r="I1849" s="25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10541,7 +10541,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -10641,7 +10641,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -10761,7 +10761,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10781,7 +10781,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10801,7 +10801,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -10821,7 +10821,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -10861,7 +10861,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -10881,7 +10881,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -10921,7 +10921,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -10941,7 +10941,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11061,7 +11061,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -11141,7 +11141,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11181,7 +11181,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11221,7 +11221,7 @@
         <v>84</v>
       </c>
       <c r="E42" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11281,7 +11281,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11341,7 +11341,7 @@
         <v>95</v>
       </c>
       <c r="E48" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -11521,7 +11521,7 @@
         <v>113</v>
       </c>
       <c r="E57" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -11581,7 +11581,7 @@
         <v>118</v>
       </c>
       <c r="E60" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="E61" s="13">
         <f>E60</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>126</v>
       </c>
       <c r="E65" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -12024,7 +12024,7 @@
         <v>160</v>
       </c>
       <c r="E82" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -12524,7 +12524,7 @@
         <v>209</v>
       </c>
       <c r="E107" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -12727,7 +12727,7 @@
         <v>225</v>
       </c>
       <c r="E117" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -12787,7 +12787,7 @@
         <v>231</v>
       </c>
       <c r="E120" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -13007,7 +13007,7 @@
         <v>253</v>
       </c>
       <c r="E131" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -13067,7 +13067,7 @@
         <v>259</v>
       </c>
       <c r="E134" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -13107,7 +13107,7 @@
         <v>263</v>
       </c>
       <c r="E136" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -13127,7 +13127,7 @@
         <v>265</v>
       </c>
       <c r="E137" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -13307,7 +13307,7 @@
         <v>283</v>
       </c>
       <c r="E146" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -13327,7 +13327,7 @@
         <v>41</v>
       </c>
       <c r="E147" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -13447,7 +13447,7 @@
         <v>296</v>
       </c>
       <c r="E153" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -13507,7 +13507,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -13667,7 +13667,7 @@
         <v>317</v>
       </c>
       <c r="E164" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -13687,7 +13687,7 @@
         <v>319</v>
       </c>
       <c r="E165" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -14147,7 +14147,7 @@
         <v>361</v>
       </c>
       <c r="E188" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -14247,7 +14247,7 @@
         <v>371</v>
       </c>
       <c r="E193" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -14427,7 +14427,7 @@
         <v>386</v>
       </c>
       <c r="E202" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -14487,7 +14487,7 @@
         <v>392</v>
       </c>
       <c r="E205" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -14607,7 +14607,7 @@
         <v>404</v>
       </c>
       <c r="E211" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -14747,7 +14747,7 @@
         <v>105</v>
       </c>
       <c r="E218" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -14847,7 +14847,7 @@
         <v>425</v>
       </c>
       <c r="E223" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -14887,7 +14887,7 @@
         <v>429</v>
       </c>
       <c r="E225" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -14907,7 +14907,7 @@
         <v>431</v>
       </c>
       <c r="E226" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -14927,7 +14927,7 @@
         <v>433</v>
       </c>
       <c r="E227" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -15047,7 +15047,7 @@
         <v>445</v>
       </c>
       <c r="E233" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -15107,7 +15107,7 @@
         <v>451</v>
       </c>
       <c r="E236" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -15227,7 +15227,7 @@
         <v>463</v>
       </c>
       <c r="E242" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -15287,7 +15287,7 @@
         <v>469</v>
       </c>
       <c r="E245" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -15307,7 +15307,7 @@
         <v>471</v>
       </c>
       <c r="E246" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -15827,7 +15827,7 @@
         <v>518</v>
       </c>
       <c r="E272" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -15987,7 +15987,7 @@
         <v>223</v>
       </c>
       <c r="E280" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -16027,7 +16027,7 @@
         <v>535</v>
       </c>
       <c r="E282" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -16087,7 +16087,7 @@
         <v>541</v>
       </c>
       <c r="E285" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -16147,7 +16147,7 @@
         <v>223</v>
       </c>
       <c r="E288" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -16267,7 +16267,7 @@
         <v>553</v>
       </c>
       <c r="E294" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -16347,7 +16347,7 @@
         <v>560</v>
       </c>
       <c r="E298" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -16467,7 +16467,7 @@
         <v>223</v>
       </c>
       <c r="E304" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -16547,7 +16547,7 @@
         <v>576</v>
       </c>
       <c r="E308" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -16567,7 +16567,7 @@
         <v>578</v>
       </c>
       <c r="E309" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -16727,7 +16727,7 @@
         <v>41</v>
       </c>
       <c r="E317" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -16947,7 +16947,7 @@
         <v>613</v>
       </c>
       <c r="E328" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -17007,7 +17007,7 @@
         <v>619</v>
       </c>
       <c r="E331" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -17047,7 +17047,7 @@
         <v>609</v>
       </c>
       <c r="E333" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -17087,7 +17087,7 @@
         <v>625</v>
       </c>
       <c r="E335" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -17247,7 +17247,7 @@
         <v>636</v>
       </c>
       <c r="E343" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -17307,7 +17307,7 @@
         <v>642</v>
       </c>
       <c r="E346" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -17327,7 +17327,7 @@
         <v>644</v>
       </c>
       <c r="E347" s="19">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -17467,7 +17467,7 @@
         <v>656</v>
       </c>
       <c r="E354" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
@@ -17527,7 +17527,7 @@
         <v>54</v>
       </c>
       <c r="E357" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
@@ -17727,7 +17727,7 @@
         <v>679</v>
       </c>
       <c r="E367" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -18007,7 +18007,7 @@
         <v>705</v>
       </c>
       <c r="E381" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -18087,7 +18087,7 @@
         <v>27</v>
       </c>
       <c r="E385" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -18247,7 +18247,7 @@
         <v>503</v>
       </c>
       <c r="E393" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -18267,7 +18267,7 @@
         <v>727</v>
       </c>
       <c r="E394" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
@@ -18530,7 +18530,7 @@
         <v>750</v>
       </c>
       <c r="E407" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="E419" s="13">
         <f>E20</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F419" s="21" t="s">
         <v>0</v>
@@ -18813,7 +18813,7 @@
         <v>776</v>
       </c>
       <c r="E421" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -18833,7 +18833,7 @@
         <v>778</v>
       </c>
       <c r="E422" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -18873,7 +18873,7 @@
         <v>782</v>
       </c>
       <c r="E424" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -18893,7 +18893,7 @@
         <v>784</v>
       </c>
       <c r="E425" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -19033,7 +19033,7 @@
         <v>798</v>
       </c>
       <c r="E432" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -19236,7 +19236,7 @@
         <v>223</v>
       </c>
       <c r="E442" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
@@ -19319,7 +19319,7 @@
         <v>319</v>
       </c>
       <c r="E446" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -19419,7 +19419,7 @@
         <v>828</v>
       </c>
       <c r="E451" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -19539,7 +19539,7 @@
         <v>838</v>
       </c>
       <c r="E457" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -19639,7 +19639,7 @@
         <v>847</v>
       </c>
       <c r="E462" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -19739,7 +19739,7 @@
         <v>857</v>
       </c>
       <c r="E467" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -19759,7 +19759,7 @@
         <v>859</v>
       </c>
       <c r="E468" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -19779,7 +19779,7 @@
         <v>288</v>
       </c>
       <c r="E469" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -19859,7 +19859,7 @@
         <v>867</v>
       </c>
       <c r="E473" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -19879,7 +19879,7 @@
         <v>35</v>
       </c>
       <c r="E474" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
@@ -19999,7 +19999,7 @@
         <v>879</v>
       </c>
       <c r="E480" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
@@ -20019,7 +20019,7 @@
         <v>758</v>
       </c>
       <c r="E481" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -20159,7 +20159,7 @@
         <v>892</v>
       </c>
       <c r="E488" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -20239,7 +20239,7 @@
         <v>267</v>
       </c>
       <c r="E492" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F492" s="6"/>
       <c r="G492" s="6"/>
@@ -20299,7 +20299,7 @@
         <v>419</v>
       </c>
       <c r="E495" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -20419,7 +20419,7 @@
         <v>914</v>
       </c>
       <c r="E501" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -20539,7 +20539,7 @@
         <v>925</v>
       </c>
       <c r="E507" s="8">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -20559,7 +20559,7 @@
         <v>927</v>
       </c>
       <c r="E508" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -20659,7 +20659,7 @@
         <v>937</v>
       </c>
       <c r="E513" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -20759,7 +20759,7 @@
         <v>947</v>
       </c>
       <c r="E518" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -20799,7 +20799,7 @@
         <v>951</v>
       </c>
       <c r="E520" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
@@ -21059,7 +21059,7 @@
         <v>974</v>
       </c>
       <c r="E533" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -21099,7 +21099,7 @@
         <v>977</v>
       </c>
       <c r="E535" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
@@ -21119,7 +21119,7 @@
         <v>979</v>
       </c>
       <c r="E536" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
@@ -21362,7 +21362,7 @@
         <v>1000</v>
       </c>
       <c r="E548" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
@@ -21422,7 +21422,7 @@
         <v>578</v>
       </c>
       <c r="E551" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -21502,7 +21502,7 @@
         <v>1013</v>
       </c>
       <c r="E555" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
@@ -21542,7 +21542,7 @@
         <v>1016</v>
       </c>
       <c r="E557" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
@@ -21562,7 +21562,7 @@
         <v>1018</v>
       </c>
       <c r="E558" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
@@ -21602,7 +21602,7 @@
         <v>609</v>
       </c>
       <c r="E560" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
@@ -21662,7 +21662,7 @@
         <v>1026</v>
       </c>
       <c r="E563" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
@@ -21742,7 +21742,7 @@
         <v>1034</v>
       </c>
       <c r="E567" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
@@ -22025,7 +22025,7 @@
         <v>1059</v>
       </c>
       <c r="E581" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -22085,7 +22085,7 @@
         <v>1065</v>
       </c>
       <c r="E584" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
@@ -22145,7 +22145,7 @@
         <v>1071</v>
       </c>
       <c r="E587" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
@@ -22245,7 +22245,7 @@
         <v>509</v>
       </c>
       <c r="E592" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
@@ -22345,7 +22345,7 @@
         <v>1087</v>
       </c>
       <c r="E597" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
@@ -22485,7 +22485,7 @@
         <v>1100</v>
       </c>
       <c r="E604" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -22548,7 +22548,7 @@
         <v>1103</v>
       </c>
       <c r="E607" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
@@ -22608,7 +22608,7 @@
         <v>1109</v>
       </c>
       <c r="E610" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
@@ -22648,7 +22648,7 @@
         <v>1112</v>
       </c>
       <c r="E612" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
@@ -23011,7 +23011,7 @@
         <v>1147</v>
       </c>
       <c r="E630" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
@@ -23132,7 +23132,7 @@
       </c>
       <c r="E636" s="23">
         <f>E57</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F636" s="20" t="s">
         <v>0</v>
@@ -23458,7 +23458,7 @@
       </c>
       <c r="E652" s="13">
         <f>E42</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F652" s="21" t="s">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>582</v>
       </c>
       <c r="E656" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F656" s="6"/>
       <c r="G656" s="6"/>
@@ -23580,7 +23580,7 @@
         <v>223</v>
       </c>
       <c r="E658" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
@@ -23643,7 +23643,7 @@
         <v>1199</v>
       </c>
       <c r="E661" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
@@ -23703,7 +23703,7 @@
         <v>1205</v>
       </c>
       <c r="E664" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F664" s="6"/>
       <c r="G664" s="6"/>
@@ -23783,7 +23783,7 @@
         <v>1212</v>
       </c>
       <c r="E668" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
@@ -23843,7 +23843,7 @@
         <v>1218</v>
       </c>
       <c r="E671" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
@@ -23863,7 +23863,7 @@
         <v>1220</v>
       </c>
       <c r="E672" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F672" s="6"/>
       <c r="G672" s="6"/>
@@ -23943,7 +23943,7 @@
         <v>1228</v>
       </c>
       <c r="E676" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F676" s="6"/>
       <c r="G676" s="6"/>
@@ -23963,7 +23963,7 @@
         <v>1230</v>
       </c>
       <c r="E677" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
@@ -24043,7 +24043,7 @@
         <v>1237</v>
       </c>
       <c r="E681" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
@@ -24103,7 +24103,7 @@
         <v>1242</v>
       </c>
       <c r="E684" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F684" s="6"/>
       <c r="G684" s="6"/>
@@ -24303,7 +24303,7 @@
         <v>1260</v>
       </c>
       <c r="E694" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F694" s="6"/>
       <c r="G694" s="6"/>
@@ -24403,7 +24403,7 @@
         <v>1270</v>
       </c>
       <c r="E699" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
@@ -24483,7 +24483,7 @@
         <v>1278</v>
       </c>
       <c r="E703" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
@@ -24743,7 +24743,7 @@
         <v>1300</v>
       </c>
       <c r="E716" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F716" s="6"/>
       <c r="G716" s="6"/>
@@ -24823,7 +24823,7 @@
         <v>1307</v>
       </c>
       <c r="E720" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F720" s="6"/>
       <c r="G720" s="6"/>
@@ -24843,7 +24843,7 @@
         <v>1309</v>
       </c>
       <c r="E721" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
@@ -24983,7 +24983,7 @@
         <v>863</v>
       </c>
       <c r="E728" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F728" s="6"/>
       <c r="G728" s="6"/>
@@ -25283,7 +25283,7 @@
         <v>1347</v>
       </c>
       <c r="E743" s="8">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
@@ -25543,7 +25543,7 @@
         <v>1370</v>
       </c>
       <c r="E756" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F756" s="6"/>
       <c r="G756" s="6"/>
@@ -25666,7 +25666,7 @@
         <v>1381</v>
       </c>
       <c r="E762" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
@@ -25767,7 +25767,7 @@
       </c>
       <c r="E767" s="13">
         <f>E13</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F767" s="21" t="s">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>1397</v>
       </c>
       <c r="E771" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
@@ -26052,7 +26052,7 @@
         <v>912</v>
       </c>
       <c r="E781" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
@@ -26072,7 +26072,7 @@
         <v>1414</v>
       </c>
       <c r="E782" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
@@ -26253,7 +26253,7 @@
       </c>
       <c r="E791" s="13">
         <f>E34</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F791" s="26" t="s">
         <v>0</v>
@@ -26436,7 +26436,7 @@
       </c>
       <c r="E800" s="13">
         <f>E38</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F800" s="21" t="s">
         <v>0</v>
@@ -26778,7 +26778,7 @@
         <v>1480</v>
       </c>
       <c r="E817" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F817" s="6"/>
       <c r="G817" s="6"/>
@@ -26998,7 +26998,7 @@
         <v>1498</v>
       </c>
       <c r="E828" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F828" s="6"/>
       <c r="G828" s="6"/>
@@ -27018,7 +27018,7 @@
         <v>54</v>
       </c>
       <c r="E829" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
@@ -27038,7 +27038,7 @@
         <v>1501</v>
       </c>
       <c r="E830" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F830" s="6"/>
       <c r="G830" s="6"/>
@@ -27198,7 +27198,7 @@
         <v>1516</v>
       </c>
       <c r="E838" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F838" s="6"/>
       <c r="G838" s="6"/>
@@ -27258,7 +27258,7 @@
         <v>1522</v>
       </c>
       <c r="E841" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
@@ -27378,7 +27378,7 @@
         <v>1534</v>
       </c>
       <c r="E847" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
@@ -27638,7 +27638,7 @@
         <v>35</v>
       </c>
       <c r="E860" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F860" s="6"/>
       <c r="G860" s="6"/>
@@ -27678,7 +27678,7 @@
         <v>1560</v>
       </c>
       <c r="E862" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F862" s="6"/>
       <c r="G862" s="6"/>
@@ -28418,7 +28418,7 @@
         <v>1623</v>
       </c>
       <c r="E899" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F899" s="6"/>
       <c r="G899" s="6"/>
@@ -28458,7 +28458,7 @@
         <v>1627</v>
       </c>
       <c r="E901" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F901" s="6"/>
       <c r="G901" s="6"/>
@@ -28538,7 +28538,7 @@
         <v>625</v>
       </c>
       <c r="E905" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
@@ -28658,7 +28658,7 @@
         <v>1644</v>
       </c>
       <c r="E911" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
@@ -28678,7 +28678,7 @@
         <v>1646</v>
       </c>
       <c r="E912" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F912" s="6"/>
       <c r="G912" s="6"/>
@@ -28698,7 +28698,7 @@
         <v>1648</v>
       </c>
       <c r="E913" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F913" s="6"/>
       <c r="G913" s="6"/>
@@ -28838,7 +28838,7 @@
         <v>1662</v>
       </c>
       <c r="E920" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F920" s="6"/>
       <c r="G920" s="6"/>
@@ -28878,7 +28878,7 @@
         <v>1666</v>
       </c>
       <c r="E922" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F922" s="6"/>
       <c r="G922" s="6"/>
@@ -28959,7 +28959,7 @@
       </c>
       <c r="E926" s="13">
         <f>E309</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F926" s="21" t="s">
         <v>0</v>
@@ -29061,7 +29061,7 @@
         <v>786</v>
       </c>
       <c r="E931" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
@@ -29201,7 +29201,7 @@
         <v>1693</v>
       </c>
       <c r="E938" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F938" s="6"/>
       <c r="G938" s="6"/>
@@ -29384,7 +29384,7 @@
         <v>1710</v>
       </c>
       <c r="E947" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
@@ -29444,7 +29444,7 @@
         <v>1715</v>
       </c>
       <c r="E950" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F950" s="6"/>
       <c r="G950" s="6"/>
@@ -29463,9 +29463,7 @@
       <c r="D951" s="16" t="s">
         <v>1716</v>
       </c>
-      <c r="E951" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="E951" s="8"/>
       <c r="F951" s="6"/>
       <c r="G951" s="6"/>
       <c r="H951" s="6"/>
@@ -29624,7 +29622,7 @@
         <v>1732</v>
       </c>
       <c r="E959" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F959" s="6"/>
       <c r="G959" s="6"/>
@@ -29684,7 +29682,7 @@
         <v>1738</v>
       </c>
       <c r="E962" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F962" s="6"/>
       <c r="G962" s="6"/>
@@ -29747,7 +29745,7 @@
         <v>1742</v>
       </c>
       <c r="E965" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F965" s="6"/>
       <c r="G965" s="6"/>
@@ -30213,7 +30211,7 @@
         <v>1777</v>
       </c>
       <c r="E988" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F988" s="6"/>
       <c r="G988" s="6"/>
@@ -30253,7 +30251,7 @@
         <v>625</v>
       </c>
       <c r="E990" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F990" s="6"/>
       <c r="G990" s="6"/>
@@ -30559,7 +30557,7 @@
         <v>105</v>
       </c>
       <c r="E1005" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1005" s="6"/>
       <c r="G1005" s="6"/>
@@ -30699,7 +30697,7 @@
         <v>642</v>
       </c>
       <c r="E1012" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1012" s="6"/>
       <c r="G1012" s="6"/>
@@ -30779,7 +30777,7 @@
         <v>1824</v>
       </c>
       <c r="E1016" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1016" s="6"/>
       <c r="G1016" s="6"/>
@@ -30919,7 +30917,7 @@
         <v>1837</v>
       </c>
       <c r="E1023" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1023" s="6"/>
       <c r="G1023" s="6"/>
@@ -30979,7 +30977,7 @@
         <v>1842</v>
       </c>
       <c r="E1026" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1026" s="6"/>
       <c r="G1026" s="6"/>
@@ -31199,7 +31197,7 @@
         <v>54</v>
       </c>
       <c r="E1037" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1037" s="6"/>
       <c r="G1037" s="6"/>
@@ -31319,7 +31317,7 @@
         <v>223</v>
       </c>
       <c r="E1043" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1043" s="6"/>
       <c r="G1043" s="6"/>
@@ -31539,7 +31537,7 @@
         <v>1886</v>
       </c>
       <c r="E1054" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1054" s="6"/>
       <c r="G1054" s="6"/>
@@ -31579,7 +31577,7 @@
         <v>54</v>
       </c>
       <c r="E1056" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1056" s="6"/>
       <c r="G1056" s="6"/>
@@ -31699,7 +31697,7 @@
         <v>1901</v>
       </c>
       <c r="E1062" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1062" s="6"/>
       <c r="G1062" s="6"/>
@@ -31739,7 +31737,7 @@
         <v>1904</v>
       </c>
       <c r="E1064" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1064" s="6"/>
       <c r="G1064" s="6"/>
@@ -31859,7 +31857,7 @@
         <v>41</v>
       </c>
       <c r="E1070" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1070" s="6"/>
       <c r="G1070" s="6"/>
@@ -31879,7 +31877,7 @@
         <v>551</v>
       </c>
       <c r="E1071" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1071" s="6"/>
       <c r="G1071" s="6"/>
@@ -31899,7 +31897,7 @@
         <v>1830</v>
       </c>
       <c r="E1072" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1072" s="6"/>
       <c r="G1072" s="6"/>
@@ -31919,7 +31917,7 @@
         <v>74</v>
       </c>
       <c r="E1073" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1073" s="6"/>
       <c r="G1073" s="6"/>
@@ -32099,7 +32097,7 @@
         <v>1933</v>
       </c>
       <c r="E1082" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1082" s="6"/>
       <c r="G1082" s="6"/>
@@ -32239,7 +32237,7 @@
         <v>1946</v>
       </c>
       <c r="E1089" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1089" s="6"/>
       <c r="G1089" s="6"/>
@@ -32259,7 +32257,7 @@
         <v>19</v>
       </c>
       <c r="E1090" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1090" s="6"/>
       <c r="G1090" s="6"/>
@@ -32319,7 +32317,7 @@
         <v>1901</v>
       </c>
       <c r="E1093" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1093" s="6"/>
       <c r="G1093" s="6"/>
@@ -32359,7 +32357,7 @@
         <v>1956</v>
       </c>
       <c r="E1095" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1095" s="6"/>
       <c r="G1095" s="6"/>
@@ -32579,7 +32577,7 @@
         <v>392</v>
       </c>
       <c r="E1106" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1106" s="6"/>
       <c r="G1106" s="6"/>
@@ -32779,7 +32777,7 @@
         <v>507</v>
       </c>
       <c r="E1116" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1116" s="6"/>
       <c r="G1116" s="6"/>
@@ -32879,7 +32877,7 @@
         <v>2002</v>
       </c>
       <c r="E1121" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1121" s="6"/>
       <c r="G1121" s="6"/>
@@ -32939,7 +32937,7 @@
         <v>95</v>
       </c>
       <c r="E1124" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1124" s="6"/>
       <c r="G1124" s="6"/>
@@ -33119,7 +33117,7 @@
         <v>152</v>
       </c>
       <c r="E1133" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1133" s="6"/>
       <c r="G1133" s="6"/>
@@ -33499,7 +33497,7 @@
         <v>54</v>
       </c>
       <c r="E1152" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1152" s="6"/>
       <c r="G1152" s="6"/>
@@ -33539,7 +33537,7 @@
         <v>1487</v>
       </c>
       <c r="E1154" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1154" s="6"/>
       <c r="G1154" s="6"/>
@@ -33559,7 +33557,7 @@
         <v>2057</v>
       </c>
       <c r="E1155" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1155" s="6"/>
       <c r="G1155" s="6"/>
@@ -33579,7 +33577,7 @@
         <v>489</v>
       </c>
       <c r="E1156" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1156" s="6"/>
       <c r="G1156" s="6"/>
@@ -33719,7 +33717,7 @@
         <v>80</v>
       </c>
       <c r="E1163" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1163" s="6"/>
       <c r="G1163" s="6"/>
@@ -33899,7 +33897,7 @@
         <v>2084</v>
       </c>
       <c r="E1172" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1172" s="6"/>
       <c r="G1172" s="6"/>
@@ -33919,7 +33917,7 @@
         <v>2086</v>
       </c>
       <c r="E1173" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1173" s="6"/>
       <c r="G1173" s="6"/>
@@ -34099,7 +34097,7 @@
         <v>465</v>
       </c>
       <c r="E1182" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1182" s="6"/>
       <c r="G1182" s="6"/>
@@ -34139,7 +34137,7 @@
         <v>828</v>
       </c>
       <c r="E1184" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1184" s="6"/>
       <c r="G1184" s="6"/>
@@ -34299,7 +34297,7 @@
         <v>2119</v>
       </c>
       <c r="E1192" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1192" s="6"/>
       <c r="G1192" s="6"/>
@@ -34379,7 +34377,7 @@
         <v>2127</v>
       </c>
       <c r="E1196" s="8">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1196" s="6"/>
       <c r="G1196" s="6"/>
@@ -34419,7 +34417,7 @@
         <v>2130</v>
       </c>
       <c r="E1198" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1198" s="6"/>
       <c r="G1198" s="6"/>
@@ -34539,7 +34537,7 @@
         <v>2142</v>
       </c>
       <c r="E1204" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1204" s="6"/>
       <c r="G1204" s="6"/>
@@ -34659,7 +34657,7 @@
         <v>2153</v>
       </c>
       <c r="E1210" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1210" s="6"/>
       <c r="G1210" s="6"/>
@@ -34759,7 +34757,7 @@
         <v>1409</v>
       </c>
       <c r="E1215" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1215" s="6"/>
       <c r="G1215" s="6"/>
@@ -34840,7 +34838,7 @@
         <v>2168</v>
       </c>
       <c r="E1219" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1219" s="6"/>
       <c r="G1219" s="6"/>
@@ -34861,7 +34859,7 @@
         <v>2170</v>
       </c>
       <c r="E1220" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1220" s="6"/>
       <c r="G1220" s="6"/>
@@ -35197,7 +35195,7 @@
         <v>662</v>
       </c>
       <c r="E1236" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1236" s="6"/>
       <c r="G1236" s="6"/>
@@ -35323,7 +35321,7 @@
         <v>2206</v>
       </c>
       <c r="E1242" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1242" s="6"/>
       <c r="G1242" s="6"/>
@@ -35428,7 +35426,7 @@
         <v>2215</v>
       </c>
       <c r="E1247" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1247" s="6"/>
       <c r="G1247" s="6"/>
@@ -35554,7 +35552,7 @@
         <v>2225</v>
       </c>
       <c r="E1253" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1253" s="6"/>
       <c r="G1253" s="6"/>
@@ -35659,7 +35657,7 @@
         <v>15</v>
       </c>
       <c r="E1258" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1258" s="6"/>
       <c r="G1258" s="6"/>
@@ -35701,7 +35699,7 @@
         <v>2236</v>
       </c>
       <c r="E1260" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1260" s="6"/>
       <c r="G1260" s="6"/>
@@ -35806,7 +35804,7 @@
         <v>2244</v>
       </c>
       <c r="E1265" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1265" s="6"/>
       <c r="G1265" s="6"/>
@@ -35953,7 +35951,7 @@
         <v>2256</v>
       </c>
       <c r="E1272" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1272" s="6"/>
       <c r="G1272" s="6"/>
@@ -36037,7 +36035,7 @@
         <v>2262</v>
       </c>
       <c r="E1276" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1276" s="6"/>
       <c r="G1276" s="6"/>
@@ -36205,7 +36203,7 @@
         <v>1352</v>
       </c>
       <c r="E1284" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1284" s="6"/>
       <c r="G1284" s="6"/>
@@ -36226,7 +36224,7 @@
         <v>2277</v>
       </c>
       <c r="E1285" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1285" s="6"/>
       <c r="G1285" s="6"/>
@@ -36247,7 +36245,7 @@
         <v>2279</v>
       </c>
       <c r="E1286" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1286" s="6"/>
       <c r="G1286" s="6"/>
@@ -36268,7 +36266,7 @@
         <v>2281</v>
       </c>
       <c r="E1287" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1287" s="6"/>
       <c r="G1287" s="6"/>
@@ -36289,7 +36287,7 @@
         <v>2282</v>
       </c>
       <c r="E1288" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1288" s="6"/>
       <c r="G1288" s="6"/>
@@ -36352,7 +36350,7 @@
         <v>2288</v>
       </c>
       <c r="E1291" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1291" s="6"/>
       <c r="G1291" s="6"/>
@@ -36394,7 +36392,7 @@
         <v>2286</v>
       </c>
       <c r="E1293" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1293" s="6"/>
       <c r="G1293" s="6"/>
@@ -36415,7 +36413,7 @@
         <v>1720</v>
       </c>
       <c r="E1294" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1294" s="6"/>
       <c r="G1294" s="6"/>
@@ -36436,7 +36434,7 @@
         <v>2293</v>
       </c>
       <c r="E1295" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1295" s="6"/>
       <c r="G1295" s="6"/>
@@ -36478,7 +36476,7 @@
         <v>2297</v>
       </c>
       <c r="E1297" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1297" s="6"/>
       <c r="G1297" s="6"/>
@@ -36499,7 +36497,7 @@
         <v>2299</v>
       </c>
       <c r="E1298" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1298" s="6"/>
       <c r="G1298" s="6"/>
@@ -36541,7 +36539,7 @@
         <v>2303</v>
       </c>
       <c r="E1300" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1300" s="6"/>
       <c r="G1300" s="6"/>
@@ -36625,7 +36623,7 @@
         <v>27</v>
       </c>
       <c r="E1304" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1304" s="6"/>
       <c r="G1304" s="6"/>
@@ -36754,7 +36752,7 @@
         <v>338</v>
       </c>
       <c r="E1310" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1310" s="6"/>
       <c r="G1310" s="6"/>
@@ -36880,7 +36878,7 @@
         <v>2332</v>
       </c>
       <c r="E1316" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1316" s="6"/>
       <c r="G1316" s="6"/>
@@ -37111,7 +37109,7 @@
         <v>21</v>
       </c>
       <c r="E1327" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1327" s="6"/>
       <c r="G1327" s="6"/>
@@ -37321,7 +37319,7 @@
         <v>321</v>
       </c>
       <c r="E1337" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1337" s="6"/>
       <c r="G1337" s="6"/>
@@ -37489,7 +37487,7 @@
         <v>2384</v>
       </c>
       <c r="E1345" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1345" s="6"/>
       <c r="G1345" s="6"/>
@@ -37615,7 +37613,7 @@
         <v>2393</v>
       </c>
       <c r="E1351" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1351" s="6"/>
       <c r="G1351" s="6"/>
@@ -37657,7 +37655,7 @@
         <v>2397</v>
       </c>
       <c r="E1353" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1353" s="6"/>
       <c r="G1353" s="6"/>
@@ -37741,7 +37739,7 @@
         <v>2404</v>
       </c>
       <c r="E1357" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1357" s="6"/>
       <c r="G1357" s="6"/>
@@ -37930,7 +37928,7 @@
         <v>288</v>
       </c>
       <c r="E1366" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1366" s="6"/>
       <c r="G1366" s="6"/>
@@ -38205,7 +38203,7 @@
         <v>2441</v>
       </c>
       <c r="E1379" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1379" s="6"/>
       <c r="G1379" s="6"/>
@@ -38478,7 +38476,7 @@
         <v>2426</v>
       </c>
       <c r="E1392" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1392" s="6"/>
       <c r="G1392" s="6"/>
@@ -38604,7 +38602,7 @@
         <v>2472</v>
       </c>
       <c r="E1398" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1398" s="6"/>
       <c r="G1398" s="6"/>
@@ -38835,7 +38833,7 @@
         <v>2492</v>
       </c>
       <c r="E1409" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1409" s="6"/>
       <c r="G1409" s="6"/>
@@ -38856,7 +38854,7 @@
         <v>2494</v>
       </c>
       <c r="E1410" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1410" s="6"/>
       <c r="G1410" s="6"/>
@@ -38919,7 +38917,7 @@
         <v>2499</v>
       </c>
       <c r="E1413" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1413" s="6"/>
       <c r="G1413" s="6"/>
@@ -39108,7 +39106,7 @@
         <v>15</v>
       </c>
       <c r="E1422" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1422" s="6"/>
       <c r="G1422" s="6"/>
@@ -39279,7 +39277,7 @@
         <v>2526</v>
       </c>
       <c r="E1430" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1430" s="6"/>
       <c r="G1430" s="6"/>
@@ -39321,7 +39319,7 @@
         <v>41</v>
       </c>
       <c r="E1432" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1432" s="6"/>
       <c r="G1432" s="6"/>
@@ -39342,7 +39340,7 @@
         <v>2531</v>
       </c>
       <c r="E1433" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1433" s="6"/>
       <c r="G1433" s="6"/>
@@ -39636,7 +39634,7 @@
         <v>2550</v>
       </c>
       <c r="E1447" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1447" s="6"/>
       <c r="G1447" s="6"/>
@@ -39720,7 +39718,7 @@
         <v>2557</v>
       </c>
       <c r="E1451" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1451" s="6"/>
       <c r="G1451" s="6"/>
@@ -39888,7 +39886,7 @@
         <v>2573</v>
       </c>
       <c r="E1459" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1459" s="6"/>
       <c r="G1459" s="6"/>
@@ -39930,7 +39928,7 @@
         <v>662</v>
       </c>
       <c r="E1461" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1461" s="6"/>
       <c r="G1461" s="6"/>
@@ -39972,7 +39970,7 @@
         <v>2578</v>
       </c>
       <c r="E1463" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1463" s="6"/>
       <c r="G1463" s="6"/>
@@ -40182,7 +40180,7 @@
         <v>2426</v>
       </c>
       <c r="E1473" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1473" s="6"/>
       <c r="G1473" s="6"/>
@@ -40203,7 +40201,7 @@
         <v>113</v>
       </c>
       <c r="E1474" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1474" s="6"/>
       <c r="G1474" s="6"/>
@@ -40266,7 +40264,7 @@
         <v>511</v>
       </c>
       <c r="E1477" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1477" s="6"/>
       <c r="G1477" s="6"/>
@@ -40287,7 +40285,7 @@
         <v>2601</v>
       </c>
       <c r="E1478" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1478" s="6"/>
       <c r="G1478" s="6"/>
@@ -40392,7 +40390,7 @@
         <v>2607</v>
       </c>
       <c r="E1483" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1483" s="6"/>
       <c r="G1483" s="6"/>
@@ -40476,7 +40474,7 @@
         <v>1000</v>
       </c>
       <c r="E1487" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1487" s="6"/>
       <c r="G1487" s="6"/>
@@ -40584,7 +40582,7 @@
         <v>2621</v>
       </c>
       <c r="E1492" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1492" s="6"/>
       <c r="G1492" s="6"/>
@@ -40773,7 +40771,7 @@
         <v>2638</v>
       </c>
       <c r="E1501" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1501" s="6"/>
       <c r="G1501" s="6"/>
@@ -41067,7 +41065,7 @@
         <v>1487</v>
       </c>
       <c r="E1515" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1515" s="6"/>
       <c r="G1515" s="6"/>
@@ -41109,7 +41107,7 @@
         <v>2665</v>
       </c>
       <c r="E1517" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1517" s="6"/>
       <c r="G1517" s="6"/>
@@ -41130,7 +41128,7 @@
         <v>2667</v>
       </c>
       <c r="E1518" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1518" s="6"/>
       <c r="G1518" s="6"/>
@@ -41256,7 +41254,7 @@
         <v>2678</v>
       </c>
       <c r="E1524" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1524" s="6"/>
       <c r="G1524" s="6"/>
@@ -41382,7 +41380,7 @@
         <v>2687</v>
       </c>
       <c r="E1530" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1530" s="6"/>
       <c r="G1530" s="6"/>
@@ -41445,7 +41443,7 @@
         <v>507</v>
       </c>
       <c r="E1533" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1533" s="6"/>
       <c r="G1533" s="6"/>
@@ -41466,7 +41464,7 @@
         <v>2694</v>
       </c>
       <c r="E1534" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1534" s="6"/>
       <c r="G1534" s="6"/>
@@ -41508,7 +41506,7 @@
         <v>2698</v>
       </c>
       <c r="E1536" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1536" s="6"/>
       <c r="G1536" s="6"/>
@@ -41619,7 +41617,7 @@
         <v>2705</v>
       </c>
       <c r="E1541" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1541" s="6"/>
       <c r="G1541" s="6"/>
@@ -41703,7 +41701,7 @@
         <v>1352</v>
       </c>
       <c r="E1545" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1545" s="6"/>
       <c r="G1545" s="6"/>
@@ -41745,7 +41743,7 @@
         <v>662</v>
       </c>
       <c r="E1547" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1547" s="6"/>
       <c r="G1547" s="6"/>
@@ -41808,7 +41806,7 @@
         <v>19</v>
       </c>
       <c r="E1550" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1550" s="6"/>
       <c r="G1550" s="6"/>
@@ -41871,7 +41869,7 @@
         <v>2721</v>
       </c>
       <c r="E1553" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1553" s="6"/>
       <c r="G1553" s="6"/>
@@ -41913,7 +41911,7 @@
         <v>828</v>
       </c>
       <c r="E1555" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1555" s="6"/>
       <c r="G1555" s="6"/>
@@ -42123,7 +42121,7 @@
         <v>2743</v>
       </c>
       <c r="E1565" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1565" s="6"/>
       <c r="G1565" s="6"/>
@@ -42228,7 +42226,7 @@
         <v>2752</v>
       </c>
       <c r="E1570" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1570" s="6"/>
       <c r="G1570" s="6"/>
@@ -42291,7 +42289,7 @@
         <v>54</v>
       </c>
       <c r="E1573" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1573" s="6"/>
       <c r="G1573" s="6"/>
@@ -42375,7 +42373,7 @@
         <v>76</v>
       </c>
       <c r="E1577" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1577" s="6"/>
       <c r="G1577" s="6"/>
@@ -42396,7 +42394,7 @@
         <v>2763</v>
       </c>
       <c r="E1578" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1578" s="6"/>
       <c r="G1578" s="6"/>
@@ -42522,7 +42520,7 @@
         <v>2774</v>
       </c>
       <c r="E1584" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1584" s="6"/>
       <c r="G1584" s="6"/>
@@ -42585,7 +42583,7 @@
         <v>2779</v>
       </c>
       <c r="E1587" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1587" s="6"/>
       <c r="G1587" s="6"/>
@@ -42963,7 +42961,7 @@
         <v>489</v>
       </c>
       <c r="E1605" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1605" s="6"/>
       <c r="G1605" s="6"/>
@@ -43026,7 +43024,7 @@
         <v>2815</v>
       </c>
       <c r="E1608" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1608" s="6"/>
       <c r="G1608" s="6"/>
@@ -43047,7 +43045,7 @@
         <v>277</v>
       </c>
       <c r="E1609" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1609" s="6"/>
       <c r="G1609" s="6"/>
@@ -43173,7 +43171,7 @@
         <v>2826</v>
       </c>
       <c r="E1615" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1615" s="6"/>
       <c r="G1615" s="6"/>
@@ -43362,7 +43360,7 @@
         <v>2840</v>
       </c>
       <c r="E1624" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1624" s="6"/>
       <c r="G1624" s="6"/>
@@ -43404,7 +43402,7 @@
         <v>2844</v>
       </c>
       <c r="E1626" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1626" s="6"/>
       <c r="G1626" s="6"/>
@@ -43425,7 +43423,7 @@
         <v>788</v>
       </c>
       <c r="E1627" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1627" s="6"/>
       <c r="G1627" s="6"/>
@@ -43446,7 +43444,7 @@
         <v>2847</v>
       </c>
       <c r="E1628" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1628" s="6"/>
       <c r="G1628" s="6"/>
@@ -43467,7 +43465,7 @@
         <v>662</v>
       </c>
       <c r="E1629" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1629" s="6"/>
       <c r="G1629" s="6"/>
@@ -43677,7 +43675,7 @@
         <v>371</v>
       </c>
       <c r="E1639" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1639" s="6"/>
       <c r="G1639" s="6"/>
@@ -43698,7 +43696,7 @@
         <v>1564</v>
       </c>
       <c r="E1640" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1640" s="6"/>
       <c r="G1640" s="6"/>
@@ -43719,7 +43717,7 @@
         <v>2868</v>
       </c>
       <c r="E1641" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1641" s="6"/>
       <c r="G1641" s="6"/>
@@ -43761,7 +43759,7 @@
         <v>2872</v>
       </c>
       <c r="E1643" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1643" s="26" t="s">
         <v>0</v>
@@ -43826,7 +43824,7 @@
         <v>2877</v>
       </c>
       <c r="E1646" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1646" s="6"/>
       <c r="G1646" s="6"/>
@@ -43931,7 +43929,7 @@
         <v>514</v>
       </c>
       <c r="E1651" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1651" s="6"/>
       <c r="G1651" s="6"/>
@@ -44015,7 +44013,7 @@
         <v>2891</v>
       </c>
       <c r="E1655" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1655" s="6"/>
       <c r="G1655" s="6"/>
@@ -44036,7 +44034,7 @@
         <v>2397</v>
       </c>
       <c r="E1656" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1656" s="6"/>
       <c r="G1656" s="6"/>
@@ -44078,7 +44076,7 @@
         <v>15</v>
       </c>
       <c r="E1658" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1658" s="6"/>
       <c r="G1658" s="6"/>
@@ -44099,7 +44097,7 @@
         <v>2397</v>
       </c>
       <c r="E1659" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1659" s="6"/>
       <c r="G1659" s="6"/>
@@ -44141,7 +44139,7 @@
         <v>2899</v>
       </c>
       <c r="E1661" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1661" s="6"/>
       <c r="G1661" s="6"/>
@@ -44162,7 +44160,7 @@
         <v>2112</v>
       </c>
       <c r="E1662" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1662" s="6"/>
       <c r="G1662" s="6"/>
@@ -44183,7 +44181,7 @@
         <v>2902</v>
       </c>
       <c r="E1663" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1663" s="6"/>
       <c r="G1663" s="6"/>
@@ -44267,7 +44265,7 @@
         <v>1583</v>
       </c>
       <c r="E1667" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1667" s="6"/>
       <c r="G1667" s="6"/>
@@ -44288,7 +44286,7 @@
         <v>118</v>
       </c>
       <c r="E1668" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1668" s="6"/>
       <c r="G1668" s="6"/>
@@ -44330,7 +44328,7 @@
         <v>21</v>
       </c>
       <c r="E1670" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1670" s="6"/>
       <c r="G1670" s="6"/>
@@ -44477,7 +44475,7 @@
         <v>2923</v>
       </c>
       <c r="E1677" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1677" s="6"/>
       <c r="G1677" s="6"/>
@@ -44582,7 +44580,7 @@
         <v>2931</v>
       </c>
       <c r="E1682" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1682" s="6"/>
       <c r="G1682" s="6"/>
@@ -44603,7 +44601,7 @@
         <v>2397</v>
       </c>
       <c r="E1683" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1683" s="6"/>
       <c r="G1683" s="6"/>
@@ -44750,7 +44748,7 @@
         <v>2944</v>
       </c>
       <c r="E1690" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1690" s="6"/>
       <c r="G1690" s="6"/>
@@ -44834,7 +44832,7 @@
         <v>2949</v>
       </c>
       <c r="E1694" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1694" s="6"/>
       <c r="G1694" s="6"/>
@@ -44918,7 +44916,7 @@
         <v>2955</v>
       </c>
       <c r="E1698" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1698" s="6"/>
       <c r="G1698" s="6"/>
@@ -44981,7 +44979,7 @@
         <v>2961</v>
       </c>
       <c r="E1701" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1701" s="6"/>
       <c r="G1701" s="6"/>
@@ -45107,7 +45105,7 @@
         <v>2970</v>
       </c>
       <c r="E1707" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1707" s="6"/>
       <c r="G1707" s="6"/>
@@ -45212,7 +45210,7 @@
         <v>2979</v>
       </c>
       <c r="E1712" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1712" s="6"/>
       <c r="G1712" s="6"/>
@@ -45401,7 +45399,7 @@
         <v>2992</v>
       </c>
       <c r="E1721" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1721" s="6"/>
       <c r="G1721" s="6"/>
@@ -45506,7 +45504,7 @@
         <v>3000</v>
       </c>
       <c r="E1726" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1726" s="6"/>
       <c r="G1726" s="6"/>
@@ -45695,7 +45693,7 @@
         <v>3015</v>
       </c>
       <c r="E1735" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1735" s="6"/>
       <c r="G1735" s="6"/>
@@ -45716,7 +45714,7 @@
         <v>3017</v>
       </c>
       <c r="E1736" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1736" s="6"/>
       <c r="G1736" s="6"/>
@@ -45863,7 +45861,7 @@
         <v>3028</v>
       </c>
       <c r="E1743" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1743" s="6"/>
       <c r="G1743" s="6"/>
@@ -45926,7 +45924,7 @@
         <v>1632</v>
       </c>
       <c r="E1746" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1746" s="6"/>
       <c r="G1746" s="6"/>
@@ -46367,7 +46365,7 @@
         <v>3072</v>
       </c>
       <c r="E1767" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1767" s="6"/>
       <c r="G1767" s="6"/>
@@ -46388,7 +46386,7 @@
         <v>3074</v>
       </c>
       <c r="E1768" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1768" s="6"/>
       <c r="G1768" s="6"/>
@@ -46535,7 +46533,7 @@
         <v>3084</v>
       </c>
       <c r="E1775" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1775" s="6"/>
       <c r="G1775" s="6"/>
@@ -46577,7 +46575,7 @@
         <v>41</v>
       </c>
       <c r="E1777" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1777" s="6"/>
       <c r="G1777" s="6"/>
@@ -46661,7 +46659,7 @@
         <v>3094</v>
       </c>
       <c r="E1781" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1781" s="6"/>
       <c r="G1781" s="6"/>
@@ -46829,7 +46827,7 @@
         <v>3108</v>
       </c>
       <c r="E1789" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1789" s="6"/>
       <c r="G1789" s="6"/>
@@ -46913,7 +46911,7 @@
         <v>925</v>
       </c>
       <c r="E1793" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1793" s="6"/>
       <c r="G1793" s="6"/>
@@ -46997,7 +46995,7 @@
         <v>3122</v>
       </c>
       <c r="E1797" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1797" s="6"/>
       <c r="G1797" s="6"/>
@@ -47102,7 +47100,7 @@
         <v>3131</v>
       </c>
       <c r="E1802" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1802" s="6"/>
       <c r="G1802" s="6"/>
@@ -47186,7 +47184,7 @@
         <v>122</v>
       </c>
       <c r="E1806" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1806" s="6"/>
       <c r="G1806" s="6"/>
@@ -47207,7 +47205,7 @@
         <v>3139</v>
       </c>
       <c r="E1807" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1807" s="6"/>
       <c r="G1807" s="6"/>
@@ -47228,7 +47226,7 @@
         <v>3141</v>
       </c>
       <c r="E1808" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1808" s="6"/>
       <c r="G1808" s="6"/>
@@ -47249,7 +47247,7 @@
         <v>662</v>
       </c>
       <c r="E1809" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1809" s="6"/>
       <c r="G1809" s="6"/>
@@ -47270,7 +47268,7 @@
         <v>514</v>
       </c>
       <c r="E1810" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1810" s="6"/>
       <c r="G1810" s="6"/>
@@ -47291,7 +47289,7 @@
         <v>3145</v>
       </c>
       <c r="E1811" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1811" s="6"/>
       <c r="G1811" s="6"/>
@@ -47312,7 +47310,7 @@
         <v>35</v>
       </c>
       <c r="E1812" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1812" s="6"/>
       <c r="G1812" s="6"/>
@@ -47333,7 +47331,7 @@
         <v>21</v>
       </c>
       <c r="E1813" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1813" s="6"/>
       <c r="G1813" s="6"/>
@@ -47375,7 +47373,7 @@
         <v>3151</v>
       </c>
       <c r="E1815" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1815" s="6"/>
       <c r="G1815" s="6"/>
@@ -47396,7 +47394,7 @@
         <v>3153</v>
       </c>
       <c r="E1816" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1816" s="6"/>
       <c r="G1816" s="6"/>
@@ -47417,7 +47415,7 @@
         <v>1845</v>
       </c>
       <c r="E1817" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1817" s="6"/>
       <c r="G1817" s="6"/>
@@ -47963,7 +47961,7 @@
         <v>118</v>
       </c>
       <c r="E1843" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1843" s="6"/>
       <c r="G1843" s="6"/>
@@ -48068,7 +48066,7 @@
         <v>3209</v>
       </c>
       <c r="E1848" s="8">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1848" s="30"/>
       <c r="G1848" s="30"/>
@@ -48089,7 +48087,7 @@
         <v>3211</v>
       </c>
       <c r="E1849" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1849" s="30"/>
       <c r="G1849" s="30"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10541,7 +10541,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -10641,7 +10641,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -10761,7 +10761,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10781,7 +10781,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10801,7 +10801,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -10821,7 +10821,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -10861,7 +10861,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -10881,7 +10881,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -10921,7 +10921,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -10941,7 +10941,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11061,7 +11061,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -11141,7 +11141,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11181,7 +11181,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11221,7 +11221,7 @@
         <v>84</v>
       </c>
       <c r="E42" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11281,7 +11281,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11341,7 +11341,7 @@
         <v>95</v>
       </c>
       <c r="E48" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -11521,7 +11521,7 @@
         <v>113</v>
       </c>
       <c r="E57" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -11581,7 +11581,7 @@
         <v>118</v>
       </c>
       <c r="E60" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="E61" s="13">
         <f>E60</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>126</v>
       </c>
       <c r="E65" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -12024,7 +12024,7 @@
         <v>160</v>
       </c>
       <c r="E82" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -12524,7 +12524,7 @@
         <v>209</v>
       </c>
       <c r="E107" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -12727,7 +12727,7 @@
         <v>225</v>
       </c>
       <c r="E117" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -12787,7 +12787,7 @@
         <v>231</v>
       </c>
       <c r="E120" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -13007,7 +13007,7 @@
         <v>253</v>
       </c>
       <c r="E131" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -13067,7 +13067,7 @@
         <v>259</v>
       </c>
       <c r="E134" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -13107,7 +13107,7 @@
         <v>263</v>
       </c>
       <c r="E136" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -13127,7 +13127,7 @@
         <v>265</v>
       </c>
       <c r="E137" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -13307,7 +13307,7 @@
         <v>283</v>
       </c>
       <c r="E146" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -13327,7 +13327,7 @@
         <v>41</v>
       </c>
       <c r="E147" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -13447,7 +13447,7 @@
         <v>296</v>
       </c>
       <c r="E153" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -13507,7 +13507,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -13667,7 +13667,7 @@
         <v>317</v>
       </c>
       <c r="E164" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -13687,7 +13687,7 @@
         <v>319</v>
       </c>
       <c r="E165" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -14147,7 +14147,7 @@
         <v>361</v>
       </c>
       <c r="E188" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -14247,7 +14247,7 @@
         <v>371</v>
       </c>
       <c r="E193" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -14427,7 +14427,7 @@
         <v>386</v>
       </c>
       <c r="E202" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -14487,7 +14487,7 @@
         <v>392</v>
       </c>
       <c r="E205" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -14607,7 +14607,7 @@
         <v>404</v>
       </c>
       <c r="E211" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -14747,7 +14747,7 @@
         <v>105</v>
       </c>
       <c r="E218" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -14847,7 +14847,7 @@
         <v>425</v>
       </c>
       <c r="E223" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -14887,7 +14887,7 @@
         <v>429</v>
       </c>
       <c r="E225" s="8">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -14907,7 +14907,7 @@
         <v>431</v>
       </c>
       <c r="E226" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -14927,7 +14927,7 @@
         <v>433</v>
       </c>
       <c r="E227" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -15047,7 +15047,7 @@
         <v>445</v>
       </c>
       <c r="E233" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -15107,7 +15107,7 @@
         <v>451</v>
       </c>
       <c r="E236" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -15227,7 +15227,7 @@
         <v>463</v>
       </c>
       <c r="E242" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -15287,7 +15287,7 @@
         <v>469</v>
       </c>
       <c r="E245" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -15307,7 +15307,7 @@
         <v>471</v>
       </c>
       <c r="E246" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -15827,7 +15827,7 @@
         <v>518</v>
       </c>
       <c r="E272" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -15987,7 +15987,7 @@
         <v>223</v>
       </c>
       <c r="E280" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -16027,7 +16027,7 @@
         <v>535</v>
       </c>
       <c r="E282" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -16087,7 +16087,7 @@
         <v>541</v>
       </c>
       <c r="E285" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -16147,7 +16147,7 @@
         <v>223</v>
       </c>
       <c r="E288" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -16267,7 +16267,7 @@
         <v>553</v>
       </c>
       <c r="E294" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -16347,7 +16347,7 @@
         <v>560</v>
       </c>
       <c r="E298" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -16467,7 +16467,7 @@
         <v>223</v>
       </c>
       <c r="E304" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -16547,7 +16547,7 @@
         <v>576</v>
       </c>
       <c r="E308" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -16567,7 +16567,7 @@
         <v>578</v>
       </c>
       <c r="E309" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -16727,7 +16727,7 @@
         <v>41</v>
       </c>
       <c r="E317" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -16947,7 +16947,7 @@
         <v>613</v>
       </c>
       <c r="E328" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -17007,7 +17007,7 @@
         <v>619</v>
       </c>
       <c r="E331" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -17047,7 +17047,7 @@
         <v>609</v>
       </c>
       <c r="E333" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -17087,7 +17087,7 @@
         <v>625</v>
       </c>
       <c r="E335" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -17247,7 +17247,7 @@
         <v>636</v>
       </c>
       <c r="E343" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -17307,7 +17307,7 @@
         <v>642</v>
       </c>
       <c r="E346" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -17327,7 +17327,7 @@
         <v>644</v>
       </c>
       <c r="E347" s="19">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -17467,7 +17467,7 @@
         <v>656</v>
       </c>
       <c r="E354" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
@@ -17527,7 +17527,7 @@
         <v>54</v>
       </c>
       <c r="E357" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
@@ -17727,7 +17727,7 @@
         <v>679</v>
       </c>
       <c r="E367" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -18007,7 +18007,7 @@
         <v>705</v>
       </c>
       <c r="E381" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -18087,7 +18087,7 @@
         <v>27</v>
       </c>
       <c r="E385" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -18247,7 +18247,7 @@
         <v>503</v>
       </c>
       <c r="E393" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -18267,7 +18267,7 @@
         <v>727</v>
       </c>
       <c r="E394" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
@@ -18530,7 +18530,7 @@
         <v>750</v>
       </c>
       <c r="E407" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="E419" s="13">
         <f>E20</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F419" s="21" t="s">
         <v>0</v>
@@ -18813,7 +18813,7 @@
         <v>776</v>
       </c>
       <c r="E421" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -18833,7 +18833,7 @@
         <v>778</v>
       </c>
       <c r="E422" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -18873,7 +18873,7 @@
         <v>782</v>
       </c>
       <c r="E424" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -18893,7 +18893,7 @@
         <v>784</v>
       </c>
       <c r="E425" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -19033,7 +19033,7 @@
         <v>798</v>
       </c>
       <c r="E432" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -19236,7 +19236,7 @@
         <v>223</v>
       </c>
       <c r="E442" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
@@ -19319,7 +19319,7 @@
         <v>319</v>
       </c>
       <c r="E446" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -19419,7 +19419,7 @@
         <v>828</v>
       </c>
       <c r="E451" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -19539,7 +19539,7 @@
         <v>838</v>
       </c>
       <c r="E457" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -19639,7 +19639,7 @@
         <v>847</v>
       </c>
       <c r="E462" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -19739,7 +19739,7 @@
         <v>857</v>
       </c>
       <c r="E467" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -19759,7 +19759,7 @@
         <v>859</v>
       </c>
       <c r="E468" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -19779,7 +19779,7 @@
         <v>288</v>
       </c>
       <c r="E469" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -19859,7 +19859,7 @@
         <v>867</v>
       </c>
       <c r="E473" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -19879,7 +19879,7 @@
         <v>35</v>
       </c>
       <c r="E474" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
@@ -19999,7 +19999,7 @@
         <v>879</v>
       </c>
       <c r="E480" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
@@ -20019,7 +20019,7 @@
         <v>758</v>
       </c>
       <c r="E481" s="8">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -20159,7 +20159,7 @@
         <v>892</v>
       </c>
       <c r="E488" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -20239,7 +20239,7 @@
         <v>267</v>
       </c>
       <c r="E492" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F492" s="6"/>
       <c r="G492" s="6"/>
@@ -20299,7 +20299,7 @@
         <v>419</v>
       </c>
       <c r="E495" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -20419,7 +20419,7 @@
         <v>914</v>
       </c>
       <c r="E501" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -20539,7 +20539,7 @@
         <v>925</v>
       </c>
       <c r="E507" s="8">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -20559,7 +20559,7 @@
         <v>927</v>
       </c>
       <c r="E508" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -20659,7 +20659,7 @@
         <v>937</v>
       </c>
       <c r="E513" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -20759,7 +20759,7 @@
         <v>947</v>
       </c>
       <c r="E518" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -20799,7 +20799,7 @@
         <v>951</v>
       </c>
       <c r="E520" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
@@ -21059,7 +21059,7 @@
         <v>974</v>
       </c>
       <c r="E533" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -21099,7 +21099,7 @@
         <v>977</v>
       </c>
       <c r="E535" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
@@ -21119,7 +21119,7 @@
         <v>979</v>
       </c>
       <c r="E536" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
@@ -21362,7 +21362,7 @@
         <v>1000</v>
       </c>
       <c r="E548" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
@@ -21422,7 +21422,7 @@
         <v>578</v>
       </c>
       <c r="E551" s="8">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -21502,7 +21502,7 @@
         <v>1013</v>
       </c>
       <c r="E555" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
@@ -21542,7 +21542,7 @@
         <v>1016</v>
       </c>
       <c r="E557" s="8">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
@@ -21562,7 +21562,7 @@
         <v>1018</v>
       </c>
       <c r="E558" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
@@ -21602,7 +21602,7 @@
         <v>609</v>
       </c>
       <c r="E560" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
@@ -21662,7 +21662,7 @@
         <v>1026</v>
       </c>
       <c r="E563" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
@@ -21742,7 +21742,7 @@
         <v>1034</v>
       </c>
       <c r="E567" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
@@ -22025,7 +22025,7 @@
         <v>1059</v>
       </c>
       <c r="E581" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -22085,7 +22085,7 @@
         <v>1065</v>
       </c>
       <c r="E584" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
@@ -22145,7 +22145,7 @@
         <v>1071</v>
       </c>
       <c r="E587" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
@@ -22245,7 +22245,7 @@
         <v>509</v>
       </c>
       <c r="E592" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
@@ -22345,7 +22345,7 @@
         <v>1087</v>
       </c>
       <c r="E597" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
@@ -22485,7 +22485,7 @@
         <v>1100</v>
       </c>
       <c r="E604" s="8">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -22548,7 +22548,7 @@
         <v>1103</v>
       </c>
       <c r="E607" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
@@ -22608,7 +22608,7 @@
         <v>1109</v>
       </c>
       <c r="E610" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
@@ -22648,7 +22648,7 @@
         <v>1112</v>
       </c>
       <c r="E612" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
@@ -23011,7 +23011,7 @@
         <v>1147</v>
       </c>
       <c r="E630" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
@@ -23132,7 +23132,7 @@
       </c>
       <c r="E636" s="23">
         <f>E57</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F636" s="20" t="s">
         <v>0</v>
@@ -23458,7 +23458,7 @@
       </c>
       <c r="E652" s="13">
         <f>E42</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F652" s="21" t="s">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>582</v>
       </c>
       <c r="E656" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F656" s="6"/>
       <c r="G656" s="6"/>
@@ -23580,7 +23580,7 @@
         <v>223</v>
       </c>
       <c r="E658" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
@@ -23643,7 +23643,7 @@
         <v>1199</v>
       </c>
       <c r="E661" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
@@ -23703,7 +23703,7 @@
         <v>1205</v>
       </c>
       <c r="E664" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F664" s="6"/>
       <c r="G664" s="6"/>
@@ -23783,7 +23783,7 @@
         <v>1212</v>
       </c>
       <c r="E668" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
@@ -23843,7 +23843,7 @@
         <v>1218</v>
       </c>
       <c r="E671" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
@@ -23863,7 +23863,7 @@
         <v>1220</v>
       </c>
       <c r="E672" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F672" s="6"/>
       <c r="G672" s="6"/>
@@ -23943,7 +23943,7 @@
         <v>1228</v>
       </c>
       <c r="E676" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F676" s="6"/>
       <c r="G676" s="6"/>
@@ -23963,7 +23963,7 @@
         <v>1230</v>
       </c>
       <c r="E677" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
@@ -24043,7 +24043,7 @@
         <v>1237</v>
       </c>
       <c r="E681" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
@@ -24103,7 +24103,7 @@
         <v>1242</v>
       </c>
       <c r="E684" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F684" s="6"/>
       <c r="G684" s="6"/>
@@ -24303,7 +24303,7 @@
         <v>1260</v>
       </c>
       <c r="E694" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F694" s="6"/>
       <c r="G694" s="6"/>
@@ -24403,7 +24403,7 @@
         <v>1270</v>
       </c>
       <c r="E699" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
@@ -24483,7 +24483,7 @@
         <v>1278</v>
       </c>
       <c r="E703" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
@@ -24743,7 +24743,7 @@
         <v>1300</v>
       </c>
       <c r="E716" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F716" s="6"/>
       <c r="G716" s="6"/>
@@ -24823,7 +24823,7 @@
         <v>1307</v>
       </c>
       <c r="E720" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F720" s="6"/>
       <c r="G720" s="6"/>
@@ -24843,7 +24843,7 @@
         <v>1309</v>
       </c>
       <c r="E721" s="8">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
@@ -24983,7 +24983,7 @@
         <v>863</v>
       </c>
       <c r="E728" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F728" s="6"/>
       <c r="G728" s="6"/>
@@ -25283,7 +25283,7 @@
         <v>1347</v>
       </c>
       <c r="E743" s="8">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
@@ -25543,7 +25543,7 @@
         <v>1370</v>
       </c>
       <c r="E756" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F756" s="6"/>
       <c r="G756" s="6"/>
@@ -25666,7 +25666,7 @@
         <v>1381</v>
       </c>
       <c r="E762" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
@@ -25767,7 +25767,7 @@
       </c>
       <c r="E767" s="13">
         <f>E13</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F767" s="21" t="s">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>1397</v>
       </c>
       <c r="E771" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
@@ -26052,7 +26052,7 @@
         <v>912</v>
       </c>
       <c r="E781" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
@@ -26072,7 +26072,7 @@
         <v>1414</v>
       </c>
       <c r="E782" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
@@ -26253,7 +26253,7 @@
       </c>
       <c r="E791" s="13">
         <f>E34</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F791" s="26" t="s">
         <v>0</v>
@@ -26436,7 +26436,7 @@
       </c>
       <c r="E800" s="13">
         <f>E38</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F800" s="21" t="s">
         <v>0</v>
@@ -26778,7 +26778,7 @@
         <v>1480</v>
       </c>
       <c r="E817" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F817" s="6"/>
       <c r="G817" s="6"/>
@@ -26998,7 +26998,7 @@
         <v>1498</v>
       </c>
       <c r="E828" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F828" s="6"/>
       <c r="G828" s="6"/>
@@ -27018,7 +27018,7 @@
         <v>54</v>
       </c>
       <c r="E829" s="8">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
@@ -27038,7 +27038,7 @@
         <v>1501</v>
       </c>
       <c r="E830" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F830" s="6"/>
       <c r="G830" s="6"/>
@@ -27198,7 +27198,7 @@
         <v>1516</v>
       </c>
       <c r="E838" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F838" s="6"/>
       <c r="G838" s="6"/>
@@ -27258,7 +27258,7 @@
         <v>1522</v>
       </c>
       <c r="E841" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
@@ -27378,7 +27378,7 @@
         <v>1534</v>
       </c>
       <c r="E847" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
@@ -27638,7 +27638,7 @@
         <v>35</v>
       </c>
       <c r="E860" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F860" s="6"/>
       <c r="G860" s="6"/>
@@ -27678,7 +27678,7 @@
         <v>1560</v>
       </c>
       <c r="E862" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F862" s="6"/>
       <c r="G862" s="6"/>
@@ -28418,7 +28418,7 @@
         <v>1623</v>
       </c>
       <c r="E899" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F899" s="6"/>
       <c r="G899" s="6"/>
@@ -28458,7 +28458,7 @@
         <v>1627</v>
       </c>
       <c r="E901" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F901" s="6"/>
       <c r="G901" s="6"/>
@@ -28538,7 +28538,7 @@
         <v>625</v>
       </c>
       <c r="E905" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
@@ -28658,7 +28658,7 @@
         <v>1644</v>
       </c>
       <c r="E911" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
@@ -28678,7 +28678,7 @@
         <v>1646</v>
       </c>
       <c r="E912" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F912" s="6"/>
       <c r="G912" s="6"/>
@@ -28698,7 +28698,7 @@
         <v>1648</v>
       </c>
       <c r="E913" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F913" s="6"/>
       <c r="G913" s="6"/>
@@ -28838,7 +28838,7 @@
         <v>1662</v>
       </c>
       <c r="E920" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F920" s="6"/>
       <c r="G920" s="6"/>
@@ -28878,7 +28878,7 @@
         <v>1666</v>
       </c>
       <c r="E922" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F922" s="6"/>
       <c r="G922" s="6"/>
@@ -28959,7 +28959,7 @@
       </c>
       <c r="E926" s="13">
         <f>E309</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F926" s="21" t="s">
         <v>0</v>
@@ -29061,7 +29061,7 @@
         <v>786</v>
       </c>
       <c r="E931" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
@@ -29201,7 +29201,7 @@
         <v>1693</v>
       </c>
       <c r="E938" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F938" s="6"/>
       <c r="G938" s="6"/>
@@ -29384,7 +29384,7 @@
         <v>1710</v>
       </c>
       <c r="E947" s="8">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
@@ -29444,7 +29444,7 @@
         <v>1715</v>
       </c>
       <c r="E950" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F950" s="6"/>
       <c r="G950" s="6"/>
@@ -29463,7 +29463,9 @@
       <c r="D951" s="16" t="s">
         <v>1716</v>
       </c>
-      <c r="E951" s="8"/>
+      <c r="E951" s="8">
+        <v>0.0</v>
+      </c>
       <c r="F951" s="6"/>
       <c r="G951" s="6"/>
       <c r="H951" s="6"/>
@@ -29622,7 +29624,7 @@
         <v>1732</v>
       </c>
       <c r="E959" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F959" s="6"/>
       <c r="G959" s="6"/>
@@ -29682,7 +29684,7 @@
         <v>1738</v>
       </c>
       <c r="E962" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F962" s="6"/>
       <c r="G962" s="6"/>
@@ -29745,7 +29747,7 @@
         <v>1742</v>
       </c>
       <c r="E965" s="8">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="F965" s="6"/>
       <c r="G965" s="6"/>
@@ -30211,7 +30213,7 @@
         <v>1777</v>
       </c>
       <c r="E988" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F988" s="6"/>
       <c r="G988" s="6"/>
@@ -30251,7 +30253,7 @@
         <v>625</v>
       </c>
       <c r="E990" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F990" s="6"/>
       <c r="G990" s="6"/>
@@ -30557,7 +30559,7 @@
         <v>105</v>
       </c>
       <c r="E1005" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1005" s="6"/>
       <c r="G1005" s="6"/>
@@ -30697,7 +30699,7 @@
         <v>642</v>
       </c>
       <c r="E1012" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1012" s="6"/>
       <c r="G1012" s="6"/>
@@ -30777,7 +30779,7 @@
         <v>1824</v>
       </c>
       <c r="E1016" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1016" s="6"/>
       <c r="G1016" s="6"/>
@@ -30917,7 +30919,7 @@
         <v>1837</v>
       </c>
       <c r="E1023" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1023" s="6"/>
       <c r="G1023" s="6"/>
@@ -30977,7 +30979,7 @@
         <v>1842</v>
       </c>
       <c r="E1026" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1026" s="6"/>
       <c r="G1026" s="6"/>
@@ -31197,7 +31199,7 @@
         <v>54</v>
       </c>
       <c r="E1037" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1037" s="6"/>
       <c r="G1037" s="6"/>
@@ -31317,7 +31319,7 @@
         <v>223</v>
       </c>
       <c r="E1043" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1043" s="6"/>
       <c r="G1043" s="6"/>
@@ -31537,7 +31539,7 @@
         <v>1886</v>
       </c>
       <c r="E1054" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1054" s="6"/>
       <c r="G1054" s="6"/>
@@ -31577,7 +31579,7 @@
         <v>54</v>
       </c>
       <c r="E1056" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1056" s="6"/>
       <c r="G1056" s="6"/>
@@ -31697,7 +31699,7 @@
         <v>1901</v>
       </c>
       <c r="E1062" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1062" s="6"/>
       <c r="G1062" s="6"/>
@@ -31737,7 +31739,7 @@
         <v>1904</v>
       </c>
       <c r="E1064" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1064" s="6"/>
       <c r="G1064" s="6"/>
@@ -31857,7 +31859,7 @@
         <v>41</v>
       </c>
       <c r="E1070" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1070" s="6"/>
       <c r="G1070" s="6"/>
@@ -31877,7 +31879,7 @@
         <v>551</v>
       </c>
       <c r="E1071" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1071" s="6"/>
       <c r="G1071" s="6"/>
@@ -31897,7 +31899,7 @@
         <v>1830</v>
       </c>
       <c r="E1072" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1072" s="6"/>
       <c r="G1072" s="6"/>
@@ -31917,7 +31919,7 @@
         <v>74</v>
       </c>
       <c r="E1073" s="8">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1073" s="6"/>
       <c r="G1073" s="6"/>
@@ -32097,7 +32099,7 @@
         <v>1933</v>
       </c>
       <c r="E1082" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1082" s="6"/>
       <c r="G1082" s="6"/>
@@ -32237,7 +32239,7 @@
         <v>1946</v>
       </c>
       <c r="E1089" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1089" s="6"/>
       <c r="G1089" s="6"/>
@@ -32257,7 +32259,7 @@
         <v>19</v>
       </c>
       <c r="E1090" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1090" s="6"/>
       <c r="G1090" s="6"/>
@@ -32317,7 +32319,7 @@
         <v>1901</v>
       </c>
       <c r="E1093" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1093" s="6"/>
       <c r="G1093" s="6"/>
@@ -32357,7 +32359,7 @@
         <v>1956</v>
       </c>
       <c r="E1095" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1095" s="6"/>
       <c r="G1095" s="6"/>
@@ -32577,7 +32579,7 @@
         <v>392</v>
       </c>
       <c r="E1106" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1106" s="6"/>
       <c r="G1106" s="6"/>
@@ -32777,7 +32779,7 @@
         <v>507</v>
       </c>
       <c r="E1116" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1116" s="6"/>
       <c r="G1116" s="6"/>
@@ -32877,7 +32879,7 @@
         <v>2002</v>
       </c>
       <c r="E1121" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1121" s="6"/>
       <c r="G1121" s="6"/>
@@ -32937,7 +32939,7 @@
         <v>95</v>
       </c>
       <c r="E1124" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1124" s="6"/>
       <c r="G1124" s="6"/>
@@ -33117,7 +33119,7 @@
         <v>152</v>
       </c>
       <c r="E1133" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1133" s="6"/>
       <c r="G1133" s="6"/>
@@ -33497,7 +33499,7 @@
         <v>54</v>
       </c>
       <c r="E1152" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1152" s="6"/>
       <c r="G1152" s="6"/>
@@ -33537,7 +33539,7 @@
         <v>1487</v>
       </c>
       <c r="E1154" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1154" s="6"/>
       <c r="G1154" s="6"/>
@@ -33557,7 +33559,7 @@
         <v>2057</v>
       </c>
       <c r="E1155" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1155" s="6"/>
       <c r="G1155" s="6"/>
@@ -33577,7 +33579,7 @@
         <v>489</v>
       </c>
       <c r="E1156" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1156" s="6"/>
       <c r="G1156" s="6"/>
@@ -33717,7 +33719,7 @@
         <v>80</v>
       </c>
       <c r="E1163" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1163" s="6"/>
       <c r="G1163" s="6"/>
@@ -33897,7 +33899,7 @@
         <v>2084</v>
       </c>
       <c r="E1172" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1172" s="6"/>
       <c r="G1172" s="6"/>
@@ -33917,7 +33919,7 @@
         <v>2086</v>
       </c>
       <c r="E1173" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1173" s="6"/>
       <c r="G1173" s="6"/>
@@ -34097,7 +34099,7 @@
         <v>465</v>
       </c>
       <c r="E1182" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1182" s="6"/>
       <c r="G1182" s="6"/>
@@ -34137,7 +34139,7 @@
         <v>828</v>
       </c>
       <c r="E1184" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1184" s="6"/>
       <c r="G1184" s="6"/>
@@ -34297,7 +34299,7 @@
         <v>2119</v>
       </c>
       <c r="E1192" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1192" s="6"/>
       <c r="G1192" s="6"/>
@@ -34377,7 +34379,7 @@
         <v>2127</v>
       </c>
       <c r="E1196" s="8">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F1196" s="6"/>
       <c r="G1196" s="6"/>
@@ -34417,7 +34419,7 @@
         <v>2130</v>
       </c>
       <c r="E1198" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1198" s="6"/>
       <c r="G1198" s="6"/>
@@ -34537,7 +34539,7 @@
         <v>2142</v>
       </c>
       <c r="E1204" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1204" s="6"/>
       <c r="G1204" s="6"/>
@@ -34657,7 +34659,7 @@
         <v>2153</v>
       </c>
       <c r="E1210" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1210" s="6"/>
       <c r="G1210" s="6"/>
@@ -34757,7 +34759,7 @@
         <v>1409</v>
       </c>
       <c r="E1215" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1215" s="6"/>
       <c r="G1215" s="6"/>
@@ -34838,7 +34840,7 @@
         <v>2168</v>
       </c>
       <c r="E1219" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1219" s="6"/>
       <c r="G1219" s="6"/>
@@ -34859,7 +34861,7 @@
         <v>2170</v>
       </c>
       <c r="E1220" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1220" s="6"/>
       <c r="G1220" s="6"/>
@@ -35195,7 +35197,7 @@
         <v>662</v>
       </c>
       <c r="E1236" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1236" s="6"/>
       <c r="G1236" s="6"/>
@@ -35321,7 +35323,7 @@
         <v>2206</v>
       </c>
       <c r="E1242" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1242" s="6"/>
       <c r="G1242" s="6"/>
@@ -35426,7 +35428,7 @@
         <v>2215</v>
       </c>
       <c r="E1247" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1247" s="6"/>
       <c r="G1247" s="6"/>
@@ -35552,7 +35554,7 @@
         <v>2225</v>
       </c>
       <c r="E1253" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1253" s="6"/>
       <c r="G1253" s="6"/>
@@ -35657,7 +35659,7 @@
         <v>15</v>
       </c>
       <c r="E1258" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1258" s="6"/>
       <c r="G1258" s="6"/>
@@ -35699,7 +35701,7 @@
         <v>2236</v>
       </c>
       <c r="E1260" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1260" s="6"/>
       <c r="G1260" s="6"/>
@@ -35804,7 +35806,7 @@
         <v>2244</v>
       </c>
       <c r="E1265" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1265" s="6"/>
       <c r="G1265" s="6"/>
@@ -35951,7 +35953,7 @@
         <v>2256</v>
       </c>
       <c r="E1272" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1272" s="6"/>
       <c r="G1272" s="6"/>
@@ -36035,7 +36037,7 @@
         <v>2262</v>
       </c>
       <c r="E1276" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1276" s="6"/>
       <c r="G1276" s="6"/>
@@ -36203,7 +36205,7 @@
         <v>1352</v>
       </c>
       <c r="E1284" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1284" s="6"/>
       <c r="G1284" s="6"/>
@@ -36224,7 +36226,7 @@
         <v>2277</v>
       </c>
       <c r="E1285" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1285" s="6"/>
       <c r="G1285" s="6"/>
@@ -36245,7 +36247,7 @@
         <v>2279</v>
       </c>
       <c r="E1286" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1286" s="6"/>
       <c r="G1286" s="6"/>
@@ -36266,7 +36268,7 @@
         <v>2281</v>
       </c>
       <c r="E1287" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1287" s="6"/>
       <c r="G1287" s="6"/>
@@ -36287,7 +36289,7 @@
         <v>2282</v>
       </c>
       <c r="E1288" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1288" s="6"/>
       <c r="G1288" s="6"/>
@@ -36350,7 +36352,7 @@
         <v>2288</v>
       </c>
       <c r="E1291" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1291" s="6"/>
       <c r="G1291" s="6"/>
@@ -36392,7 +36394,7 @@
         <v>2286</v>
       </c>
       <c r="E1293" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1293" s="6"/>
       <c r="G1293" s="6"/>
@@ -36413,7 +36415,7 @@
         <v>1720</v>
       </c>
       <c r="E1294" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1294" s="6"/>
       <c r="G1294" s="6"/>
@@ -36434,7 +36436,7 @@
         <v>2293</v>
       </c>
       <c r="E1295" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1295" s="6"/>
       <c r="G1295" s="6"/>
@@ -36476,7 +36478,7 @@
         <v>2297</v>
       </c>
       <c r="E1297" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1297" s="6"/>
       <c r="G1297" s="6"/>
@@ -36497,7 +36499,7 @@
         <v>2299</v>
       </c>
       <c r="E1298" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1298" s="6"/>
       <c r="G1298" s="6"/>
@@ -36539,7 +36541,7 @@
         <v>2303</v>
       </c>
       <c r="E1300" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1300" s="6"/>
       <c r="G1300" s="6"/>
@@ -36623,7 +36625,7 @@
         <v>27</v>
       </c>
       <c r="E1304" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1304" s="6"/>
       <c r="G1304" s="6"/>
@@ -36752,7 +36754,7 @@
         <v>338</v>
       </c>
       <c r="E1310" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1310" s="6"/>
       <c r="G1310" s="6"/>
@@ -36878,7 +36880,7 @@
         <v>2332</v>
       </c>
       <c r="E1316" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1316" s="6"/>
       <c r="G1316" s="6"/>
@@ -37109,7 +37111,7 @@
         <v>21</v>
       </c>
       <c r="E1327" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1327" s="6"/>
       <c r="G1327" s="6"/>
@@ -37319,7 +37321,7 @@
         <v>321</v>
       </c>
       <c r="E1337" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1337" s="6"/>
       <c r="G1337" s="6"/>
@@ -37487,7 +37489,7 @@
         <v>2384</v>
       </c>
       <c r="E1345" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1345" s="6"/>
       <c r="G1345" s="6"/>
@@ -37613,7 +37615,7 @@
         <v>2393</v>
       </c>
       <c r="E1351" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1351" s="6"/>
       <c r="G1351" s="6"/>
@@ -37655,7 +37657,7 @@
         <v>2397</v>
       </c>
       <c r="E1353" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1353" s="6"/>
       <c r="G1353" s="6"/>
@@ -37739,7 +37741,7 @@
         <v>2404</v>
       </c>
       <c r="E1357" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1357" s="6"/>
       <c r="G1357" s="6"/>
@@ -37928,7 +37930,7 @@
         <v>288</v>
       </c>
       <c r="E1366" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1366" s="6"/>
       <c r="G1366" s="6"/>
@@ -38203,7 +38205,7 @@
         <v>2441</v>
       </c>
       <c r="E1379" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1379" s="6"/>
       <c r="G1379" s="6"/>
@@ -38476,7 +38478,7 @@
         <v>2426</v>
       </c>
       <c r="E1392" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1392" s="6"/>
       <c r="G1392" s="6"/>
@@ -38602,7 +38604,7 @@
         <v>2472</v>
       </c>
       <c r="E1398" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1398" s="6"/>
       <c r="G1398" s="6"/>
@@ -38833,7 +38835,7 @@
         <v>2492</v>
       </c>
       <c r="E1409" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1409" s="6"/>
       <c r="G1409" s="6"/>
@@ -38854,7 +38856,7 @@
         <v>2494</v>
       </c>
       <c r="E1410" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1410" s="6"/>
       <c r="G1410" s="6"/>
@@ -38917,7 +38919,7 @@
         <v>2499</v>
       </c>
       <c r="E1413" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1413" s="6"/>
       <c r="G1413" s="6"/>
@@ -39106,7 +39108,7 @@
         <v>15</v>
       </c>
       <c r="E1422" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1422" s="6"/>
       <c r="G1422" s="6"/>
@@ -39277,7 +39279,7 @@
         <v>2526</v>
       </c>
       <c r="E1430" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1430" s="6"/>
       <c r="G1430" s="6"/>
@@ -39319,7 +39321,7 @@
         <v>41</v>
       </c>
       <c r="E1432" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1432" s="6"/>
       <c r="G1432" s="6"/>
@@ -39340,7 +39342,7 @@
         <v>2531</v>
       </c>
       <c r="E1433" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1433" s="6"/>
       <c r="G1433" s="6"/>
@@ -39634,7 +39636,7 @@
         <v>2550</v>
       </c>
       <c r="E1447" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1447" s="6"/>
       <c r="G1447" s="6"/>
@@ -39718,7 +39720,7 @@
         <v>2557</v>
       </c>
       <c r="E1451" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1451" s="6"/>
       <c r="G1451" s="6"/>
@@ -39886,7 +39888,7 @@
         <v>2573</v>
       </c>
       <c r="E1459" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1459" s="6"/>
       <c r="G1459" s="6"/>
@@ -39928,7 +39930,7 @@
         <v>662</v>
       </c>
       <c r="E1461" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1461" s="6"/>
       <c r="G1461" s="6"/>
@@ -39970,7 +39972,7 @@
         <v>2578</v>
       </c>
       <c r="E1463" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1463" s="6"/>
       <c r="G1463" s="6"/>
@@ -40180,7 +40182,7 @@
         <v>2426</v>
       </c>
       <c r="E1473" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1473" s="6"/>
       <c r="G1473" s="6"/>
@@ -40201,7 +40203,7 @@
         <v>113</v>
       </c>
       <c r="E1474" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1474" s="6"/>
       <c r="G1474" s="6"/>
@@ -40264,7 +40266,7 @@
         <v>511</v>
       </c>
       <c r="E1477" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1477" s="6"/>
       <c r="G1477" s="6"/>
@@ -40285,7 +40287,7 @@
         <v>2601</v>
       </c>
       <c r="E1478" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1478" s="6"/>
       <c r="G1478" s="6"/>
@@ -40390,7 +40392,7 @@
         <v>2607</v>
       </c>
       <c r="E1483" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1483" s="6"/>
       <c r="G1483" s="6"/>
@@ -40474,7 +40476,7 @@
         <v>1000</v>
       </c>
       <c r="E1487" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1487" s="6"/>
       <c r="G1487" s="6"/>
@@ -40582,7 +40584,7 @@
         <v>2621</v>
       </c>
       <c r="E1492" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1492" s="6"/>
       <c r="G1492" s="6"/>
@@ -40771,7 +40773,7 @@
         <v>2638</v>
       </c>
       <c r="E1501" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1501" s="6"/>
       <c r="G1501" s="6"/>
@@ -41065,7 +41067,7 @@
         <v>1487</v>
       </c>
       <c r="E1515" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1515" s="6"/>
       <c r="G1515" s="6"/>
@@ -41107,7 +41109,7 @@
         <v>2665</v>
       </c>
       <c r="E1517" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1517" s="6"/>
       <c r="G1517" s="6"/>
@@ -41128,7 +41130,7 @@
         <v>2667</v>
       </c>
       <c r="E1518" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1518" s="6"/>
       <c r="G1518" s="6"/>
@@ -41254,7 +41256,7 @@
         <v>2678</v>
       </c>
       <c r="E1524" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1524" s="6"/>
       <c r="G1524" s="6"/>
@@ -41380,7 +41382,7 @@
         <v>2687</v>
       </c>
       <c r="E1530" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1530" s="6"/>
       <c r="G1530" s="6"/>
@@ -41443,7 +41445,7 @@
         <v>507</v>
       </c>
       <c r="E1533" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1533" s="6"/>
       <c r="G1533" s="6"/>
@@ -41464,7 +41466,7 @@
         <v>2694</v>
       </c>
       <c r="E1534" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1534" s="6"/>
       <c r="G1534" s="6"/>
@@ -41506,7 +41508,7 @@
         <v>2698</v>
       </c>
       <c r="E1536" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1536" s="6"/>
       <c r="G1536" s="6"/>
@@ -41617,7 +41619,7 @@
         <v>2705</v>
       </c>
       <c r="E1541" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1541" s="6"/>
       <c r="G1541" s="6"/>
@@ -41701,7 +41703,7 @@
         <v>1352</v>
       </c>
       <c r="E1545" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1545" s="6"/>
       <c r="G1545" s="6"/>
@@ -41743,7 +41745,7 @@
         <v>662</v>
       </c>
       <c r="E1547" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1547" s="6"/>
       <c r="G1547" s="6"/>
@@ -41806,7 +41808,7 @@
         <v>19</v>
       </c>
       <c r="E1550" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1550" s="6"/>
       <c r="G1550" s="6"/>
@@ -41869,7 +41871,7 @@
         <v>2721</v>
       </c>
       <c r="E1553" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1553" s="6"/>
       <c r="G1553" s="6"/>
@@ -41911,7 +41913,7 @@
         <v>828</v>
       </c>
       <c r="E1555" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1555" s="6"/>
       <c r="G1555" s="6"/>
@@ -42121,7 +42123,7 @@
         <v>2743</v>
       </c>
       <c r="E1565" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1565" s="6"/>
       <c r="G1565" s="6"/>
@@ -42226,7 +42228,7 @@
         <v>2752</v>
       </c>
       <c r="E1570" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1570" s="6"/>
       <c r="G1570" s="6"/>
@@ -42289,7 +42291,7 @@
         <v>54</v>
       </c>
       <c r="E1573" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1573" s="6"/>
       <c r="G1573" s="6"/>
@@ -42373,7 +42375,7 @@
         <v>76</v>
       </c>
       <c r="E1577" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1577" s="6"/>
       <c r="G1577" s="6"/>
@@ -42394,7 +42396,7 @@
         <v>2763</v>
       </c>
       <c r="E1578" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1578" s="6"/>
       <c r="G1578" s="6"/>
@@ -42520,7 +42522,7 @@
         <v>2774</v>
       </c>
       <c r="E1584" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1584" s="6"/>
       <c r="G1584" s="6"/>
@@ -42583,7 +42585,7 @@
         <v>2779</v>
       </c>
       <c r="E1587" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1587" s="6"/>
       <c r="G1587" s="6"/>
@@ -42961,7 +42963,7 @@
         <v>489</v>
       </c>
       <c r="E1605" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1605" s="6"/>
       <c r="G1605" s="6"/>
@@ -43024,7 +43026,7 @@
         <v>2815</v>
       </c>
       <c r="E1608" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1608" s="6"/>
       <c r="G1608" s="6"/>
@@ -43045,7 +43047,7 @@
         <v>277</v>
       </c>
       <c r="E1609" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1609" s="6"/>
       <c r="G1609" s="6"/>
@@ -43171,7 +43173,7 @@
         <v>2826</v>
       </c>
       <c r="E1615" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1615" s="6"/>
       <c r="G1615" s="6"/>
@@ -43360,7 +43362,7 @@
         <v>2840</v>
       </c>
       <c r="E1624" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1624" s="6"/>
       <c r="G1624" s="6"/>
@@ -43402,7 +43404,7 @@
         <v>2844</v>
       </c>
       <c r="E1626" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1626" s="6"/>
       <c r="G1626" s="6"/>
@@ -43423,7 +43425,7 @@
         <v>788</v>
       </c>
       <c r="E1627" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1627" s="6"/>
       <c r="G1627" s="6"/>
@@ -43444,7 +43446,7 @@
         <v>2847</v>
       </c>
       <c r="E1628" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1628" s="6"/>
       <c r="G1628" s="6"/>
@@ -43465,7 +43467,7 @@
         <v>662</v>
       </c>
       <c r="E1629" s="8">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1629" s="6"/>
       <c r="G1629" s="6"/>
@@ -43675,7 +43677,7 @@
         <v>371</v>
       </c>
       <c r="E1639" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1639" s="6"/>
       <c r="G1639" s="6"/>
@@ -43696,7 +43698,7 @@
         <v>1564</v>
       </c>
       <c r="E1640" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1640" s="6"/>
       <c r="G1640" s="6"/>
@@ -43717,7 +43719,7 @@
         <v>2868</v>
       </c>
       <c r="E1641" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1641" s="6"/>
       <c r="G1641" s="6"/>
@@ -43759,7 +43761,7 @@
         <v>2872</v>
       </c>
       <c r="E1643" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1643" s="26" t="s">
         <v>0</v>
@@ -43824,7 +43826,7 @@
         <v>2877</v>
       </c>
       <c r="E1646" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1646" s="6"/>
       <c r="G1646" s="6"/>
@@ -43929,7 +43931,7 @@
         <v>514</v>
       </c>
       <c r="E1651" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1651" s="6"/>
       <c r="G1651" s="6"/>
@@ -44013,7 +44015,7 @@
         <v>2891</v>
       </c>
       <c r="E1655" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1655" s="6"/>
       <c r="G1655" s="6"/>
@@ -44034,7 +44036,7 @@
         <v>2397</v>
       </c>
       <c r="E1656" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1656" s="6"/>
       <c r="G1656" s="6"/>
@@ -44076,7 +44078,7 @@
         <v>15</v>
       </c>
       <c r="E1658" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1658" s="6"/>
       <c r="G1658" s="6"/>
@@ -44097,7 +44099,7 @@
         <v>2397</v>
       </c>
       <c r="E1659" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1659" s="6"/>
       <c r="G1659" s="6"/>
@@ -44139,7 +44141,7 @@
         <v>2899</v>
       </c>
       <c r="E1661" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1661" s="6"/>
       <c r="G1661" s="6"/>
@@ -44160,7 +44162,7 @@
         <v>2112</v>
       </c>
       <c r="E1662" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1662" s="6"/>
       <c r="G1662" s="6"/>
@@ -44181,7 +44183,7 @@
         <v>2902</v>
       </c>
       <c r="E1663" s="8">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1663" s="6"/>
       <c r="G1663" s="6"/>
@@ -44265,7 +44267,7 @@
         <v>1583</v>
       </c>
       <c r="E1667" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1667" s="6"/>
       <c r="G1667" s="6"/>
@@ -44286,7 +44288,7 @@
         <v>118</v>
       </c>
       <c r="E1668" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1668" s="6"/>
       <c r="G1668" s="6"/>
@@ -44328,7 +44330,7 @@
         <v>21</v>
       </c>
       <c r="E1670" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1670" s="6"/>
       <c r="G1670" s="6"/>
@@ -44475,7 +44477,7 @@
         <v>2923</v>
       </c>
       <c r="E1677" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1677" s="6"/>
       <c r="G1677" s="6"/>
@@ -44580,7 +44582,7 @@
         <v>2931</v>
       </c>
       <c r="E1682" s="8">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1682" s="6"/>
       <c r="G1682" s="6"/>
@@ -44601,7 +44603,7 @@
         <v>2397</v>
       </c>
       <c r="E1683" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1683" s="6"/>
       <c r="G1683" s="6"/>
@@ -44748,7 +44750,7 @@
         <v>2944</v>
       </c>
       <c r="E1690" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1690" s="6"/>
       <c r="G1690" s="6"/>
@@ -44832,7 +44834,7 @@
         <v>2949</v>
       </c>
       <c r="E1694" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1694" s="6"/>
       <c r="G1694" s="6"/>
@@ -44916,7 +44918,7 @@
         <v>2955</v>
       </c>
       <c r="E1698" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1698" s="6"/>
       <c r="G1698" s="6"/>
@@ -44979,7 +44981,7 @@
         <v>2961</v>
       </c>
       <c r="E1701" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1701" s="6"/>
       <c r="G1701" s="6"/>
@@ -45105,7 +45107,7 @@
         <v>2970</v>
       </c>
       <c r="E1707" s="8">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1707" s="6"/>
       <c r="G1707" s="6"/>
@@ -45210,7 +45212,7 @@
         <v>2979</v>
       </c>
       <c r="E1712" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1712" s="6"/>
       <c r="G1712" s="6"/>
@@ -45399,7 +45401,7 @@
         <v>2992</v>
       </c>
       <c r="E1721" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1721" s="6"/>
       <c r="G1721" s="6"/>
@@ -45504,7 +45506,7 @@
         <v>3000</v>
       </c>
       <c r="E1726" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1726" s="6"/>
       <c r="G1726" s="6"/>
@@ -45693,7 +45695,7 @@
         <v>3015</v>
       </c>
       <c r="E1735" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1735" s="6"/>
       <c r="G1735" s="6"/>
@@ -45714,7 +45716,7 @@
         <v>3017</v>
       </c>
       <c r="E1736" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1736" s="6"/>
       <c r="G1736" s="6"/>
@@ -45861,7 +45863,7 @@
         <v>3028</v>
       </c>
       <c r="E1743" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1743" s="6"/>
       <c r="G1743" s="6"/>
@@ -45924,7 +45926,7 @@
         <v>1632</v>
       </c>
       <c r="E1746" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1746" s="6"/>
       <c r="G1746" s="6"/>
@@ -46365,7 +46367,7 @@
         <v>3072</v>
       </c>
       <c r="E1767" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1767" s="6"/>
       <c r="G1767" s="6"/>
@@ -46386,7 +46388,7 @@
         <v>3074</v>
       </c>
       <c r="E1768" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1768" s="6"/>
       <c r="G1768" s="6"/>
@@ -46533,7 +46535,7 @@
         <v>3084</v>
       </c>
       <c r="E1775" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1775" s="6"/>
       <c r="G1775" s="6"/>
@@ -46575,7 +46577,7 @@
         <v>41</v>
       </c>
       <c r="E1777" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1777" s="6"/>
       <c r="G1777" s="6"/>
@@ -46659,7 +46661,7 @@
         <v>3094</v>
       </c>
       <c r="E1781" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1781" s="6"/>
       <c r="G1781" s="6"/>
@@ -46827,7 +46829,7 @@
         <v>3108</v>
       </c>
       <c r="E1789" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1789" s="6"/>
       <c r="G1789" s="6"/>
@@ -46911,7 +46913,7 @@
         <v>925</v>
       </c>
       <c r="E1793" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1793" s="6"/>
       <c r="G1793" s="6"/>
@@ -46995,7 +46997,7 @@
         <v>3122</v>
       </c>
       <c r="E1797" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1797" s="6"/>
       <c r="G1797" s="6"/>
@@ -47100,7 +47102,7 @@
         <v>3131</v>
       </c>
       <c r="E1802" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1802" s="6"/>
       <c r="G1802" s="6"/>
@@ -47184,7 +47186,7 @@
         <v>122</v>
       </c>
       <c r="E1806" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1806" s="6"/>
       <c r="G1806" s="6"/>
@@ -47205,7 +47207,7 @@
         <v>3139</v>
       </c>
       <c r="E1807" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1807" s="6"/>
       <c r="G1807" s="6"/>
@@ -47226,7 +47228,7 @@
         <v>3141</v>
       </c>
       <c r="E1808" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1808" s="6"/>
       <c r="G1808" s="6"/>
@@ -47247,7 +47249,7 @@
         <v>662</v>
       </c>
       <c r="E1809" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1809" s="6"/>
       <c r="G1809" s="6"/>
@@ -47268,7 +47270,7 @@
         <v>514</v>
       </c>
       <c r="E1810" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1810" s="6"/>
       <c r="G1810" s="6"/>
@@ -47289,7 +47291,7 @@
         <v>3145</v>
       </c>
       <c r="E1811" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1811" s="6"/>
       <c r="G1811" s="6"/>
@@ -47310,7 +47312,7 @@
         <v>35</v>
       </c>
       <c r="E1812" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1812" s="6"/>
       <c r="G1812" s="6"/>
@@ -47331,7 +47333,7 @@
         <v>21</v>
       </c>
       <c r="E1813" s="8">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1813" s="6"/>
       <c r="G1813" s="6"/>
@@ -47373,7 +47375,7 @@
         <v>3151</v>
       </c>
       <c r="E1815" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1815" s="6"/>
       <c r="G1815" s="6"/>
@@ -47394,7 +47396,7 @@
         <v>3153</v>
       </c>
       <c r="E1816" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1816" s="6"/>
       <c r="G1816" s="6"/>
@@ -47415,7 +47417,7 @@
         <v>1845</v>
       </c>
       <c r="E1817" s="8">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1817" s="6"/>
       <c r="G1817" s="6"/>
@@ -47961,7 +47963,7 @@
         <v>118</v>
       </c>
       <c r="E1843" s="8">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1843" s="6"/>
       <c r="G1843" s="6"/>
@@ -48066,7 +48068,7 @@
         <v>3209</v>
       </c>
       <c r="E1848" s="8">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1848" s="30"/>
       <c r="G1848" s="30"/>
@@ -48087,7 +48089,7 @@
         <v>3211</v>
       </c>
       <c r="E1849" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1849" s="30"/>
       <c r="G1849" s="30"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,30 +8,6 @@
   <definedNames/>
   <calcPr/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A2">
-      <text>
-        <t xml:space="preserve">daily submission record
-https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing
-	-SAPTARSHI CHATTERJEE</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A1">
-      <text>
-        <t xml:space="preserve">All days submission data 
-https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing
-	-SAPTARSHI CHATTERJEE</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10541,7 +10517,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -10641,7 +10617,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -10761,7 +10737,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10781,7 +10757,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10801,7 +10777,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -10821,7 +10797,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -10861,7 +10837,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -10881,7 +10857,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -10921,7 +10897,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -10941,7 +10917,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11061,7 +11037,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -11141,7 +11117,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11181,7 +11157,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11221,7 +11197,7 @@
         <v>84</v>
       </c>
       <c r="E42" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11281,7 +11257,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11341,7 +11317,7 @@
         <v>95</v>
       </c>
       <c r="E48" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -11521,7 +11497,7 @@
         <v>113</v>
       </c>
       <c r="E57" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -11581,7 +11557,7 @@
         <v>118</v>
       </c>
       <c r="E60" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -11602,7 +11578,7 @@
       </c>
       <c r="E61" s="13">
         <f>E60</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>0</v>
@@ -11684,7 +11660,7 @@
         <v>126</v>
       </c>
       <c r="E65" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -12024,7 +12000,7 @@
         <v>160</v>
       </c>
       <c r="E82" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -12524,7 +12500,7 @@
         <v>209</v>
       </c>
       <c r="E107" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -12727,7 +12703,7 @@
         <v>225</v>
       </c>
       <c r="E117" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -12787,7 +12763,7 @@
         <v>231</v>
       </c>
       <c r="E120" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -13007,7 +12983,7 @@
         <v>253</v>
       </c>
       <c r="E131" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -13067,7 +13043,7 @@
         <v>259</v>
       </c>
       <c r="E134" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -13107,7 +13083,7 @@
         <v>263</v>
       </c>
       <c r="E136" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -13127,7 +13103,7 @@
         <v>265</v>
       </c>
       <c r="E137" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -13307,7 +13283,7 @@
         <v>283</v>
       </c>
       <c r="E146" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -13327,7 +13303,7 @@
         <v>41</v>
       </c>
       <c r="E147" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -13447,7 +13423,7 @@
         <v>296</v>
       </c>
       <c r="E153" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -13507,7 +13483,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -13667,7 +13643,7 @@
         <v>317</v>
       </c>
       <c r="E164" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -13687,7 +13663,7 @@
         <v>319</v>
       </c>
       <c r="E165" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -14147,7 +14123,7 @@
         <v>361</v>
       </c>
       <c r="E188" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -14247,7 +14223,7 @@
         <v>371</v>
       </c>
       <c r="E193" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -14427,7 +14403,7 @@
         <v>386</v>
       </c>
       <c r="E202" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -14487,7 +14463,7 @@
         <v>392</v>
       </c>
       <c r="E205" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -14607,7 +14583,7 @@
         <v>404</v>
       </c>
       <c r="E211" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -14747,7 +14723,7 @@
         <v>105</v>
       </c>
       <c r="E218" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -14847,7 +14823,7 @@
         <v>425</v>
       </c>
       <c r="E223" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -14887,7 +14863,7 @@
         <v>429</v>
       </c>
       <c r="E225" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -14907,7 +14883,7 @@
         <v>431</v>
       </c>
       <c r="E226" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -14927,7 +14903,7 @@
         <v>433</v>
       </c>
       <c r="E227" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -15047,7 +15023,7 @@
         <v>445</v>
       </c>
       <c r="E233" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -15107,7 +15083,7 @@
         <v>451</v>
       </c>
       <c r="E236" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -15227,7 +15203,7 @@
         <v>463</v>
       </c>
       <c r="E242" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -15287,7 +15263,7 @@
         <v>469</v>
       </c>
       <c r="E245" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -15307,7 +15283,7 @@
         <v>471</v>
       </c>
       <c r="E246" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -15827,7 +15803,7 @@
         <v>518</v>
       </c>
       <c r="E272" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -15987,7 +15963,7 @@
         <v>223</v>
       </c>
       <c r="E280" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -16027,7 +16003,7 @@
         <v>535</v>
       </c>
       <c r="E282" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -16087,7 +16063,7 @@
         <v>541</v>
       </c>
       <c r="E285" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -16147,7 +16123,7 @@
         <v>223</v>
       </c>
       <c r="E288" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -16267,7 +16243,7 @@
         <v>553</v>
       </c>
       <c r="E294" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -16347,7 +16323,7 @@
         <v>560</v>
       </c>
       <c r="E298" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -16467,7 +16443,7 @@
         <v>223</v>
       </c>
       <c r="E304" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -16547,7 +16523,7 @@
         <v>576</v>
       </c>
       <c r="E308" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -16567,7 +16543,7 @@
         <v>578</v>
       </c>
       <c r="E309" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -16727,7 +16703,7 @@
         <v>41</v>
       </c>
       <c r="E317" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -16947,7 +16923,7 @@
         <v>613</v>
       </c>
       <c r="E328" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -17007,7 +16983,7 @@
         <v>619</v>
       </c>
       <c r="E331" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -17047,7 +17023,7 @@
         <v>609</v>
       </c>
       <c r="E333" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -17087,7 +17063,7 @@
         <v>625</v>
       </c>
       <c r="E335" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -17247,7 +17223,7 @@
         <v>636</v>
       </c>
       <c r="E343" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -17307,7 +17283,7 @@
         <v>642</v>
       </c>
       <c r="E346" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -17327,7 +17303,7 @@
         <v>644</v>
       </c>
       <c r="E347" s="19">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -17467,7 +17443,7 @@
         <v>656</v>
       </c>
       <c r="E354" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
@@ -17527,7 +17503,7 @@
         <v>54</v>
       </c>
       <c r="E357" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
@@ -17727,7 +17703,7 @@
         <v>679</v>
       </c>
       <c r="E367" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -18007,7 +17983,7 @@
         <v>705</v>
       </c>
       <c r="E381" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -18087,7 +18063,7 @@
         <v>27</v>
       </c>
       <c r="E385" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -18247,7 +18223,7 @@
         <v>503</v>
       </c>
       <c r="E393" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -18267,7 +18243,7 @@
         <v>727</v>
       </c>
       <c r="E394" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
@@ -18530,7 +18506,7 @@
         <v>750</v>
       </c>
       <c r="E407" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -18771,7 +18747,7 @@
       </c>
       <c r="E419" s="13">
         <f>E20</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F419" s="21" t="s">
         <v>0</v>
@@ -18813,7 +18789,7 @@
         <v>776</v>
       </c>
       <c r="E421" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -18833,7 +18809,7 @@
         <v>778</v>
       </c>
       <c r="E422" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -18873,7 +18849,7 @@
         <v>782</v>
       </c>
       <c r="E424" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -18893,7 +18869,7 @@
         <v>784</v>
       </c>
       <c r="E425" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -19033,7 +19009,7 @@
         <v>798</v>
       </c>
       <c r="E432" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -19236,7 +19212,7 @@
         <v>223</v>
       </c>
       <c r="E442" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
@@ -19319,7 +19295,7 @@
         <v>319</v>
       </c>
       <c r="E446" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -19419,7 +19395,7 @@
         <v>828</v>
       </c>
       <c r="E451" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -19539,7 +19515,7 @@
         <v>838</v>
       </c>
       <c r="E457" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -19639,7 +19615,7 @@
         <v>847</v>
       </c>
       <c r="E462" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -19739,7 +19715,7 @@
         <v>857</v>
       </c>
       <c r="E467" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -19759,7 +19735,7 @@
         <v>859</v>
       </c>
       <c r="E468" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -19779,7 +19755,7 @@
         <v>288</v>
       </c>
       <c r="E469" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -19859,7 +19835,7 @@
         <v>867</v>
       </c>
       <c r="E473" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -19879,7 +19855,7 @@
         <v>35</v>
       </c>
       <c r="E474" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
@@ -19999,7 +19975,7 @@
         <v>879</v>
       </c>
       <c r="E480" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
@@ -20019,7 +19995,7 @@
         <v>758</v>
       </c>
       <c r="E481" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -20159,7 +20135,7 @@
         <v>892</v>
       </c>
       <c r="E488" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -20239,7 +20215,7 @@
         <v>267</v>
       </c>
       <c r="E492" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F492" s="6"/>
       <c r="G492" s="6"/>
@@ -20299,7 +20275,7 @@
         <v>419</v>
       </c>
       <c r="E495" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -20419,7 +20395,7 @@
         <v>914</v>
       </c>
       <c r="E501" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -20539,7 +20515,7 @@
         <v>925</v>
       </c>
       <c r="E507" s="8">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -20559,7 +20535,7 @@
         <v>927</v>
       </c>
       <c r="E508" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -20659,7 +20635,7 @@
         <v>937</v>
       </c>
       <c r="E513" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -20759,7 +20735,7 @@
         <v>947</v>
       </c>
       <c r="E518" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -20799,7 +20775,7 @@
         <v>951</v>
       </c>
       <c r="E520" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
@@ -21059,7 +21035,7 @@
         <v>974</v>
       </c>
       <c r="E533" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -21099,7 +21075,7 @@
         <v>977</v>
       </c>
       <c r="E535" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
@@ -21119,7 +21095,7 @@
         <v>979</v>
       </c>
       <c r="E536" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
@@ -21362,7 +21338,7 @@
         <v>1000</v>
       </c>
       <c r="E548" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
@@ -21422,7 +21398,7 @@
         <v>578</v>
       </c>
       <c r="E551" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -21502,7 +21478,7 @@
         <v>1013</v>
       </c>
       <c r="E555" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
@@ -21542,7 +21518,7 @@
         <v>1016</v>
       </c>
       <c r="E557" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
@@ -21562,7 +21538,7 @@
         <v>1018</v>
       </c>
       <c r="E558" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
@@ -21602,7 +21578,7 @@
         <v>609</v>
       </c>
       <c r="E560" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
@@ -21662,7 +21638,7 @@
         <v>1026</v>
       </c>
       <c r="E563" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
@@ -21742,7 +21718,7 @@
         <v>1034</v>
       </c>
       <c r="E567" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
@@ -22025,7 +22001,7 @@
         <v>1059</v>
       </c>
       <c r="E581" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -22085,7 +22061,7 @@
         <v>1065</v>
       </c>
       <c r="E584" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
@@ -22145,7 +22121,7 @@
         <v>1071</v>
       </c>
       <c r="E587" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
@@ -22245,7 +22221,7 @@
         <v>509</v>
       </c>
       <c r="E592" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
@@ -22345,7 +22321,7 @@
         <v>1087</v>
       </c>
       <c r="E597" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
@@ -22485,7 +22461,7 @@
         <v>1100</v>
       </c>
       <c r="E604" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -22548,7 +22524,7 @@
         <v>1103</v>
       </c>
       <c r="E607" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
@@ -22608,7 +22584,7 @@
         <v>1109</v>
       </c>
       <c r="E610" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
@@ -22648,7 +22624,7 @@
         <v>1112</v>
       </c>
       <c r="E612" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
@@ -23011,7 +22987,7 @@
         <v>1147</v>
       </c>
       <c r="E630" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
@@ -23132,7 +23108,7 @@
       </c>
       <c r="E636" s="23">
         <f>E57</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F636" s="20" t="s">
         <v>0</v>
@@ -23458,7 +23434,7 @@
       </c>
       <c r="E652" s="13">
         <f>E42</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F652" s="21" t="s">
         <v>0</v>
@@ -23540,7 +23516,7 @@
         <v>582</v>
       </c>
       <c r="E656" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F656" s="6"/>
       <c r="G656" s="6"/>
@@ -23580,7 +23556,7 @@
         <v>223</v>
       </c>
       <c r="E658" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
@@ -23643,7 +23619,7 @@
         <v>1199</v>
       </c>
       <c r="E661" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
@@ -23703,7 +23679,7 @@
         <v>1205</v>
       </c>
       <c r="E664" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F664" s="6"/>
       <c r="G664" s="6"/>
@@ -23783,7 +23759,7 @@
         <v>1212</v>
       </c>
       <c r="E668" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
@@ -23843,7 +23819,7 @@
         <v>1218</v>
       </c>
       <c r="E671" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
@@ -23863,7 +23839,7 @@
         <v>1220</v>
       </c>
       <c r="E672" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F672" s="6"/>
       <c r="G672" s="6"/>
@@ -23943,7 +23919,7 @@
         <v>1228</v>
       </c>
       <c r="E676" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F676" s="6"/>
       <c r="G676" s="6"/>
@@ -23963,7 +23939,7 @@
         <v>1230</v>
       </c>
       <c r="E677" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
@@ -24043,7 +24019,7 @@
         <v>1237</v>
       </c>
       <c r="E681" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
@@ -24103,7 +24079,7 @@
         <v>1242</v>
       </c>
       <c r="E684" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F684" s="6"/>
       <c r="G684" s="6"/>
@@ -24303,7 +24279,7 @@
         <v>1260</v>
       </c>
       <c r="E694" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F694" s="6"/>
       <c r="G694" s="6"/>
@@ -24403,7 +24379,7 @@
         <v>1270</v>
       </c>
       <c r="E699" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
@@ -24483,7 +24459,7 @@
         <v>1278</v>
       </c>
       <c r="E703" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
@@ -24743,7 +24719,7 @@
         <v>1300</v>
       </c>
       <c r="E716" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F716" s="6"/>
       <c r="G716" s="6"/>
@@ -24823,7 +24799,7 @@
         <v>1307</v>
       </c>
       <c r="E720" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F720" s="6"/>
       <c r="G720" s="6"/>
@@ -24843,7 +24819,7 @@
         <v>1309</v>
       </c>
       <c r="E721" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
@@ -24983,7 +24959,7 @@
         <v>863</v>
       </c>
       <c r="E728" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F728" s="6"/>
       <c r="G728" s="6"/>
@@ -25283,7 +25259,7 @@
         <v>1347</v>
       </c>
       <c r="E743" s="8">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
@@ -25543,7 +25519,7 @@
         <v>1370</v>
       </c>
       <c r="E756" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F756" s="6"/>
       <c r="G756" s="6"/>
@@ -25666,7 +25642,7 @@
         <v>1381</v>
       </c>
       <c r="E762" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
@@ -25767,7 +25743,7 @@
       </c>
       <c r="E767" s="13">
         <f>E13</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F767" s="21" t="s">
         <v>0</v>
@@ -25849,7 +25825,7 @@
         <v>1397</v>
       </c>
       <c r="E771" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
@@ -26052,7 +26028,7 @@
         <v>912</v>
       </c>
       <c r="E781" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
@@ -26072,7 +26048,7 @@
         <v>1414</v>
       </c>
       <c r="E782" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
@@ -26253,7 +26229,7 @@
       </c>
       <c r="E791" s="13">
         <f>E34</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F791" s="26" t="s">
         <v>0</v>
@@ -26436,7 +26412,7 @@
       </c>
       <c r="E800" s="13">
         <f>E38</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F800" s="21" t="s">
         <v>0</v>
@@ -26778,7 +26754,7 @@
         <v>1480</v>
       </c>
       <c r="E817" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F817" s="6"/>
       <c r="G817" s="6"/>
@@ -26998,7 +26974,7 @@
         <v>1498</v>
       </c>
       <c r="E828" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F828" s="6"/>
       <c r="G828" s="6"/>
@@ -27018,7 +26994,7 @@
         <v>54</v>
       </c>
       <c r="E829" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
@@ -27038,7 +27014,7 @@
         <v>1501</v>
       </c>
       <c r="E830" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F830" s="6"/>
       <c r="G830" s="6"/>
@@ -27198,7 +27174,7 @@
         <v>1516</v>
       </c>
       <c r="E838" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F838" s="6"/>
       <c r="G838" s="6"/>
@@ -27258,7 +27234,7 @@
         <v>1522</v>
       </c>
       <c r="E841" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
@@ -27378,7 +27354,7 @@
         <v>1534</v>
       </c>
       <c r="E847" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
@@ -27638,7 +27614,7 @@
         <v>35</v>
       </c>
       <c r="E860" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F860" s="6"/>
       <c r="G860" s="6"/>
@@ -27678,7 +27654,7 @@
         <v>1560</v>
       </c>
       <c r="E862" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F862" s="6"/>
       <c r="G862" s="6"/>
@@ -28418,7 +28394,7 @@
         <v>1623</v>
       </c>
       <c r="E899" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F899" s="6"/>
       <c r="G899" s="6"/>
@@ -28458,7 +28434,7 @@
         <v>1627</v>
       </c>
       <c r="E901" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F901" s="6"/>
       <c r="G901" s="6"/>
@@ -28538,7 +28514,7 @@
         <v>625</v>
       </c>
       <c r="E905" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
@@ -28658,7 +28634,7 @@
         <v>1644</v>
       </c>
       <c r="E911" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
@@ -28678,7 +28654,7 @@
         <v>1646</v>
       </c>
       <c r="E912" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F912" s="6"/>
       <c r="G912" s="6"/>
@@ -28698,7 +28674,7 @@
         <v>1648</v>
       </c>
       <c r="E913" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F913" s="6"/>
       <c r="G913" s="6"/>
@@ -28838,7 +28814,7 @@
         <v>1662</v>
       </c>
       <c r="E920" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F920" s="6"/>
       <c r="G920" s="6"/>
@@ -28878,7 +28854,7 @@
         <v>1666</v>
       </c>
       <c r="E922" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F922" s="6"/>
       <c r="G922" s="6"/>
@@ -28959,7 +28935,7 @@
       </c>
       <c r="E926" s="13">
         <f>E309</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F926" s="21" t="s">
         <v>0</v>
@@ -29061,7 +29037,7 @@
         <v>786</v>
       </c>
       <c r="E931" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
@@ -29201,7 +29177,7 @@
         <v>1693</v>
       </c>
       <c r="E938" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F938" s="6"/>
       <c r="G938" s="6"/>
@@ -29384,7 +29360,7 @@
         <v>1710</v>
       </c>
       <c r="E947" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
@@ -29444,7 +29420,7 @@
         <v>1715</v>
       </c>
       <c r="E950" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F950" s="6"/>
       <c r="G950" s="6"/>
@@ -29624,7 +29600,7 @@
         <v>1732</v>
       </c>
       <c r="E959" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F959" s="6"/>
       <c r="G959" s="6"/>
@@ -29684,7 +29660,7 @@
         <v>1738</v>
       </c>
       <c r="E962" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F962" s="6"/>
       <c r="G962" s="6"/>
@@ -29747,7 +29723,7 @@
         <v>1742</v>
       </c>
       <c r="E965" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F965" s="6"/>
       <c r="G965" s="6"/>
@@ -30213,7 +30189,7 @@
         <v>1777</v>
       </c>
       <c r="E988" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F988" s="6"/>
       <c r="G988" s="6"/>
@@ -30253,7 +30229,7 @@
         <v>625</v>
       </c>
       <c r="E990" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F990" s="6"/>
       <c r="G990" s="6"/>
@@ -30559,7 +30535,7 @@
         <v>105</v>
       </c>
       <c r="E1005" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1005" s="6"/>
       <c r="G1005" s="6"/>
@@ -30699,7 +30675,7 @@
         <v>642</v>
       </c>
       <c r="E1012" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1012" s="6"/>
       <c r="G1012" s="6"/>
@@ -30779,7 +30755,7 @@
         <v>1824</v>
       </c>
       <c r="E1016" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1016" s="6"/>
       <c r="G1016" s="6"/>
@@ -30919,7 +30895,7 @@
         <v>1837</v>
       </c>
       <c r="E1023" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1023" s="6"/>
       <c r="G1023" s="6"/>
@@ -30979,7 +30955,7 @@
         <v>1842</v>
       </c>
       <c r="E1026" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1026" s="6"/>
       <c r="G1026" s="6"/>
@@ -31199,7 +31175,7 @@
         <v>54</v>
       </c>
       <c r="E1037" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1037" s="6"/>
       <c r="G1037" s="6"/>
@@ -31319,7 +31295,7 @@
         <v>223</v>
       </c>
       <c r="E1043" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1043" s="6"/>
       <c r="G1043" s="6"/>
@@ -31539,7 +31515,7 @@
         <v>1886</v>
       </c>
       <c r="E1054" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1054" s="6"/>
       <c r="G1054" s="6"/>
@@ -31579,7 +31555,7 @@
         <v>54</v>
       </c>
       <c r="E1056" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1056" s="6"/>
       <c r="G1056" s="6"/>
@@ -31699,7 +31675,7 @@
         <v>1901</v>
       </c>
       <c r="E1062" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1062" s="6"/>
       <c r="G1062" s="6"/>
@@ -31739,7 +31715,7 @@
         <v>1904</v>
       </c>
       <c r="E1064" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1064" s="6"/>
       <c r="G1064" s="6"/>
@@ -31859,7 +31835,7 @@
         <v>41</v>
       </c>
       <c r="E1070" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1070" s="6"/>
       <c r="G1070" s="6"/>
@@ -31879,7 +31855,7 @@
         <v>551</v>
       </c>
       <c r="E1071" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1071" s="6"/>
       <c r="G1071" s="6"/>
@@ -31899,7 +31875,7 @@
         <v>1830</v>
       </c>
       <c r="E1072" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1072" s="6"/>
       <c r="G1072" s="6"/>
@@ -31919,7 +31895,7 @@
         <v>74</v>
       </c>
       <c r="E1073" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1073" s="6"/>
       <c r="G1073" s="6"/>
@@ -32099,7 +32075,7 @@
         <v>1933</v>
       </c>
       <c r="E1082" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1082" s="6"/>
       <c r="G1082" s="6"/>
@@ -32239,7 +32215,7 @@
         <v>1946</v>
       </c>
       <c r="E1089" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1089" s="6"/>
       <c r="G1089" s="6"/>
@@ -32259,7 +32235,7 @@
         <v>19</v>
       </c>
       <c r="E1090" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1090" s="6"/>
       <c r="G1090" s="6"/>
@@ -32319,7 +32295,7 @@
         <v>1901</v>
       </c>
       <c r="E1093" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1093" s="6"/>
       <c r="G1093" s="6"/>
@@ -32359,7 +32335,7 @@
         <v>1956</v>
       </c>
       <c r="E1095" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1095" s="6"/>
       <c r="G1095" s="6"/>
@@ -32579,7 +32555,7 @@
         <v>392</v>
       </c>
       <c r="E1106" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1106" s="6"/>
       <c r="G1106" s="6"/>
@@ -32779,7 +32755,7 @@
         <v>507</v>
       </c>
       <c r="E1116" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1116" s="6"/>
       <c r="G1116" s="6"/>
@@ -32879,7 +32855,7 @@
         <v>2002</v>
       </c>
       <c r="E1121" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1121" s="6"/>
       <c r="G1121" s="6"/>
@@ -32939,7 +32915,7 @@
         <v>95</v>
       </c>
       <c r="E1124" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1124" s="6"/>
       <c r="G1124" s="6"/>
@@ -33119,7 +33095,7 @@
         <v>152</v>
       </c>
       <c r="E1133" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1133" s="6"/>
       <c r="G1133" s="6"/>
@@ -33499,7 +33475,7 @@
         <v>54</v>
       </c>
       <c r="E1152" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1152" s="6"/>
       <c r="G1152" s="6"/>
@@ -33539,7 +33515,7 @@
         <v>1487</v>
       </c>
       <c r="E1154" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1154" s="6"/>
       <c r="G1154" s="6"/>
@@ -33559,7 +33535,7 @@
         <v>2057</v>
       </c>
       <c r="E1155" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1155" s="6"/>
       <c r="G1155" s="6"/>
@@ -33579,7 +33555,7 @@
         <v>489</v>
       </c>
       <c r="E1156" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1156" s="6"/>
       <c r="G1156" s="6"/>
@@ -33719,7 +33695,7 @@
         <v>80</v>
       </c>
       <c r="E1163" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1163" s="6"/>
       <c r="G1163" s="6"/>
@@ -33899,7 +33875,7 @@
         <v>2084</v>
       </c>
       <c r="E1172" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1172" s="6"/>
       <c r="G1172" s="6"/>
@@ -33919,7 +33895,7 @@
         <v>2086</v>
       </c>
       <c r="E1173" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1173" s="6"/>
       <c r="G1173" s="6"/>
@@ -34099,7 +34075,7 @@
         <v>465</v>
       </c>
       <c r="E1182" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1182" s="6"/>
       <c r="G1182" s="6"/>
@@ -34139,7 +34115,7 @@
         <v>828</v>
       </c>
       <c r="E1184" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1184" s="6"/>
       <c r="G1184" s="6"/>
@@ -34299,7 +34275,7 @@
         <v>2119</v>
       </c>
       <c r="E1192" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1192" s="6"/>
       <c r="G1192" s="6"/>
@@ -34379,7 +34355,7 @@
         <v>2127</v>
       </c>
       <c r="E1196" s="8">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F1196" s="6"/>
       <c r="G1196" s="6"/>
@@ -34419,7 +34395,7 @@
         <v>2130</v>
       </c>
       <c r="E1198" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1198" s="6"/>
       <c r="G1198" s="6"/>
@@ -34539,7 +34515,7 @@
         <v>2142</v>
       </c>
       <c r="E1204" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1204" s="6"/>
       <c r="G1204" s="6"/>
@@ -34659,7 +34635,7 @@
         <v>2153</v>
       </c>
       <c r="E1210" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1210" s="6"/>
       <c r="G1210" s="6"/>
@@ -34759,7 +34735,7 @@
         <v>1409</v>
       </c>
       <c r="E1215" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1215" s="6"/>
       <c r="G1215" s="6"/>
@@ -34840,7 +34816,7 @@
         <v>2168</v>
       </c>
       <c r="E1219" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1219" s="6"/>
       <c r="G1219" s="6"/>
@@ -34861,7 +34837,7 @@
         <v>2170</v>
       </c>
       <c r="E1220" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1220" s="6"/>
       <c r="G1220" s="6"/>
@@ -35197,7 +35173,7 @@
         <v>662</v>
       </c>
       <c r="E1236" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1236" s="6"/>
       <c r="G1236" s="6"/>
@@ -35323,7 +35299,7 @@
         <v>2206</v>
       </c>
       <c r="E1242" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1242" s="6"/>
       <c r="G1242" s="6"/>
@@ -35428,7 +35404,7 @@
         <v>2215</v>
       </c>
       <c r="E1247" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1247" s="6"/>
       <c r="G1247" s="6"/>
@@ -35554,7 +35530,7 @@
         <v>2225</v>
       </c>
       <c r="E1253" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1253" s="6"/>
       <c r="G1253" s="6"/>
@@ -35659,7 +35635,7 @@
         <v>15</v>
       </c>
       <c r="E1258" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1258" s="6"/>
       <c r="G1258" s="6"/>
@@ -35701,7 +35677,7 @@
         <v>2236</v>
       </c>
       <c r="E1260" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1260" s="6"/>
       <c r="G1260" s="6"/>
@@ -35806,7 +35782,7 @@
         <v>2244</v>
       </c>
       <c r="E1265" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1265" s="6"/>
       <c r="G1265" s="6"/>
@@ -35953,7 +35929,7 @@
         <v>2256</v>
       </c>
       <c r="E1272" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1272" s="6"/>
       <c r="G1272" s="6"/>
@@ -36037,7 +36013,7 @@
         <v>2262</v>
       </c>
       <c r="E1276" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1276" s="6"/>
       <c r="G1276" s="6"/>
@@ -36205,7 +36181,7 @@
         <v>1352</v>
       </c>
       <c r="E1284" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1284" s="6"/>
       <c r="G1284" s="6"/>
@@ -36226,7 +36202,7 @@
         <v>2277</v>
       </c>
       <c r="E1285" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1285" s="6"/>
       <c r="G1285" s="6"/>
@@ -36247,7 +36223,7 @@
         <v>2279</v>
       </c>
       <c r="E1286" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1286" s="6"/>
       <c r="G1286" s="6"/>
@@ -36268,7 +36244,7 @@
         <v>2281</v>
       </c>
       <c r="E1287" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1287" s="6"/>
       <c r="G1287" s="6"/>
@@ -36289,7 +36265,7 @@
         <v>2282</v>
       </c>
       <c r="E1288" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1288" s="6"/>
       <c r="G1288" s="6"/>
@@ -36352,7 +36328,7 @@
         <v>2288</v>
       </c>
       <c r="E1291" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1291" s="6"/>
       <c r="G1291" s="6"/>
@@ -36394,7 +36370,7 @@
         <v>2286</v>
       </c>
       <c r="E1293" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1293" s="6"/>
       <c r="G1293" s="6"/>
@@ -36415,7 +36391,7 @@
         <v>1720</v>
       </c>
       <c r="E1294" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1294" s="6"/>
       <c r="G1294" s="6"/>
@@ -36436,7 +36412,7 @@
         <v>2293</v>
       </c>
       <c r="E1295" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1295" s="6"/>
       <c r="G1295" s="6"/>
@@ -36478,7 +36454,7 @@
         <v>2297</v>
       </c>
       <c r="E1297" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1297" s="6"/>
       <c r="G1297" s="6"/>
@@ -36499,7 +36475,7 @@
         <v>2299</v>
       </c>
       <c r="E1298" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1298" s="6"/>
       <c r="G1298" s="6"/>
@@ -36541,7 +36517,7 @@
         <v>2303</v>
       </c>
       <c r="E1300" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1300" s="6"/>
       <c r="G1300" s="6"/>
@@ -36625,7 +36601,7 @@
         <v>27</v>
       </c>
       <c r="E1304" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1304" s="6"/>
       <c r="G1304" s="6"/>
@@ -36754,7 +36730,7 @@
         <v>338</v>
       </c>
       <c r="E1310" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1310" s="6"/>
       <c r="G1310" s="6"/>
@@ -36880,7 +36856,7 @@
         <v>2332</v>
       </c>
       <c r="E1316" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1316" s="6"/>
       <c r="G1316" s="6"/>
@@ -37111,7 +37087,7 @@
         <v>21</v>
       </c>
       <c r="E1327" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1327" s="6"/>
       <c r="G1327" s="6"/>
@@ -37321,7 +37297,7 @@
         <v>321</v>
       </c>
       <c r="E1337" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1337" s="6"/>
       <c r="G1337" s="6"/>
@@ -37489,7 +37465,7 @@
         <v>2384</v>
       </c>
       <c r="E1345" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1345" s="6"/>
       <c r="G1345" s="6"/>
@@ -37615,7 +37591,7 @@
         <v>2393</v>
       </c>
       <c r="E1351" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1351" s="6"/>
       <c r="G1351" s="6"/>
@@ -37657,7 +37633,7 @@
         <v>2397</v>
       </c>
       <c r="E1353" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1353" s="6"/>
       <c r="G1353" s="6"/>
@@ -37741,7 +37717,7 @@
         <v>2404</v>
       </c>
       <c r="E1357" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1357" s="6"/>
       <c r="G1357" s="6"/>
@@ -37930,7 +37906,7 @@
         <v>288</v>
       </c>
       <c r="E1366" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1366" s="6"/>
       <c r="G1366" s="6"/>
@@ -38061,9 +38037,7 @@
       <c r="F1372" s="6"/>
       <c r="G1372" s="6"/>
       <c r="H1372" s="6"/>
-      <c r="I1372" s="28">
-        <v>4.0</v>
-      </c>
+      <c r="I1372" s="28"/>
       <c r="K1372" s="27"/>
     </row>
     <row r="1373" ht="14.25" customHeight="1">
@@ -38205,7 +38179,7 @@
         <v>2441</v>
       </c>
       <c r="E1379" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1379" s="6"/>
       <c r="G1379" s="6"/>
@@ -38478,7 +38452,7 @@
         <v>2426</v>
       </c>
       <c r="E1392" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1392" s="6"/>
       <c r="G1392" s="6"/>
@@ -38604,7 +38578,7 @@
         <v>2472</v>
       </c>
       <c r="E1398" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1398" s="6"/>
       <c r="G1398" s="6"/>
@@ -38835,7 +38809,7 @@
         <v>2492</v>
       </c>
       <c r="E1409" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1409" s="6"/>
       <c r="G1409" s="6"/>
@@ -38856,7 +38830,7 @@
         <v>2494</v>
       </c>
       <c r="E1410" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1410" s="6"/>
       <c r="G1410" s="6"/>
@@ -38919,7 +38893,7 @@
         <v>2499</v>
       </c>
       <c r="E1413" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1413" s="6"/>
       <c r="G1413" s="6"/>
@@ -39108,7 +39082,7 @@
         <v>15</v>
       </c>
       <c r="E1422" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1422" s="6"/>
       <c r="G1422" s="6"/>
@@ -39279,7 +39253,7 @@
         <v>2526</v>
       </c>
       <c r="E1430" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1430" s="6"/>
       <c r="G1430" s="6"/>
@@ -39321,7 +39295,7 @@
         <v>41</v>
       </c>
       <c r="E1432" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1432" s="6"/>
       <c r="G1432" s="6"/>
@@ -39342,7 +39316,7 @@
         <v>2531</v>
       </c>
       <c r="E1433" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1433" s="6"/>
       <c r="G1433" s="6"/>
@@ -39636,7 +39610,7 @@
         <v>2550</v>
       </c>
       <c r="E1447" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1447" s="6"/>
       <c r="G1447" s="6"/>
@@ -39720,7 +39694,7 @@
         <v>2557</v>
       </c>
       <c r="E1451" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1451" s="6"/>
       <c r="G1451" s="6"/>
@@ -39888,7 +39862,7 @@
         <v>2573</v>
       </c>
       <c r="E1459" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1459" s="6"/>
       <c r="G1459" s="6"/>
@@ -39930,7 +39904,7 @@
         <v>662</v>
       </c>
       <c r="E1461" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1461" s="6"/>
       <c r="G1461" s="6"/>
@@ -39972,7 +39946,7 @@
         <v>2578</v>
       </c>
       <c r="E1463" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1463" s="6"/>
       <c r="G1463" s="6"/>
@@ -40182,7 +40156,7 @@
         <v>2426</v>
       </c>
       <c r="E1473" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1473" s="6"/>
       <c r="G1473" s="6"/>
@@ -40203,7 +40177,7 @@
         <v>113</v>
       </c>
       <c r="E1474" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1474" s="6"/>
       <c r="G1474" s="6"/>
@@ -40266,7 +40240,7 @@
         <v>511</v>
       </c>
       <c r="E1477" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1477" s="6"/>
       <c r="G1477" s="6"/>
@@ -40287,7 +40261,7 @@
         <v>2601</v>
       </c>
       <c r="E1478" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1478" s="6"/>
       <c r="G1478" s="6"/>
@@ -40392,7 +40366,7 @@
         <v>2607</v>
       </c>
       <c r="E1483" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1483" s="6"/>
       <c r="G1483" s="6"/>
@@ -40476,7 +40450,7 @@
         <v>1000</v>
       </c>
       <c r="E1487" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1487" s="6"/>
       <c r="G1487" s="6"/>
@@ -40584,7 +40558,7 @@
         <v>2621</v>
       </c>
       <c r="E1492" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1492" s="6"/>
       <c r="G1492" s="6"/>
@@ -40773,7 +40747,7 @@
         <v>2638</v>
       </c>
       <c r="E1501" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1501" s="6"/>
       <c r="G1501" s="6"/>
@@ -41067,7 +41041,7 @@
         <v>1487</v>
       </c>
       <c r="E1515" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1515" s="6"/>
       <c r="G1515" s="6"/>
@@ -41109,7 +41083,7 @@
         <v>2665</v>
       </c>
       <c r="E1517" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1517" s="6"/>
       <c r="G1517" s="6"/>
@@ -41130,7 +41104,7 @@
         <v>2667</v>
       </c>
       <c r="E1518" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1518" s="6"/>
       <c r="G1518" s="6"/>
@@ -41256,7 +41230,7 @@
         <v>2678</v>
       </c>
       <c r="E1524" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1524" s="6"/>
       <c r="G1524" s="6"/>
@@ -41382,7 +41356,7 @@
         <v>2687</v>
       </c>
       <c r="E1530" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1530" s="6"/>
       <c r="G1530" s="6"/>
@@ -41445,7 +41419,7 @@
         <v>507</v>
       </c>
       <c r="E1533" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1533" s="6"/>
       <c r="G1533" s="6"/>
@@ -41466,7 +41440,7 @@
         <v>2694</v>
       </c>
       <c r="E1534" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1534" s="6"/>
       <c r="G1534" s="6"/>
@@ -41508,7 +41482,7 @@
         <v>2698</v>
       </c>
       <c r="E1536" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1536" s="6"/>
       <c r="G1536" s="6"/>
@@ -41619,7 +41593,7 @@
         <v>2705</v>
       </c>
       <c r="E1541" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1541" s="6"/>
       <c r="G1541" s="6"/>
@@ -41703,7 +41677,7 @@
         <v>1352</v>
       </c>
       <c r="E1545" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1545" s="6"/>
       <c r="G1545" s="6"/>
@@ -41745,7 +41719,7 @@
         <v>662</v>
       </c>
       <c r="E1547" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1547" s="6"/>
       <c r="G1547" s="6"/>
@@ -41808,7 +41782,7 @@
         <v>19</v>
       </c>
       <c r="E1550" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1550" s="6"/>
       <c r="G1550" s="6"/>
@@ -41871,7 +41845,7 @@
         <v>2721</v>
       </c>
       <c r="E1553" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1553" s="6"/>
       <c r="G1553" s="6"/>
@@ -41913,7 +41887,7 @@
         <v>828</v>
       </c>
       <c r="E1555" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1555" s="6"/>
       <c r="G1555" s="6"/>
@@ -42123,7 +42097,7 @@
         <v>2743</v>
       </c>
       <c r="E1565" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1565" s="6"/>
       <c r="G1565" s="6"/>
@@ -42228,7 +42202,7 @@
         <v>2752</v>
       </c>
       <c r="E1570" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1570" s="6"/>
       <c r="G1570" s="6"/>
@@ -42291,7 +42265,7 @@
         <v>54</v>
       </c>
       <c r="E1573" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1573" s="6"/>
       <c r="G1573" s="6"/>
@@ -42375,7 +42349,7 @@
         <v>76</v>
       </c>
       <c r="E1577" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1577" s="6"/>
       <c r="G1577" s="6"/>
@@ -42396,7 +42370,7 @@
         <v>2763</v>
       </c>
       <c r="E1578" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1578" s="6"/>
       <c r="G1578" s="6"/>
@@ -42522,7 +42496,7 @@
         <v>2774</v>
       </c>
       <c r="E1584" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1584" s="6"/>
       <c r="G1584" s="6"/>
@@ -42585,7 +42559,7 @@
         <v>2779</v>
       </c>
       <c r="E1587" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1587" s="6"/>
       <c r="G1587" s="6"/>
@@ -42963,7 +42937,7 @@
         <v>489</v>
       </c>
       <c r="E1605" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1605" s="6"/>
       <c r="G1605" s="6"/>
@@ -43026,7 +43000,7 @@
         <v>2815</v>
       </c>
       <c r="E1608" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1608" s="6"/>
       <c r="G1608" s="6"/>
@@ -43047,7 +43021,7 @@
         <v>277</v>
       </c>
       <c r="E1609" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1609" s="6"/>
       <c r="G1609" s="6"/>
@@ -43173,7 +43147,7 @@
         <v>2826</v>
       </c>
       <c r="E1615" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1615" s="6"/>
       <c r="G1615" s="6"/>
@@ -43362,7 +43336,7 @@
         <v>2840</v>
       </c>
       <c r="E1624" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1624" s="6"/>
       <c r="G1624" s="6"/>
@@ -43404,7 +43378,7 @@
         <v>2844</v>
       </c>
       <c r="E1626" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1626" s="6"/>
       <c r="G1626" s="6"/>
@@ -43425,7 +43399,7 @@
         <v>788</v>
       </c>
       <c r="E1627" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1627" s="6"/>
       <c r="G1627" s="6"/>
@@ -43446,7 +43420,7 @@
         <v>2847</v>
       </c>
       <c r="E1628" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1628" s="6"/>
       <c r="G1628" s="6"/>
@@ -43467,7 +43441,7 @@
         <v>662</v>
       </c>
       <c r="E1629" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1629" s="6"/>
       <c r="G1629" s="6"/>
@@ -43677,7 +43651,7 @@
         <v>371</v>
       </c>
       <c r="E1639" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1639" s="6"/>
       <c r="G1639" s="6"/>
@@ -43698,7 +43672,7 @@
         <v>1564</v>
       </c>
       <c r="E1640" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1640" s="6"/>
       <c r="G1640" s="6"/>
@@ -43719,7 +43693,7 @@
         <v>2868</v>
       </c>
       <c r="E1641" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1641" s="6"/>
       <c r="G1641" s="6"/>
@@ -43761,7 +43735,7 @@
         <v>2872</v>
       </c>
       <c r="E1643" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1643" s="26" t="s">
         <v>0</v>
@@ -43826,7 +43800,7 @@
         <v>2877</v>
       </c>
       <c r="E1646" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1646" s="6"/>
       <c r="G1646" s="6"/>
@@ -43931,7 +43905,7 @@
         <v>514</v>
       </c>
       <c r="E1651" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1651" s="6"/>
       <c r="G1651" s="6"/>
@@ -44015,7 +43989,7 @@
         <v>2891</v>
       </c>
       <c r="E1655" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1655" s="6"/>
       <c r="G1655" s="6"/>
@@ -44036,7 +44010,7 @@
         <v>2397</v>
       </c>
       <c r="E1656" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1656" s="6"/>
       <c r="G1656" s="6"/>
@@ -44078,7 +44052,7 @@
         <v>15</v>
       </c>
       <c r="E1658" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1658" s="6"/>
       <c r="G1658" s="6"/>
@@ -44099,7 +44073,7 @@
         <v>2397</v>
       </c>
       <c r="E1659" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1659" s="6"/>
       <c r="G1659" s="6"/>
@@ -44141,7 +44115,7 @@
         <v>2899</v>
       </c>
       <c r="E1661" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1661" s="6"/>
       <c r="G1661" s="6"/>
@@ -44162,7 +44136,7 @@
         <v>2112</v>
       </c>
       <c r="E1662" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1662" s="6"/>
       <c r="G1662" s="6"/>
@@ -44183,7 +44157,7 @@
         <v>2902</v>
       </c>
       <c r="E1663" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1663" s="6"/>
       <c r="G1663" s="6"/>
@@ -44267,7 +44241,7 @@
         <v>1583</v>
       </c>
       <c r="E1667" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1667" s="6"/>
       <c r="G1667" s="6"/>
@@ -44288,7 +44262,7 @@
         <v>118</v>
       </c>
       <c r="E1668" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1668" s="6"/>
       <c r="G1668" s="6"/>
@@ -44330,7 +44304,7 @@
         <v>21</v>
       </c>
       <c r="E1670" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1670" s="6"/>
       <c r="G1670" s="6"/>
@@ -44477,7 +44451,7 @@
         <v>2923</v>
       </c>
       <c r="E1677" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1677" s="6"/>
       <c r="G1677" s="6"/>
@@ -44582,7 +44556,7 @@
         <v>2931</v>
       </c>
       <c r="E1682" s="8">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1682" s="6"/>
       <c r="G1682" s="6"/>
@@ -44603,7 +44577,7 @@
         <v>2397</v>
       </c>
       <c r="E1683" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1683" s="6"/>
       <c r="G1683" s="6"/>
@@ -44750,7 +44724,7 @@
         <v>2944</v>
       </c>
       <c r="E1690" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1690" s="6"/>
       <c r="G1690" s="6"/>
@@ -44834,7 +44808,7 @@
         <v>2949</v>
       </c>
       <c r="E1694" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1694" s="6"/>
       <c r="G1694" s="6"/>
@@ -44918,7 +44892,7 @@
         <v>2955</v>
       </c>
       <c r="E1698" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1698" s="6"/>
       <c r="G1698" s="6"/>
@@ -44981,7 +44955,7 @@
         <v>2961</v>
       </c>
       <c r="E1701" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1701" s="6"/>
       <c r="G1701" s="6"/>
@@ -45107,7 +45081,7 @@
         <v>2970</v>
       </c>
       <c r="E1707" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1707" s="6"/>
       <c r="G1707" s="6"/>
@@ -45212,7 +45186,7 @@
         <v>2979</v>
       </c>
       <c r="E1712" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1712" s="6"/>
       <c r="G1712" s="6"/>
@@ -45401,7 +45375,7 @@
         <v>2992</v>
       </c>
       <c r="E1721" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1721" s="6"/>
       <c r="G1721" s="6"/>
@@ -45506,7 +45480,7 @@
         <v>3000</v>
       </c>
       <c r="E1726" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1726" s="6"/>
       <c r="G1726" s="6"/>
@@ -45695,7 +45669,7 @@
         <v>3015</v>
       </c>
       <c r="E1735" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1735" s="6"/>
       <c r="G1735" s="6"/>
@@ -45716,7 +45690,7 @@
         <v>3017</v>
       </c>
       <c r="E1736" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1736" s="6"/>
       <c r="G1736" s="6"/>
@@ -45863,7 +45837,7 @@
         <v>3028</v>
       </c>
       <c r="E1743" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1743" s="6"/>
       <c r="G1743" s="6"/>
@@ -45926,7 +45900,7 @@
         <v>1632</v>
       </c>
       <c r="E1746" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1746" s="6"/>
       <c r="G1746" s="6"/>
@@ -46367,7 +46341,7 @@
         <v>3072</v>
       </c>
       <c r="E1767" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1767" s="6"/>
       <c r="G1767" s="6"/>
@@ -46388,7 +46362,7 @@
         <v>3074</v>
       </c>
       <c r="E1768" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1768" s="6"/>
       <c r="G1768" s="6"/>
@@ -46535,7 +46509,7 @@
         <v>3084</v>
       </c>
       <c r="E1775" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1775" s="6"/>
       <c r="G1775" s="6"/>
@@ -46577,7 +46551,7 @@
         <v>41</v>
       </c>
       <c r="E1777" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1777" s="6"/>
       <c r="G1777" s="6"/>
@@ -46661,7 +46635,7 @@
         <v>3094</v>
       </c>
       <c r="E1781" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1781" s="6"/>
       <c r="G1781" s="6"/>
@@ -46829,7 +46803,7 @@
         <v>3108</v>
       </c>
       <c r="E1789" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1789" s="6"/>
       <c r="G1789" s="6"/>
@@ -46913,7 +46887,7 @@
         <v>925</v>
       </c>
       <c r="E1793" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1793" s="6"/>
       <c r="G1793" s="6"/>
@@ -46997,7 +46971,7 @@
         <v>3122</v>
       </c>
       <c r="E1797" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1797" s="6"/>
       <c r="G1797" s="6"/>
@@ -47102,7 +47076,7 @@
         <v>3131</v>
       </c>
       <c r="E1802" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1802" s="6"/>
       <c r="G1802" s="6"/>
@@ -47186,7 +47160,7 @@
         <v>122</v>
       </c>
       <c r="E1806" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1806" s="6"/>
       <c r="G1806" s="6"/>
@@ -47207,7 +47181,7 @@
         <v>3139</v>
       </c>
       <c r="E1807" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1807" s="6"/>
       <c r="G1807" s="6"/>
@@ -47228,7 +47202,7 @@
         <v>3141</v>
       </c>
       <c r="E1808" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1808" s="6"/>
       <c r="G1808" s="6"/>
@@ -47249,7 +47223,7 @@
         <v>662</v>
       </c>
       <c r="E1809" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1809" s="6"/>
       <c r="G1809" s="6"/>
@@ -47270,7 +47244,7 @@
         <v>514</v>
       </c>
       <c r="E1810" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1810" s="6"/>
       <c r="G1810" s="6"/>
@@ -47291,7 +47265,7 @@
         <v>3145</v>
       </c>
       <c r="E1811" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1811" s="6"/>
       <c r="G1811" s="6"/>
@@ -47312,7 +47286,7 @@
         <v>35</v>
       </c>
       <c r="E1812" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1812" s="6"/>
       <c r="G1812" s="6"/>
@@ -47333,7 +47307,7 @@
         <v>21</v>
       </c>
       <c r="E1813" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1813" s="6"/>
       <c r="G1813" s="6"/>
@@ -47375,7 +47349,7 @@
         <v>3151</v>
       </c>
       <c r="E1815" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1815" s="6"/>
       <c r="G1815" s="6"/>
@@ -47396,7 +47370,7 @@
         <v>3153</v>
       </c>
       <c r="E1816" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1816" s="6"/>
       <c r="G1816" s="6"/>
@@ -47417,7 +47391,7 @@
         <v>1845</v>
       </c>
       <c r="E1817" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1817" s="6"/>
       <c r="G1817" s="6"/>
@@ -47963,7 +47937,7 @@
         <v>118</v>
       </c>
       <c r="E1843" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1843" s="6"/>
       <c r="G1843" s="6"/>
@@ -48068,7 +48042,7 @@
         <v>3209</v>
       </c>
       <c r="E1848" s="8">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F1848" s="30"/>
       <c r="G1848" s="30"/>
@@ -48089,7 +48063,7 @@
         <v>3211</v>
       </c>
       <c r="E1849" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1849" s="30"/>
       <c r="G1849" s="30"/>
@@ -70081,21 +70055,20 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="F7"/>
-    <hyperlink r:id="rId4" ref="F61"/>
-    <hyperlink r:id="rId5" ref="F112"/>
-    <hyperlink r:id="rId6" ref="D513"/>
-    <hyperlink r:id="rId7" ref="D1853"/>
+    <hyperlink r:id="rId1" ref="I1"/>
+    <hyperlink r:id="rId2" ref="F7"/>
+    <hyperlink r:id="rId3" ref="F61"/>
+    <hyperlink r:id="rId4" ref="F112"/>
+    <hyperlink r:id="rId5" ref="D513"/>
+    <hyperlink r:id="rId6" ref="D1853"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <drawing r:id="rId7"/>
   <tableParts count="2">
-    <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,6 +8,30 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2">
+      <text>
+        <t xml:space="preserve">daily submission record
+https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing
+	-SAPTARSHI CHATTERJEE</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">All days submission data 
+https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing
+	-SAPTARSHI CHATTERJEE</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10517,7 +10541,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -10617,7 +10641,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -10737,7 +10761,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10757,7 +10781,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10777,7 +10801,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -10797,7 +10821,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -10837,7 +10861,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -10857,7 +10881,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -10897,7 +10921,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -10917,7 +10941,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11037,7 +11061,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -11117,7 +11141,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11136,9 +11160,7 @@
       <c r="D39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -11157,7 +11179,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11197,7 +11219,7 @@
         <v>84</v>
       </c>
       <c r="E42" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11257,7 +11279,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11317,7 +11339,7 @@
         <v>95</v>
       </c>
       <c r="E48" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -11497,7 +11519,7 @@
         <v>113</v>
       </c>
       <c r="E57" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -11557,7 +11579,7 @@
         <v>118</v>
       </c>
       <c r="E60" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -11578,7 +11600,7 @@
       </c>
       <c r="E61" s="13">
         <f>E60</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>0</v>
@@ -11660,7 +11682,7 @@
         <v>126</v>
       </c>
       <c r="E65" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -12000,7 +12022,7 @@
         <v>160</v>
       </c>
       <c r="E82" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -12500,7 +12522,7 @@
         <v>209</v>
       </c>
       <c r="E107" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -12703,7 +12725,7 @@
         <v>225</v>
       </c>
       <c r="E117" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -12763,7 +12785,7 @@
         <v>231</v>
       </c>
       <c r="E120" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -12983,7 +13005,7 @@
         <v>253</v>
       </c>
       <c r="E131" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -13043,7 +13065,7 @@
         <v>259</v>
       </c>
       <c r="E134" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -13083,7 +13105,7 @@
         <v>263</v>
       </c>
       <c r="E136" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -13103,7 +13125,7 @@
         <v>265</v>
       </c>
       <c r="E137" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -13283,7 +13305,7 @@
         <v>283</v>
       </c>
       <c r="E146" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -13303,7 +13325,7 @@
         <v>41</v>
       </c>
       <c r="E147" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -13423,7 +13445,7 @@
         <v>296</v>
       </c>
       <c r="E153" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -13483,7 +13505,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -13643,7 +13665,7 @@
         <v>317</v>
       </c>
       <c r="E164" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -13663,7 +13685,7 @@
         <v>319</v>
       </c>
       <c r="E165" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -14123,7 +14145,7 @@
         <v>361</v>
       </c>
       <c r="E188" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -14223,7 +14245,7 @@
         <v>371</v>
       </c>
       <c r="E193" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -14403,7 +14425,7 @@
         <v>386</v>
       </c>
       <c r="E202" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -14463,7 +14485,7 @@
         <v>392</v>
       </c>
       <c r="E205" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -14583,7 +14605,7 @@
         <v>404</v>
       </c>
       <c r="E211" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -14723,7 +14745,7 @@
         <v>105</v>
       </c>
       <c r="E218" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -14823,7 +14845,7 @@
         <v>425</v>
       </c>
       <c r="E223" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -14863,7 +14885,7 @@
         <v>429</v>
       </c>
       <c r="E225" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -14883,7 +14905,7 @@
         <v>431</v>
       </c>
       <c r="E226" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -14903,7 +14925,7 @@
         <v>433</v>
       </c>
       <c r="E227" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -15023,7 +15045,7 @@
         <v>445</v>
       </c>
       <c r="E233" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -15083,7 +15105,7 @@
         <v>451</v>
       </c>
       <c r="E236" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -15203,7 +15225,7 @@
         <v>463</v>
       </c>
       <c r="E242" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -15263,7 +15285,7 @@
         <v>469</v>
       </c>
       <c r="E245" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -15283,7 +15305,7 @@
         <v>471</v>
       </c>
       <c r="E246" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -15803,7 +15825,7 @@
         <v>518</v>
       </c>
       <c r="E272" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -15963,7 +15985,7 @@
         <v>223</v>
       </c>
       <c r="E280" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -16003,7 +16025,7 @@
         <v>535</v>
       </c>
       <c r="E282" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -16063,7 +16085,7 @@
         <v>541</v>
       </c>
       <c r="E285" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -16123,7 +16145,7 @@
         <v>223</v>
       </c>
       <c r="E288" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -16243,7 +16265,7 @@
         <v>553</v>
       </c>
       <c r="E294" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -16323,7 +16345,7 @@
         <v>560</v>
       </c>
       <c r="E298" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -16443,7 +16465,7 @@
         <v>223</v>
       </c>
       <c r="E304" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -16523,7 +16545,7 @@
         <v>576</v>
       </c>
       <c r="E308" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -16543,7 +16565,7 @@
         <v>578</v>
       </c>
       <c r="E309" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -16703,7 +16725,7 @@
         <v>41</v>
       </c>
       <c r="E317" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -16823,7 +16845,7 @@
         <v>603</v>
       </c>
       <c r="E323" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -16923,7 +16945,7 @@
         <v>613</v>
       </c>
       <c r="E328" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -16983,7 +17005,7 @@
         <v>619</v>
       </c>
       <c r="E331" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -17023,7 +17045,7 @@
         <v>609</v>
       </c>
       <c r="E333" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -17063,7 +17085,7 @@
         <v>625</v>
       </c>
       <c r="E335" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -17223,7 +17245,7 @@
         <v>636</v>
       </c>
       <c r="E343" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -17283,7 +17305,7 @@
         <v>642</v>
       </c>
       <c r="E346" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -17303,7 +17325,7 @@
         <v>644</v>
       </c>
       <c r="E347" s="19">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -17443,7 +17465,7 @@
         <v>656</v>
       </c>
       <c r="E354" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
@@ -17703,7 +17725,7 @@
         <v>679</v>
       </c>
       <c r="E367" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -17983,7 +18005,7 @@
         <v>705</v>
       </c>
       <c r="E381" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -18063,7 +18085,7 @@
         <v>27</v>
       </c>
       <c r="E385" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -18223,7 +18245,7 @@
         <v>503</v>
       </c>
       <c r="E393" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -18506,7 +18528,7 @@
         <v>750</v>
       </c>
       <c r="E407" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -18747,7 +18769,7 @@
       </c>
       <c r="E419" s="13">
         <f>E20</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F419" s="21" t="s">
         <v>0</v>
@@ -18789,7 +18811,7 @@
         <v>776</v>
       </c>
       <c r="E421" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -18809,7 +18831,7 @@
         <v>778</v>
       </c>
       <c r="E422" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -18849,7 +18871,7 @@
         <v>782</v>
       </c>
       <c r="E424" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -18869,7 +18891,7 @@
         <v>784</v>
       </c>
       <c r="E425" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -19009,7 +19031,7 @@
         <v>798</v>
       </c>
       <c r="E432" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -19212,7 +19234,7 @@
         <v>223</v>
       </c>
       <c r="E442" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
@@ -19271,9 +19293,9 @@
       <c r="D445" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E445" s="13">
+      <c r="E445" s="13" t="str">
         <f>E39</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F445" s="21" t="s">
         <v>0</v>
@@ -19295,7 +19317,7 @@
         <v>319</v>
       </c>
       <c r="E446" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -19395,7 +19417,7 @@
         <v>828</v>
       </c>
       <c r="E451" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -19515,7 +19537,7 @@
         <v>838</v>
       </c>
       <c r="E457" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -19615,7 +19637,7 @@
         <v>847</v>
       </c>
       <c r="E462" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -19715,7 +19737,7 @@
         <v>857</v>
       </c>
       <c r="E467" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -19735,7 +19757,7 @@
         <v>859</v>
       </c>
       <c r="E468" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -19755,7 +19777,7 @@
         <v>288</v>
       </c>
       <c r="E469" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -19835,7 +19857,7 @@
         <v>867</v>
       </c>
       <c r="E473" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -19855,7 +19877,7 @@
         <v>35</v>
       </c>
       <c r="E474" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
@@ -19975,7 +19997,7 @@
         <v>879</v>
       </c>
       <c r="E480" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
@@ -19995,7 +20017,7 @@
         <v>758</v>
       </c>
       <c r="E481" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -20135,7 +20157,7 @@
         <v>892</v>
       </c>
       <c r="E488" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -20215,7 +20237,7 @@
         <v>267</v>
       </c>
       <c r="E492" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F492" s="6"/>
       <c r="G492" s="6"/>
@@ -20275,7 +20297,7 @@
         <v>419</v>
       </c>
       <c r="E495" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -20395,7 +20417,7 @@
         <v>914</v>
       </c>
       <c r="E501" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -20515,7 +20537,7 @@
         <v>925</v>
       </c>
       <c r="E507" s="8">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -20535,7 +20557,7 @@
         <v>927</v>
       </c>
       <c r="E508" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -20635,7 +20657,7 @@
         <v>937</v>
       </c>
       <c r="E513" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -20735,7 +20757,7 @@
         <v>947</v>
       </c>
       <c r="E518" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -20775,7 +20797,7 @@
         <v>951</v>
       </c>
       <c r="E520" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
@@ -21035,7 +21057,7 @@
         <v>974</v>
       </c>
       <c r="E533" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -21075,7 +21097,7 @@
         <v>977</v>
       </c>
       <c r="E535" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
@@ -21338,7 +21360,7 @@
         <v>1000</v>
       </c>
       <c r="E548" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
@@ -21398,7 +21420,7 @@
         <v>578</v>
       </c>
       <c r="E551" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -21518,7 +21540,7 @@
         <v>1016</v>
       </c>
       <c r="E557" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
@@ -21538,7 +21560,7 @@
         <v>1018</v>
       </c>
       <c r="E558" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
@@ -21578,7 +21600,7 @@
         <v>609</v>
       </c>
       <c r="E560" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
@@ -21638,7 +21660,7 @@
         <v>1026</v>
       </c>
       <c r="E563" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
@@ -21718,7 +21740,7 @@
         <v>1034</v>
       </c>
       <c r="E567" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
@@ -22001,7 +22023,7 @@
         <v>1059</v>
       </c>
       <c r="E581" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -22061,7 +22083,7 @@
         <v>1065</v>
       </c>
       <c r="E584" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
@@ -22121,7 +22143,7 @@
         <v>1071</v>
       </c>
       <c r="E587" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
@@ -22221,7 +22243,7 @@
         <v>509</v>
       </c>
       <c r="E592" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
@@ -22321,7 +22343,7 @@
         <v>1087</v>
       </c>
       <c r="E597" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
@@ -22461,7 +22483,7 @@
         <v>1100</v>
       </c>
       <c r="E604" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -22524,7 +22546,7 @@
         <v>1103</v>
       </c>
       <c r="E607" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
@@ -22584,7 +22606,7 @@
         <v>1109</v>
       </c>
       <c r="E610" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
@@ -22624,7 +22646,7 @@
         <v>1112</v>
       </c>
       <c r="E612" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
@@ -22987,7 +23009,7 @@
         <v>1147</v>
       </c>
       <c r="E630" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
@@ -23108,7 +23130,7 @@
       </c>
       <c r="E636" s="23">
         <f>E57</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F636" s="20" t="s">
         <v>0</v>
@@ -23434,7 +23456,7 @@
       </c>
       <c r="E652" s="13">
         <f>E42</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F652" s="21" t="s">
         <v>0</v>
@@ -23516,7 +23538,7 @@
         <v>582</v>
       </c>
       <c r="E656" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F656" s="6"/>
       <c r="G656" s="6"/>
@@ -23556,7 +23578,7 @@
         <v>223</v>
       </c>
       <c r="E658" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
@@ -23619,7 +23641,7 @@
         <v>1199</v>
       </c>
       <c r="E661" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
@@ -23679,7 +23701,7 @@
         <v>1205</v>
       </c>
       <c r="E664" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F664" s="6"/>
       <c r="G664" s="6"/>
@@ -23759,7 +23781,7 @@
         <v>1212</v>
       </c>
       <c r="E668" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
@@ -23819,7 +23841,7 @@
         <v>1218</v>
       </c>
       <c r="E671" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
@@ -23839,7 +23861,7 @@
         <v>1220</v>
       </c>
       <c r="E672" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F672" s="6"/>
       <c r="G672" s="6"/>
@@ -23919,7 +23941,7 @@
         <v>1228</v>
       </c>
       <c r="E676" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F676" s="6"/>
       <c r="G676" s="6"/>
@@ -23939,7 +23961,7 @@
         <v>1230</v>
       </c>
       <c r="E677" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
@@ -24019,7 +24041,7 @@
         <v>1237</v>
       </c>
       <c r="E681" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
@@ -24079,7 +24101,7 @@
         <v>1242</v>
       </c>
       <c r="E684" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F684" s="6"/>
       <c r="G684" s="6"/>
@@ -24279,7 +24301,7 @@
         <v>1260</v>
       </c>
       <c r="E694" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F694" s="6"/>
       <c r="G694" s="6"/>
@@ -24379,7 +24401,7 @@
         <v>1270</v>
       </c>
       <c r="E699" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
@@ -24459,7 +24481,7 @@
         <v>1278</v>
       </c>
       <c r="E703" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
@@ -24719,7 +24741,7 @@
         <v>1300</v>
       </c>
       <c r="E716" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F716" s="6"/>
       <c r="G716" s="6"/>
@@ -24799,7 +24821,7 @@
         <v>1307</v>
       </c>
       <c r="E720" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F720" s="6"/>
       <c r="G720" s="6"/>
@@ -24819,7 +24841,7 @@
         <v>1309</v>
       </c>
       <c r="E721" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
@@ -25259,7 +25281,7 @@
         <v>1347</v>
       </c>
       <c r="E743" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
@@ -25519,7 +25541,7 @@
         <v>1370</v>
       </c>
       <c r="E756" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F756" s="6"/>
       <c r="G756" s="6"/>
@@ -25642,7 +25664,7 @@
         <v>1381</v>
       </c>
       <c r="E762" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
@@ -25743,7 +25765,7 @@
       </c>
       <c r="E767" s="13">
         <f>E13</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F767" s="21" t="s">
         <v>0</v>
@@ -25825,7 +25847,7 @@
         <v>1397</v>
       </c>
       <c r="E771" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
@@ -26028,7 +26050,7 @@
         <v>912</v>
       </c>
       <c r="E781" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
@@ -26048,7 +26070,7 @@
         <v>1414</v>
       </c>
       <c r="E782" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
@@ -26229,7 +26251,7 @@
       </c>
       <c r="E791" s="13">
         <f>E34</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F791" s="26" t="s">
         <v>0</v>
@@ -26351,7 +26373,7 @@
         <v>1443</v>
       </c>
       <c r="E797" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F797" s="6"/>
       <c r="G797" s="6"/>
@@ -26412,7 +26434,7 @@
       </c>
       <c r="E800" s="13">
         <f>E38</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F800" s="21" t="s">
         <v>0</v>
@@ -26754,7 +26776,7 @@
         <v>1480</v>
       </c>
       <c r="E817" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F817" s="6"/>
       <c r="G817" s="6"/>
@@ -26914,7 +26936,7 @@
         <v>31</v>
       </c>
       <c r="E825" s="8">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="F825" s="6"/>
       <c r="G825" s="6"/>
@@ -26974,7 +26996,7 @@
         <v>1498</v>
       </c>
       <c r="E828" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F828" s="6"/>
       <c r="G828" s="6"/>
@@ -26994,7 +27016,7 @@
         <v>54</v>
       </c>
       <c r="E829" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
@@ -27014,7 +27036,7 @@
         <v>1501</v>
       </c>
       <c r="E830" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F830" s="6"/>
       <c r="G830" s="6"/>
@@ -27234,7 +27256,7 @@
         <v>1522</v>
       </c>
       <c r="E841" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
@@ -27354,7 +27376,7 @@
         <v>1534</v>
       </c>
       <c r="E847" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
@@ -27614,7 +27636,7 @@
         <v>35</v>
       </c>
       <c r="E860" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F860" s="6"/>
       <c r="G860" s="6"/>
@@ -27654,7 +27676,7 @@
         <v>1560</v>
       </c>
       <c r="E862" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F862" s="6"/>
       <c r="G862" s="6"/>
@@ -28394,7 +28416,7 @@
         <v>1623</v>
       </c>
       <c r="E899" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F899" s="6"/>
       <c r="G899" s="6"/>
@@ -28434,7 +28456,7 @@
         <v>1627</v>
       </c>
       <c r="E901" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F901" s="6"/>
       <c r="G901" s="6"/>
@@ -28514,7 +28536,7 @@
         <v>625</v>
       </c>
       <c r="E905" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
@@ -28634,7 +28656,7 @@
         <v>1644</v>
       </c>
       <c r="E911" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
@@ -28654,7 +28676,7 @@
         <v>1646</v>
       </c>
       <c r="E912" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F912" s="6"/>
       <c r="G912" s="6"/>
@@ -28814,7 +28836,7 @@
         <v>1662</v>
       </c>
       <c r="E920" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F920" s="6"/>
       <c r="G920" s="6"/>
@@ -28854,7 +28876,7 @@
         <v>1666</v>
       </c>
       <c r="E922" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F922" s="6"/>
       <c r="G922" s="6"/>
@@ -28935,7 +28957,7 @@
       </c>
       <c r="E926" s="13">
         <f>E309</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F926" s="21" t="s">
         <v>0</v>
@@ -29037,7 +29059,7 @@
         <v>786</v>
       </c>
       <c r="E931" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
@@ -29177,7 +29199,7 @@
         <v>1693</v>
       </c>
       <c r="E938" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F938" s="6"/>
       <c r="G938" s="6"/>
@@ -29360,7 +29382,7 @@
         <v>1710</v>
       </c>
       <c r="E947" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
@@ -29420,7 +29442,7 @@
         <v>1715</v>
       </c>
       <c r="E950" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F950" s="6"/>
       <c r="G950" s="6"/>
@@ -29600,7 +29622,7 @@
         <v>1732</v>
       </c>
       <c r="E959" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F959" s="6"/>
       <c r="G959" s="6"/>
@@ -29660,7 +29682,7 @@
         <v>1738</v>
       </c>
       <c r="E962" s="8">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="F962" s="6"/>
       <c r="G962" s="6"/>
@@ -29723,7 +29745,7 @@
         <v>1742</v>
       </c>
       <c r="E965" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F965" s="6"/>
       <c r="G965" s="6"/>
@@ -30189,7 +30211,7 @@
         <v>1777</v>
       </c>
       <c r="E988" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F988" s="6"/>
       <c r="G988" s="6"/>
@@ -30229,7 +30251,7 @@
         <v>625</v>
       </c>
       <c r="E990" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F990" s="6"/>
       <c r="G990" s="6"/>
@@ -30535,7 +30557,7 @@
         <v>105</v>
       </c>
       <c r="E1005" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1005" s="6"/>
       <c r="G1005" s="6"/>
@@ -30755,7 +30777,7 @@
         <v>1824</v>
       </c>
       <c r="E1016" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1016" s="6"/>
       <c r="G1016" s="6"/>
@@ -30895,7 +30917,7 @@
         <v>1837</v>
       </c>
       <c r="E1023" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1023" s="6"/>
       <c r="G1023" s="6"/>
@@ -30955,7 +30977,7 @@
         <v>1842</v>
       </c>
       <c r="E1026" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1026" s="6"/>
       <c r="G1026" s="6"/>
@@ -31175,7 +31197,7 @@
         <v>54</v>
       </c>
       <c r="E1037" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1037" s="6"/>
       <c r="G1037" s="6"/>
@@ -31255,7 +31277,7 @@
         <v>105</v>
       </c>
       <c r="E1041" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1041" s="6"/>
       <c r="G1041" s="6"/>
@@ -31295,7 +31317,7 @@
         <v>223</v>
       </c>
       <c r="E1043" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1043" s="6"/>
       <c r="G1043" s="6"/>
@@ -31515,7 +31537,7 @@
         <v>1886</v>
       </c>
       <c r="E1054" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1054" s="6"/>
       <c r="G1054" s="6"/>
@@ -31555,7 +31577,7 @@
         <v>54</v>
       </c>
       <c r="E1056" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1056" s="6"/>
       <c r="G1056" s="6"/>
@@ -31675,7 +31697,7 @@
         <v>1901</v>
       </c>
       <c r="E1062" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1062" s="6"/>
       <c r="G1062" s="6"/>
@@ -31715,7 +31737,7 @@
         <v>1904</v>
       </c>
       <c r="E1064" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1064" s="6"/>
       <c r="G1064" s="6"/>
@@ -31835,7 +31857,7 @@
         <v>41</v>
       </c>
       <c r="E1070" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1070" s="6"/>
       <c r="G1070" s="6"/>
@@ -31875,7 +31897,7 @@
         <v>1830</v>
       </c>
       <c r="E1072" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1072" s="6"/>
       <c r="G1072" s="6"/>
@@ -31895,7 +31917,7 @@
         <v>74</v>
       </c>
       <c r="E1073" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1073" s="6"/>
       <c r="G1073" s="6"/>
@@ -32075,7 +32097,7 @@
         <v>1933</v>
       </c>
       <c r="E1082" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1082" s="6"/>
       <c r="G1082" s="6"/>
@@ -32215,7 +32237,7 @@
         <v>1946</v>
       </c>
       <c r="E1089" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1089" s="6"/>
       <c r="G1089" s="6"/>
@@ -32235,7 +32257,7 @@
         <v>19</v>
       </c>
       <c r="E1090" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1090" s="6"/>
       <c r="G1090" s="6"/>
@@ -32295,7 +32317,7 @@
         <v>1901</v>
       </c>
       <c r="E1093" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1093" s="6"/>
       <c r="G1093" s="6"/>
@@ -32335,7 +32357,7 @@
         <v>1956</v>
       </c>
       <c r="E1095" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1095" s="6"/>
       <c r="G1095" s="6"/>
@@ -32555,7 +32577,7 @@
         <v>392</v>
       </c>
       <c r="E1106" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1106" s="6"/>
       <c r="G1106" s="6"/>
@@ -32755,7 +32777,7 @@
         <v>507</v>
       </c>
       <c r="E1116" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1116" s="6"/>
       <c r="G1116" s="6"/>
@@ -32855,7 +32877,7 @@
         <v>2002</v>
       </c>
       <c r="E1121" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1121" s="6"/>
       <c r="G1121" s="6"/>
@@ -32915,7 +32937,7 @@
         <v>95</v>
       </c>
       <c r="E1124" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1124" s="6"/>
       <c r="G1124" s="6"/>
@@ -33095,7 +33117,7 @@
         <v>152</v>
       </c>
       <c r="E1133" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1133" s="6"/>
       <c r="G1133" s="6"/>
@@ -33515,7 +33537,7 @@
         <v>1487</v>
       </c>
       <c r="E1154" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1154" s="6"/>
       <c r="G1154" s="6"/>
@@ -33535,7 +33557,7 @@
         <v>2057</v>
       </c>
       <c r="E1155" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1155" s="6"/>
       <c r="G1155" s="6"/>
@@ -33555,7 +33577,7 @@
         <v>489</v>
       </c>
       <c r="E1156" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1156" s="6"/>
       <c r="G1156" s="6"/>
@@ -33695,7 +33717,7 @@
         <v>80</v>
       </c>
       <c r="E1163" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1163" s="6"/>
       <c r="G1163" s="6"/>
@@ -33875,7 +33897,7 @@
         <v>2084</v>
       </c>
       <c r="E1172" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1172" s="6"/>
       <c r="G1172" s="6"/>
@@ -33895,7 +33917,7 @@
         <v>2086</v>
       </c>
       <c r="E1173" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1173" s="6"/>
       <c r="G1173" s="6"/>
@@ -34075,7 +34097,7 @@
         <v>465</v>
       </c>
       <c r="E1182" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1182" s="6"/>
       <c r="G1182" s="6"/>
@@ -34115,7 +34137,7 @@
         <v>828</v>
       </c>
       <c r="E1184" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1184" s="6"/>
       <c r="G1184" s="6"/>
@@ -34275,7 +34297,7 @@
         <v>2119</v>
       </c>
       <c r="E1192" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1192" s="6"/>
       <c r="G1192" s="6"/>
@@ -34395,7 +34417,7 @@
         <v>2130</v>
       </c>
       <c r="E1198" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1198" s="6"/>
       <c r="G1198" s="6"/>
@@ -34515,7 +34537,7 @@
         <v>2142</v>
       </c>
       <c r="E1204" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1204" s="6"/>
       <c r="G1204" s="6"/>
@@ -34635,7 +34657,7 @@
         <v>2153</v>
       </c>
       <c r="E1210" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1210" s="6"/>
       <c r="G1210" s="6"/>
@@ -34735,7 +34757,7 @@
         <v>1409</v>
       </c>
       <c r="E1215" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1215" s="6"/>
       <c r="G1215" s="6"/>
@@ -34755,7 +34777,7 @@
         <v>2162</v>
       </c>
       <c r="E1216" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1216" s="6"/>
       <c r="G1216" s="6"/>
@@ -34816,7 +34838,7 @@
         <v>2168</v>
       </c>
       <c r="E1219" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1219" s="6"/>
       <c r="G1219" s="6"/>
@@ -34837,7 +34859,7 @@
         <v>2170</v>
       </c>
       <c r="E1220" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1220" s="6"/>
       <c r="G1220" s="6"/>
@@ -35173,7 +35195,7 @@
         <v>662</v>
       </c>
       <c r="E1236" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1236" s="6"/>
       <c r="G1236" s="6"/>
@@ -35299,7 +35321,7 @@
         <v>2206</v>
       </c>
       <c r="E1242" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1242" s="6"/>
       <c r="G1242" s="6"/>
@@ -35404,7 +35426,7 @@
         <v>2215</v>
       </c>
       <c r="E1247" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1247" s="6"/>
       <c r="G1247" s="6"/>
@@ -35530,7 +35552,7 @@
         <v>2225</v>
       </c>
       <c r="E1253" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1253" s="6"/>
       <c r="G1253" s="6"/>
@@ -35635,7 +35657,7 @@
         <v>15</v>
       </c>
       <c r="E1258" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1258" s="6"/>
       <c r="G1258" s="6"/>
@@ -35677,7 +35699,7 @@
         <v>2236</v>
       </c>
       <c r="E1260" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1260" s="6"/>
       <c r="G1260" s="6"/>
@@ -35782,7 +35804,7 @@
         <v>2244</v>
       </c>
       <c r="E1265" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1265" s="6"/>
       <c r="G1265" s="6"/>
@@ -35929,7 +35951,7 @@
         <v>2256</v>
       </c>
       <c r="E1272" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1272" s="6"/>
       <c r="G1272" s="6"/>
@@ -36013,7 +36035,7 @@
         <v>2262</v>
       </c>
       <c r="E1276" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1276" s="6"/>
       <c r="G1276" s="6"/>
@@ -36055,7 +36077,7 @@
         <v>2266</v>
       </c>
       <c r="E1278" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1278" s="6"/>
       <c r="G1278" s="6"/>
@@ -36181,7 +36203,7 @@
         <v>1352</v>
       </c>
       <c r="E1284" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1284" s="6"/>
       <c r="G1284" s="6"/>
@@ -36202,7 +36224,7 @@
         <v>2277</v>
       </c>
       <c r="E1285" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1285" s="6"/>
       <c r="G1285" s="6"/>
@@ -36223,7 +36245,7 @@
         <v>2279</v>
       </c>
       <c r="E1286" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1286" s="6"/>
       <c r="G1286" s="6"/>
@@ -36244,7 +36266,7 @@
         <v>2281</v>
       </c>
       <c r="E1287" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1287" s="6"/>
       <c r="G1287" s="6"/>
@@ -36265,7 +36287,7 @@
         <v>2282</v>
       </c>
       <c r="E1288" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1288" s="6"/>
       <c r="G1288" s="6"/>
@@ -36370,7 +36392,7 @@
         <v>2286</v>
       </c>
       <c r="E1293" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1293" s="6"/>
       <c r="G1293" s="6"/>
@@ -36391,7 +36413,7 @@
         <v>1720</v>
       </c>
       <c r="E1294" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1294" s="6"/>
       <c r="G1294" s="6"/>
@@ -36412,7 +36434,7 @@
         <v>2293</v>
       </c>
       <c r="E1295" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1295" s="6"/>
       <c r="G1295" s="6"/>
@@ -36454,7 +36476,7 @@
         <v>2297</v>
       </c>
       <c r="E1297" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1297" s="6"/>
       <c r="G1297" s="6"/>
@@ -36475,7 +36497,7 @@
         <v>2299</v>
       </c>
       <c r="E1298" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1298" s="6"/>
       <c r="G1298" s="6"/>
@@ -36517,7 +36539,7 @@
         <v>2303</v>
       </c>
       <c r="E1300" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1300" s="6"/>
       <c r="G1300" s="6"/>
@@ -36601,7 +36623,7 @@
         <v>27</v>
       </c>
       <c r="E1304" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1304" s="6"/>
       <c r="G1304" s="6"/>
@@ -36730,7 +36752,7 @@
         <v>338</v>
       </c>
       <c r="E1310" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1310" s="6"/>
       <c r="G1310" s="6"/>
@@ -36856,7 +36878,7 @@
         <v>2332</v>
       </c>
       <c r="E1316" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1316" s="6"/>
       <c r="G1316" s="6"/>
@@ -37087,7 +37109,7 @@
         <v>21</v>
       </c>
       <c r="E1327" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1327" s="6"/>
       <c r="G1327" s="6"/>
@@ -37297,7 +37319,7 @@
         <v>321</v>
       </c>
       <c r="E1337" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1337" s="6"/>
       <c r="G1337" s="6"/>
@@ -37465,7 +37487,7 @@
         <v>2384</v>
       </c>
       <c r="E1345" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1345" s="6"/>
       <c r="G1345" s="6"/>
@@ -37591,7 +37613,7 @@
         <v>2393</v>
       </c>
       <c r="E1351" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1351" s="6"/>
       <c r="G1351" s="6"/>
@@ -37633,7 +37655,7 @@
         <v>2397</v>
       </c>
       <c r="E1353" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1353" s="6"/>
       <c r="G1353" s="6"/>
@@ -37717,7 +37739,7 @@
         <v>2404</v>
       </c>
       <c r="E1357" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1357" s="6"/>
       <c r="G1357" s="6"/>
@@ -37906,7 +37928,7 @@
         <v>288</v>
       </c>
       <c r="E1366" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1366" s="6"/>
       <c r="G1366" s="6"/>
@@ -38179,7 +38201,7 @@
         <v>2441</v>
       </c>
       <c r="E1379" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1379" s="6"/>
       <c r="G1379" s="6"/>
@@ -38452,7 +38474,7 @@
         <v>2426</v>
       </c>
       <c r="E1392" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1392" s="6"/>
       <c r="G1392" s="6"/>
@@ -38578,7 +38600,7 @@
         <v>2472</v>
       </c>
       <c r="E1398" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1398" s="6"/>
       <c r="G1398" s="6"/>
@@ -38830,7 +38852,7 @@
         <v>2494</v>
       </c>
       <c r="E1410" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1410" s="6"/>
       <c r="G1410" s="6"/>
@@ -38893,7 +38915,7 @@
         <v>2499</v>
       </c>
       <c r="E1413" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1413" s="6"/>
       <c r="G1413" s="6"/>
@@ -39082,7 +39104,7 @@
         <v>15</v>
       </c>
       <c r="E1422" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1422" s="6"/>
       <c r="G1422" s="6"/>
@@ -39253,7 +39275,7 @@
         <v>2526</v>
       </c>
       <c r="E1430" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1430" s="6"/>
       <c r="G1430" s="6"/>
@@ -39295,7 +39317,7 @@
         <v>41</v>
       </c>
       <c r="E1432" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1432" s="6"/>
       <c r="G1432" s="6"/>
@@ -39316,7 +39338,7 @@
         <v>2531</v>
       </c>
       <c r="E1433" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1433" s="6"/>
       <c r="G1433" s="6"/>
@@ -39610,7 +39632,7 @@
         <v>2550</v>
       </c>
       <c r="E1447" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1447" s="6"/>
       <c r="G1447" s="6"/>
@@ -39694,7 +39716,7 @@
         <v>2557</v>
       </c>
       <c r="E1451" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1451" s="6"/>
       <c r="G1451" s="6"/>
@@ -39862,7 +39884,7 @@
         <v>2573</v>
       </c>
       <c r="E1459" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1459" s="6"/>
       <c r="G1459" s="6"/>
@@ -39904,7 +39926,7 @@
         <v>662</v>
       </c>
       <c r="E1461" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1461" s="6"/>
       <c r="G1461" s="6"/>
@@ -39946,7 +39968,7 @@
         <v>2578</v>
       </c>
       <c r="E1463" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1463" s="6"/>
       <c r="G1463" s="6"/>
@@ -40156,7 +40178,7 @@
         <v>2426</v>
       </c>
       <c r="E1473" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1473" s="6"/>
       <c r="G1473" s="6"/>
@@ -40240,7 +40262,7 @@
         <v>511</v>
       </c>
       <c r="E1477" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1477" s="6"/>
       <c r="G1477" s="6"/>
@@ -40261,7 +40283,7 @@
         <v>2601</v>
       </c>
       <c r="E1478" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1478" s="6"/>
       <c r="G1478" s="6"/>
@@ -40366,7 +40388,7 @@
         <v>2607</v>
       </c>
       <c r="E1483" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1483" s="6"/>
       <c r="G1483" s="6"/>
@@ -40408,7 +40430,7 @@
         <v>2610</v>
       </c>
       <c r="E1485" s="8">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1485" s="6"/>
       <c r="G1485" s="6"/>
@@ -40450,7 +40472,7 @@
         <v>1000</v>
       </c>
       <c r="E1487" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1487" s="6"/>
       <c r="G1487" s="6"/>
@@ -40663,7 +40685,7 @@
         <v>2455</v>
       </c>
       <c r="E1497" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1497" s="6"/>
       <c r="G1497" s="6"/>
@@ -40747,7 +40769,7 @@
         <v>2638</v>
       </c>
       <c r="E1501" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1501" s="6"/>
       <c r="G1501" s="6"/>
@@ -41041,7 +41063,7 @@
         <v>1487</v>
       </c>
       <c r="E1515" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1515" s="6"/>
       <c r="G1515" s="6"/>
@@ -41083,7 +41105,7 @@
         <v>2665</v>
       </c>
       <c r="E1517" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1517" s="6"/>
       <c r="G1517" s="6"/>
@@ -41104,7 +41126,7 @@
         <v>2667</v>
       </c>
       <c r="E1518" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1518" s="6"/>
       <c r="G1518" s="6"/>
@@ -41230,7 +41252,7 @@
         <v>2678</v>
       </c>
       <c r="E1524" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1524" s="6"/>
       <c r="G1524" s="6"/>
@@ -41356,7 +41378,7 @@
         <v>2687</v>
       </c>
       <c r="E1530" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1530" s="6"/>
       <c r="G1530" s="6"/>
@@ -41419,7 +41441,7 @@
         <v>507</v>
       </c>
       <c r="E1533" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1533" s="6"/>
       <c r="G1533" s="6"/>
@@ -41440,7 +41462,7 @@
         <v>2694</v>
       </c>
       <c r="E1534" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1534" s="6"/>
       <c r="G1534" s="6"/>
@@ -41482,7 +41504,7 @@
         <v>2698</v>
       </c>
       <c r="E1536" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1536" s="6"/>
       <c r="G1536" s="6"/>
@@ -41593,7 +41615,7 @@
         <v>2705</v>
       </c>
       <c r="E1541" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1541" s="6"/>
       <c r="G1541" s="6"/>
@@ -41677,7 +41699,7 @@
         <v>1352</v>
       </c>
       <c r="E1545" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1545" s="6"/>
       <c r="G1545" s="6"/>
@@ -41719,7 +41741,7 @@
         <v>662</v>
       </c>
       <c r="E1547" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1547" s="6"/>
       <c r="G1547" s="6"/>
@@ -41761,7 +41783,7 @@
         <v>19</v>
       </c>
       <c r="E1549" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1549" s="6"/>
       <c r="G1549" s="6"/>
@@ -41782,7 +41804,7 @@
         <v>19</v>
       </c>
       <c r="E1550" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1550" s="6"/>
       <c r="G1550" s="6"/>
@@ -41845,7 +41867,7 @@
         <v>2721</v>
       </c>
       <c r="E1553" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1553" s="6"/>
       <c r="G1553" s="6"/>
@@ -41887,7 +41909,7 @@
         <v>828</v>
       </c>
       <c r="E1555" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1555" s="6"/>
       <c r="G1555" s="6"/>
@@ -42097,7 +42119,7 @@
         <v>2743</v>
       </c>
       <c r="E1565" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1565" s="6"/>
       <c r="G1565" s="6"/>
@@ -42202,7 +42224,7 @@
         <v>2752</v>
       </c>
       <c r="E1570" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1570" s="6"/>
       <c r="G1570" s="6"/>
@@ -42265,7 +42287,7 @@
         <v>54</v>
       </c>
       <c r="E1573" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1573" s="6"/>
       <c r="G1573" s="6"/>
@@ -42349,7 +42371,7 @@
         <v>76</v>
       </c>
       <c r="E1577" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1577" s="6"/>
       <c r="G1577" s="6"/>
@@ -42370,7 +42392,7 @@
         <v>2763</v>
       </c>
       <c r="E1578" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1578" s="6"/>
       <c r="G1578" s="6"/>
@@ -42496,7 +42518,7 @@
         <v>2774</v>
       </c>
       <c r="E1584" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1584" s="6"/>
       <c r="G1584" s="6"/>
@@ -42559,7 +42581,7 @@
         <v>2779</v>
       </c>
       <c r="E1587" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1587" s="6"/>
       <c r="G1587" s="6"/>
@@ -42601,7 +42623,7 @@
         <v>2783</v>
       </c>
       <c r="E1589" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1589" s="6"/>
       <c r="G1589" s="6"/>
@@ -42937,7 +42959,7 @@
         <v>489</v>
       </c>
       <c r="E1605" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1605" s="6"/>
       <c r="G1605" s="6"/>
@@ -43000,7 +43022,7 @@
         <v>2815</v>
       </c>
       <c r="E1608" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1608" s="6"/>
       <c r="G1608" s="6"/>
@@ -43021,7 +43043,7 @@
         <v>277</v>
       </c>
       <c r="E1609" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1609" s="6"/>
       <c r="G1609" s="6"/>
@@ -43147,7 +43169,7 @@
         <v>2826</v>
       </c>
       <c r="E1615" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1615" s="6"/>
       <c r="G1615" s="6"/>
@@ -43336,7 +43358,7 @@
         <v>2840</v>
       </c>
       <c r="E1624" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1624" s="6"/>
       <c r="G1624" s="6"/>
@@ -43378,7 +43400,7 @@
         <v>2844</v>
       </c>
       <c r="E1626" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1626" s="6"/>
       <c r="G1626" s="6"/>
@@ -43399,7 +43421,7 @@
         <v>788</v>
       </c>
       <c r="E1627" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1627" s="6"/>
       <c r="G1627" s="6"/>
@@ -43420,7 +43442,7 @@
         <v>2847</v>
       </c>
       <c r="E1628" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1628" s="6"/>
       <c r="G1628" s="6"/>
@@ -43441,7 +43463,7 @@
         <v>662</v>
       </c>
       <c r="E1629" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1629" s="6"/>
       <c r="G1629" s="6"/>
@@ -43651,7 +43673,7 @@
         <v>371</v>
       </c>
       <c r="E1639" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1639" s="6"/>
       <c r="G1639" s="6"/>
@@ -43672,7 +43694,7 @@
         <v>1564</v>
       </c>
       <c r="E1640" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1640" s="6"/>
       <c r="G1640" s="6"/>
@@ -43693,7 +43715,7 @@
         <v>2868</v>
       </c>
       <c r="E1641" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1641" s="6"/>
       <c r="G1641" s="6"/>
@@ -43735,7 +43757,7 @@
         <v>2872</v>
       </c>
       <c r="E1643" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1643" s="26" t="s">
         <v>0</v>
@@ -43800,7 +43822,7 @@
         <v>2877</v>
       </c>
       <c r="E1646" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1646" s="6"/>
       <c r="G1646" s="6"/>
@@ -43842,7 +43864,7 @@
         <v>54</v>
       </c>
       <c r="E1648" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1648" s="6"/>
       <c r="G1648" s="6"/>
@@ -43905,7 +43927,7 @@
         <v>514</v>
       </c>
       <c r="E1651" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1651" s="6"/>
       <c r="G1651" s="6"/>
@@ -43989,7 +44011,7 @@
         <v>2891</v>
       </c>
       <c r="E1655" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1655" s="6"/>
       <c r="G1655" s="6"/>
@@ -44010,7 +44032,7 @@
         <v>2397</v>
       </c>
       <c r="E1656" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1656" s="6"/>
       <c r="G1656" s="6"/>
@@ -44052,7 +44074,7 @@
         <v>15</v>
       </c>
       <c r="E1658" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1658" s="6"/>
       <c r="G1658" s="6"/>
@@ -44073,7 +44095,7 @@
         <v>2397</v>
       </c>
       <c r="E1659" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1659" s="6"/>
       <c r="G1659" s="6"/>
@@ -44115,7 +44137,7 @@
         <v>2899</v>
       </c>
       <c r="E1661" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1661" s="6"/>
       <c r="G1661" s="6"/>
@@ -44136,7 +44158,7 @@
         <v>2112</v>
       </c>
       <c r="E1662" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1662" s="6"/>
       <c r="G1662" s="6"/>
@@ -44157,7 +44179,7 @@
         <v>2902</v>
       </c>
       <c r="E1663" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1663" s="6"/>
       <c r="G1663" s="6"/>
@@ -44241,7 +44263,7 @@
         <v>1583</v>
       </c>
       <c r="E1667" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1667" s="6"/>
       <c r="G1667" s="6"/>
@@ -44262,7 +44284,7 @@
         <v>118</v>
       </c>
       <c r="E1668" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1668" s="6"/>
       <c r="G1668" s="6"/>
@@ -44304,7 +44326,7 @@
         <v>21</v>
       </c>
       <c r="E1670" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1670" s="6"/>
       <c r="G1670" s="6"/>
@@ -44451,7 +44473,7 @@
         <v>2923</v>
       </c>
       <c r="E1677" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1677" s="6"/>
       <c r="G1677" s="6"/>
@@ -44556,7 +44578,7 @@
         <v>2931</v>
       </c>
       <c r="E1682" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1682" s="6"/>
       <c r="G1682" s="6"/>
@@ -44577,7 +44599,7 @@
         <v>2397</v>
       </c>
       <c r="E1683" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1683" s="6"/>
       <c r="G1683" s="6"/>
@@ -44724,7 +44746,7 @@
         <v>2944</v>
       </c>
       <c r="E1690" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1690" s="6"/>
       <c r="G1690" s="6"/>
@@ -44808,7 +44830,7 @@
         <v>2949</v>
       </c>
       <c r="E1694" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1694" s="6"/>
       <c r="G1694" s="6"/>
@@ -44892,7 +44914,7 @@
         <v>2955</v>
       </c>
       <c r="E1698" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1698" s="6"/>
       <c r="G1698" s="6"/>
@@ -44955,7 +44977,7 @@
         <v>2961</v>
       </c>
       <c r="E1701" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1701" s="6"/>
       <c r="G1701" s="6"/>
@@ -45081,7 +45103,7 @@
         <v>2970</v>
       </c>
       <c r="E1707" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1707" s="6"/>
       <c r="G1707" s="6"/>
@@ -45186,7 +45208,7 @@
         <v>2979</v>
       </c>
       <c r="E1712" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1712" s="6"/>
       <c r="G1712" s="6"/>
@@ -45375,7 +45397,7 @@
         <v>2992</v>
       </c>
       <c r="E1721" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1721" s="6"/>
       <c r="G1721" s="6"/>
@@ -45480,7 +45502,7 @@
         <v>3000</v>
       </c>
       <c r="E1726" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1726" s="6"/>
       <c r="G1726" s="6"/>
@@ -45669,7 +45691,7 @@
         <v>3015</v>
       </c>
       <c r="E1735" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1735" s="6"/>
       <c r="G1735" s="6"/>
@@ -45690,7 +45712,7 @@
         <v>3017</v>
       </c>
       <c r="E1736" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1736" s="6"/>
       <c r="G1736" s="6"/>
@@ -45837,7 +45859,7 @@
         <v>3028</v>
       </c>
       <c r="E1743" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1743" s="6"/>
       <c r="G1743" s="6"/>
@@ -45900,7 +45922,7 @@
         <v>1632</v>
       </c>
       <c r="E1746" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1746" s="6"/>
       <c r="G1746" s="6"/>
@@ -46341,7 +46363,7 @@
         <v>3072</v>
       </c>
       <c r="E1767" s="8">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1767" s="6"/>
       <c r="G1767" s="6"/>
@@ -46362,7 +46384,7 @@
         <v>3074</v>
       </c>
       <c r="E1768" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1768" s="6"/>
       <c r="G1768" s="6"/>
@@ -46509,7 +46531,7 @@
         <v>3084</v>
       </c>
       <c r="E1775" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1775" s="6"/>
       <c r="G1775" s="6"/>
@@ -46551,7 +46573,7 @@
         <v>41</v>
       </c>
       <c r="E1777" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1777" s="6"/>
       <c r="G1777" s="6"/>
@@ -46635,7 +46657,7 @@
         <v>3094</v>
       </c>
       <c r="E1781" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1781" s="6"/>
       <c r="G1781" s="6"/>
@@ -46803,7 +46825,7 @@
         <v>3108</v>
       </c>
       <c r="E1789" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1789" s="6"/>
       <c r="G1789" s="6"/>
@@ -46887,7 +46909,7 @@
         <v>925</v>
       </c>
       <c r="E1793" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1793" s="6"/>
       <c r="G1793" s="6"/>
@@ -46971,7 +46993,7 @@
         <v>3122</v>
       </c>
       <c r="E1797" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1797" s="6"/>
       <c r="G1797" s="6"/>
@@ -47160,7 +47182,7 @@
         <v>122</v>
       </c>
       <c r="E1806" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1806" s="6"/>
       <c r="G1806" s="6"/>
@@ -47181,7 +47203,7 @@
         <v>3139</v>
       </c>
       <c r="E1807" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1807" s="6"/>
       <c r="G1807" s="6"/>
@@ -47202,7 +47224,7 @@
         <v>3141</v>
       </c>
       <c r="E1808" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1808" s="6"/>
       <c r="G1808" s="6"/>
@@ -47223,7 +47245,7 @@
         <v>662</v>
       </c>
       <c r="E1809" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1809" s="6"/>
       <c r="G1809" s="6"/>
@@ -47244,7 +47266,7 @@
         <v>514</v>
       </c>
       <c r="E1810" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1810" s="6"/>
       <c r="G1810" s="6"/>
@@ -47265,7 +47287,7 @@
         <v>3145</v>
       </c>
       <c r="E1811" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1811" s="6"/>
       <c r="G1811" s="6"/>
@@ -47286,7 +47308,7 @@
         <v>35</v>
       </c>
       <c r="E1812" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1812" s="6"/>
       <c r="G1812" s="6"/>
@@ -47307,7 +47329,7 @@
         <v>21</v>
       </c>
       <c r="E1813" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1813" s="6"/>
       <c r="G1813" s="6"/>
@@ -47370,7 +47392,7 @@
         <v>3153</v>
       </c>
       <c r="E1816" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1816" s="6"/>
       <c r="G1816" s="6"/>
@@ -47391,7 +47413,7 @@
         <v>1845</v>
       </c>
       <c r="E1817" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1817" s="6"/>
       <c r="G1817" s="6"/>
@@ -47937,7 +47959,7 @@
         <v>118</v>
       </c>
       <c r="E1843" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1843" s="6"/>
       <c r="G1843" s="6"/>
@@ -48042,7 +48064,7 @@
         <v>3209</v>
       </c>
       <c r="E1848" s="8">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F1848" s="30"/>
       <c r="G1848" s="30"/>
@@ -48063,7 +48085,7 @@
         <v>3211</v>
       </c>
       <c r="E1849" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1849" s="30"/>
       <c r="G1849" s="30"/>
@@ -70055,20 +70077,21 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I1"/>
-    <hyperlink r:id="rId2" ref="F7"/>
-    <hyperlink r:id="rId3" ref="F61"/>
-    <hyperlink r:id="rId4" ref="F112"/>
-    <hyperlink r:id="rId5" ref="D513"/>
-    <hyperlink r:id="rId6" ref="D1853"/>
+    <hyperlink r:id="rId2" ref="I1"/>
+    <hyperlink r:id="rId3" ref="F7"/>
+    <hyperlink r:id="rId4" ref="F61"/>
+    <hyperlink r:id="rId5" ref="F112"/>
+    <hyperlink r:id="rId6" ref="D513"/>
+    <hyperlink r:id="rId7" ref="D1853"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <tableParts count="2">
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -10761,7 +10761,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10781,7 +10781,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10801,7 +10801,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -10861,7 +10861,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -10881,7 +10881,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -10921,7 +10921,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -11061,7 +11061,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -11141,7 +11141,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11160,7 +11160,9 @@
       <c r="D39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8">
+        <v>0.0</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -11179,7 +11181,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11219,7 +11221,7 @@
         <v>84</v>
       </c>
       <c r="E42" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11279,7 +11281,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11519,7 +11521,7 @@
         <v>113</v>
       </c>
       <c r="E57" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -12725,7 +12727,7 @@
         <v>225</v>
       </c>
       <c r="E117" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -12785,7 +12787,7 @@
         <v>231</v>
       </c>
       <c r="E120" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -13005,7 +13007,7 @@
         <v>253</v>
       </c>
       <c r="E131" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -13065,7 +13067,7 @@
         <v>259</v>
       </c>
       <c r="E134" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -13105,7 +13107,7 @@
         <v>263</v>
       </c>
       <c r="E136" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -13125,7 +13127,7 @@
         <v>265</v>
       </c>
       <c r="E137" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -13305,7 +13307,7 @@
         <v>283</v>
       </c>
       <c r="E146" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -13325,7 +13327,7 @@
         <v>41</v>
       </c>
       <c r="E147" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -13445,7 +13447,7 @@
         <v>296</v>
       </c>
       <c r="E153" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -13505,7 +13507,7 @@
         <v>130</v>
       </c>
       <c r="E156" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -13665,7 +13667,7 @@
         <v>317</v>
       </c>
       <c r="E164" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -13685,7 +13687,7 @@
         <v>319</v>
       </c>
       <c r="E165" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -14245,7 +14247,7 @@
         <v>371</v>
       </c>
       <c r="E193" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -14425,7 +14427,7 @@
         <v>386</v>
       </c>
       <c r="E202" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -14485,7 +14487,7 @@
         <v>392</v>
       </c>
       <c r="E205" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -14605,7 +14607,7 @@
         <v>404</v>
       </c>
       <c r="E211" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -14885,7 +14887,7 @@
         <v>429</v>
       </c>
       <c r="E225" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -15045,7 +15047,7 @@
         <v>445</v>
       </c>
       <c r="E233" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -15105,7 +15107,7 @@
         <v>451</v>
       </c>
       <c r="E236" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -15225,7 +15227,7 @@
         <v>463</v>
       </c>
       <c r="E242" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -15285,7 +15287,7 @@
         <v>469</v>
       </c>
       <c r="E245" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -15825,7 +15827,7 @@
         <v>518</v>
       </c>
       <c r="E272" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -15985,7 +15987,7 @@
         <v>223</v>
       </c>
       <c r="E280" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -16145,7 +16147,7 @@
         <v>223</v>
       </c>
       <c r="E288" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -16265,7 +16267,7 @@
         <v>553</v>
       </c>
       <c r="E294" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -16345,7 +16347,7 @@
         <v>560</v>
       </c>
       <c r="E298" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -16465,7 +16467,7 @@
         <v>223</v>
       </c>
       <c r="E304" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -16725,7 +16727,7 @@
         <v>41</v>
       </c>
       <c r="E317" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -16845,7 +16847,7 @@
         <v>603</v>
       </c>
       <c r="E323" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -16945,7 +16947,7 @@
         <v>613</v>
       </c>
       <c r="E328" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -17005,7 +17007,7 @@
         <v>619</v>
       </c>
       <c r="E331" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -17045,7 +17047,7 @@
         <v>609</v>
       </c>
       <c r="E333" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -17245,7 +17247,7 @@
         <v>636</v>
       </c>
       <c r="E343" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -17305,7 +17307,7 @@
         <v>642</v>
       </c>
       <c r="E346" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -17725,7 +17727,7 @@
         <v>679</v>
       </c>
       <c r="E367" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -18005,7 +18007,7 @@
         <v>705</v>
       </c>
       <c r="E381" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -18085,7 +18087,7 @@
         <v>27</v>
       </c>
       <c r="E385" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -18245,7 +18247,7 @@
         <v>503</v>
       </c>
       <c r="E393" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -18528,7 +18530,7 @@
         <v>750</v>
       </c>
       <c r="E407" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -18769,7 +18771,7 @@
       </c>
       <c r="E419" s="13">
         <f>E20</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F419" s="21" t="s">
         <v>0</v>
@@ -18811,7 +18813,7 @@
         <v>776</v>
       </c>
       <c r="E421" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -18831,7 +18833,7 @@
         <v>778</v>
       </c>
       <c r="E422" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -18871,7 +18873,7 @@
         <v>782</v>
       </c>
       <c r="E424" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -18891,7 +18893,7 @@
         <v>784</v>
       </c>
       <c r="E425" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -19293,9 +19295,9 @@
       <c r="D445" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E445" s="13" t="str">
+      <c r="E445" s="13">
         <f>E39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F445" s="21" t="s">
         <v>0</v>
@@ -19317,7 +19319,7 @@
         <v>319</v>
       </c>
       <c r="E446" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -19417,7 +19419,7 @@
         <v>828</v>
       </c>
       <c r="E451" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -19537,7 +19539,7 @@
         <v>838</v>
       </c>
       <c r="E457" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -19757,7 +19759,7 @@
         <v>859</v>
       </c>
       <c r="E468" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -19777,7 +19779,7 @@
         <v>288</v>
       </c>
       <c r="E469" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -19857,7 +19859,7 @@
         <v>867</v>
       </c>
       <c r="E473" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -19877,7 +19879,7 @@
         <v>35</v>
       </c>
       <c r="E474" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
@@ -19997,7 +19999,7 @@
         <v>879</v>
       </c>
       <c r="E480" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
@@ -20157,7 +20159,7 @@
         <v>892</v>
       </c>
       <c r="E488" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -20417,7 +20419,7 @@
         <v>914</v>
       </c>
       <c r="E501" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -20537,7 +20539,7 @@
         <v>925</v>
       </c>
       <c r="E507" s="8">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -20657,7 +20659,7 @@
         <v>937</v>
       </c>
       <c r="E513" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -20757,7 +20759,7 @@
         <v>947</v>
       </c>
       <c r="E518" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -21057,7 +21059,7 @@
         <v>974</v>
       </c>
       <c r="E533" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -21117,7 +21119,7 @@
         <v>979</v>
       </c>
       <c r="E536" s="8">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
@@ -21360,7 +21362,7 @@
         <v>1000</v>
       </c>
       <c r="E548" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
@@ -21420,7 +21422,7 @@
         <v>578</v>
       </c>
       <c r="E551" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -21500,7 +21502,7 @@
         <v>1013</v>
       </c>
       <c r="E555" s="8">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
@@ -21540,7 +21542,7 @@
         <v>1016</v>
       </c>
       <c r="E557" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
@@ -21560,7 +21562,7 @@
         <v>1018</v>
       </c>
       <c r="E558" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
@@ -21660,7 +21662,7 @@
         <v>1026</v>
       </c>
       <c r="E563" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
@@ -21740,7 +21742,7 @@
         <v>1034</v>
       </c>
       <c r="E567" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
@@ -22023,7 +22025,7 @@
         <v>1059</v>
       </c>
       <c r="E581" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -22143,7 +22145,7 @@
         <v>1071</v>
       </c>
       <c r="E587" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
@@ -22243,7 +22245,7 @@
         <v>509</v>
       </c>
       <c r="E592" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
@@ -22343,7 +22345,7 @@
         <v>1087</v>
       </c>
       <c r="E597" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
@@ -22483,7 +22485,7 @@
         <v>1100</v>
       </c>
       <c r="E604" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -22546,7 +22548,7 @@
         <v>1103</v>
       </c>
       <c r="E607" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
@@ -22606,7 +22608,7 @@
         <v>1109</v>
       </c>
       <c r="E610" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
@@ -22646,7 +22648,7 @@
         <v>1112</v>
       </c>
       <c r="E612" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
@@ -23009,7 +23011,7 @@
         <v>1147</v>
       </c>
       <c r="E630" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
@@ -23130,7 +23132,7 @@
       </c>
       <c r="E636" s="23">
         <f>E57</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F636" s="20" t="s">
         <v>0</v>
@@ -23456,7 +23458,7 @@
       </c>
       <c r="E652" s="13">
         <f>E42</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F652" s="21" t="s">
         <v>0</v>
@@ -23538,7 +23540,7 @@
         <v>582</v>
       </c>
       <c r="E656" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F656" s="6"/>
       <c r="G656" s="6"/>
@@ -23578,7 +23580,7 @@
         <v>223</v>
       </c>
       <c r="E658" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
@@ -23641,7 +23643,7 @@
         <v>1199</v>
       </c>
       <c r="E661" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
@@ -23701,7 +23703,7 @@
         <v>1205</v>
       </c>
       <c r="E664" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F664" s="6"/>
       <c r="G664" s="6"/>
@@ -23781,7 +23783,7 @@
         <v>1212</v>
       </c>
       <c r="E668" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
@@ -23841,7 +23843,7 @@
         <v>1218</v>
       </c>
       <c r="E671" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
@@ -23861,7 +23863,7 @@
         <v>1220</v>
       </c>
       <c r="E672" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F672" s="6"/>
       <c r="G672" s="6"/>
@@ -23941,7 +23943,7 @@
         <v>1228</v>
       </c>
       <c r="E676" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F676" s="6"/>
       <c r="G676" s="6"/>
@@ -23961,7 +23963,7 @@
         <v>1230</v>
       </c>
       <c r="E677" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
@@ -24041,7 +24043,7 @@
         <v>1237</v>
       </c>
       <c r="E681" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
@@ -24101,7 +24103,7 @@
         <v>1242</v>
       </c>
       <c r="E684" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F684" s="6"/>
       <c r="G684" s="6"/>
@@ -24301,7 +24303,7 @@
         <v>1260</v>
       </c>
       <c r="E694" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F694" s="6"/>
       <c r="G694" s="6"/>
@@ -24401,7 +24403,7 @@
         <v>1270</v>
       </c>
       <c r="E699" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
@@ -24481,7 +24483,7 @@
         <v>1278</v>
       </c>
       <c r="E703" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
@@ -24741,7 +24743,7 @@
         <v>1300</v>
       </c>
       <c r="E716" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F716" s="6"/>
       <c r="G716" s="6"/>
@@ -24821,7 +24823,7 @@
         <v>1307</v>
       </c>
       <c r="E720" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F720" s="6"/>
       <c r="G720" s="6"/>
@@ -24841,7 +24843,7 @@
         <v>1309</v>
       </c>
       <c r="E721" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
@@ -24981,7 +24983,7 @@
         <v>863</v>
       </c>
       <c r="E728" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F728" s="6"/>
       <c r="G728" s="6"/>
@@ -25281,7 +25283,7 @@
         <v>1347</v>
       </c>
       <c r="E743" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
@@ -25541,7 +25543,7 @@
         <v>1370</v>
       </c>
       <c r="E756" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F756" s="6"/>
       <c r="G756" s="6"/>
@@ -25664,7 +25666,7 @@
         <v>1381</v>
       </c>
       <c r="E762" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
@@ -25847,7 +25849,7 @@
         <v>1397</v>
       </c>
       <c r="E771" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
@@ -26050,7 +26052,7 @@
         <v>912</v>
       </c>
       <c r="E781" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
@@ -26070,7 +26072,7 @@
         <v>1414</v>
       </c>
       <c r="E782" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
@@ -26251,7 +26253,7 @@
       </c>
       <c r="E791" s="13">
         <f>E34</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F791" s="26" t="s">
         <v>0</v>
@@ -26373,7 +26375,7 @@
         <v>1443</v>
       </c>
       <c r="E797" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F797" s="6"/>
       <c r="G797" s="6"/>
@@ -26434,7 +26436,7 @@
       </c>
       <c r="E800" s="13">
         <f>E38</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F800" s="21" t="s">
         <v>0</v>
@@ -26936,7 +26938,7 @@
         <v>31</v>
       </c>
       <c r="E825" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F825" s="6"/>
       <c r="G825" s="6"/>
@@ -26996,7 +26998,7 @@
         <v>1498</v>
       </c>
       <c r="E828" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F828" s="6"/>
       <c r="G828" s="6"/>
@@ -27016,7 +27018,7 @@
         <v>54</v>
       </c>
       <c r="E829" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
@@ -27036,7 +27038,7 @@
         <v>1501</v>
       </c>
       <c r="E830" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F830" s="6"/>
       <c r="G830" s="6"/>
@@ -27196,7 +27198,7 @@
         <v>1516</v>
       </c>
       <c r="E838" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F838" s="6"/>
       <c r="G838" s="6"/>
@@ -27256,7 +27258,7 @@
         <v>1522</v>
       </c>
       <c r="E841" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
@@ -27376,7 +27378,7 @@
         <v>1534</v>
       </c>
       <c r="E847" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
@@ -27636,7 +27638,7 @@
         <v>35</v>
       </c>
       <c r="E860" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F860" s="6"/>
       <c r="G860" s="6"/>
@@ -28536,7 +28538,7 @@
         <v>625</v>
       </c>
       <c r="E905" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
@@ -28656,7 +28658,7 @@
         <v>1644</v>
       </c>
       <c r="E911" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
@@ -28676,7 +28678,7 @@
         <v>1646</v>
       </c>
       <c r="E912" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F912" s="6"/>
       <c r="G912" s="6"/>
@@ -29059,7 +29061,7 @@
         <v>786</v>
       </c>
       <c r="E931" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
@@ -29382,7 +29384,7 @@
         <v>1710</v>
       </c>
       <c r="E947" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
@@ -29442,7 +29444,7 @@
         <v>1715</v>
       </c>
       <c r="E950" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F950" s="6"/>
       <c r="G950" s="6"/>
@@ -29682,7 +29684,7 @@
         <v>1738</v>
       </c>
       <c r="E962" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F962" s="6"/>
       <c r="G962" s="6"/>
@@ -30211,7 +30213,7 @@
         <v>1777</v>
       </c>
       <c r="E988" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F988" s="6"/>
       <c r="G988" s="6"/>
@@ -30251,7 +30253,7 @@
         <v>625</v>
       </c>
       <c r="E990" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F990" s="6"/>
       <c r="G990" s="6"/>
@@ -30557,7 +30559,7 @@
         <v>105</v>
       </c>
       <c r="E1005" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1005" s="6"/>
       <c r="G1005" s="6"/>
@@ -30777,7 +30779,7 @@
         <v>1824</v>
       </c>
       <c r="E1016" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1016" s="6"/>
       <c r="G1016" s="6"/>
@@ -30977,7 +30979,7 @@
         <v>1842</v>
       </c>
       <c r="E1026" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1026" s="6"/>
       <c r="G1026" s="6"/>
@@ -31197,7 +31199,7 @@
         <v>54</v>
       </c>
       <c r="E1037" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1037" s="6"/>
       <c r="G1037" s="6"/>
@@ -31277,7 +31279,7 @@
         <v>105</v>
       </c>
       <c r="E1041" s="8">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1041" s="6"/>
       <c r="G1041" s="6"/>
@@ -31317,7 +31319,7 @@
         <v>223</v>
       </c>
       <c r="E1043" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1043" s="6"/>
       <c r="G1043" s="6"/>
@@ -31697,7 +31699,7 @@
         <v>1901</v>
       </c>
       <c r="E1062" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1062" s="6"/>
       <c r="G1062" s="6"/>
@@ -31737,7 +31739,7 @@
         <v>1904</v>
       </c>
       <c r="E1064" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1064" s="6"/>
       <c r="G1064" s="6"/>
@@ -31857,7 +31859,7 @@
         <v>41</v>
       </c>
       <c r="E1070" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1070" s="6"/>
       <c r="G1070" s="6"/>
@@ -31877,7 +31879,7 @@
         <v>551</v>
       </c>
       <c r="E1071" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1071" s="6"/>
       <c r="G1071" s="6"/>
@@ -31897,7 +31899,7 @@
         <v>1830</v>
       </c>
       <c r="E1072" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1072" s="6"/>
       <c r="G1072" s="6"/>
@@ -31917,7 +31919,7 @@
         <v>74</v>
       </c>
       <c r="E1073" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1073" s="6"/>
       <c r="G1073" s="6"/>
@@ -32097,7 +32099,7 @@
         <v>1933</v>
       </c>
       <c r="E1082" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1082" s="6"/>
       <c r="G1082" s="6"/>
@@ -32317,7 +32319,7 @@
         <v>1901</v>
       </c>
       <c r="E1093" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1093" s="6"/>
       <c r="G1093" s="6"/>
@@ -32357,7 +32359,7 @@
         <v>1956</v>
       </c>
       <c r="E1095" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1095" s="6"/>
       <c r="G1095" s="6"/>
@@ -32577,7 +32579,7 @@
         <v>392</v>
       </c>
       <c r="E1106" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1106" s="6"/>
       <c r="G1106" s="6"/>
@@ -32877,7 +32879,7 @@
         <v>2002</v>
       </c>
       <c r="E1121" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1121" s="6"/>
       <c r="G1121" s="6"/>
@@ -33117,7 +33119,7 @@
         <v>152</v>
       </c>
       <c r="E1133" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1133" s="6"/>
       <c r="G1133" s="6"/>
@@ -33537,7 +33539,7 @@
         <v>1487</v>
       </c>
       <c r="E1154" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1154" s="6"/>
       <c r="G1154" s="6"/>
@@ -33577,7 +33579,7 @@
         <v>489</v>
       </c>
       <c r="E1156" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1156" s="6"/>
       <c r="G1156" s="6"/>
@@ -33897,7 +33899,7 @@
         <v>2084</v>
       </c>
       <c r="E1172" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1172" s="6"/>
       <c r="G1172" s="6"/>
@@ -34097,7 +34099,7 @@
         <v>465</v>
       </c>
       <c r="E1182" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1182" s="6"/>
       <c r="G1182" s="6"/>
@@ -34137,7 +34139,7 @@
         <v>828</v>
       </c>
       <c r="E1184" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1184" s="6"/>
       <c r="G1184" s="6"/>
@@ -34297,7 +34299,7 @@
         <v>2119</v>
       </c>
       <c r="E1192" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1192" s="6"/>
       <c r="G1192" s="6"/>
@@ -34417,7 +34419,7 @@
         <v>2130</v>
       </c>
       <c r="E1198" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1198" s="6"/>
       <c r="G1198" s="6"/>
@@ -34537,7 +34539,7 @@
         <v>2142</v>
       </c>
       <c r="E1204" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1204" s="6"/>
       <c r="G1204" s="6"/>
@@ -34657,7 +34659,7 @@
         <v>2153</v>
       </c>
       <c r="E1210" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1210" s="6"/>
       <c r="G1210" s="6"/>
@@ -34757,7 +34759,7 @@
         <v>1409</v>
       </c>
       <c r="E1215" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1215" s="6"/>
       <c r="G1215" s="6"/>
@@ -34777,7 +34779,7 @@
         <v>2162</v>
       </c>
       <c r="E1216" s="8">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1216" s="6"/>
       <c r="G1216" s="6"/>
@@ -34838,7 +34840,7 @@
         <v>2168</v>
       </c>
       <c r="E1219" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1219" s="6"/>
       <c r="G1219" s="6"/>
@@ -34859,7 +34861,7 @@
         <v>2170</v>
       </c>
       <c r="E1220" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1220" s="6"/>
       <c r="G1220" s="6"/>
@@ -35195,7 +35197,7 @@
         <v>662</v>
       </c>
       <c r="E1236" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1236" s="6"/>
       <c r="G1236" s="6"/>
@@ -35321,7 +35323,7 @@
         <v>2206</v>
       </c>
       <c r="E1242" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1242" s="6"/>
       <c r="G1242" s="6"/>
@@ -35426,7 +35428,7 @@
         <v>2215</v>
       </c>
       <c r="E1247" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1247" s="6"/>
       <c r="G1247" s="6"/>
@@ -35552,7 +35554,7 @@
         <v>2225</v>
       </c>
       <c r="E1253" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1253" s="6"/>
       <c r="G1253" s="6"/>
@@ -35657,7 +35659,7 @@
         <v>15</v>
       </c>
       <c r="E1258" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1258" s="6"/>
       <c r="G1258" s="6"/>
@@ -35699,7 +35701,7 @@
         <v>2236</v>
       </c>
       <c r="E1260" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1260" s="6"/>
       <c r="G1260" s="6"/>
@@ -35804,7 +35806,7 @@
         <v>2244</v>
       </c>
       <c r="E1265" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1265" s="6"/>
       <c r="G1265" s="6"/>
@@ -35951,7 +35953,7 @@
         <v>2256</v>
       </c>
       <c r="E1272" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1272" s="6"/>
       <c r="G1272" s="6"/>
@@ -36035,7 +36037,7 @@
         <v>2262</v>
       </c>
       <c r="E1276" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1276" s="6"/>
       <c r="G1276" s="6"/>
@@ -36077,7 +36079,7 @@
         <v>2266</v>
       </c>
       <c r="E1278" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1278" s="6"/>
       <c r="G1278" s="6"/>
@@ -36224,7 +36226,7 @@
         <v>2277</v>
       </c>
       <c r="E1285" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1285" s="6"/>
       <c r="G1285" s="6"/>
@@ -36266,7 +36268,7 @@
         <v>2281</v>
       </c>
       <c r="E1287" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1287" s="6"/>
       <c r="G1287" s="6"/>
@@ -36287,7 +36289,7 @@
         <v>2282</v>
       </c>
       <c r="E1288" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1288" s="6"/>
       <c r="G1288" s="6"/>
@@ -36350,7 +36352,7 @@
         <v>2288</v>
       </c>
       <c r="E1291" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1291" s="6"/>
       <c r="G1291" s="6"/>
@@ -36434,7 +36436,7 @@
         <v>2293</v>
       </c>
       <c r="E1295" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1295" s="6"/>
       <c r="G1295" s="6"/>
@@ -36476,7 +36478,7 @@
         <v>2297</v>
       </c>
       <c r="E1297" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1297" s="6"/>
       <c r="G1297" s="6"/>
@@ -36497,7 +36499,7 @@
         <v>2299</v>
       </c>
       <c r="E1298" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1298" s="6"/>
       <c r="G1298" s="6"/>
@@ -36539,7 +36541,7 @@
         <v>2303</v>
       </c>
       <c r="E1300" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1300" s="6"/>
       <c r="G1300" s="6"/>
@@ -36752,7 +36754,7 @@
         <v>338</v>
       </c>
       <c r="E1310" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1310" s="6"/>
       <c r="G1310" s="6"/>
@@ -37109,7 +37111,7 @@
         <v>21</v>
       </c>
       <c r="E1327" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1327" s="6"/>
       <c r="G1327" s="6"/>
@@ -37319,7 +37321,7 @@
         <v>321</v>
       </c>
       <c r="E1337" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1337" s="6"/>
       <c r="G1337" s="6"/>
@@ -37487,7 +37489,7 @@
         <v>2384</v>
       </c>
       <c r="E1345" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1345" s="6"/>
       <c r="G1345" s="6"/>
@@ -37613,7 +37615,7 @@
         <v>2393</v>
       </c>
       <c r="E1351" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1351" s="6"/>
       <c r="G1351" s="6"/>
@@ -37655,7 +37657,7 @@
         <v>2397</v>
       </c>
       <c r="E1353" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1353" s="6"/>
       <c r="G1353" s="6"/>
@@ -37739,7 +37741,7 @@
         <v>2404</v>
       </c>
       <c r="E1357" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1357" s="6"/>
       <c r="G1357" s="6"/>
@@ -38201,7 +38203,7 @@
         <v>2441</v>
       </c>
       <c r="E1379" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1379" s="6"/>
       <c r="G1379" s="6"/>
@@ -38600,7 +38602,7 @@
         <v>2472</v>
       </c>
       <c r="E1398" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1398" s="6"/>
       <c r="G1398" s="6"/>
@@ -38831,7 +38833,7 @@
         <v>2492</v>
       </c>
       <c r="E1409" s="8">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1409" s="6"/>
       <c r="G1409" s="6"/>
@@ -38852,7 +38854,7 @@
         <v>2494</v>
       </c>
       <c r="E1410" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1410" s="6"/>
       <c r="G1410" s="6"/>
@@ -38915,7 +38917,7 @@
         <v>2499</v>
       </c>
       <c r="E1413" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1413" s="6"/>
       <c r="G1413" s="6"/>
@@ -39338,7 +39340,7 @@
         <v>2531</v>
       </c>
       <c r="E1433" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1433" s="6"/>
       <c r="G1433" s="6"/>
@@ -39632,7 +39634,7 @@
         <v>2550</v>
       </c>
       <c r="E1447" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1447" s="6"/>
       <c r="G1447" s="6"/>
@@ -39716,7 +39718,7 @@
         <v>2557</v>
       </c>
       <c r="E1451" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1451" s="6"/>
       <c r="G1451" s="6"/>
@@ -39884,7 +39886,7 @@
         <v>2573</v>
       </c>
       <c r="E1459" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1459" s="6"/>
       <c r="G1459" s="6"/>
@@ -39926,7 +39928,7 @@
         <v>662</v>
       </c>
       <c r="E1461" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1461" s="6"/>
       <c r="G1461" s="6"/>
@@ -39968,7 +39970,7 @@
         <v>2578</v>
       </c>
       <c r="E1463" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1463" s="6"/>
       <c r="G1463" s="6"/>
@@ -40178,7 +40180,7 @@
         <v>2426</v>
       </c>
       <c r="E1473" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1473" s="6"/>
       <c r="G1473" s="6"/>
@@ -40199,7 +40201,7 @@
         <v>113</v>
       </c>
       <c r="E1474" s="8">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1474" s="6"/>
       <c r="G1474" s="6"/>
@@ -40262,7 +40264,7 @@
         <v>511</v>
       </c>
       <c r="E1477" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1477" s="6"/>
       <c r="G1477" s="6"/>
@@ -40283,7 +40285,7 @@
         <v>2601</v>
       </c>
       <c r="E1478" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1478" s="6"/>
       <c r="G1478" s="6"/>
@@ -40430,7 +40432,7 @@
         <v>2610</v>
       </c>
       <c r="E1485" s="8">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1485" s="6"/>
       <c r="G1485" s="6"/>
@@ -40580,7 +40582,7 @@
         <v>2621</v>
       </c>
       <c r="E1492" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1492" s="6"/>
       <c r="G1492" s="6"/>
@@ -40769,7 +40771,7 @@
         <v>2638</v>
       </c>
       <c r="E1501" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1501" s="6"/>
       <c r="G1501" s="6"/>
@@ -41063,7 +41065,7 @@
         <v>1487</v>
       </c>
       <c r="E1515" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1515" s="6"/>
       <c r="G1515" s="6"/>
@@ -41126,7 +41128,7 @@
         <v>2667</v>
       </c>
       <c r="E1518" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1518" s="6"/>
       <c r="G1518" s="6"/>
@@ -41615,7 +41617,7 @@
         <v>2705</v>
       </c>
       <c r="E1541" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1541" s="6"/>
       <c r="G1541" s="6"/>
@@ -41741,7 +41743,7 @@
         <v>662</v>
       </c>
       <c r="E1547" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1547" s="6"/>
       <c r="G1547" s="6"/>
@@ -41867,7 +41869,7 @@
         <v>2721</v>
       </c>
       <c r="E1553" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1553" s="6"/>
       <c r="G1553" s="6"/>
@@ -42224,7 +42226,7 @@
         <v>2752</v>
       </c>
       <c r="E1570" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1570" s="6"/>
       <c r="G1570" s="6"/>
@@ -42287,7 +42289,7 @@
         <v>54</v>
       </c>
       <c r="E1573" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1573" s="6"/>
       <c r="G1573" s="6"/>
@@ -42371,7 +42373,7 @@
         <v>76</v>
       </c>
       <c r="E1577" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1577" s="6"/>
       <c r="G1577" s="6"/>
@@ -42392,7 +42394,7 @@
         <v>2763</v>
       </c>
       <c r="E1578" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1578" s="6"/>
       <c r="G1578" s="6"/>
@@ -42518,7 +42520,7 @@
         <v>2774</v>
       </c>
       <c r="E1584" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1584" s="6"/>
       <c r="G1584" s="6"/>
@@ -42581,7 +42583,7 @@
         <v>2779</v>
       </c>
       <c r="E1587" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1587" s="6"/>
       <c r="G1587" s="6"/>
@@ -42623,7 +42625,7 @@
         <v>2783</v>
       </c>
       <c r="E1589" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1589" s="6"/>
       <c r="G1589" s="6"/>
@@ -42959,7 +42961,7 @@
         <v>489</v>
       </c>
       <c r="E1605" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1605" s="6"/>
       <c r="G1605" s="6"/>
@@ -43022,7 +43024,7 @@
         <v>2815</v>
       </c>
       <c r="E1608" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1608" s="6"/>
       <c r="G1608" s="6"/>
@@ -43169,7 +43171,7 @@
         <v>2826</v>
       </c>
       <c r="E1615" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1615" s="6"/>
       <c r="G1615" s="6"/>
@@ -43400,7 +43402,7 @@
         <v>2844</v>
       </c>
       <c r="E1626" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1626" s="6"/>
       <c r="G1626" s="6"/>
@@ -43421,7 +43423,7 @@
         <v>788</v>
       </c>
       <c r="E1627" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1627" s="6"/>
       <c r="G1627" s="6"/>
@@ -43463,7 +43465,7 @@
         <v>662</v>
       </c>
       <c r="E1629" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1629" s="6"/>
       <c r="G1629" s="6"/>
@@ -43673,7 +43675,7 @@
         <v>371</v>
       </c>
       <c r="E1639" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1639" s="6"/>
       <c r="G1639" s="6"/>
@@ -43694,7 +43696,7 @@
         <v>1564</v>
       </c>
       <c r="E1640" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1640" s="6"/>
       <c r="G1640" s="6"/>
@@ -43715,7 +43717,7 @@
         <v>2868</v>
       </c>
       <c r="E1641" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1641" s="6"/>
       <c r="G1641" s="6"/>
@@ -43822,7 +43824,7 @@
         <v>2877</v>
       </c>
       <c r="E1646" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1646" s="6"/>
       <c r="G1646" s="6"/>
@@ -43927,7 +43929,7 @@
         <v>514</v>
       </c>
       <c r="E1651" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1651" s="6"/>
       <c r="G1651" s="6"/>
@@ -44011,7 +44013,7 @@
         <v>2891</v>
       </c>
       <c r="E1655" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1655" s="6"/>
       <c r="G1655" s="6"/>
@@ -44074,7 +44076,7 @@
         <v>15</v>
       </c>
       <c r="E1658" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1658" s="6"/>
       <c r="G1658" s="6"/>
@@ -44137,7 +44139,7 @@
         <v>2899</v>
       </c>
       <c r="E1661" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1661" s="6"/>
       <c r="G1661" s="6"/>
@@ -44158,7 +44160,7 @@
         <v>2112</v>
       </c>
       <c r="E1662" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1662" s="6"/>
       <c r="G1662" s="6"/>
@@ -44179,7 +44181,7 @@
         <v>2902</v>
       </c>
       <c r="E1663" s="8">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1663" s="6"/>
       <c r="G1663" s="6"/>
@@ -44263,7 +44265,7 @@
         <v>1583</v>
       </c>
       <c r="E1667" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1667" s="6"/>
       <c r="G1667" s="6"/>
@@ -44284,7 +44286,7 @@
         <v>118</v>
       </c>
       <c r="E1668" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1668" s="6"/>
       <c r="G1668" s="6"/>
@@ -44326,7 +44328,7 @@
         <v>21</v>
       </c>
       <c r="E1670" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1670" s="6"/>
       <c r="G1670" s="6"/>
@@ -44473,7 +44475,7 @@
         <v>2923</v>
       </c>
       <c r="E1677" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1677" s="6"/>
       <c r="G1677" s="6"/>
@@ -44578,7 +44580,7 @@
         <v>2931</v>
       </c>
       <c r="E1682" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1682" s="6"/>
       <c r="G1682" s="6"/>
@@ -44598,9 +44600,7 @@
       <c r="D1683" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="E1683" s="8">
-        <v>17.0</v>
-      </c>
+      <c r="E1683" s="8"/>
       <c r="F1683" s="6"/>
       <c r="G1683" s="6"/>
       <c r="H1683" s="6"/>
@@ -44830,7 +44830,7 @@
         <v>2949</v>
       </c>
       <c r="E1694" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1694" s="6"/>
       <c r="G1694" s="6"/>
@@ -44914,7 +44914,7 @@
         <v>2955</v>
       </c>
       <c r="E1698" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1698" s="6"/>
       <c r="G1698" s="6"/>
@@ -44977,7 +44977,7 @@
         <v>2961</v>
       </c>
       <c r="E1701" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1701" s="6"/>
       <c r="G1701" s="6"/>
@@ -45187,7 +45187,7 @@
         <v>2977</v>
       </c>
       <c r="E1711" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1711" s="6"/>
       <c r="G1711" s="6"/>
@@ -45208,7 +45208,7 @@
         <v>2979</v>
       </c>
       <c r="E1712" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1712" s="6"/>
       <c r="G1712" s="6"/>
@@ -45397,7 +45397,7 @@
         <v>2992</v>
       </c>
       <c r="E1721" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1721" s="6"/>
       <c r="G1721" s="6"/>
@@ -45502,7 +45502,7 @@
         <v>3000</v>
       </c>
       <c r="E1726" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1726" s="6"/>
       <c r="G1726" s="6"/>
@@ -45691,7 +45691,7 @@
         <v>3015</v>
       </c>
       <c r="E1735" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1735" s="6"/>
       <c r="G1735" s="6"/>
@@ -45712,7 +45712,7 @@
         <v>3017</v>
       </c>
       <c r="E1736" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1736" s="6"/>
       <c r="G1736" s="6"/>
@@ -45922,7 +45922,7 @@
         <v>1632</v>
       </c>
       <c r="E1746" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1746" s="6"/>
       <c r="G1746" s="6"/>
@@ -46531,7 +46531,7 @@
         <v>3084</v>
       </c>
       <c r="E1775" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1775" s="6"/>
       <c r="G1775" s="6"/>
@@ -46573,7 +46573,7 @@
         <v>41</v>
       </c>
       <c r="E1777" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1777" s="6"/>
       <c r="G1777" s="6"/>
@@ -46657,7 +46657,7 @@
         <v>3094</v>
       </c>
       <c r="E1781" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1781" s="6"/>
       <c r="G1781" s="6"/>
@@ -46825,7 +46825,7 @@
         <v>3108</v>
       </c>
       <c r="E1789" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1789" s="6"/>
       <c r="G1789" s="6"/>
@@ -46909,7 +46909,7 @@
         <v>925</v>
       </c>
       <c r="E1793" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1793" s="6"/>
       <c r="G1793" s="6"/>
@@ -46993,7 +46993,7 @@
         <v>3122</v>
       </c>
       <c r="E1797" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1797" s="6"/>
       <c r="G1797" s="6"/>
@@ -47182,7 +47182,7 @@
         <v>122</v>
       </c>
       <c r="E1806" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1806" s="6"/>
       <c r="G1806" s="6"/>
@@ -47203,7 +47203,7 @@
         <v>3139</v>
       </c>
       <c r="E1807" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1807" s="6"/>
       <c r="G1807" s="6"/>
@@ -47224,7 +47224,7 @@
         <v>3141</v>
       </c>
       <c r="E1808" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1808" s="6"/>
       <c r="G1808" s="6"/>
@@ -47245,7 +47245,7 @@
         <v>662</v>
       </c>
       <c r="E1809" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1809" s="6"/>
       <c r="G1809" s="6"/>
@@ -47266,7 +47266,7 @@
         <v>514</v>
       </c>
       <c r="E1810" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1810" s="6"/>
       <c r="G1810" s="6"/>
@@ -47308,7 +47308,7 @@
         <v>35</v>
       </c>
       <c r="E1812" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1812" s="6"/>
       <c r="G1812" s="6"/>
@@ -47392,7 +47392,7 @@
         <v>3153</v>
       </c>
       <c r="E1816" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1816" s="6"/>
       <c r="G1816" s="6"/>
@@ -47413,7 +47413,7 @@
         <v>1845</v>
       </c>
       <c r="E1817" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1817" s="6"/>
       <c r="G1817" s="6"/>
@@ -48064,7 +48064,7 @@
         <v>3209</v>
       </c>
       <c r="E1848" s="8">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F1848" s="30"/>
       <c r="G1848" s="30"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -55,7 +55,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 18</t>
+    <t>Total Entries Day 19</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -10402,7 +10402,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="5.14"/>
     <col customWidth="1" min="2" max="2" width="8.86"/>
     <col customWidth="1" min="3" max="3" width="21.71"/>
     <col customWidth="1" min="4" max="4" width="55.0"/>
@@ -10437,7 +10437,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AA1"")"),350.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AB1"")"),350.0)</f>
         <v>350</v>
       </c>
       <c r="J1" s="2"/>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AA1"")"),350.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AB1"")"),350.0)</f>
         <v>350</v>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10692,7 +10692,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10800,7 +10800,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10836,7 +10836,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10854,7 +10854,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10890,7 +10890,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10944,7 +10944,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -10962,7 +10962,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="10"/>
@@ -11070,7 +11070,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11142,7 +11142,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11178,7 +11178,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11214,7 +11214,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11268,7 +11268,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11322,7 +11322,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11484,7 +11484,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11538,7 +11538,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>0</v>
@@ -11631,7 +11631,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11937,7 +11937,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12387,7 +12387,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12570,7 +12570,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12624,7 +12624,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12822,7 +12822,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12876,7 +12876,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12912,7 +12912,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12930,7 +12930,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13092,7 +13092,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13110,7 +13110,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13218,7 +13218,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13272,7 +13272,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13416,7 +13416,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13434,7 +13434,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13848,7 +13848,7 @@
         <v>363</v>
       </c>
       <c r="E188" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="10"/>
@@ -13938,7 +13938,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14100,7 +14100,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14154,7 +14154,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14262,7 +14262,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14388,7 +14388,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14478,7 +14478,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14514,7 +14514,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14532,7 +14532,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14658,7 +14658,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14712,7 +14712,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14820,7 +14820,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14874,7 +14874,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14892,7 +14892,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15360,7 +15360,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15504,7 +15504,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15540,7 +15540,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15594,7 +15594,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15648,7 +15648,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15756,7 +15756,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15828,7 +15828,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="10"/>
@@ -15936,7 +15936,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16008,7 +16008,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16026,7 +16026,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16170,7 +16170,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16278,7 +16278,7 @@
         <v>605</v>
       </c>
       <c r="E323" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F323" s="7"/>
       <c r="G323" s="10"/>
@@ -16368,7 +16368,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16422,7 +16422,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16458,7 +16458,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16494,7 +16494,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16638,7 +16638,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16692,7 +16692,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16710,7 +16710,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="23">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16836,7 +16836,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17070,7 +17070,7 @@
         <v>681</v>
       </c>
       <c r="E367" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F367" s="7"/>
       <c r="G367" s="10"/>
@@ -17322,7 +17322,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17394,7 +17394,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="10"/>
@@ -17538,7 +17538,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17793,7 +17793,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18048,7 +18048,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18066,7 +18066,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -18102,7 +18102,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18120,7 +18120,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18246,7 +18246,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18429,7 +18429,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18504,7 +18504,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18594,7 +18594,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18702,7 +18702,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18792,7 +18792,7 @@
         <v>849</v>
       </c>
       <c r="E462" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F462" s="7"/>
       <c r="G462" s="10"/>
@@ -18882,7 +18882,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18900,7 +18900,7 @@
         <v>861</v>
       </c>
       <c r="E468" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F468" s="7"/>
       <c r="G468" s="10"/>
@@ -18918,7 +18918,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -18990,7 +18990,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19008,7 +19008,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19116,7 +19116,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19260,7 +19260,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19332,7 +19332,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19386,7 +19386,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19494,7 +19494,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19602,7 +19602,7 @@
         <v>927</v>
       </c>
       <c r="E507" s="9">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F507" s="7"/>
       <c r="G507" s="10"/>
@@ -19620,7 +19620,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19710,7 +19710,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19800,7 +19800,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19836,7 +19836,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20070,7 +20070,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20106,7 +20106,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20124,7 +20124,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20343,7 +20343,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20397,7 +20397,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20469,7 +20469,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20505,7 +20505,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20523,7 +20523,7 @@
         <v>1020</v>
       </c>
       <c r="E558" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F558" s="7"/>
       <c r="G558" s="10"/>
@@ -20559,7 +20559,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20613,7 +20613,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20685,7 +20685,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20940,7 +20940,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -20994,7 +20994,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21048,7 +21048,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21138,7 +21138,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21228,7 +21228,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21354,7 +21354,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21411,7 +21411,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21465,7 +21465,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21501,7 +21501,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21828,7 +21828,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>0</v>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>0</v>
@@ -22305,7 +22305,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22341,7 +22341,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22398,7 +22398,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22452,7 +22452,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22524,7 +22524,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22578,7 +22578,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22596,7 +22596,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22668,7 +22668,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22686,7 +22686,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22758,7 +22758,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22812,7 +22812,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -22992,7 +22992,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23082,7 +23082,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23154,7 +23154,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23388,7 +23388,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23460,7 +23460,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23478,7 +23478,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23604,7 +23604,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F728" s="7"/>
       <c r="G728" s="10"/>
@@ -23874,7 +23874,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24108,7 +24108,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24219,7 +24219,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="10"/>
@@ -24310,7 +24310,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24567,7 +24567,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24585,7 +24585,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24748,7 +24748,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F791" s="30" t="s">
         <v>0</v>
@@ -24913,7 +24913,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>0</v>
@@ -25221,7 +25221,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25365,7 +25365,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25419,7 +25419,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25455,7 +25455,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25653,7 +25653,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25761,7 +25761,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -25995,7 +25995,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26031,7 +26031,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26697,7 +26697,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26733,7 +26733,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26805,7 +26805,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26913,7 +26913,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26931,7 +26931,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27075,7 +27075,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27111,7 +27111,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27184,7 +27184,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27402,7 +27402,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27567,7 +27567,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27621,7 +27621,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27783,7 +27783,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27837,7 +27837,7 @@
         <v>1740</v>
       </c>
       <c r="E962" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F962" s="7"/>
       <c r="G962" s="10"/>
@@ -27894,7 +27894,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28314,7 +28314,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28350,7 +28350,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28752,7 +28752,7 @@
         <v>644</v>
       </c>
       <c r="E1012" s="9">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1012" s="7"/>
       <c r="G1012" s="10"/>
@@ -28824,7 +28824,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28950,7 +28950,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29004,7 +29004,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29202,7 +29202,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29274,7 +29274,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29310,7 +29310,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29508,7 +29508,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29544,7 +29544,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29652,7 +29652,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29688,7 +29688,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29796,7 +29796,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29814,7 +29814,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29832,7 +29832,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29850,7 +29850,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30012,7 +30012,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30138,7 +30138,7 @@
         <v>1948</v>
       </c>
       <c r="E1089" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1089" s="7"/>
       <c r="G1089" s="10"/>
@@ -30156,7 +30156,7 @@
         <v>21</v>
       </c>
       <c r="E1090" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1090" s="7"/>
       <c r="G1090" s="10"/>
@@ -30210,7 +30210,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30246,7 +30246,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30444,7 +30444,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30624,7 +30624,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30714,7 +30714,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30768,7 +30768,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30930,7 +30930,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31308,7 +31308,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31326,7 +31326,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31344,7 +31344,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31470,7 +31470,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31632,7 +31632,7 @@
         <v>2086</v>
       </c>
       <c r="E1172" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1172" s="7"/>
       <c r="G1172" s="10"/>
@@ -31650,7 +31650,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31812,7 +31812,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1182" s="7"/>
       <c r="G1182" s="10"/>
@@ -31848,7 +31848,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -31992,7 +31992,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32208,7 +32208,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32316,7 +32316,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32406,7 +32406,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32424,7 +32424,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32479,7 +32479,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32498,7 +32498,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32802,7 +32802,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32916,7 +32916,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33011,7 +33011,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33125,7 +33125,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33220,7 +33220,7 @@
         <v>17</v>
       </c>
       <c r="E1258" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33258,7 +33258,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33353,7 +33353,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33486,7 +33486,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33562,7 +33562,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33600,7 +33600,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33714,7 +33714,7 @@
         <v>1354</v>
       </c>
       <c r="E1284" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1284" s="7"/>
       <c r="G1284" s="10"/>
@@ -33733,7 +33733,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33752,7 +33752,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33771,7 +33771,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33790,7 +33790,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33847,7 +33847,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33885,7 +33885,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33904,7 +33904,7 @@
         <v>1722</v>
       </c>
       <c r="E1294" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1294" s="7"/>
       <c r="G1294" s="10"/>
@@ -33923,7 +33923,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33961,7 +33961,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33980,7 +33980,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34018,7 +34018,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34094,7 +34094,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34211,7 +34211,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34325,7 +34325,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34534,7 +34534,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34724,7 +34724,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34876,7 +34876,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -34990,7 +34990,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35028,7 +35028,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35104,7 +35104,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35275,7 +35275,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35522,7 +35522,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35769,7 +35769,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35883,7 +35883,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36092,7 +36092,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36111,7 +36111,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36168,7 +36168,7 @@
         <v>2501</v>
       </c>
       <c r="E1413" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1413" s="7"/>
       <c r="G1413" s="10"/>
@@ -36339,7 +36339,7 @@
         <v>17</v>
       </c>
       <c r="E1422" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36494,7 +36494,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36532,7 +36532,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36551,7 +36551,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36817,7 +36817,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36893,7 +36893,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37045,7 +37045,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37083,7 +37083,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37121,7 +37121,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37311,7 +37311,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37330,7 +37330,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37406,7 +37406,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37501,7 +37501,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37539,7 +37539,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37577,7 +37577,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37675,7 +37675,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37770,7 +37770,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -37846,7 +37846,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38112,7 +38112,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38150,7 +38150,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38169,7 +38169,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38283,7 +38283,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38397,7 +38397,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38454,7 +38454,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38473,7 +38473,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38612,7 +38612,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38688,7 +38688,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38764,7 +38764,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1549" s="7"/>
       <c r="G1549" s="10"/>
@@ -38783,7 +38783,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -38878,7 +38878,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39068,7 +39068,7 @@
         <v>2745</v>
       </c>
       <c r="E1565" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1565" s="7"/>
       <c r="G1565" s="10"/>
@@ -39163,7 +39163,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39220,7 +39220,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39296,7 +39296,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39315,7 +39315,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39429,7 +39429,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39486,7 +39486,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39524,7 +39524,7 @@
         <v>2785</v>
       </c>
       <c r="E1589" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1589" s="7"/>
       <c r="G1589" s="10"/>
@@ -39828,7 +39828,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39885,7 +39885,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39904,7 +39904,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40018,7 +40018,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40189,7 +40189,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40227,7 +40227,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40246,7 +40246,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1627" s="7"/>
       <c r="G1627" s="10"/>
@@ -40265,7 +40265,7 @@
         <v>2849</v>
       </c>
       <c r="E1628" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1628" s="7"/>
       <c r="G1628" s="10"/>
@@ -40284,7 +40284,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40322,7 +40322,7 @@
         <v>2854</v>
       </c>
       <c r="E1631" s="9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F1631" s="7"/>
       <c r="G1631" s="10"/>
@@ -40474,7 +40474,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40493,7 +40493,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1640" s="7"/>
       <c r="G1640" s="10"/>
@@ -40512,7 +40512,7 @@
         <v>2870</v>
       </c>
       <c r="E1641" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1641" s="7"/>
       <c r="G1641" s="10"/>
@@ -40550,7 +40550,7 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1643" s="30" t="s">
         <v>0</v>
@@ -40609,7 +40609,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40647,7 +40647,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1648" s="7"/>
       <c r="G1648" s="10"/>
@@ -40704,7 +40704,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40780,7 +40780,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40799,7 +40799,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40837,7 +40837,7 @@
         <v>17</v>
       </c>
       <c r="E1658" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40856,7 +40856,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40894,7 +40894,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40913,7 +40913,7 @@
         <v>2114</v>
       </c>
       <c r="E1662" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1662" s="7"/>
       <c r="G1662" s="10"/>
@@ -40932,7 +40932,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41008,7 +41008,7 @@
         <v>1585</v>
       </c>
       <c r="E1667" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1667" s="7"/>
       <c r="G1667" s="10"/>
@@ -41027,7 +41027,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41065,7 +41065,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41198,7 +41198,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41293,7 +41293,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41312,7 +41312,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41445,7 +41445,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41521,7 +41521,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41597,7 +41597,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41654,7 +41654,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41768,7 +41768,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -41863,7 +41863,7 @@
         <v>2981</v>
       </c>
       <c r="E1712" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1712" s="7"/>
       <c r="G1712" s="10"/>
@@ -42034,7 +42034,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42129,7 +42129,7 @@
         <v>3002</v>
       </c>
       <c r="E1726" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1726" s="7"/>
       <c r="G1726" s="10"/>
@@ -42300,7 +42300,7 @@
         <v>3017</v>
       </c>
       <c r="E1735" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1735" s="7"/>
       <c r="G1735" s="10"/>
@@ -42319,7 +42319,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42452,7 +42452,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42509,7 +42509,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42908,7 +42908,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42927,7 +42927,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43060,7 +43060,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43098,7 +43098,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43326,7 +43326,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43402,7 +43402,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43478,7 +43478,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43649,7 +43649,7 @@
         <v>124</v>
       </c>
       <c r="E1806" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1806" s="7"/>
       <c r="G1806" s="10"/>
@@ -43668,7 +43668,7 @@
         <v>3141</v>
       </c>
       <c r="E1807" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1807" s="7"/>
       <c r="G1807" s="10"/>
@@ -43687,7 +43687,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43706,7 +43706,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1809" s="7"/>
       <c r="G1809" s="10"/>
@@ -43725,7 +43725,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43744,7 +43744,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43763,7 +43763,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43782,7 +43782,7 @@
         <v>23</v>
       </c>
       <c r="E1813" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1813" s="7"/>
       <c r="G1813" s="10"/>
@@ -43839,7 +43839,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43858,7 +43858,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44352,7 +44352,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44447,7 +44447,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F1848" s="34"/>
       <c r="G1848" s="10"/>
@@ -44466,7 +44466,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1849" s="34"/>
       <c r="G1849" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -55,7 +55,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 19</t>
+    <t>Total Entries Day 20</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -10437,8 +10437,8 @@
         <v>6</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AB1"")"),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AC1"")"),341.0)</f>
+        <v>341</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10545,8 +10545,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AB1"")"),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AC1"")"),341.0)</f>
+        <v>341</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10601,7 +10601,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10692,7 +10692,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10800,7 +10800,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10818,7 +10818,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="10"/>
@@ -10836,7 +10836,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10854,7 +10854,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10890,7 +10890,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10944,7 +10944,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -10962,7 +10962,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="10"/>
@@ -11070,7 +11070,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11142,7 +11142,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11178,7 +11178,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11214,7 +11214,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11268,7 +11268,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11322,7 +11322,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11484,7 +11484,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11538,7 +11538,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>0</v>
@@ -11631,7 +11631,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11937,7 +11937,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12387,7 +12387,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12570,7 +12570,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12624,7 +12624,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12822,7 +12822,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12876,7 +12876,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12912,7 +12912,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12930,7 +12930,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13092,7 +13092,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13110,7 +13110,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13218,7 +13218,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13272,7 +13272,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13416,7 +13416,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13434,7 +13434,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13848,7 +13848,7 @@
         <v>363</v>
       </c>
       <c r="E188" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="10"/>
@@ -13938,7 +13938,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14100,7 +14100,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14154,7 +14154,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14262,7 +14262,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14388,7 +14388,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14478,7 +14478,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14532,7 +14532,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14658,7 +14658,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14712,7 +14712,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14874,7 +14874,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14892,7 +14892,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15360,7 +15360,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15504,7 +15504,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15540,7 +15540,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15594,7 +15594,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15648,7 +15648,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15756,7 +15756,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15936,7 +15936,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16008,7 +16008,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16026,7 +16026,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16170,7 +16170,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16368,7 +16368,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16422,7 +16422,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16458,7 +16458,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16494,7 +16494,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16638,7 +16638,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16692,7 +16692,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16710,7 +16710,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="23">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16836,7 +16836,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17070,7 +17070,7 @@
         <v>681</v>
       </c>
       <c r="E367" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F367" s="7"/>
       <c r="G367" s="10"/>
@@ -17322,7 +17322,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17394,7 +17394,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="10"/>
@@ -17538,7 +17538,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17793,7 +17793,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18010,7 +18010,7 @@
       </c>
       <c r="E419" s="16">
         <f>E20</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F419" s="25" t="s">
         <v>0</v>
@@ -18048,7 +18048,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18066,7 +18066,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -18102,7 +18102,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18120,7 +18120,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18246,7 +18246,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18429,7 +18429,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18504,7 +18504,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18594,7 +18594,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18702,7 +18702,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18792,7 +18792,7 @@
         <v>849</v>
       </c>
       <c r="E462" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F462" s="7"/>
       <c r="G462" s="10"/>
@@ -18882,7 +18882,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18900,7 +18900,7 @@
         <v>861</v>
       </c>
       <c r="E468" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F468" s="7"/>
       <c r="G468" s="10"/>
@@ -18918,7 +18918,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -18990,7 +18990,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19008,7 +19008,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19134,7 +19134,7 @@
         <v>760</v>
       </c>
       <c r="E481" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F481" s="7"/>
       <c r="G481" s="10"/>
@@ -19260,7 +19260,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19332,7 +19332,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19386,7 +19386,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19494,7 +19494,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19620,7 +19620,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19710,7 +19710,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19800,7 +19800,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19836,7 +19836,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20070,7 +20070,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20106,7 +20106,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20124,7 +20124,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20343,7 +20343,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20397,7 +20397,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20469,7 +20469,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20505,7 +20505,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20523,7 +20523,7 @@
         <v>1020</v>
       </c>
       <c r="E558" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F558" s="7"/>
       <c r="G558" s="10"/>
@@ -20559,7 +20559,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20613,7 +20613,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20685,7 +20685,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20940,7 +20940,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -20994,7 +20994,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21048,7 +21048,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21138,7 +21138,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21228,7 +21228,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21354,7 +21354,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21411,7 +21411,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21465,7 +21465,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21501,7 +21501,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21828,7 +21828,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>0</v>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>0</v>
@@ -22305,7 +22305,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22341,7 +22341,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22398,7 +22398,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22452,7 +22452,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22524,7 +22524,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22578,7 +22578,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22596,7 +22596,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22668,7 +22668,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22686,7 +22686,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22758,7 +22758,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22812,7 +22812,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -22992,7 +22992,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23082,7 +23082,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23154,7 +23154,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23388,7 +23388,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23460,7 +23460,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23478,7 +23478,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23604,7 +23604,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F728" s="7"/>
       <c r="G728" s="10"/>
@@ -23874,7 +23874,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24108,7 +24108,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24219,7 +24219,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="10"/>
@@ -24310,7 +24310,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24567,7 +24567,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24585,7 +24585,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24748,7 +24748,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F791" s="30" t="s">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>1445</v>
       </c>
       <c r="E797" s="9">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F797" s="7"/>
       <c r="G797" s="10"/>
@@ -24913,7 +24913,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>0</v>
@@ -25221,7 +25221,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25365,7 +25365,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25419,7 +25419,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25455,7 +25455,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25653,7 +25653,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25761,7 +25761,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -25995,7 +25995,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26031,7 +26031,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26697,7 +26697,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26733,7 +26733,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26805,7 +26805,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26913,7 +26913,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26931,7 +26931,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27075,7 +27075,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27111,7 +27111,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27184,7 +27184,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27402,7 +27402,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27567,7 +27567,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27621,7 +27621,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27783,7 +27783,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27894,7 +27894,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28314,7 +28314,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28350,7 +28350,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28626,7 +28626,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1005" s="7"/>
       <c r="G1005" s="10"/>
@@ -28752,7 +28752,7 @@
         <v>644</v>
       </c>
       <c r="E1012" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1012" s="7"/>
       <c r="G1012" s="10"/>
@@ -28824,7 +28824,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28950,7 +28950,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29004,7 +29004,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29202,7 +29202,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29274,7 +29274,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29310,7 +29310,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29508,7 +29508,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29544,7 +29544,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29652,7 +29652,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29688,7 +29688,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29796,7 +29796,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29814,7 +29814,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29832,7 +29832,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29850,7 +29850,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30012,7 +30012,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30138,7 +30138,7 @@
         <v>1948</v>
       </c>
       <c r="E1089" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1089" s="7"/>
       <c r="G1089" s="10"/>
@@ -30210,7 +30210,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30246,7 +30246,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30444,7 +30444,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30624,7 +30624,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30714,7 +30714,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30768,7 +30768,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30930,7 +30930,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31308,7 +31308,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31326,7 +31326,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31344,7 +31344,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31470,7 +31470,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31632,7 +31632,7 @@
         <v>2086</v>
       </c>
       <c r="E1172" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1172" s="7"/>
       <c r="G1172" s="10"/>
@@ -31650,7 +31650,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31812,7 +31812,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1182" s="7"/>
       <c r="G1182" s="10"/>
@@ -31848,7 +31848,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -31992,7 +31992,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32208,7 +32208,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32316,7 +32316,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32406,7 +32406,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32424,7 +32424,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32479,7 +32479,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32498,7 +32498,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32802,7 +32802,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32916,7 +32916,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33011,7 +33011,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33125,7 +33125,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33220,7 +33220,7 @@
         <v>17</v>
       </c>
       <c r="E1258" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33258,7 +33258,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33353,7 +33353,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33486,7 +33486,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33562,7 +33562,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33600,7 +33600,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33714,7 +33714,7 @@
         <v>1354</v>
       </c>
       <c r="E1284" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1284" s="7"/>
       <c r="G1284" s="10"/>
@@ -33733,7 +33733,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33752,7 +33752,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33771,7 +33771,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33790,7 +33790,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33847,7 +33847,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33885,7 +33885,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33904,7 +33904,7 @@
         <v>1722</v>
       </c>
       <c r="E1294" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1294" s="7"/>
       <c r="G1294" s="10"/>
@@ -33923,7 +33923,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33961,7 +33961,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33980,7 +33980,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34018,7 +34018,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34094,7 +34094,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34211,7 +34211,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34534,7 +34534,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34724,7 +34724,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34876,7 +34876,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -34990,7 +34990,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35028,7 +35028,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35104,7 +35104,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35275,7 +35275,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35522,7 +35522,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35769,7 +35769,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35883,7 +35883,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36092,7 +36092,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36111,7 +36111,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36168,7 +36168,7 @@
         <v>2501</v>
       </c>
       <c r="E1413" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1413" s="7"/>
       <c r="G1413" s="10"/>
@@ -36339,7 +36339,7 @@
         <v>17</v>
       </c>
       <c r="E1422" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36494,7 +36494,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36532,7 +36532,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36551,7 +36551,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36817,7 +36817,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36893,7 +36893,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37045,7 +37045,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37083,7 +37083,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37121,7 +37121,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37311,7 +37311,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37330,7 +37330,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37387,7 +37387,7 @@
         <v>513</v>
       </c>
       <c r="E1477" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1477" s="7"/>
       <c r="G1477" s="10"/>
@@ -37406,7 +37406,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37501,7 +37501,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37577,7 +37577,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37675,7 +37675,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37770,7 +37770,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -37846,7 +37846,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38112,7 +38112,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38150,7 +38150,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38169,7 +38169,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38283,7 +38283,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38397,7 +38397,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38454,7 +38454,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38473,7 +38473,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38612,7 +38612,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38688,7 +38688,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38726,7 +38726,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="9">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1547" s="7"/>
       <c r="G1547" s="10"/>
@@ -38878,7 +38878,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39068,7 +39068,7 @@
         <v>2745</v>
       </c>
       <c r="E1565" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1565" s="7"/>
       <c r="G1565" s="10"/>
@@ -39163,7 +39163,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39220,7 +39220,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39296,7 +39296,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39315,7 +39315,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39429,7 +39429,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39486,7 +39486,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39828,7 +39828,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39885,7 +39885,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39904,7 +39904,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40018,7 +40018,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40189,7 +40189,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40227,7 +40227,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40246,7 +40246,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1627" s="7"/>
       <c r="G1627" s="10"/>
@@ -40265,7 +40265,7 @@
         <v>2849</v>
       </c>
       <c r="E1628" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1628" s="7"/>
       <c r="G1628" s="10"/>
@@ -40284,7 +40284,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40474,7 +40474,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40493,7 +40493,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1640" s="7"/>
       <c r="G1640" s="10"/>
@@ -40512,7 +40512,7 @@
         <v>2870</v>
       </c>
       <c r="E1641" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1641" s="7"/>
       <c r="G1641" s="10"/>
@@ -40550,7 +40550,7 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1643" s="30" t="s">
         <v>0</v>
@@ -40609,7 +40609,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40647,7 +40647,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1648" s="7"/>
       <c r="G1648" s="10"/>
@@ -40704,7 +40704,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40780,7 +40780,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40799,7 +40799,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40837,7 +40837,7 @@
         <v>17</v>
       </c>
       <c r="E1658" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40856,7 +40856,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40894,7 +40894,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40913,7 +40913,7 @@
         <v>2114</v>
       </c>
       <c r="E1662" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1662" s="7"/>
       <c r="G1662" s="10"/>
@@ -41008,7 +41008,7 @@
         <v>1585</v>
       </c>
       <c r="E1667" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1667" s="7"/>
       <c r="G1667" s="10"/>
@@ -41027,7 +41027,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41065,7 +41065,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41198,7 +41198,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41293,7 +41293,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41312,7 +41312,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41445,7 +41445,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41521,7 +41521,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41597,7 +41597,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41654,7 +41654,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41768,7 +41768,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -41863,7 +41863,7 @@
         <v>2981</v>
       </c>
       <c r="E1712" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1712" s="7"/>
       <c r="G1712" s="10"/>
@@ -42034,7 +42034,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42319,7 +42319,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42452,7 +42452,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42509,7 +42509,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42908,7 +42908,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42927,7 +42927,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43060,7 +43060,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43098,7 +43098,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43174,7 +43174,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="9">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="10"/>
@@ -43326,7 +43326,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43402,7 +43402,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43478,7 +43478,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43649,7 +43649,7 @@
         <v>124</v>
       </c>
       <c r="E1806" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1806" s="7"/>
       <c r="G1806" s="10"/>
@@ -43668,7 +43668,7 @@
         <v>3141</v>
       </c>
       <c r="E1807" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1807" s="7"/>
       <c r="G1807" s="10"/>
@@ -43687,7 +43687,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43706,7 +43706,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1809" s="7"/>
       <c r="G1809" s="10"/>
@@ -43725,7 +43725,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43744,7 +43744,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43763,7 +43763,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43782,7 +43782,7 @@
         <v>23</v>
       </c>
       <c r="E1813" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1813" s="7"/>
       <c r="G1813" s="10"/>
@@ -43839,7 +43839,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43858,7 +43858,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44352,7 +44352,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44447,7 +44447,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1848" s="34"/>
       <c r="G1848" s="10"/>
@@ -44466,7 +44466,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1849" s="34"/>
       <c r="G1849" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -55,7 +55,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 20</t>
+    <t>Total Entries Day 21</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -10105,7 +10105,17 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
     <dxf>
       <font/>
       <fill>
@@ -10146,9 +10156,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -10437,8 +10447,8 @@
         <v>6</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AC1"")"),341.0)</f>
-        <v>341</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AD1"")"),336.0)</f>
+        <v>336</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10545,8 +10555,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AC1"")"),341.0)</f>
-        <v>341</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AD1"")"),336.0)</f>
+        <v>336</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10601,7 +10611,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10692,7 +10702,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10800,7 +10810,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10836,7 +10846,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10854,7 +10864,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10890,7 +10900,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10944,7 +10954,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -10962,7 +10972,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="10"/>
@@ -11070,7 +11080,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11142,7 +11152,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11178,7 +11188,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11214,7 +11224,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11268,7 +11278,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11322,7 +11332,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11484,7 +11494,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11538,7 +11548,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11557,7 +11567,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>0</v>
@@ -11631,7 +11641,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11937,7 +11947,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12387,7 +12397,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12570,7 +12580,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12624,7 +12634,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12822,7 +12832,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12876,7 +12886,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12912,7 +12922,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12930,7 +12940,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13092,7 +13102,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13110,7 +13120,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13218,7 +13228,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13272,7 +13282,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13416,7 +13426,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13434,7 +13444,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13848,7 +13858,7 @@
         <v>363</v>
       </c>
       <c r="E188" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="10"/>
@@ -13938,7 +13948,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14100,7 +14110,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14154,7 +14164,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14262,7 +14272,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14388,7 +14398,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14478,7 +14488,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14514,7 +14524,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14532,7 +14542,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14658,7 +14668,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14712,7 +14722,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14820,7 +14830,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14874,7 +14884,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14892,7 +14902,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15360,7 +15370,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15504,7 +15514,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15540,7 +15550,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15594,7 +15604,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15648,7 +15658,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15756,7 +15766,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15828,7 +15838,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="10"/>
@@ -15936,7 +15946,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16008,7 +16018,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16026,7 +16036,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16170,7 +16180,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16368,7 +16378,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16422,7 +16432,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16458,7 +16468,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16494,7 +16504,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16638,7 +16648,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16692,7 +16702,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16710,7 +16720,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="23">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16836,7 +16846,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17322,7 +17332,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17394,7 +17404,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="10"/>
@@ -17538,7 +17548,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17793,7 +17803,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18048,7 +18058,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18066,7 +18076,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -18102,7 +18112,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18120,7 +18130,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18246,7 +18256,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18429,7 +18439,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18504,7 +18514,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18594,7 +18604,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18702,7 +18712,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18882,7 +18892,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18918,7 +18928,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -18990,7 +19000,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19008,7 +19018,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19116,7 +19126,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19260,7 +19270,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19332,7 +19342,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19386,7 +19396,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19494,7 +19504,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19620,7 +19630,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19710,7 +19720,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19800,7 +19810,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19836,7 +19846,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20070,7 +20080,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20106,7 +20116,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20124,7 +20134,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20343,7 +20353,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20397,7 +20407,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20469,7 +20479,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20505,7 +20515,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20523,7 +20533,7 @@
         <v>1020</v>
       </c>
       <c r="E558" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F558" s="7"/>
       <c r="G558" s="10"/>
@@ -20559,7 +20569,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20685,7 +20695,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20940,7 +20950,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -20994,7 +21004,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21048,7 +21058,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21138,7 +21148,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21228,7 +21238,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21354,7 +21364,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21411,7 +21421,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21465,7 +21475,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21501,7 +21511,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21828,7 +21838,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21937,7 +21947,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>0</v>
@@ -22231,7 +22241,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>0</v>
@@ -22305,7 +22315,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22341,7 +22351,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22398,7 +22408,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22452,7 +22462,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22524,7 +22534,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22578,7 +22588,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22596,7 +22606,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22668,7 +22678,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22686,7 +22696,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22758,7 +22768,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22812,7 +22822,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -22992,7 +23002,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23082,7 +23092,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23154,7 +23164,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23388,7 +23398,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23460,7 +23470,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23478,7 +23488,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23874,7 +23884,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24108,7 +24118,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24219,7 +24229,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="10"/>
@@ -24310,7 +24320,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>0</v>
@@ -24384,7 +24394,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24567,7 +24577,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24585,7 +24595,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24748,7 +24758,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F791" s="30" t="s">
         <v>0</v>
@@ -24858,7 +24868,7 @@
         <v>1445</v>
       </c>
       <c r="E797" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F797" s="7"/>
       <c r="G797" s="10"/>
@@ -24913,7 +24923,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>0</v>
@@ -25221,7 +25231,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25365,7 +25375,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25419,7 +25429,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25455,7 +25465,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25653,7 +25663,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25761,7 +25771,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -25995,7 +26005,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26031,7 +26041,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26697,7 +26707,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26733,7 +26743,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26805,7 +26815,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26913,7 +26923,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26931,7 +26941,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27075,7 +27085,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27111,7 +27121,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27184,7 +27194,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>0</v>
@@ -27276,7 +27286,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27402,7 +27412,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27567,7 +27577,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27621,7 +27631,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27783,7 +27793,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27894,7 +27904,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28314,7 +28324,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28350,7 +28360,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28626,7 +28636,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1005" s="7"/>
       <c r="G1005" s="10"/>
@@ -28752,7 +28762,7 @@
         <v>644</v>
       </c>
       <c r="E1012" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1012" s="7"/>
       <c r="G1012" s="10"/>
@@ -28824,7 +28834,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28950,7 +28960,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29004,7 +29014,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29202,7 +29212,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29274,7 +29284,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29310,7 +29320,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29508,7 +29518,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29544,7 +29554,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29652,7 +29662,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29688,7 +29698,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29796,7 +29806,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29814,7 +29824,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29832,7 +29842,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29850,7 +29860,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30012,7 +30022,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30138,7 +30148,7 @@
         <v>1948</v>
       </c>
       <c r="E1089" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1089" s="7"/>
       <c r="G1089" s="10"/>
@@ -30210,7 +30220,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30246,7 +30256,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30444,7 +30454,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30624,7 +30634,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30714,7 +30724,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30768,7 +30778,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30930,7 +30940,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31308,7 +31318,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31326,7 +31336,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31344,7 +31354,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31470,7 +31480,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31632,7 +31642,7 @@
         <v>2086</v>
       </c>
       <c r="E1172" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1172" s="7"/>
       <c r="G1172" s="10"/>
@@ -31650,7 +31660,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31812,7 +31822,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1182" s="7"/>
       <c r="G1182" s="10"/>
@@ -31848,7 +31858,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -31992,7 +32002,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32208,7 +32218,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32316,7 +32326,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32406,7 +32416,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32424,7 +32434,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32479,7 +32489,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32498,7 +32508,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32802,7 +32812,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32916,7 +32926,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33011,7 +33021,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33125,7 +33135,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33220,7 +33230,7 @@
         <v>17</v>
       </c>
       <c r="E1258" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33258,7 +33268,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33353,7 +33363,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33486,7 +33496,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33562,7 +33572,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33600,7 +33610,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33714,7 +33724,7 @@
         <v>1354</v>
       </c>
       <c r="E1284" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1284" s="7"/>
       <c r="G1284" s="10"/>
@@ -33733,7 +33743,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33752,7 +33762,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33771,7 +33781,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33790,7 +33800,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33847,7 +33857,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33885,7 +33895,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33904,7 +33914,7 @@
         <v>1722</v>
       </c>
       <c r="E1294" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1294" s="7"/>
       <c r="G1294" s="10"/>
@@ -33923,7 +33933,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33961,7 +33971,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33980,7 +33990,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34018,7 +34028,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34094,7 +34104,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34211,7 +34221,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34325,7 +34335,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34534,7 +34544,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34724,7 +34734,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34876,7 +34886,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -34990,7 +35000,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35028,7 +35038,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35104,7 +35114,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35275,7 +35285,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35522,7 +35532,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35769,7 +35779,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35883,7 +35893,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36092,7 +36102,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36111,7 +36121,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36339,7 +36349,7 @@
         <v>17</v>
       </c>
       <c r="E1422" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36494,7 +36504,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36532,7 +36542,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36551,7 +36561,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36817,7 +36827,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36893,7 +36903,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37045,7 +37055,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37083,7 +37093,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37121,7 +37131,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37311,7 +37321,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37330,7 +37340,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37387,7 +37397,7 @@
         <v>513</v>
       </c>
       <c r="E1477" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1477" s="7"/>
       <c r="G1477" s="10"/>
@@ -37406,7 +37416,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37501,7 +37511,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37539,7 +37549,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37577,7 +37587,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37675,7 +37685,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37770,7 +37780,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -37846,7 +37856,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38112,7 +38122,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38150,7 +38160,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38169,7 +38179,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38283,7 +38293,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38397,7 +38407,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38454,7 +38464,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38473,7 +38483,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38612,7 +38622,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38688,7 +38698,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38764,7 +38774,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="9">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1549" s="7"/>
       <c r="G1549" s="10"/>
@@ -38783,7 +38793,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -38840,7 +38850,7 @@
         <v>2723</v>
       </c>
       <c r="E1553" s="9">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1553" s="7"/>
       <c r="G1553" s="10"/>
@@ -38878,7 +38888,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39068,7 +39078,7 @@
         <v>2745</v>
       </c>
       <c r="E1565" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1565" s="7"/>
       <c r="G1565" s="10"/>
@@ -39163,7 +39173,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39220,7 +39230,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39296,7 +39306,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39315,7 +39325,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39429,7 +39439,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39486,7 +39496,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39828,7 +39838,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39885,7 +39895,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39904,7 +39914,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40018,7 +40028,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40189,7 +40199,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40227,7 +40237,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40246,7 +40256,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1627" s="7"/>
       <c r="G1627" s="10"/>
@@ -40265,7 +40275,7 @@
         <v>2849</v>
       </c>
       <c r="E1628" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1628" s="7"/>
       <c r="G1628" s="10"/>
@@ -40284,7 +40294,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40474,7 +40484,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40512,7 +40522,7 @@
         <v>2870</v>
       </c>
       <c r="E1641" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1641" s="7"/>
       <c r="G1641" s="10"/>
@@ -40550,7 +40560,7 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1643" s="30" t="s">
         <v>0</v>
@@ -40609,7 +40619,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40647,7 +40657,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1648" s="7"/>
       <c r="G1648" s="10"/>
@@ -40704,7 +40714,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40780,7 +40790,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40799,7 +40809,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40837,7 +40847,7 @@
         <v>17</v>
       </c>
       <c r="E1658" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40856,7 +40866,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40894,7 +40904,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40932,7 +40942,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41008,7 +41018,7 @@
         <v>1585</v>
       </c>
       <c r="E1667" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1667" s="7"/>
       <c r="G1667" s="10"/>
@@ -41027,7 +41037,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41065,7 +41075,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41198,7 +41208,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41293,7 +41303,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41312,7 +41322,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41445,7 +41455,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41521,7 +41531,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41654,7 +41664,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41768,7 +41778,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -41863,7 +41873,7 @@
         <v>2981</v>
       </c>
       <c r="E1712" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1712" s="7"/>
       <c r="G1712" s="10"/>
@@ -42034,7 +42044,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42129,7 +42139,7 @@
         <v>3002</v>
       </c>
       <c r="E1726" s="9">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1726" s="7"/>
       <c r="G1726" s="10"/>
@@ -42319,7 +42329,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42452,7 +42462,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42509,7 +42519,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42908,7 +42918,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42927,7 +42937,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43060,7 +43070,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43098,7 +43108,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43174,7 +43184,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="10"/>
@@ -43326,7 +43336,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43402,7 +43412,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43478,7 +43488,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43668,7 +43678,7 @@
         <v>3141</v>
       </c>
       <c r="E1807" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1807" s="7"/>
       <c r="G1807" s="10"/>
@@ -43687,7 +43697,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43706,7 +43716,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1809" s="7"/>
       <c r="G1809" s="10"/>
@@ -43725,7 +43735,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43744,7 +43754,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43763,7 +43773,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43839,7 +43849,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43858,7 +43868,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44352,7 +44362,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44447,7 +44457,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1848" s="34"/>
       <c r="G1848" s="10"/>
@@ -44466,7 +44476,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1849" s="34"/>
       <c r="G1849" s="10"/>
@@ -62111,6 +62121,11 @@
         <color rgb="FF57BB8A"/>
         <color rgb="FFFFFFFF"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1871">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/data.xlsx
+++ b/data.xlsx
@@ -55,7 +55,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 21</t>
+    <t>Total Entries Day 22</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -10003,7 +10003,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -10028,7 +10028,7 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -10447,8 +10447,8 @@
         <v>6</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AD1"")"),336.0)</f>
-        <v>336</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AE1"")"),337.0)</f>
+        <v>337</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10555,8 +10555,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AD1"")"),336.0)</f>
-        <v>336</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AE1"")"),337.0)</f>
+        <v>337</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10611,7 +10611,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10702,7 +10702,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10810,7 +10810,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10846,7 +10846,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10864,7 +10864,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10900,7 +10900,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10954,7 +10954,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -10972,7 +10972,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="10"/>
@@ -11080,7 +11080,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11152,7 +11152,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11188,7 +11188,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11224,7 +11224,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11278,7 +11278,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11332,7 +11332,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11494,7 +11494,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11548,7 +11548,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11947,7 +11947,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12397,7 +12397,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12580,7 +12580,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12634,7 +12634,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12832,7 +12832,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12886,7 +12886,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12922,7 +12922,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12940,7 +12940,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13102,7 +13102,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13120,7 +13120,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13228,7 +13228,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13282,7 +13282,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13426,7 +13426,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13444,7 +13444,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13948,7 +13948,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14110,7 +14110,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14164,7 +14164,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14272,7 +14272,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14398,7 +14398,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14488,7 +14488,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14524,7 +14524,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14542,7 +14542,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14668,7 +14668,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14722,7 +14722,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14830,7 +14830,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14884,7 +14884,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14902,7 +14902,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15370,7 +15370,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15514,7 +15514,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15550,7 +15550,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15604,7 +15604,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15658,7 +15658,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15766,7 +15766,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15838,7 +15838,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="10"/>
@@ -15946,7 +15946,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16018,7 +16018,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16036,7 +16036,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16180,7 +16180,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16378,7 +16378,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16432,7 +16432,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16468,7 +16468,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16504,7 +16504,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16648,7 +16648,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16702,7 +16702,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16720,7 +16720,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="23">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16846,7 +16846,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17080,7 +17080,7 @@
         <v>681</v>
       </c>
       <c r="E367" s="9">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="F367" s="7"/>
       <c r="G367" s="10"/>
@@ -17332,7 +17332,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17404,7 +17404,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="10"/>
@@ -17548,7 +17548,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17803,7 +17803,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18058,7 +18058,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18076,7 +18076,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -18112,7 +18112,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18130,7 +18130,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18256,7 +18256,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18439,7 +18439,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18514,7 +18514,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18604,7 +18604,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18712,7 +18712,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18892,7 +18892,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18910,7 +18910,7 @@
         <v>861</v>
       </c>
       <c r="E468" s="9">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="F468" s="7"/>
       <c r="G468" s="10"/>
@@ -18928,7 +18928,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -19000,7 +19000,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19018,7 +19018,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19126,7 +19126,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19270,7 +19270,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19342,7 +19342,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19396,7 +19396,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19504,7 +19504,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19630,7 +19630,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19720,7 +19720,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19810,7 +19810,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19846,7 +19846,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20080,7 +20080,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20116,7 +20116,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20134,7 +20134,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20353,7 +20353,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20407,7 +20407,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20479,7 +20479,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20515,7 +20515,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20533,7 +20533,7 @@
         <v>1020</v>
       </c>
       <c r="E558" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F558" s="7"/>
       <c r="G558" s="10"/>
@@ -20569,7 +20569,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20623,7 +20623,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20695,7 +20695,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20950,7 +20950,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -21004,7 +21004,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21058,7 +21058,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21148,7 +21148,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21238,7 +21238,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21364,7 +21364,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21421,7 +21421,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21475,7 +21475,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21511,7 +21511,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21838,7 +21838,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21947,7 +21947,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>0</v>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>0</v>
@@ -22315,7 +22315,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22351,7 +22351,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22408,7 +22408,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22462,7 +22462,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22534,7 +22534,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22588,7 +22588,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22606,7 +22606,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22678,7 +22678,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22696,7 +22696,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22768,7 +22768,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22822,7 +22822,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -23002,7 +23002,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23092,7 +23092,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23164,7 +23164,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23398,7 +23398,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23470,7 +23470,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23488,7 +23488,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23614,7 +23614,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F728" s="7"/>
       <c r="G728" s="10"/>
@@ -23884,7 +23884,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24118,7 +24118,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24229,7 +24229,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="10"/>
@@ -24320,7 +24320,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>0</v>
@@ -24394,7 +24394,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24577,7 +24577,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24595,7 +24595,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24758,7 +24758,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F791" s="30" t="s">
         <v>0</v>
@@ -24923,7 +24923,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>0</v>
@@ -25231,7 +25231,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25375,7 +25375,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25429,7 +25429,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25465,7 +25465,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25663,7 +25663,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25771,7 +25771,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -26005,7 +26005,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26041,7 +26041,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26707,7 +26707,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26743,7 +26743,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26815,7 +26815,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26923,7 +26923,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26941,7 +26941,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27085,7 +27085,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27121,7 +27121,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27194,7 +27194,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>0</v>
@@ -27286,7 +27286,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27412,7 +27412,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27577,7 +27577,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27631,7 +27631,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27793,7 +27793,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27904,7 +27904,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28324,7 +28324,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28360,7 +28360,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28636,7 +28636,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1005" s="7"/>
       <c r="G1005" s="10"/>
@@ -28834,7 +28834,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28960,7 +28960,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29014,7 +29014,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29212,7 +29212,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29284,7 +29284,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29320,7 +29320,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29518,7 +29518,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29554,7 +29554,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29662,7 +29662,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29698,7 +29698,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29806,7 +29806,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29824,7 +29824,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29842,7 +29842,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29860,7 +29860,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30022,7 +30022,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30148,7 +30148,7 @@
         <v>1948</v>
       </c>
       <c r="E1089" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1089" s="7"/>
       <c r="G1089" s="10"/>
@@ -30166,7 +30166,7 @@
         <v>21</v>
       </c>
       <c r="E1090" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1090" s="7"/>
       <c r="G1090" s="10"/>
@@ -30220,7 +30220,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30256,7 +30256,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30454,7 +30454,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30724,7 +30724,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30778,7 +30778,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30940,7 +30940,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31318,7 +31318,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31336,7 +31336,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31354,7 +31354,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31480,7 +31480,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31642,7 +31642,7 @@
         <v>2086</v>
       </c>
       <c r="E1172" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1172" s="7"/>
       <c r="G1172" s="10"/>
@@ -31660,7 +31660,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31822,7 +31822,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1182" s="7"/>
       <c r="G1182" s="10"/>
@@ -31858,7 +31858,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -32002,7 +32002,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32218,7 +32218,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32326,7 +32326,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32416,7 +32416,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32434,7 +32434,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32489,7 +32489,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32508,7 +32508,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32812,7 +32812,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32926,7 +32926,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33021,7 +33021,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33135,7 +33135,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33230,7 +33230,7 @@
         <v>17</v>
       </c>
       <c r="E1258" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33268,7 +33268,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33363,7 +33363,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33496,7 +33496,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33572,7 +33572,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33610,7 +33610,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33743,7 +33743,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33762,7 +33762,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33781,7 +33781,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33800,7 +33800,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33857,7 +33857,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33895,7 +33895,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33933,7 +33933,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33971,7 +33971,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33990,7 +33990,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34028,7 +34028,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34104,7 +34104,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34221,7 +34221,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34335,7 +34335,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34544,7 +34544,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34734,7 +34734,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34886,7 +34886,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -35000,7 +35000,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35038,7 +35038,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35114,7 +35114,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35285,7 +35285,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35532,7 +35532,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35779,7 +35779,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35893,7 +35893,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36102,7 +36102,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36121,7 +36121,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36178,7 +36178,7 @@
         <v>2501</v>
       </c>
       <c r="E1413" s="9">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1413" s="7"/>
       <c r="G1413" s="10"/>
@@ -36349,7 +36349,7 @@
         <v>17</v>
       </c>
       <c r="E1422" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36504,7 +36504,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36542,7 +36542,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36561,7 +36561,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36827,7 +36827,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36903,7 +36903,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37055,7 +37055,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37093,7 +37093,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37131,7 +37131,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37321,7 +37321,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37340,7 +37340,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37397,7 +37397,7 @@
         <v>513</v>
       </c>
       <c r="E1477" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1477" s="7"/>
       <c r="G1477" s="10"/>
@@ -37416,7 +37416,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37511,7 +37511,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37549,7 +37549,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37587,7 +37587,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37685,7 +37685,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37856,7 +37856,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38122,7 +38122,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38160,7 +38160,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38179,7 +38179,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38293,7 +38293,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38407,7 +38407,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38464,7 +38464,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38483,7 +38483,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38622,7 +38622,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38698,7 +38698,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38736,7 +38736,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="9">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1547" s="7"/>
       <c r="G1547" s="10"/>
@@ -38793,7 +38793,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -38850,7 +38850,7 @@
         <v>2723</v>
       </c>
       <c r="E1553" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1553" s="7"/>
       <c r="G1553" s="10"/>
@@ -38888,7 +38888,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39078,7 +39078,7 @@
         <v>2745</v>
       </c>
       <c r="E1565" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1565" s="7"/>
       <c r="G1565" s="10"/>
@@ -39173,7 +39173,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39230,7 +39230,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39306,7 +39306,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39325,7 +39325,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39439,7 +39439,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39496,7 +39496,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39838,7 +39838,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39895,7 +39895,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39914,7 +39914,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40028,7 +40028,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40199,7 +40199,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40237,7 +40237,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40256,7 +40256,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1627" s="7"/>
       <c r="G1627" s="10"/>
@@ -40294,7 +40294,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40484,7 +40484,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40503,7 +40503,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1640" s="7"/>
       <c r="G1640" s="10"/>
@@ -40522,7 +40522,7 @@
         <v>2870</v>
       </c>
       <c r="E1641" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1641" s="7"/>
       <c r="G1641" s="10"/>
@@ -40560,7 +40560,7 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1643" s="30" t="s">
         <v>0</v>
@@ -40619,7 +40619,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40657,7 +40657,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1648" s="7"/>
       <c r="G1648" s="10"/>
@@ -40714,7 +40714,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40790,7 +40790,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40809,7 +40809,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40847,7 +40847,7 @@
         <v>17</v>
       </c>
       <c r="E1658" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40866,7 +40866,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40904,7 +40904,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40923,7 +40923,7 @@
         <v>2114</v>
       </c>
       <c r="E1662" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1662" s="7"/>
       <c r="G1662" s="10"/>
@@ -40942,7 +40942,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41018,7 +41018,7 @@
         <v>1585</v>
       </c>
       <c r="E1667" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1667" s="7"/>
       <c r="G1667" s="10"/>
@@ -41037,7 +41037,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41075,7 +41075,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41208,7 +41208,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41303,7 +41303,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41322,7 +41322,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41455,7 +41455,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41531,7 +41531,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41607,7 +41607,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41664,7 +41664,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41778,7 +41778,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -41873,7 +41873,7 @@
         <v>2981</v>
       </c>
       <c r="E1712" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1712" s="7"/>
       <c r="G1712" s="10"/>
@@ -42139,7 +42139,7 @@
         <v>3002</v>
       </c>
       <c r="E1726" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1726" s="7"/>
       <c r="G1726" s="10"/>
@@ -42329,7 +42329,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42462,7 +42462,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42519,7 +42519,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42918,7 +42918,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42937,7 +42937,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43070,7 +43070,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43108,7 +43108,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43184,7 +43184,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="10"/>
@@ -43336,7 +43336,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43412,7 +43412,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43488,7 +43488,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43678,7 +43678,7 @@
         <v>3141</v>
       </c>
       <c r="E1807" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1807" s="7"/>
       <c r="G1807" s="10"/>
@@ -43697,7 +43697,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43716,7 +43716,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1809" s="7"/>
       <c r="G1809" s="10"/>
@@ -43735,7 +43735,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43754,7 +43754,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43773,7 +43773,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43849,7 +43849,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43868,7 +43868,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44362,7 +44362,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44457,7 +44457,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1848" s="34"/>
       <c r="G1848" s="10"/>
@@ -44476,7 +44476,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1849" s="34"/>
       <c r="G1849" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20515,7 +20515,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -55,7 +55,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 22</t>
+    <t>Total Entries Day 23</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -10003,7 +10003,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -10028,7 +10028,7 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -10447,8 +10447,8 @@
         <v>6</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AE1"")"),337.0)</f>
-        <v>337</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AF1"")"),341.0)</f>
+        <v>341</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10555,8 +10555,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AE1"")"),337.0)</f>
-        <v>337</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AF1"")"),341.0)</f>
+        <v>341</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10611,7 +10611,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10702,7 +10702,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10810,7 +10810,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10846,7 +10846,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10864,7 +10864,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10900,7 +10900,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10954,7 +10954,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -11080,7 +11080,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11152,7 +11152,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11188,7 +11188,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11224,7 +11224,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11278,7 +11278,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11332,7 +11332,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11494,7 +11494,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11548,7 +11548,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11947,7 +11947,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12397,7 +12397,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12580,7 +12580,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12634,7 +12634,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12832,7 +12832,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12886,7 +12886,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12922,7 +12922,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12940,7 +12940,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13102,7 +13102,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13120,7 +13120,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13228,7 +13228,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13282,7 +13282,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13426,7 +13426,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13444,7 +13444,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13948,7 +13948,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14110,7 +14110,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14164,7 +14164,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14272,7 +14272,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14398,7 +14398,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14488,7 +14488,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14524,7 +14524,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14542,7 +14542,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14668,7 +14668,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14722,7 +14722,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14830,7 +14830,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14884,7 +14884,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14902,7 +14902,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15370,7 +15370,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15514,7 +15514,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15550,7 +15550,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15604,7 +15604,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15658,7 +15658,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15766,7 +15766,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15838,7 +15838,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="10"/>
@@ -15946,7 +15946,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16018,7 +16018,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16036,7 +16036,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16378,7 +16378,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16432,7 +16432,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16468,7 +16468,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16504,7 +16504,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16648,7 +16648,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16702,7 +16702,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16720,7 +16720,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="23">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16846,7 +16846,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17080,7 +17080,7 @@
         <v>681</v>
       </c>
       <c r="E367" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F367" s="7"/>
       <c r="G367" s="10"/>
@@ -17332,7 +17332,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17404,7 +17404,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="10"/>
@@ -17548,7 +17548,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17803,7 +17803,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18058,7 +18058,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18076,7 +18076,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -18112,7 +18112,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18130,7 +18130,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18256,7 +18256,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18439,7 +18439,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18514,7 +18514,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18604,7 +18604,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18712,7 +18712,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18892,7 +18892,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18910,7 +18910,7 @@
         <v>861</v>
       </c>
       <c r="E468" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F468" s="7"/>
       <c r="G468" s="10"/>
@@ -18928,7 +18928,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -19000,7 +19000,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19018,7 +19018,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19126,7 +19126,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19144,7 +19144,7 @@
         <v>760</v>
       </c>
       <c r="E481" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F481" s="7"/>
       <c r="G481" s="10"/>
@@ -19270,7 +19270,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19342,7 +19342,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19396,7 +19396,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19504,7 +19504,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19630,7 +19630,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19720,7 +19720,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19810,7 +19810,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19846,7 +19846,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20080,7 +20080,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20116,7 +20116,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20134,7 +20134,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20353,7 +20353,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20407,7 +20407,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20479,7 +20479,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20515,7 +20515,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20569,7 +20569,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20623,7 +20623,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20695,7 +20695,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20950,7 +20950,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -21004,7 +21004,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21058,7 +21058,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21148,7 +21148,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21238,7 +21238,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21364,7 +21364,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21421,7 +21421,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21475,7 +21475,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21511,7 +21511,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21838,7 +21838,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21947,7 +21947,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>0</v>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>0</v>
@@ -22315,7 +22315,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22351,7 +22351,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22408,7 +22408,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22462,7 +22462,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22534,7 +22534,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22588,7 +22588,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22606,7 +22606,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22678,7 +22678,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22696,7 +22696,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22768,7 +22768,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22822,7 +22822,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -23002,7 +23002,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23092,7 +23092,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23164,7 +23164,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23398,7 +23398,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23488,7 +23488,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23614,7 +23614,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F728" s="7"/>
       <c r="G728" s="10"/>
@@ -23884,7 +23884,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24118,7 +24118,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24229,7 +24229,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="10"/>
@@ -24320,7 +24320,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>0</v>
@@ -24394,7 +24394,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24577,7 +24577,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24595,7 +24595,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24758,7 +24758,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F791" s="30" t="s">
         <v>0</v>
@@ -24868,7 +24868,7 @@
         <v>1445</v>
       </c>
       <c r="E797" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F797" s="7"/>
       <c r="G797" s="10"/>
@@ -24923,7 +24923,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>0</v>
@@ -25231,7 +25231,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25375,7 +25375,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25429,7 +25429,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25447,7 +25447,7 @@
         <v>56</v>
       </c>
       <c r="E829" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F829" s="7"/>
       <c r="G829" s="10"/>
@@ -25465,7 +25465,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25663,7 +25663,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25771,7 +25771,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -26005,7 +26005,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26041,7 +26041,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26707,7 +26707,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26743,7 +26743,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26815,7 +26815,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26923,7 +26923,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26941,7 +26941,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27085,7 +27085,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27121,7 +27121,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27194,7 +27194,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>0</v>
@@ -27286,7 +27286,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27412,7 +27412,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27577,7 +27577,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27631,7 +27631,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27793,7 +27793,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27904,7 +27904,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28324,7 +28324,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28360,7 +28360,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28636,7 +28636,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1005" s="7"/>
       <c r="G1005" s="10"/>
@@ -28834,7 +28834,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28960,7 +28960,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29014,7 +29014,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29212,7 +29212,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29284,7 +29284,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29320,7 +29320,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29518,7 +29518,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29554,7 +29554,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29662,7 +29662,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29698,7 +29698,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29806,7 +29806,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29824,7 +29824,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29842,7 +29842,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29860,7 +29860,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30022,7 +30022,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30148,7 +30148,7 @@
         <v>1948</v>
       </c>
       <c r="E1089" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1089" s="7"/>
       <c r="G1089" s="10"/>
@@ -30166,7 +30166,7 @@
         <v>21</v>
       </c>
       <c r="E1090" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1090" s="7"/>
       <c r="G1090" s="10"/>
@@ -30220,7 +30220,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30256,7 +30256,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30454,7 +30454,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30634,7 +30634,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30724,7 +30724,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30778,7 +30778,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30940,7 +30940,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31318,7 +31318,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31336,7 +31336,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31354,7 +31354,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31480,7 +31480,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31660,7 +31660,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31858,7 +31858,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -32002,7 +32002,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32218,7 +32218,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32326,7 +32326,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32416,7 +32416,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32434,7 +32434,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32489,7 +32489,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32508,7 +32508,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32812,7 +32812,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32926,7 +32926,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33021,7 +33021,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33135,7 +33135,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33230,7 +33230,7 @@
         <v>17</v>
       </c>
       <c r="E1258" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33268,7 +33268,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33363,7 +33363,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33496,7 +33496,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33572,7 +33572,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33610,7 +33610,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33743,7 +33743,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33762,7 +33762,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33781,7 +33781,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33800,7 +33800,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33857,7 +33857,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33895,7 +33895,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33933,7 +33933,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33971,7 +33971,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33990,7 +33990,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34028,7 +34028,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34104,7 +34104,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34183,7 +34183,7 @@
         <v>2319</v>
       </c>
       <c r="E1308" s="9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F1308" s="7"/>
       <c r="G1308" s="10"/>
@@ -34221,7 +34221,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34335,7 +34335,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34544,7 +34544,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34734,7 +34734,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34886,7 +34886,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -35000,7 +35000,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35038,7 +35038,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35114,7 +35114,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35285,7 +35285,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35532,7 +35532,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35779,7 +35779,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35893,7 +35893,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36102,7 +36102,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36121,7 +36121,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36349,7 +36349,7 @@
         <v>17</v>
       </c>
       <c r="E1422" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36504,7 +36504,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36542,7 +36542,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36561,7 +36561,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36827,7 +36827,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36903,7 +36903,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37055,7 +37055,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37093,7 +37093,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37131,7 +37131,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37321,7 +37321,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37340,7 +37340,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37397,7 +37397,7 @@
         <v>513</v>
       </c>
       <c r="E1477" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1477" s="7"/>
       <c r="G1477" s="10"/>
@@ -37416,7 +37416,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37511,7 +37511,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37549,7 +37549,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37587,7 +37587,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37685,7 +37685,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37780,7 +37780,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -38122,7 +38122,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38160,7 +38160,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38179,7 +38179,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38293,7 +38293,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38407,7 +38407,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38464,7 +38464,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38483,7 +38483,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38521,7 +38521,7 @@
         <v>2700</v>
       </c>
       <c r="E1536" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1536" s="7"/>
       <c r="G1536" s="10"/>
@@ -38622,7 +38622,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38698,7 +38698,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38736,7 +38736,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1547" s="7"/>
       <c r="G1547" s="10"/>
@@ -38774,7 +38774,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="9">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1549" s="7"/>
       <c r="G1549" s="10"/>
@@ -38793,7 +38793,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -38888,7 +38888,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39173,7 +39173,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39230,7 +39230,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39306,7 +39306,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39325,7 +39325,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39439,7 +39439,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39496,7 +39496,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39838,7 +39838,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39895,7 +39895,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39914,7 +39914,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40028,7 +40028,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40199,7 +40199,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40237,7 +40237,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40256,7 +40256,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1627" s="7"/>
       <c r="G1627" s="10"/>
@@ -40294,7 +40294,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40484,7 +40484,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40503,7 +40503,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1640" s="7"/>
       <c r="G1640" s="10"/>
@@ -40522,7 +40522,7 @@
         <v>2870</v>
       </c>
       <c r="E1641" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1641" s="7"/>
       <c r="G1641" s="10"/>
@@ -40560,7 +40560,7 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1643" s="30" t="s">
         <v>0</v>
@@ -40619,7 +40619,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40657,7 +40657,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1648" s="7"/>
       <c r="G1648" s="10"/>
@@ -40714,7 +40714,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40790,7 +40790,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40809,7 +40809,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40847,7 +40847,7 @@
         <v>17</v>
       </c>
       <c r="E1658" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40866,7 +40866,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40904,7 +40904,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40942,7 +40942,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41018,7 +41018,7 @@
         <v>1585</v>
       </c>
       <c r="E1667" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1667" s="7"/>
       <c r="G1667" s="10"/>
@@ -41037,7 +41037,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41075,7 +41075,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41208,7 +41208,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41322,7 +41322,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41455,7 +41455,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41531,7 +41531,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41607,7 +41607,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41778,7 +41778,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -41873,7 +41873,7 @@
         <v>2981</v>
       </c>
       <c r="E1712" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1712" s="7"/>
       <c r="G1712" s="10"/>
@@ -42044,7 +42044,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42139,7 +42139,7 @@
         <v>3002</v>
       </c>
       <c r="E1726" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1726" s="7"/>
       <c r="G1726" s="10"/>
@@ -42329,7 +42329,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42462,7 +42462,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42519,7 +42519,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42918,7 +42918,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42937,7 +42937,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43070,7 +43070,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43108,7 +43108,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43336,7 +43336,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43412,7 +43412,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43488,7 +43488,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43659,7 +43659,7 @@
         <v>124</v>
       </c>
       <c r="E1806" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1806" s="7"/>
       <c r="G1806" s="10"/>
@@ -43678,7 +43678,7 @@
         <v>3141</v>
       </c>
       <c r="E1807" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1807" s="7"/>
       <c r="G1807" s="10"/>
@@ -43697,7 +43697,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43716,7 +43716,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1809" s="7"/>
       <c r="G1809" s="10"/>
@@ -43735,7 +43735,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43754,7 +43754,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43773,7 +43773,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43849,7 +43849,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43868,7 +43868,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44362,7 +44362,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44457,7 +44457,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1848" s="34"/>
       <c r="G1848" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10447,8 +10447,8 @@
         <v>6</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AF1"")"),341.0)</f>
-        <v>341</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AF1"")"),333.0)</f>
+        <v>333</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10555,8 +10555,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AF1"")"),341.0)</f>
-        <v>341</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AF1"")"),333.0)</f>
+        <v>333</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -18076,7 +18076,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -20515,7 +20515,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -23884,7 +23884,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -30940,7 +30940,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -33610,7 +33610,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -41778,7 +41778,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -55,7 +55,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 24</t>
+    <t>Total Entries Day 25</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -10455,8 +10455,8 @@
         <v>6</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AG1"")"),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AH1"")"),334.0)</f>
+        <v>334</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10562,8 +10562,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AF1"")"),334.0)</f>
-        <v>334</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AG1"")"),335.0)</f>
+        <v>335</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10618,7 +10618,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10709,7 +10709,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10818,7 +10818,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10854,7 +10854,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10872,7 +10872,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10908,7 +10908,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10962,7 +10962,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -11088,7 +11088,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11160,7 +11160,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11196,7 +11196,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11232,7 +11232,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11286,7 +11286,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11340,7 +11340,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11502,7 +11502,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11556,7 +11556,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11955,7 +11955,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12405,7 +12405,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12588,7 +12588,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12642,7 +12642,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12840,7 +12840,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12894,7 +12894,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12930,7 +12930,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12948,7 +12948,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13110,7 +13110,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13128,7 +13128,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13236,7 +13236,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13290,7 +13290,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13434,7 +13434,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -14118,7 +14118,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14172,7 +14172,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14280,7 +14280,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14406,7 +14406,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14496,7 +14496,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14532,7 +14532,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14550,7 +14550,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14676,7 +14676,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14730,7 +14730,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14838,7 +14838,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14892,7 +14892,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14910,7 +14910,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15378,7 +15378,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15522,7 +15522,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15558,7 +15558,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15612,7 +15612,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15666,7 +15666,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15774,7 +15774,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15846,7 +15846,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="10"/>
@@ -15954,7 +15954,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16026,7 +16026,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16044,7 +16044,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16188,7 +16188,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16386,7 +16386,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16440,7 +16440,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16476,7 +16476,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16512,7 +16512,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16656,7 +16656,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16710,7 +16710,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16728,7 +16728,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16854,7 +16854,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17340,7 +17340,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17412,7 +17412,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="10"/>
@@ -17556,7 +17556,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17811,7 +17811,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18066,7 +18066,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18120,7 +18120,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18138,7 +18138,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18264,7 +18264,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18447,7 +18447,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18522,7 +18522,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18612,7 +18612,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18720,7 +18720,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18900,7 +18900,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18936,7 +18936,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -19008,7 +19008,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19026,7 +19026,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19134,7 +19134,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19152,7 +19152,7 @@
         <v>760</v>
       </c>
       <c r="E481" s="9">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="F481" s="7"/>
       <c r="G481" s="10"/>
@@ -19278,7 +19278,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19350,7 +19350,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19404,7 +19404,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19512,7 +19512,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19638,7 +19638,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19728,7 +19728,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19818,7 +19818,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19854,7 +19854,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20088,7 +20088,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20124,7 +20124,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20142,7 +20142,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20361,7 +20361,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20415,7 +20415,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20487,7 +20487,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20523,7 +20523,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20577,7 +20577,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20631,7 +20631,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20703,7 +20703,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20958,7 +20958,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -21012,7 +21012,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21066,7 +21066,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21156,7 +21156,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21246,7 +21246,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21372,7 +21372,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21429,7 +21429,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21483,7 +21483,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21519,7 +21519,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21846,7 +21846,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>0</v>
@@ -22249,7 +22249,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>0</v>
@@ -22323,7 +22323,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22359,7 +22359,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22416,7 +22416,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22470,7 +22470,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22542,7 +22542,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22596,7 +22596,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22614,7 +22614,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22686,7 +22686,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22704,7 +22704,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22776,7 +22776,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22830,7 +22830,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -23010,7 +23010,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23100,7 +23100,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23406,7 +23406,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23478,7 +23478,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23496,7 +23496,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23622,7 +23622,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F728" s="7"/>
       <c r="G728" s="10"/>
@@ -23892,7 +23892,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24126,7 +24126,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24201,7 +24201,7 @@
         <v>1379</v>
       </c>
       <c r="E760" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F760" s="7"/>
       <c r="G760" s="10"/>
@@ -24237,7 +24237,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="30"/>
@@ -24328,7 +24328,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>0</v>
@@ -24402,7 +24402,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24585,7 +24585,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24603,7 +24603,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24766,7 +24766,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F791" s="31" t="s">
         <v>0</v>
@@ -24876,7 +24876,7 @@
         <v>1445</v>
       </c>
       <c r="E797" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F797" s="7"/>
       <c r="G797" s="10"/>
@@ -24931,7 +24931,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>0</v>
@@ -25239,7 +25239,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25383,7 +25383,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25437,7 +25437,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25455,7 +25455,7 @@
         <v>56</v>
       </c>
       <c r="E829" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F829" s="7"/>
       <c r="G829" s="10"/>
@@ -25473,7 +25473,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25671,7 +25671,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25779,7 +25779,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -26013,7 +26013,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26049,7 +26049,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26715,7 +26715,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26751,7 +26751,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26823,7 +26823,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26931,7 +26931,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26949,7 +26949,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27093,7 +27093,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27129,7 +27129,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27202,7 +27202,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>0</v>
@@ -27294,7 +27294,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27420,7 +27420,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27585,7 +27585,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27639,7 +27639,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27801,7 +27801,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27912,7 +27912,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28332,7 +28332,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28368,7 +28368,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28644,7 +28644,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1005" s="7"/>
       <c r="G1005" s="10"/>
@@ -28842,7 +28842,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28968,7 +28968,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29022,7 +29022,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29220,7 +29220,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29292,7 +29292,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29328,7 +29328,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29526,7 +29526,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29562,7 +29562,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29670,7 +29670,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29706,7 +29706,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29814,7 +29814,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29832,7 +29832,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29850,7 +29850,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29868,7 +29868,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30030,7 +30030,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30156,7 +30156,7 @@
         <v>1948</v>
       </c>
       <c r="E1089" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1089" s="7"/>
       <c r="G1089" s="10"/>
@@ -30174,7 +30174,7 @@
         <v>21</v>
       </c>
       <c r="E1090" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1090" s="7"/>
       <c r="G1090" s="10"/>
@@ -30228,7 +30228,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30264,7 +30264,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30462,7 +30462,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30642,7 +30642,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30732,7 +30732,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30786,7 +30786,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30948,7 +30948,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31326,7 +31326,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31344,7 +31344,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31362,7 +31362,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31650,7 +31650,7 @@
         <v>2086</v>
       </c>
       <c r="E1172" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1172" s="7"/>
       <c r="G1172" s="10"/>
@@ -31668,7 +31668,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31830,7 +31830,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1182" s="7"/>
       <c r="G1182" s="10"/>
@@ -31866,7 +31866,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -32010,7 +32010,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32226,7 +32226,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32334,7 +32334,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32424,7 +32424,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32442,7 +32442,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32497,7 +32497,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32516,7 +32516,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32820,7 +32820,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32934,7 +32934,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33029,7 +33029,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33143,7 +33143,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33238,7 +33238,7 @@
         <v>17</v>
       </c>
       <c r="E1258" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33276,7 +33276,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33371,7 +33371,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33504,7 +33504,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33580,7 +33580,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33618,7 +33618,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33751,7 +33751,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33770,7 +33770,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33789,7 +33789,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33808,7 +33808,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33865,7 +33865,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33903,7 +33903,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33941,7 +33941,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33979,7 +33979,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33998,7 +33998,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34036,7 +34036,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34112,7 +34112,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34229,7 +34229,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34343,7 +34343,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34552,7 +34552,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34742,7 +34742,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34894,7 +34894,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -35008,7 +35008,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35046,7 +35046,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35122,7 +35122,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35293,7 +35293,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35540,7 +35540,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35787,7 +35787,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35901,7 +35901,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36110,7 +36110,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36129,7 +36129,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36186,7 +36186,7 @@
         <v>2501</v>
       </c>
       <c r="E1413" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1413" s="7"/>
       <c r="G1413" s="10"/>
@@ -36357,7 +36357,7 @@
         <v>17</v>
       </c>
       <c r="E1422" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36512,7 +36512,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36550,7 +36550,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36569,7 +36569,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36835,7 +36835,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36911,7 +36911,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37063,7 +37063,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37101,7 +37101,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37139,7 +37139,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37329,7 +37329,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37348,7 +37348,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37424,7 +37424,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37519,7 +37519,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37557,7 +37557,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37595,7 +37595,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37693,7 +37693,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37788,7 +37788,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -37864,7 +37864,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38130,7 +38130,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38168,7 +38168,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38187,7 +38187,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38301,7 +38301,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38415,7 +38415,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38472,7 +38472,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38491,7 +38491,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38529,7 +38529,7 @@
         <v>2700</v>
       </c>
       <c r="E1536" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1536" s="7"/>
       <c r="G1536" s="10"/>
@@ -38630,7 +38630,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38706,7 +38706,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38744,7 +38744,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1547" s="7"/>
       <c r="G1547" s="10"/>
@@ -38782,7 +38782,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1549" s="7"/>
       <c r="G1549" s="10"/>
@@ -38801,7 +38801,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -38896,7 +38896,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39181,7 +39181,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39238,7 +39238,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39314,7 +39314,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39333,7 +39333,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39447,7 +39447,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39504,7 +39504,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39542,7 +39542,7 @@
         <v>2785</v>
       </c>
       <c r="E1589" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1589" s="7"/>
       <c r="G1589" s="10"/>
@@ -39846,7 +39846,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39903,7 +39903,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39922,7 +39922,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40036,7 +40036,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40207,7 +40207,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40245,7 +40245,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40283,7 +40283,7 @@
         <v>2849</v>
       </c>
       <c r="E1628" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1628" s="7"/>
       <c r="G1628" s="10"/>
@@ -40302,7 +40302,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40492,7 +40492,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40511,7 +40511,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="9">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1640" s="7"/>
       <c r="G1640" s="10"/>
@@ -40530,7 +40530,7 @@
         <v>2870</v>
       </c>
       <c r="E1641" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1641" s="7"/>
       <c r="G1641" s="10"/>
@@ -40568,7 +40568,7 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1643" s="31" t="s">
         <v>0</v>
@@ -40627,7 +40627,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40665,7 +40665,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1648" s="7"/>
       <c r="G1648" s="10"/>
@@ -40722,7 +40722,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40760,7 +40760,7 @@
         <v>1882</v>
       </c>
       <c r="E1653" s="9">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1653" s="7"/>
       <c r="G1653" s="10"/>
@@ -40798,7 +40798,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40817,7 +40817,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40855,7 +40855,7 @@
         <v>17</v>
       </c>
       <c r="E1658" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40874,7 +40874,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40912,7 +40912,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40950,7 +40950,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41026,7 +41026,7 @@
         <v>1585</v>
       </c>
       <c r="E1667" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1667" s="7"/>
       <c r="G1667" s="10"/>
@@ -41045,7 +41045,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41083,7 +41083,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41216,7 +41216,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41311,7 +41311,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41330,7 +41330,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41463,7 +41463,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41539,7 +41539,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41615,7 +41615,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41672,7 +41672,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41786,7 +41786,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -42052,7 +42052,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42337,7 +42337,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42470,7 +42470,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42527,7 +42527,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42926,7 +42926,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42945,7 +42945,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43078,7 +43078,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43116,7 +43116,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43192,7 +43192,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="10"/>
@@ -43344,7 +43344,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43420,7 +43420,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43496,7 +43496,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43667,7 +43667,7 @@
         <v>124</v>
       </c>
       <c r="E1806" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1806" s="7"/>
       <c r="G1806" s="10"/>
@@ -43686,7 +43686,7 @@
         <v>3141</v>
       </c>
       <c r="E1807" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1807" s="7"/>
       <c r="G1807" s="10"/>
@@ -43705,7 +43705,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43743,7 +43743,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43762,7 +43762,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43781,7 +43781,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43857,7 +43857,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43876,7 +43876,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44370,7 +44370,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44465,7 +44465,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F1848" s="35"/>
       <c r="G1848" s="10"/>
@@ -44484,7 +44484,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1849" s="35"/>
       <c r="G1849" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -35,62 +35,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="3251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="3251">
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>COLLEGENAME</t>
+  </si>
+  <si>
+    <t>DAYSCOMPLETED</t>
+  </si>
+  <si>
+    <t>VERIFY DAY BY THIS LINK</t>
+  </si>
+  <si>
+    <t>Total Entries Day 25</t>
+  </si>
+  <si>
+    <t>Yukti Jhawar</t>
+  </si>
+  <si>
+    <t>Bhilai Institute of Technology, Durg</t>
+  </si>
+  <si>
+    <t>PREVIOUS DAY</t>
+  </si>
+  <si>
+    <t>priyanshu mundra</t>
+  </si>
+  <si>
+    <t>Lovely professional University</t>
+  </si>
+  <si>
+    <t>Saujanya Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banasthali Vidyapith, Jaipur </t>
+  </si>
+  <si>
+    <t>Rohan Gilbile</t>
+  </si>
+  <si>
+    <t>MESCOE Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi Sharma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely professional University </t>
+  </si>
   <si>
     <t>🔒</t>
   </si>
   <si>
-    <t>SNO</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>COLLEGENAME</t>
-  </si>
-  <si>
-    <t>DAYSCOMPLETED</t>
-  </si>
-  <si>
-    <t>VERIFY DAY BY THIS LINK</t>
-  </si>
-  <si>
-    <t>Total Entries Day 25</t>
-  </si>
-  <si>
-    <t>Yukti Jhawar</t>
-  </si>
-  <si>
-    <t>Bhilai Institute of Technology, Durg</t>
-  </si>
-  <si>
-    <t>PREVIOUS DAY</t>
-  </si>
-  <si>
-    <t>priyanshu mundra</t>
-  </si>
-  <si>
-    <t>Lovely professional University</t>
-  </si>
-  <si>
-    <t>Saujanya Raj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banasthali Vidyapith, Jaipur </t>
-  </si>
-  <si>
-    <t>Rohan Gilbile</t>
-  </si>
-  <si>
-    <t>MESCOE Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditi Sharma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lovely professional University </t>
-  </si>
-  <si>
     <t>Rahul Kumar</t>
   </si>
   <si>
@@ -9667,7 +9667,7 @@
     <t>Vit, vellore</t>
   </si>
   <si>
-    <t>Nishchay Shakya</t>
+    <t xml:space="preserve"> Nishchay Shakya</t>
   </si>
   <si>
     <t>Indian Institute of Information Technology, Kota, Rajasthan</t>
@@ -10432,31 +10432,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AH1"")"),334.0)</f>
-        <v>334</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AI1"")"),330.0)</f>
+        <v>330</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10481,10 +10479,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="9">
         <v>0.0</v>
@@ -10492,7 +10490,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="10"/>
       <c r="H2" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -10518,10 +10516,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="9">
         <v>2.0</v>
@@ -10535,10 +10533,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="9">
         <v>0.0</v>
@@ -10552,18 +10550,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="9">
         <v>0.0</v>
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AG1"")"),335.0)</f>
-        <v>335</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AH1"")"),331.0)</f>
+        <v>331</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10573,10 +10571,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="9">
         <v>0.0</v>
@@ -10591,17 +10589,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="16">
         <f>E6</f>
         <v>0</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -10618,7 +10616,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10709,7 +10707,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10818,7 +10816,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10854,7 +10852,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10872,7 +10870,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10962,7 +10960,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -11088,7 +11086,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11160,7 +11158,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11196,7 +11194,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11232,7 +11230,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11286,7 +11284,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11340,7 +11338,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11502,7 +11500,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11556,7 +11554,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11575,10 +11573,10 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G61" s="10"/>
     </row>
@@ -11649,7 +11647,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11955,7 +11953,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12405,7 +12403,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12499,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G112" s="10"/>
     </row>
@@ -12588,7 +12586,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12642,7 +12640,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12840,7 +12838,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12894,7 +12892,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12930,7 +12928,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12948,7 +12946,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13110,7 +13108,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13128,7 +13126,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13236,7 +13234,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13290,7 +13288,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13434,7 +13432,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13452,7 +13450,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13956,7 +13954,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14118,7 +14116,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14172,7 +14170,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14280,7 +14278,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14406,7 +14404,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14496,7 +14494,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14532,7 +14530,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14550,7 +14548,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14676,7 +14674,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14730,7 +14728,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14838,7 +14836,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14892,7 +14890,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14910,7 +14908,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15378,7 +15376,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15522,7 +15520,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15558,7 +15556,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15612,7 +15610,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15666,7 +15664,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15774,7 +15772,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15954,7 +15952,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16026,7 +16024,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16044,7 +16042,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16188,7 +16186,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16257,7 +16255,7 @@
         <v>601</v>
       </c>
       <c r="D321" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E321" s="9">
         <v>0.0</v>
@@ -16386,7 +16384,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16440,7 +16438,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16476,7 +16474,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16512,7 +16510,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16656,7 +16654,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16710,7 +16708,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16728,7 +16726,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16854,7 +16852,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17088,7 +17086,7 @@
         <v>681</v>
       </c>
       <c r="E367" s="9">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F367" s="7"/>
       <c r="G367" s="10"/>
@@ -17340,7 +17338,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17556,7 +17554,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17704,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="F401" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G401" s="10"/>
     </row>
@@ -17811,7 +17809,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18031,7 +18029,7 @@
         <v>18</v>
       </c>
       <c r="F419" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G419" s="10"/>
     </row>
@@ -18066,7 +18064,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18084,7 +18082,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -18120,7 +18118,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18138,7 +18136,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18264,7 +18262,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18340,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="F436" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G436" s="10"/>
     </row>
@@ -18447,7 +18445,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18505,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="F445" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G445" s="10"/>
     </row>
@@ -18522,7 +18520,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18612,7 +18610,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18720,7 +18718,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18900,7 +18898,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18918,7 +18916,7 @@
         <v>861</v>
       </c>
       <c r="E468" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F468" s="7"/>
       <c r="G468" s="10"/>
@@ -18936,7 +18934,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -19008,7 +19006,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19134,7 +19132,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19152,7 +19150,7 @@
         <v>760</v>
       </c>
       <c r="E481" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F481" s="7"/>
       <c r="G481" s="10"/>
@@ -19278,7 +19276,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19350,7 +19348,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19404,7 +19402,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19512,7 +19510,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19638,7 +19636,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19728,7 +19726,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19818,7 +19816,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19854,7 +19852,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20088,7 +20086,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20124,7 +20122,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20142,7 +20140,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20344,7 +20342,7 @@
         <v>11</v>
       </c>
       <c r="F547" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G547" s="10"/>
     </row>
@@ -20361,7 +20359,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20415,7 +20413,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20487,7 +20485,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20523,7 +20521,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20577,7 +20575,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20631,7 +20629,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20703,7 +20701,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20905,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="F578" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G578" s="10"/>
     </row>
@@ -20958,7 +20956,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -21012,7 +21010,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21066,7 +21064,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21156,7 +21154,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21246,7 +21244,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21372,7 +21370,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21412,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="F606" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G606" s="10"/>
     </row>
@@ -21429,7 +21427,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21483,7 +21481,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21519,7 +21517,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21667,7 +21665,7 @@
         <v>0</v>
       </c>
       <c r="F620" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G620" s="10"/>
     </row>
@@ -21846,7 +21844,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21955,10 +21953,10 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F636" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G636" s="10"/>
     </row>
@@ -22195,7 +22193,7 @@
         <v>2</v>
       </c>
       <c r="F649" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G649" s="10"/>
     </row>
@@ -22249,10 +22247,10 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F652" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G652" s="10"/>
     </row>
@@ -22323,7 +22321,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22359,7 +22357,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22381,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="F659" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G659" s="10"/>
     </row>
@@ -22416,7 +22414,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22470,7 +22468,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22542,7 +22540,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22596,7 +22594,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22614,7 +22612,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22686,7 +22684,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22704,7 +22702,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22776,7 +22774,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22830,7 +22828,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -23010,7 +23008,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23100,7 +23098,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23172,7 +23170,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23406,7 +23404,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23478,7 +23476,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23496,7 +23494,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23622,7 +23620,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F728" s="7"/>
       <c r="G728" s="10"/>
@@ -23781,7 +23779,7 @@
         <v>1339</v>
       </c>
       <c r="D737" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E737" s="9">
         <v>0.0</v>
@@ -23892,7 +23890,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24126,7 +24124,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24148,7 +24146,7 @@
         <v>3</v>
       </c>
       <c r="F757" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G757" s="10"/>
     </row>
@@ -24201,7 +24199,7 @@
         <v>1379</v>
       </c>
       <c r="E760" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F760" s="7"/>
       <c r="G760" s="10"/>
@@ -24237,7 +24235,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="30"/>
@@ -24328,10 +24326,10 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F767" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G767" s="10"/>
     </row>
@@ -24402,7 +24400,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24514,7 +24512,7 @@
         <v>0</v>
       </c>
       <c r="F777" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G777" s="10"/>
     </row>
@@ -24585,7 +24583,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24603,7 +24601,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24766,10 +24764,10 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F791" s="31" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G791" s="10"/>
     </row>
@@ -24876,7 +24874,7 @@
         <v>1445</v>
       </c>
       <c r="E797" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F797" s="7"/>
       <c r="G797" s="10"/>
@@ -24931,10 +24929,10 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F800" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G800" s="10"/>
     </row>
@@ -25239,7 +25237,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25383,7 +25381,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25437,7 +25435,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25455,7 +25453,7 @@
         <v>56</v>
       </c>
       <c r="E829" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F829" s="7"/>
       <c r="G829" s="10"/>
@@ -25473,7 +25471,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25671,7 +25669,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25779,7 +25777,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -26013,7 +26011,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26049,7 +26047,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26715,7 +26713,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26751,7 +26749,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26823,7 +26821,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26931,7 +26929,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26949,7 +26947,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27093,7 +27091,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27129,7 +27127,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27202,10 +27200,10 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F926" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G926" s="10"/>
     </row>
@@ -27294,7 +27292,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27420,7 +27418,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27568,7 +27566,7 @@
         <v>3</v>
       </c>
       <c r="F946" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G946" s="10"/>
     </row>
@@ -27585,7 +27583,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27639,7 +27637,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27801,7 +27799,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27877,7 +27875,7 @@
         <v>0</v>
       </c>
       <c r="F963" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G963" s="10"/>
     </row>
@@ -27912,7 +27910,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -27952,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="F967" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G967" s="10"/>
     </row>
@@ -28153,7 +28151,7 @@
         <v>0</v>
       </c>
       <c r="F978" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G978" s="10"/>
     </row>
@@ -28332,7 +28330,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28368,7 +28366,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28390,7 +28388,7 @@
         <v>0</v>
       </c>
       <c r="F991" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G991" s="10"/>
     </row>
@@ -28411,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="F992" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G992" s="10"/>
     </row>
@@ -28644,7 +28642,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1005" s="7"/>
       <c r="G1005" s="10"/>
@@ -28842,7 +28840,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28968,7 +28966,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29022,7 +29020,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29220,7 +29218,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29292,7 +29290,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29328,7 +29326,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29526,7 +29524,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29562,7 +29560,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29670,7 +29668,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29706,7 +29704,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29814,7 +29812,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29850,7 +29848,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29868,7 +29866,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30030,7 +30028,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30156,7 +30154,7 @@
         <v>1948</v>
       </c>
       <c r="E1089" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1089" s="7"/>
       <c r="G1089" s="10"/>
@@ -30228,7 +30226,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30264,7 +30262,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30462,7 +30460,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30642,7 +30640,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30732,7 +30730,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30786,7 +30784,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30948,7 +30946,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31326,7 +31324,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31344,7 +31342,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31362,7 +31360,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31488,7 +31486,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31668,7 +31666,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31830,7 +31828,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="9">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1182" s="7"/>
       <c r="G1182" s="10"/>
@@ -31866,7 +31864,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -32010,7 +32008,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32226,7 +32224,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32334,7 +32332,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32424,7 +32422,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32442,7 +32440,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32497,7 +32495,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32516,7 +32514,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32820,7 +32818,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32934,7 +32932,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33029,7 +33027,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33143,7 +33141,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33235,7 +33233,7 @@
         <v>2234</v>
       </c>
       <c r="D1258" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1258" s="9">
         <v>25.0</v>
@@ -33276,7 +33274,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33371,7 +33369,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33504,7 +33502,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33580,7 +33578,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33618,7 +33616,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33751,7 +33749,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33770,7 +33768,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33789,7 +33787,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33808,7 +33806,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33865,7 +33863,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33903,7 +33901,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33941,7 +33939,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33979,7 +33977,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33998,7 +33996,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34036,7 +34034,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34112,7 +34110,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34173,7 +34171,7 @@
         <v>0</v>
       </c>
       <c r="F1307" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1307" s="10"/>
       <c r="I1307" s="32"/>
@@ -34229,7 +34227,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34343,7 +34341,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34552,7 +34550,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34742,7 +34740,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34894,7 +34892,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -35008,7 +35006,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35046,7 +35044,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35122,7 +35120,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35293,7 +35291,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35540,7 +35538,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35670,7 +35668,7 @@
         <v>2455</v>
       </c>
       <c r="D1386" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1386" s="9">
         <v>0.0</v>
@@ -35787,7 +35785,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35901,7 +35899,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36110,7 +36108,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36129,7 +36127,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36186,7 +36184,7 @@
         <v>2501</v>
       </c>
       <c r="E1413" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1413" s="7"/>
       <c r="G1413" s="10"/>
@@ -36354,10 +36352,10 @@
         <v>2516</v>
       </c>
       <c r="D1422" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1422" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36399,7 +36397,7 @@
         <v>0</v>
       </c>
       <c r="F1424" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1424" s="10"/>
       <c r="I1424" s="32"/>
@@ -36512,7 +36510,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36550,7 +36548,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36569,7 +36567,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36835,7 +36833,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36911,7 +36909,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37063,7 +37061,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37101,7 +37099,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37139,7 +37137,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37329,7 +37327,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37348,7 +37346,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37424,7 +37422,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37519,7 +37517,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37557,7 +37555,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37595,7 +37593,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37637,7 +37635,7 @@
         <v>0</v>
       </c>
       <c r="F1489" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1489" s="10"/>
       <c r="I1489" s="32"/>
@@ -37693,7 +37691,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37788,7 +37786,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -37864,7 +37862,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38130,7 +38128,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38168,7 +38166,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38187,7 +38185,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38301,7 +38299,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38415,7 +38413,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38472,7 +38470,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38491,7 +38489,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38529,7 +38527,7 @@
         <v>2700</v>
       </c>
       <c r="E1536" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1536" s="7"/>
       <c r="G1536" s="10"/>
@@ -38590,7 +38588,7 @@
         <v>0</v>
       </c>
       <c r="F1539" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1539" s="10"/>
       <c r="I1539" s="32"/>
@@ -38612,7 +38610,7 @@
         <v>0</v>
       </c>
       <c r="F1540" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1540" s="10"/>
       <c r="I1540" s="32"/>
@@ -38630,7 +38628,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38706,7 +38704,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38744,7 +38742,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1547" s="7"/>
       <c r="G1547" s="10"/>
@@ -38782,7 +38780,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1549" s="7"/>
       <c r="G1549" s="10"/>
@@ -38801,7 +38799,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -38896,7 +38894,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39181,7 +39179,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39238,7 +39236,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39292,7 +39290,7 @@
         <v>2541</v>
       </c>
       <c r="D1576" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1576" s="9">
         <v>5.0</v>
@@ -39314,7 +39312,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39333,7 +39331,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39447,7 +39445,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39504,7 +39502,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39542,7 +39540,7 @@
         <v>2785</v>
       </c>
       <c r="E1589" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1589" s="7"/>
       <c r="G1589" s="10"/>
@@ -39846,7 +39844,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39903,7 +39901,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39922,7 +39920,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40036,7 +40034,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40071,7 +40069,7 @@
         <v>2830</v>
       </c>
       <c r="D1617" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1617" s="9">
         <v>7.0</v>
@@ -40245,7 +40243,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40264,7 +40262,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1627" s="7"/>
       <c r="G1627" s="10"/>
@@ -40302,7 +40300,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40511,7 +40509,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1640" s="7"/>
       <c r="G1640" s="10"/>
@@ -40571,7 +40569,7 @@
         <v>25.0</v>
       </c>
       <c r="F1643" s="31" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G1643" s="10"/>
       <c r="I1643" s="32"/>
@@ -40627,7 +40625,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40722,7 +40720,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40798,7 +40796,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40817,7 +40815,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40852,10 +40850,10 @@
         <v>2897</v>
       </c>
       <c r="D1658" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1658" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40874,7 +40872,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40912,7 +40910,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40950,7 +40948,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41045,7 +41043,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41083,7 +41081,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41216,7 +41214,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41311,7 +41309,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41330,7 +41328,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41463,7 +41461,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41539,7 +41537,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41615,7 +41613,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41672,7 +41670,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41786,7 +41784,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -41935,7 +41933,7 @@
         <v>2986</v>
       </c>
       <c r="D1715" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1715" s="9">
         <v>0.0</v>
@@ -42052,7 +42050,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42106,7 +42104,7 @@
         <v>2998</v>
       </c>
       <c r="D1724" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1724" s="9">
         <v>0.0</v>
@@ -42147,7 +42145,7 @@
         <v>3002</v>
       </c>
       <c r="E1726" s="9">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1726" s="7"/>
       <c r="G1726" s="10"/>
@@ -42337,7 +42335,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42470,7 +42468,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42505,7 +42503,7 @@
         <v>3033</v>
       </c>
       <c r="D1745" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1745" s="9">
         <v>1.0</v>
@@ -42527,7 +42525,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42926,7 +42924,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42945,7 +42943,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43078,7 +43076,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43116,7 +43114,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43151,7 +43149,7 @@
         <v>3092</v>
       </c>
       <c r="D1779" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1779" s="9">
         <v>0.0</v>
@@ -43192,7 +43190,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="10"/>
@@ -43344,7 +43342,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43420,7 +43418,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43496,7 +43494,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43667,7 +43665,7 @@
         <v>124</v>
       </c>
       <c r="E1806" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1806" s="7"/>
       <c r="G1806" s="10"/>
@@ -43705,7 +43703,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43724,7 +43722,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1809" s="7"/>
       <c r="G1809" s="10"/>
@@ -43743,7 +43741,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43762,7 +43760,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43781,7 +43779,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43857,7 +43855,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43876,7 +43874,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44120,7 +44118,7 @@
         <v>3180</v>
       </c>
       <c r="D1830" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1830" s="9">
         <v>0.0</v>
@@ -44370,7 +44368,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44458,14 +44456,14 @@
         <f t="shared" si="1"/>
         <v>1847</v>
       </c>
-      <c r="C1848" s="19" t="s">
+      <c r="C1848" s="22" t="s">
         <v>3210</v>
       </c>
       <c r="D1848" s="19" t="s">
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F1848" s="35"/>
       <c r="G1848" s="10"/>
@@ -44484,7 +44482,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1849" s="35"/>
       <c r="G1849" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -52,7 +52,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 25</t>
+    <t>Total Entries Day 27</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -10453,8 +10453,8 @@
         <v>5</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AI1"")"),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AJ1"")"),338.0)</f>
+        <v>338</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10560,8 +10560,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AH1"")"),331.0)</f>
-        <v>331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AI1"")"),329.0)</f>
+        <v>329</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10616,7 +10616,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10707,7 +10707,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10816,7 +10816,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10852,7 +10852,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10870,7 +10870,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10906,7 +10906,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10960,7 +10960,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -11086,7 +11086,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11158,7 +11158,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11194,7 +11194,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11230,7 +11230,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11284,7 +11284,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11338,7 +11338,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11500,7 +11500,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11554,7 +11554,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>17</v>
@@ -11647,7 +11647,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11953,7 +11953,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12403,7 +12403,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12586,7 +12586,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12640,7 +12640,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12838,7 +12838,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12892,7 +12892,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12928,7 +12928,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12946,7 +12946,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13108,7 +13108,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13126,7 +13126,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13234,7 +13234,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13288,7 +13288,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13432,7 +13432,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13450,7 +13450,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13954,7 +13954,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14116,7 +14116,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14170,7 +14170,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14278,7 +14278,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14404,7 +14404,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14494,7 +14494,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14530,7 +14530,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14548,7 +14548,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14674,7 +14674,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14728,7 +14728,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14836,7 +14836,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14890,7 +14890,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14908,7 +14908,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15376,7 +15376,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F272" s="7"/>
       <c r="G272" s="10"/>
@@ -15520,7 +15520,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15556,7 +15556,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15610,7 +15610,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15664,7 +15664,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15844,7 +15844,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="10"/>
@@ -15952,7 +15952,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16024,7 +16024,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16042,7 +16042,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16186,7 +16186,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16384,7 +16384,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16438,7 +16438,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16474,7 +16474,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16510,7 +16510,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16654,7 +16654,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16708,7 +16708,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16726,7 +16726,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16852,7 +16852,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17338,7 +17338,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17410,7 +17410,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="10"/>
@@ -17554,7 +17554,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17809,7 +17809,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18064,7 +18064,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18118,7 +18118,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18136,7 +18136,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18262,7 +18262,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18445,7 +18445,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18520,7 +18520,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18610,7 +18610,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18718,7 +18718,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18898,7 +18898,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18916,7 +18916,7 @@
         <v>861</v>
       </c>
       <c r="E468" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F468" s="7"/>
       <c r="G468" s="10"/>
@@ -18934,7 +18934,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -19006,7 +19006,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19024,7 +19024,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19132,7 +19132,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19150,7 +19150,7 @@
         <v>760</v>
       </c>
       <c r="E481" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F481" s="7"/>
       <c r="G481" s="10"/>
@@ -19276,7 +19276,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19348,7 +19348,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19402,7 +19402,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19510,7 +19510,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19636,7 +19636,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19726,7 +19726,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19816,7 +19816,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -20086,7 +20086,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20122,7 +20122,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20140,7 +20140,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20359,7 +20359,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F548" s="7"/>
       <c r="G548" s="10"/>
@@ -20485,7 +20485,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20521,7 +20521,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20575,7 +20575,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20629,7 +20629,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20701,7 +20701,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20956,7 +20956,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -21010,7 +21010,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21064,7 +21064,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21154,7 +21154,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21244,7 +21244,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21370,7 +21370,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21427,7 +21427,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21481,7 +21481,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21517,7 +21517,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21844,7 +21844,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>17</v>
@@ -22247,7 +22247,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>17</v>
@@ -22321,7 +22321,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22357,7 +22357,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22414,7 +22414,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22540,7 +22540,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22594,7 +22594,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22612,7 +22612,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22684,7 +22684,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22702,7 +22702,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22774,7 +22774,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22828,7 +22828,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -23008,7 +23008,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23098,7 +23098,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23170,7 +23170,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23404,7 +23404,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23476,7 +23476,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23494,7 +23494,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23620,7 +23620,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F728" s="7"/>
       <c r="G728" s="10"/>
@@ -23890,7 +23890,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24124,7 +24124,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24199,7 +24199,7 @@
         <v>1379</v>
       </c>
       <c r="E760" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F760" s="7"/>
       <c r="G760" s="10"/>
@@ -24235,7 +24235,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="30"/>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>17</v>
@@ -24400,7 +24400,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24583,7 +24583,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24601,7 +24601,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24764,7 +24764,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F791" s="31" t="s">
         <v>17</v>
@@ -24929,7 +24929,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>17</v>
@@ -25237,7 +25237,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25381,7 +25381,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25435,7 +25435,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25453,7 +25453,7 @@
         <v>56</v>
       </c>
       <c r="E829" s="9">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="F829" s="7"/>
       <c r="G829" s="10"/>
@@ -25471,7 +25471,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25669,7 +25669,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25777,7 +25777,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -26011,7 +26011,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26047,7 +26047,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26713,7 +26713,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26749,7 +26749,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26821,7 +26821,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26929,7 +26929,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26947,7 +26947,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27091,7 +27091,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27127,7 +27127,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>17</v>
@@ -27292,7 +27292,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27418,7 +27418,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27583,7 +27583,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27637,7 +27637,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27799,7 +27799,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27910,7 +27910,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28330,7 +28330,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28366,7 +28366,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28840,7 +28840,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28966,7 +28966,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29020,7 +29020,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29218,7 +29218,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29290,7 +29290,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29326,7 +29326,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29524,7 +29524,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29560,7 +29560,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29668,7 +29668,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29704,7 +29704,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29812,7 +29812,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29830,7 +29830,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29848,7 +29848,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -29866,7 +29866,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="9">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1073" s="7"/>
       <c r="G1073" s="10"/>
@@ -30028,7 +30028,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30226,7 +30226,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30262,7 +30262,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30460,7 +30460,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30640,7 +30640,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30730,7 +30730,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30784,7 +30784,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30946,7 +30946,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31324,7 +31324,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31342,7 +31342,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31360,7 +31360,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31486,7 +31486,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31648,7 +31648,7 @@
         <v>2086</v>
       </c>
       <c r="E1172" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1172" s="7"/>
       <c r="G1172" s="10"/>
@@ -31666,7 +31666,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31864,7 +31864,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -32008,7 +32008,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32224,7 +32224,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32332,7 +32332,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32422,7 +32422,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32440,7 +32440,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32495,7 +32495,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32514,7 +32514,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32818,7 +32818,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32932,7 +32932,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33027,7 +33027,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33141,7 +33141,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33236,7 +33236,7 @@
         <v>16</v>
       </c>
       <c r="E1258" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33274,7 +33274,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33369,7 +33369,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33502,7 +33502,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33578,7 +33578,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33616,7 +33616,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33730,7 +33730,7 @@
         <v>1354</v>
       </c>
       <c r="E1284" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1284" s="7"/>
       <c r="G1284" s="10"/>
@@ -33749,7 +33749,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33768,7 +33768,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33787,7 +33787,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33806,7 +33806,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33863,7 +33863,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33901,7 +33901,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33939,7 +33939,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33977,7 +33977,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33996,7 +33996,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34034,7 +34034,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34110,7 +34110,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34227,7 +34227,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1310" s="7"/>
       <c r="G1310" s="10"/>
@@ -34341,7 +34341,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34550,7 +34550,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34740,7 +34740,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34892,7 +34892,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -35006,7 +35006,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35044,7 +35044,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35120,7 +35120,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35291,7 +35291,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35538,7 +35538,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35899,7 +35899,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36108,7 +36108,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36127,7 +36127,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36184,7 +36184,7 @@
         <v>2501</v>
       </c>
       <c r="E1413" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1413" s="7"/>
       <c r="G1413" s="10"/>
@@ -36355,7 +36355,7 @@
         <v>16</v>
       </c>
       <c r="E1422" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1422" s="7"/>
       <c r="G1422" s="10"/>
@@ -36510,7 +36510,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36548,7 +36548,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36567,7 +36567,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36833,7 +36833,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36909,7 +36909,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37061,7 +37061,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37099,7 +37099,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37137,7 +37137,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37327,7 +37327,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37346,7 +37346,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37422,7 +37422,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37517,7 +37517,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37555,7 +37555,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37593,7 +37593,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37691,7 +37691,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37786,7 +37786,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -37862,7 +37862,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38128,7 +38128,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38166,7 +38166,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38185,7 +38185,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38299,7 +38299,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38413,7 +38413,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38470,7 +38470,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38489,7 +38489,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38527,7 +38527,7 @@
         <v>2700</v>
       </c>
       <c r="E1536" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1536" s="7"/>
       <c r="G1536" s="10"/>
@@ -38628,7 +38628,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38704,7 +38704,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38742,7 +38742,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1547" s="7"/>
       <c r="G1547" s="10"/>
@@ -38780,7 +38780,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1549" s="7"/>
       <c r="G1549" s="10"/>
@@ -38799,7 +38799,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -38894,7 +38894,7 @@
         <v>830</v>
       </c>
       <c r="E1555" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1555" s="7"/>
       <c r="G1555" s="10"/>
@@ -39179,7 +39179,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39236,7 +39236,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39312,7 +39312,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39331,7 +39331,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39445,7 +39445,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39502,7 +39502,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39540,7 +39540,7 @@
         <v>2785</v>
       </c>
       <c r="E1589" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1589" s="7"/>
       <c r="G1589" s="10"/>
@@ -39844,7 +39844,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39901,7 +39901,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39920,7 +39920,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40034,7 +40034,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40205,7 +40205,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40243,7 +40243,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40262,7 +40262,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1627" s="7"/>
       <c r="G1627" s="10"/>
@@ -40281,7 +40281,7 @@
         <v>2849</v>
       </c>
       <c r="E1628" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1628" s="7"/>
       <c r="G1628" s="10"/>
@@ -40300,7 +40300,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40490,7 +40490,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40509,7 +40509,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1640" s="7"/>
       <c r="G1640" s="10"/>
@@ -40566,7 +40566,7 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1643" s="31" t="s">
         <v>17</v>
@@ -40625,7 +40625,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40720,7 +40720,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40758,7 +40758,7 @@
         <v>1882</v>
       </c>
       <c r="E1653" s="9">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1653" s="7"/>
       <c r="G1653" s="10"/>
@@ -40796,7 +40796,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40815,7 +40815,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40853,7 +40853,7 @@
         <v>16</v>
       </c>
       <c r="E1658" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40872,7 +40872,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40910,7 +40910,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40948,7 +40948,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41043,7 +41043,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41081,7 +41081,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41214,7 +41214,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41309,7 +41309,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41328,7 +41328,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41461,7 +41461,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41537,7 +41537,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41613,7 +41613,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41670,7 +41670,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41784,7 +41784,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -42050,7 +42050,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42145,7 +42145,7 @@
         <v>3002</v>
       </c>
       <c r="E1726" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1726" s="7"/>
       <c r="G1726" s="10"/>
@@ -42335,7 +42335,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42468,7 +42468,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42525,7 +42525,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42924,7 +42924,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42943,7 +42943,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43076,7 +43076,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43114,7 +43114,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1777" s="7"/>
       <c r="G1777" s="10"/>
@@ -43190,7 +43190,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="10"/>
@@ -43342,7 +43342,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43418,7 +43418,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43494,7 +43494,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43703,7 +43703,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43722,7 +43722,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1809" s="7"/>
       <c r="G1809" s="10"/>
@@ -43741,7 +43741,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43760,7 +43760,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43779,7 +43779,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1812" s="7"/>
       <c r="G1812" s="10"/>
@@ -43855,7 +43855,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43874,7 +43874,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44368,7 +44368,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44463,7 +44463,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F1848" s="35"/>
       <c r="G1848" s="10"/>
@@ -44482,7 +44482,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1849" s="35"/>
       <c r="G1849" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -10453,8 +10453,8 @@
         <v>5</v>
       </c>
       <c r="I1" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AJ1"")"),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AK1"")"),332.0)</f>
+        <v>332</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10560,8 +10560,8 @@
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="14">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AI1"")"),329.0)</f>
-        <v>329</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AJ1"")"),327.0)</f>
+        <v>327</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -10616,7 +10616,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10"/>
@@ -10707,7 +10707,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="10"/>
@@ -10816,7 +10816,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="10"/>
@@ -10852,7 +10852,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
@@ -10870,7 +10870,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
@@ -10906,7 +10906,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="10"/>
@@ -10960,7 +10960,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="10"/>
@@ -11086,7 +11086,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="10"/>
@@ -11158,7 +11158,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="10"/>
@@ -11194,7 +11194,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="10"/>
@@ -11230,7 +11230,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="10"/>
@@ -11284,7 +11284,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
@@ -11338,7 +11338,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="10"/>
@@ -11500,7 +11500,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="10"/>
@@ -11554,7 +11554,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="10"/>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="E61" s="16">
         <f>E60</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>17</v>
@@ -11647,7 +11647,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="10"/>
@@ -11953,7 +11953,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="10"/>
@@ -12403,7 +12403,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
@@ -12586,7 +12586,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="10"/>
@@ -12640,7 +12640,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="10"/>
@@ -12838,7 +12838,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="10"/>
@@ -12892,7 +12892,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="10"/>
@@ -12928,7 +12928,7 @@
         <v>265</v>
       </c>
       <c r="E136" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="10"/>
@@ -12946,7 +12946,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="10"/>
@@ -13108,7 +13108,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="10"/>
@@ -13126,7 +13126,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="10"/>
@@ -13234,7 +13234,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="10"/>
@@ -13288,7 +13288,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="10"/>
@@ -13432,7 +13432,7 @@
         <v>319</v>
       </c>
       <c r="E164" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="10"/>
@@ -13450,7 +13450,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="10"/>
@@ -13954,7 +13954,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="10"/>
@@ -14116,7 +14116,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="10"/>
@@ -14170,7 +14170,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="10"/>
@@ -14278,7 +14278,7 @@
         <v>406</v>
       </c>
       <c r="E211" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="10"/>
@@ -14404,7 +14404,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="10"/>
@@ -14494,7 +14494,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="10"/>
@@ -14530,7 +14530,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="10"/>
@@ -14548,7 +14548,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="10"/>
@@ -14674,7 +14674,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="10"/>
@@ -14728,7 +14728,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="10"/>
@@ -14836,7 +14836,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F242" s="7"/>
       <c r="G242" s="10"/>
@@ -14890,7 +14890,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F245" s="7"/>
       <c r="G245" s="10"/>
@@ -14908,7 +14908,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F246" s="7"/>
       <c r="G246" s="10"/>
@@ -15520,7 +15520,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F280" s="7"/>
       <c r="G280" s="10"/>
@@ -15556,7 +15556,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F282" s="7"/>
       <c r="G282" s="10"/>
@@ -15610,7 +15610,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="10"/>
@@ -15664,7 +15664,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F288" s="7"/>
       <c r="G288" s="10"/>
@@ -15772,7 +15772,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="9">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="10"/>
@@ -15844,7 +15844,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F298" s="7"/>
       <c r="G298" s="10"/>
@@ -15952,7 +15952,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F304" s="7"/>
       <c r="G304" s="10"/>
@@ -16024,7 +16024,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F308" s="7"/>
       <c r="G308" s="10"/>
@@ -16042,7 +16042,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="10"/>
@@ -16186,7 +16186,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F317" s="7"/>
       <c r="G317" s="10"/>
@@ -16384,7 +16384,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="10"/>
@@ -16438,7 +16438,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="10"/>
@@ -16474,7 +16474,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="10"/>
@@ -16510,7 +16510,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F335" s="7"/>
       <c r="G335" s="10"/>
@@ -16654,7 +16654,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="10"/>
@@ -16708,7 +16708,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="10"/>
@@ -16726,7 +16726,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="10"/>
@@ -16852,7 +16852,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="10"/>
@@ -17086,7 +17086,7 @@
         <v>681</v>
       </c>
       <c r="E367" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F367" s="7"/>
       <c r="G367" s="10"/>
@@ -17338,7 +17338,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F381" s="7"/>
       <c r="G381" s="10"/>
@@ -17554,7 +17554,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F393" s="7"/>
       <c r="G393" s="10"/>
@@ -17809,7 +17809,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="10"/>
@@ -18064,7 +18064,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="10"/>
@@ -18082,7 +18082,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="9">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="10"/>
@@ -18118,7 +18118,7 @@
         <v>784</v>
       </c>
       <c r="E424" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="10"/>
@@ -18136,7 +18136,7 @@
         <v>786</v>
       </c>
       <c r="E425" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="10"/>
@@ -18262,7 +18262,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F432" s="7"/>
       <c r="G432" s="10"/>
@@ -18445,7 +18445,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F442" s="7"/>
       <c r="G442" s="10"/>
@@ -18520,7 +18520,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F446" s="7"/>
       <c r="G446" s="10"/>
@@ -18610,7 +18610,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F451" s="7"/>
       <c r="G451" s="10"/>
@@ -18718,7 +18718,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F457" s="7"/>
       <c r="G457" s="10"/>
@@ -18898,7 +18898,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F467" s="7"/>
       <c r="G467" s="10"/>
@@ -18934,7 +18934,7 @@
         <v>290</v>
       </c>
       <c r="E469" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="10"/>
@@ -19006,7 +19006,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F473" s="7"/>
       <c r="G473" s="10"/>
@@ -19024,7 +19024,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F474" s="7"/>
       <c r="G474" s="10"/>
@@ -19132,7 +19132,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F480" s="7"/>
       <c r="G480" s="10"/>
@@ -19150,7 +19150,7 @@
         <v>760</v>
       </c>
       <c r="E481" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F481" s="7"/>
       <c r="G481" s="10"/>
@@ -19276,7 +19276,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F488" s="7"/>
       <c r="G488" s="10"/>
@@ -19348,7 +19348,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F492" s="7"/>
       <c r="G492" s="10"/>
@@ -19402,7 +19402,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F495" s="7"/>
       <c r="G495" s="10"/>
@@ -19510,7 +19510,7 @@
         <v>916</v>
       </c>
       <c r="E501" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="10"/>
@@ -19636,7 +19636,7 @@
         <v>929</v>
       </c>
       <c r="E508" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F508" s="7"/>
       <c r="G508" s="10"/>
@@ -19726,7 +19726,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F513" s="7"/>
       <c r="G513" s="10"/>
@@ -19816,7 +19816,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F518" s="7"/>
       <c r="G518" s="10"/>
@@ -19852,7 +19852,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="9">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F520" s="7"/>
       <c r="G520" s="10"/>
@@ -20086,7 +20086,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F533" s="7"/>
       <c r="G533" s="10"/>
@@ -20122,7 +20122,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F535" s="7"/>
       <c r="G535" s="10"/>
@@ -20140,7 +20140,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F536" s="7"/>
       <c r="G536" s="10"/>
@@ -20413,7 +20413,7 @@
         <v>580</v>
       </c>
       <c r="E551" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F551" s="7"/>
       <c r="G551" s="10"/>
@@ -20485,7 +20485,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F555" s="7"/>
       <c r="G555" s="10"/>
@@ -20521,7 +20521,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F557" s="7"/>
       <c r="G557" s="10"/>
@@ -20575,7 +20575,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F560" s="7"/>
       <c r="G560" s="10"/>
@@ -20629,7 +20629,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F563" s="7"/>
       <c r="G563" s="10"/>
@@ -20701,7 +20701,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F567" s="7"/>
       <c r="G567" s="10"/>
@@ -20956,7 +20956,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F581" s="7"/>
       <c r="G581" s="10"/>
@@ -21010,7 +21010,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="10"/>
@@ -21064,7 +21064,7 @@
         <v>1073</v>
       </c>
       <c r="E587" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F587" s="7"/>
       <c r="G587" s="10"/>
@@ -21154,7 +21154,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F592" s="7"/>
       <c r="G592" s="10"/>
@@ -21244,7 +21244,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F597" s="7"/>
       <c r="G597" s="10"/>
@@ -21370,7 +21370,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F604" s="7"/>
       <c r="G604" s="10"/>
@@ -21427,7 +21427,7 @@
         <v>1105</v>
       </c>
       <c r="E607" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F607" s="7"/>
       <c r="G607" s="10"/>
@@ -21481,7 +21481,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="10"/>
@@ -21517,7 +21517,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="10"/>
@@ -21844,7 +21844,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F630" s="7"/>
       <c r="G630" s="10"/>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="E636" s="27">
         <f>E57</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F636" s="24" t="s">
         <v>17</v>
@@ -22247,7 +22247,7 @@
       </c>
       <c r="E652" s="16">
         <f>E42</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F652" s="25" t="s">
         <v>17</v>
@@ -22321,7 +22321,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F656" s="7"/>
       <c r="G656" s="10"/>
@@ -22357,7 +22357,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F658" s="7"/>
       <c r="G658" s="10"/>
@@ -22414,7 +22414,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="10"/>
@@ -22468,7 +22468,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="9">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F664" s="7"/>
       <c r="G664" s="10"/>
@@ -22540,7 +22540,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F668" s="7"/>
       <c r="G668" s="10"/>
@@ -22594,7 +22594,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F671" s="7"/>
       <c r="G671" s="10"/>
@@ -22612,7 +22612,7 @@
         <v>1222</v>
       </c>
       <c r="E672" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F672" s="7"/>
       <c r="G672" s="10"/>
@@ -22684,7 +22684,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F676" s="7"/>
       <c r="G676" s="10"/>
@@ -22702,7 +22702,7 @@
         <v>1232</v>
       </c>
       <c r="E677" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F677" s="7"/>
       <c r="G677" s="10"/>
@@ -22774,7 +22774,7 @@
         <v>1239</v>
       </c>
       <c r="E681" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F681" s="7"/>
       <c r="G681" s="10"/>
@@ -22828,7 +22828,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F684" s="7"/>
       <c r="G684" s="10"/>
@@ -23008,7 +23008,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F694" s="7"/>
       <c r="G694" s="10"/>
@@ -23098,7 +23098,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F699" s="7"/>
       <c r="G699" s="10"/>
@@ -23170,7 +23170,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F703" s="7"/>
       <c r="G703" s="10"/>
@@ -23404,7 +23404,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F716" s="7"/>
       <c r="G716" s="10"/>
@@ -23476,7 +23476,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F720" s="7"/>
       <c r="G720" s="10"/>
@@ -23494,7 +23494,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F721" s="7"/>
       <c r="G721" s="10"/>
@@ -23890,7 +23890,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F743" s="7"/>
       <c r="G743" s="10"/>
@@ -24124,7 +24124,7 @@
         <v>1372</v>
       </c>
       <c r="E756" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F756" s="7"/>
       <c r="G756" s="10"/>
@@ -24199,7 +24199,7 @@
         <v>1379</v>
       </c>
       <c r="E760" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F760" s="7"/>
       <c r="G760" s="10"/>
@@ -24235,7 +24235,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F762" s="7"/>
       <c r="G762" s="30"/>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="E767" s="16">
         <f>E13</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>17</v>
@@ -24400,7 +24400,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F771" s="7"/>
       <c r="G771" s="10"/>
@@ -24583,7 +24583,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F781" s="7"/>
       <c r="G781" s="10"/>
@@ -24601,7 +24601,7 @@
         <v>1416</v>
       </c>
       <c r="E782" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F782" s="7"/>
       <c r="G782" s="10"/>
@@ -24764,7 +24764,7 @@
       </c>
       <c r="E791" s="16">
         <f>E34</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F791" s="31" t="s">
         <v>17</v>
@@ -24874,7 +24874,7 @@
         <v>1445</v>
       </c>
       <c r="E797" s="9">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F797" s="7"/>
       <c r="G797" s="10"/>
@@ -24929,7 +24929,7 @@
       </c>
       <c r="E800" s="16">
         <f>E38</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F800" s="25" t="s">
         <v>17</v>
@@ -25237,7 +25237,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F817" s="7"/>
       <c r="G817" s="10"/>
@@ -25381,7 +25381,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F825" s="7"/>
       <c r="G825" s="10"/>
@@ -25435,7 +25435,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F828" s="7"/>
       <c r="G828" s="10"/>
@@ -25471,7 +25471,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F830" s="7"/>
       <c r="G830" s="10"/>
@@ -25669,7 +25669,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F841" s="7"/>
       <c r="G841" s="10"/>
@@ -25777,7 +25777,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F847" s="7"/>
       <c r="G847" s="10"/>
@@ -26011,7 +26011,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F860" s="7"/>
       <c r="G860" s="10"/>
@@ -26047,7 +26047,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F862" s="7"/>
       <c r="G862" s="10"/>
@@ -26713,7 +26713,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F899" s="7"/>
       <c r="G899" s="10"/>
@@ -26749,7 +26749,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F901" s="7"/>
       <c r="G901" s="10"/>
@@ -26821,7 +26821,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F905" s="7"/>
       <c r="G905" s="10"/>
@@ -26929,7 +26929,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F911" s="7"/>
       <c r="G911" s="10"/>
@@ -26947,7 +26947,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F912" s="7"/>
       <c r="G912" s="10"/>
@@ -27091,7 +27091,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F920" s="7"/>
       <c r="G920" s="10"/>
@@ -27127,7 +27127,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F922" s="7"/>
       <c r="G922" s="10"/>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="E926" s="16">
         <f>E309</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F926" s="25" t="s">
         <v>17</v>
@@ -27292,7 +27292,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F931" s="7"/>
       <c r="G931" s="10"/>
@@ -27418,7 +27418,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F938" s="7"/>
       <c r="G938" s="10"/>
@@ -27583,7 +27583,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F947" s="7"/>
       <c r="G947" s="10"/>
@@ -27637,7 +27637,7 @@
         <v>1717</v>
       </c>
       <c r="E950" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F950" s="7"/>
       <c r="G950" s="10"/>
@@ -27799,7 +27799,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F959" s="7"/>
       <c r="G959" s="10"/>
@@ -27816,7 +27816,7 @@
       <c r="D960" s="19" t="s">
         <v>1736</v>
       </c>
-      <c r="E960" s="9">
+      <c r="E960" s="6">
         <v>0.0</v>
       </c>
       <c r="F960" s="7"/>
@@ -27910,7 +27910,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F965" s="7"/>
       <c r="G965" s="10"/>
@@ -28330,7 +28330,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F988" s="7"/>
       <c r="G988" s="10"/>
@@ -28366,7 +28366,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F990" s="7"/>
       <c r="G990" s="10"/>
@@ -28642,7 +28642,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1005" s="7"/>
       <c r="G1005" s="10"/>
@@ -28840,7 +28840,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1016" s="7"/>
       <c r="G1016" s="10"/>
@@ -28966,7 +28966,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1023" s="7"/>
       <c r="G1023" s="10"/>
@@ -29020,7 +29020,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1026" s="7"/>
       <c r="G1026" s="10"/>
@@ -29218,7 +29218,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1037" s="7"/>
       <c r="G1037" s="10"/>
@@ -29290,7 +29290,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1041" s="7"/>
       <c r="G1041" s="10"/>
@@ -29326,7 +29326,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1043" s="7"/>
       <c r="G1043" s="10"/>
@@ -29524,7 +29524,7 @@
         <v>1888</v>
       </c>
       <c r="E1054" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1054" s="7"/>
       <c r="G1054" s="10"/>
@@ -29560,7 +29560,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1056" s="7"/>
       <c r="G1056" s="10"/>
@@ -29668,7 +29668,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1062" s="7"/>
       <c r="G1062" s="10"/>
@@ -29704,7 +29704,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1064" s="7"/>
       <c r="G1064" s="10"/>
@@ -29812,7 +29812,7 @@
         <v>43</v>
       </c>
       <c r="E1070" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1070" s="7"/>
       <c r="G1070" s="10"/>
@@ -29830,7 +29830,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1071" s="7"/>
       <c r="G1071" s="10"/>
@@ -29848,7 +29848,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1072" s="7"/>
       <c r="G1072" s="10"/>
@@ -30028,7 +30028,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1082" s="7"/>
       <c r="G1082" s="10"/>
@@ -30226,7 +30226,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1093" s="7"/>
       <c r="G1093" s="10"/>
@@ -30262,7 +30262,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1095" s="7"/>
       <c r="G1095" s="10"/>
@@ -30460,7 +30460,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1106" s="7"/>
       <c r="G1106" s="10"/>
@@ -30640,7 +30640,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1116" s="7"/>
       <c r="G1116" s="10"/>
@@ -30730,7 +30730,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1121" s="7"/>
       <c r="G1121" s="10"/>
@@ -30784,7 +30784,7 @@
         <v>97</v>
       </c>
       <c r="E1124" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1124" s="7"/>
       <c r="G1124" s="10"/>
@@ -30946,7 +30946,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1133" s="7"/>
       <c r="G1133" s="10"/>
@@ -31324,7 +31324,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1154" s="7"/>
       <c r="G1154" s="10"/>
@@ -31342,7 +31342,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1155" s="7"/>
       <c r="G1155" s="10"/>
@@ -31360,7 +31360,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1156" s="7"/>
       <c r="G1156" s="10"/>
@@ -31486,7 +31486,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="9">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1163" s="7"/>
       <c r="G1163" s="10"/>
@@ -31666,7 +31666,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1173" s="7"/>
       <c r="G1173" s="10"/>
@@ -31828,7 +31828,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1182" s="7"/>
       <c r="G1182" s="10"/>
@@ -31864,7 +31864,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1184" s="7"/>
       <c r="G1184" s="10"/>
@@ -32008,7 +32008,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1192" s="7"/>
       <c r="G1192" s="10"/>
@@ -32224,7 +32224,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1204" s="7"/>
       <c r="G1204" s="10"/>
@@ -32332,7 +32332,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1210" s="7"/>
       <c r="G1210" s="10"/>
@@ -32422,7 +32422,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1215" s="7"/>
       <c r="G1215" s="10"/>
@@ -32440,7 +32440,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1216" s="7"/>
       <c r="G1216" s="10"/>
@@ -32495,7 +32495,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1219" s="7"/>
       <c r="G1219" s="10"/>
@@ -32514,7 +32514,7 @@
         <v>2172</v>
       </c>
       <c r="E1220" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1220" s="7"/>
       <c r="G1220" s="10"/>
@@ -32818,7 +32818,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1236" s="7"/>
       <c r="G1236" s="10"/>
@@ -32932,7 +32932,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1242" s="7"/>
       <c r="G1242" s="10"/>
@@ -33027,7 +33027,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1247" s="7"/>
       <c r="G1247" s="10"/>
@@ -33141,7 +33141,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1253" s="7"/>
       <c r="G1253" s="10"/>
@@ -33236,7 +33236,7 @@
         <v>16</v>
       </c>
       <c r="E1258" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1258" s="7"/>
       <c r="G1258" s="10"/>
@@ -33274,7 +33274,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1260" s="7"/>
       <c r="G1260" s="10"/>
@@ -33369,7 +33369,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1265" s="7"/>
       <c r="G1265" s="10"/>
@@ -33502,7 +33502,7 @@
         <v>2258</v>
       </c>
       <c r="E1272" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1272" s="7"/>
       <c r="G1272" s="10"/>
@@ -33578,7 +33578,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1276" s="7"/>
       <c r="G1276" s="10"/>
@@ -33616,7 +33616,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="9">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1278" s="7"/>
       <c r="G1278" s="10"/>
@@ -33749,7 +33749,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1285" s="7"/>
       <c r="G1285" s="10"/>
@@ -33768,7 +33768,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1286" s="7"/>
       <c r="G1286" s="10"/>
@@ -33787,7 +33787,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1287" s="7"/>
       <c r="G1287" s="10"/>
@@ -33806,7 +33806,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1288" s="7"/>
       <c r="G1288" s="10"/>
@@ -33863,7 +33863,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1291" s="7"/>
       <c r="G1291" s="10"/>
@@ -33901,7 +33901,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1293" s="7"/>
       <c r="G1293" s="10"/>
@@ -33939,7 +33939,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1295" s="7"/>
       <c r="G1295" s="10"/>
@@ -33977,7 +33977,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1297" s="7"/>
       <c r="G1297" s="10"/>
@@ -33996,7 +33996,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1298" s="7"/>
       <c r="G1298" s="10"/>
@@ -34034,7 +34034,7 @@
         <v>2305</v>
       </c>
       <c r="E1300" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1300" s="7"/>
       <c r="G1300" s="10"/>
@@ -34110,7 +34110,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1304" s="7"/>
       <c r="G1304" s="10"/>
@@ -34341,7 +34341,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1316" s="7"/>
       <c r="G1316" s="10"/>
@@ -34550,7 +34550,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1327" s="7"/>
       <c r="G1327" s="10"/>
@@ -34740,7 +34740,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1337" s="7"/>
       <c r="G1337" s="10"/>
@@ -34892,7 +34892,7 @@
         <v>2386</v>
       </c>
       <c r="E1345" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1345" s="7"/>
       <c r="G1345" s="10"/>
@@ -35006,7 +35006,7 @@
         <v>2395</v>
       </c>
       <c r="E1351" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1351" s="7"/>
       <c r="G1351" s="10"/>
@@ -35044,7 +35044,7 @@
         <v>2399</v>
       </c>
       <c r="E1353" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1353" s="7"/>
       <c r="G1353" s="10"/>
@@ -35120,7 +35120,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1357" s="7"/>
       <c r="G1357" s="10"/>
@@ -35291,7 +35291,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1366" s="7"/>
       <c r="G1366" s="10"/>
@@ -35538,7 +35538,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1379" s="7"/>
       <c r="G1379" s="10"/>
@@ -35785,7 +35785,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1392" s="7"/>
       <c r="G1392" s="10"/>
@@ -35899,7 +35899,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1398" s="7"/>
       <c r="G1398" s="10"/>
@@ -36108,7 +36108,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1409" s="7"/>
       <c r="G1409" s="10"/>
@@ -36127,7 +36127,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1410" s="7"/>
       <c r="G1410" s="10"/>
@@ -36510,7 +36510,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1430" s="7"/>
       <c r="G1430" s="10"/>
@@ -36548,7 +36548,7 @@
         <v>43</v>
       </c>
       <c r="E1432" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1432" s="7"/>
       <c r="G1432" s="10"/>
@@ -36567,7 +36567,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1433" s="7"/>
       <c r="G1433" s="10"/>
@@ -36833,7 +36833,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1447" s="7"/>
       <c r="G1447" s="10"/>
@@ -36909,7 +36909,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1451" s="7"/>
       <c r="G1451" s="10"/>
@@ -37061,7 +37061,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1459" s="7"/>
       <c r="G1459" s="10"/>
@@ -37099,7 +37099,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1461" s="7"/>
       <c r="G1461" s="10"/>
@@ -37137,7 +37137,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1463" s="7"/>
       <c r="G1463" s="10"/>
@@ -37327,7 +37327,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1473" s="7"/>
       <c r="G1473" s="10"/>
@@ -37346,7 +37346,7 @@
         <v>115</v>
       </c>
       <c r="E1474" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1474" s="7"/>
       <c r="G1474" s="10"/>
@@ -37422,7 +37422,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1478" s="7"/>
       <c r="G1478" s="10"/>
@@ -37517,7 +37517,7 @@
         <v>2609</v>
       </c>
       <c r="E1483" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1483" s="7"/>
       <c r="G1483" s="10"/>
@@ -37555,7 +37555,7 @@
         <v>2612</v>
       </c>
       <c r="E1485" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1485" s="7"/>
       <c r="G1485" s="10"/>
@@ -37593,7 +37593,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1487" s="7"/>
       <c r="G1487" s="10"/>
@@ -37691,7 +37691,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1492" s="7"/>
       <c r="G1492" s="10"/>
@@ -37786,7 +37786,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="9">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F1497" s="7"/>
       <c r="G1497" s="10"/>
@@ -37862,7 +37862,7 @@
         <v>2640</v>
       </c>
       <c r="E1501" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1501" s="7"/>
       <c r="G1501" s="10"/>
@@ -38128,7 +38128,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1515" s="7"/>
       <c r="G1515" s="10"/>
@@ -38166,7 +38166,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1517" s="7"/>
       <c r="G1517" s="10"/>
@@ -38185,7 +38185,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1518" s="7"/>
       <c r="G1518" s="10"/>
@@ -38299,7 +38299,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1524" s="7"/>
       <c r="G1524" s="10"/>
@@ -38413,7 +38413,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1530" s="7"/>
       <c r="G1530" s="10"/>
@@ -38470,7 +38470,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1533" s="7"/>
       <c r="G1533" s="10"/>
@@ -38489,7 +38489,7 @@
         <v>2696</v>
       </c>
       <c r="E1534" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1534" s="7"/>
       <c r="G1534" s="10"/>
@@ -38527,7 +38527,7 @@
         <v>2700</v>
       </c>
       <c r="E1536" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1536" s="7"/>
       <c r="G1536" s="10"/>
@@ -38628,7 +38628,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1541" s="7"/>
       <c r="G1541" s="10"/>
@@ -38704,7 +38704,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1545" s="7"/>
       <c r="G1545" s="10"/>
@@ -38742,7 +38742,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1547" s="7"/>
       <c r="G1547" s="10"/>
@@ -38780,7 +38780,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1549" s="7"/>
       <c r="G1549" s="10"/>
@@ -38799,7 +38799,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1550" s="7"/>
       <c r="G1550" s="10"/>
@@ -39179,7 +39179,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1570" s="7"/>
       <c r="G1570" s="10"/>
@@ -39236,7 +39236,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1573" s="7"/>
       <c r="G1573" s="10"/>
@@ -39312,7 +39312,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1577" s="7"/>
       <c r="G1577" s="10"/>
@@ -39331,7 +39331,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1578" s="7"/>
       <c r="G1578" s="10"/>
@@ -39445,7 +39445,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1584" s="7"/>
       <c r="G1584" s="10"/>
@@ -39502,7 +39502,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1587" s="7"/>
       <c r="G1587" s="10"/>
@@ -39540,7 +39540,7 @@
         <v>2785</v>
       </c>
       <c r="E1589" s="9">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F1589" s="7"/>
       <c r="G1589" s="10"/>
@@ -39844,7 +39844,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1605" s="7"/>
       <c r="G1605" s="10"/>
@@ -39901,7 +39901,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1608" s="7"/>
       <c r="G1608" s="10"/>
@@ -39920,7 +39920,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1609" s="7"/>
       <c r="G1609" s="10"/>
@@ -40034,7 +40034,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1615" s="7"/>
       <c r="G1615" s="10"/>
@@ -40205,7 +40205,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1624" s="7"/>
       <c r="G1624" s="10"/>
@@ -40243,7 +40243,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1626" s="7"/>
       <c r="G1626" s="10"/>
@@ -40300,7 +40300,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1629" s="7"/>
       <c r="G1629" s="10"/>
@@ -40490,7 +40490,7 @@
         <v>373</v>
       </c>
       <c r="E1639" s="9">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1639" s="7"/>
       <c r="G1639" s="10"/>
@@ -40625,7 +40625,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1646" s="7"/>
       <c r="G1646" s="10"/>
@@ -40663,7 +40663,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1648" s="7"/>
       <c r="G1648" s="10"/>
@@ -40720,7 +40720,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1651" s="7"/>
       <c r="G1651" s="10"/>
@@ -40758,7 +40758,7 @@
         <v>1882</v>
       </c>
       <c r="E1653" s="9">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1653" s="7"/>
       <c r="G1653" s="10"/>
@@ -40796,7 +40796,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1655" s="7"/>
       <c r="G1655" s="10"/>
@@ -40815,7 +40815,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1656" s="7"/>
       <c r="G1656" s="10"/>
@@ -40853,7 +40853,7 @@
         <v>16</v>
       </c>
       <c r="E1658" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1658" s="7"/>
       <c r="G1658" s="10"/>
@@ -40872,7 +40872,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1659" s="7"/>
       <c r="G1659" s="10"/>
@@ -40910,7 +40910,7 @@
         <v>2901</v>
       </c>
       <c r="E1661" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1661" s="7"/>
       <c r="G1661" s="10"/>
@@ -40948,7 +40948,7 @@
         <v>2904</v>
       </c>
       <c r="E1663" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1663" s="7"/>
       <c r="G1663" s="10"/>
@@ -41043,7 +41043,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1668" s="7"/>
       <c r="G1668" s="10"/>
@@ -41081,7 +41081,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1670" s="7"/>
       <c r="G1670" s="10"/>
@@ -41214,7 +41214,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1677" s="7"/>
       <c r="G1677" s="10"/>
@@ -41309,7 +41309,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1682" s="7"/>
       <c r="G1682" s="10"/>
@@ -41328,7 +41328,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1683" s="7"/>
       <c r="G1683" s="10"/>
@@ -41461,7 +41461,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1690" s="7"/>
       <c r="G1690" s="10"/>
@@ -41537,7 +41537,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1694" s="7"/>
       <c r="G1694" s="10"/>
@@ -41613,7 +41613,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1698" s="7"/>
       <c r="G1698" s="10"/>
@@ -41670,7 +41670,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1701" s="7"/>
       <c r="G1701" s="10"/>
@@ -41784,7 +41784,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="9">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F1707" s="7"/>
       <c r="G1707" s="10"/>
@@ -42050,7 +42050,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1721" s="7"/>
       <c r="G1721" s="10"/>
@@ -42145,7 +42145,7 @@
         <v>3002</v>
       </c>
       <c r="E1726" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1726" s="7"/>
       <c r="G1726" s="10"/>
@@ -42335,7 +42335,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1736" s="7"/>
       <c r="G1736" s="10"/>
@@ -42468,7 +42468,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1743" s="7"/>
       <c r="G1743" s="10"/>
@@ -42525,7 +42525,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1746" s="7"/>
       <c r="G1746" s="10"/>
@@ -42924,7 +42924,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="9">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F1767" s="7"/>
       <c r="G1767" s="10"/>
@@ -42943,7 +42943,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1768" s="7"/>
       <c r="G1768" s="10"/>
@@ -43076,7 +43076,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1775" s="7"/>
       <c r="G1775" s="10"/>
@@ -43190,7 +43190,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1781" s="7"/>
       <c r="G1781" s="10"/>
@@ -43342,7 +43342,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1789" s="7"/>
       <c r="G1789" s="10"/>
@@ -43418,7 +43418,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1793" s="7"/>
       <c r="G1793" s="10"/>
@@ -43494,7 +43494,7 @@
         <v>3124</v>
       </c>
       <c r="E1797" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1797" s="7"/>
       <c r="G1797" s="10"/>
@@ -43665,7 +43665,7 @@
         <v>124</v>
       </c>
       <c r="E1806" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1806" s="7"/>
       <c r="G1806" s="10"/>
@@ -43703,7 +43703,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1808" s="7"/>
       <c r="G1808" s="10"/>
@@ -43741,7 +43741,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1810" s="7"/>
       <c r="G1810" s="10"/>
@@ -43760,7 +43760,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1811" s="7"/>
       <c r="G1811" s="10"/>
@@ -43855,7 +43855,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1816" s="7"/>
       <c r="G1816" s="10"/>
@@ -43874,7 +43874,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="9">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F1817" s="7"/>
       <c r="G1817" s="10"/>
@@ -44368,7 +44368,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="9">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1843" s="7"/>
       <c r="G1843" s="10"/>
@@ -44463,7 +44463,7 @@
         <v>3211</v>
       </c>
       <c r="E1848" s="9">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F1848" s="35"/>
       <c r="G1848" s="10"/>
@@ -44482,7 +44482,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="9">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F1849" s="35"/>
       <c r="G1849" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -52,7 +52,7 @@
     <t>VERIFY DAY BY THIS LINK</t>
   </si>
   <si>
-    <t>Total Entries Day 36</t>
+    <t>Total Entries Day 38</t>
   </si>
   <si>
     <t>Yukti Jhawar</t>
@@ -9794,7 +9794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -9891,6 +9891,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -9972,7 +9977,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9985,7 +9990,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -10019,14 +10024,14 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -10046,6 +10051,12 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -10397,8 +10408,8 @@
         <v>5</v>
       </c>
       <c r="I1" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AR1"")"),304.0)</f>
-        <v>304</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AU1"")"),37.0)</f>
+        <v>37</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -10539,8 +10550,8 @@
       <c r="F5" s="5"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AQ1"")"),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/14pdh9Mjhnj7x5VOvEz8TmlRVcDMuFeyHKh2xGJS1COk/edit?usp=sharing"", ""Progress Report!AS1"")"),313.0)</f>
+        <v>313</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -10645,7 +10656,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="7"/>
@@ -10819,8 +10830,8 @@
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5">
-        <v>35.0</v>
+      <c r="E13" s="18">
+        <v>37.0</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7"/>
@@ -10859,7 +10870,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -11030,7 +11041,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="7"/>
@@ -11100,7 +11111,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="7"/>
@@ -11135,7 +11146,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="7"/>
@@ -11205,7 +11216,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="7"/>
@@ -11310,7 +11321,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="7"/>
@@ -11520,7 +11531,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="5">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="7"/>
@@ -11555,7 +11566,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="7"/>
@@ -11695,7 +11706,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="7"/>
@@ -11764,8 +11775,8 @@
       <c r="D40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="5">
-        <v>35.0</v>
+      <c r="E40" s="18">
+        <v>37.0</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="7"/>
@@ -11835,7 +11846,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="7"/>
@@ -11940,7 +11951,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="7"/>
@@ -12045,7 +12056,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="7"/>
@@ -12360,7 +12371,7 @@
         <v>115</v>
       </c>
       <c r="E57" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="7"/>
@@ -12465,7 +12476,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="7"/>
@@ -12501,7 +12512,7 @@
       </c>
       <c r="E61" s="14">
         <f>E60</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>17</v>
@@ -12643,7 +12654,7 @@
         <v>128</v>
       </c>
       <c r="E65" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="7"/>
@@ -13238,7 +13249,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="7"/>
@@ -14113,7 +14124,7 @@
         <v>211</v>
       </c>
       <c r="E107" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="7"/>
@@ -14466,7 +14477,7 @@
         <v>227</v>
       </c>
       <c r="E117" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="7"/>
@@ -14571,7 +14582,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="7"/>
@@ -14956,7 +14967,7 @@
         <v>255</v>
       </c>
       <c r="E131" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="7"/>
@@ -15061,7 +15072,7 @@
         <v>261</v>
       </c>
       <c r="E134" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="7"/>
@@ -15166,7 +15177,7 @@
         <v>267</v>
       </c>
       <c r="E137" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="7"/>
@@ -15481,7 +15492,7 @@
         <v>285</v>
       </c>
       <c r="E146" s="5">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="7"/>
@@ -15516,7 +15527,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="7"/>
@@ -15726,7 +15737,7 @@
         <v>298</v>
       </c>
       <c r="E153" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="7"/>
@@ -15831,7 +15842,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="7"/>
@@ -16110,8 +16121,8 @@
       <c r="D164" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E164" s="5">
-        <v>35.0</v>
+      <c r="E164" s="18">
+        <v>37.0</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="7"/>
@@ -16146,7 +16157,7 @@
         <v>321</v>
       </c>
       <c r="E165" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="7"/>
@@ -17126,7 +17137,7 @@
         <v>373</v>
       </c>
       <c r="E193" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="7"/>
@@ -17441,7 +17452,7 @@
         <v>388</v>
       </c>
       <c r="E202" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="7"/>
@@ -17546,7 +17557,7 @@
         <v>394</v>
       </c>
       <c r="E205" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="7"/>
@@ -18001,7 +18012,7 @@
         <v>107</v>
       </c>
       <c r="E218" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="7"/>
@@ -18176,7 +18187,7 @@
         <v>427</v>
       </c>
       <c r="E223" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="7"/>
@@ -18246,7 +18257,7 @@
         <v>431</v>
       </c>
       <c r="E225" s="5">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="7"/>
@@ -18281,7 +18292,7 @@
         <v>433</v>
       </c>
       <c r="E226" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="7"/>
@@ -18526,7 +18537,7 @@
         <v>447</v>
       </c>
       <c r="E233" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="7"/>
@@ -18631,7 +18642,7 @@
         <v>453</v>
       </c>
       <c r="E236" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="7"/>
@@ -18841,7 +18852,7 @@
         <v>465</v>
       </c>
       <c r="E242" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="7"/>
@@ -18946,7 +18957,7 @@
         <v>471</v>
       </c>
       <c r="E245" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F245" s="5"/>
       <c r="G245" s="7"/>
@@ -18981,7 +18992,7 @@
         <v>473</v>
       </c>
       <c r="E246" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="7"/>
@@ -19891,7 +19902,7 @@
         <v>520</v>
       </c>
       <c r="E272" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="7"/>
@@ -20171,7 +20182,7 @@
         <v>225</v>
       </c>
       <c r="E280" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F280" s="5"/>
       <c r="G280" s="7"/>
@@ -20241,7 +20252,7 @@
         <v>537</v>
       </c>
       <c r="E282" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F282" s="5"/>
       <c r="G282" s="7"/>
@@ -20346,7 +20357,7 @@
         <v>543</v>
       </c>
       <c r="E285" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="7"/>
@@ -20451,7 +20462,7 @@
         <v>225</v>
       </c>
       <c r="E288" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F288" s="5"/>
       <c r="G288" s="7"/>
@@ -20661,7 +20672,7 @@
         <v>555</v>
       </c>
       <c r="E294" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="7"/>
@@ -20801,7 +20812,7 @@
         <v>562</v>
       </c>
       <c r="E298" s="5">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="7"/>
@@ -21011,7 +21022,7 @@
         <v>225</v>
       </c>
       <c r="E304" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F304" s="5"/>
       <c r="G304" s="7"/>
@@ -21151,7 +21162,7 @@
         <v>578</v>
       </c>
       <c r="E308" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="7"/>
@@ -21186,7 +21197,7 @@
         <v>580</v>
       </c>
       <c r="E309" s="5">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F309" s="5"/>
       <c r="G309" s="7"/>
@@ -21466,7 +21477,7 @@
         <v>43</v>
       </c>
       <c r="E317" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F317" s="5"/>
       <c r="G317" s="7"/>
@@ -21851,7 +21862,7 @@
         <v>615</v>
       </c>
       <c r="E328" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F328" s="5"/>
       <c r="G328" s="7"/>
@@ -21956,7 +21967,7 @@
         <v>621</v>
       </c>
       <c r="E331" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F331" s="5"/>
       <c r="G331" s="7"/>
@@ -22026,7 +22037,7 @@
         <v>611</v>
       </c>
       <c r="E333" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="7"/>
@@ -22096,7 +22107,7 @@
         <v>627</v>
       </c>
       <c r="E335" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="7"/>
@@ -22376,7 +22387,7 @@
         <v>638</v>
       </c>
       <c r="E343" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="7"/>
@@ -22481,7 +22492,7 @@
         <v>644</v>
       </c>
       <c r="E346" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="7"/>
@@ -22516,7 +22527,7 @@
         <v>646</v>
       </c>
       <c r="E347" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="7"/>
@@ -22761,7 +22772,7 @@
         <v>658</v>
       </c>
       <c r="E354" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="7"/>
@@ -23216,7 +23227,7 @@
         <v>681</v>
       </c>
       <c r="E367" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F367" s="5"/>
       <c r="G367" s="7"/>
@@ -23706,7 +23717,7 @@
         <v>707</v>
       </c>
       <c r="E381" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="7"/>
@@ -23846,7 +23857,7 @@
         <v>29</v>
       </c>
       <c r="E385" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F385" s="5"/>
       <c r="G385" s="7"/>
@@ -24126,7 +24137,7 @@
         <v>505</v>
       </c>
       <c r="E393" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F393" s="5"/>
       <c r="G393" s="7"/>
@@ -24409,7 +24420,7 @@
         <f>E214</f>
         <v>0</v>
       </c>
-      <c r="F401" s="19" t="s">
+      <c r="F401" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G401" s="7"/>
@@ -24619,7 +24630,7 @@
         <v>752</v>
       </c>
       <c r="E407" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F407" s="5"/>
       <c r="G407" s="7"/>
@@ -25042,7 +25053,7 @@
         <f>E20</f>
         <v>18</v>
       </c>
-      <c r="F419" s="20" t="s">
+      <c r="F419" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G419" s="7"/>
@@ -25112,7 +25123,7 @@
         <v>778</v>
       </c>
       <c r="E421" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F421" s="5"/>
       <c r="G421" s="7"/>
@@ -25147,7 +25158,7 @@
         <v>780</v>
       </c>
       <c r="E422" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="7"/>
@@ -25216,8 +25227,8 @@
       <c r="D424" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="E424" s="5">
-        <v>35.0</v>
+      <c r="E424" s="18">
+        <v>37.0</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="7"/>
@@ -25251,8 +25262,8 @@
       <c r="D425" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="E425" s="21">
-        <v>35.0</v>
+      <c r="E425" s="5">
+        <v>37.0</v>
       </c>
       <c r="F425" s="5"/>
       <c r="G425" s="7"/>
@@ -25497,7 +25508,7 @@
         <v>800</v>
       </c>
       <c r="E432" s="5">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="F432" s="5"/>
       <c r="G432" s="7"/>
@@ -25640,7 +25651,7 @@
         <f>E46</f>
         <v>1</v>
       </c>
-      <c r="F436" s="19" t="s">
+      <c r="F436" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G436" s="7"/>
@@ -25850,7 +25861,7 @@
         <v>225</v>
       </c>
       <c r="E442" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F442" s="5"/>
       <c r="G442" s="7"/>
@@ -25958,7 +25969,7 @@
         <f>E39</f>
         <v>0</v>
       </c>
-      <c r="F445" s="20" t="s">
+      <c r="F445" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G445" s="7"/>
@@ -25993,7 +26004,7 @@
         <v>321</v>
       </c>
       <c r="E446" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F446" s="5"/>
       <c r="G446" s="7"/>
@@ -26168,7 +26179,7 @@
         <v>830</v>
       </c>
       <c r="E451" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F451" s="5"/>
       <c r="G451" s="7"/>
@@ -26378,7 +26389,7 @@
         <v>840</v>
       </c>
       <c r="E457" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F457" s="5"/>
       <c r="G457" s="7"/>
@@ -26728,7 +26739,7 @@
         <v>859</v>
       </c>
       <c r="E467" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F467" s="5"/>
       <c r="G467" s="7"/>
@@ -26938,7 +26949,7 @@
         <v>869</v>
       </c>
       <c r="E473" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F473" s="5"/>
       <c r="G473" s="7"/>
@@ -26973,7 +26984,7 @@
         <v>37</v>
       </c>
       <c r="E474" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F474" s="5"/>
       <c r="G474" s="7"/>
@@ -27183,7 +27194,7 @@
         <v>881</v>
       </c>
       <c r="E480" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F480" s="5"/>
       <c r="G480" s="7"/>
@@ -27218,7 +27229,7 @@
         <v>760</v>
       </c>
       <c r="E481" s="5">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F481" s="5"/>
       <c r="G481" s="7"/>
@@ -27463,7 +27474,7 @@
         <v>894</v>
       </c>
       <c r="E488" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F488" s="5"/>
       <c r="G488" s="7"/>
@@ -27603,7 +27614,7 @@
         <v>269</v>
       </c>
       <c r="E492" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F492" s="5"/>
       <c r="G492" s="7"/>
@@ -27708,7 +27719,7 @@
         <v>421</v>
       </c>
       <c r="E495" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F495" s="5"/>
       <c r="G495" s="7"/>
@@ -28162,8 +28173,8 @@
       <c r="D508" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="E508" s="5">
-        <v>35.0</v>
+      <c r="E508" s="18">
+        <v>37.0</v>
       </c>
       <c r="F508" s="5"/>
       <c r="G508" s="7"/>
@@ -28338,7 +28349,7 @@
         <v>939</v>
       </c>
       <c r="E513" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F513" s="5"/>
       <c r="G513" s="7"/>
@@ -28513,7 +28524,7 @@
         <v>949</v>
       </c>
       <c r="E518" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F518" s="5"/>
       <c r="G518" s="7"/>
@@ -28583,7 +28594,7 @@
         <v>953</v>
       </c>
       <c r="E520" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F520" s="5"/>
       <c r="G520" s="7"/>
@@ -29038,7 +29049,7 @@
         <v>976</v>
       </c>
       <c r="E533" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F533" s="5"/>
       <c r="G533" s="7"/>
@@ -29108,7 +29119,7 @@
         <v>979</v>
       </c>
       <c r="E535" s="5">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="F535" s="5"/>
       <c r="G535" s="7"/>
@@ -29143,7 +29154,7 @@
         <v>981</v>
       </c>
       <c r="E536" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F536" s="5"/>
       <c r="G536" s="7"/>
@@ -29531,7 +29542,7 @@
         <f>E63</f>
         <v>11</v>
       </c>
-      <c r="F547" s="19" t="s">
+      <c r="F547" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G547" s="7"/>
@@ -29566,7 +29577,7 @@
         <v>1002</v>
       </c>
       <c r="E548" s="5">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="F548" s="5"/>
       <c r="G548" s="7"/>
@@ -29811,7 +29822,7 @@
         <v>1015</v>
       </c>
       <c r="E555" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F555" s="5"/>
       <c r="G555" s="7"/>
@@ -29881,7 +29892,7 @@
         <v>1018</v>
       </c>
       <c r="E557" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F557" s="5"/>
       <c r="G557" s="7"/>
@@ -29986,7 +29997,7 @@
         <v>611</v>
       </c>
       <c r="E560" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F560" s="5"/>
       <c r="G560" s="7"/>
@@ -30091,7 +30102,7 @@
         <v>1028</v>
       </c>
       <c r="E563" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F563" s="5"/>
       <c r="G563" s="7"/>
@@ -30231,7 +30242,7 @@
         <v>1036</v>
       </c>
       <c r="E567" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F567" s="5"/>
       <c r="G567" s="7"/>
@@ -30619,7 +30630,7 @@
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="F578" s="19" t="s">
+      <c r="F578" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G578" s="7"/>
@@ -30724,7 +30735,7 @@
         <v>1061</v>
       </c>
       <c r="E581" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F581" s="5"/>
       <c r="G581" s="7"/>
@@ -30829,7 +30840,7 @@
         <v>1067</v>
       </c>
       <c r="E584" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F584" s="5"/>
       <c r="G584" s="7"/>
@@ -31109,7 +31120,7 @@
         <v>511</v>
       </c>
       <c r="E592" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F592" s="5"/>
       <c r="G592" s="7"/>
@@ -31284,7 +31295,7 @@
         <v>1089</v>
       </c>
       <c r="E597" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F597" s="5"/>
       <c r="G597" s="7"/>
@@ -31529,7 +31540,7 @@
         <v>1102</v>
       </c>
       <c r="E604" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F604" s="5"/>
       <c r="G604" s="7"/>
@@ -31602,7 +31613,7 @@
         <f>E10</f>
         <v>0</v>
       </c>
-      <c r="F606" s="19" t="s">
+      <c r="F606" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G606" s="7"/>
@@ -31636,8 +31647,8 @@
       <c r="D607" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="E607" s="21">
-        <v>35.0</v>
+      <c r="E607" s="18">
+        <v>37.0</v>
       </c>
       <c r="F607" s="5"/>
       <c r="G607" s="7"/>
@@ -31742,7 +31753,7 @@
         <v>1111</v>
       </c>
       <c r="E610" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F610" s="5"/>
       <c r="G610" s="7"/>
@@ -31812,7 +31823,7 @@
         <v>1114</v>
       </c>
       <c r="E612" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F612" s="5"/>
       <c r="G612" s="7"/>
@@ -32095,7 +32106,7 @@
         <f>E93</f>
         <v>0</v>
       </c>
-      <c r="F620" s="19" t="s">
+      <c r="F620" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G620" s="7"/>
@@ -32445,7 +32456,7 @@
         <v>1149</v>
       </c>
       <c r="E630" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F630" s="5"/>
       <c r="G630" s="7"/>
@@ -32656,9 +32667,9 @@
       </c>
       <c r="E636" s="23">
         <f>E57</f>
-        <v>35</v>
-      </c>
-      <c r="F636" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F636" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G636" s="7"/>
@@ -33116,7 +33127,7 @@
         <f>E92</f>
         <v>2</v>
       </c>
-      <c r="F649" s="20" t="s">
+      <c r="F649" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G649" s="7"/>
@@ -33222,9 +33233,9 @@
       </c>
       <c r="E652" s="14">
         <f>E42</f>
-        <v>34</v>
-      </c>
-      <c r="F652" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F652" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G652" s="7"/>
@@ -33364,7 +33375,7 @@
         <v>584</v>
       </c>
       <c r="E656" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F656" s="5"/>
       <c r="G656" s="7"/>
@@ -33434,7 +33445,7 @@
         <v>225</v>
       </c>
       <c r="E658" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F658" s="5"/>
       <c r="G658" s="7"/>
@@ -33472,7 +33483,7 @@
         <f>E78</f>
         <v>0</v>
       </c>
-      <c r="F659" s="20" t="s">
+      <c r="F659" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G659" s="7"/>
@@ -33542,7 +33553,7 @@
         <v>1201</v>
       </c>
       <c r="E661" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F661" s="5"/>
       <c r="G661" s="7"/>
@@ -33647,7 +33658,7 @@
         <v>1207</v>
       </c>
       <c r="E664" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F664" s="5"/>
       <c r="G664" s="7"/>
@@ -33787,7 +33798,7 @@
         <v>1214</v>
       </c>
       <c r="E668" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F668" s="5"/>
       <c r="G668" s="7"/>
@@ -33892,7 +33903,7 @@
         <v>1220</v>
       </c>
       <c r="E671" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F671" s="5"/>
       <c r="G671" s="7"/>
@@ -33926,8 +33937,8 @@
       <c r="D672" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="E672" s="21">
-        <v>35.0</v>
+      <c r="E672" s="5">
+        <v>37.0</v>
       </c>
       <c r="F672" s="5"/>
       <c r="G672" s="7"/>
@@ -34067,7 +34078,7 @@
         <v>1230</v>
       </c>
       <c r="E676" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F676" s="5"/>
       <c r="G676" s="7"/>
@@ -34101,8 +34112,8 @@
       <c r="D677" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="E677" s="21">
-        <v>35.0</v>
+      <c r="E677" s="5">
+        <v>37.0</v>
       </c>
       <c r="F677" s="5"/>
       <c r="G677" s="7"/>
@@ -34241,8 +34252,8 @@
       <c r="D681" s="6" t="s">
         <v>1239</v>
       </c>
-      <c r="E681" s="21">
-        <v>35.0</v>
+      <c r="E681" s="5">
+        <v>37.0</v>
       </c>
       <c r="F681" s="5"/>
       <c r="G681" s="7"/>
@@ -34347,7 +34358,7 @@
         <v>1244</v>
       </c>
       <c r="E684" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F684" s="5"/>
       <c r="G684" s="7"/>
@@ -34697,7 +34708,7 @@
         <v>1262</v>
       </c>
       <c r="E694" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F694" s="5"/>
       <c r="G694" s="7"/>
@@ -34872,7 +34883,7 @@
         <v>1272</v>
       </c>
       <c r="E699" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F699" s="5"/>
       <c r="G699" s="7"/>
@@ -35012,7 +35023,7 @@
         <v>1280</v>
       </c>
       <c r="E703" s="5">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F703" s="5"/>
       <c r="G703" s="7"/>
@@ -35467,7 +35478,7 @@
         <v>1302</v>
       </c>
       <c r="E716" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F716" s="5"/>
       <c r="G716" s="7"/>
@@ -35607,7 +35618,7 @@
         <v>1309</v>
       </c>
       <c r="E720" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F720" s="5"/>
       <c r="G720" s="7"/>
@@ -35642,7 +35653,7 @@
         <v>1311</v>
       </c>
       <c r="E721" s="5">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F721" s="5"/>
       <c r="G721" s="7"/>
@@ -35887,7 +35898,7 @@
         <v>865</v>
       </c>
       <c r="E728" s="5">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="F728" s="5"/>
       <c r="G728" s="7"/>
@@ -36412,7 +36423,7 @@
         <v>1349</v>
       </c>
       <c r="E743" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F743" s="5"/>
       <c r="G743" s="7"/>
@@ -36905,7 +36916,7 @@
         <f>E84</f>
         <v>3</v>
       </c>
-      <c r="F757" s="20" t="s">
+      <c r="F757" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G757" s="7"/>
@@ -37080,7 +37091,7 @@
         <v>1383</v>
       </c>
       <c r="E762" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F762" s="5"/>
       <c r="G762" s="28"/>
@@ -37256,9 +37267,9 @@
       </c>
       <c r="E767" s="14">
         <f>E13</f>
-        <v>35</v>
-      </c>
-      <c r="F767" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F767" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G767" s="7"/>
@@ -37398,7 +37409,7 @@
         <v>1399</v>
       </c>
       <c r="E771" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F771" s="5"/>
       <c r="G771" s="7"/>
@@ -37611,7 +37622,7 @@
         <f>E111</f>
         <v>0</v>
       </c>
-      <c r="F777" s="20" t="s">
+      <c r="F777" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G777" s="7"/>
@@ -37751,7 +37762,7 @@
         <v>914</v>
       </c>
       <c r="E781" s="5">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="F781" s="5"/>
       <c r="G781" s="7"/>
@@ -37785,8 +37796,8 @@
       <c r="D782" s="6" t="s">
         <v>1416</v>
       </c>
-      <c r="E782" s="21">
-        <v>35.0</v>
+      <c r="E782" s="18">
+        <v>37.0</v>
       </c>
       <c r="F782" s="5"/>
       <c r="G782" s="7"/>
@@ -38102,9 +38113,9 @@
       </c>
       <c r="E791" s="14">
         <f>E34</f>
-        <v>35</v>
-      </c>
-      <c r="F791" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F791" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G791" s="7"/>
@@ -38420,9 +38431,9 @@
       </c>
       <c r="E800" s="14">
         <f>E38</f>
-        <v>35</v>
-      </c>
-      <c r="F800" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F800" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G800" s="7"/>
@@ -39017,7 +39028,7 @@
         <v>1482</v>
       </c>
       <c r="E817" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F817" s="5"/>
       <c r="G817" s="7"/>
@@ -39297,7 +39308,7 @@
         <v>33</v>
       </c>
       <c r="E825" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F825" s="5"/>
       <c r="G825" s="7"/>
@@ -39402,7 +39413,7 @@
         <v>1500</v>
       </c>
       <c r="E828" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F828" s="5"/>
       <c r="G828" s="7"/>
@@ -39437,7 +39448,7 @@
         <v>56</v>
       </c>
       <c r="E829" s="5">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F829" s="5"/>
       <c r="G829" s="7"/>
@@ -39472,7 +39483,7 @@
         <v>1503</v>
       </c>
       <c r="E830" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F830" s="5"/>
       <c r="G830" s="7"/>
@@ -39857,7 +39868,7 @@
         <v>1524</v>
       </c>
       <c r="E841" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F841" s="5"/>
       <c r="G841" s="7"/>
@@ -40067,7 +40078,7 @@
         <v>1536</v>
       </c>
       <c r="E847" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F847" s="5"/>
       <c r="G847" s="7"/>
@@ -40522,7 +40533,7 @@
         <v>37</v>
       </c>
       <c r="E860" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F860" s="5"/>
       <c r="G860" s="7"/>
@@ -40592,7 +40603,7 @@
         <v>1562</v>
       </c>
       <c r="E862" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F862" s="5"/>
       <c r="G862" s="7"/>
@@ -41887,7 +41898,7 @@
         <v>1625</v>
       </c>
       <c r="E899" s="5">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="F899" s="5"/>
       <c r="G899" s="7"/>
@@ -41957,7 +41968,7 @@
         <v>1629</v>
       </c>
       <c r="E901" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F901" s="5"/>
       <c r="G901" s="7"/>
@@ -42097,7 +42108,7 @@
         <v>627</v>
       </c>
       <c r="E905" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F905" s="5"/>
       <c r="G905" s="7"/>
@@ -42307,7 +42318,7 @@
         <v>1646</v>
       </c>
       <c r="E911" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F911" s="5"/>
       <c r="G911" s="7"/>
@@ -42342,7 +42353,7 @@
         <v>1648</v>
       </c>
       <c r="E912" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F912" s="5"/>
       <c r="G912" s="7"/>
@@ -42622,7 +42633,7 @@
         <v>1664</v>
       </c>
       <c r="E920" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F920" s="5"/>
       <c r="G920" s="7"/>
@@ -42692,7 +42703,7 @@
         <v>1668</v>
       </c>
       <c r="E922" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F922" s="5"/>
       <c r="G922" s="7"/>
@@ -42833,9 +42844,9 @@
       </c>
       <c r="E926" s="14">
         <f>E309</f>
-        <v>30</v>
-      </c>
-      <c r="F926" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F926" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G926" s="7"/>
@@ -43010,7 +43021,7 @@
         <v>788</v>
       </c>
       <c r="E931" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F931" s="5"/>
       <c r="G931" s="7"/>
@@ -43255,7 +43266,7 @@
         <v>1695</v>
       </c>
       <c r="E938" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F938" s="5"/>
       <c r="G938" s="7"/>
@@ -43538,7 +43549,7 @@
         <f>E62</f>
         <v>3</v>
       </c>
-      <c r="F946" s="20" t="s">
+      <c r="F946" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G946" s="7"/>
@@ -43573,7 +43584,7 @@
         <v>1712</v>
       </c>
       <c r="E947" s="5">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F947" s="5"/>
       <c r="G947" s="7"/>
@@ -43677,8 +43688,8 @@
       <c r="D950" s="6" t="s">
         <v>1717</v>
       </c>
-      <c r="E950" s="5">
-        <v>35.0</v>
+      <c r="E950" s="18">
+        <v>37.0</v>
       </c>
       <c r="F950" s="5"/>
       <c r="G950" s="7"/>
@@ -43993,7 +44004,7 @@
         <v>1734</v>
       </c>
       <c r="E959" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F959" s="5"/>
       <c r="G959" s="7"/>
@@ -44136,7 +44147,7 @@
         <f>E54</f>
         <v>0</v>
       </c>
-      <c r="F963" s="20" t="s">
+      <c r="F963" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G963" s="7"/>
@@ -44206,7 +44217,7 @@
         <v>1744</v>
       </c>
       <c r="E965" s="5">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="F965" s="5"/>
       <c r="G965" s="7"/>
@@ -44279,7 +44290,7 @@
         <f>E43</f>
         <v>0</v>
       </c>
-      <c r="F967" s="20" t="s">
+      <c r="F967" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G967" s="7"/>
@@ -44667,7 +44678,7 @@
         <f>E312</f>
         <v>0</v>
       </c>
-      <c r="F978" s="20" t="s">
+      <c r="F978" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G978" s="7"/>
@@ -45017,7 +45028,7 @@
         <v>1779</v>
       </c>
       <c r="E988" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F988" s="5"/>
       <c r="G988" s="7"/>
@@ -45087,7 +45098,7 @@
         <v>627</v>
       </c>
       <c r="E990" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F990" s="5"/>
       <c r="G990" s="7"/>
@@ -45125,7 +45136,7 @@
         <f>E516</f>
         <v>0</v>
       </c>
-      <c r="F991" s="20" t="s">
+      <c r="F991" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G991" s="7"/>
@@ -45163,7 +45174,7 @@
         <f>E77</f>
         <v>0</v>
       </c>
-      <c r="F992" s="20" t="s">
+      <c r="F992" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G992" s="7"/>
@@ -45618,7 +45629,7 @@
         <v>107</v>
       </c>
       <c r="E1005" s="5">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F1005" s="5"/>
       <c r="G1005" s="7"/>
@@ -46003,7 +46014,7 @@
         <v>1826</v>
       </c>
       <c r="E1016" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1016" s="5"/>
       <c r="G1016" s="7"/>
@@ -46248,7 +46259,7 @@
         <v>1839</v>
       </c>
       <c r="E1023" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1023" s="5"/>
       <c r="G1023" s="7"/>
@@ -46353,7 +46364,7 @@
         <v>1844</v>
       </c>
       <c r="E1026" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1026" s="5"/>
       <c r="G1026" s="7"/>
@@ -46738,7 +46749,7 @@
         <v>56</v>
       </c>
       <c r="E1037" s="5">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1037" s="5"/>
       <c r="G1037" s="7"/>
@@ -46878,7 +46889,7 @@
         <v>107</v>
       </c>
       <c r="E1041" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1041" s="5"/>
       <c r="G1041" s="7"/>
@@ -46948,7 +46959,7 @@
         <v>225</v>
       </c>
       <c r="E1043" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1043" s="5"/>
       <c r="G1043" s="7"/>
@@ -47332,8 +47343,8 @@
       <c r="D1054" s="6" t="s">
         <v>1888</v>
       </c>
-      <c r="E1054" s="5">
-        <v>35.0</v>
+      <c r="E1054" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1054" s="5"/>
       <c r="G1054" s="7"/>
@@ -47403,7 +47414,7 @@
         <v>56</v>
       </c>
       <c r="E1056" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1056" s="5"/>
       <c r="G1056" s="7"/>
@@ -47613,7 +47624,7 @@
         <v>1903</v>
       </c>
       <c r="E1062" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1062" s="5"/>
       <c r="G1062" s="7"/>
@@ -47683,7 +47694,7 @@
         <v>1906</v>
       </c>
       <c r="E1064" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1064" s="5"/>
       <c r="G1064" s="7"/>
@@ -47892,8 +47903,8 @@
       <c r="D1070" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1070" s="5">
-        <v>35.0</v>
+      <c r="E1070" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1070" s="5"/>
       <c r="G1070" s="7"/>
@@ -47928,7 +47939,7 @@
         <v>553</v>
       </c>
       <c r="E1071" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1071" s="5"/>
       <c r="G1071" s="7"/>
@@ -47963,7 +47974,7 @@
         <v>1832</v>
       </c>
       <c r="E1072" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1072" s="5"/>
       <c r="G1072" s="7"/>
@@ -47998,7 +48009,7 @@
         <v>76</v>
       </c>
       <c r="E1073" s="5">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F1073" s="5"/>
       <c r="G1073" s="7"/>
@@ -48313,7 +48324,7 @@
         <v>1935</v>
       </c>
       <c r="E1082" s="5">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F1082" s="5"/>
       <c r="G1082" s="7"/>
@@ -48698,7 +48709,7 @@
         <v>1903</v>
       </c>
       <c r="E1093" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1093" s="5"/>
       <c r="G1093" s="7"/>
@@ -48768,7 +48779,7 @@
         <v>1958</v>
       </c>
       <c r="E1095" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1095" s="5"/>
       <c r="G1095" s="7"/>
@@ -49153,7 +49164,7 @@
         <v>394</v>
       </c>
       <c r="E1106" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1106" s="5"/>
       <c r="G1106" s="7"/>
@@ -49503,7 +49514,7 @@
         <v>509</v>
       </c>
       <c r="E1116" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1116" s="5"/>
       <c r="G1116" s="7"/>
@@ -49678,7 +49689,7 @@
         <v>2004</v>
       </c>
       <c r="E1121" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1121" s="5"/>
       <c r="G1121" s="7"/>
@@ -49782,8 +49793,8 @@
       <c r="D1124" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E1124" s="5">
-        <v>35.0</v>
+      <c r="E1124" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1124" s="5"/>
       <c r="G1124" s="7"/>
@@ -50098,7 +50109,7 @@
         <v>154</v>
       </c>
       <c r="E1133" s="5">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="F1133" s="5"/>
       <c r="G1133" s="7"/>
@@ -50833,7 +50844,7 @@
         <v>1489</v>
       </c>
       <c r="E1154" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1154" s="5"/>
       <c r="G1154" s="7"/>
@@ -50868,7 +50879,7 @@
         <v>2059</v>
       </c>
       <c r="E1155" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1155" s="5"/>
       <c r="G1155" s="7"/>
@@ -50903,7 +50914,7 @@
         <v>491</v>
       </c>
       <c r="E1156" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1156" s="5"/>
       <c r="G1156" s="7"/>
@@ -51148,7 +51159,7 @@
         <v>82</v>
       </c>
       <c r="E1163" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1163" s="5"/>
       <c r="G1163" s="7"/>
@@ -51463,7 +51474,7 @@
         <v>2086</v>
       </c>
       <c r="E1172" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1172" s="5"/>
       <c r="G1172" s="7"/>
@@ -51498,7 +51509,7 @@
         <v>2088</v>
       </c>
       <c r="E1173" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1173" s="5"/>
       <c r="G1173" s="7"/>
@@ -51813,7 +51824,7 @@
         <v>467</v>
       </c>
       <c r="E1182" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1182" s="5"/>
       <c r="G1182" s="7"/>
@@ -51883,7 +51894,7 @@
         <v>830</v>
       </c>
       <c r="E1184" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1184" s="5"/>
       <c r="G1184" s="7"/>
@@ -52163,7 +52174,7 @@
         <v>2121</v>
       </c>
       <c r="E1192" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1192" s="5"/>
       <c r="G1192" s="7"/>
@@ -52583,7 +52594,7 @@
         <v>2144</v>
       </c>
       <c r="E1204" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1204" s="5"/>
       <c r="G1204" s="7"/>
@@ -52793,7 +52804,7 @@
         <v>2155</v>
       </c>
       <c r="E1210" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1210" s="5"/>
       <c r="G1210" s="7"/>
@@ -52968,7 +52979,7 @@
         <v>1411</v>
       </c>
       <c r="E1215" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1215" s="5"/>
       <c r="G1215" s="7"/>
@@ -53003,7 +53014,7 @@
         <v>2164</v>
       </c>
       <c r="E1216" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1216" s="5"/>
       <c r="G1216" s="7"/>
@@ -53108,7 +53119,7 @@
         <v>2170</v>
       </c>
       <c r="E1219" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1219" s="5"/>
       <c r="G1219" s="7"/>
@@ -53142,8 +53153,8 @@
       <c r="D1220" s="6" t="s">
         <v>2172</v>
       </c>
-      <c r="E1220" s="21">
-        <v>35.0</v>
+      <c r="E1220" s="5">
+        <v>37.0</v>
       </c>
       <c r="F1220" s="5"/>
       <c r="G1220" s="7"/>
@@ -53703,7 +53714,7 @@
         <v>664</v>
       </c>
       <c r="E1236" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1236" s="5"/>
       <c r="G1236" s="7"/>
@@ -53913,7 +53924,7 @@
         <v>2208</v>
       </c>
       <c r="E1242" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1242" s="5"/>
       <c r="G1242" s="7"/>
@@ -54088,7 +54099,7 @@
         <v>2217</v>
       </c>
       <c r="E1247" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1247" s="5"/>
       <c r="G1247" s="7"/>
@@ -54298,7 +54309,7 @@
         <v>2227</v>
       </c>
       <c r="E1253" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1253" s="5"/>
       <c r="G1253" s="7"/>
@@ -54543,7 +54554,7 @@
         <v>2238</v>
       </c>
       <c r="E1260" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1260" s="5"/>
       <c r="G1260" s="7"/>
@@ -54718,7 +54729,7 @@
         <v>2246</v>
       </c>
       <c r="E1265" s="5">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F1265" s="5"/>
       <c r="G1265" s="7"/>
@@ -54962,8 +54973,8 @@
       <c r="D1272" s="6" t="s">
         <v>2258</v>
       </c>
-      <c r="E1272" s="5">
-        <v>35.0</v>
+      <c r="E1272" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1272" s="5"/>
       <c r="G1272" s="7"/>
@@ -55103,7 +55114,7 @@
         <v>2264</v>
       </c>
       <c r="E1276" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1276" s="5"/>
       <c r="G1276" s="7"/>
@@ -55173,7 +55184,7 @@
         <v>2268</v>
       </c>
       <c r="E1278" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1278" s="5"/>
       <c r="G1278" s="7"/>
@@ -55418,7 +55429,7 @@
         <v>2279</v>
       </c>
       <c r="E1285" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1285" s="5"/>
       <c r="G1285" s="7"/>
@@ -55453,7 +55464,7 @@
         <v>2281</v>
       </c>
       <c r="E1286" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1286" s="5"/>
       <c r="G1286" s="7"/>
@@ -55488,7 +55499,7 @@
         <v>2283</v>
       </c>
       <c r="E1287" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1287" s="5"/>
       <c r="G1287" s="7"/>
@@ -55523,7 +55534,7 @@
         <v>2284</v>
       </c>
       <c r="E1288" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1288" s="5"/>
       <c r="G1288" s="7"/>
@@ -55628,7 +55639,7 @@
         <v>2290</v>
       </c>
       <c r="E1291" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1291" s="5"/>
       <c r="G1291" s="7"/>
@@ -55698,7 +55709,7 @@
         <v>2288</v>
       </c>
       <c r="E1293" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1293" s="5"/>
       <c r="G1293" s="7"/>
@@ -55768,7 +55779,7 @@
         <v>2295</v>
       </c>
       <c r="E1295" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1295" s="5"/>
       <c r="G1295" s="7"/>
@@ -55838,7 +55849,7 @@
         <v>2299</v>
       </c>
       <c r="E1297" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1297" s="5"/>
       <c r="G1297" s="7"/>
@@ -55873,7 +55884,7 @@
         <v>2301</v>
       </c>
       <c r="E1298" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1298" s="5"/>
       <c r="G1298" s="7"/>
@@ -55942,8 +55953,8 @@
       <c r="D1300" s="6" t="s">
         <v>2305</v>
       </c>
-      <c r="E1300" s="21">
-        <v>35.0</v>
+      <c r="E1300" s="5">
+        <v>37.0</v>
       </c>
       <c r="F1300" s="5"/>
       <c r="G1300" s="7"/>
@@ -56083,7 +56094,7 @@
         <v>29</v>
       </c>
       <c r="E1304" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1304" s="5"/>
       <c r="G1304" s="7"/>
@@ -56191,7 +56202,7 @@
         <f>E979</f>
         <v>0</v>
       </c>
-      <c r="F1307" s="20" t="s">
+      <c r="F1307" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G1307" s="7"/>
@@ -56296,7 +56307,7 @@
         <v>340</v>
       </c>
       <c r="E1310" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1310" s="5"/>
       <c r="G1310" s="7"/>
@@ -56506,7 +56517,7 @@
         <v>2334</v>
       </c>
       <c r="E1316" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1316" s="5"/>
       <c r="G1316" s="7"/>
@@ -56891,7 +56902,7 @@
         <v>23</v>
       </c>
       <c r="E1327" s="5">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F1327" s="5"/>
       <c r="G1327" s="7"/>
@@ -57241,7 +57252,7 @@
         <v>323</v>
       </c>
       <c r="E1337" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1337" s="5"/>
       <c r="G1337" s="7"/>
@@ -57520,8 +57531,8 @@
       <c r="D1345" s="6" t="s">
         <v>2386</v>
       </c>
-      <c r="E1345" s="5">
-        <v>35.0</v>
+      <c r="E1345" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1345" s="5"/>
       <c r="G1345" s="7"/>
@@ -57730,8 +57741,8 @@
       <c r="D1351" s="6" t="s">
         <v>2395</v>
       </c>
-      <c r="E1351" s="21">
-        <v>35.0</v>
+      <c r="E1351" s="5">
+        <v>37.0</v>
       </c>
       <c r="F1351" s="5"/>
       <c r="G1351" s="7"/>
@@ -57800,8 +57811,8 @@
       <c r="D1353" s="6" t="s">
         <v>2399</v>
       </c>
-      <c r="E1353" s="5">
-        <v>35.0</v>
+      <c r="E1353" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1353" s="5"/>
       <c r="G1353" s="7"/>
@@ -57941,7 +57952,7 @@
         <v>2406</v>
       </c>
       <c r="E1357" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1357" s="5"/>
       <c r="G1357" s="7"/>
@@ -58256,7 +58267,7 @@
         <v>290</v>
       </c>
       <c r="E1366" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1366" s="5"/>
       <c r="G1366" s="7"/>
@@ -58711,7 +58722,7 @@
         <v>2443</v>
       </c>
       <c r="E1379" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1379" s="5"/>
       <c r="G1379" s="7"/>
@@ -59166,7 +59177,7 @@
         <v>2428</v>
       </c>
       <c r="E1392" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1392" s="5"/>
       <c r="G1392" s="7"/>
@@ -59376,7 +59387,7 @@
         <v>2474</v>
       </c>
       <c r="E1398" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1398" s="5"/>
       <c r="G1398" s="7"/>
@@ -59761,7 +59772,7 @@
         <v>2494</v>
       </c>
       <c r="E1409" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1409" s="5"/>
       <c r="G1409" s="7"/>
@@ -59796,7 +59807,7 @@
         <v>2496</v>
       </c>
       <c r="E1410" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1410" s="5"/>
       <c r="G1410" s="7"/>
@@ -59901,7 +59912,7 @@
         <v>2501</v>
       </c>
       <c r="E1413" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1413" s="5"/>
       <c r="G1413" s="7"/>
@@ -60216,7 +60227,7 @@
         <v>16</v>
       </c>
       <c r="E1422" s="5">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1422" s="5"/>
       <c r="G1422" s="7"/>
@@ -60289,7 +60300,7 @@
         <f>E1397</f>
         <v>0</v>
       </c>
-      <c r="F1424" s="20" t="s">
+      <c r="F1424" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G1424" s="7"/>
@@ -60499,7 +60510,7 @@
         <v>2528</v>
       </c>
       <c r="E1430" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1430" s="5"/>
       <c r="G1430" s="7"/>
@@ -60604,7 +60615,7 @@
         <v>2533</v>
       </c>
       <c r="E1433" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1433" s="5"/>
       <c r="G1433" s="7"/>
@@ -61094,7 +61105,7 @@
         <v>2552</v>
       </c>
       <c r="E1447" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1447" s="5"/>
       <c r="G1447" s="7"/>
@@ -61234,7 +61245,7 @@
         <v>2559</v>
       </c>
       <c r="E1451" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1451" s="5"/>
       <c r="G1451" s="7"/>
@@ -61514,7 +61525,7 @@
         <v>2575</v>
       </c>
       <c r="E1459" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1459" s="5"/>
       <c r="G1459" s="7"/>
@@ -61584,7 +61595,7 @@
         <v>664</v>
       </c>
       <c r="E1461" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1461" s="5"/>
       <c r="G1461" s="7"/>
@@ -61654,7 +61665,7 @@
         <v>2580</v>
       </c>
       <c r="E1463" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1463" s="5"/>
       <c r="G1463" s="7"/>
@@ -62004,7 +62015,7 @@
         <v>2428</v>
       </c>
       <c r="E1473" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1473" s="5"/>
       <c r="G1473" s="7"/>
@@ -62038,8 +62049,8 @@
       <c r="D1474" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1474" s="21">
-        <v>35.0</v>
+      <c r="E1474" s="5">
+        <v>37.0</v>
       </c>
       <c r="F1474" s="5"/>
       <c r="G1474" s="7"/>
@@ -62179,7 +62190,7 @@
         <v>2603</v>
       </c>
       <c r="E1478" s="5">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1478" s="5"/>
       <c r="G1478" s="7"/>
@@ -62353,8 +62364,8 @@
       <c r="D1483" s="6" t="s">
         <v>2609</v>
       </c>
-      <c r="E1483" s="5">
-        <v>35.0</v>
+      <c r="E1483" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1483" s="5"/>
       <c r="G1483" s="7"/>
@@ -62494,7 +62505,7 @@
         <v>1002</v>
       </c>
       <c r="E1487" s="5">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1487" s="5"/>
       <c r="G1487" s="7"/>
@@ -62567,7 +62578,7 @@
         <f>E55</f>
         <v>0</v>
       </c>
-      <c r="F1489" s="20" t="s">
+      <c r="F1489" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G1489" s="7"/>
@@ -62672,7 +62683,7 @@
         <v>2623</v>
       </c>
       <c r="E1492" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1492" s="5"/>
       <c r="G1492" s="7"/>
@@ -62847,7 +62858,7 @@
         <v>2457</v>
       </c>
       <c r="E1497" s="5">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F1497" s="5"/>
       <c r="G1497" s="7"/>
@@ -62986,8 +62997,8 @@
       <c r="D1501" s="6" t="s">
         <v>2640</v>
       </c>
-      <c r="E1501" s="5">
-        <v>35.0</v>
+      <c r="E1501" s="18">
+        <v>37.0</v>
       </c>
       <c r="F1501" s="5"/>
       <c r="G1501" s="7"/>
@@ -63477,7 +63488,7 @@
         <v>1489</v>
       </c>
       <c r="E1515" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1515" s="5"/>
       <c r="G1515" s="7"/>
@@ -63547,7 +63558,7 @@
         <v>2667</v>
       </c>
       <c r="E1517" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1517" s="5"/>
       <c r="G1517" s="7"/>
@@ -63582,7 +63593,7 @@
         <v>2669</v>
       </c>
       <c r="E1518" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1518" s="5"/>
       <c r="G1518" s="7"/>
@@ -63792,7 +63803,7 @@
         <v>2680</v>
       </c>
       <c r="E1524" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1524" s="5"/>
       <c r="G1524" s="7"/>
@@ -64002,7 +64013,7 @@
         <v>2689</v>
       </c>
       <c r="E1530" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1530" s="5"/>
       <c r="G1530" s="7"/>
@@ -64107,7 +64118,7 @@
         <v>509</v>
       </c>
       <c r="E1533" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1533" s="5"/>
       <c r="G1533" s="7"/>
@@ -64141,8 +64152,8 @@
       <c r="D1534" s="6" t="s">
         <v>2696</v>
       </c>
-      <c r="E1534" s="21">
-        <v>35.0</v>
+      <c r="E1534" s="5">
+        <v>37.0</v>
       </c>
       <c r="F1534" s="5"/>
       <c r="G1534" s="7"/>
@@ -64320,7 +64331,7 @@
         <f>E18</f>
         <v>0</v>
       </c>
-      <c r="F1539" s="20" t="s">
+      <c r="F1539" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G1539" s="7"/>
@@ -64358,7 +64369,7 @@
         <f>E426</f>
         <v>0</v>
       </c>
-      <c r="F1540" s="20" t="s">
+      <c r="F1540" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G1540" s="7"/>
@@ -64393,7 +64404,7 @@
         <v>2707</v>
       </c>
       <c r="E1541" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1541" s="5"/>
       <c r="G1541" s="7"/>
@@ -64533,7 +64544,7 @@
         <v>1354</v>
       </c>
       <c r="E1545" s="5">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1545" s="5"/>
       <c r="G1545" s="7"/>
@@ -64603,7 +64614,7 @@
         <v>664</v>
       </c>
       <c r="E1547" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1547" s="5"/>
       <c r="G1547" s="7"/>
@@ -64673,7 +64684,7 @@
         <v>21</v>
       </c>
       <c r="E1549" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1549" s="5"/>
       <c r="G1549" s="7"/>
@@ -64708,7 +64719,7 @@
         <v>21</v>
       </c>
       <c r="E1550" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1550" s="5"/>
       <c r="G1550" s="7"/>
@@ -65408,7 +65419,7 @@
         <v>2754</v>
       </c>
       <c r="E1570" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1570" s="5"/>
       <c r="G1570" s="7"/>
@@ -65513,7 +65524,7 @@
         <v>56</v>
       </c>
       <c r="E1573" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1573" s="5"/>
       <c r="G1573" s="7"/>
@@ -65653,7 +65664,7 @@
         <v>78</v>
       </c>
       <c r="E1577" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1577" s="5"/>
       <c r="G1577" s="7"/>
@@ -65688,7 +65699,7 @@
         <v>2765</v>
       </c>
       <c r="E1578" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1578" s="5"/>
       <c r="G1578" s="7"/>
@@ -65898,7 +65909,7 @@
         <v>2776</v>
       </c>
       <c r="E1584" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1584" s="5"/>
       <c r="G1584" s="7"/>
@@ -66003,7 +66014,7 @@
         <v>2781</v>
       </c>
       <c r="E1587" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1587" s="5"/>
       <c r="G1587" s="7"/>
@@ -66073,7 +66084,7 @@
         <v>2785</v>
       </c>
       <c r="E1589" s="5">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="F1589" s="5"/>
       <c r="G1589" s="7"/>
@@ -66633,7 +66644,7 @@
         <v>491</v>
       </c>
       <c r="E1605" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1605" s="5"/>
       <c r="G1605" s="7"/>
@@ -66738,7 +66749,7 @@
         <v>2817</v>
       </c>
       <c r="E1608" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1608" s="5"/>
       <c r="G1608" s="7"/>
@@ -66773,7 +66784,7 @@
         <v>279</v>
       </c>
       <c r="E1609" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1609" s="5"/>
       <c r="G1609" s="7"/>
@@ -66983,7 +66994,7 @@
         <v>2828</v>
       </c>
       <c r="E1615" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1615" s="5"/>
       <c r="G1615" s="7"/>
@@ -67298,7 +67309,7 @@
         <v>2842</v>
       </c>
       <c r="E1624" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1624" s="5"/>
       <c r="G1624" s="7"/>
@@ -67368,7 +67379,7 @@
         <v>2846</v>
       </c>
       <c r="E1626" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1626" s="5"/>
       <c r="G1626" s="7"/>
@@ -67403,7 +67414,7 @@
         <v>790</v>
       </c>
       <c r="E1627" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1627" s="5"/>
       <c r="G1627" s="7"/>
@@ -67473,7 +67484,7 @@
         <v>664</v>
       </c>
       <c r="E1629" s="5">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F1629" s="5"/>
       <c r="G1629" s="7"/>
@@ -67858,7 +67869,7 @@
         <v>1566</v>
       </c>
       <c r="E1640" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1640" s="5"/>
       <c r="G1640" s="7"/>
@@ -67963,9 +67974,9 @@
         <v>2874</v>
       </c>
       <c r="E1643" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="F1643" s="20" t="s">
+        <v>37.0</v>
+      </c>
+      <c r="F1643" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G1643" s="7"/>
@@ -68070,7 +68081,7 @@
         <v>2879</v>
       </c>
       <c r="E1646" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1646" s="5"/>
       <c r="G1646" s="7"/>
@@ -68140,7 +68151,7 @@
         <v>56</v>
       </c>
       <c r="E1648" s="5">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="F1648" s="5"/>
       <c r="G1648" s="7"/>
@@ -68245,7 +68256,7 @@
         <v>516</v>
       </c>
       <c r="E1651" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1651" s="5"/>
       <c r="G1651" s="7"/>
@@ -68385,7 +68396,7 @@
         <v>2893</v>
       </c>
       <c r="E1655" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1655" s="5"/>
       <c r="G1655" s="7"/>
@@ -68420,7 +68431,7 @@
         <v>2399</v>
       </c>
       <c r="E1656" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1656" s="5"/>
       <c r="G1656" s="7"/>
@@ -68490,7 +68501,7 @@
         <v>16</v>
       </c>
       <c r="E1658" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1658" s="5"/>
       <c r="G1658" s="7"/>
@@ -68525,7 +68536,7 @@
         <v>2399</v>
       </c>
       <c r="E1659" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1659" s="5"/>
       <c r="G1659" s="7"/>
@@ -68559,7 +68570,7 @@
       <c r="D1660" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E1660" s="5">
+      <c r="E1660" s="30">
         <v>0.0</v>
       </c>
       <c r="F1660" s="5"/>
@@ -68594,8 +68605,8 @@
       <c r="D1661" s="6" t="s">
         <v>2901</v>
       </c>
-      <c r="E1661" s="21">
-        <v>35.0</v>
+      <c r="E1661" s="31">
+        <v>37.0</v>
       </c>
       <c r="F1661" s="5"/>
       <c r="G1661" s="7"/>
@@ -68840,7 +68851,7 @@
         <v>120</v>
       </c>
       <c r="E1668" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1668" s="5"/>
       <c r="G1668" s="7"/>
@@ -68910,7 +68921,7 @@
         <v>23</v>
       </c>
       <c r="E1670" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1670" s="5"/>
       <c r="G1670" s="7"/>
@@ -69155,7 +69166,7 @@
         <v>2925</v>
       </c>
       <c r="E1677" s="5">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1677" s="5"/>
       <c r="G1677" s="7"/>
@@ -69330,7 +69341,7 @@
         <v>2933</v>
       </c>
       <c r="E1682" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1682" s="5"/>
       <c r="G1682" s="7"/>
@@ -69365,7 +69376,7 @@
         <v>2399</v>
       </c>
       <c r="E1683" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1683" s="5"/>
       <c r="G1683" s="7"/>
@@ -69610,7 +69621,7 @@
         <v>2946</v>
       </c>
       <c r="E1690" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1690" s="5"/>
       <c r="G1690" s="7"/>
@@ -69750,7 +69761,7 @@
         <v>2951</v>
       </c>
       <c r="E1694" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1694" s="5"/>
       <c r="G1694" s="7"/>
@@ -69890,7 +69901,7 @@
         <v>2957</v>
       </c>
       <c r="E1698" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1698" s="5"/>
       <c r="G1698" s="7"/>
@@ -69995,7 +70006,7 @@
         <v>2963</v>
       </c>
       <c r="E1701" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1701" s="5"/>
       <c r="G1701" s="7"/>
@@ -70205,7 +70216,7 @@
         <v>2972</v>
       </c>
       <c r="E1707" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1707" s="5"/>
       <c r="G1707" s="7"/>
@@ -70695,7 +70706,7 @@
         <v>2994</v>
       </c>
       <c r="E1721" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1721" s="5"/>
       <c r="G1721" s="7"/>
@@ -71220,7 +71231,7 @@
         <v>3019</v>
       </c>
       <c r="E1736" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1736" s="5"/>
       <c r="G1736" s="7"/>
@@ -71465,7 +71476,7 @@
         <v>3030</v>
       </c>
       <c r="E1743" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1743" s="5"/>
       <c r="G1743" s="7"/>
@@ -71570,7 +71581,7 @@
         <v>1634</v>
       </c>
       <c r="E1746" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1746" s="5"/>
       <c r="G1746" s="7"/>
@@ -72305,7 +72316,7 @@
         <v>3074</v>
       </c>
       <c r="E1767" s="5">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F1767" s="5"/>
       <c r="G1767" s="7"/>
@@ -72340,7 +72351,7 @@
         <v>3076</v>
       </c>
       <c r="E1768" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1768" s="5"/>
       <c r="G1768" s="7"/>
@@ -72585,7 +72596,7 @@
         <v>3086</v>
       </c>
       <c r="E1775" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1775" s="5"/>
       <c r="G1775" s="7"/>
@@ -72655,7 +72666,7 @@
         <v>43</v>
       </c>
       <c r="E1777" s="5">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1777" s="5"/>
       <c r="G1777" s="7"/>
@@ -72795,7 +72806,7 @@
         <v>3096</v>
       </c>
       <c r="E1781" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1781" s="5"/>
       <c r="G1781" s="7"/>
@@ -73075,7 +73086,7 @@
         <v>3110</v>
       </c>
       <c r="E1789" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1789" s="5"/>
       <c r="G1789" s="7"/>
@@ -73215,7 +73226,7 @@
         <v>927</v>
       </c>
       <c r="E1793" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1793" s="5"/>
       <c r="G1793" s="7"/>
@@ -73740,7 +73751,7 @@
         <v>3143</v>
       </c>
       <c r="E1808" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1808" s="5"/>
       <c r="G1808" s="7"/>
@@ -73775,7 +73786,7 @@
         <v>664</v>
       </c>
       <c r="E1809" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1809" s="5"/>
       <c r="G1809" s="7"/>
@@ -73810,7 +73821,7 @@
         <v>516</v>
       </c>
       <c r="E1810" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1810" s="5"/>
       <c r="G1810" s="7"/>
@@ -73845,7 +73856,7 @@
         <v>3147</v>
       </c>
       <c r="E1811" s="5">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1811" s="5"/>
       <c r="G1811" s="7"/>
@@ -73880,7 +73891,7 @@
         <v>37</v>
       </c>
       <c r="E1812" s="5">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1812" s="5"/>
       <c r="G1812" s="7"/>
@@ -74020,7 +74031,7 @@
         <v>3155</v>
       </c>
       <c r="E1816" s="5">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F1816" s="5"/>
       <c r="G1816" s="7"/>
@@ -74055,7 +74066,7 @@
         <v>1847</v>
       </c>
       <c r="E1817" s="5">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F1817" s="5"/>
       <c r="G1817" s="7"/>
@@ -74965,7 +74976,7 @@
         <v>120</v>
       </c>
       <c r="E1843" s="5">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F1843" s="5"/>
       <c r="G1843" s="7"/>
@@ -75175,7 +75186,7 @@
         <v>3213</v>
       </c>
       <c r="E1849" s="5">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="F1849" s="5"/>
       <c r="G1849" s="7"/>
@@ -75970,10 +75981,10 @@
     <row r="1872" ht="14.25" customHeight="1">
       <c r="A1872" s="11"/>
       <c r="B1872" s="9"/>
-      <c r="C1872" s="30"/>
-      <c r="D1872" s="30"/>
+      <c r="C1872" s="32"/>
+      <c r="D1872" s="32"/>
       <c r="E1872" s="9"/>
-      <c r="F1872" s="31"/>
+      <c r="F1872" s="33"/>
       <c r="G1872" s="11"/>
       <c r="H1872" s="11"/>
       <c r="I1872" s="29"/>
@@ -75996,10 +76007,10 @@
     <row r="1873" ht="14.25" customHeight="1">
       <c r="A1873" s="11"/>
       <c r="B1873" s="9"/>
-      <c r="C1873" s="30"/>
-      <c r="D1873" s="30"/>
+      <c r="C1873" s="32"/>
+      <c r="D1873" s="32"/>
       <c r="E1873" s="9"/>
-      <c r="F1873" s="31"/>
+      <c r="F1873" s="33"/>
       <c r="G1873" s="11"/>
       <c r="H1873" s="11"/>
       <c r="I1873" s="29"/>
@@ -76022,10 +76033,10 @@
     <row r="1874" ht="14.25" customHeight="1">
       <c r="A1874" s="11"/>
       <c r="B1874" s="9"/>
-      <c r="C1874" s="30"/>
-      <c r="D1874" s="30"/>
+      <c r="C1874" s="32"/>
+      <c r="D1874" s="32"/>
       <c r="E1874" s="9"/>
-      <c r="F1874" s="31"/>
+      <c r="F1874" s="33"/>
       <c r="G1874" s="11"/>
       <c r="H1874" s="11"/>
       <c r="I1874" s="29"/>
@@ -76048,10 +76059,10 @@
     <row r="1875" ht="14.25" customHeight="1">
       <c r="A1875" s="11"/>
       <c r="B1875" s="9"/>
-      <c r="C1875" s="30"/>
-      <c r="D1875" s="30"/>
+      <c r="C1875" s="32"/>
+      <c r="D1875" s="32"/>
       <c r="E1875" s="9"/>
-      <c r="F1875" s="31"/>
+      <c r="F1875" s="33"/>
       <c r="G1875" s="11"/>
       <c r="H1875" s="11"/>
       <c r="I1875" s="29"/>
@@ -76074,10 +76085,10 @@
     <row r="1876" ht="14.25" customHeight="1">
       <c r="A1876" s="11"/>
       <c r="B1876" s="9"/>
-      <c r="C1876" s="30"/>
-      <c r="D1876" s="30"/>
+      <c r="C1876" s="32"/>
+      <c r="D1876" s="32"/>
       <c r="E1876" s="9"/>
-      <c r="F1876" s="31"/>
+      <c r="F1876" s="33"/>
       <c r="G1876" s="11"/>
       <c r="H1876" s="11"/>
       <c r="I1876" s="29"/>
@@ -76100,10 +76111,10 @@
     <row r="1877" ht="14.25" customHeight="1">
       <c r="A1877" s="11"/>
       <c r="B1877" s="9"/>
-      <c r="C1877" s="30"/>
-      <c r="D1877" s="30"/>
+      <c r="C1877" s="32"/>
+      <c r="D1877" s="32"/>
       <c r="E1877" s="9"/>
-      <c r="F1877" s="31"/>
+      <c r="F1877" s="33"/>
       <c r="G1877" s="11"/>
       <c r="H1877" s="11"/>
       <c r="I1877" s="29"/>
@@ -76126,10 +76137,10 @@
     <row r="1878" ht="14.25" customHeight="1">
       <c r="A1878" s="11"/>
       <c r="B1878" s="9"/>
-      <c r="C1878" s="30"/>
-      <c r="D1878" s="30"/>
+      <c r="C1878" s="32"/>
+      <c r="D1878" s="32"/>
       <c r="E1878" s="9"/>
-      <c r="F1878" s="31"/>
+      <c r="F1878" s="33"/>
       <c r="G1878" s="11"/>
       <c r="H1878" s="11"/>
       <c r="I1878" s="29"/>
@@ -76152,10 +76163,10 @@
     <row r="1879" ht="14.25" customHeight="1">
       <c r="A1879" s="11"/>
       <c r="B1879" s="9"/>
-      <c r="C1879" s="30"/>
-      <c r="D1879" s="30"/>
+      <c r="C1879" s="32"/>
+      <c r="D1879" s="32"/>
       <c r="E1879" s="9"/>
-      <c r="F1879" s="31"/>
+      <c r="F1879" s="33"/>
       <c r="G1879" s="11"/>
       <c r="H1879" s="11"/>
       <c r="I1879" s="29"/>
@@ -76178,10 +76189,10 @@
     <row r="1880" ht="14.25" customHeight="1">
       <c r="A1880" s="11"/>
       <c r="B1880" s="9"/>
-      <c r="C1880" s="30"/>
-      <c r="D1880" s="30"/>
+      <c r="C1880" s="32"/>
+      <c r="D1880" s="32"/>
       <c r="E1880" s="9"/>
-      <c r="F1880" s="31"/>
+      <c r="F1880" s="33"/>
       <c r="G1880" s="11"/>
       <c r="H1880" s="11"/>
       <c r="I1880" s="29"/>
@@ -76204,10 +76215,10 @@
     <row r="1881" ht="14.25" customHeight="1">
       <c r="A1881" s="11"/>
       <c r="B1881" s="9"/>
-      <c r="C1881" s="30"/>
-      <c r="D1881" s="30"/>
+      <c r="C1881" s="32"/>
+      <c r="D1881" s="32"/>
       <c r="E1881" s="9"/>
-      <c r="F1881" s="31"/>
+      <c r="F1881" s="33"/>
       <c r="G1881" s="11"/>
       <c r="H1881" s="11"/>
       <c r="I1881" s="29"/>
@@ -76230,10 +76241,10 @@
     <row r="1882" ht="14.25" customHeight="1">
       <c r="A1882" s="11"/>
       <c r="B1882" s="9"/>
-      <c r="C1882" s="30"/>
-      <c r="D1882" s="30"/>
+      <c r="C1882" s="32"/>
+      <c r="D1882" s="32"/>
       <c r="E1882" s="9"/>
-      <c r="F1882" s="31"/>
+      <c r="F1882" s="33"/>
       <c r="G1882" s="11"/>
       <c r="H1882" s="11"/>
       <c r="I1882" s="29"/>
@@ -76256,10 +76267,10 @@
     <row r="1883" ht="14.25" customHeight="1">
       <c r="A1883" s="11"/>
       <c r="B1883" s="9"/>
-      <c r="C1883" s="30"/>
-      <c r="D1883" s="30"/>
+      <c r="C1883" s="32"/>
+      <c r="D1883" s="32"/>
       <c r="E1883" s="9"/>
-      <c r="F1883" s="31"/>
+      <c r="F1883" s="33"/>
       <c r="G1883" s="11"/>
       <c r="H1883" s="11"/>
       <c r="I1883" s="29"/>
@@ -76282,10 +76293,10 @@
     <row r="1884" ht="14.25" customHeight="1">
       <c r="A1884" s="11"/>
       <c r="B1884" s="9"/>
-      <c r="C1884" s="30"/>
-      <c r="D1884" s="30"/>
+      <c r="C1884" s="32"/>
+      <c r="D1884" s="32"/>
       <c r="E1884" s="9"/>
-      <c r="F1884" s="31"/>
+      <c r="F1884" s="33"/>
       <c r="G1884" s="11"/>
       <c r="H1884" s="11"/>
       <c r="I1884" s="29"/>
@@ -76308,10 +76319,10 @@
     <row r="1885" ht="14.25" customHeight="1">
       <c r="A1885" s="11"/>
       <c r="B1885" s="9"/>
-      <c r="C1885" s="30"/>
-      <c r="D1885" s="30"/>
+      <c r="C1885" s="32"/>
+      <c r="D1885" s="32"/>
       <c r="E1885" s="9"/>
-      <c r="F1885" s="31"/>
+      <c r="F1885" s="33"/>
       <c r="G1885" s="11"/>
       <c r="H1885" s="11"/>
       <c r="I1885" s="29"/>
@@ -76334,10 +76345,10 @@
     <row r="1886" ht="14.25" customHeight="1">
       <c r="A1886" s="11"/>
       <c r="B1886" s="9"/>
-      <c r="C1886" s="30"/>
-      <c r="D1886" s="30"/>
+      <c r="C1886" s="32"/>
+      <c r="D1886" s="32"/>
       <c r="E1886" s="9"/>
-      <c r="F1886" s="31"/>
+      <c r="F1886" s="33"/>
       <c r="G1886" s="11"/>
       <c r="H1886" s="11"/>
       <c r="I1886" s="29"/>
@@ -76360,10 +76371,10 @@
     <row r="1887" ht="14.25" customHeight="1">
       <c r="A1887" s="11"/>
       <c r="B1887" s="9"/>
-      <c r="C1887" s="30"/>
-      <c r="D1887" s="30"/>
+      <c r="C1887" s="32"/>
+      <c r="D1887" s="32"/>
       <c r="E1887" s="9"/>
-      <c r="F1887" s="31"/>
+      <c r="F1887" s="33"/>
       <c r="G1887" s="11"/>
       <c r="H1887" s="11"/>
       <c r="I1887" s="29"/>
@@ -76386,10 +76397,10 @@
     <row r="1888" ht="14.25" customHeight="1">
       <c r="A1888" s="11"/>
       <c r="B1888" s="9"/>
-      <c r="C1888" s="30"/>
-      <c r="D1888" s="30"/>
+      <c r="C1888" s="32"/>
+      <c r="D1888" s="32"/>
       <c r="E1888" s="9"/>
-      <c r="F1888" s="31"/>
+      <c r="F1888" s="33"/>
       <c r="G1888" s="11"/>
       <c r="H1888" s="11"/>
       <c r="I1888" s="29"/>
@@ -76412,10 +76423,10 @@
     <row r="1889" ht="14.25" customHeight="1">
       <c r="A1889" s="11"/>
       <c r="B1889" s="9"/>
-      <c r="C1889" s="30"/>
-      <c r="D1889" s="30"/>
+      <c r="C1889" s="32"/>
+      <c r="D1889" s="32"/>
       <c r="E1889" s="9"/>
-      <c r="F1889" s="31"/>
+      <c r="F1889" s="33"/>
       <c r="G1889" s="11"/>
       <c r="H1889" s="11"/>
       <c r="I1889" s="29"/>
@@ -76438,10 +76449,10 @@
     <row r="1890" ht="14.25" customHeight="1">
       <c r="A1890" s="11"/>
       <c r="B1890" s="9"/>
-      <c r="C1890" s="30"/>
-      <c r="D1890" s="30"/>
+      <c r="C1890" s="32"/>
+      <c r="D1890" s="32"/>
       <c r="E1890" s="9"/>
-      <c r="F1890" s="31"/>
+      <c r="F1890" s="33"/>
       <c r="G1890" s="11"/>
       <c r="H1890" s="11"/>
       <c r="I1890" s="29"/>
@@ -76464,10 +76475,10 @@
     <row r="1891" ht="14.25" customHeight="1">
       <c r="A1891" s="11"/>
       <c r="B1891" s="9"/>
-      <c r="C1891" s="30"/>
-      <c r="D1891" s="30"/>
+      <c r="C1891" s="32"/>
+      <c r="D1891" s="32"/>
       <c r="E1891" s="9"/>
-      <c r="F1891" s="31"/>
+      <c r="F1891" s="33"/>
       <c r="G1891" s="11"/>
       <c r="H1891" s="11"/>
       <c r="I1891" s="29"/>
@@ -76490,10 +76501,10 @@
     <row r="1892" ht="14.25" customHeight="1">
       <c r="A1892" s="11"/>
       <c r="B1892" s="9"/>
-      <c r="C1892" s="30"/>
-      <c r="D1892" s="30"/>
+      <c r="C1892" s="32"/>
+      <c r="D1892" s="32"/>
       <c r="E1892" s="9"/>
-      <c r="F1892" s="31"/>
+      <c r="F1892" s="33"/>
       <c r="G1892" s="11"/>
       <c r="H1892" s="11"/>
       <c r="I1892" s="29"/>
@@ -76516,10 +76527,10 @@
     <row r="1893" ht="14.25" customHeight="1">
       <c r="A1893" s="11"/>
       <c r="B1893" s="9"/>
-      <c r="C1893" s="30"/>
-      <c r="D1893" s="30"/>
+      <c r="C1893" s="32"/>
+      <c r="D1893" s="32"/>
       <c r="E1893" s="9"/>
-      <c r="F1893" s="31"/>
+      <c r="F1893" s="33"/>
       <c r="G1893" s="11"/>
       <c r="H1893" s="11"/>
       <c r="I1893" s="29"/>
@@ -76542,10 +76553,10 @@
     <row r="1894" ht="14.25" customHeight="1">
       <c r="A1894" s="11"/>
       <c r="B1894" s="9"/>
-      <c r="C1894" s="30"/>
-      <c r="D1894" s="30"/>
+      <c r="C1894" s="32"/>
+      <c r="D1894" s="32"/>
       <c r="E1894" s="9"/>
-      <c r="F1894" s="31"/>
+      <c r="F1894" s="33"/>
       <c r="G1894" s="11"/>
       <c r="H1894" s="11"/>
       <c r="I1894" s="29"/>
@@ -76568,10 +76579,10 @@
     <row r="1895" ht="14.25" customHeight="1">
       <c r="A1895" s="11"/>
       <c r="B1895" s="9"/>
-      <c r="C1895" s="30"/>
-      <c r="D1895" s="30"/>
+      <c r="C1895" s="32"/>
+      <c r="D1895" s="32"/>
       <c r="E1895" s="9"/>
-      <c r="F1895" s="31"/>
+      <c r="F1895" s="33"/>
       <c r="G1895" s="11"/>
       <c r="H1895" s="11"/>
       <c r="I1895" s="29"/>
@@ -76594,10 +76605,10 @@
     <row r="1896" ht="14.25" customHeight="1">
       <c r="A1896" s="11"/>
       <c r="B1896" s="9"/>
-      <c r="C1896" s="30"/>
-      <c r="D1896" s="30"/>
+      <c r="C1896" s="32"/>
+      <c r="D1896" s="32"/>
       <c r="E1896" s="9"/>
-      <c r="F1896" s="31"/>
+      <c r="F1896" s="33"/>
       <c r="G1896" s="11"/>
       <c r="H1896" s="11"/>
       <c r="I1896" s="29"/>
@@ -76620,10 +76631,10 @@
     <row r="1897" ht="14.25" customHeight="1">
       <c r="A1897" s="11"/>
       <c r="B1897" s="9"/>
-      <c r="C1897" s="30"/>
-      <c r="D1897" s="30"/>
+      <c r="C1897" s="32"/>
+      <c r="D1897" s="32"/>
       <c r="E1897" s="9"/>
-      <c r="F1897" s="31"/>
+      <c r="F1897" s="33"/>
       <c r="G1897" s="11"/>
       <c r="H1897" s="11"/>
       <c r="I1897" s="29"/>
@@ -76646,10 +76657,10 @@
     <row r="1898" ht="14.25" customHeight="1">
       <c r="A1898" s="11"/>
       <c r="B1898" s="9"/>
-      <c r="C1898" s="30"/>
-      <c r="D1898" s="30"/>
+      <c r="C1898" s="32"/>
+      <c r="D1898" s="32"/>
       <c r="E1898" s="9"/>
-      <c r="F1898" s="31"/>
+      <c r="F1898" s="33"/>
       <c r="G1898" s="11"/>
       <c r="H1898" s="11"/>
       <c r="I1898" s="29"/>
@@ -76672,10 +76683,10 @@
     <row r="1899" ht="14.25" customHeight="1">
       <c r="A1899" s="11"/>
       <c r="B1899" s="9"/>
-      <c r="C1899" s="30"/>
-      <c r="D1899" s="30"/>
+      <c r="C1899" s="32"/>
+      <c r="D1899" s="32"/>
       <c r="E1899" s="9"/>
-      <c r="F1899" s="31"/>
+      <c r="F1899" s="33"/>
       <c r="G1899" s="11"/>
       <c r="H1899" s="11"/>
       <c r="I1899" s="29"/>
@@ -76698,10 +76709,10 @@
     <row r="1900" ht="14.25" customHeight="1">
       <c r="A1900" s="11"/>
       <c r="B1900" s="9"/>
-      <c r="C1900" s="30"/>
-      <c r="D1900" s="30"/>
+      <c r="C1900" s="32"/>
+      <c r="D1900" s="32"/>
       <c r="E1900" s="9"/>
-      <c r="F1900" s="31"/>
+      <c r="F1900" s="33"/>
       <c r="G1900" s="11"/>
       <c r="H1900" s="11"/>
       <c r="I1900" s="29"/>
@@ -76724,10 +76735,10 @@
     <row r="1901" ht="14.25" customHeight="1">
       <c r="A1901" s="11"/>
       <c r="B1901" s="9"/>
-      <c r="C1901" s="30"/>
-      <c r="D1901" s="30"/>
+      <c r="C1901" s="32"/>
+      <c r="D1901" s="32"/>
       <c r="E1901" s="9"/>
-      <c r="F1901" s="31"/>
+      <c r="F1901" s="33"/>
       <c r="G1901" s="11"/>
       <c r="H1901" s="11"/>
       <c r="I1901" s="29"/>
@@ -76750,10 +76761,10 @@
     <row r="1902" ht="14.25" customHeight="1">
       <c r="A1902" s="11"/>
       <c r="B1902" s="9"/>
-      <c r="C1902" s="30"/>
-      <c r="D1902" s="30"/>
+      <c r="C1902" s="32"/>
+      <c r="D1902" s="32"/>
       <c r="E1902" s="9"/>
-      <c r="F1902" s="31"/>
+      <c r="F1902" s="33"/>
       <c r="G1902" s="11"/>
       <c r="H1902" s="11"/>
       <c r="I1902" s="29"/>
@@ -76776,10 +76787,10 @@
     <row r="1903" ht="14.25" customHeight="1">
       <c r="A1903" s="11"/>
       <c r="B1903" s="9"/>
-      <c r="C1903" s="30"/>
-      <c r="D1903" s="30"/>
+      <c r="C1903" s="32"/>
+      <c r="D1903" s="32"/>
       <c r="E1903" s="9"/>
-      <c r="F1903" s="31"/>
+      <c r="F1903" s="33"/>
       <c r="G1903" s="11"/>
       <c r="H1903" s="11"/>
       <c r="I1903" s="29"/>
@@ -76802,10 +76813,10 @@
     <row r="1904" ht="14.25" customHeight="1">
       <c r="A1904" s="11"/>
       <c r="B1904" s="9"/>
-      <c r="C1904" s="30"/>
-      <c r="D1904" s="30"/>
+      <c r="C1904" s="32"/>
+      <c r="D1904" s="32"/>
       <c r="E1904" s="9"/>
-      <c r="F1904" s="31"/>
+      <c r="F1904" s="33"/>
       <c r="G1904" s="11"/>
       <c r="H1904" s="11"/>
       <c r="I1904" s="29"/>
@@ -76828,10 +76839,10 @@
     <row r="1905" ht="14.25" customHeight="1">
       <c r="A1905" s="11"/>
       <c r="B1905" s="9"/>
-      <c r="C1905" s="30"/>
-      <c r="D1905" s="30"/>
+      <c r="C1905" s="32"/>
+      <c r="D1905" s="32"/>
       <c r="E1905" s="9"/>
-      <c r="F1905" s="31"/>
+      <c r="F1905" s="33"/>
       <c r="G1905" s="11"/>
       <c r="H1905" s="11"/>
       <c r="I1905" s="29"/>
@@ -76854,10 +76865,10 @@
     <row r="1906" ht="14.25" customHeight="1">
       <c r="A1906" s="11"/>
       <c r="B1906" s="9"/>
-      <c r="C1906" s="30"/>
-      <c r="D1906" s="30"/>
+      <c r="C1906" s="32"/>
+      <c r="D1906" s="32"/>
       <c r="E1906" s="9"/>
-      <c r="F1906" s="31"/>
+      <c r="F1906" s="33"/>
       <c r="G1906" s="11"/>
       <c r="H1906" s="11"/>
       <c r="I1906" s="29"/>
@@ -76880,10 +76891,10 @@
     <row r="1907" ht="14.25" customHeight="1">
       <c r="A1907" s="11"/>
       <c r="B1907" s="9"/>
-      <c r="C1907" s="30"/>
-      <c r="D1907" s="30"/>
+      <c r="C1907" s="32"/>
+      <c r="D1907" s="32"/>
       <c r="E1907" s="9"/>
-      <c r="F1907" s="31"/>
+      <c r="F1907" s="33"/>
       <c r="G1907" s="11"/>
       <c r="H1907" s="11"/>
       <c r="I1907" s="29"/>
@@ -76906,10 +76917,10 @@
     <row r="1908" ht="14.25" customHeight="1">
       <c r="A1908" s="11"/>
       <c r="B1908" s="9"/>
-      <c r="C1908" s="30"/>
-      <c r="D1908" s="30"/>
+      <c r="C1908" s="32"/>
+      <c r="D1908" s="32"/>
       <c r="E1908" s="9"/>
-      <c r="F1908" s="31"/>
+      <c r="F1908" s="33"/>
       <c r="G1908" s="11"/>
       <c r="H1908" s="11"/>
       <c r="I1908" s="29"/>
@@ -76932,10 +76943,10 @@
     <row r="1909" ht="14.25" customHeight="1">
       <c r="A1909" s="11"/>
       <c r="B1909" s="9"/>
-      <c r="C1909" s="30"/>
-      <c r="D1909" s="30"/>
+      <c r="C1909" s="32"/>
+      <c r="D1909" s="32"/>
       <c r="E1909" s="9"/>
-      <c r="F1909" s="31"/>
+      <c r="F1909" s="33"/>
       <c r="G1909" s="11"/>
       <c r="H1909" s="11"/>
       <c r="I1909" s="29"/>
@@ -76958,10 +76969,10 @@
     <row r="1910" ht="14.25" customHeight="1">
       <c r="A1910" s="11"/>
       <c r="B1910" s="9"/>
-      <c r="C1910" s="30"/>
-      <c r="D1910" s="30"/>
+      <c r="C1910" s="32"/>
+      <c r="D1910" s="32"/>
       <c r="E1910" s="9"/>
-      <c r="F1910" s="31"/>
+      <c r="F1910" s="33"/>
       <c r="G1910" s="11"/>
       <c r="H1910" s="11"/>
       <c r="I1910" s="29"/>
@@ -76984,10 +76995,10 @@
     <row r="1911" ht="14.25" customHeight="1">
       <c r="A1911" s="11"/>
       <c r="B1911" s="9"/>
-      <c r="C1911" s="30"/>
-      <c r="D1911" s="30"/>
+      <c r="C1911" s="32"/>
+      <c r="D1911" s="32"/>
       <c r="E1911" s="9"/>
-      <c r="F1911" s="31"/>
+      <c r="F1911" s="33"/>
       <c r="G1911" s="11"/>
       <c r="H1911" s="11"/>
       <c r="I1911" s="29"/>
@@ -77010,10 +77021,10 @@
     <row r="1912" ht="14.25" customHeight="1">
       <c r="A1912" s="11"/>
       <c r="B1912" s="9"/>
-      <c r="C1912" s="30"/>
-      <c r="D1912" s="30"/>
+      <c r="C1912" s="32"/>
+      <c r="D1912" s="32"/>
       <c r="E1912" s="9"/>
-      <c r="F1912" s="31"/>
+      <c r="F1912" s="33"/>
       <c r="G1912" s="11"/>
       <c r="H1912" s="11"/>
       <c r="I1912" s="29"/>
@@ -77036,10 +77047,10 @@
     <row r="1913" ht="14.25" customHeight="1">
       <c r="A1913" s="11"/>
       <c r="B1913" s="9"/>
-      <c r="C1913" s="30"/>
-      <c r="D1913" s="30"/>
+      <c r="C1913" s="32"/>
+      <c r="D1913" s="32"/>
       <c r="E1913" s="9"/>
-      <c r="F1913" s="31"/>
+      <c r="F1913" s="33"/>
       <c r="G1913" s="11"/>
       <c r="H1913" s="11"/>
       <c r="I1913" s="29"/>
@@ -77062,10 +77073,10 @@
     <row r="1914" ht="14.25" customHeight="1">
       <c r="A1914" s="11"/>
       <c r="B1914" s="9"/>
-      <c r="C1914" s="30"/>
-      <c r="D1914" s="30"/>
+      <c r="C1914" s="32"/>
+      <c r="D1914" s="32"/>
       <c r="E1914" s="9"/>
-      <c r="F1914" s="31"/>
+      <c r="F1914" s="33"/>
       <c r="G1914" s="11"/>
       <c r="H1914" s="11"/>
       <c r="I1914" s="29"/>
@@ -77088,10 +77099,10 @@
     <row r="1915" ht="14.25" customHeight="1">
       <c r="A1915" s="11"/>
       <c r="B1915" s="9"/>
-      <c r="C1915" s="30"/>
-      <c r="D1915" s="30"/>
+      <c r="C1915" s="32"/>
+      <c r="D1915" s="32"/>
       <c r="E1915" s="9"/>
-      <c r="F1915" s="31"/>
+      <c r="F1915" s="33"/>
       <c r="G1915" s="11"/>
       <c r="H1915" s="11"/>
       <c r="I1915" s="29"/>
@@ -77114,10 +77125,10 @@
     <row r="1916" ht="14.25" customHeight="1">
       <c r="A1916" s="11"/>
       <c r="B1916" s="9"/>
-      <c r="C1916" s="30"/>
-      <c r="D1916" s="30"/>
+      <c r="C1916" s="32"/>
+      <c r="D1916" s="32"/>
       <c r="E1916" s="9"/>
-      <c r="F1916" s="31"/>
+      <c r="F1916" s="33"/>
       <c r="G1916" s="11"/>
       <c r="H1916" s="11"/>
       <c r="I1916" s="29"/>
@@ -77140,10 +77151,10 @@
     <row r="1917" ht="14.25" customHeight="1">
       <c r="A1917" s="11"/>
       <c r="B1917" s="9"/>
-      <c r="C1917" s="30"/>
-      <c r="D1917" s="30"/>
+      <c r="C1917" s="32"/>
+      <c r="D1917" s="32"/>
       <c r="E1917" s="9"/>
-      <c r="F1917" s="31"/>
+      <c r="F1917" s="33"/>
       <c r="G1917" s="11"/>
       <c r="H1917" s="11"/>
       <c r="I1917" s="29"/>
@@ -77166,10 +77177,10 @@
     <row r="1918" ht="14.25" customHeight="1">
       <c r="A1918" s="11"/>
       <c r="B1918" s="9"/>
-      <c r="C1918" s="30"/>
-      <c r="D1918" s="30"/>
+      <c r="C1918" s="32"/>
+      <c r="D1918" s="32"/>
       <c r="E1918" s="9"/>
-      <c r="F1918" s="31"/>
+      <c r="F1918" s="33"/>
       <c r="G1918" s="11"/>
       <c r="H1918" s="11"/>
       <c r="I1918" s="29"/>
@@ -77192,10 +77203,10 @@
     <row r="1919" ht="14.25" customHeight="1">
       <c r="A1919" s="11"/>
       <c r="B1919" s="9"/>
-      <c r="C1919" s="30"/>
-      <c r="D1919" s="30"/>
+      <c r="C1919" s="32"/>
+      <c r="D1919" s="32"/>
       <c r="E1919" s="9"/>
-      <c r="F1919" s="31"/>
+      <c r="F1919" s="33"/>
       <c r="G1919" s="11"/>
       <c r="H1919" s="11"/>
       <c r="I1919" s="29"/>
@@ -77218,10 +77229,10 @@
     <row r="1920" ht="14.25" customHeight="1">
       <c r="A1920" s="11"/>
       <c r="B1920" s="9"/>
-      <c r="C1920" s="30"/>
-      <c r="D1920" s="30"/>
+      <c r="C1920" s="32"/>
+      <c r="D1920" s="32"/>
       <c r="E1920" s="9"/>
-      <c r="F1920" s="31"/>
+      <c r="F1920" s="33"/>
       <c r="G1920" s="11"/>
       <c r="H1920" s="11"/>
       <c r="I1920" s="29"/>
@@ -77244,10 +77255,10 @@
     <row r="1921" ht="14.25" customHeight="1">
       <c r="A1921" s="11"/>
       <c r="B1921" s="9"/>
-      <c r="C1921" s="30"/>
-      <c r="D1921" s="30"/>
+      <c r="C1921" s="32"/>
+      <c r="D1921" s="32"/>
       <c r="E1921" s="9"/>
-      <c r="F1921" s="31"/>
+      <c r="F1921" s="33"/>
       <c r="G1921" s="11"/>
       <c r="H1921" s="11"/>
       <c r="I1921" s="29"/>
@@ -77270,10 +77281,10 @@
     <row r="1922" ht="14.25" customHeight="1">
       <c r="A1922" s="11"/>
       <c r="B1922" s="9"/>
-      <c r="C1922" s="30"/>
-      <c r="D1922" s="30"/>
+      <c r="C1922" s="32"/>
+      <c r="D1922" s="32"/>
       <c r="E1922" s="9"/>
-      <c r="F1922" s="31"/>
+      <c r="F1922" s="33"/>
       <c r="G1922" s="11"/>
       <c r="H1922" s="11"/>
       <c r="I1922" s="29"/>
@@ -77296,10 +77307,10 @@
     <row r="1923" ht="14.25" customHeight="1">
       <c r="A1923" s="11"/>
       <c r="B1923" s="9"/>
-      <c r="C1923" s="30"/>
-      <c r="D1923" s="30"/>
+      <c r="C1923" s="32"/>
+      <c r="D1923" s="32"/>
       <c r="E1923" s="9"/>
-      <c r="F1923" s="31"/>
+      <c r="F1923" s="33"/>
       <c r="G1923" s="11"/>
       <c r="H1923" s="11"/>
       <c r="I1923" s="29"/>
@@ -77322,10 +77333,10 @@
     <row r="1924" ht="14.25" customHeight="1">
       <c r="A1924" s="11"/>
       <c r="B1924" s="9"/>
-      <c r="C1924" s="30"/>
-      <c r="D1924" s="30"/>
+      <c r="C1924" s="32"/>
+      <c r="D1924" s="32"/>
       <c r="E1924" s="9"/>
-      <c r="F1924" s="31"/>
+      <c r="F1924" s="33"/>
       <c r="G1924" s="11"/>
       <c r="H1924" s="11"/>
       <c r="I1924" s="29"/>
@@ -77348,10 +77359,10 @@
     <row r="1925" ht="14.25" customHeight="1">
       <c r="A1925" s="11"/>
       <c r="B1925" s="9"/>
-      <c r="C1925" s="30"/>
-      <c r="D1925" s="30"/>
+      <c r="C1925" s="32"/>
+      <c r="D1925" s="32"/>
       <c r="E1925" s="9"/>
-      <c r="F1925" s="31"/>
+      <c r="F1925" s="33"/>
       <c r="G1925" s="11"/>
       <c r="H1925" s="11"/>
       <c r="I1925" s="29"/>
@@ -77374,10 +77385,10 @@
     <row r="1926" ht="14.25" customHeight="1">
       <c r="A1926" s="11"/>
       <c r="B1926" s="9"/>
-      <c r="C1926" s="30"/>
-      <c r="D1926" s="30"/>
+      <c r="C1926" s="32"/>
+      <c r="D1926" s="32"/>
       <c r="E1926" s="9"/>
-      <c r="F1926" s="31"/>
+      <c r="F1926" s="33"/>
       <c r="G1926" s="11"/>
       <c r="H1926" s="11"/>
       <c r="I1926" s="29"/>
@@ -77400,10 +77411,10 @@
     <row r="1927" ht="14.25" customHeight="1">
       <c r="A1927" s="11"/>
       <c r="B1927" s="9"/>
-      <c r="C1927" s="30"/>
-      <c r="D1927" s="30"/>
+      <c r="C1927" s="32"/>
+      <c r="D1927" s="32"/>
       <c r="E1927" s="9"/>
-      <c r="F1927" s="31"/>
+      <c r="F1927" s="33"/>
       <c r="G1927" s="11"/>
       <c r="H1927" s="11"/>
       <c r="I1927" s="29"/>
@@ -77426,10 +77437,10 @@
     <row r="1928" ht="14.25" customHeight="1">
       <c r="A1928" s="11"/>
       <c r="B1928" s="9"/>
-      <c r="C1928" s="30"/>
-      <c r="D1928" s="30"/>
+      <c r="C1928" s="32"/>
+      <c r="D1928" s="32"/>
       <c r="E1928" s="9"/>
-      <c r="F1928" s="31"/>
+      <c r="F1928" s="33"/>
       <c r="G1928" s="11"/>
       <c r="H1928" s="11"/>
       <c r="I1928" s="29"/>
@@ -77452,10 +77463,10 @@
     <row r="1929" ht="14.25" customHeight="1">
       <c r="A1929" s="11"/>
       <c r="B1929" s="9"/>
-      <c r="C1929" s="30"/>
-      <c r="D1929" s="30"/>
+      <c r="C1929" s="32"/>
+      <c r="D1929" s="32"/>
       <c r="E1929" s="9"/>
-      <c r="F1929" s="31"/>
+      <c r="F1929" s="33"/>
       <c r="G1929" s="11"/>
       <c r="H1929" s="11"/>
       <c r="I1929" s="29"/>
@@ -77478,10 +77489,10 @@
     <row r="1930" ht="14.25" customHeight="1">
       <c r="A1930" s="11"/>
       <c r="B1930" s="9"/>
-      <c r="C1930" s="30"/>
-      <c r="D1930" s="30"/>
+      <c r="C1930" s="32"/>
+      <c r="D1930" s="32"/>
       <c r="E1930" s="9"/>
-      <c r="F1930" s="31"/>
+      <c r="F1930" s="33"/>
       <c r="G1930" s="11"/>
       <c r="H1930" s="11"/>
       <c r="I1930" s="29"/>
@@ -77504,10 +77515,10 @@
     <row r="1931" ht="14.25" customHeight="1">
       <c r="A1931" s="11"/>
       <c r="B1931" s="9"/>
-      <c r="C1931" s="30"/>
-      <c r="D1931" s="30"/>
+      <c r="C1931" s="32"/>
+      <c r="D1931" s="32"/>
       <c r="E1931" s="9"/>
-      <c r="F1931" s="31"/>
+      <c r="F1931" s="33"/>
       <c r="G1931" s="11"/>
       <c r="H1931" s="11"/>
       <c r="I1931" s="29"/>
@@ -77530,10 +77541,10 @@
     <row r="1932" ht="14.25" customHeight="1">
       <c r="A1932" s="11"/>
       <c r="B1932" s="9"/>
-      <c r="C1932" s="30"/>
-      <c r="D1932" s="30"/>
+      <c r="C1932" s="32"/>
+      <c r="D1932" s="32"/>
       <c r="E1932" s="9"/>
-      <c r="F1932" s="31"/>
+      <c r="F1932" s="33"/>
       <c r="G1932" s="11"/>
       <c r="H1932" s="11"/>
       <c r="I1932" s="29"/>
@@ -77556,10 +77567,10 @@
     <row r="1933" ht="14.25" customHeight="1">
       <c r="A1933" s="11"/>
       <c r="B1933" s="9"/>
-      <c r="C1933" s="30"/>
-      <c r="D1933" s="30"/>
+      <c r="C1933" s="32"/>
+      <c r="D1933" s="32"/>
       <c r="E1933" s="9"/>
-      <c r="F1933" s="31"/>
+      <c r="F1933" s="33"/>
       <c r="G1933" s="11"/>
       <c r="H1933" s="11"/>
       <c r="I1933" s="29"/>
@@ -77582,10 +77593,10 @@
     <row r="1934" ht="14.25" customHeight="1">
       <c r="A1934" s="11"/>
       <c r="B1934" s="9"/>
-      <c r="C1934" s="30"/>
-      <c r="D1934" s="30"/>
+      <c r="C1934" s="32"/>
+      <c r="D1934" s="32"/>
       <c r="E1934" s="9"/>
-      <c r="F1934" s="31"/>
+      <c r="F1934" s="33"/>
       <c r="G1934" s="11"/>
       <c r="H1934" s="11"/>
       <c r="I1934" s="29"/>
@@ -77608,10 +77619,10 @@
     <row r="1935" ht="14.25" customHeight="1">
       <c r="A1935" s="11"/>
       <c r="B1935" s="9"/>
-      <c r="C1935" s="30"/>
-      <c r="D1935" s="30"/>
+      <c r="C1935" s="32"/>
+      <c r="D1935" s="32"/>
       <c r="E1935" s="9"/>
-      <c r="F1935" s="31"/>
+      <c r="F1935" s="33"/>
       <c r="G1935" s="11"/>
       <c r="H1935" s="11"/>
       <c r="I1935" s="29"/>
@@ -77634,10 +77645,10 @@
     <row r="1936" ht="14.25" customHeight="1">
       <c r="A1936" s="11"/>
       <c r="B1936" s="9"/>
-      <c r="C1936" s="30"/>
-      <c r="D1936" s="30"/>
+      <c r="C1936" s="32"/>
+      <c r="D1936" s="32"/>
       <c r="E1936" s="9"/>
-      <c r="F1936" s="31"/>
+      <c r="F1936" s="33"/>
       <c r="G1936" s="11"/>
       <c r="H1936" s="11"/>
       <c r="I1936" s="29"/>
@@ -77660,10 +77671,10 @@
     <row r="1937" ht="14.25" customHeight="1">
       <c r="A1937" s="11"/>
       <c r="B1937" s="9"/>
-      <c r="C1937" s="30"/>
-      <c r="D1937" s="30"/>
+      <c r="C1937" s="32"/>
+      <c r="D1937" s="32"/>
       <c r="E1937" s="9"/>
-      <c r="F1937" s="31"/>
+      <c r="F1937" s="33"/>
       <c r="G1937" s="11"/>
       <c r="H1937" s="11"/>
       <c r="I1937" s="29"/>
@@ -77686,10 +77697,10 @@
     <row r="1938" ht="14.25" customHeight="1">
       <c r="A1938" s="11"/>
       <c r="B1938" s="9"/>
-      <c r="C1938" s="30"/>
-      <c r="D1938" s="30"/>
+      <c r="C1938" s="32"/>
+      <c r="D1938" s="32"/>
       <c r="E1938" s="9"/>
-      <c r="F1938" s="31"/>
+      <c r="F1938" s="33"/>
       <c r="G1938" s="11"/>
       <c r="H1938" s="11"/>
       <c r="I1938" s="29"/>
@@ -77712,10 +77723,10 @@
     <row r="1939" ht="14.25" customHeight="1">
       <c r="A1939" s="11"/>
       <c r="B1939" s="9"/>
-      <c r="C1939" s="30"/>
-      <c r="D1939" s="30"/>
+      <c r="C1939" s="32"/>
+      <c r="D1939" s="32"/>
       <c r="E1939" s="9"/>
-      <c r="F1939" s="31"/>
+      <c r="F1939" s="33"/>
       <c r="G1939" s="11"/>
       <c r="H1939" s="11"/>
       <c r="I1939" s="29"/>
@@ -77738,10 +77749,10 @@
     <row r="1940" ht="14.25" customHeight="1">
       <c r="A1940" s="11"/>
       <c r="B1940" s="9"/>
-      <c r="C1940" s="30"/>
-      <c r="D1940" s="30"/>
+      <c r="C1940" s="32"/>
+      <c r="D1940" s="32"/>
       <c r="E1940" s="9"/>
-      <c r="F1940" s="31"/>
+      <c r="F1940" s="33"/>
       <c r="G1940" s="11"/>
       <c r="H1940" s="11"/>
       <c r="I1940" s="29"/>
@@ -77764,10 +77775,10 @@
     <row r="1941" ht="14.25" customHeight="1">
       <c r="A1941" s="11"/>
       <c r="B1941" s="9"/>
-      <c r="C1941" s="30"/>
-      <c r="D1941" s="30"/>
+      <c r="C1941" s="32"/>
+      <c r="D1941" s="32"/>
       <c r="E1941" s="9"/>
-      <c r="F1941" s="31"/>
+      <c r="F1941" s="33"/>
       <c r="G1941" s="11"/>
       <c r="H1941" s="11"/>
       <c r="I1941" s="29"/>
@@ -77790,10 +77801,10 @@
     <row r="1942" ht="14.25" customHeight="1">
       <c r="A1942" s="11"/>
       <c r="B1942" s="9"/>
-      <c r="C1942" s="30"/>
-      <c r="D1942" s="30"/>
+      <c r="C1942" s="32"/>
+      <c r="D1942" s="32"/>
       <c r="E1942" s="9"/>
-      <c r="F1942" s="31"/>
+      <c r="F1942" s="33"/>
       <c r="G1942" s="11"/>
       <c r="H1942" s="11"/>
       <c r="I1942" s="29"/>
@@ -77816,10 +77827,10 @@
     <row r="1943" ht="14.25" customHeight="1">
       <c r="A1943" s="11"/>
       <c r="B1943" s="9"/>
-      <c r="C1943" s="30"/>
-      <c r="D1943" s="30"/>
+      <c r="C1943" s="32"/>
+      <c r="D1943" s="32"/>
       <c r="E1943" s="9"/>
-      <c r="F1943" s="31"/>
+      <c r="F1943" s="33"/>
       <c r="G1943" s="11"/>
       <c r="H1943" s="11"/>
       <c r="I1943" s="29"/>
@@ -77842,10 +77853,10 @@
     <row r="1944" ht="14.25" customHeight="1">
       <c r="A1944" s="11"/>
       <c r="B1944" s="9"/>
-      <c r="C1944" s="30"/>
-      <c r="D1944" s="30"/>
+      <c r="C1944" s="32"/>
+      <c r="D1944" s="32"/>
       <c r="E1944" s="9"/>
-      <c r="F1944" s="31"/>
+      <c r="F1944" s="33"/>
       <c r="G1944" s="11"/>
       <c r="H1944" s="11"/>
       <c r="I1944" s="29"/>
@@ -77868,10 +77879,10 @@
     <row r="1945" ht="14.25" customHeight="1">
       <c r="A1945" s="11"/>
       <c r="B1945" s="9"/>
-      <c r="C1945" s="30"/>
-      <c r="D1945" s="30"/>
+      <c r="C1945" s="32"/>
+      <c r="D1945" s="32"/>
       <c r="E1945" s="9"/>
-      <c r="F1945" s="31"/>
+      <c r="F1945" s="33"/>
       <c r="G1945" s="11"/>
       <c r="H1945" s="11"/>
       <c r="I1945" s="29"/>
@@ -77894,10 +77905,10 @@
     <row r="1946" ht="14.25" customHeight="1">
       <c r="A1946" s="11"/>
       <c r="B1946" s="9"/>
-      <c r="C1946" s="30"/>
-      <c r="D1946" s="30"/>
+      <c r="C1946" s="32"/>
+      <c r="D1946" s="32"/>
       <c r="E1946" s="9"/>
-      <c r="F1946" s="31"/>
+      <c r="F1946" s="33"/>
       <c r="G1946" s="11"/>
       <c r="H1946" s="11"/>
       <c r="I1946" s="29"/>
@@ -77920,10 +77931,10 @@
     <row r="1947" ht="14.25" customHeight="1">
       <c r="A1947" s="11"/>
       <c r="B1947" s="9"/>
-      <c r="C1947" s="30"/>
-      <c r="D1947" s="30"/>
+      <c r="C1947" s="32"/>
+      <c r="D1947" s="32"/>
       <c r="E1947" s="9"/>
-      <c r="F1947" s="31"/>
+      <c r="F1947" s="33"/>
       <c r="G1947" s="11"/>
       <c r="H1947" s="11"/>
       <c r="I1947" s="29"/>
@@ -77946,10 +77957,10 @@
     <row r="1948" ht="14.25" customHeight="1">
       <c r="A1948" s="11"/>
       <c r="B1948" s="9"/>
-      <c r="C1948" s="30"/>
-      <c r="D1948" s="30"/>
+      <c r="C1948" s="32"/>
+      <c r="D1948" s="32"/>
       <c r="E1948" s="9"/>
-      <c r="F1948" s="31"/>
+      <c r="F1948" s="33"/>
       <c r="G1948" s="11"/>
       <c r="H1948" s="11"/>
       <c r="I1948" s="29"/>
@@ -77972,10 +77983,10 @@
     <row r="1949" ht="14.25" customHeight="1">
       <c r="A1949" s="11"/>
       <c r="B1949" s="9"/>
-      <c r="C1949" s="30"/>
-      <c r="D1949" s="30"/>
+      <c r="C1949" s="32"/>
+      <c r="D1949" s="32"/>
       <c r="E1949" s="9"/>
-      <c r="F1949" s="31"/>
+      <c r="F1949" s="33"/>
       <c r="G1949" s="11"/>
       <c r="H1949" s="11"/>
       <c r="I1949" s="29"/>
@@ -77998,10 +78009,10 @@
     <row r="1950" ht="14.25" customHeight="1">
       <c r="A1950" s="11"/>
       <c r="B1950" s="9"/>
-      <c r="C1950" s="30"/>
-      <c r="D1950" s="30"/>
+      <c r="C1950" s="32"/>
+      <c r="D1950" s="32"/>
       <c r="E1950" s="9"/>
-      <c r="F1950" s="31"/>
+      <c r="F1950" s="33"/>
       <c r="G1950" s="11"/>
       <c r="H1950" s="11"/>
       <c r="I1950" s="29"/>
@@ -78024,10 +78035,10 @@
     <row r="1951" ht="14.25" customHeight="1">
       <c r="A1951" s="11"/>
       <c r="B1951" s="9"/>
-      <c r="C1951" s="30"/>
-      <c r="D1951" s="30"/>
+      <c r="C1951" s="32"/>
+      <c r="D1951" s="32"/>
       <c r="E1951" s="9"/>
-      <c r="F1951" s="31"/>
+      <c r="F1951" s="33"/>
       <c r="G1951" s="11"/>
       <c r="H1951" s="11"/>
       <c r="I1951" s="29"/>
@@ -78050,10 +78061,10 @@
     <row r="1952" ht="14.25" customHeight="1">
       <c r="A1952" s="11"/>
       <c r="B1952" s="9"/>
-      <c r="C1952" s="30"/>
-      <c r="D1952" s="30"/>
+      <c r="C1952" s="32"/>
+      <c r="D1952" s="32"/>
       <c r="E1952" s="9"/>
-      <c r="F1952" s="31"/>
+      <c r="F1952" s="33"/>
       <c r="G1952" s="11"/>
       <c r="H1952" s="11"/>
       <c r="I1952" s="29"/>
@@ -78076,10 +78087,10 @@
     <row r="1953" ht="14.25" customHeight="1">
       <c r="A1953" s="11"/>
       <c r="B1953" s="9"/>
-      <c r="C1953" s="30"/>
-      <c r="D1953" s="30"/>
+      <c r="C1953" s="32"/>
+      <c r="D1953" s="32"/>
       <c r="E1953" s="9"/>
-      <c r="F1953" s="31"/>
+      <c r="F1953" s="33"/>
       <c r="G1953" s="11"/>
       <c r="H1953" s="11"/>
       <c r="I1953" s="29"/>
@@ -78102,10 +78113,10 @@
     <row r="1954" ht="14.25" customHeight="1">
       <c r="A1954" s="11"/>
       <c r="B1954" s="9"/>
-      <c r="C1954" s="30"/>
-      <c r="D1954" s="30"/>
+      <c r="C1954" s="32"/>
+      <c r="D1954" s="32"/>
       <c r="E1954" s="9"/>
-      <c r="F1954" s="31"/>
+      <c r="F1954" s="33"/>
       <c r="G1954" s="11"/>
       <c r="H1954" s="11"/>
       <c r="I1954" s="29"/>
@@ -78128,10 +78139,10 @@
     <row r="1955" ht="14.25" customHeight="1">
       <c r="A1955" s="11"/>
       <c r="B1955" s="9"/>
-      <c r="C1955" s="30"/>
-      <c r="D1955" s="30"/>
+      <c r="C1955" s="32"/>
+      <c r="D1955" s="32"/>
       <c r="E1955" s="9"/>
-      <c r="F1955" s="31"/>
+      <c r="F1955" s="33"/>
       <c r="G1955" s="11"/>
       <c r="H1955" s="11"/>
       <c r="I1955" s="29"/>
@@ -78154,10 +78165,10 @@
     <row r="1956" ht="14.25" customHeight="1">
       <c r="A1956" s="11"/>
       <c r="B1956" s="9"/>
-      <c r="C1956" s="30"/>
-      <c r="D1956" s="30"/>
+      <c r="C1956" s="32"/>
+      <c r="D1956" s="32"/>
       <c r="E1956" s="9"/>
-      <c r="F1956" s="31"/>
+      <c r="F1956" s="33"/>
       <c r="G1956" s="11"/>
       <c r="H1956" s="11"/>
       <c r="I1956" s="29"/>
@@ -78180,10 +78191,10 @@
     <row r="1957" ht="14.25" customHeight="1">
       <c r="A1957" s="11"/>
       <c r="B1957" s="9"/>
-      <c r="C1957" s="30"/>
-      <c r="D1957" s="30"/>
+      <c r="C1957" s="32"/>
+      <c r="D1957" s="32"/>
       <c r="E1957" s="9"/>
-      <c r="F1957" s="31"/>
+      <c r="F1957" s="33"/>
       <c r="G1957" s="11"/>
       <c r="H1957" s="11"/>
       <c r="I1957" s="29"/>
@@ -78206,10 +78217,10 @@
     <row r="1958" ht="14.25" customHeight="1">
       <c r="A1958" s="11"/>
       <c r="B1958" s="9"/>
-      <c r="C1958" s="30"/>
-      <c r="D1958" s="30"/>
+      <c r="C1958" s="32"/>
+      <c r="D1958" s="32"/>
       <c r="E1958" s="9"/>
-      <c r="F1958" s="31"/>
+      <c r="F1958" s="33"/>
       <c r="G1958" s="11"/>
       <c r="H1958" s="11"/>
       <c r="I1958" s="29"/>
@@ -78232,10 +78243,10 @@
     <row r="1959" ht="14.25" customHeight="1">
       <c r="A1959" s="11"/>
       <c r="B1959" s="9"/>
-      <c r="C1959" s="30"/>
-      <c r="D1959" s="30"/>
+      <c r="C1959" s="32"/>
+      <c r="D1959" s="32"/>
       <c r="E1959" s="9"/>
-      <c r="F1959" s="31"/>
+      <c r="F1959" s="33"/>
       <c r="G1959" s="11"/>
       <c r="H1959" s="11"/>
       <c r="I1959" s="29"/>
@@ -78258,10 +78269,10 @@
     <row r="1960" ht="14.25" customHeight="1">
       <c r="A1960" s="11"/>
       <c r="B1960" s="9"/>
-      <c r="C1960" s="30"/>
-      <c r="D1960" s="30"/>
+      <c r="C1960" s="32"/>
+      <c r="D1960" s="32"/>
       <c r="E1960" s="9"/>
-      <c r="F1960" s="31"/>
+      <c r="F1960" s="33"/>
       <c r="G1960" s="11"/>
       <c r="H1960" s="11"/>
       <c r="I1960" s="29"/>
@@ -78284,10 +78295,10 @@
     <row r="1961" ht="14.25" customHeight="1">
       <c r="A1961" s="11"/>
       <c r="B1961" s="9"/>
-      <c r="C1961" s="30"/>
-      <c r="D1961" s="30"/>
+      <c r="C1961" s="32"/>
+      <c r="D1961" s="32"/>
       <c r="E1961" s="9"/>
-      <c r="F1961" s="31"/>
+      <c r="F1961" s="33"/>
       <c r="G1961" s="11"/>
       <c r="H1961" s="11"/>
       <c r="I1961" s="29"/>
@@ -78310,10 +78321,10 @@
     <row r="1962" ht="14.25" customHeight="1">
       <c r="A1962" s="11"/>
       <c r="B1962" s="9"/>
-      <c r="C1962" s="30"/>
-      <c r="D1962" s="30"/>
+      <c r="C1962" s="32"/>
+      <c r="D1962" s="32"/>
       <c r="E1962" s="9"/>
-      <c r="F1962" s="31"/>
+      <c r="F1962" s="33"/>
       <c r="G1962" s="11"/>
       <c r="H1962" s="11"/>
       <c r="I1962" s="29"/>
@@ -78336,10 +78347,10 @@
     <row r="1963" ht="14.25" customHeight="1">
       <c r="A1963" s="11"/>
       <c r="B1963" s="9"/>
-      <c r="C1963" s="30"/>
-      <c r="D1963" s="30"/>
+      <c r="C1963" s="32"/>
+      <c r="D1963" s="32"/>
       <c r="E1963" s="9"/>
-      <c r="F1963" s="31"/>
+      <c r="F1963" s="33"/>
       <c r="G1963" s="11"/>
       <c r="H1963" s="11"/>
       <c r="I1963" s="29"/>
@@ -78362,10 +78373,10 @@
     <row r="1964" ht="14.25" customHeight="1">
       <c r="A1964" s="11"/>
       <c r="B1964" s="9"/>
-      <c r="C1964" s="30"/>
-      <c r="D1964" s="30"/>
+      <c r="C1964" s="32"/>
+      <c r="D1964" s="32"/>
       <c r="E1964" s="9"/>
-      <c r="F1964" s="31"/>
+      <c r="F1964" s="33"/>
       <c r="G1964" s="11"/>
       <c r="H1964" s="11"/>
       <c r="I1964" s="29"/>
@@ -78388,10 +78399,10 @@
     <row r="1965" ht="14.25" customHeight="1">
       <c r="A1965" s="11"/>
       <c r="B1965" s="9"/>
-      <c r="C1965" s="30"/>
-      <c r="D1965" s="30"/>
+      <c r="C1965" s="32"/>
+      <c r="D1965" s="32"/>
       <c r="E1965" s="9"/>
-      <c r="F1965" s="31"/>
+      <c r="F1965" s="33"/>
       <c r="G1965" s="11"/>
       <c r="H1965" s="11"/>
       <c r="I1965" s="29"/>
@@ -78414,10 +78425,10 @@
     <row r="1966" ht="14.25" customHeight="1">
       <c r="A1966" s="11"/>
       <c r="B1966" s="9"/>
-      <c r="C1966" s="30"/>
-      <c r="D1966" s="30"/>
+      <c r="C1966" s="32"/>
+      <c r="D1966" s="32"/>
       <c r="E1966" s="9"/>
-      <c r="F1966" s="31"/>
+      <c r="F1966" s="33"/>
       <c r="G1966" s="11"/>
       <c r="H1966" s="11"/>
       <c r="I1966" s="29"/>
@@ -78440,10 +78451,10 @@
     <row r="1967" ht="14.25" customHeight="1">
       <c r="A1967" s="11"/>
       <c r="B1967" s="9"/>
-      <c r="C1967" s="30"/>
-      <c r="D1967" s="30"/>
+      <c r="C1967" s="32"/>
+      <c r="D1967" s="32"/>
       <c r="E1967" s="9"/>
-      <c r="F1967" s="31"/>
+      <c r="F1967" s="33"/>
       <c r="G1967" s="11"/>
       <c r="H1967" s="11"/>
       <c r="I1967" s="29"/>
@@ -78466,10 +78477,10 @@
     <row r="1968" ht="14.25" customHeight="1">
       <c r="A1968" s="11"/>
       <c r="B1968" s="9"/>
-      <c r="C1968" s="30"/>
-      <c r="D1968" s="30"/>
+      <c r="C1968" s="32"/>
+      <c r="D1968" s="32"/>
       <c r="E1968" s="9"/>
-      <c r="F1968" s="31"/>
+      <c r="F1968" s="33"/>
       <c r="G1968" s="11"/>
       <c r="H1968" s="11"/>
       <c r="I1968" s="29"/>
@@ -78492,10 +78503,10 @@
     <row r="1969" ht="14.25" customHeight="1">
       <c r="A1969" s="11"/>
       <c r="B1969" s="9"/>
-      <c r="C1969" s="30"/>
-      <c r="D1969" s="30"/>
+      <c r="C1969" s="32"/>
+      <c r="D1969" s="32"/>
       <c r="E1969" s="9"/>
-      <c r="F1969" s="31"/>
+      <c r="F1969" s="33"/>
       <c r="G1969" s="11"/>
       <c r="H1969" s="11"/>
       <c r="I1969" s="29"/>
@@ -78518,10 +78529,10 @@
     <row r="1970" ht="14.25" customHeight="1">
       <c r="A1970" s="11"/>
       <c r="B1970" s="9"/>
-      <c r="C1970" s="30"/>
-      <c r="D1970" s="30"/>
+      <c r="C1970" s="32"/>
+      <c r="D1970" s="32"/>
       <c r="E1970" s="9"/>
-      <c r="F1970" s="31"/>
+      <c r="F1970" s="33"/>
       <c r="G1970" s="11"/>
       <c r="H1970" s="11"/>
       <c r="I1970" s="29"/>
@@ -78544,10 +78555,10 @@
     <row r="1971" ht="14.25" customHeight="1">
       <c r="A1971" s="11"/>
       <c r="B1971" s="9"/>
-      <c r="C1971" s="30"/>
-      <c r="D1971" s="30"/>
+      <c r="C1971" s="32"/>
+      <c r="D1971" s="32"/>
       <c r="E1971" s="9"/>
-      <c r="F1971" s="31"/>
+      <c r="F1971" s="33"/>
       <c r="G1971" s="11"/>
       <c r="H1971" s="11"/>
       <c r="I1971" s="29"/>
@@ -78570,10 +78581,10 @@
     <row r="1972" ht="14.25" customHeight="1">
       <c r="A1972" s="11"/>
       <c r="B1972" s="9"/>
-      <c r="C1972" s="30"/>
-      <c r="D1972" s="30"/>
+      <c r="C1972" s="32"/>
+      <c r="D1972" s="32"/>
       <c r="E1972" s="9"/>
-      <c r="F1972" s="31"/>
+      <c r="F1972" s="33"/>
       <c r="G1972" s="11"/>
       <c r="H1972" s="11"/>
       <c r="I1972" s="29"/>
@@ -78596,10 +78607,10 @@
     <row r="1973" ht="14.25" customHeight="1">
       <c r="A1973" s="11"/>
       <c r="B1973" s="9"/>
-      <c r="C1973" s="30"/>
-      <c r="D1973" s="30"/>
+      <c r="C1973" s="32"/>
+      <c r="D1973" s="32"/>
       <c r="E1973" s="9"/>
-      <c r="F1973" s="31"/>
+      <c r="F1973" s="33"/>
       <c r="G1973" s="11"/>
       <c r="H1973" s="11"/>
       <c r="I1973" s="29"/>
@@ -78622,10 +78633,10 @@
     <row r="1974" ht="14.25" customHeight="1">
       <c r="A1974" s="11"/>
       <c r="B1974" s="9"/>
-      <c r="C1974" s="30"/>
-      <c r="D1974" s="30"/>
+      <c r="C1974" s="32"/>
+      <c r="D1974" s="32"/>
       <c r="E1974" s="9"/>
-      <c r="F1974" s="31"/>
+      <c r="F1974" s="33"/>
       <c r="G1974" s="11"/>
       <c r="H1974" s="11"/>
       <c r="I1974" s="29"/>
@@ -78648,10 +78659,10 @@
     <row r="1975" ht="14.25" customHeight="1">
       <c r="A1975" s="11"/>
       <c r="B1975" s="9"/>
-      <c r="C1975" s="30"/>
-      <c r="D1975" s="30"/>
+      <c r="C1975" s="32"/>
+      <c r="D1975" s="32"/>
       <c r="E1975" s="9"/>
-      <c r="F1975" s="31"/>
+      <c r="F1975" s="33"/>
       <c r="G1975" s="11"/>
       <c r="H1975" s="11"/>
       <c r="I1975" s="29"/>
@@ -78674,10 +78685,10 @@
     <row r="1976" ht="14.25" customHeight="1">
       <c r="A1976" s="11"/>
       <c r="B1976" s="9"/>
-      <c r="C1976" s="30"/>
-      <c r="D1976" s="30"/>
+      <c r="C1976" s="32"/>
+      <c r="D1976" s="32"/>
       <c r="E1976" s="9"/>
-      <c r="F1976" s="31"/>
+      <c r="F1976" s="33"/>
       <c r="G1976" s="11"/>
       <c r="H1976" s="11"/>
       <c r="I1976" s="29"/>
@@ -78700,10 +78711,10 @@
     <row r="1977" ht="14.25" customHeight="1">
       <c r="A1977" s="11"/>
       <c r="B1977" s="9"/>
-      <c r="C1977" s="30"/>
-      <c r="D1977" s="30"/>
+      <c r="C1977" s="32"/>
+      <c r="D1977" s="32"/>
       <c r="E1977" s="9"/>
-      <c r="F1977" s="31"/>
+      <c r="F1977" s="33"/>
       <c r="G1977" s="11"/>
       <c r="H1977" s="11"/>
       <c r="I1977" s="29"/>
@@ -78726,10 +78737,10 @@
     <row r="1978" ht="14.25" customHeight="1">
       <c r="A1978" s="11"/>
       <c r="B1978" s="9"/>
-      <c r="C1978" s="30"/>
-      <c r="D1978" s="30"/>
+      <c r="C1978" s="32"/>
+      <c r="D1978" s="32"/>
       <c r="E1978" s="9"/>
-      <c r="F1978" s="31"/>
+      <c r="F1978" s="33"/>
       <c r="G1978" s="11"/>
       <c r="H1978" s="11"/>
       <c r="I1978" s="29"/>
@@ -78752,10 +78763,10 @@
     <row r="1979" ht="14.25" customHeight="1">
       <c r="A1979" s="11"/>
       <c r="B1979" s="9"/>
-      <c r="C1979" s="30"/>
-      <c r="D1979" s="30"/>
+      <c r="C1979" s="32"/>
+      <c r="D1979" s="32"/>
       <c r="E1979" s="9"/>
-      <c r="F1979" s="31"/>
+      <c r="F1979" s="33"/>
       <c r="G1979" s="11"/>
       <c r="H1979" s="11"/>
       <c r="I1979" s="29"/>
@@ -78778,10 +78789,10 @@
     <row r="1980" ht="14.25" customHeight="1">
       <c r="A1980" s="11"/>
       <c r="B1980" s="9"/>
-      <c r="C1980" s="30"/>
-      <c r="D1980" s="30"/>
+      <c r="C1980" s="32"/>
+      <c r="D1980" s="32"/>
       <c r="E1980" s="9"/>
-      <c r="F1980" s="31"/>
+      <c r="F1980" s="33"/>
       <c r="G1980" s="11"/>
       <c r="H1980" s="11"/>
       <c r="I1980" s="29"/>
@@ -78804,10 +78815,10 @@
     <row r="1981" ht="14.25" customHeight="1">
       <c r="A1981" s="11"/>
       <c r="B1981" s="9"/>
-      <c r="C1981" s="30"/>
-      <c r="D1981" s="30"/>
+      <c r="C1981" s="32"/>
+      <c r="D1981" s="32"/>
       <c r="E1981" s="9"/>
-      <c r="F1981" s="31"/>
+      <c r="F1981" s="33"/>
       <c r="G1981" s="11"/>
       <c r="H1981" s="11"/>
       <c r="I1981" s="29"/>
@@ -78830,10 +78841,10 @@
     <row r="1982" ht="14.25" customHeight="1">
       <c r="A1982" s="11"/>
       <c r="B1982" s="9"/>
-      <c r="C1982" s="30"/>
-      <c r="D1982" s="30"/>
+      <c r="C1982" s="32"/>
+      <c r="D1982" s="32"/>
       <c r="E1982" s="9"/>
-      <c r="F1982" s="31"/>
+      <c r="F1982" s="33"/>
       <c r="G1982" s="11"/>
       <c r="H1982" s="11"/>
       <c r="I1982" s="29"/>
@@ -78856,10 +78867,10 @@
     <row r="1983" ht="14.25" customHeight="1">
       <c r="A1983" s="11"/>
       <c r="B1983" s="9"/>
-      <c r="C1983" s="30"/>
-      <c r="D1983" s="30"/>
+      <c r="C1983" s="32"/>
+      <c r="D1983" s="32"/>
       <c r="E1983" s="9"/>
-      <c r="F1983" s="31"/>
+      <c r="F1983" s="33"/>
       <c r="G1983" s="11"/>
       <c r="H1983" s="11"/>
       <c r="I1983" s="29"/>
@@ -78882,10 +78893,10 @@
     <row r="1984" ht="14.25" customHeight="1">
       <c r="A1984" s="11"/>
       <c r="B1984" s="9"/>
-      <c r="C1984" s="30"/>
-      <c r="D1984" s="30"/>
+      <c r="C1984" s="32"/>
+      <c r="D1984" s="32"/>
       <c r="E1984" s="9"/>
-      <c r="F1984" s="31"/>
+      <c r="F1984" s="33"/>
       <c r="G1984" s="11"/>
       <c r="H1984" s="11"/>
       <c r="I1984" s="29"/>
@@ -78908,10 +78919,10 @@
     <row r="1985" ht="14.25" customHeight="1">
       <c r="A1985" s="11"/>
       <c r="B1985" s="9"/>
-      <c r="C1985" s="30"/>
-      <c r="D1985" s="30"/>
+      <c r="C1985" s="32"/>
+      <c r="D1985" s="32"/>
       <c r="E1985" s="9"/>
-      <c r="F1985" s="31"/>
+      <c r="F1985" s="33"/>
       <c r="G1985" s="11"/>
       <c r="H1985" s="11"/>
       <c r="I1985" s="29"/>
@@ -78934,10 +78945,10 @@
     <row r="1986" ht="14.25" customHeight="1">
       <c r="A1986" s="11"/>
       <c r="B1986" s="9"/>
-      <c r="C1986" s="30"/>
-      <c r="D1986" s="30"/>
+      <c r="C1986" s="32"/>
+      <c r="D1986" s="32"/>
       <c r="E1986" s="9"/>
-      <c r="F1986" s="31"/>
+      <c r="F1986" s="33"/>
       <c r="G1986" s="11"/>
       <c r="H1986" s="11"/>
       <c r="I1986" s="29"/>
@@ -78960,10 +78971,10 @@
     <row r="1987" ht="14.25" customHeight="1">
       <c r="A1987" s="11"/>
       <c r="B1987" s="9"/>
-      <c r="C1987" s="30"/>
-      <c r="D1987" s="30"/>
+      <c r="C1987" s="32"/>
+      <c r="D1987" s="32"/>
       <c r="E1987" s="9"/>
-      <c r="F1987" s="31"/>
+      <c r="F1987" s="33"/>
       <c r="G1987" s="11"/>
       <c r="H1987" s="11"/>
       <c r="I1987" s="29"/>
@@ -78986,10 +78997,10 @@
     <row r="1988" ht="14.25" customHeight="1">
       <c r="A1988" s="11"/>
       <c r="B1988" s="9"/>
-      <c r="C1988" s="30"/>
-      <c r="D1988" s="30"/>
+      <c r="C1988" s="32"/>
+      <c r="D1988" s="32"/>
       <c r="E1988" s="9"/>
-      <c r="F1988" s="31"/>
+      <c r="F1988" s="33"/>
       <c r="G1988" s="11"/>
       <c r="H1988" s="11"/>
       <c r="I1988" s="29"/>
@@ -79012,10 +79023,10 @@
     <row r="1989" ht="14.25" customHeight="1">
       <c r="A1989" s="11"/>
       <c r="B1989" s="9"/>
-      <c r="C1989" s="30"/>
-      <c r="D1989" s="30"/>
+      <c r="C1989" s="32"/>
+      <c r="D1989" s="32"/>
       <c r="E1989" s="9"/>
-      <c r="F1989" s="31"/>
+      <c r="F1989" s="33"/>
       <c r="G1989" s="11"/>
       <c r="H1989" s="11"/>
       <c r="I1989" s="29"/>
@@ -79038,10 +79049,10 @@
     <row r="1990" ht="14.25" customHeight="1">
       <c r="A1990" s="11"/>
       <c r="B1990" s="9"/>
-      <c r="C1990" s="30"/>
-      <c r="D1990" s="30"/>
+      <c r="C1990" s="32"/>
+      <c r="D1990" s="32"/>
       <c r="E1990" s="9"/>
-      <c r="F1990" s="31"/>
+      <c r="F1990" s="33"/>
       <c r="G1990" s="11"/>
       <c r="H1990" s="11"/>
       <c r="I1990" s="29"/>
@@ -79064,10 +79075,10 @@
     <row r="1991" ht="14.25" customHeight="1">
       <c r="A1991" s="11"/>
       <c r="B1991" s="9"/>
-      <c r="C1991" s="30"/>
-      <c r="D1991" s="30"/>
+      <c r="C1991" s="32"/>
+      <c r="D1991" s="32"/>
       <c r="E1991" s="9"/>
-      <c r="F1991" s="31"/>
+      <c r="F1991" s="33"/>
       <c r="G1991" s="11"/>
       <c r="H1991" s="11"/>
       <c r="I1991" s="29"/>
@@ -79090,10 +79101,10 @@
     <row r="1992" ht="14.25" customHeight="1">
       <c r="A1992" s="11"/>
       <c r="B1992" s="9"/>
-      <c r="C1992" s="30"/>
-      <c r="D1992" s="30"/>
+      <c r="C1992" s="32"/>
+      <c r="D1992" s="32"/>
       <c r="E1992" s="9"/>
-      <c r="F1992" s="31"/>
+      <c r="F1992" s="33"/>
       <c r="G1992" s="11"/>
       <c r="H1992" s="11"/>
       <c r="I1992" s="29"/>
@@ -79116,10 +79127,10 @@
     <row r="1993" ht="14.25" customHeight="1">
       <c r="A1993" s="11"/>
       <c r="B1993" s="9"/>
-      <c r="C1993" s="30"/>
-      <c r="D1993" s="30"/>
+      <c r="C1993" s="32"/>
+      <c r="D1993" s="32"/>
       <c r="E1993" s="9"/>
-      <c r="F1993" s="31"/>
+      <c r="F1993" s="33"/>
       <c r="G1993" s="11"/>
       <c r="H1993" s="11"/>
       <c r="I1993" s="29"/>
@@ -79142,10 +79153,10 @@
     <row r="1994" ht="14.25" customHeight="1">
       <c r="A1994" s="11"/>
       <c r="B1994" s="9"/>
-      <c r="C1994" s="30"/>
-      <c r="D1994" s="30"/>
+      <c r="C1994" s="32"/>
+      <c r="D1994" s="32"/>
       <c r="E1994" s="9"/>
-      <c r="F1994" s="31"/>
+      <c r="F1994" s="33"/>
       <c r="G1994" s="11"/>
       <c r="H1994" s="11"/>
       <c r="I1994" s="29"/>
@@ -79168,10 +79179,10 @@
     <row r="1995" ht="14.25" customHeight="1">
       <c r="A1995" s="11"/>
       <c r="B1995" s="9"/>
-      <c r="C1995" s="30"/>
-      <c r="D1995" s="30"/>
+      <c r="C1995" s="32"/>
+      <c r="D1995" s="32"/>
       <c r="E1995" s="9"/>
-      <c r="F1995" s="31"/>
+      <c r="F1995" s="33"/>
       <c r="G1995" s="11"/>
       <c r="H1995" s="11"/>
       <c r="I1995" s="29"/>
@@ -79194,10 +79205,10 @@
     <row r="1996" ht="14.25" customHeight="1">
       <c r="A1996" s="11"/>
       <c r="B1996" s="9"/>
-      <c r="C1996" s="30"/>
-      <c r="D1996" s="30"/>
+      <c r="C1996" s="32"/>
+      <c r="D1996" s="32"/>
       <c r="E1996" s="9"/>
-      <c r="F1996" s="31"/>
+      <c r="F1996" s="33"/>
       <c r="G1996" s="11"/>
       <c r="H1996" s="11"/>
       <c r="I1996" s="29"/>
@@ -79220,10 +79231,10 @@
     <row r="1997" ht="14.25" customHeight="1">
       <c r="A1997" s="11"/>
       <c r="B1997" s="9"/>
-      <c r="C1997" s="30"/>
-      <c r="D1997" s="30"/>
+      <c r="C1997" s="32"/>
+      <c r="D1997" s="32"/>
       <c r="E1997" s="9"/>
-      <c r="F1997" s="31"/>
+      <c r="F1997" s="33"/>
       <c r="G1997" s="11"/>
       <c r="H1997" s="11"/>
       <c r="I1997" s="29"/>
@@ -79246,10 +79257,10 @@
     <row r="1998" ht="14.25" customHeight="1">
       <c r="A1998" s="11"/>
       <c r="B1998" s="9"/>
-      <c r="C1998" s="30"/>
-      <c r="D1998" s="30"/>
+      <c r="C1998" s="32"/>
+      <c r="D1998" s="32"/>
       <c r="E1998" s="9"/>
-      <c r="F1998" s="31"/>
+      <c r="F1998" s="33"/>
       <c r="G1998" s="11"/>
       <c r="H1998" s="11"/>
       <c r="I1998" s="29"/>
@@ -79272,10 +79283,10 @@
     <row r="1999" ht="14.25" customHeight="1">
       <c r="A1999" s="11"/>
       <c r="B1999" s="9"/>
-      <c r="C1999" s="30"/>
-      <c r="D1999" s="30"/>
+      <c r="C1999" s="32"/>
+      <c r="D1999" s="32"/>
       <c r="E1999" s="9"/>
-      <c r="F1999" s="31"/>
+      <c r="F1999" s="33"/>
       <c r="G1999" s="11"/>
       <c r="H1999" s="11"/>
       <c r="I1999" s="29"/>
@@ -79298,10 +79309,10 @@
     <row r="2000" ht="14.25" customHeight="1">
       <c r="A2000" s="11"/>
       <c r="B2000" s="9"/>
-      <c r="C2000" s="30"/>
-      <c r="D2000" s="30"/>
+      <c r="C2000" s="32"/>
+      <c r="D2000" s="32"/>
       <c r="E2000" s="9"/>
-      <c r="F2000" s="31"/>
+      <c r="F2000" s="33"/>
       <c r="G2000" s="11"/>
       <c r="H2000" s="11"/>
       <c r="I2000" s="29"/>
@@ -79324,10 +79335,10 @@
     <row r="2001" ht="14.25" customHeight="1">
       <c r="A2001" s="11"/>
       <c r="B2001" s="9"/>
-      <c r="C2001" s="30"/>
-      <c r="D2001" s="30"/>
+      <c r="C2001" s="32"/>
+      <c r="D2001" s="32"/>
       <c r="E2001" s="9"/>
-      <c r="F2001" s="31"/>
+      <c r="F2001" s="33"/>
       <c r="G2001" s="11"/>
       <c r="H2001" s="11"/>
       <c r="I2001" s="29"/>
@@ -79350,10 +79361,10 @@
     <row r="2002" ht="14.25" customHeight="1">
       <c r="A2002" s="11"/>
       <c r="B2002" s="9"/>
-      <c r="C2002" s="30"/>
-      <c r="D2002" s="30"/>
+      <c r="C2002" s="32"/>
+      <c r="D2002" s="32"/>
       <c r="E2002" s="9"/>
-      <c r="F2002" s="31"/>
+      <c r="F2002" s="33"/>
       <c r="G2002" s="11"/>
       <c r="H2002" s="11"/>
       <c r="I2002" s="29"/>
@@ -79376,10 +79387,10 @@
     <row r="2003" ht="14.25" customHeight="1">
       <c r="A2003" s="11"/>
       <c r="B2003" s="9"/>
-      <c r="C2003" s="30"/>
-      <c r="D2003" s="30"/>
+      <c r="C2003" s="32"/>
+      <c r="D2003" s="32"/>
       <c r="E2003" s="9"/>
-      <c r="F2003" s="31"/>
+      <c r="F2003" s="33"/>
       <c r="G2003" s="11"/>
       <c r="H2003" s="11"/>
       <c r="I2003" s="29"/>
@@ -79402,10 +79413,10 @@
     <row r="2004" ht="14.25" customHeight="1">
       <c r="A2004" s="11"/>
       <c r="B2004" s="9"/>
-      <c r="C2004" s="30"/>
-      <c r="D2004" s="30"/>
+      <c r="C2004" s="32"/>
+      <c r="D2004" s="32"/>
       <c r="E2004" s="9"/>
-      <c r="F2004" s="31"/>
+      <c r="F2004" s="33"/>
       <c r="G2004" s="11"/>
       <c r="H2004" s="11"/>
       <c r="I2004" s="29"/>
@@ -79428,10 +79439,10 @@
     <row r="2005" ht="14.25" customHeight="1">
       <c r="A2005" s="11"/>
       <c r="B2005" s="9"/>
-      <c r="C2005" s="30"/>
-      <c r="D2005" s="30"/>
+      <c r="C2005" s="32"/>
+      <c r="D2005" s="32"/>
       <c r="E2005" s="9"/>
-      <c r="F2005" s="31"/>
+      <c r="F2005" s="33"/>
       <c r="G2005" s="11"/>
       <c r="H2005" s="11"/>
       <c r="I2005" s="29"/>
@@ -79454,10 +79465,10 @@
     <row r="2006" ht="14.25" customHeight="1">
       <c r="A2006" s="11"/>
       <c r="B2006" s="9"/>
-      <c r="C2006" s="30"/>
-      <c r="D2006" s="30"/>
+      <c r="C2006" s="32"/>
+      <c r="D2006" s="32"/>
       <c r="E2006" s="9"/>
-      <c r="F2006" s="31"/>
+      <c r="F2006" s="33"/>
       <c r="G2006" s="11"/>
       <c r="H2006" s="11"/>
       <c r="I2006" s="29"/>
@@ -79480,10 +79491,10 @@
     <row r="2007" ht="14.25" customHeight="1">
       <c r="A2007" s="11"/>
       <c r="B2007" s="9"/>
-      <c r="C2007" s="30"/>
-      <c r="D2007" s="30"/>
+      <c r="C2007" s="32"/>
+      <c r="D2007" s="32"/>
       <c r="E2007" s="9"/>
-      <c r="F2007" s="31"/>
+      <c r="F2007" s="33"/>
       <c r="G2007" s="11"/>
       <c r="H2007" s="11"/>
       <c r="I2007" s="29"/>
@@ -79506,10 +79517,10 @@
     <row r="2008" ht="14.25" customHeight="1">
       <c r="A2008" s="11"/>
       <c r="B2008" s="9"/>
-      <c r="C2008" s="30"/>
-      <c r="D2008" s="30"/>
+      <c r="C2008" s="32"/>
+      <c r="D2008" s="32"/>
       <c r="E2008" s="9"/>
-      <c r="F2008" s="31"/>
+      <c r="F2008" s="33"/>
       <c r="G2008" s="11"/>
       <c r="H2008" s="11"/>
       <c r="I2008" s="29"/>
@@ -79532,10 +79543,10 @@
     <row r="2009" ht="14.25" customHeight="1">
       <c r="A2009" s="11"/>
       <c r="B2009" s="9"/>
-      <c r="C2009" s="30"/>
-      <c r="D2009" s="30"/>
+      <c r="C2009" s="32"/>
+      <c r="D2009" s="32"/>
       <c r="E2009" s="9"/>
-      <c r="F2009" s="31"/>
+      <c r="F2009" s="33"/>
       <c r="G2009" s="11"/>
       <c r="H2009" s="11"/>
       <c r="I2009" s="29"/>
@@ -79558,10 +79569,10 @@
     <row r="2010" ht="14.25" customHeight="1">
       <c r="A2010" s="11"/>
       <c r="B2010" s="9"/>
-      <c r="C2010" s="30"/>
-      <c r="D2010" s="30"/>
+      <c r="C2010" s="32"/>
+      <c r="D2010" s="32"/>
       <c r="E2010" s="9"/>
-      <c r="F2010" s="31"/>
+      <c r="F2010" s="33"/>
       <c r="G2010" s="11"/>
       <c r="H2010" s="11"/>
       <c r="I2010" s="29"/>
@@ -79584,10 +79595,10 @@
     <row r="2011" ht="14.25" customHeight="1">
       <c r="A2011" s="11"/>
       <c r="B2011" s="9"/>
-      <c r="C2011" s="30"/>
-      <c r="D2011" s="30"/>
+      <c r="C2011" s="32"/>
+      <c r="D2011" s="32"/>
       <c r="E2011" s="9"/>
-      <c r="F2011" s="31"/>
+      <c r="F2011" s="33"/>
       <c r="G2011" s="11"/>
       <c r="H2011" s="11"/>
       <c r="I2011" s="29"/>
@@ -79610,10 +79621,10 @@
     <row r="2012" ht="14.25" customHeight="1">
       <c r="A2012" s="11"/>
       <c r="B2012" s="9"/>
-      <c r="C2012" s="30"/>
-      <c r="D2012" s="30"/>
+      <c r="C2012" s="32"/>
+      <c r="D2012" s="32"/>
       <c r="E2012" s="9"/>
-      <c r="F2012" s="31"/>
+      <c r="F2012" s="33"/>
       <c r="G2012" s="11"/>
       <c r="H2012" s="11"/>
       <c r="I2012" s="29"/>
@@ -79636,10 +79647,10 @@
     <row r="2013" ht="14.25" customHeight="1">
       <c r="A2013" s="11"/>
       <c r="B2013" s="9"/>
-      <c r="C2013" s="30"/>
-      <c r="D2013" s="30"/>
+      <c r="C2013" s="32"/>
+      <c r="D2013" s="32"/>
       <c r="E2013" s="9"/>
-      <c r="F2013" s="31"/>
+      <c r="F2013" s="33"/>
       <c r="G2013" s="11"/>
       <c r="H2013" s="11"/>
       <c r="I2013" s="29"/>
@@ -79662,10 +79673,10 @@
     <row r="2014" ht="14.25" customHeight="1">
       <c r="A2014" s="11"/>
       <c r="B2014" s="9"/>
-      <c r="C2014" s="30"/>
-      <c r="D2014" s="30"/>
+      <c r="C2014" s="32"/>
+      <c r="D2014" s="32"/>
       <c r="E2014" s="9"/>
-      <c r="F2014" s="31"/>
+      <c r="F2014" s="33"/>
       <c r="G2014" s="11"/>
       <c r="H2014" s="11"/>
       <c r="I2014" s="29"/>
@@ -79688,10 +79699,10 @@
     <row r="2015" ht="14.25" customHeight="1">
       <c r="A2015" s="11"/>
       <c r="B2015" s="9"/>
-      <c r="C2015" s="30"/>
-      <c r="D2015" s="30"/>
+      <c r="C2015" s="32"/>
+      <c r="D2015" s="32"/>
       <c r="E2015" s="9"/>
-      <c r="F2015" s="31"/>
+      <c r="F2015" s="33"/>
       <c r="G2015" s="11"/>
       <c r="H2015" s="11"/>
       <c r="I2015" s="29"/>
@@ -79714,10 +79725,10 @@
     <row r="2016" ht="14.25" customHeight="1">
       <c r="A2016" s="11"/>
       <c r="B2016" s="9"/>
-      <c r="C2016" s="30"/>
-      <c r="D2016" s="30"/>
+      <c r="C2016" s="32"/>
+      <c r="D2016" s="32"/>
       <c r="E2016" s="9"/>
-      <c r="F2016" s="31"/>
+      <c r="F2016" s="33"/>
       <c r="G2016" s="11"/>
       <c r="H2016" s="11"/>
       <c r="I2016" s="29"/>
@@ -79740,10 +79751,10 @@
     <row r="2017" ht="14.25" customHeight="1">
       <c r="A2017" s="11"/>
       <c r="B2017" s="9"/>
-      <c r="C2017" s="30"/>
-      <c r="D2017" s="30"/>
+      <c r="C2017" s="32"/>
+      <c r="D2017" s="32"/>
       <c r="E2017" s="9"/>
-      <c r="F2017" s="31"/>
+      <c r="F2017" s="33"/>
       <c r="G2017" s="11"/>
       <c r="H2017" s="11"/>
       <c r="I2017" s="29"/>
@@ -79766,10 +79777,10 @@
     <row r="2018" ht="14.25" customHeight="1">
       <c r="A2018" s="11"/>
       <c r="B2018" s="9"/>
-      <c r="C2018" s="30"/>
-      <c r="D2018" s="30"/>
+      <c r="C2018" s="32"/>
+      <c r="D2018" s="32"/>
       <c r="E2018" s="9"/>
-      <c r="F2018" s="31"/>
+      <c r="F2018" s="33"/>
       <c r="G2018" s="11"/>
       <c r="H2018" s="11"/>
       <c r="I2018" s="29"/>
@@ -79792,10 +79803,10 @@
     <row r="2019" ht="14.25" customHeight="1">
       <c r="A2019" s="11"/>
       <c r="B2019" s="9"/>
-      <c r="C2019" s="30"/>
-      <c r="D2019" s="30"/>
+      <c r="C2019" s="32"/>
+      <c r="D2019" s="32"/>
       <c r="E2019" s="9"/>
-      <c r="F2019" s="31"/>
+      <c r="F2019" s="33"/>
       <c r="G2019" s="11"/>
       <c r="H2019" s="11"/>
       <c r="I2019" s="29"/>
@@ -79818,10 +79829,10 @@
     <row r="2020" ht="14.25" customHeight="1">
       <c r="A2020" s="11"/>
       <c r="B2020" s="9"/>
-      <c r="C2020" s="30"/>
-      <c r="D2020" s="30"/>
+      <c r="C2020" s="32"/>
+      <c r="D2020" s="32"/>
       <c r="E2020" s="9"/>
-      <c r="F2020" s="31"/>
+      <c r="F2020" s="33"/>
       <c r="G2020" s="11"/>
       <c r="H2020" s="11"/>
       <c r="I2020" s="29"/>
@@ -79844,10 +79855,10 @@
     <row r="2021" ht="14.25" customHeight="1">
       <c r="A2021" s="11"/>
       <c r="B2021" s="9"/>
-      <c r="C2021" s="30"/>
-      <c r="D2021" s="30"/>
+      <c r="C2021" s="32"/>
+      <c r="D2021" s="32"/>
       <c r="E2021" s="9"/>
-      <c r="F2021" s="31"/>
+      <c r="F2021" s="33"/>
       <c r="G2021" s="11"/>
       <c r="H2021" s="11"/>
       <c r="I2021" s="29"/>
@@ -79870,10 +79881,10 @@
     <row r="2022" ht="14.25" customHeight="1">
       <c r="A2022" s="11"/>
       <c r="B2022" s="9"/>
-      <c r="C2022" s="30"/>
-      <c r="D2022" s="30"/>
+      <c r="C2022" s="32"/>
+      <c r="D2022" s="32"/>
       <c r="E2022" s="9"/>
-      <c r="F2022" s="31"/>
+      <c r="F2022" s="33"/>
       <c r="G2022" s="11"/>
       <c r="H2022" s="11"/>
       <c r="I2022" s="29"/>
@@ -79896,10 +79907,10 @@
     <row r="2023" ht="14.25" customHeight="1">
       <c r="A2023" s="11"/>
       <c r="B2023" s="9"/>
-      <c r="C2023" s="30"/>
-      <c r="D2023" s="30"/>
+      <c r="C2023" s="32"/>
+      <c r="D2023" s="32"/>
       <c r="E2023" s="9"/>
-      <c r="F2023" s="31"/>
+      <c r="F2023" s="33"/>
       <c r="G2023" s="11"/>
       <c r="H2023" s="11"/>
       <c r="I2023" s="29"/>
@@ -79922,10 +79933,10 @@
     <row r="2024" ht="14.25" customHeight="1">
       <c r="A2024" s="11"/>
       <c r="B2024" s="9"/>
-      <c r="C2024" s="30"/>
-      <c r="D2024" s="30"/>
+      <c r="C2024" s="32"/>
+      <c r="D2024" s="32"/>
       <c r="E2024" s="9"/>
-      <c r="F2024" s="31"/>
+      <c r="F2024" s="33"/>
       <c r="G2024" s="11"/>
       <c r="H2024" s="11"/>
       <c r="I2024" s="29"/>
@@ -79948,10 +79959,10 @@
     <row r="2025" ht="14.25" customHeight="1">
       <c r="A2025" s="11"/>
       <c r="B2025" s="9"/>
-      <c r="C2025" s="30"/>
-      <c r="D2025" s="30"/>
+      <c r="C2025" s="32"/>
+      <c r="D2025" s="32"/>
       <c r="E2025" s="9"/>
-      <c r="F2025" s="31"/>
+      <c r="F2025" s="33"/>
       <c r="G2025" s="11"/>
       <c r="H2025" s="11"/>
       <c r="I2025" s="29"/>
@@ -79974,10 +79985,10 @@
     <row r="2026" ht="14.25" customHeight="1">
       <c r="A2026" s="11"/>
       <c r="B2026" s="9"/>
-      <c r="C2026" s="30"/>
-      <c r="D2026" s="30"/>
+      <c r="C2026" s="32"/>
+      <c r="D2026" s="32"/>
       <c r="E2026" s="9"/>
-      <c r="F2026" s="31"/>
+      <c r="F2026" s="33"/>
       <c r="G2026" s="11"/>
       <c r="H2026" s="11"/>
       <c r="I2026" s="29"/>
@@ -80000,10 +80011,10 @@
     <row r="2027" ht="14.25" customHeight="1">
       <c r="A2027" s="11"/>
       <c r="B2027" s="9"/>
-      <c r="C2027" s="30"/>
-      <c r="D2027" s="30"/>
+      <c r="C2027" s="32"/>
+      <c r="D2027" s="32"/>
       <c r="E2027" s="9"/>
-      <c r="F2027" s="31"/>
+      <c r="F2027" s="33"/>
       <c r="G2027" s="11"/>
       <c r="H2027" s="11"/>
       <c r="I2027" s="29"/>
@@ -80026,10 +80037,10 @@
     <row r="2028" ht="14.25" customHeight="1">
       <c r="A2028" s="11"/>
       <c r="B2028" s="9"/>
-      <c r="C2028" s="30"/>
-      <c r="D2028" s="30"/>
+      <c r="C2028" s="32"/>
+      <c r="D2028" s="32"/>
       <c r="E2028" s="9"/>
-      <c r="F2028" s="31"/>
+      <c r="F2028" s="33"/>
       <c r="G2028" s="11"/>
       <c r="H2028" s="11"/>
       <c r="I2028" s="29"/>
@@ -80052,10 +80063,10 @@
     <row r="2029" ht="14.25" customHeight="1">
       <c r="A2029" s="11"/>
       <c r="B2029" s="9"/>
-      <c r="C2029" s="30"/>
-      <c r="D2029" s="30"/>
+      <c r="C2029" s="32"/>
+      <c r="D2029" s="32"/>
       <c r="E2029" s="9"/>
-      <c r="F2029" s="31"/>
+      <c r="F2029" s="33"/>
       <c r="G2029" s="11"/>
       <c r="H2029" s="11"/>
       <c r="I2029" s="29"/>
@@ -80078,10 +80089,10 @@
     <row r="2030" ht="14.25" customHeight="1">
       <c r="A2030" s="11"/>
       <c r="B2030" s="9"/>
-      <c r="C2030" s="30"/>
-      <c r="D2030" s="30"/>
+      <c r="C2030" s="32"/>
+      <c r="D2030" s="32"/>
       <c r="E2030" s="9"/>
-      <c r="F2030" s="31"/>
+      <c r="F2030" s="33"/>
       <c r="G2030" s="11"/>
       <c r="H2030" s="11"/>
       <c r="I2030" s="29"/>
@@ -80104,10 +80115,10 @@
     <row r="2031" ht="14.25" customHeight="1">
       <c r="A2031" s="11"/>
       <c r="B2031" s="9"/>
-      <c r="C2031" s="30"/>
-      <c r="D2031" s="30"/>
+      <c r="C2031" s="32"/>
+      <c r="D2031" s="32"/>
       <c r="E2031" s="9"/>
-      <c r="F2031" s="31"/>
+      <c r="F2031" s="33"/>
       <c r="G2031" s="11"/>
       <c r="H2031" s="11"/>
       <c r="I2031" s="29"/>
@@ -80130,10 +80141,10 @@
     <row r="2032" ht="14.25" customHeight="1">
       <c r="A2032" s="11"/>
       <c r="B2032" s="9"/>
-      <c r="C2032" s="30"/>
-      <c r="D2032" s="30"/>
+      <c r="C2032" s="32"/>
+      <c r="D2032" s="32"/>
       <c r="E2032" s="9"/>
-      <c r="F2032" s="31"/>
+      <c r="F2032" s="33"/>
       <c r="G2032" s="11"/>
       <c r="H2032" s="11"/>
       <c r="I2032" s="29"/>
@@ -80156,10 +80167,10 @@
     <row r="2033" ht="14.25" customHeight="1">
       <c r="A2033" s="11"/>
       <c r="B2033" s="9"/>
-      <c r="C2033" s="30"/>
-      <c r="D2033" s="30"/>
+      <c r="C2033" s="32"/>
+      <c r="D2033" s="32"/>
       <c r="E2033" s="9"/>
-      <c r="F2033" s="31"/>
+      <c r="F2033" s="33"/>
       <c r="G2033" s="11"/>
       <c r="H2033" s="11"/>
       <c r="I2033" s="29"/>
@@ -80182,10 +80193,10 @@
     <row r="2034" ht="14.25" customHeight="1">
       <c r="A2034" s="11"/>
       <c r="B2034" s="9"/>
-      <c r="C2034" s="30"/>
-      <c r="D2034" s="30"/>
+      <c r="C2034" s="32"/>
+      <c r="D2034" s="32"/>
       <c r="E2034" s="9"/>
-      <c r="F2034" s="31"/>
+      <c r="F2034" s="33"/>
       <c r="G2034" s="11"/>
       <c r="H2034" s="11"/>
       <c r="I2034" s="29"/>
@@ -80208,10 +80219,10 @@
     <row r="2035" ht="14.25" customHeight="1">
       <c r="A2035" s="11"/>
       <c r="B2035" s="9"/>
-      <c r="C2035" s="30"/>
-      <c r="D2035" s="30"/>
+      <c r="C2035" s="32"/>
+      <c r="D2035" s="32"/>
       <c r="E2035" s="9"/>
-      <c r="F2035" s="31"/>
+      <c r="F2035" s="33"/>
       <c r="G2035" s="11"/>
       <c r="H2035" s="11"/>
       <c r="I2035" s="29"/>
@@ -80234,10 +80245,10 @@
     <row r="2036" ht="14.25" customHeight="1">
       <c r="A2036" s="11"/>
       <c r="B2036" s="9"/>
-      <c r="C2036" s="30"/>
-      <c r="D2036" s="30"/>
+      <c r="C2036" s="32"/>
+      <c r="D2036" s="32"/>
       <c r="E2036" s="9"/>
-      <c r="F2036" s="31"/>
+      <c r="F2036" s="33"/>
       <c r="G2036" s="11"/>
       <c r="H2036" s="11"/>
       <c r="I2036" s="29"/>
@@ -80260,10 +80271,10 @@
     <row r="2037" ht="14.25" customHeight="1">
       <c r="A2037" s="11"/>
       <c r="B2037" s="9"/>
-      <c r="C2037" s="30"/>
-      <c r="D2037" s="30"/>
+      <c r="C2037" s="32"/>
+      <c r="D2037" s="32"/>
       <c r="E2037" s="9"/>
-      <c r="F2037" s="31"/>
+      <c r="F2037" s="33"/>
       <c r="G2037" s="11"/>
       <c r="H2037" s="11"/>
       <c r="I2037" s="29"/>
@@ -80286,10 +80297,10 @@
     <row r="2038" ht="14.25" customHeight="1">
       <c r="A2038" s="11"/>
       <c r="B2038" s="9"/>
-      <c r="C2038" s="30"/>
-      <c r="D2038" s="30"/>
+      <c r="C2038" s="32"/>
+      <c r="D2038" s="32"/>
       <c r="E2038" s="9"/>
-      <c r="F2038" s="31"/>
+      <c r="F2038" s="33"/>
       <c r="G2038" s="11"/>
       <c r="H2038" s="11"/>
       <c r="I2038" s="29"/>
@@ -80312,10 +80323,10 @@
     <row r="2039" ht="14.25" customHeight="1">
       <c r="A2039" s="11"/>
       <c r="B2039" s="9"/>
-      <c r="C2039" s="30"/>
-      <c r="D2039" s="30"/>
+      <c r="C2039" s="32"/>
+      <c r="D2039" s="32"/>
       <c r="E2039" s="9"/>
-      <c r="F2039" s="31"/>
+      <c r="F2039" s="33"/>
       <c r="G2039" s="11"/>
       <c r="H2039" s="11"/>
       <c r="I2039" s="29"/>
@@ -80338,10 +80349,10 @@
     <row r="2040" ht="14.25" customHeight="1">
       <c r="A2040" s="11"/>
       <c r="B2040" s="9"/>
-      <c r="C2040" s="30"/>
-      <c r="D2040" s="30"/>
+      <c r="C2040" s="32"/>
+      <c r="D2040" s="32"/>
       <c r="E2040" s="9"/>
-      <c r="F2040" s="31"/>
+      <c r="F2040" s="33"/>
       <c r="G2040" s="11"/>
       <c r="H2040" s="11"/>
       <c r="I2040" s="29"/>
@@ -80364,10 +80375,10 @@
     <row r="2041" ht="14.25" customHeight="1">
       <c r="A2041" s="11"/>
       <c r="B2041" s="9"/>
-      <c r="C2041" s="30"/>
-      <c r="D2041" s="30"/>
+      <c r="C2041" s="32"/>
+      <c r="D2041" s="32"/>
       <c r="E2041" s="9"/>
-      <c r="F2041" s="31"/>
+      <c r="F2041" s="33"/>
       <c r="G2041" s="11"/>
       <c r="H2041" s="11"/>
       <c r="I2041" s="29"/>
@@ -80390,10 +80401,10 @@
     <row r="2042" ht="14.25" customHeight="1">
       <c r="A2042" s="11"/>
       <c r="B2042" s="9"/>
-      <c r="C2042" s="30"/>
-      <c r="D2042" s="30"/>
+      <c r="C2042" s="32"/>
+      <c r="D2042" s="32"/>
       <c r="E2042" s="9"/>
-      <c r="F2042" s="31"/>
+      <c r="F2042" s="33"/>
       <c r="G2042" s="11"/>
       <c r="H2042" s="11"/>
       <c r="I2042" s="29"/>
@@ -80416,10 +80427,10 @@
     <row r="2043" ht="14.25" customHeight="1">
       <c r="A2043" s="11"/>
       <c r="B2043" s="9"/>
-      <c r="C2043" s="30"/>
-      <c r="D2043" s="30"/>
+      <c r="C2043" s="32"/>
+      <c r="D2043" s="32"/>
       <c r="E2043" s="9"/>
-      <c r="F2043" s="31"/>
+      <c r="F2043" s="33"/>
       <c r="G2043" s="11"/>
       <c r="H2043" s="11"/>
       <c r="I2043" s="29"/>
@@ -80442,10 +80453,10 @@
     <row r="2044" ht="14.25" customHeight="1">
       <c r="A2044" s="11"/>
       <c r="B2044" s="9"/>
-      <c r="C2044" s="30"/>
-      <c r="D2044" s="30"/>
+      <c r="C2044" s="32"/>
+      <c r="D2044" s="32"/>
       <c r="E2044" s="9"/>
-      <c r="F2044" s="31"/>
+      <c r="F2044" s="33"/>
       <c r="G2044" s="11"/>
       <c r="H2044" s="11"/>
       <c r="I2044" s="29"/>
@@ -80468,10 +80479,10 @@
     <row r="2045" ht="14.25" customHeight="1">
       <c r="A2045" s="11"/>
       <c r="B2045" s="9"/>
-      <c r="C2045" s="30"/>
-      <c r="D2045" s="30"/>
+      <c r="C2045" s="32"/>
+      <c r="D2045" s="32"/>
       <c r="E2045" s="9"/>
-      <c r="F2045" s="31"/>
+      <c r="F2045" s="33"/>
       <c r="G2045" s="11"/>
       <c r="H2045" s="11"/>
       <c r="I2045" s="29"/>
@@ -80494,10 +80505,10 @@
     <row r="2046" ht="14.25" customHeight="1">
       <c r="A2046" s="11"/>
       <c r="B2046" s="9"/>
-      <c r="C2046" s="30"/>
-      <c r="D2046" s="30"/>
+      <c r="C2046" s="32"/>
+      <c r="D2046" s="32"/>
       <c r="E2046" s="9"/>
-      <c r="F2046" s="31"/>
+      <c r="F2046" s="33"/>
       <c r="G2046" s="11"/>
       <c r="H2046" s="11"/>
       <c r="I2046" s="29"/>
@@ -80520,10 +80531,10 @@
     <row r="2047" ht="14.25" customHeight="1">
       <c r="A2047" s="11"/>
       <c r="B2047" s="9"/>
-      <c r="C2047" s="30"/>
-      <c r="D2047" s="30"/>
+      <c r="C2047" s="32"/>
+      <c r="D2047" s="32"/>
       <c r="E2047" s="9"/>
-      <c r="F2047" s="31"/>
+      <c r="F2047" s="33"/>
       <c r="G2047" s="11"/>
       <c r="H2047" s="11"/>
       <c r="I2047" s="29"/>
@@ -80546,10 +80557,10 @@
     <row r="2048" ht="14.25" customHeight="1">
       <c r="A2048" s="11"/>
       <c r="B2048" s="9"/>
-      <c r="C2048" s="30"/>
-      <c r="D2048" s="30"/>
+      <c r="C2048" s="32"/>
+      <c r="D2048" s="32"/>
       <c r="E2048" s="9"/>
-      <c r="F2048" s="31"/>
+      <c r="F2048" s="33"/>
       <c r="G2048" s="11"/>
       <c r="H2048" s="11"/>
       <c r="I2048" s="29"/>
@@ -80572,10 +80583,10 @@
     <row r="2049" ht="14.25" customHeight="1">
       <c r="A2049" s="11"/>
       <c r="B2049" s="9"/>
-      <c r="C2049" s="30"/>
-      <c r="D2049" s="30"/>
+      <c r="C2049" s="32"/>
+      <c r="D2049" s="32"/>
       <c r="E2049" s="9"/>
-      <c r="F2049" s="31"/>
+      <c r="F2049" s="33"/>
       <c r="G2049" s="11"/>
       <c r="H2049" s="11"/>
       <c r="I2049" s="29"/>
@@ -80598,10 +80609,10 @@
     <row r="2050" ht="14.25" customHeight="1">
       <c r="A2050" s="11"/>
       <c r="B2050" s="9"/>
-      <c r="C2050" s="30"/>
-      <c r="D2050" s="30"/>
+      <c r="C2050" s="32"/>
+      <c r="D2050" s="32"/>
       <c r="E2050" s="9"/>
-      <c r="F2050" s="31"/>
+      <c r="F2050" s="33"/>
       <c r="G2050" s="11"/>
       <c r="H2050" s="11"/>
       <c r="I2050" s="29"/>
@@ -80624,10 +80635,10 @@
     <row r="2051" ht="14.25" customHeight="1">
       <c r="A2051" s="11"/>
       <c r="B2051" s="9"/>
-      <c r="C2051" s="30"/>
-      <c r="D2051" s="30"/>
+      <c r="C2051" s="32"/>
+      <c r="D2051" s="32"/>
       <c r="E2051" s="9"/>
-      <c r="F2051" s="31"/>
+      <c r="F2051" s="33"/>
       <c r="G2051" s="11"/>
       <c r="H2051" s="11"/>
       <c r="I2051" s="29"/>
@@ -80650,10 +80661,10 @@
     <row r="2052" ht="14.25" customHeight="1">
       <c r="A2052" s="11"/>
       <c r="B2052" s="9"/>
-      <c r="C2052" s="30"/>
-      <c r="D2052" s="30"/>
+      <c r="C2052" s="32"/>
+      <c r="D2052" s="32"/>
       <c r="E2052" s="9"/>
-      <c r="F2052" s="31"/>
+      <c r="F2052" s="33"/>
       <c r="G2052" s="11"/>
       <c r="H2052" s="11"/>
       <c r="I2052" s="29"/>
@@ -80676,10 +80687,10 @@
     <row r="2053" ht="14.25" customHeight="1">
       <c r="A2053" s="11"/>
       <c r="B2053" s="9"/>
-      <c r="C2053" s="30"/>
-      <c r="D2053" s="30"/>
+      <c r="C2053" s="32"/>
+      <c r="D2053" s="32"/>
       <c r="E2053" s="9"/>
-      <c r="F2053" s="31"/>
+      <c r="F2053" s="33"/>
       <c r="G2053" s="11"/>
       <c r="H2053" s="11"/>
       <c r="I2053" s="29"/>
@@ -80702,10 +80713,10 @@
     <row r="2054" ht="14.25" customHeight="1">
       <c r="A2054" s="11"/>
       <c r="B2054" s="9"/>
-      <c r="C2054" s="30"/>
-      <c r="D2054" s="30"/>
+      <c r="C2054" s="32"/>
+      <c r="D2054" s="32"/>
       <c r="E2054" s="9"/>
-      <c r="F2054" s="31"/>
+      <c r="F2054" s="33"/>
       <c r="G2054" s="11"/>
       <c r="H2054" s="11"/>
       <c r="I2054" s="29"/>
@@ -80728,10 +80739,10 @@
     <row r="2055" ht="14.25" customHeight="1">
       <c r="A2055" s="11"/>
       <c r="B2055" s="9"/>
-      <c r="C2055" s="30"/>
-      <c r="D2055" s="30"/>
+      <c r="C2055" s="32"/>
+      <c r="D2055" s="32"/>
       <c r="E2055" s="9"/>
-      <c r="F2055" s="31"/>
+      <c r="F2055" s="33"/>
       <c r="G2055" s="11"/>
       <c r="H2055" s="11"/>
       <c r="I2055" s="29"/>
@@ -80754,10 +80765,10 @@
     <row r="2056" ht="14.25" customHeight="1">
       <c r="A2056" s="11"/>
       <c r="B2056" s="9"/>
-      <c r="C2056" s="30"/>
-      <c r="D2056" s="30"/>
+      <c r="C2056" s="32"/>
+      <c r="D2056" s="32"/>
       <c r="E2056" s="9"/>
-      <c r="F2056" s="31"/>
+      <c r="F2056" s="33"/>
       <c r="G2056" s="11"/>
       <c r="H2056" s="11"/>
       <c r="I2056" s="29"/>
@@ -80780,10 +80791,10 @@
     <row r="2057" ht="14.25" customHeight="1">
       <c r="A2057" s="11"/>
       <c r="B2057" s="9"/>
-      <c r="C2057" s="30"/>
-      <c r="D2057" s="30"/>
+      <c r="C2057" s="32"/>
+      <c r="D2057" s="32"/>
       <c r="E2057" s="9"/>
-      <c r="F2057" s="31"/>
+      <c r="F2057" s="33"/>
       <c r="G2057" s="11"/>
       <c r="H2057" s="11"/>
       <c r="I2057" s="29"/>
@@ -80806,10 +80817,10 @@
     <row r="2058" ht="14.25" customHeight="1">
       <c r="A2058" s="11"/>
       <c r="B2058" s="9"/>
-      <c r="C2058" s="30"/>
-      <c r="D2058" s="30"/>
+      <c r="C2058" s="32"/>
+      <c r="D2058" s="32"/>
       <c r="E2058" s="9"/>
-      <c r="F2058" s="31"/>
+      <c r="F2058" s="33"/>
       <c r="G2058" s="11"/>
       <c r="H2058" s="11"/>
       <c r="I2058" s="29"/>
@@ -80832,10 +80843,10 @@
     <row r="2059" ht="14.25" customHeight="1">
       <c r="A2059" s="11"/>
       <c r="B2059" s="9"/>
-      <c r="C2059" s="30"/>
-      <c r="D2059" s="30"/>
+      <c r="C2059" s="32"/>
+      <c r="D2059" s="32"/>
       <c r="E2059" s="9"/>
-      <c r="F2059" s="31"/>
+      <c r="F2059" s="33"/>
       <c r="G2059" s="11"/>
       <c r="H2059" s="11"/>
       <c r="I2059" s="29"/>
@@ -80858,10 +80869,10 @@
     <row r="2060" ht="14.25" customHeight="1">
       <c r="A2060" s="11"/>
       <c r="B2060" s="9"/>
-      <c r="C2060" s="30"/>
-      <c r="D2060" s="30"/>
+      <c r="C2060" s="32"/>
+      <c r="D2060" s="32"/>
       <c r="E2060" s="9"/>
-      <c r="F2060" s="31"/>
+      <c r="F2060" s="33"/>
       <c r="G2060" s="11"/>
       <c r="H2060" s="11"/>
       <c r="I2060" s="29"/>
@@ -80884,10 +80895,10 @@
     <row r="2061" ht="14.25" customHeight="1">
       <c r="A2061" s="11"/>
       <c r="B2061" s="9"/>
-      <c r="C2061" s="30"/>
-      <c r="D2061" s="30"/>
+      <c r="C2061" s="32"/>
+      <c r="D2061" s="32"/>
       <c r="E2061" s="9"/>
-      <c r="F2061" s="31"/>
+      <c r="F2061" s="33"/>
       <c r="G2061" s="11"/>
       <c r="H2061" s="11"/>
       <c r="I2061" s="29"/>
@@ -80910,10 +80921,10 @@
     <row r="2062" ht="14.25" customHeight="1">
       <c r="A2062" s="11"/>
       <c r="B2062" s="9"/>
-      <c r="C2062" s="30"/>
-      <c r="D2062" s="30"/>
+      <c r="C2062" s="32"/>
+      <c r="D2062" s="32"/>
       <c r="E2062" s="9"/>
-      <c r="F2062" s="31"/>
+      <c r="F2062" s="33"/>
       <c r="G2062" s="11"/>
       <c r="H2062" s="11"/>
       <c r="I2062" s="29"/>
@@ -80936,10 +80947,10 @@
     <row r="2063" ht="14.25" customHeight="1">
       <c r="A2063" s="11"/>
       <c r="B2063" s="9"/>
-      <c r="C2063" s="30"/>
-      <c r="D2063" s="30"/>
+      <c r="C2063" s="32"/>
+      <c r="D2063" s="32"/>
       <c r="E2063" s="9"/>
-      <c r="F2063" s="31"/>
+      <c r="F2063" s="33"/>
       <c r="G2063" s="11"/>
       <c r="H2063" s="11"/>
       <c r="I2063" s="29"/>
@@ -80962,10 +80973,10 @@
     <row r="2064" ht="14.25" customHeight="1">
       <c r="A2064" s="11"/>
       <c r="B2064" s="9"/>
-      <c r="C2064" s="30"/>
-      <c r="D2064" s="30"/>
+      <c r="C2064" s="32"/>
+      <c r="D2064" s="32"/>
       <c r="E2064" s="9"/>
-      <c r="F2064" s="31"/>
+      <c r="F2064" s="33"/>
       <c r="G2064" s="11"/>
       <c r="H2064" s="11"/>
       <c r="I2064" s="29"/>
@@ -80988,10 +80999,10 @@
     <row r="2065" ht="14.25" customHeight="1">
       <c r="A2065" s="11"/>
       <c r="B2065" s="9"/>
-      <c r="C2065" s="30"/>
-      <c r="D2065" s="30"/>
+      <c r="C2065" s="32"/>
+      <c r="D2065" s="32"/>
       <c r="E2065" s="9"/>
-      <c r="F2065" s="31"/>
+      <c r="F2065" s="33"/>
       <c r="G2065" s="11"/>
       <c r="H2065" s="11"/>
       <c r="I2065" s="29"/>
@@ -81014,10 +81025,10 @@
     <row r="2066" ht="14.25" customHeight="1">
       <c r="A2066" s="11"/>
       <c r="B2066" s="9"/>
-      <c r="C2066" s="30"/>
-      <c r="D2066" s="30"/>
+      <c r="C2066" s="32"/>
+      <c r="D2066" s="32"/>
       <c r="E2066" s="9"/>
-      <c r="F2066" s="31"/>
+      <c r="F2066" s="33"/>
       <c r="G2066" s="11"/>
       <c r="H2066" s="11"/>
       <c r="I2066" s="29"/>
@@ -81040,10 +81051,10 @@
     <row r="2067" ht="14.25" customHeight="1">
       <c r="A2067" s="11"/>
       <c r="B2067" s="9"/>
-      <c r="C2067" s="30"/>
-      <c r="D2067" s="30"/>
+      <c r="C2067" s="32"/>
+      <c r="D2067" s="32"/>
       <c r="E2067" s="9"/>
-      <c r="F2067" s="31"/>
+      <c r="F2067" s="33"/>
       <c r="G2067" s="11"/>
       <c r="H2067" s="11"/>
       <c r="I2067" s="29"/>
@@ -81066,10 +81077,10 @@
     <row r="2068" ht="14.25" customHeight="1">
       <c r="A2068" s="11"/>
       <c r="B2068" s="9"/>
-      <c r="C2068" s="30"/>
-      <c r="D2068" s="30"/>
+      <c r="C2068" s="32"/>
+      <c r="D2068" s="32"/>
       <c r="E2068" s="9"/>
-      <c r="F2068" s="31"/>
+      <c r="F2068" s="33"/>
       <c r="G2068" s="11"/>
       <c r="H2068" s="11"/>
       <c r="I2068" s="29"/>
@@ -81092,10 +81103,10 @@
     <row r="2069" ht="14.25" customHeight="1">
       <c r="A2069" s="11"/>
       <c r="B2069" s="9"/>
-      <c r="C2069" s="30"/>
-      <c r="D2069" s="30"/>
+      <c r="C2069" s="32"/>
+      <c r="D2069" s="32"/>
       <c r="E2069" s="9"/>
-      <c r="F2069" s="31"/>
+      <c r="F2069" s="33"/>
       <c r="G2069" s="11"/>
       <c r="H2069" s="11"/>
       <c r="I2069" s="29"/>
@@ -81118,10 +81129,10 @@
     <row r="2070" ht="14.25" customHeight="1">
       <c r="A2070" s="11"/>
       <c r="B2070" s="9"/>
-      <c r="C2070" s="30"/>
-      <c r="D2070" s="30"/>
+      <c r="C2070" s="32"/>
+      <c r="D2070" s="32"/>
       <c r="E2070" s="9"/>
-      <c r="F2070" s="31"/>
+      <c r="F2070" s="33"/>
       <c r="G2070" s="11"/>
       <c r="H2070" s="11"/>
       <c r="I2070" s="29"/>
@@ -81144,10 +81155,10 @@
     <row r="2071" ht="14.25" customHeight="1">
       <c r="A2071" s="11"/>
       <c r="B2071" s="9"/>
-      <c r="C2071" s="30"/>
-      <c r="D2071" s="30"/>
+      <c r="C2071" s="32"/>
+      <c r="D2071" s="32"/>
       <c r="E2071" s="9"/>
-      <c r="F2071" s="31"/>
+      <c r="F2071" s="33"/>
       <c r="G2071" s="11"/>
       <c r="H2071" s="11"/>
       <c r="I2071" s="29"/>
